--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3082" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B32DEC3D-66A8-431E-ABC1-98558AB0FA96}"/>
+  <xr:revisionPtr revIDLastSave="3132" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E403CB7-B0C4-4902-9BF7-35035178F190}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15671" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15722" uniqueCount="760">
   <si>
     <t>ANO</t>
   </si>
@@ -1442,7 +1442,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Pintura de estrutura metalicas do lava-jato, cabine de pintura e baia de tambores 200 l e 20 l.</t>
+    <t>Pintura de estruturas metalicas do lava-jato, cabine de pintura e baia de tambores 200 l e 20 l.</t>
   </si>
   <si>
     <t>AGUARDANDO PINTURA</t>
@@ -1457,7 +1457,7 @@
     <t>S63 - SSH10</t>
   </si>
   <si>
-    <t xml:space="preserve">Vazamento no corpo do cilindro e oring de conexão; trocar botoeira de emergência próxima do painel; substituir parafusos da esteira lado esquerdo; substituir óleo hidráulico  contaminado; verificar questão do horimetro; trocara válvula solenoide; extrair parafuso do macaco esférico; melhorar entrada do abastecimento do tanque de combustível (estreita); substituir sensores da gaiola frontal dos trados, para cima. </t>
+    <t xml:space="preserve">Vazamento no corpo do cilindro e oring de conexão; trocar botoeira de emergência próxima do painel; substituir parafusos da esteira lado esquerdo; substituir óleo hidráulico  contaminado; verificar questão do horimetro; trocar a válvula solenoide; extrair parafuso do macaco esférico; melhorar entrada do abastecimento do tanque de combustível (estreita); substituir sensores da gaiola frontal dos trados, para cima. </t>
   </si>
   <si>
     <t>OFICINA</t>
@@ -2119,9 +2119,6 @@
   </si>
   <si>
     <t>FAZER 02 OLHAU (LOCAL DO ROLAMENTO)NO SUPORTE DA TORRE E COMPRA DE 02 ROLAMENTOSDE REFERENCIA 6206</t>
-  </si>
-  <si>
-    <t>AGUARDANDO</t>
   </si>
   <si>
     <t>Trocandos de rolamentos e enbuchamentos do eixos do sarrilho.</t>
@@ -2460,7 +2457,37 @@
  02 hastes de percussão de 1" de 2,00 metros.</t>
   </si>
   <si>
-    <t xml:space="preserve">Videa da morca </t>
+    <t>AGUARDANDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trocar videas dos mordentes </t>
+  </si>
+  <si>
+    <t>*Arrumar a peça do compensador de rosca 
+*Fazer a troca da videa da morssa dupla.
+*Fazer um reparo ou seja um aperto na corrente central do cabeçote.
+*A esteira do lado esquerdo, do lado do painel elétrico voltou a apresentar defeito está travando.
+*Arrumar a gaiola do SPT.
+*arrumar o fim de curso está com defeito uma hora funciona e outra não.
+*Lubrificação geral de graxa..</t>
+  </si>
+  <si>
+    <t>Realizar solda na grade de proteção da hélice do motor</t>
+  </si>
+  <si>
+    <t>S35 - SS35</t>
+  </si>
+  <si>
+    <t>corretiva e preventiva para mobilização.</t>
+  </si>
+  <si>
+    <t>Fabricação de 250 luvas de percussão</t>
+  </si>
+  <si>
+    <t>Abrir entrada do pescador HW para entrada de haste HQ e Fabricação de cabeça de Bater SPT para sonda S-62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabricar escada e soldar carroceria do caminhão ID 77 </t>
   </si>
 </sst>
 </file>
@@ -2795,7 +2822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3109,6 +3136,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3734,8 +3764,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X954" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X954" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X960" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X960" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4079,10 +4109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA954"/>
+  <dimension ref="A1:AA960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J902" sqref="J902"/>
+    <sheetView tabSelected="1" topLeftCell="G916" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J954" sqref="J954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -62600,7 +62630,7 @@
         <v>48</v>
       </c>
       <c r="J810" s="3" t="s">
-        <v>441</v>
+        <v>29</v>
       </c>
       <c r="K810" s="3"/>
       <c r="L810" s="3"/>
@@ -65961,7 +65991,7 @@
         <v>35</v>
       </c>
       <c r="J870" s="3" t="s">
-        <v>431</v>
+        <v>29</v>
       </c>
       <c r="K870" s="51">
         <v>45694</v>
@@ -66691,7 +66721,7 @@
         <v>651</v>
       </c>
       <c r="J885" s="3" t="s">
-        <v>653</v>
+        <v>29</v>
       </c>
       <c r="K885" s="51">
         <v>45698</v>
@@ -66716,7 +66746,7 @@
         <v>432</v>
       </c>
       <c r="S885" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="T885" s="7">
         <v>0.39374999999999999</v>
@@ -66780,7 +66810,7 @@
       </c>
       <c r="R886" s="1"/>
       <c r="S886" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="T886" s="7">
         <v>0.33333333333333331</v>
@@ -66840,7 +66870,7 @@
       </c>
       <c r="R887" s="3"/>
       <c r="S887" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="T887" s="7">
         <v>0.67986111111111114</v>
@@ -66851,7 +66881,7 @@
         <v>439</v>
       </c>
       <c r="X887" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="888" spans="1:24">
@@ -66876,7 +66906,7 @@
         <v>31</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H888" s="3" t="s">
         <v>297</v>
@@ -66898,7 +66928,7 @@
       </c>
       <c r="R888" s="3"/>
       <c r="S888" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="T888" s="3"/>
       <c r="U888" s="3"/>
@@ -66959,10 +66989,10 @@
         <v>405</v>
       </c>
       <c r="R889" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="S889" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="S889" s="4" t="s">
-        <v>661</v>
       </c>
       <c r="T889" s="7">
         <v>0.33333333333333331</v>
@@ -66972,7 +67002,7 @@
       </c>
       <c r="V889" s="3"/>
       <c r="W889" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="X889" s="6"/>
     </row>
@@ -66998,7 +67028,7 @@
         <v>31</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H890" s="3" t="s">
         <v>297</v>
@@ -67030,7 +67060,7 @@
         <v>432</v>
       </c>
       <c r="S890" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="T890" s="7">
         <v>0.3576388888888889</v>
@@ -67064,7 +67094,7 @@
         <v>126</v>
       </c>
       <c r="G891" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H891" s="3" t="s">
         <v>297</v>
@@ -67090,7 +67120,7 @@
       </c>
       <c r="R891" s="1"/>
       <c r="S891" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="T891" s="7">
         <v>0.33333333333333331</v>
@@ -67152,13 +67182,13 @@
       </c>
       <c r="R892" s="3"/>
       <c r="S892" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="T892" s="3"/>
       <c r="U892" s="3"/>
       <c r="V892" s="3"/>
       <c r="W892" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X892" s="6"/>
     </row>
@@ -67212,7 +67242,7 @@
       </c>
       <c r="R893" s="3"/>
       <c r="S893" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="T893" s="7">
         <v>0.65277777777777779</v>
@@ -67278,7 +67308,7 @@
       </c>
       <c r="R894" s="3"/>
       <c r="S894" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T894" s="7">
         <v>0.58333333333333337</v>
@@ -67288,7 +67318,7 @@
       </c>
       <c r="V894" s="3"/>
       <c r="W894" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="X894" s="6"/>
     </row>
@@ -67340,7 +67370,7 @@
       </c>
       <c r="R895" s="3"/>
       <c r="S895" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="T895" s="7">
         <v>0.60416666666666663</v>
@@ -67350,7 +67380,7 @@
       </c>
       <c r="V895" s="3"/>
       <c r="W895" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="X895" s="6"/>
     </row>
@@ -67404,7 +67434,7 @@
       </c>
       <c r="R896" s="3"/>
       <c r="S896" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="T896" s="7">
         <v>0.65277777777777779</v>
@@ -67434,13 +67464,13 @@
         <v>45699</v>
       </c>
       <c r="E897" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F897" s="38" t="s">
         <v>391</v>
       </c>
       <c r="G897" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H897" s="38" t="s">
         <v>299</v>
@@ -67468,7 +67498,7 @@
       </c>
       <c r="R897" s="38"/>
       <c r="S897" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="T897" s="37">
         <v>0.41666666666666669</v>
@@ -67478,7 +67508,7 @@
       </c>
       <c r="V897" s="38"/>
       <c r="W897" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X897" s="27"/>
     </row>
@@ -67504,7 +67534,7 @@
         <v>544</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H898" s="3" t="s">
         <v>297</v>
@@ -67530,13 +67560,13 @@
       </c>
       <c r="R898" s="3"/>
       <c r="S898" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="T898" s="3"/>
       <c r="U898" s="3"/>
       <c r="V898" s="3"/>
       <c r="W898" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="X898" s="6"/>
     </row>
@@ -67562,7 +67592,7 @@
         <v>186</v>
       </c>
       <c r="G899" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H899" s="3" t="s">
         <v>299</v>
@@ -67588,7 +67618,7 @@
       </c>
       <c r="R899" s="3"/>
       <c r="S899" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="T899" s="7">
         <v>0.64583333333333337</v>
@@ -67598,7 +67628,7 @@
       </c>
       <c r="V899" s="3"/>
       <c r="W899" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X899" s="6"/>
     </row>
@@ -67650,7 +67680,7 @@
       </c>
       <c r="R900" s="3"/>
       <c r="S900" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T900" s="7">
         <v>0.54166666666666663</v>
@@ -67661,7 +67691,7 @@
         <v>439</v>
       </c>
       <c r="X900" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="901" spans="1:24" ht="179.25" hidden="1" customHeight="1">
@@ -67712,7 +67742,7 @@
       </c>
       <c r="R901" s="3"/>
       <c r="S901" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="T901" s="7">
         <v>0.63124999999999998</v>
@@ -67742,7 +67772,7 @@
         <v>45699.760763888888</v>
       </c>
       <c r="E902" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F902" s="3" t="s">
         <v>544</v>
@@ -67774,7 +67804,7 @@
       </c>
       <c r="R902" s="3"/>
       <c r="S902" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="T902" s="7">
         <v>0.33333333333333331</v>
@@ -67836,7 +67866,7 @@
       </c>
       <c r="R903" s="3"/>
       <c r="S903" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="T903" s="7">
         <v>0.4201388888888889</v>
@@ -67869,7 +67899,7 @@
         <v>47</v>
       </c>
       <c r="F904" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G904" s="3" t="s">
         <v>558</v>
@@ -67898,7 +67928,7 @@
       </c>
       <c r="R904" s="3"/>
       <c r="S904" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T904" s="7">
         <v>0.41666666666666669</v>
@@ -67908,7 +67938,7 @@
       </c>
       <c r="V904" s="3"/>
       <c r="W904" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="X904" s="6"/>
     </row>
@@ -67960,7 +67990,7 @@
       </c>
       <c r="R905" s="3"/>
       <c r="S905" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T905" s="7">
         <v>0.60416666666666663</v>
@@ -68018,7 +68048,7 @@
       </c>
       <c r="R906" s="3"/>
       <c r="S906" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T906" s="3"/>
       <c r="U906" s="3"/>
@@ -68080,7 +68110,7 @@
       </c>
       <c r="R907" s="3"/>
       <c r="S907" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="T907" s="7">
         <v>0.58333333333333337</v>
@@ -68116,7 +68146,7 @@
         <v>391</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H908" s="3" t="s">
         <v>299</v>
@@ -68142,7 +68172,7 @@
       </c>
       <c r="R908" s="3"/>
       <c r="S908" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T908" s="7">
         <v>0.625</v>
@@ -68152,7 +68182,7 @@
       </c>
       <c r="V908" s="3"/>
       <c r="W908" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X908" s="6"/>
     </row>
@@ -68204,7 +68234,7 @@
       </c>
       <c r="R909" s="3"/>
       <c r="S909" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="T909" s="7">
         <v>0.57430555555555551</v>
@@ -68214,7 +68244,7 @@
       </c>
       <c r="V909" s="3"/>
       <c r="W909" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X909" s="6"/>
     </row>
@@ -68268,7 +68298,7 @@
       </c>
       <c r="R910" s="3"/>
       <c r="S910" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="T910" s="7">
         <v>0.625</v>
@@ -68278,7 +68308,7 @@
       </c>
       <c r="V910" s="3"/>
       <c r="W910" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="X910" s="6"/>
     </row>
@@ -68304,7 +68334,7 @@
         <v>95</v>
       </c>
       <c r="G911" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H911" s="3" t="s">
         <v>299</v>
@@ -68332,7 +68362,7 @@
       </c>
       <c r="R911" s="3"/>
       <c r="S911" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="T911" s="7">
         <v>0.37013888888888891</v>
@@ -68342,7 +68372,7 @@
       </c>
       <c r="V911" s="3"/>
       <c r="W911" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X911" s="6"/>
     </row>
@@ -68396,7 +68426,7 @@
       </c>
       <c r="R912" s="3"/>
       <c r="S912" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="T912" s="7">
         <v>0.54166666666666663</v>
@@ -68406,7 +68436,7 @@
       </c>
       <c r="V912" s="3"/>
       <c r="W912" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X912" s="6"/>
     </row>
@@ -68458,7 +68488,7 @@
       </c>
       <c r="R913" s="3"/>
       <c r="S913" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T913" s="7">
         <v>0.45833333333333331</v>
@@ -68492,7 +68522,7 @@
         <v>391</v>
       </c>
       <c r="G914" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H914" s="3" t="s">
         <v>297</v>
@@ -68518,16 +68548,16 @@
       </c>
       <c r="R914" s="3"/>
       <c r="S914" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="T914" s="7"/>
       <c r="U914" s="3"/>
       <c r="V914" s="3"/>
       <c r="W914" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="X914" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="915" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68574,7 +68604,7 @@
       </c>
       <c r="R915" s="3"/>
       <c r="S915" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="T915" s="7"/>
       <c r="U915" s="3"/>
@@ -68602,7 +68632,7 @@
         <v>45701.614502314813</v>
       </c>
       <c r="E916" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>399</v>
@@ -68636,7 +68666,7 @@
         <v>500</v>
       </c>
       <c r="S916" s="12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="T916" s="7"/>
       <c r="U916" s="3"/>
@@ -68670,7 +68700,7 @@
         <v>544</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H917" s="3" t="s">
         <v>297</v>
@@ -68698,7 +68728,7 @@
       </c>
       <c r="R917" s="3"/>
       <c r="S917" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="T917" s="7">
         <v>0.58611111111111114</v>
@@ -68709,7 +68739,7 @@
         <v>447</v>
       </c>
       <c r="X917" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="918" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68762,7 +68792,7 @@
       </c>
       <c r="R918" s="3"/>
       <c r="S918" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="T918" s="7">
         <v>0.58333333333333337</v>
@@ -68820,7 +68850,7 @@
       </c>
       <c r="R919" s="3"/>
       <c r="S919" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="T919" s="7"/>
       <c r="U919" s="3"/>
@@ -68854,7 +68884,7 @@
         <v>334</v>
       </c>
       <c r="G920" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H920" s="3" t="s">
         <v>299</v>
@@ -68880,7 +68910,7 @@
       </c>
       <c r="R920" s="3"/>
       <c r="S920" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="T920" s="7">
         <v>0.66666666666666663</v>
@@ -68890,7 +68920,7 @@
       </c>
       <c r="V920" s="3"/>
       <c r="W920" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X920" s="6" t="s">
         <v>440</v>
@@ -68927,7 +68957,7 @@
         <v>568</v>
       </c>
       <c r="J921" s="3" t="s">
-        <v>653</v>
+        <v>29</v>
       </c>
       <c r="K921" s="51">
         <v>45702</v>
@@ -68946,7 +68976,7 @@
       </c>
       <c r="R921" s="3"/>
       <c r="S921" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="T921" s="7">
         <v>0.375</v>
@@ -68998,7 +69028,7 @@
       </c>
       <c r="L922" s="3"/>
       <c r="M922" s="51">
-        <v>45713</v>
+        <v>45729</v>
       </c>
       <c r="N922" s="3"/>
       <c r="O922" s="3"/>
@@ -69008,7 +69038,7 @@
       </c>
       <c r="R922" s="3"/>
       <c r="S922" s="12" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="T922" s="7">
         <v>0.52083333333333337</v>
@@ -69038,10 +69068,10 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E923" s="83" t="s">
+        <v>712</v>
+      </c>
+      <c r="F923" s="83" t="s">
         <v>713</v>
-      </c>
-      <c r="F923" s="83" t="s">
-        <v>714</v>
       </c>
       <c r="G923" s="83" t="s">
         <v>558</v>
@@ -69072,7 +69102,7 @@
       </c>
       <c r="R923" s="3"/>
       <c r="S923" s="102" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="T923" s="7">
         <v>0.54166666666666663</v>
@@ -69134,7 +69164,7 @@
       </c>
       <c r="R924" s="42"/>
       <c r="S924" s="103" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="T924" s="65">
         <v>0.5625</v>
@@ -69142,7 +69172,7 @@
       <c r="U924" s="42"/>
       <c r="V924" s="42"/>
       <c r="W924" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X924" s="42"/>
     </row>
@@ -69194,7 +69224,7 @@
       </c>
       <c r="R925" s="66"/>
       <c r="S925" s="104" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="T925" s="69">
         <v>0.41666666666666669</v>
@@ -69230,7 +69260,7 @@
         <v>544</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H926" s="3" t="s">
         <v>297</v>
@@ -69256,13 +69286,13 @@
       </c>
       <c r="R926" s="3"/>
       <c r="S926" s="16" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="T926" s="7"/>
       <c r="U926" s="3"/>
       <c r="V926" s="3"/>
       <c r="W926" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X926" s="6"/>
     </row>
@@ -69316,7 +69346,7 @@
       </c>
       <c r="R927" s="3"/>
       <c r="S927" s="16" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="T927" s="7"/>
       <c r="U927" s="3"/>
@@ -69350,7 +69380,7 @@
         <v>391</v>
       </c>
       <c r="G928" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H928" s="3" t="s">
         <v>297</v>
@@ -69372,7 +69402,7 @@
       </c>
       <c r="R928" s="3"/>
       <c r="S928" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="T928" s="7"/>
       <c r="U928" s="3"/>
@@ -69412,7 +69442,7 @@
         <v>297</v>
       </c>
       <c r="I929" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J929" s="46" t="s">
         <v>29</v>
@@ -69434,7 +69464,7 @@
       </c>
       <c r="R929" s="18"/>
       <c r="S929" s="17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="T929" s="22">
         <v>0.35625000000000001</v>
@@ -69445,7 +69475,7 @@
         <v>447</v>
       </c>
       <c r="X929" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="930" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69498,7 +69528,7 @@
       </c>
       <c r="R930" s="18"/>
       <c r="S930" s="17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="T930" s="22">
         <v>0.34722222222222221</v>
@@ -69508,7 +69538,7 @@
       </c>
       <c r="V930" s="19"/>
       <c r="W930" s="20" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X930" s="21"/>
     </row>
@@ -69534,7 +69564,7 @@
         <v>186</v>
       </c>
       <c r="G931" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H931" s="26" t="s">
         <v>299</v>
@@ -69562,7 +69592,7 @@
       </c>
       <c r="R931" s="26"/>
       <c r="S931" s="24" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="T931" s="25"/>
       <c r="U931" s="25"/>
@@ -69588,7 +69618,7 @@
         <v>45705.627858796295</v>
       </c>
       <c r="E932" s="26" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F932" s="26" t="s">
         <v>424</v>
@@ -69622,7 +69652,7 @@
       </c>
       <c r="R932" s="26"/>
       <c r="S932" s="24" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="T932" s="25">
         <v>0.29166666666666669</v>
@@ -69632,7 +69662,7 @@
       </c>
       <c r="V932" s="26"/>
       <c r="W932" s="23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="X932" s="23"/>
     </row>
@@ -69680,13 +69710,13 @@
       </c>
       <c r="R933" s="26"/>
       <c r="S933" s="24" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="T933" s="25"/>
       <c r="U933" s="25"/>
       <c r="V933" s="26"/>
       <c r="W933" s="23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X933" s="23"/>
     </row>
@@ -69712,7 +69742,7 @@
         <v>186</v>
       </c>
       <c r="G934" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H934" s="26" t="s">
         <v>299</v>
@@ -69734,13 +69764,13 @@
       </c>
       <c r="R934" s="26"/>
       <c r="S934" s="24" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="T934" s="25"/>
       <c r="U934" s="25"/>
       <c r="V934" s="26"/>
       <c r="W934" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X934" s="23"/>
     </row>
@@ -69788,7 +69818,7 @@
       </c>
       <c r="R935" s="26"/>
       <c r="S935" s="24" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T935" s="25"/>
       <c r="U935" s="25"/>
@@ -69842,7 +69872,7 @@
       </c>
       <c r="R936" s="26"/>
       <c r="S936" s="24" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="T936" s="25"/>
       <c r="U936" s="25"/>
@@ -69896,13 +69926,13 @@
       </c>
       <c r="R937" s="26"/>
       <c r="S937" s="24" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T937" s="25"/>
       <c r="U937" s="25"/>
       <c r="V937" s="26"/>
       <c r="W937" s="23" t="s">
-        <v>447</v>
+        <v>48</v>
       </c>
       <c r="X937" s="23" t="s">
         <v>434</v>
@@ -69954,15 +69984,17 @@
       </c>
       <c r="R938" s="26"/>
       <c r="S938" s="24" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="T938" s="25"/>
       <c r="U938" s="25"/>
       <c r="V938" s="26"/>
       <c r="W938" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="X938" s="23"/>
+        <v>48</v>
+      </c>
+      <c r="X938" s="23" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="939" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A939" s="89">
@@ -69986,7 +70018,7 @@
         <v>544</v>
       </c>
       <c r="G939" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H939" s="26" t="s">
         <v>297</v>
@@ -70010,7 +70042,7 @@
       </c>
       <c r="R939" s="26"/>
       <c r="S939" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="T939" s="25"/>
       <c r="U939" s="25"/>
@@ -70018,7 +70050,7 @@
       <c r="W939" s="23"/>
       <c r="X939" s="23"/>
     </row>
-    <row r="940" spans="1:24" ht="15" customHeight="1">
+    <row r="940" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A940" s="89">
         <f>YEAR(D940)</f>
         <v>2025</v>
@@ -70064,7 +70096,7 @@
       </c>
       <c r="R940" s="26"/>
       <c r="S940" s="24" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T940" s="25"/>
       <c r="U940" s="25"/>
@@ -70073,10 +70105,10 @@
         <v>447</v>
       </c>
       <c r="X940" s="23" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="941" spans="1:24" ht="15" customHeight="1">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="941" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A941" s="89">
         <f>YEAR(D941)</f>
         <v>2025</v>
@@ -70098,7 +70130,7 @@
         <v>544</v>
       </c>
       <c r="G941" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H941" s="26" t="s">
         <v>297</v>
@@ -70122,7 +70154,7 @@
       </c>
       <c r="R941" s="26"/>
       <c r="S941" s="24" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="T941" s="25"/>
       <c r="U941" s="25"/>
@@ -70131,7 +70163,7 @@
         <v>447</v>
       </c>
       <c r="X941" s="23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="942" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70178,7 +70210,7 @@
       </c>
       <c r="R942" s="26"/>
       <c r="S942" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="T942" s="25"/>
       <c r="U942" s="25"/>
@@ -70208,7 +70240,7 @@
         <v>544</v>
       </c>
       <c r="G943" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H943" s="26" t="s">
         <v>297</v>
@@ -70234,7 +70266,7 @@
       </c>
       <c r="R943" s="26"/>
       <c r="S943" s="24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="T943" s="25"/>
       <c r="U943" s="25"/>
@@ -70243,7 +70275,7 @@
         <v>447</v>
       </c>
       <c r="X943" s="23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="944" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70294,7 +70326,7 @@
       </c>
       <c r="R944" s="26"/>
       <c r="S944" s="24" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="T944" s="25"/>
       <c r="U944" s="25"/>
@@ -70350,7 +70382,7 @@
       </c>
       <c r="R945" s="26"/>
       <c r="S945" s="24" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="T945" s="25"/>
       <c r="U945" s="25"/>
@@ -70384,18 +70416,20 @@
         <v>186</v>
       </c>
       <c r="G946" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H946" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I946" s="26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J946" s="59" t="s">
-        <v>441</v>
-      </c>
-      <c r="K946" s="60"/>
+        <v>431</v>
+      </c>
+      <c r="K946" s="60">
+        <v>45712</v>
+      </c>
       <c r="L946" s="26"/>
       <c r="M946" s="60"/>
       <c r="N946" s="60"/>
@@ -70406,13 +70440,15 @@
       </c>
       <c r="R946" s="26"/>
       <c r="S946" s="24" t="s">
-        <v>742</v>
-      </c>
-      <c r="T946" s="25"/>
+        <v>741</v>
+      </c>
+      <c r="T946" s="25">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="U946" s="25"/>
       <c r="V946" s="26"/>
       <c r="W946" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X946" s="23" t="s">
         <v>640</v>
@@ -70462,7 +70498,7 @@
       </c>
       <c r="R947" s="26"/>
       <c r="S947" s="24" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="T947" s="25"/>
       <c r="U947" s="25"/>
@@ -70516,7 +70552,7 @@
       </c>
       <c r="R948" s="26"/>
       <c r="S948" s="24" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T948" s="25"/>
       <c r="U948" s="25"/>
@@ -70526,7 +70562,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="949" spans="1:24" ht="15" customHeight="1">
+    <row r="949" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A949" s="89">
         <f>YEAR(D949)</f>
         <v>2025</v>
@@ -70548,7 +70584,7 @@
         <v>544</v>
       </c>
       <c r="G949" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H949" s="26" t="s">
         <v>297</v>
@@ -70574,7 +70610,7 @@
       </c>
       <c r="R949" s="26"/>
       <c r="S949" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="T949" s="25"/>
       <c r="U949" s="25"/>
@@ -70583,7 +70619,7 @@
         <v>447</v>
       </c>
       <c r="X949" s="23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="950" spans="1:24" ht="15" customHeight="1">
@@ -70634,7 +70670,7 @@
       </c>
       <c r="R950" s="26"/>
       <c r="S950" s="24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="T950" s="25">
         <v>0.73611111111111116</v>
@@ -70642,10 +70678,10 @@
       <c r="U950" s="25"/>
       <c r="V950" s="26"/>
       <c r="W950" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X950" s="23" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="951" spans="1:24" ht="15" customHeight="1">
@@ -70679,9 +70715,11 @@
         <v>568</v>
       </c>
       <c r="J951" s="59" t="s">
-        <v>441</v>
-      </c>
-      <c r="K951" s="60"/>
+        <v>431</v>
+      </c>
+      <c r="K951" s="60">
+        <v>45712</v>
+      </c>
       <c r="L951" s="26"/>
       <c r="M951" s="60"/>
       <c r="N951" s="60"/>
@@ -70692,7 +70730,7 @@
       </c>
       <c r="R951" s="26"/>
       <c r="S951" s="24" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="T951" s="25"/>
       <c r="U951" s="25"/>
@@ -70701,7 +70739,7 @@
         <v>447</v>
       </c>
       <c r="X951" s="23" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="952" spans="1:24" ht="15" customHeight="1">
@@ -70750,12 +70788,14 @@
       </c>
       <c r="R952" s="26"/>
       <c r="S952" s="24" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="T952" s="25"/>
       <c r="U952" s="25"/>
       <c r="V952" s="26"/>
-      <c r="W952" s="23"/>
+      <c r="W952" s="23" t="s">
+        <v>552</v>
+      </c>
       <c r="X952" s="23" t="s">
         <v>643</v>
       </c>
@@ -70804,15 +70844,17 @@
       </c>
       <c r="R953" s="26"/>
       <c r="S953" s="24" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="T953" s="25"/>
       <c r="U953" s="25"/>
       <c r="V953" s="26"/>
-      <c r="W953" s="23"/>
+      <c r="W953" s="23" t="s">
+        <v>552</v>
+      </c>
       <c r="X953" s="23"/>
     </row>
-    <row r="954" spans="1:24" ht="15" customHeight="1">
+    <row r="954" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A954" s="89">
         <f>YEAR(D954)</f>
         <v>2025</v>
@@ -70834,7 +70876,7 @@
         <v>186</v>
       </c>
       <c r="G954" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H954" s="26" t="s">
         <v>297</v>
@@ -70843,12 +70885,14 @@
         <v>568</v>
       </c>
       <c r="J954" s="59" t="s">
-        <v>60</v>
+        <v>751</v>
       </c>
       <c r="K954" s="60"/>
       <c r="L954" s="26"/>
       <c r="M954" s="60"/>
-      <c r="N954" s="60"/>
+      <c r="N954" s="60">
+        <v>45712</v>
+      </c>
       <c r="O954" s="26"/>
       <c r="P954" s="26"/>
       <c r="Q954" s="26">
@@ -70861,8 +70905,338 @@
       <c r="T954" s="25"/>
       <c r="U954" s="25"/>
       <c r="V954" s="26"/>
-      <c r="W954" s="23"/>
+      <c r="W954" s="23" t="s">
+        <v>447</v>
+      </c>
       <c r="X954" s="23"/>
+    </row>
+    <row r="955" spans="1:24" ht="15" customHeight="1">
+      <c r="A955" s="89">
+        <f>YEAR(D955)</f>
+        <v>2025</v>
+      </c>
+      <c r="B955" s="26">
+        <f>MONTH(D955)</f>
+        <v>2</v>
+      </c>
+      <c r="C955" s="46">
+        <v>970</v>
+      </c>
+      <c r="D955" s="60">
+        <v>45709</v>
+      </c>
+      <c r="E955" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="F955" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G955" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="H955" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I955" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="J955" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="K955" s="60"/>
+      <c r="L955" s="26"/>
+      <c r="M955" s="60"/>
+      <c r="N955" s="60"/>
+      <c r="O955" s="26"/>
+      <c r="P955" s="26"/>
+      <c r="Q955" s="26">
+        <v>1574</v>
+      </c>
+      <c r="R955" s="26"/>
+      <c r="S955" s="106" t="s">
+        <v>753</v>
+      </c>
+      <c r="T955" s="25"/>
+      <c r="U955" s="25"/>
+      <c r="V955" s="26"/>
+      <c r="W955" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="X955" s="23"/>
+    </row>
+    <row r="956" spans="1:24" ht="15" customHeight="1">
+      <c r="A956" s="89">
+        <f>YEAR(D956)</f>
+        <v>2025</v>
+      </c>
+      <c r="B956" s="26">
+        <f>MONTH(D956)</f>
+        <v>2</v>
+      </c>
+      <c r="C956" s="46">
+        <v>971</v>
+      </c>
+      <c r="D956" s="60">
+        <v>45712</v>
+      </c>
+      <c r="E956" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="F956" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="G956" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="H956" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I956" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="J956" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="K956" s="60"/>
+      <c r="L956" s="26"/>
+      <c r="M956" s="60"/>
+      <c r="N956" s="60"/>
+      <c r="O956" s="26"/>
+      <c r="P956" s="26"/>
+      <c r="Q956" s="26">
+        <v>1046</v>
+      </c>
+      <c r="R956" s="26"/>
+      <c r="S956" s="24" t="s">
+        <v>754</v>
+      </c>
+      <c r="T956" s="25"/>
+      <c r="U956" s="25"/>
+      <c r="V956" s="26"/>
+      <c r="W956" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="X956" s="23"/>
+    </row>
+    <row r="957" spans="1:24" ht="15" customHeight="1">
+      <c r="A957" s="89">
+        <f>YEAR(D957)</f>
+        <v>2025</v>
+      </c>
+      <c r="B957" s="26">
+        <f>MONTH(D957)</f>
+        <v>2</v>
+      </c>
+      <c r="C957" s="46">
+        <v>972</v>
+      </c>
+      <c r="D957" s="60">
+        <v>45709</v>
+      </c>
+      <c r="E957" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="F957" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="G957" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H957" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I957" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="J957" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="K957" s="60">
+        <v>45712</v>
+      </c>
+      <c r="L957" s="26"/>
+      <c r="M957" s="60">
+        <v>45729</v>
+      </c>
+      <c r="N957" s="60"/>
+      <c r="O957" s="26"/>
+      <c r="P957" s="26"/>
+      <c r="Q957" s="26">
+        <v>863</v>
+      </c>
+      <c r="R957" s="26"/>
+      <c r="S957" s="24" t="s">
+        <v>756</v>
+      </c>
+      <c r="T957" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="U957" s="25"/>
+      <c r="V957" s="26"/>
+      <c r="W957" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="X957" s="23"/>
+    </row>
+    <row r="958" spans="1:24" ht="15" customHeight="1">
+      <c r="A958" s="89">
+        <f>YEAR(D958)</f>
+        <v>2025</v>
+      </c>
+      <c r="B958" s="26">
+        <f>MONTH(D958)</f>
+        <v>2</v>
+      </c>
+      <c r="C958" s="46">
+        <v>973</v>
+      </c>
+      <c r="D958" s="60">
+        <v>45712</v>
+      </c>
+      <c r="E958" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="F958" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="G958" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="H958" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I958" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="J958" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="K958" s="60"/>
+      <c r="L958" s="26"/>
+      <c r="M958" s="60"/>
+      <c r="N958" s="60"/>
+      <c r="O958" s="26"/>
+      <c r="P958" s="26"/>
+      <c r="Q958" s="26">
+        <v>0</v>
+      </c>
+      <c r="R958" s="26"/>
+      <c r="S958" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="T958" s="25"/>
+      <c r="U958" s="25"/>
+      <c r="V958" s="26"/>
+      <c r="W958" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="X958" s="23"/>
+    </row>
+    <row r="959" spans="1:24" ht="15" customHeight="1">
+      <c r="A959" s="89">
+        <f>YEAR(D959)</f>
+        <v>2025</v>
+      </c>
+      <c r="B959" s="26">
+        <f>MONTH(D959)</f>
+        <v>2</v>
+      </c>
+      <c r="C959" s="46">
+        <v>974</v>
+      </c>
+      <c r="D959" s="60">
+        <v>45712</v>
+      </c>
+      <c r="E959" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="F959" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="G959" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="H959" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I959" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J959" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="K959" s="60"/>
+      <c r="L959" s="26"/>
+      <c r="M959" s="60"/>
+      <c r="N959" s="60"/>
+      <c r="O959" s="26"/>
+      <c r="P959" s="26"/>
+      <c r="Q959" s="26">
+        <v>241</v>
+      </c>
+      <c r="R959" s="26"/>
+      <c r="S959" s="24" t="s">
+        <v>758</v>
+      </c>
+      <c r="T959" s="25"/>
+      <c r="U959" s="25"/>
+      <c r="V959" s="26"/>
+      <c r="W959" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="X959" s="23"/>
+    </row>
+    <row r="960" spans="1:24" ht="15" customHeight="1">
+      <c r="A960" s="89">
+        <f>YEAR(D960)</f>
+        <v>2025</v>
+      </c>
+      <c r="B960" s="26">
+        <f>MONTH(D960)</f>
+        <v>2</v>
+      </c>
+      <c r="C960" s="46">
+        <v>975</v>
+      </c>
+      <c r="D960" s="60">
+        <v>45712</v>
+      </c>
+      <c r="E960" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="F960" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="G960" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="H960" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I960" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="J960" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="K960" s="60"/>
+      <c r="L960" s="26"/>
+      <c r="M960" s="60"/>
+      <c r="N960" s="60"/>
+      <c r="O960" s="26"/>
+      <c r="P960" s="26"/>
+      <c r="Q960" s="26">
+        <v>0</v>
+      </c>
+      <c r="R960" s="26"/>
+      <c r="S960" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="T960" s="25"/>
+      <c r="U960" s="25"/>
+      <c r="V960" s="26"/>
+      <c r="W960" s="23"/>
+      <c r="X960" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
@@ -70870,7 +71244,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J954">
+  <conditionalFormatting sqref="J2:J960">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -70931,12 +71305,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -71113,6 +71481,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -71123,11 +71497,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3168" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{444F2BC2-205A-44D5-823C-BDFDFCC44CBC}"/>
+  <xr:revisionPtr revIDLastSave="3174" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEF42DE7-03E6-46AB-9F8B-28826A878784}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15772" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15776" uniqueCount="759">
   <si>
     <t>ANO</t>
   </si>
@@ -2461,6 +2461,9 @@
 Arrumar a gaiola do SPT.
 Arrumar o fim de curso está com defeito uma hora funciona e outra não.
 Lubrificação geral de graxa..</t>
+  </si>
+  <si>
+    <t>AGUARDANDO EQUIPAMENTO</t>
   </si>
   <si>
     <t>Realizar solda na grade de proteção da hélice do motor</t>
@@ -4106,8 +4109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
   <dimension ref="A1:AA961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L590" sqref="L590:L951"/>
+    <sheetView tabSelected="1" topLeftCell="G905" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J938" sqref="J938"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -70871,7 +70874,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="953" spans="1:24" ht="15" customHeight="1">
+    <row r="953" spans="1:24" ht="33" customHeight="1">
       <c r="A953" s="87">
         <f>YEAR(D953)</f>
         <v>2025</v>
@@ -70914,7 +70917,7 @@
         <v>0</v>
       </c>
       <c r="R953" s="26"/>
-      <c r="S953" s="24" t="s">
+      <c r="S953" s="104" t="s">
         <v>747</v>
       </c>
       <c r="T953" s="25"/>
@@ -71035,7 +71038,9 @@
       <c r="W955" s="23" t="s">
         <v>692</v>
       </c>
-      <c r="X955" s="23"/>
+      <c r="X955" s="23" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="956" spans="1:24" ht="15" customHeight="1">
       <c r="A956" s="87">
@@ -71081,7 +71086,7 @@
       </c>
       <c r="R956" s="26"/>
       <c r="S956" s="24" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="T956" s="25"/>
       <c r="U956" s="25"/>
@@ -71089,7 +71094,9 @@
       <c r="W956" s="23" t="s">
         <v>692</v>
       </c>
-      <c r="X956" s="23"/>
+      <c r="X956" s="23" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="957" spans="1:24" ht="15" customHeight="1">
       <c r="A957" s="87">
@@ -71110,7 +71117,7 @@
         <v>452</v>
       </c>
       <c r="F957" s="26" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G957" s="26" t="s">
         <v>168</v>
@@ -71139,7 +71146,7 @@
       </c>
       <c r="R957" s="26"/>
       <c r="S957" s="24" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="T957" s="25">
         <v>0.375</v>
@@ -71149,7 +71156,9 @@
       <c r="W957" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="X957" s="23"/>
+      <c r="X957" s="23" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="958" spans="1:24" ht="15" customHeight="1">
       <c r="A958" s="87">
@@ -71195,7 +71204,7 @@
       </c>
       <c r="R958" s="26"/>
       <c r="S958" s="24" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="T958" s="25"/>
       <c r="U958" s="25"/>
@@ -71203,7 +71212,9 @@
       <c r="W958" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="X958" s="23"/>
+      <c r="X958" s="23" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="959" spans="1:24" ht="15" customHeight="1">
       <c r="A959" s="87">
@@ -71249,7 +71260,7 @@
       </c>
       <c r="R959" s="26"/>
       <c r="S959" s="24" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="T959" s="25"/>
       <c r="U959" s="25"/>
@@ -71303,7 +71314,7 @@
       </c>
       <c r="R960" s="26"/>
       <c r="S960" s="24" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="T960" s="25"/>
       <c r="U960" s="25"/>
@@ -71359,7 +71370,7 @@
       </c>
       <c r="R961" s="26"/>
       <c r="S961" s="104" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="T961" s="25"/>
       <c r="U961" s="25"/>
@@ -71436,12 +71447,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -71450,7 +71455,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -71627,14 +71632,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3174" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEF42DE7-03E6-46AB-9F8B-28826A878784}"/>
+  <xr:revisionPtr revIDLastSave="3236" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{065D0715-551A-4BA6-A482-6AFE77D9F741}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15776" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15847" uniqueCount="770">
   <si>
     <t>ANO</t>
   </si>
@@ -1427,6 +1427,12 @@
     <t>S39 S59 - SSH10</t>
   </si>
   <si>
+    <t>EM ANDAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numeração e pintura de cilindros de compactação laboratório </t>
+  </si>
+  <si>
     <t>Tayllor</t>
   </si>
   <si>
@@ -1436,9 +1442,6 @@
     <t>S24 - MACH 700</t>
   </si>
   <si>
-    <t>EM ANDAMENTO</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -1590,6 +1593,9 @@
   </si>
   <si>
     <t>Fabricar uma passarela acima do teto do laboratório para manutenção das centrais de ar</t>
+  </si>
+  <si>
+    <t>EM FABRICAÇÃO</t>
   </si>
   <si>
     <t>Serviço de solda em guarda corpos do caminhão ID 59</t>
@@ -2089,9 +2095,6 @@
   </si>
   <si>
     <t>Fabricar 03 rev. hw de 1 m; 02 rev. hw 50 cm e 03 hastes HQ de 70 cm</t>
-  </si>
-  <si>
-    <t>EM FABRICAÇÃO</t>
   </si>
   <si>
     <t>Soldar pegadores nas porcas da carroceria de caminhão munck</t>
@@ -2389,6 +2392,9 @@
     <t xml:space="preserve">proteção para o motor da betoneira </t>
   </si>
   <si>
+    <t>AGUARDANDO EQUIPAMENTO</t>
+  </si>
+  <si>
     <t>Soldar guarda corpos e escada do munck RMF-3J01</t>
   </si>
   <si>
@@ -2423,6 +2429,9 @@
   </si>
   <si>
     <t>Serviço de solda, guarda corpos, escada e malão do caminhão SHD-2C59</t>
+  </si>
+  <si>
+    <t>AGUARDANDO</t>
   </si>
   <si>
     <t>Trocar flange eixo principal.</t>
@@ -2441,29 +2450,26 @@
   </si>
   <si>
     <t xml:space="preserve">
-06 revestimentos HW 2,00 metros;
+ 06 revestimentos HW 2,00 metros;
  04 revestimentos HW de 1,00 metro;
  04 revestimentos HW de 1,5 metros;
  02 hastes de percussão de 1" de 1,00 metro;
  02 hastes de percussão de 1" de 2,00 metros.</t>
   </si>
   <si>
-    <t>AGUARDANDO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trocar videas dos mordentes </t>
   </si>
   <si>
-    <t>Arrumar a peça do compensador de rosca 
-Fazer a troca da videa da morssa dupla.
-Fazer um reparo ou seja um aperto na corrente central do cabeçote.
-A esteira do lado esquerdo, do lado do painel elétrico voltou a apresentar defeito está travando.
+    <t>AGUARDANDO RETIRADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrumar a peça do compensador de rosca 
+Fazer a troca das videas dos mordentes
+Reparo na corrente central do cabeçote.
+A esteira do lado esquerdo, do lado do painel elétrico voltou a apresentar defeito, está travando.
 Arrumar a gaiola do SPT.
-Arrumar o fim de curso está com defeito uma hora funciona e outra não.
-Lubrificação geral de graxa..</t>
-  </si>
-  <si>
-    <t>AGUARDANDO EQUIPAMENTO</t>
+Arrumar o fim de curso, está com defeito, uma hora funciona e outra não.
+Lubrificação geral </t>
   </si>
   <si>
     <t>Realizar solda na grade de proteção da hélice do motor</t>
@@ -2486,6 +2492,33 @@
   <si>
     <t>Realizar a fabricação de suporte de bolsas e capacetes com 6 ganchos.
 1 und</t>
+  </si>
+  <si>
+    <t>Melhoria na casa de produtos de lavagem</t>
+  </si>
+  <si>
+    <t>Reforma na proteção do guincho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabricar suporte de denison para manter na vertical durante pesagem na balança. </t>
+  </si>
+  <si>
+    <t>AGUARDANDO SOLDADOR</t>
+  </si>
+  <si>
+    <t>Fabricar suporte de denison para câmara úmida e prateleira para blocos indeformados.</t>
+  </si>
+  <si>
+    <t>06 trado com videa na ponta HQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reforma de prateleiras usadas para acondicionar amostras indeformadas de bloco, realizar após a entrega das outras prateleiras. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabricar 4 hastes HQ de 1,00m com uma rosca macho NW cada </t>
+  </si>
+  <si>
+    <t>Fabricar dois suportes para capacetes, sala de segurança.</t>
   </si>
 </sst>
 </file>
@@ -3762,8 +3795,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X961" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X961" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X969" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X969" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4107,10 +4140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA961"/>
+  <dimension ref="A1:AA969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G905" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J938" sqref="J938"/>
+    <sheetView tabSelected="1" topLeftCell="S958" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X964" sqref="X964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -40637,7 +40670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="500" spans="1:24" hidden="1">
+    <row r="500" spans="1:24">
       <c r="A500" s="72">
         <f>YEAR(D500)</f>
         <v>2024</v>
@@ -40668,10 +40701,10 @@
         <v>42</v>
       </c>
       <c r="J500" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="K500" s="1" t="s">
-        <v>24</v>
+        <v>428</v>
+      </c>
+      <c r="K500" s="46">
+        <v>45712</v>
       </c>
       <c r="L500" s="1" t="s">
         <v>24</v>
@@ -40694,9 +40727,11 @@
       <c r="R500" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S500" s="2"/>
-      <c r="T500" s="1" t="s">
-        <v>24</v>
+      <c r="S500" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="T500" s="8">
+        <v>0.375</v>
       </c>
       <c r="U500" s="1" t="s">
         <v>24</v>
@@ -40704,7 +40739,9 @@
       <c r="V500" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W500" s="5"/>
+      <c r="W500" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="X500" s="5" t="s">
         <v>24</v>
       </c>
@@ -41595,7 +41632,7 @@
         <v>24</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H513" s="47" t="s">
         <v>297</v>
@@ -41808,7 +41845,7 @@
         <v>24</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G516" s="1" t="s">
         <v>100</v>
@@ -46776,7 +46813,7 @@
         <v>24</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G585" s="1" t="s">
         <v>24</v>
@@ -47148,32 +47185,32 @@
         <v>48</v>
       </c>
       <c r="J590" s="47" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K590" s="46">
         <v>45643</v>
       </c>
       <c r="L590" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M590" s="46">
         <v>45712</v>
       </c>
       <c r="N590" s="1"/>
       <c r="O590" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P590" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q590" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R590" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S590" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T590" s="8">
         <v>0.40763888888888888</v>
@@ -47188,7 +47225,7 @@
         <v>48</v>
       </c>
       <c r="X590" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="591" spans="1:24" hidden="1">
@@ -48437,7 +48474,7 @@
         <v>24</v>
       </c>
       <c r="G608" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H608" s="47" t="s">
         <v>297</v>
@@ -48941,7 +48978,7 @@
         <v>76</v>
       </c>
       <c r="G615" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H615" s="47" t="s">
         <v>299</v>
@@ -49874,7 +49911,7 @@
         <v>24</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G628" s="1" t="s">
         <v>280</v>
@@ -49946,7 +49983,7 @@
         <v>24</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G629" s="1" t="s">
         <v>280</v>
@@ -52109,7 +52146,7 @@
         <v>390</v>
       </c>
       <c r="G659" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H659" s="47" t="s">
         <v>297</v>
@@ -52118,7 +52155,7 @@
         <v>28</v>
       </c>
       <c r="J659" s="47" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K659" s="46">
         <v>45642</v>
@@ -52131,7 +52168,7 @@
       <c r="Q659" s="1"/>
       <c r="R659" s="1"/>
       <c r="S659" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T659" s="8">
         <v>0.3611111111111111</v>
@@ -52143,10 +52180,10 @@
         <v>24</v>
       </c>
       <c r="W659" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X659" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="660" spans="1:24">
@@ -52180,28 +52217,28 @@
         <v>48</v>
       </c>
       <c r="J660" s="47" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K660" s="46"/>
       <c r="L660" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M660" s="46"/>
       <c r="N660" s="1"/>
       <c r="O660" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P660" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q660" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R660" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S660" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="T660" s="8"/>
       <c r="U660" s="1" t="s">
@@ -52214,7 +52251,7 @@
         <v>48</v>
       </c>
       <c r="X660" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="661" spans="1:24" hidden="1">
@@ -52896,32 +52933,32 @@
         <v>48</v>
       </c>
       <c r="J670" s="47" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K670" s="46">
         <v>45691</v>
       </c>
       <c r="L670" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M670" s="46">
         <v>45712</v>
       </c>
       <c r="N670" s="1"/>
       <c r="O670" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P670" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q670" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R670" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S670" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="T670" s="8"/>
       <c r="U670" s="1" t="s">
@@ -52934,7 +52971,7 @@
         <v>48</v>
       </c>
       <c r="X670" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="671" spans="1:24" hidden="1">
@@ -53175,7 +53212,7 @@
         <v>76</v>
       </c>
       <c r="G674" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H674" s="47" t="s">
         <v>299</v>
@@ -53532,7 +53569,7 @@
         <v>24</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G679" s="1" t="s">
         <v>275</v>
@@ -54183,7 +54220,7 @@
         <v>24</v>
       </c>
       <c r="G688" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H688" s="47" t="s">
         <v>297</v>
@@ -54336,7 +54373,7 @@
         <v>35</v>
       </c>
       <c r="J690" s="47" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K690" s="1"/>
       <c r="L690" s="1"/>
@@ -54347,7 +54384,7 @@
       <c r="Q690" s="1"/>
       <c r="R690" s="1"/>
       <c r="S690" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="T690" s="1" t="s">
         <v>24</v>
@@ -54359,10 +54396,10 @@
         <v>8479</v>
       </c>
       <c r="W690" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X690" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="691" spans="1:24" hidden="1">
@@ -56547,7 +56584,7 @@
         <v>306</v>
       </c>
       <c r="G721" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H721" s="47" t="s">
         <v>299</v>
@@ -57123,7 +57160,7 @@
         <v>306</v>
       </c>
       <c r="G729" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H729" s="47" t="s">
         <v>299</v>
@@ -57267,7 +57304,7 @@
         <v>24</v>
       </c>
       <c r="G731" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H731" s="47" t="s">
         <v>299</v>
@@ -57771,7 +57808,7 @@
         <v>306</v>
       </c>
       <c r="G738" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H738" s="18" t="s">
         <v>297</v>
@@ -58057,7 +58094,7 @@
         <v>45663</v>
       </c>
       <c r="E742" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F742" s="1" t="s">
         <v>95</v>
@@ -58097,7 +58134,7 @@
         <v>24</v>
       </c>
       <c r="S742" s="92" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="T742" s="8">
         <v>0.60416666666666663</v>
@@ -58129,13 +58166,13 @@
         <v>45663</v>
       </c>
       <c r="E743" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F743" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G743" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H743" s="1" t="s">
         <v>297</v>
@@ -58144,32 +58181,32 @@
         <v>35</v>
       </c>
       <c r="J743" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K743" s="46">
         <v>45691</v>
       </c>
       <c r="L743" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M743" s="46">
         <v>45712</v>
       </c>
       <c r="N743" s="1"/>
       <c r="O743" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P743" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q743" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R743" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S743" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T743" s="8">
         <v>0.65625</v>
@@ -58184,7 +58221,7 @@
         <v>48</v>
       </c>
       <c r="X743" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="744" spans="1:24" hidden="1">
@@ -58203,13 +58240,13 @@
         <v>45667</v>
       </c>
       <c r="E744" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F744" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G744" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H744" s="1" t="s">
         <v>297</v>
@@ -58245,7 +58282,7 @@
         <v>24</v>
       </c>
       <c r="S744" s="92" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T744" s="1" t="s">
         <v>24</v>
@@ -58277,10 +58314,10 @@
         <v>45670</v>
       </c>
       <c r="E745" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F745" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G745" s="1" t="s">
         <v>131</v>
@@ -58319,7 +58356,7 @@
         <v>24</v>
       </c>
       <c r="S745" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T745" s="1" t="s">
         <v>24</v>
@@ -58351,7 +58388,7 @@
         <v>45670</v>
       </c>
       <c r="E746" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F746" s="1" t="s">
         <v>401</v>
@@ -58393,7 +58430,7 @@
         <v>24</v>
       </c>
       <c r="S746" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="T746" s="8">
         <v>0.33333333333333331</v>
@@ -58425,7 +58462,7 @@
         <v>45670</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F747" s="1" t="s">
         <v>111</v>
@@ -58467,7 +58504,7 @@
         <v>24</v>
       </c>
       <c r="S747" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T747" s="1" t="s">
         <v>24</v>
@@ -58499,10 +58536,10 @@
         <v>45670</v>
       </c>
       <c r="E748" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F748" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G748" s="1" t="s">
         <v>426</v>
@@ -58541,7 +58578,7 @@
         <v>24</v>
       </c>
       <c r="S748" s="92" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="T748" s="1" t="s">
         <v>24</v>
@@ -58573,7 +58610,7 @@
         <v>45671</v>
       </c>
       <c r="E749" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F749" s="1" t="s">
         <v>401</v>
@@ -58588,7 +58625,7 @@
         <v>28</v>
       </c>
       <c r="J749" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K749" s="46">
         <v>45671</v>
@@ -58607,7 +58644,7 @@
         <v>2470</v>
       </c>
       <c r="S749" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="T749" s="8">
         <v>0.40625</v>
@@ -58619,10 +58656,10 @@
         <v>24</v>
       </c>
       <c r="W749" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X749" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="750" spans="1:24" hidden="1">
@@ -58641,7 +58678,7 @@
         <v>45671</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F750" s="1" t="s">
         <v>186</v>
@@ -58683,7 +58720,7 @@
         <v>24</v>
       </c>
       <c r="S750" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="T750" s="8">
         <v>0.41666666666666669</v>
@@ -58715,10 +58752,10 @@
         <v>45671</v>
       </c>
       <c r="E751" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F751" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G751" s="1" t="s">
         <v>24</v>
@@ -58757,7 +58794,7 @@
         <v>24</v>
       </c>
       <c r="S751" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="T751" s="1" t="s">
         <v>24</v>
@@ -58789,7 +58826,7 @@
         <v>45672</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F752" s="1" t="s">
         <v>279</v>
@@ -58831,7 +58868,7 @@
         <v>24</v>
       </c>
       <c r="S752" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T752" s="1" t="s">
         <v>24</v>
@@ -58863,10 +58900,10 @@
         <v>45672</v>
       </c>
       <c r="E753" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F753" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G753" s="1" t="s">
         <v>361</v>
@@ -58905,7 +58942,7 @@
         <v>24</v>
       </c>
       <c r="S753" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="T753" s="8">
         <v>0.33333333333333331</v>
@@ -58937,7 +58974,7 @@
         <v>45672</v>
       </c>
       <c r="E754" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F754" s="1" t="s">
         <v>424</v>
@@ -58979,7 +59016,7 @@
         <v>24</v>
       </c>
       <c r="S754" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T754" s="8">
         <v>0.5</v>
@@ -59011,13 +59048,13 @@
         <v>45672</v>
       </c>
       <c r="E755" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F755" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G755" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H755" s="1" t="s">
         <v>297</v>
@@ -59053,7 +59090,7 @@
         <v>24</v>
       </c>
       <c r="S755" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T755" s="1" t="s">
         <v>24</v>
@@ -59085,7 +59122,7 @@
         <v>45671</v>
       </c>
       <c r="E756" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F756" s="1" t="s">
         <v>54</v>
@@ -59124,10 +59161,10 @@
         <v>986</v>
       </c>
       <c r="R756" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="S756" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T756" s="8">
         <v>0.60416666666666663</v>
@@ -59157,13 +59194,13 @@
         <v>45672</v>
       </c>
       <c r="E757" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F757" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G757" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H757" s="1" t="s">
         <v>297</v>
@@ -59199,7 +59236,7 @@
         <v>24</v>
       </c>
       <c r="S757" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T757" s="1" t="s">
         <v>24</v>
@@ -59273,7 +59310,7 @@
         <v>24</v>
       </c>
       <c r="S758" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T758" s="1" t="s">
         <v>24</v>
@@ -59305,7 +59342,7 @@
         <v>45673</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F759" s="1" t="s">
         <v>24</v>
@@ -59320,7 +59357,7 @@
         <v>35</v>
       </c>
       <c r="J759" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K759" s="46">
         <v>45674</v>
@@ -59329,17 +59366,17 @@
       <c r="M759" s="1"/>
       <c r="N759" s="1"/>
       <c r="O759" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P759" s="1"/>
       <c r="Q759" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R759" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S759" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T759" s="8">
         <v>0.41666666666666669</v>
@@ -59351,10 +59388,10 @@
         <v>24</v>
       </c>
       <c r="W759" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X759" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="760" spans="1:24">
@@ -59373,7 +59410,7 @@
         <v>45673</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F760" s="1" t="s">
         <v>24</v>
@@ -59388,7 +59425,7 @@
         <v>35</v>
       </c>
       <c r="J760" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K760" s="46">
         <v>45674</v>
@@ -59397,17 +59434,17 @@
       <c r="M760" s="1"/>
       <c r="N760" s="1"/>
       <c r="O760" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P760" s="1"/>
       <c r="Q760" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R760" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S760" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T760" s="8">
         <v>0.34722222222222221</v>
@@ -59415,14 +59452,12 @@
       <c r="U760" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V760" s="1">
-        <v>8877</v>
-      </c>
+      <c r="V760" s="1"/>
       <c r="W760" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X760" s="11" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
     </row>
     <row r="761" spans="1:24" hidden="1">
@@ -59441,7 +59476,7 @@
         <v>45674</v>
       </c>
       <c r="E761" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F761" s="1" t="s">
         <v>24</v>
@@ -59483,7 +59518,7 @@
         <v>24</v>
       </c>
       <c r="S761" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="T761" s="1" t="s">
         <v>24</v>
@@ -59515,7 +59550,7 @@
         <v>45674</v>
       </c>
       <c r="E762" s="40" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F762" s="47" t="s">
         <v>279</v>
@@ -59557,7 +59592,7 @@
         <v>24</v>
       </c>
       <c r="S762" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="T762" s="1" t="s">
         <v>24</v>
@@ -59589,10 +59624,10 @@
         <v>45674</v>
       </c>
       <c r="E763" s="75" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F763" s="47" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G763" s="1" t="s">
         <v>280</v>
@@ -59663,10 +59698,10 @@
         <v>45673</v>
       </c>
       <c r="E764" s="40" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F764" s="47" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G764" s="3" t="s">
         <v>168</v>
@@ -59705,7 +59740,7 @@
         <v>24</v>
       </c>
       <c r="S764" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="T764" s="8">
         <v>0.33333333333333331</v>
@@ -59737,7 +59772,7 @@
         <v>45674</v>
       </c>
       <c r="E765" s="75" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F765" s="47" t="s">
         <v>219</v>
@@ -59752,7 +59787,7 @@
         <v>28</v>
       </c>
       <c r="J765" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K765" s="46">
         <v>45677</v>
@@ -59767,13 +59802,13 @@
       </c>
       <c r="P765" s="1"/>
       <c r="Q765" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="R765" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="S765" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="T765" s="8">
         <v>0.33333333333333331</v>
@@ -59785,10 +59820,10 @@
         <v>24</v>
       </c>
       <c r="W765" s="5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="X765" s="5" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="766" spans="1:24" hidden="1">
@@ -59807,7 +59842,7 @@
         <v>45674</v>
       </c>
       <c r="E766" s="40" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F766" s="47" t="s">
         <v>295</v>
@@ -59841,13 +59876,13 @@
       </c>
       <c r="P766" s="1"/>
       <c r="Q766" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="R766" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="S766" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="T766" s="8">
         <v>0.45833333333333331</v>
@@ -59879,7 +59914,7 @@
         <v>45678</v>
       </c>
       <c r="E767" s="75" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F767" s="47" t="s">
         <v>24</v>
@@ -59919,7 +59954,7 @@
         <v>24</v>
       </c>
       <c r="S767" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="T767" s="1" t="s">
         <v>24</v>
@@ -59951,7 +59986,7 @@
         <v>45678</v>
       </c>
       <c r="E768" s="40" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F768" s="47" t="s">
         <v>24</v>
@@ -59993,7 +60028,7 @@
         <v>24</v>
       </c>
       <c r="S768" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="T768" s="1" t="s">
         <v>24</v>
@@ -60025,10 +60060,10 @@
         <v>45678</v>
       </c>
       <c r="E769" s="40" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F769" s="47" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G769" s="1" t="s">
         <v>426</v>
@@ -60065,7 +60100,7 @@
         <v>24</v>
       </c>
       <c r="S769" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="T769" s="8">
         <v>0.33333333333333331</v>
@@ -60097,7 +60132,7 @@
         <v>45678</v>
       </c>
       <c r="E770" s="76" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F770" s="47" t="s">
         <v>24</v>
@@ -60171,7 +60206,7 @@
         <v>45678</v>
       </c>
       <c r="E771" s="75" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F771" s="47" t="s">
         <v>263</v>
@@ -60205,13 +60240,13 @@
       </c>
       <c r="P771" s="1"/>
       <c r="Q771" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="R771" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="S771" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="T771" s="8">
         <v>0.33333333333333331</v>
@@ -60227,7 +60262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="772" spans="1:24">
+    <row r="772" spans="1:24" hidden="1">
       <c r="A772" s="72">
         <f>YEAR(D772)</f>
         <v>2024</v>
@@ -60243,7 +60278,7 @@
         <v>45312</v>
       </c>
       <c r="E772" s="40" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F772" s="47" t="s">
         <v>24</v>
@@ -60277,7 +60312,7 @@
         <v>24</v>
       </c>
       <c r="S772" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="T772" s="1" t="s">
         <v>24</v>
@@ -60292,7 +60327,7 @@
         <v>48</v>
       </c>
       <c r="X772" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="773" spans="1:24">
@@ -60311,7 +60346,7 @@
         <v>45678</v>
       </c>
       <c r="E773" s="40" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F773" s="47" t="s">
         <v>24</v>
@@ -60326,32 +60361,32 @@
         <v>35</v>
       </c>
       <c r="J773" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K773" s="46">
         <v>45679</v>
       </c>
       <c r="L773" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M773" s="46">
         <v>45712</v>
       </c>
       <c r="N773" s="1"/>
       <c r="O773" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P773" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q773" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R773" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S773" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="T773" s="8">
         <v>0.41666666666666669</v>
@@ -60366,7 +60401,7 @@
         <v>48</v>
       </c>
       <c r="X773" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="774" spans="1:24" hidden="1">
@@ -60385,7 +60420,7 @@
         <v>45678</v>
       </c>
       <c r="E774" s="40" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F774" s="47" t="s">
         <v>24</v>
@@ -60425,7 +60460,7 @@
         <v>24</v>
       </c>
       <c r="S774" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="T774" s="1" t="s">
         <v>24</v>
@@ -60457,13 +60492,13 @@
         <v>45678</v>
       </c>
       <c r="E775" s="40" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F775" s="47" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G775" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H775" s="1" t="s">
         <v>297</v>
@@ -60499,7 +60534,7 @@
         <v>24</v>
       </c>
       <c r="S775" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="T775" s="1" t="s">
         <v>24</v>
@@ -60531,13 +60566,13 @@
         <v>45678</v>
       </c>
       <c r="E776" s="40" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F776" s="48" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G776" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H776" s="3" t="s">
         <v>297</v>
@@ -60605,7 +60640,7 @@
         <v>45678</v>
       </c>
       <c r="E777" s="40" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F777" s="48" t="s">
         <v>24</v>
@@ -60647,7 +60682,7 @@
         <v>24</v>
       </c>
       <c r="S777" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="T777" s="3" t="s">
         <v>24</v>
@@ -60679,7 +60714,7 @@
         <v>45312</v>
       </c>
       <c r="E778" s="40" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F778" s="48" t="s">
         <v>130</v>
@@ -60715,13 +60750,13 @@
         <v>24</v>
       </c>
       <c r="Q778" s="3" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="R778" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="S778" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="T778" s="7">
         <v>0.45416666666666666</v>
@@ -60753,7 +60788,7 @@
         <v>45312</v>
       </c>
       <c r="E779" s="40" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F779" s="48" t="s">
         <v>228</v>
@@ -60795,7 +60830,7 @@
         <v>24</v>
       </c>
       <c r="S779" s="4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="T779" s="7">
         <v>0.375</v>
@@ -60867,7 +60902,7 @@
         <v>24</v>
       </c>
       <c r="S780" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="T780" s="3" t="s">
         <v>24</v>
@@ -60941,7 +60976,7 @@
         <v>24</v>
       </c>
       <c r="S781" s="4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="T781" s="3" t="s">
         <v>24</v>
@@ -60973,7 +61008,7 @@
         <v>45312</v>
       </c>
       <c r="E782" s="40" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F782" s="48" t="s">
         <v>24</v>
@@ -61047,7 +61082,7 @@
         <v>45312</v>
       </c>
       <c r="E783" s="40" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F783" s="48" t="s">
         <v>24</v>
@@ -61089,7 +61124,7 @@
         <v>24</v>
       </c>
       <c r="S783" s="4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="T783" s="3" t="s">
         <v>24</v>
@@ -61121,10 +61156,10 @@
         <v>45312</v>
       </c>
       <c r="E784" s="40" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F784" s="47" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G784" s="1" t="s">
         <v>398</v>
@@ -61163,7 +61198,7 @@
         <v>24</v>
       </c>
       <c r="S784" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="T784" s="8">
         <v>0.54166666666666663</v>
@@ -61195,7 +61230,7 @@
         <v>45313</v>
       </c>
       <c r="E785" s="40" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F785" s="47" t="s">
         <v>24</v>
@@ -61237,7 +61272,7 @@
         <v>24</v>
       </c>
       <c r="S785" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="T785" s="1" t="s">
         <v>24</v>
@@ -61269,7 +61304,7 @@
         <v>45313</v>
       </c>
       <c r="E786" s="40" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F786" s="47" t="s">
         <v>24</v>
@@ -61311,7 +61346,7 @@
         <v>24</v>
       </c>
       <c r="S786" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="T786" s="1" t="s">
         <v>24</v>
@@ -61531,7 +61566,7 @@
         <v>24</v>
       </c>
       <c r="S789" s="93" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="T789" s="3" t="s">
         <v>24</v>
@@ -61576,7 +61611,7 @@
         <v>35</v>
       </c>
       <c r="J790" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K790" s="46">
         <v>45685</v>
@@ -61587,17 +61622,17 @@
       </c>
       <c r="N790" s="1"/>
       <c r="O790" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P790" s="1"/>
       <c r="Q790" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R790" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S790" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="T790" s="8">
         <v>0.56944444444444442</v>
@@ -61607,10 +61642,10 @@
         <v>9023</v>
       </c>
       <c r="W790" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X790" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="791" spans="1:24">
@@ -61642,7 +61677,7 @@
         <v>35</v>
       </c>
       <c r="J791" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K791" s="1"/>
       <c r="L791" s="1"/>
@@ -61653,16 +61688,16 @@
       <c r="Q791" s="1"/>
       <c r="R791" s="1"/>
       <c r="S791" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="T791" s="1"/>
       <c r="U791" s="1"/>
       <c r="V791" s="1"/>
       <c r="W791" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X791" s="11" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="792" spans="1:24">
@@ -61694,7 +61729,7 @@
         <v>35</v>
       </c>
       <c r="J792" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K792" s="1"/>
       <c r="L792" s="1"/>
@@ -61705,16 +61740,16 @@
       <c r="Q792" s="1"/>
       <c r="R792" s="1"/>
       <c r="S792" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="T792" s="1"/>
       <c r="U792" s="1"/>
       <c r="V792" s="1"/>
       <c r="W792" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X792" s="11" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="793" spans="1:24">
@@ -61746,7 +61781,7 @@
         <v>35</v>
       </c>
       <c r="J793" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K793" s="1"/>
       <c r="L793" s="1"/>
@@ -61757,16 +61792,16 @@
       <c r="Q793" s="1"/>
       <c r="R793" s="1"/>
       <c r="S793" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="T793" s="1"/>
       <c r="U793" s="1"/>
       <c r="V793" s="1"/>
       <c r="W793" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X793" s="11" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="794" spans="1:24">
@@ -61798,7 +61833,7 @@
         <v>35</v>
       </c>
       <c r="J794" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K794" s="1"/>
       <c r="L794" s="1"/>
@@ -61809,16 +61844,16 @@
       <c r="Q794" s="1"/>
       <c r="R794" s="1"/>
       <c r="S794" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="T794" s="1"/>
       <c r="U794" s="1"/>
       <c r="V794" s="1"/>
       <c r="W794" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X794" s="11" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="795" spans="1:24" hidden="1">
@@ -61865,7 +61900,7 @@
       <c r="Q795" s="1"/>
       <c r="R795" s="1"/>
       <c r="S795" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="T795" s="1"/>
       <c r="U795" s="1"/>
@@ -61915,7 +61950,7 @@
       <c r="Q796" s="1"/>
       <c r="R796" s="1"/>
       <c r="S796" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="T796" s="1"/>
       <c r="U796" s="1"/>
@@ -61965,7 +62000,7 @@
       <c r="Q797" s="1"/>
       <c r="R797" s="1"/>
       <c r="S797" s="93" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="T797" s="1"/>
       <c r="U797" s="1"/>
@@ -62015,7 +62050,7 @@
       <c r="Q798" s="1"/>
       <c r="R798" s="1"/>
       <c r="S798" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="T798" s="1"/>
       <c r="U798" s="1"/>
@@ -62039,19 +62074,19 @@
         <v>45680</v>
       </c>
       <c r="E799" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F799" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G799" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H799" s="1" t="s">
         <v>299</v>
       </c>
       <c r="I799" s="45" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J799" s="1" t="s">
         <v>29</v>
@@ -62071,13 +62106,13 @@
       </c>
       <c r="P799" s="1"/>
       <c r="Q799" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="R799" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="S799" s="9" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="T799" s="8">
         <v>0.5625</v>
@@ -62087,7 +62122,7 @@
       </c>
       <c r="V799" s="1"/>
       <c r="W799" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X799" s="5" t="s">
         <v>117</v>
@@ -62135,7 +62170,7 @@
       <c r="Q800" s="1"/>
       <c r="R800" s="1"/>
       <c r="S800" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="T800" s="1"/>
       <c r="U800" s="1"/>
@@ -62185,7 +62220,7 @@
       <c r="Q801" s="1"/>
       <c r="R801" s="1"/>
       <c r="S801" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="T801" s="1"/>
       <c r="U801" s="1"/>
@@ -62209,13 +62244,13 @@
         <v>45680</v>
       </c>
       <c r="E802" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F802" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G802" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H802" s="1" t="s">
         <v>297</v>
@@ -62235,13 +62270,13 @@
       <c r="Q802" s="1"/>
       <c r="R802" s="1"/>
       <c r="S802" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="T802" s="1"/>
       <c r="U802" s="1"/>
       <c r="V802" s="1"/>
       <c r="W802" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X802" s="5"/>
     </row>
@@ -62261,13 +62296,13 @@
         <v>45680</v>
       </c>
       <c r="E803" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F803" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G803" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H803" s="1" t="s">
         <v>297</v>
@@ -62287,13 +62322,13 @@
       <c r="Q803" s="1"/>
       <c r="R803" s="1"/>
       <c r="S803" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="T803" s="1"/>
       <c r="U803" s="1"/>
       <c r="V803" s="1"/>
       <c r="W803" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X803" s="5"/>
     </row>
@@ -62313,13 +62348,13 @@
         <v>45680</v>
       </c>
       <c r="E804" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F804" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G804" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H804" s="1" t="s">
         <v>297</v>
@@ -62328,7 +62363,7 @@
         <v>28</v>
       </c>
       <c r="J804" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K804" s="1"/>
       <c r="L804" s="1"/>
@@ -62339,13 +62374,13 @@
       <c r="Q804" s="1"/>
       <c r="R804" s="1"/>
       <c r="S804" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="T804" s="1"/>
       <c r="U804" s="1"/>
       <c r="V804" s="1"/>
       <c r="W804" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X804" s="5"/>
     </row>
@@ -62365,7 +62400,7 @@
         <v>45681</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F805" s="1" t="s">
         <v>25</v>
@@ -62393,7 +62428,7 @@
       <c r="Q805" s="1"/>
       <c r="R805" s="1"/>
       <c r="S805" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="T805" s="1"/>
       <c r="U805" s="1"/>
@@ -62417,10 +62452,10 @@
         <v>45681</v>
       </c>
       <c r="E806" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F806" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G806" s="1"/>
       <c r="H806" s="1" t="s">
@@ -62445,7 +62480,7 @@
       <c r="Q806" s="1"/>
       <c r="R806" s="1"/>
       <c r="S806" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="T806" s="1"/>
       <c r="U806" s="1"/>
@@ -62469,10 +62504,10 @@
         <v>45681</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F807" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G807" s="3"/>
       <c r="H807" s="3" t="s">
@@ -62517,10 +62552,10 @@
         <v>45681</v>
       </c>
       <c r="E808" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F808" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G808" s="3" t="s">
         <v>168</v>
@@ -62545,19 +62580,19 @@
       </c>
       <c r="N808" s="3"/>
       <c r="O808" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P808" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q808" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R808" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S808" s="94" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="T808" s="7">
         <v>0.375</v>
@@ -62565,10 +62600,10 @@
       <c r="U808" s="3"/>
       <c r="V808" s="3"/>
       <c r="W808" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X808" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="809" spans="1:24" hidden="1">
@@ -62587,13 +62622,13 @@
         <v>45681</v>
       </c>
       <c r="E809" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F809" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G809" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H809" s="3" t="s">
         <v>297</v>
@@ -62619,7 +62654,7 @@
       </c>
       <c r="R809" s="3"/>
       <c r="S809" s="4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="T809" s="7">
         <v>0.41666666666666669</v>
@@ -62631,7 +62666,7 @@
       <c r="W809" s="6"/>
       <c r="X809" s="6"/>
     </row>
-    <row r="810" spans="1:24">
+    <row r="810" spans="1:24" hidden="1">
       <c r="A810" s="48">
         <f>YEAR(D810)</f>
         <v>2025</v>
@@ -62650,10 +62685,10 @@
         <v>47</v>
       </c>
       <c r="F810" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G810" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H810" s="3" t="s">
         <v>297</v>
@@ -62673,7 +62708,7 @@
       <c r="Q810" s="3"/>
       <c r="R810" s="3"/>
       <c r="S810" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="T810" s="3"/>
       <c r="U810" s="3"/>
@@ -62682,7 +62717,7 @@
         <v>48</v>
       </c>
       <c r="X810" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="811" spans="1:24" hidden="1">
@@ -62701,13 +62736,13 @@
         <v>45687.534421296295</v>
       </c>
       <c r="E811" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F811" s="3" t="s">
         <v>289</v>
       </c>
       <c r="G811" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H811" s="3" t="s">
         <v>299</v>
@@ -62731,7 +62766,7 @@
       </c>
       <c r="R811" s="3"/>
       <c r="S811" s="4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="T811" s="7">
         <v>0.33333333333333331</v>
@@ -62741,7 +62776,7 @@
       </c>
       <c r="V811" s="3"/>
       <c r="W811" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X811" s="6"/>
     </row>
@@ -62761,13 +62796,13 @@
         <v>45684</v>
       </c>
       <c r="E812" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F812" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G812" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H812" s="1" t="s">
         <v>297</v>
@@ -62776,7 +62811,7 @@
         <v>35</v>
       </c>
       <c r="J812" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K812" s="1"/>
       <c r="L812" s="1"/>
@@ -62787,13 +62822,13 @@
       <c r="Q812" s="1"/>
       <c r="R812" s="1"/>
       <c r="S812" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="T812" s="1"/>
       <c r="U812" s="1"/>
       <c r="V812" s="1"/>
       <c r="W812" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X812" s="5"/>
     </row>
@@ -62813,7 +62848,7 @@
         <v>45684</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F813" s="1" t="s">
         <v>39</v>
@@ -62828,7 +62863,7 @@
         <v>35</v>
       </c>
       <c r="J813" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K813" s="46">
         <v>45702</v>
@@ -62841,7 +62876,7 @@
       <c r="Q813" s="1"/>
       <c r="R813" s="1"/>
       <c r="S813" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="T813" s="1"/>
       <c r="U813" s="1"/>
@@ -62865,13 +62900,13 @@
         <v>45684</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F814" s="1" t="s">
         <v>263</v>
       </c>
       <c r="G814" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H814" s="1" t="s">
         <v>297</v>
@@ -62895,7 +62930,7 @@
       <c r="Q814" s="1"/>
       <c r="R814" s="1"/>
       <c r="S814" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="T814" s="1"/>
       <c r="U814" s="1"/>
@@ -62919,22 +62954,22 @@
         <v>45684</v>
       </c>
       <c r="E815" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F815" s="1" t="s">
         <v>228</v>
       </c>
       <c r="G815" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H815" s="1" t="s">
         <v>297</v>
       </c>
       <c r="I815" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J815" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K815" s="46">
         <v>45685</v>
@@ -62945,17 +62980,17 @@
       </c>
       <c r="N815" s="1"/>
       <c r="O815" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P815" s="45"/>
       <c r="Q815" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R815" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S815" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="T815" s="8">
         <v>0.56944444444444442</v>
@@ -62965,10 +63000,10 @@
         <v>9023</v>
       </c>
       <c r="W815" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X815" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="816" spans="1:24">
@@ -62987,13 +63022,13 @@
         <v>45684</v>
       </c>
       <c r="E816" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F816" s="3" t="s">
         <v>279</v>
       </c>
       <c r="G816" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H816" s="3" t="s">
         <v>297</v>
@@ -63002,7 +63037,7 @@
         <v>35</v>
       </c>
       <c r="J816" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K816" s="49">
         <v>45694</v>
@@ -63013,17 +63048,17 @@
       </c>
       <c r="N816" s="3"/>
       <c r="O816" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P816" s="1"/>
       <c r="Q816" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R816" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S816" s="4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="T816" s="7">
         <v>0.58333333333333337</v>
@@ -63033,10 +63068,10 @@
         <v>8903</v>
       </c>
       <c r="W816" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X816" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="817" spans="1:24" hidden="1">
@@ -63058,10 +63093,10 @@
         <v>47</v>
       </c>
       <c r="F817" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G817" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H817" s="1" t="s">
         <v>297</v>
@@ -63083,7 +63118,7 @@
       <c r="Q817" s="1"/>
       <c r="R817" s="1"/>
       <c r="S817" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="T817" s="1"/>
       <c r="U817" s="1"/>
@@ -63107,13 +63142,13 @@
         <v>45684</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F818" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G818" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H818" s="1" t="s">
         <v>299</v>
@@ -63137,7 +63172,7 @@
       <c r="Q818" s="1"/>
       <c r="R818" s="1"/>
       <c r="S818" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="T818" s="1"/>
       <c r="U818" s="1"/>
@@ -63161,13 +63196,13 @@
         <v>45684</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F819" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G819" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H819" s="1" t="s">
         <v>297</v>
@@ -63191,7 +63226,7 @@
       <c r="Q819" s="1"/>
       <c r="R819" s="1"/>
       <c r="S819" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="T819" s="1"/>
       <c r="U819" s="1"/>
@@ -63215,13 +63250,13 @@
         <v>45684</v>
       </c>
       <c r="E820" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F820" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G820" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H820" s="1" t="s">
         <v>297</v>
@@ -63269,7 +63304,7 @@
         <v>263</v>
       </c>
       <c r="G821" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H821" s="1" t="s">
         <v>299</v>
@@ -63291,11 +63326,11 @@
       <c r="O821" s="1"/>
       <c r="P821" s="1"/>
       <c r="Q821" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="R821" s="1"/>
       <c r="S821" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="T821" s="8">
         <v>0.61111111111111116</v>
@@ -63323,13 +63358,13 @@
         <v>45684</v>
       </c>
       <c r="E822" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F822" s="1" t="s">
         <v>295</v>
       </c>
       <c r="G822" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H822" s="1" t="s">
         <v>299</v>
@@ -63351,11 +63386,11 @@
       <c r="O822" s="1"/>
       <c r="P822" s="1"/>
       <c r="Q822" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="R822" s="1"/>
       <c r="S822" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="T822" s="8">
         <v>0.33333333333333331</v>
@@ -63383,13 +63418,13 @@
         <v>45684</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F823" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G823" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H823" s="1" t="s">
         <v>299</v>
@@ -63411,11 +63446,11 @@
       <c r="O823" s="1"/>
       <c r="P823" s="1"/>
       <c r="Q823" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="R823" s="1"/>
       <c r="S823" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="T823" s="8">
         <v>0.38055555555555554</v>
@@ -63443,13 +63478,13 @@
         <v>45685</v>
       </c>
       <c r="E824" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F824" s="1" t="s">
         <v>306</v>
       </c>
       <c r="G824" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H824" s="1" t="s">
         <v>297</v>
@@ -63473,7 +63508,7 @@
       <c r="Q824" s="1"/>
       <c r="R824" s="1"/>
       <c r="S824" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="T824" s="8"/>
       <c r="U824" s="8"/>
@@ -63497,13 +63532,13 @@
         <v>45685</v>
       </c>
       <c r="E825" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F825" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G825" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H825" s="1" t="s">
         <v>297</v>
@@ -63527,7 +63562,7 @@
       <c r="Q825" s="1"/>
       <c r="R825" s="1"/>
       <c r="S825" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="T825" s="1"/>
       <c r="U825" s="1"/>
@@ -63551,13 +63586,13 @@
         <v>45685</v>
       </c>
       <c r="E826" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F826" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G826" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H826" s="1" t="s">
         <v>297</v>
@@ -63581,7 +63616,7 @@
       <c r="Q826" s="1"/>
       <c r="R826" s="1"/>
       <c r="S826" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="T826" s="1"/>
       <c r="U826" s="1"/>
@@ -63605,13 +63640,13 @@
         <v>45685</v>
       </c>
       <c r="E827" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F827" s="1" t="s">
         <v>279</v>
       </c>
       <c r="G827" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H827" s="1" t="s">
         <v>297</v>
@@ -63635,7 +63670,7 @@
       <c r="Q827" s="1"/>
       <c r="R827" s="1"/>
       <c r="S827" s="95" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="T827" s="1"/>
       <c r="U827" s="1"/>
@@ -63659,13 +63694,13 @@
         <v>45685</v>
       </c>
       <c r="E828" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F828" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H828" s="1" t="s">
         <v>299</v>
@@ -63687,11 +63722,11 @@
       <c r="O828" s="1"/>
       <c r="P828" s="1"/>
       <c r="Q828" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="R828" s="1"/>
       <c r="S828" s="13" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="T828" s="8">
         <v>0.41666666666666669</v>
@@ -63719,13 +63754,13 @@
         <v>45685</v>
       </c>
       <c r="E829" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F829" s="1" t="s">
         <v>186</v>
       </c>
       <c r="G829" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H829" s="1" t="s">
         <v>299</v>
@@ -63747,11 +63782,11 @@
       <c r="O829" s="1"/>
       <c r="P829" s="1"/>
       <c r="Q829" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="R829" s="1"/>
       <c r="S829" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="T829" s="8">
         <v>0.4375</v>
@@ -63779,13 +63814,13 @@
         <v>45685</v>
       </c>
       <c r="E830" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F830" s="1" t="s">
         <v>279</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H830" s="1" t="s">
         <v>299</v>
@@ -63805,7 +63840,7 @@
       <c r="Q830" s="1"/>
       <c r="R830" s="1"/>
       <c r="S830" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="T830" s="1"/>
       <c r="U830" s="1"/>
@@ -63829,7 +63864,7 @@
         <v>45686</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F831" s="1" t="s">
         <v>130</v>
@@ -63859,7 +63894,7 @@
       <c r="Q831" s="1"/>
       <c r="R831" s="1"/>
       <c r="S831" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="T831" s="1"/>
       <c r="U831" s="1"/>
@@ -63883,13 +63918,13 @@
         <v>45686</v>
       </c>
       <c r="E832" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F832" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G832" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H832" s="1" t="s">
         <v>297</v>
@@ -63913,7 +63948,7 @@
       <c r="Q832" s="1"/>
       <c r="R832" s="1"/>
       <c r="S832" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="T832" s="1"/>
       <c r="U832" s="1"/>
@@ -63937,13 +63972,13 @@
         <v>45686</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F833" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G833" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H833" s="1" t="s">
         <v>297</v>
@@ -63967,7 +64002,7 @@
       <c r="Q833" s="1"/>
       <c r="R833" s="1"/>
       <c r="S833" s="9" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="T833" s="1"/>
       <c r="U833" s="1"/>
@@ -63991,13 +64026,13 @@
         <v>45684</v>
       </c>
       <c r="E834" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F834" s="1" t="s">
         <v>392</v>
       </c>
       <c r="G834" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H834" s="1" t="s">
         <v>299</v>
@@ -64021,7 +64056,7 @@
       <c r="Q834" s="1"/>
       <c r="R834" s="1"/>
       <c r="S834" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="T834" s="1"/>
       <c r="U834" s="1"/>
@@ -64045,13 +64080,13 @@
         <v>45686</v>
       </c>
       <c r="E835" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F835" s="1" t="s">
         <v>279</v>
       </c>
       <c r="G835" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H835" s="1" t="s">
         <v>299</v>
@@ -64073,11 +64108,11 @@
       <c r="O835" s="1"/>
       <c r="P835" s="1"/>
       <c r="Q835" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="R835" s="1"/>
       <c r="S835" s="96" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="T835" s="97">
         <v>0.375</v>
@@ -64105,13 +64140,13 @@
         <v>45687</v>
       </c>
       <c r="E836" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F836" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G836" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H836" s="1" t="s">
         <v>297</v>
@@ -64160,7 +64195,7 @@
         <v>263</v>
       </c>
       <c r="G837" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H837" s="1" t="s">
         <v>297</v>
@@ -64202,13 +64237,13 @@
         <v>45687</v>
       </c>
       <c r="E838" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F838" s="1" t="s">
         <v>424</v>
       </c>
       <c r="G838" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H838" s="1" t="s">
         <v>297</v>
@@ -64250,13 +64285,13 @@
         <v>45686</v>
       </c>
       <c r="E839" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F839" s="1" t="s">
         <v>289</v>
       </c>
       <c r="G839" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H839" s="1" t="s">
         <v>299</v>
@@ -64313,7 +64348,7 @@
         <v>35</v>
       </c>
       <c r="J840" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K840" s="51">
         <v>45685</v>
@@ -64324,17 +64359,17 @@
       </c>
       <c r="N840" s="1"/>
       <c r="O840" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P840" s="1"/>
       <c r="Q840" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R840" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S840" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="T840" s="8">
         <v>0.33333333333333331</v>
@@ -64342,10 +64377,10 @@
       <c r="U840" s="1"/>
       <c r="V840" s="1"/>
       <c r="W840" s="5" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X840" s="11" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="841" spans="1:27" hidden="1">
@@ -64364,19 +64399,19 @@
         <v>45687.648344907408</v>
       </c>
       <c r="E841" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F841" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G841" s="52" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H841" s="1" t="s">
         <v>297</v>
       </c>
       <c r="I841" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J841" s="1" t="s">
         <v>29</v>
@@ -64414,19 +64449,19 @@
         <v>45687.649837962963</v>
       </c>
       <c r="E842" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F842" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G842" s="41" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H842" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I842" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J842" s="3" t="s">
         <v>60</v>
@@ -64464,13 +64499,13 @@
         <v>45686.686238425929</v>
       </c>
       <c r="E843" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F843" s="3" t="s">
         <v>399</v>
       </c>
       <c r="G843" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H843" s="3" t="s">
         <v>299</v>
@@ -64514,13 +64549,13 @@
         <v>45687.688009259262</v>
       </c>
       <c r="E844" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F844" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>297</v>
@@ -64564,19 +64599,19 @@
         <v>45687.725104166668</v>
       </c>
       <c r="E845" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F845" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G845" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H845" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I845" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J845" s="3" t="s">
         <v>29</v>
@@ -64614,13 +64649,13 @@
         <v>45687.776539351849</v>
       </c>
       <c r="E846" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F846" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G846" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H846" s="3" t="s">
         <v>299</v>
@@ -64664,13 +64699,13 @@
         <v>45687.818611111114</v>
       </c>
       <c r="E847" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F847" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H847" s="3" t="s">
         <v>297</v>
@@ -64714,13 +64749,13 @@
         <v>45687.872094907405</v>
       </c>
       <c r="E848" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F848" s="3" t="s">
         <v>295</v>
       </c>
       <c r="G848" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H848" s="3" t="s">
         <v>299</v>
@@ -64764,13 +64799,13 @@
         <v>45688.581076388888</v>
       </c>
       <c r="E849" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F849" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G849" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H849" s="3" t="s">
         <v>299</v>
@@ -64792,7 +64827,7 @@
       </c>
       <c r="R849" s="3"/>
       <c r="S849" s="4" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="T849" s="3"/>
       <c r="U849" s="3"/>
@@ -64816,19 +64851,19 @@
         <v>45688.670856481483</v>
       </c>
       <c r="E850" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F850" s="3" t="s">
         <v>279</v>
       </c>
       <c r="G850" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H850" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I850" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J850" s="3" t="s">
         <v>29</v>
@@ -64844,16 +64879,16 @@
       </c>
       <c r="R850" s="3"/>
       <c r="S850" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="T850" s="3"/>
       <c r="U850" s="3"/>
       <c r="V850" s="3"/>
       <c r="W850" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X850" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="851" spans="1:24" hidden="1">
@@ -64872,13 +64907,13 @@
         <v>45688.693136574075</v>
       </c>
       <c r="E851" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F851" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G851" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H851" s="3" t="s">
         <v>297</v>
@@ -64900,7 +64935,7 @@
       </c>
       <c r="R851" s="3"/>
       <c r="S851" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="T851" s="3"/>
       <c r="U851" s="3"/>
@@ -64924,19 +64959,19 @@
         <v>45691.49496527778</v>
       </c>
       <c r="E852" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F852" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G852" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H852" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I852" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J852" s="3" t="s">
         <v>60</v>
@@ -64952,16 +64987,16 @@
       </c>
       <c r="R852" s="3"/>
       <c r="S852" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="T852" s="3"/>
       <c r="U852" s="3"/>
       <c r="V852" s="3"/>
       <c r="W852" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X852" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="853" spans="1:24" hidden="1">
@@ -64980,19 +65015,19 @@
         <v>45691.503622685188</v>
       </c>
       <c r="E853" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F853" s="3" t="s">
         <v>279</v>
       </c>
       <c r="G853" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H853" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I853" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J853" s="3" t="s">
         <v>29</v>
@@ -65008,7 +65043,7 @@
       </c>
       <c r="R853" s="3"/>
       <c r="S853" s="4" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="T853" s="3"/>
       <c r="U853" s="3"/>
@@ -65032,22 +65067,22 @@
         <v>45691.557245370372</v>
       </c>
       <c r="E854" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F854" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I854" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J854" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K854" s="3"/>
       <c r="L854" s="3"/>
@@ -65060,13 +65095,13 @@
       </c>
       <c r="R854" s="3"/>
       <c r="S854" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="T854" s="3"/>
       <c r="U854" s="3"/>
       <c r="V854" s="3"/>
       <c r="W854" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X854" s="6"/>
     </row>
@@ -65086,13 +65121,13 @@
         <v>45691.588275462964</v>
       </c>
       <c r="E855" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F855" s="3" t="s">
         <v>263</v>
       </c>
       <c r="G855" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H855" s="3" t="s">
         <v>297</v>
@@ -65101,7 +65136,7 @@
         <v>42</v>
       </c>
       <c r="J855" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K855" s="49">
         <v>45700</v>
@@ -65116,14 +65151,14 @@
       </c>
       <c r="R855" s="3"/>
       <c r="S855" s="4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="T855" s="3"/>
       <c r="U855" s="3"/>
       <c r="V855" s="3"/>
       <c r="W855" s="6"/>
       <c r="X855" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="856" spans="1:24" hidden="1">
@@ -65142,13 +65177,13 @@
         <v>45691.657777777778</v>
       </c>
       <c r="E856" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F856" s="3" t="s">
         <v>295</v>
       </c>
       <c r="G856" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H856" s="3" t="s">
         <v>299</v>
@@ -65170,7 +65205,7 @@
       </c>
       <c r="R856" s="3"/>
       <c r="S856" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="T856" s="3"/>
       <c r="U856" s="3"/>
@@ -65194,22 +65229,22 @@
         <v>45691.744351851848</v>
       </c>
       <c r="E857" s="3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F857" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G857" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H857" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I857" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J857" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K857" s="49">
         <v>45700</v>
@@ -65224,7 +65259,7 @@
       </c>
       <c r="R857" s="3"/>
       <c r="S857" s="12" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="T857" s="3"/>
       <c r="U857" s="3"/>
@@ -65232,10 +65267,10 @@
         <v>9023</v>
       </c>
       <c r="W857" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X857" s="27" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="858" spans="1:24" hidden="1">
@@ -65254,13 +65289,13 @@
         <v>45691.772453703707</v>
       </c>
       <c r="E858" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F858" s="3" t="s">
         <v>76</v>
       </c>
       <c r="G858" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H858" s="3" t="s">
         <v>299</v>
@@ -65282,7 +65317,7 @@
       </c>
       <c r="R858" s="3"/>
       <c r="S858" s="4" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="T858" s="3"/>
       <c r="U858" s="3"/>
@@ -65306,19 +65341,19 @@
         <v>45692.476018518515</v>
       </c>
       <c r="E859" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F859" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G859" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H859" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I859" s="3" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="J859" s="3" t="s">
         <v>60</v>
@@ -65334,7 +65369,7 @@
       </c>
       <c r="R859" s="3"/>
       <c r="S859" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="T859" s="3"/>
       <c r="U859" s="3"/>
@@ -65358,22 +65393,22 @@
         <v>45692.569467592592</v>
       </c>
       <c r="E860" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F860" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G860" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H860" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I860" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J860" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K860" s="50">
         <v>45685</v>
@@ -65386,17 +65421,17 @@
         <v>45699</v>
       </c>
       <c r="O860" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P860" s="44"/>
       <c r="Q860" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R860" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S860" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="T860" s="7">
         <v>0.34722222222222221</v>
@@ -65404,10 +65439,10 @@
       <c r="U860" s="3"/>
       <c r="V860" s="3"/>
       <c r="W860" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X860" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="861" spans="1:24" hidden="1">
@@ -65429,10 +65464,10 @@
         <v>47</v>
       </c>
       <c r="F861" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G861" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H861" s="3" t="s">
         <v>297</v>
@@ -65454,19 +65489,19 @@
       </c>
       <c r="N861" s="3"/>
       <c r="O861" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P861" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Q861" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R861" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S861" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="T861" s="7">
         <v>0.61597222222222225</v>
@@ -65476,10 +65511,10 @@
       </c>
       <c r="V861" s="3"/>
       <c r="W861" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X861" s="27" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="862" spans="1:24" ht="30.75" hidden="1">
@@ -65498,19 +65533,19 @@
         <v>45692.706712962965</v>
       </c>
       <c r="E862" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F862" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G862" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H862" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I862" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J862" s="3" t="s">
         <v>29</v>
@@ -65526,7 +65561,7 @@
       </c>
       <c r="R862" s="1"/>
       <c r="S862" s="12" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="T862" s="3"/>
       <c r="U862" s="3"/>
@@ -65553,16 +65588,16 @@
         <v>47</v>
       </c>
       <c r="F863" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G863" s="3" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H863" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I863" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J863" s="3" t="s">
         <v>29</v>
@@ -65578,17 +65613,17 @@
         <v>45699</v>
       </c>
       <c r="O863" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P863" s="44"/>
       <c r="Q863" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R863" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S863" s="4" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="T863" s="7">
         <v>0.33333333333333331</v>
@@ -65598,10 +65633,10 @@
       </c>
       <c r="V863" s="3"/>
       <c r="W863" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X863" s="27" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="864" spans="1:24" hidden="1">
@@ -65623,16 +65658,16 @@
         <v>47</v>
       </c>
       <c r="F864" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G864" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H864" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I864" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J864" s="3" t="s">
         <v>29</v>
@@ -65648,17 +65683,17 @@
         <v>45699</v>
       </c>
       <c r="O864" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P864" s="45"/>
       <c r="Q864" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R864" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S864" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="T864" s="14">
         <v>0.33333333333333331</v>
@@ -65668,10 +65703,10 @@
       </c>
       <c r="V864" s="3"/>
       <c r="W864" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X864" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="865" spans="1:24" hidden="1">
@@ -65693,16 +65728,16 @@
         <v>47</v>
       </c>
       <c r="F865" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G865" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H865" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I865" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J865" s="3" t="s">
         <v>29</v>
@@ -65718,17 +65753,17 @@
         <v>45699</v>
       </c>
       <c r="O865" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P865" s="45"/>
       <c r="Q865" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R865" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S865" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="T865" s="14">
         <v>0.33333333333333331</v>
@@ -65738,10 +65773,10 @@
       </c>
       <c r="V865" s="3"/>
       <c r="W865" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X865" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="866" spans="1:24" ht="30.75" hidden="1">
@@ -65763,10 +65798,10 @@
         <v>47</v>
       </c>
       <c r="F866" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G866" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H866" s="3" t="s">
         <v>297</v>
@@ -65786,17 +65821,17 @@
       </c>
       <c r="N866" s="3"/>
       <c r="O866" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P866" s="45"/>
       <c r="Q866" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R866" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S866" s="12" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="T866" s="7">
         <v>0.625</v>
@@ -65804,10 +65839,10 @@
       <c r="U866" s="3"/>
       <c r="V866" s="3"/>
       <c r="W866" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X866" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="867" spans="1:24" hidden="1">
@@ -65829,16 +65864,16 @@
         <v>47</v>
       </c>
       <c r="F867" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G867" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H867" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I867" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J867" s="3" t="s">
         <v>29</v>
@@ -65854,17 +65889,17 @@
         <v>45699</v>
       </c>
       <c r="O867" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P867" s="45"/>
       <c r="Q867" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R867" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S867" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="T867" s="14">
         <v>0.33333333333333331</v>
@@ -65874,10 +65909,10 @@
       </c>
       <c r="V867" s="3"/>
       <c r="W867" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X867" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="868" spans="1:24" hidden="1">
@@ -65896,13 +65931,13 @@
         <v>45693</v>
       </c>
       <c r="E868" s="42" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F868" s="48" t="s">
         <v>99</v>
       </c>
       <c r="G868" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H868" s="3" t="s">
         <v>297</v>
@@ -65926,13 +65961,13 @@
       </c>
       <c r="R868" s="1"/>
       <c r="S868" s="28" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="T868" s="3"/>
       <c r="U868" s="3"/>
       <c r="V868" s="3"/>
       <c r="W868" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X868" s="5"/>
     </row>
@@ -65952,13 +65987,13 @@
         <v>45693</v>
       </c>
       <c r="E869" s="43" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F869" s="48" t="s">
         <v>279</v>
       </c>
       <c r="G869" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H869" s="3" t="s">
         <v>297</v>
@@ -65967,7 +66002,7 @@
         <v>35</v>
       </c>
       <c r="J869" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K869" s="49">
         <v>45700</v>
@@ -65982,17 +66017,17 @@
       <c r="Q869" s="3"/>
       <c r="R869" s="3"/>
       <c r="S869" s="28" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="T869" s="3"/>
       <c r="U869" s="3"/>
       <c r="V869" s="3"/>
       <c r="W869" s="6"/>
       <c r="X869" s="6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="870" spans="1:24">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="870" spans="1:24" hidden="1">
       <c r="A870" s="48">
         <f>YEAR(D870)</f>
         <v>2025</v>
@@ -66008,13 +66043,13 @@
         <v>45693</v>
       </c>
       <c r="E870" s="41" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F870" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G870" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H870" s="3" t="s">
         <v>297</v>
@@ -66036,16 +66071,16 @@
       <c r="Q870" s="3"/>
       <c r="R870" s="3"/>
       <c r="S870" s="29" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="T870" s="3"/>
       <c r="U870" s="3"/>
       <c r="V870" s="3"/>
       <c r="W870" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X870" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="871" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66070,13 +66105,13 @@
         <v>130</v>
       </c>
       <c r="G871" s="78" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H871" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I871" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J871" s="3" t="s">
         <v>29</v>
@@ -66096,7 +66131,7 @@
       <c r="Q871" s="3"/>
       <c r="R871" s="3"/>
       <c r="S871" s="28" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="T871" s="7">
         <v>0.66666666666666663</v>
@@ -66106,10 +66141,10 @@
       </c>
       <c r="V871" s="3"/>
       <c r="W871" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X871" s="6" t="s">
-        <v>643</v>
+        <v>484</v>
       </c>
     </row>
     <row r="872" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66128,13 +66163,13 @@
         <v>45693</v>
       </c>
       <c r="E872" s="32" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F872" s="32" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G872" s="53" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H872" s="32" t="s">
         <v>297</v>
@@ -66154,7 +66189,7 @@
       <c r="Q872" s="32"/>
       <c r="R872" s="32"/>
       <c r="S872" s="30" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="T872" s="31"/>
       <c r="U872" s="31"/>
@@ -66178,13 +66213,13 @@
         <v>45693</v>
       </c>
       <c r="E873" s="32" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F873" s="32" t="s">
         <v>95</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H873" s="32" t="s">
         <v>297</v>
@@ -66204,7 +66239,7 @@
       <c r="Q873" s="32"/>
       <c r="R873" s="32"/>
       <c r="S873" s="30" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="T873" s="31"/>
       <c r="U873" s="31"/>
@@ -66228,13 +66263,13 @@
         <v>45693</v>
       </c>
       <c r="E874" s="32" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F874" s="32" t="s">
         <v>279</v>
       </c>
       <c r="G874" s="53" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H874" s="32" t="s">
         <v>297</v>
@@ -66254,7 +66289,7 @@
       <c r="Q874" s="32"/>
       <c r="R874" s="32"/>
       <c r="S874" s="30" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="T874" s="31"/>
       <c r="U874" s="31"/>
@@ -66278,13 +66313,13 @@
         <v>45693</v>
       </c>
       <c r="E875" s="32" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F875" s="32" t="s">
         <v>279</v>
       </c>
       <c r="G875" s="53" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H875" s="32" t="s">
         <v>297</v>
@@ -66293,7 +66328,7 @@
         <v>35</v>
       </c>
       <c r="J875" s="32" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K875" s="54">
         <v>45700</v>
@@ -66306,16 +66341,16 @@
       <c r="Q875" s="32"/>
       <c r="R875" s="32"/>
       <c r="S875" s="30" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="T875" s="31"/>
       <c r="U875" s="31"/>
       <c r="V875" s="32"/>
       <c r="W875" s="33" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X875" s="34" t="s">
-        <v>643</v>
+        <v>484</v>
       </c>
     </row>
     <row r="876" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66334,13 +66369,13 @@
         <v>45693</v>
       </c>
       <c r="E876" s="32" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F876" s="32" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G876" s="53" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H876" s="32" t="s">
         <v>297</v>
@@ -66360,7 +66395,7 @@
       <c r="Q876" s="32"/>
       <c r="R876" s="32"/>
       <c r="S876" s="37" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="T876" s="31"/>
       <c r="U876" s="31"/>
@@ -66369,7 +66404,7 @@
         <v>48</v>
       </c>
       <c r="X876" s="34" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="877" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66394,7 +66429,7 @@
         <v>130</v>
       </c>
       <c r="G877" s="53" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H877" s="32" t="s">
         <v>297</v>
@@ -66414,7 +66449,7 @@
       <c r="Q877" s="32"/>
       <c r="R877" s="32"/>
       <c r="S877" s="30" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="T877" s="31"/>
       <c r="U877" s="31"/>
@@ -66678,19 +66713,19 @@
         <v>45694.829513888886</v>
       </c>
       <c r="E884" s="36" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F884" s="36" t="s">
         <v>152</v>
       </c>
       <c r="G884" s="36" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H884" s="36" t="s">
         <v>299</v>
       </c>
       <c r="I884" s="36" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J884" s="36" t="s">
         <v>29</v>
@@ -66710,7 +66745,7 @@
       </c>
       <c r="R884" s="36"/>
       <c r="S884" s="28" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="T884" s="35">
         <v>0.33333333333333331</v>
@@ -66741,16 +66776,16 @@
         <v>47</v>
       </c>
       <c r="F885" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G885" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H885" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I885" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J885" s="3" t="s">
         <v>29</v>
@@ -66766,19 +66801,19 @@
         <v>45699</v>
       </c>
       <c r="O885" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P885" s="44" t="s">
         <v>24</v>
       </c>
       <c r="Q885" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R885" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S885" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="T885" s="7">
         <v>0.39374999999999999</v>
@@ -66788,10 +66823,10 @@
       </c>
       <c r="V885" s="3"/>
       <c r="W885" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X885" s="6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="886" spans="1:24" hidden="1">
@@ -66810,13 +66845,13 @@
         <v>45695.540868055556</v>
       </c>
       <c r="E886" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F886" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G886" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H886" s="3" t="s">
         <v>299</v>
@@ -66842,7 +66877,7 @@
       </c>
       <c r="R886" s="1"/>
       <c r="S886" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="T886" s="7">
         <v>0.33333333333333331</v>
@@ -66870,22 +66905,22 @@
         <v>45695.56422453704</v>
       </c>
       <c r="E887" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F887" s="3" t="s">
         <v>306</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H887" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I887" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J887" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K887" s="49">
         <v>45699</v>
@@ -66902,7 +66937,7 @@
       </c>
       <c r="R887" s="3"/>
       <c r="S887" s="12" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="T887" s="7">
         <v>0.67986111111111114</v>
@@ -66910,10 +66945,10 @@
       <c r="U887" s="18"/>
       <c r="V887" s="3"/>
       <c r="W887" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X887" s="6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="888" spans="1:24">
@@ -66932,22 +66967,22 @@
         <v>45695.564282407409</v>
       </c>
       <c r="E888" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F888" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H888" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I888" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J888" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K888" s="3"/>
       <c r="L888" s="3"/>
@@ -66960,16 +66995,16 @@
       </c>
       <c r="R888" s="3"/>
       <c r="S888" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T888" s="3"/>
       <c r="U888" s="3"/>
       <c r="V888" s="3"/>
       <c r="W888" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X888" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="889" spans="1:24" hidden="1">
@@ -66988,19 +67023,19 @@
         <v>45695.822754629633</v>
       </c>
       <c r="E889" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F889" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G889" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H889" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I889" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J889" s="3" t="s">
         <v>29</v>
@@ -67021,10 +67056,10 @@
         <v>405</v>
       </c>
       <c r="R889" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="S889" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="T889" s="7">
         <v>0.33333333333333331</v>
@@ -67034,7 +67069,7 @@
       </c>
       <c r="V889" s="3"/>
       <c r="W889" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="X889" s="6"/>
     </row>
@@ -67054,19 +67089,19 @@
         <v>45698.469814814816</v>
       </c>
       <c r="E890" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F890" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H890" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I890" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J890" s="3" t="s">
         <v>29</v>
@@ -67080,19 +67115,19 @@
       <c r="M890" s="3"/>
       <c r="N890" s="3"/>
       <c r="O890" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P890" s="44" t="s">
         <v>24</v>
       </c>
       <c r="Q890" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R890" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S890" s="12" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T890" s="7">
         <v>0.3576388888888889</v>
@@ -67101,7 +67136,7 @@
       <c r="V890" s="3"/>
       <c r="W890" s="6"/>
       <c r="X890" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="891" spans="1:24">
@@ -67120,22 +67155,22 @@
         <v>45698.50199074074</v>
       </c>
       <c r="E891" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F891" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G891" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H891" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I891" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J891" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K891" s="49">
         <v>45700</v>
@@ -67152,7 +67187,7 @@
       </c>
       <c r="R891" s="1"/>
       <c r="S891" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="T891" s="7">
         <v>0.33333333333333331</v>
@@ -67160,10 +67195,10 @@
       <c r="U891" s="3"/>
       <c r="V891" s="3"/>
       <c r="W891" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X891" s="6" t="s">
-        <v>643</v>
+        <v>484</v>
       </c>
     </row>
     <row r="892" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -67182,19 +67217,19 @@
         <v>45698.547708333332</v>
       </c>
       <c r="E892" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F892" s="3" t="s">
         <v>279</v>
       </c>
       <c r="G892" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H892" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I892" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J892" s="3" t="s">
         <v>29</v>
@@ -67214,13 +67249,13 @@
       </c>
       <c r="R892" s="3"/>
       <c r="S892" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T892" s="3"/>
       <c r="U892" s="3"/>
       <c r="V892" s="3"/>
       <c r="W892" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="X892" s="6"/>
     </row>
@@ -67240,19 +67275,19 @@
         <v>45698.592199074075</v>
       </c>
       <c r="E893" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F893" s="3" t="s">
         <v>279</v>
       </c>
       <c r="G893" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H893" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I893" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J893" s="3" t="s">
         <v>29</v>
@@ -67274,7 +67309,7 @@
       </c>
       <c r="R893" s="3"/>
       <c r="S893" s="12" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="T893" s="7">
         <v>0.65277777777777779</v>
@@ -67284,7 +67319,7 @@
       </c>
       <c r="V893" s="3"/>
       <c r="W893" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X893" s="6"/>
     </row>
@@ -67307,10 +67342,10 @@
         <v>47</v>
       </c>
       <c r="F894" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G894" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H894" s="3" t="s">
         <v>297</v>
@@ -67340,7 +67375,7 @@
       </c>
       <c r="R894" s="3"/>
       <c r="S894" s="12" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="T894" s="7">
         <v>0.58333333333333337</v>
@@ -67350,7 +67385,7 @@
       </c>
       <c r="V894" s="3"/>
       <c r="W894" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="X894" s="6"/>
     </row>
@@ -67370,19 +67405,19 @@
         <v>45698.677777777775</v>
       </c>
       <c r="E895" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F895" s="3" t="s">
         <v>295</v>
       </c>
       <c r="G895" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H895" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I895" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J895" s="3" t="s">
         <v>29</v>
@@ -67402,7 +67437,7 @@
       </c>
       <c r="R895" s="3"/>
       <c r="S895" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="T895" s="7">
         <v>0.60416666666666663</v>
@@ -67412,7 +67447,7 @@
       </c>
       <c r="V895" s="3"/>
       <c r="W895" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="X895" s="6"/>
     </row>
@@ -67432,19 +67467,19 @@
         <v>45698.74423611111</v>
       </c>
       <c r="E896" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F896" s="3" t="s">
         <v>279</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H896" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I896" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J896" s="3" t="s">
         <v>29</v>
@@ -67466,7 +67501,7 @@
       </c>
       <c r="R896" s="3"/>
       <c r="S896" s="12" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="T896" s="7">
         <v>0.65277777777777779</v>
@@ -67476,7 +67511,7 @@
       </c>
       <c r="V896" s="3"/>
       <c r="W896" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X896" s="6"/>
     </row>
@@ -67496,13 +67531,13 @@
         <v>45699</v>
       </c>
       <c r="E897" s="36" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F897" s="36" t="s">
         <v>391</v>
       </c>
       <c r="G897" s="36" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H897" s="36" t="s">
         <v>299</v>
@@ -67530,7 +67565,7 @@
       </c>
       <c r="R897" s="36"/>
       <c r="S897" s="28" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="T897" s="35">
         <v>0.41666666666666669</v>
@@ -67540,7 +67575,7 @@
       </c>
       <c r="V897" s="36"/>
       <c r="W897" s="33" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="X897" s="27"/>
     </row>
@@ -67560,19 +67595,19 @@
         <v>45699.630613425928</v>
       </c>
       <c r="E898" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F898" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H898" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I898" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J898" s="3" t="s">
         <v>29</v>
@@ -67592,13 +67627,13 @@
       </c>
       <c r="R898" s="3"/>
       <c r="S898" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="T898" s="3"/>
       <c r="U898" s="3"/>
       <c r="V898" s="3"/>
       <c r="W898" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="X898" s="6"/>
     </row>
@@ -67618,13 +67653,13 @@
         <v>45699.714259259257</v>
       </c>
       <c r="E899" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F899" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G899" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H899" s="3" t="s">
         <v>299</v>
@@ -67650,7 +67685,7 @@
       </c>
       <c r="R899" s="3"/>
       <c r="S899" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="T899" s="7">
         <v>0.64583333333333337</v>
@@ -67660,7 +67695,7 @@
       </c>
       <c r="V899" s="3"/>
       <c r="W899" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="X899" s="6"/>
     </row>
@@ -67680,13 +67715,13 @@
         <v>45699.736643518518</v>
       </c>
       <c r="E900" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F900" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G900" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H900" s="3" t="s">
         <v>297</v>
@@ -67695,7 +67730,7 @@
         <v>117</v>
       </c>
       <c r="J900" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K900" s="49">
         <v>45702</v>
@@ -67712,7 +67747,7 @@
       </c>
       <c r="R900" s="3"/>
       <c r="S900" s="12" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="T900" s="7">
         <v>0.54166666666666663</v>
@@ -67720,10 +67755,10 @@
       <c r="U900" s="3"/>
       <c r="V900" s="3"/>
       <c r="W900" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X900" s="38" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="901" spans="1:24" ht="179.25" hidden="1" customHeight="1">
@@ -67742,19 +67777,19 @@
         <v>45699.756458333337</v>
       </c>
       <c r="E901" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F901" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G901" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H901" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I901" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J901" s="3" t="s">
         <v>29</v>
@@ -67774,7 +67809,7 @@
       </c>
       <c r="R901" s="3"/>
       <c r="S901" s="12" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="T901" s="7">
         <v>0.63124999999999998</v>
@@ -67784,7 +67819,7 @@
       </c>
       <c r="V901" s="3"/>
       <c r="W901" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X901" s="6"/>
     </row>
@@ -67804,22 +67839,22 @@
         <v>45699.760763888888</v>
       </c>
       <c r="E902" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F902" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G902" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H902" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I902" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J902" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K902" s="49">
         <v>45700</v>
@@ -67836,7 +67871,7 @@
       </c>
       <c r="R902" s="3"/>
       <c r="S902" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="T902" s="7">
         <v>0.33333333333333331</v>
@@ -67844,10 +67879,10 @@
       <c r="U902" s="3"/>
       <c r="V902" s="3"/>
       <c r="W902" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X902" s="6" t="s">
-        <v>643</v>
+        <v>484</v>
       </c>
     </row>
     <row r="903" spans="1:24" ht="15" customHeight="1">
@@ -67866,22 +67901,22 @@
         <v>45700.513842592591</v>
       </c>
       <c r="E903" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F903" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G903" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H903" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I903" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J903" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K903" s="49">
         <v>45700</v>
@@ -67898,7 +67933,7 @@
       </c>
       <c r="R903" s="3"/>
       <c r="S903" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="T903" s="7">
         <v>0.4201388888888889</v>
@@ -67906,10 +67941,10 @@
       <c r="U903" s="3"/>
       <c r="V903" s="3"/>
       <c r="W903" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X903" s="6" t="s">
-        <v>643</v>
+        <v>484</v>
       </c>
     </row>
     <row r="904" spans="1:24" ht="39" hidden="1" customHeight="1">
@@ -67931,16 +67966,16 @@
         <v>47</v>
       </c>
       <c r="F904" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G904" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H904" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I904" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J904" s="3" t="s">
         <v>29</v>
@@ -67960,7 +67995,7 @@
       </c>
       <c r="R904" s="3"/>
       <c r="S904" s="12" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="T904" s="7">
         <v>0.41666666666666669</v>
@@ -67970,7 +68005,7 @@
       </c>
       <c r="V904" s="3"/>
       <c r="W904" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="X904" s="6"/>
     </row>
@@ -67990,47 +68025,47 @@
         <v>45700.619826388887</v>
       </c>
       <c r="E905" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F905" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G905" s="3" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H905" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I905" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J905" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K905" s="49">
         <v>45700</v>
       </c>
       <c r="L905" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M905" s="49">
         <v>45701</v>
       </c>
       <c r="N905" s="3"/>
       <c r="O905" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P905" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q905" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R905" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S905" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="T905" s="7">
         <v>0.60416666666666663</v>
@@ -68041,7 +68076,7 @@
         <v>48</v>
       </c>
       <c r="X905" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="906" spans="1:24" ht="15" customHeight="1">
@@ -68060,22 +68095,22 @@
         <v>45700.678310185183</v>
       </c>
       <c r="E906" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F906" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G906" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H906" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I906" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J906" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K906" s="3"/>
       <c r="L906" s="3"/>
@@ -68088,16 +68123,16 @@
       </c>
       <c r="R906" s="3"/>
       <c r="S906" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="T906" s="3"/>
       <c r="U906" s="3"/>
       <c r="V906" s="3"/>
       <c r="W906" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X906" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="907" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68116,19 +68151,19 @@
         <v>45700.695289351854</v>
       </c>
       <c r="E907" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F907" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G907" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H907" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I907" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J907" s="3" t="s">
         <v>29</v>
@@ -68150,7 +68185,7 @@
       </c>
       <c r="R907" s="3"/>
       <c r="S907" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="T907" s="7">
         <v>0.58333333333333337</v>
@@ -68160,7 +68195,7 @@
       </c>
       <c r="V907" s="3"/>
       <c r="W907" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X907" s="6"/>
     </row>
@@ -68180,13 +68215,13 @@
         <v>45700.715914351851</v>
       </c>
       <c r="E908" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F908" s="3" t="s">
         <v>391</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H908" s="3" t="s">
         <v>299</v>
@@ -68212,7 +68247,7 @@
       </c>
       <c r="R908" s="3"/>
       <c r="S908" s="4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="T908" s="7">
         <v>0.625</v>
@@ -68222,7 +68257,7 @@
       </c>
       <c r="V908" s="3"/>
       <c r="W908" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="X908" s="6"/>
     </row>
@@ -68242,7 +68277,7 @@
         <v>45700.720104166663</v>
       </c>
       <c r="E909" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F909" s="3" t="s">
         <v>39</v>
@@ -68254,7 +68289,7 @@
         <v>299</v>
       </c>
       <c r="I909" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J909" s="3" t="s">
         <v>29</v>
@@ -68274,7 +68309,7 @@
       </c>
       <c r="R909" s="3"/>
       <c r="S909" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="T909" s="7">
         <v>0.57430555555555551</v>
@@ -68284,7 +68319,7 @@
       </c>
       <c r="V909" s="3"/>
       <c r="W909" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X909" s="6"/>
     </row>
@@ -68304,19 +68339,19 @@
         <v>45700.735138888886</v>
       </c>
       <c r="E910" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F910" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G910" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H910" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I910" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J910" s="3" t="s">
         <v>29</v>
@@ -68338,7 +68373,7 @@
       </c>
       <c r="R910" s="3"/>
       <c r="S910" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="T910" s="7">
         <v>0.625</v>
@@ -68348,7 +68383,7 @@
       </c>
       <c r="V910" s="3"/>
       <c r="W910" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="X910" s="6"/>
     </row>
@@ -68368,19 +68403,19 @@
         <v>45700.749918981484</v>
       </c>
       <c r="E911" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F911" s="3" t="s">
         <v>95</v>
       </c>
       <c r="G911" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H911" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I911" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J911" s="3" t="s">
         <v>29</v>
@@ -68402,7 +68437,7 @@
       </c>
       <c r="R911" s="3"/>
       <c r="S911" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="T911" s="7">
         <v>0.37013888888888891</v>
@@ -68412,7 +68447,7 @@
       </c>
       <c r="V911" s="3"/>
       <c r="W911" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X911" s="6"/>
     </row>
@@ -68432,19 +68467,19 @@
         <v>45700.784826388888</v>
       </c>
       <c r="E912" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F912" s="3" t="s">
         <v>130</v>
       </c>
       <c r="G912" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H912" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I912" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J912" s="3" t="s">
         <v>29</v>
@@ -68466,7 +68501,7 @@
       </c>
       <c r="R912" s="3"/>
       <c r="S912" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="T912" s="7">
         <v>0.54166666666666663</v>
@@ -68476,7 +68511,7 @@
       </c>
       <c r="V912" s="3"/>
       <c r="W912" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X912" s="6"/>
     </row>
@@ -68496,19 +68531,19 @@
         <v>45701.485972222225</v>
       </c>
       <c r="E913" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F913" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G913" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H913" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I913" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J913" s="3" t="s">
         <v>29</v>
@@ -68528,7 +68563,7 @@
       </c>
       <c r="R913" s="3"/>
       <c r="S913" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="T913" s="7">
         <v>0.45833333333333331</v>
@@ -68556,19 +68591,19 @@
         <v>45701.507488425923</v>
       </c>
       <c r="E914" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F914" s="3" t="s">
         <v>391</v>
       </c>
       <c r="G914" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H914" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I914" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J914" s="3" t="s">
         <v>29</v>
@@ -68588,16 +68623,16 @@
       </c>
       <c r="R914" s="3"/>
       <c r="S914" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="T914" s="7"/>
       <c r="U914" s="3"/>
       <c r="V914" s="3"/>
       <c r="W914" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="X914" s="6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="915" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68616,19 +68651,19 @@
         <v>45701.525219907409</v>
       </c>
       <c r="E915" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F915" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G915" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H915" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I915" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J915" s="3" t="s">
         <v>29</v>
@@ -68644,16 +68679,16 @@
       </c>
       <c r="R915" s="3"/>
       <c r="S915" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="T915" s="7"/>
       <c r="U915" s="3"/>
       <c r="V915" s="3"/>
       <c r="W915" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X915" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="916" spans="1:24" ht="95.25" customHeight="1">
@@ -68672,13 +68707,13 @@
         <v>45701.614502314813</v>
       </c>
       <c r="E916" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>399</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>297</v>
@@ -68687,7 +68722,7 @@
         <v>117</v>
       </c>
       <c r="J916" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K916" s="49">
         <v>45341.5625</v>
@@ -68708,13 +68743,13 @@
         <v>500</v>
       </c>
       <c r="S916" s="12" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="T916" s="7"/>
       <c r="U916" s="3"/>
       <c r="V916" s="3"/>
       <c r="W916" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X916" s="6" t="s">
         <v>117</v>
@@ -68736,19 +68771,19 @@
         <v>45701.641527777778</v>
       </c>
       <c r="E917" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F917" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H917" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I917" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J917" s="3" t="s">
         <v>29</v>
@@ -68770,7 +68805,7 @@
       </c>
       <c r="R917" s="3"/>
       <c r="S917" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="T917" s="7">
         <v>0.58611111111111114</v>
@@ -68778,10 +68813,10 @@
       <c r="U917" s="3"/>
       <c r="V917" s="3"/>
       <c r="W917" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X917" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="918" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68800,13 +68835,13 @@
         <v>45701.717581018522</v>
       </c>
       <c r="E918" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F918" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G918" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H918" s="3" t="s">
         <v>297</v>
@@ -68834,7 +68869,7 @@
       </c>
       <c r="R918" s="3"/>
       <c r="S918" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="T918" s="7">
         <v>0.58333333333333337</v>
@@ -68844,7 +68879,7 @@
       </c>
       <c r="V918" s="3"/>
       <c r="W918" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X918" s="6"/>
     </row>
@@ -68867,19 +68902,19 @@
         <v>374</v>
       </c>
       <c r="F919" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G919" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H919" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I919" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J919" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K919" s="49"/>
       <c r="L919" s="3"/>
@@ -68892,16 +68927,16 @@
       </c>
       <c r="R919" s="3"/>
       <c r="S919" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="T919" s="7"/>
       <c r="U919" s="3"/>
       <c r="V919" s="3"/>
       <c r="W919" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X919" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="920" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68920,19 +68955,19 @@
         <v>45701.781006944446</v>
       </c>
       <c r="E920" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F920" s="3" t="s">
         <v>334</v>
       </c>
       <c r="G920" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H920" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I920" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J920" s="3" t="s">
         <v>29</v>
@@ -68952,7 +68987,7 @@
       </c>
       <c r="R920" s="3"/>
       <c r="S920" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="T920" s="7">
         <v>0.66666666666666663</v>
@@ -68962,10 +68997,10 @@
       </c>
       <c r="V920" s="3"/>
       <c r="W920" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X920" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="921" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68984,19 +69019,19 @@
         <v>45701.850763888891</v>
       </c>
       <c r="E921" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F921" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G921" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H921" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I921" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J921" s="3" t="s">
         <v>29</v>
@@ -69018,7 +69053,7 @@
       </c>
       <c r="R921" s="3"/>
       <c r="S921" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="T921" s="7">
         <v>0.375</v>
@@ -69026,10 +69061,10 @@
       <c r="U921" s="3"/>
       <c r="V921" s="3"/>
       <c r="W921" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X921" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="922" spans="1:24" ht="67.5" customHeight="1">
@@ -69048,13 +69083,13 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E922" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F922" s="3" t="s">
         <v>289</v>
       </c>
       <c r="G922" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H922" s="3" t="s">
         <v>297</v>
@@ -69063,7 +69098,7 @@
         <v>117</v>
       </c>
       <c r="J922" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K922" s="49">
         <v>45708</v>
@@ -69080,7 +69115,7 @@
       </c>
       <c r="R922" s="3"/>
       <c r="S922" s="12" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="T922" s="7">
         <v>0.52083333333333337</v>
@@ -69088,10 +69123,10 @@
       <c r="U922" s="3"/>
       <c r="V922" s="3"/>
       <c r="W922" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X922" s="6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="923" spans="1:24" ht="60" hidden="1" customHeight="1">
@@ -69110,19 +69145,19 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E923" s="81" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F923" s="81" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G923" s="81" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H923" s="81" t="s">
         <v>297</v>
       </c>
       <c r="I923" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J923" s="3" t="s">
         <v>29</v>
@@ -69144,7 +69179,7 @@
       </c>
       <c r="R923" s="3"/>
       <c r="S923" s="100" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="T923" s="7">
         <v>0.54166666666666663</v>
@@ -69154,7 +69189,7 @@
       </c>
       <c r="V923" s="3"/>
       <c r="W923" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X923" s="6"/>
     </row>
@@ -69174,19 +69209,19 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E924" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F924" s="61" t="s">
         <v>25</v>
       </c>
       <c r="G924" s="40" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H924" s="20" t="s">
         <v>299</v>
       </c>
       <c r="I924" s="61" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J924" s="61" t="s">
         <v>29</v>
@@ -69206,7 +69241,7 @@
       </c>
       <c r="R924" s="40"/>
       <c r="S924" s="101" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="T924" s="63">
         <v>0.5625</v>
@@ -69214,7 +69249,7 @@
       <c r="U924" s="40"/>
       <c r="V924" s="40"/>
       <c r="W924" s="40" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="X924" s="40"/>
     </row>
@@ -69240,13 +69275,13 @@
         <v>263</v>
       </c>
       <c r="G925" s="64" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H925" s="85" t="s">
         <v>297</v>
       </c>
       <c r="I925" s="65" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J925" s="65" t="s">
         <v>60</v>
@@ -69266,7 +69301,7 @@
       </c>
       <c r="R925" s="64"/>
       <c r="S925" s="102" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="T925" s="67">
         <v>0.41666666666666669</v>
@@ -69277,7 +69312,7 @@
         <v>48</v>
       </c>
       <c r="X925" s="69" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="926" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69296,19 +69331,19 @@
         <v>45702.783483796295</v>
       </c>
       <c r="E926" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F926" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H926" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I926" s="3" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="J926" s="3" t="s">
         <v>29</v>
@@ -69328,13 +69363,13 @@
       </c>
       <c r="R926" s="3"/>
       <c r="S926" s="16" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="T926" s="7"/>
       <c r="U926" s="3"/>
       <c r="V926" s="3"/>
       <c r="W926" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X926" s="6"/>
     </row>
@@ -69354,19 +69389,19 @@
         <v>45702.817025462966</v>
       </c>
       <c r="E927" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F927" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G927" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H927" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I927" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J927" s="3" t="s">
         <v>29</v>
@@ -69388,16 +69423,16 @@
       </c>
       <c r="R927" s="3"/>
       <c r="S927" s="16" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="T927" s="7"/>
       <c r="U927" s="3"/>
       <c r="V927" s="3"/>
       <c r="W927" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X927" s="6" t="s">
-        <v>643</v>
+        <v>484</v>
       </c>
     </row>
     <row r="928" spans="1:24" ht="15" customHeight="1">
@@ -69416,22 +69451,22 @@
         <v>45705.388020833336</v>
       </c>
       <c r="E928" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F928" s="3" t="s">
         <v>391</v>
       </c>
       <c r="G928" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H928" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I928" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J928" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K928" s="49"/>
       <c r="L928" s="3"/>
@@ -69444,16 +69479,16 @@
       </c>
       <c r="R928" s="3"/>
       <c r="S928" s="16" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="T928" s="7"/>
       <c r="U928" s="3"/>
       <c r="V928" s="3"/>
       <c r="W928" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X928" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="929" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69475,16 +69510,16 @@
         <v>374</v>
       </c>
       <c r="F929" s="18" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G929" s="18" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H929" s="18" t="s">
         <v>297</v>
       </c>
       <c r="I929" s="18" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J929" s="44" t="s">
         <v>29</v>
@@ -69506,7 +69541,7 @@
       </c>
       <c r="R929" s="18"/>
       <c r="S929" s="17" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="T929" s="22">
         <v>0.35625000000000001</v>
@@ -69514,10 +69549,10 @@
       <c r="U929" s="18"/>
       <c r="V929" s="19"/>
       <c r="W929" s="20" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X929" s="21" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="930" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69536,7 +69571,7 @@
         <v>45705</v>
       </c>
       <c r="E930" s="18" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F930" s="18" t="s">
         <v>39</v>
@@ -69570,7 +69605,7 @@
       </c>
       <c r="R930" s="18"/>
       <c r="S930" s="17" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="T930" s="22">
         <v>0.34722222222222221</v>
@@ -69580,7 +69615,7 @@
       </c>
       <c r="V930" s="19"/>
       <c r="W930" s="20" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X930" s="21"/>
     </row>
@@ -69600,19 +69635,19 @@
         <v>45705.605358796296</v>
       </c>
       <c r="E931" s="26" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F931" s="26" t="s">
         <v>186</v>
       </c>
       <c r="G931" s="26" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H931" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I931" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J931" s="57" t="s">
         <v>29</v>
@@ -69634,13 +69669,13 @@
       </c>
       <c r="R931" s="26"/>
       <c r="S931" s="24" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="T931" s="25"/>
       <c r="U931" s="25"/>
       <c r="V931" s="26"/>
       <c r="W931" s="23" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X931" s="23"/>
     </row>
@@ -69660,19 +69695,19 @@
         <v>45705.627858796295</v>
       </c>
       <c r="E932" s="26" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F932" s="26" t="s">
         <v>424</v>
       </c>
       <c r="G932" s="26" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H932" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I932" s="26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J932" s="57" t="s">
         <v>29</v>
@@ -69694,7 +69729,7 @@
       </c>
       <c r="R932" s="26"/>
       <c r="S932" s="24" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="T932" s="25">
         <v>0.29166666666666669</v>
@@ -69704,7 +69739,7 @@
       </c>
       <c r="V932" s="26"/>
       <c r="W932" s="23" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="X932" s="23"/>
     </row>
@@ -69724,19 +69759,19 @@
         <v>45705.670937499999</v>
       </c>
       <c r="E933" s="26" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F933" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G933" s="26" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H933" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I933" s="26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J933" s="57" t="s">
         <v>29</v>
@@ -69752,13 +69787,13 @@
       </c>
       <c r="R933" s="26"/>
       <c r="S933" s="24" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="T933" s="25"/>
       <c r="U933" s="25"/>
       <c r="V933" s="26"/>
       <c r="W933" s="23" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="X933" s="23"/>
     </row>
@@ -69778,13 +69813,13 @@
         <v>45705.795729166668</v>
       </c>
       <c r="E934" s="26" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F934" s="26" t="s">
         <v>186</v>
       </c>
       <c r="G934" s="26" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H934" s="26" t="s">
         <v>299</v>
@@ -69806,13 +69841,13 @@
       </c>
       <c r="R934" s="26"/>
       <c r="S934" s="24" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="T934" s="25"/>
       <c r="U934" s="25"/>
       <c r="V934" s="26"/>
       <c r="W934" s="23" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X934" s="23"/>
     </row>
@@ -69835,16 +69870,16 @@
         <v>47</v>
       </c>
       <c r="F935" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G935" s="26" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H935" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I935" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J935" s="57" t="s">
         <v>29</v>
@@ -69860,13 +69895,13 @@
       </c>
       <c r="R935" s="26"/>
       <c r="S935" s="24" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="T935" s="25"/>
       <c r="U935" s="25"/>
       <c r="V935" s="26"/>
       <c r="W935" s="23" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X935" s="23"/>
     </row>
@@ -69889,16 +69924,16 @@
         <v>47</v>
       </c>
       <c r="F936" s="26" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G936" s="26" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H936" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I936" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J936" s="57" t="s">
         <v>60</v>
@@ -69914,7 +69949,7 @@
       </c>
       <c r="R936" s="26"/>
       <c r="S936" s="24" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="T936" s="25"/>
       <c r="U936" s="25"/>
@@ -69938,45 +69973,45 @@
         <v>45706.579976851855</v>
       </c>
       <c r="E937" s="26" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F937" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G937" s="26" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H937" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I937" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J937" s="57" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K937" s="58">
         <v>45706</v>
       </c>
       <c r="L937" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M937" s="58"/>
       <c r="N937" s="58"/>
       <c r="O937" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P937" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q937" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R937" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S937" s="24" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="T937" s="25"/>
       <c r="U937" s="25"/>
@@ -69985,7 +70020,7 @@
         <v>48</v>
       </c>
       <c r="X937" s="23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="938" spans="1:24" ht="15" customHeight="1">
@@ -70004,54 +70039,54 @@
         <v>45706.695034722223</v>
       </c>
       <c r="E938" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F938" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G938" s="26" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H938" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I938" s="26" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="J938" s="57" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K938" s="58">
         <v>45708</v>
       </c>
       <c r="L938" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M938" s="58"/>
       <c r="N938" s="58"/>
       <c r="O938" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P938" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q938" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R938" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S938" s="24" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="T938" s="25"/>
       <c r="U938" s="25"/>
       <c r="V938" s="26"/>
       <c r="W938" s="23" t="s">
-        <v>48</v>
+        <v>448</v>
       </c>
       <c r="X938" s="23" t="s">
-        <v>434</v>
+        <v>732</v>
       </c>
     </row>
     <row r="939" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70070,19 +70105,19 @@
         <v>45706.799537037034</v>
       </c>
       <c r="E939" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F939" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G939" s="26" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H939" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I939" s="26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J939" s="57" t="s">
         <v>29</v>
@@ -70100,7 +70135,7 @@
       </c>
       <c r="R939" s="26"/>
       <c r="S939" s="24" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="T939" s="25"/>
       <c r="U939" s="25"/>
@@ -70124,19 +70159,19 @@
         <v>45707.540717592594</v>
       </c>
       <c r="E940" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F940" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G940" s="26" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H940" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I940" s="26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J940" s="57" t="s">
         <v>60</v>
@@ -70154,16 +70189,16 @@
       </c>
       <c r="R940" s="26"/>
       <c r="S940" s="24" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="T940" s="25"/>
       <c r="U940" s="25"/>
       <c r="V940" s="26"/>
       <c r="W940" s="23" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X940" s="23" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="941" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70182,13 +70217,13 @@
         <v>45707.651192129626</v>
       </c>
       <c r="E941" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F941" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G941" s="26" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H941" s="26" t="s">
         <v>297</v>
@@ -70212,16 +70247,16 @@
       </c>
       <c r="R941" s="26"/>
       <c r="S941" s="24" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="T941" s="25"/>
       <c r="U941" s="25"/>
       <c r="V941" s="26"/>
       <c r="W941" s="23" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X941" s="23" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="942" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70240,19 +70275,19 @@
         <v>45707.741481481484</v>
       </c>
       <c r="E942" s="26" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F942" s="26" t="s">
         <v>424</v>
       </c>
       <c r="G942" s="26" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H942" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I942" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J942" s="57" t="s">
         <v>29</v>
@@ -70268,7 +70303,7 @@
       </c>
       <c r="R942" s="26"/>
       <c r="S942" s="24" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="T942" s="25"/>
       <c r="U942" s="25"/>
@@ -70292,19 +70327,19 @@
         <v>45707.798344907409</v>
       </c>
       <c r="E943" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F943" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G943" s="26" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H943" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I943" s="26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J943" s="57" t="s">
         <v>29</v>
@@ -70324,16 +70359,16 @@
       </c>
       <c r="R943" s="26"/>
       <c r="S943" s="24" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="T943" s="25"/>
       <c r="U943" s="25"/>
       <c r="V943" s="26"/>
       <c r="W943" s="23" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X943" s="23" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="944" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70352,19 +70387,19 @@
         <v>45707.834722222222</v>
       </c>
       <c r="E944" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F944" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G944" s="26" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H944" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I944" s="26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J944" s="57" t="s">
         <v>29</v>
@@ -70384,7 +70419,7 @@
       </c>
       <c r="R944" s="26"/>
       <c r="S944" s="24" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="T944" s="25"/>
       <c r="U944" s="25"/>
@@ -70408,47 +70443,47 @@
         <v>45708.495335648149</v>
       </c>
       <c r="E945" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F945" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G945" s="26" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H945" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I945" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J945" s="57" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K945" s="58">
         <v>45708</v>
       </c>
       <c r="L945" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M945" s="58">
         <v>45709</v>
       </c>
       <c r="N945" s="58"/>
       <c r="O945" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P945" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q945" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R945" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S945" s="24" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="T945" s="25"/>
       <c r="U945" s="25"/>
@@ -70457,7 +70492,7 @@
         <v>48</v>
       </c>
       <c r="X945" s="23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="946" spans="1:24" ht="15" customHeight="1">
@@ -70476,22 +70511,22 @@
         <v>45708.50105324074</v>
       </c>
       <c r="E946" s="26" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F946" s="26" t="s">
         <v>186</v>
       </c>
       <c r="G946" s="26" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H946" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I946" s="26" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="J946" s="57" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K946" s="58">
         <v>45712</v>
@@ -70506,7 +70541,7 @@
       </c>
       <c r="R946" s="26"/>
       <c r="S946" s="24" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="T946" s="25">
         <v>0.54166666666666663</v>
@@ -70514,10 +70549,10 @@
       <c r="U946" s="25"/>
       <c r="V946" s="26"/>
       <c r="W946" s="23" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X946" s="23" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="947" spans="1:24" ht="15" customHeight="1">
@@ -70536,13 +70571,13 @@
         <v>45708</v>
       </c>
       <c r="E947" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F947" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G947" s="26" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H947" s="26" t="s">
         <v>297</v>
@@ -70551,11 +70586,13 @@
         <v>42</v>
       </c>
       <c r="J947" s="57" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="K947" s="58"/>
       <c r="L947" s="26"/>
-      <c r="M947" s="58"/>
+      <c r="M947" s="58">
+        <v>45716</v>
+      </c>
       <c r="N947" s="58"/>
       <c r="O947" s="26"/>
       <c r="P947" s="26"/>
@@ -70564,17 +70601,19 @@
       </c>
       <c r="R947" s="26"/>
       <c r="S947" s="24" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="T947" s="25"/>
       <c r="U947" s="25"/>
       <c r="V947" s="26"/>
-      <c r="W947" s="23"/>
+      <c r="W947" s="23" t="s">
+        <v>554</v>
+      </c>
       <c r="X947" s="23" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="948" spans="1:24" ht="15" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="948" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A948" s="87">
         <f>YEAR(D948)</f>
         <v>2025</v>
@@ -70590,13 +70629,13 @@
         <v>45708</v>
       </c>
       <c r="E948" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F948" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G948" s="26" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H948" s="26" t="s">
         <v>297</v>
@@ -70605,7 +70644,7 @@
         <v>42</v>
       </c>
       <c r="J948" s="57" t="s">
-        <v>441</v>
+        <v>29</v>
       </c>
       <c r="K948" s="58"/>
       <c r="L948" s="26"/>
@@ -70618,14 +70657,14 @@
       </c>
       <c r="R948" s="26"/>
       <c r="S948" s="24" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="T948" s="25"/>
       <c r="U948" s="25"/>
       <c r="V948" s="26"/>
       <c r="W948" s="23"/>
       <c r="X948" s="23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="949" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70644,19 +70683,19 @@
         <v>45708</v>
       </c>
       <c r="E949" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F949" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G949" s="26" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H949" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I949" s="26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J949" s="57" t="s">
         <v>29</v>
@@ -70676,19 +70715,19 @@
       </c>
       <c r="R949" s="26"/>
       <c r="S949" s="24" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="T949" s="25"/>
       <c r="U949" s="25"/>
       <c r="V949" s="26"/>
       <c r="W949" s="23" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X949" s="23" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="950" spans="1:24" ht="15" customHeight="1">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="950" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A950" s="87">
         <f>YEAR(D950)</f>
         <v>2025</v>
@@ -70704,22 +70743,22 @@
         <v>45708</v>
       </c>
       <c r="E950" s="26" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F950" s="26" t="s">
         <v>130</v>
       </c>
       <c r="G950" s="26" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H950" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I950" s="26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J950" s="57" t="s">
-        <v>431</v>
+        <v>745</v>
       </c>
       <c r="K950" s="58">
         <v>45708</v>
@@ -70736,7 +70775,7 @@
       </c>
       <c r="R950" s="26"/>
       <c r="S950" s="24" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="T950" s="25">
         <v>0.73611111111111116</v>
@@ -70744,10 +70783,10 @@
       <c r="U950" s="25"/>
       <c r="V950" s="26"/>
       <c r="W950" s="23" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X950" s="23" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="951" spans="1:24" ht="15" customHeight="1">
@@ -70766,45 +70805,45 @@
         <v>45709</v>
       </c>
       <c r="E951" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F951" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G951" s="26" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H951" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I951" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J951" s="57" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K951" s="58">
         <v>45712</v>
       </c>
       <c r="L951" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M951" s="58"/>
       <c r="N951" s="58"/>
       <c r="O951" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P951" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q951" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R951" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S951" s="24" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="T951" s="25"/>
       <c r="U951" s="25"/>
@@ -70813,7 +70852,7 @@
         <v>48</v>
       </c>
       <c r="X951" s="23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="952" spans="1:24" ht="15" customHeight="1">
@@ -70832,22 +70871,22 @@
         <v>45709</v>
       </c>
       <c r="E952" s="26" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F952" s="26" t="s">
         <v>111</v>
       </c>
       <c r="G952" s="26" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H952" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I952" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J952" s="57" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K952" s="58">
         <v>45709</v>
@@ -70862,19 +70901,19 @@
       </c>
       <c r="R952" s="26"/>
       <c r="S952" s="24" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="T952" s="25"/>
       <c r="U952" s="25"/>
       <c r="V952" s="26"/>
       <c r="W952" s="23" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X952" s="23" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="953" spans="1:24" ht="33" customHeight="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="953" spans="1:24" ht="91.5">
       <c r="A953" s="87">
         <f>YEAR(D953)</f>
         <v>2025</v>
@@ -70890,22 +70929,22 @@
         <v>45709</v>
       </c>
       <c r="E953" s="26" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F953" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G953" s="26" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H953" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I953" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J953" s="57" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K953" s="58"/>
       <c r="L953" s="26"/>
@@ -70918,13 +70957,13 @@
       </c>
       <c r="R953" s="26"/>
       <c r="S953" s="104" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="T953" s="25"/>
       <c r="U953" s="25"/>
       <c r="V953" s="26"/>
       <c r="W953" s="23" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X953" s="23"/>
     </row>
@@ -70944,26 +70983,30 @@
         <v>45709</v>
       </c>
       <c r="E954" s="26" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F954" s="26" t="s">
         <v>186</v>
       </c>
       <c r="G954" s="26" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H954" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I954" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J954" s="57" t="s">
-        <v>748</v>
-      </c>
-      <c r="K954" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="K954" s="58">
+        <v>45712</v>
+      </c>
       <c r="L954" s="26"/>
-      <c r="M954" s="58"/>
+      <c r="M954" s="58">
+        <v>45712</v>
+      </c>
       <c r="N954" s="58">
         <v>45712</v>
       </c>
@@ -70974,15 +71017,17 @@
       </c>
       <c r="R954" s="26"/>
       <c r="S954" s="24" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="T954" s="25"/>
       <c r="U954" s="25"/>
       <c r="V954" s="26"/>
       <c r="W954" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="X954" s="23"/>
+        <v>448</v>
+      </c>
+      <c r="X954" s="23" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="955" spans="1:24" ht="108" customHeight="1">
       <c r="A955" s="87">
@@ -71000,22 +71045,22 @@
         <v>45709</v>
       </c>
       <c r="E955" s="26" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F955" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G955" s="26" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H955" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I955" s="26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J955" s="57" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K955" s="58"/>
       <c r="L955" s="26"/>
@@ -71030,16 +71075,16 @@
       </c>
       <c r="R955" s="26"/>
       <c r="S955" s="104" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="T955" s="25"/>
       <c r="U955" s="25"/>
       <c r="V955" s="26"/>
       <c r="W955" s="23" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X955" s="23" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
     </row>
     <row r="956" spans="1:24" ht="15" customHeight="1">
@@ -71058,22 +71103,22 @@
         <v>45712</v>
       </c>
       <c r="E956" s="26" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F956" s="26" t="s">
         <v>279</v>
       </c>
       <c r="G956" s="26" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H956" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I956" s="26" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="J956" s="57" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K956" s="58"/>
       <c r="L956" s="26"/>
@@ -71086,16 +71131,16 @@
       </c>
       <c r="R956" s="26"/>
       <c r="S956" s="24" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="T956" s="25"/>
       <c r="U956" s="25"/>
       <c r="V956" s="26"/>
       <c r="W956" s="23" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X956" s="23" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
     </row>
     <row r="957" spans="1:24" ht="15" customHeight="1">
@@ -71114,10 +71159,10 @@
         <v>45709</v>
       </c>
       <c r="E957" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F957" s="26" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G957" s="26" t="s">
         <v>168</v>
@@ -71126,10 +71171,10 @@
         <v>297</v>
       </c>
       <c r="I957" s="26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J957" s="57" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K957" s="58">
         <v>45712</v>
@@ -71146,7 +71191,7 @@
       </c>
       <c r="R957" s="26"/>
       <c r="S957" s="24" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="T957" s="25">
         <v>0.375</v>
@@ -71154,10 +71199,10 @@
       <c r="U957" s="25"/>
       <c r="V957" s="26"/>
       <c r="W957" s="23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X957" s="23" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
     </row>
     <row r="958" spans="1:24" ht="15" customHeight="1">
@@ -71176,22 +71221,22 @@
         <v>45712</v>
       </c>
       <c r="E958" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F958" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G958" s="26" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H958" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I958" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J958" s="57" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K958" s="58"/>
       <c r="L958" s="26"/>
@@ -71204,19 +71249,19 @@
       </c>
       <c r="R958" s="26"/>
       <c r="S958" s="24" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="T958" s="25"/>
       <c r="U958" s="25"/>
       <c r="V958" s="26"/>
       <c r="W958" s="23" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X958" s="23" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="959" spans="1:24" ht="15" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="959" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A959" s="87">
         <f>YEAR(D959)</f>
         <v>2025</v>
@@ -71232,13 +71277,13 @@
         <v>45712</v>
       </c>
       <c r="E959" s="26" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F959" s="26" t="s">
         <v>399</v>
       </c>
       <c r="G959" s="26" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H959" s="26" t="s">
         <v>297</v>
@@ -71247,7 +71292,7 @@
         <v>42</v>
       </c>
       <c r="J959" s="57" t="s">
-        <v>441</v>
+        <v>29</v>
       </c>
       <c r="K959" s="58"/>
       <c r="L959" s="26"/>
@@ -71260,13 +71305,13 @@
       </c>
       <c r="R959" s="26"/>
       <c r="S959" s="24" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="T959" s="25"/>
       <c r="U959" s="25"/>
       <c r="V959" s="26"/>
       <c r="W959" s="23" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="X959" s="23"/>
     </row>
@@ -71286,22 +71331,22 @@
         <v>45712</v>
       </c>
       <c r="E960" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F960" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G960" s="26" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H960" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I960" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J960" s="57" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K960" s="58"/>
       <c r="L960" s="26"/>
@@ -71314,17 +71359,17 @@
       </c>
       <c r="R960" s="26"/>
       <c r="S960" s="24" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="T960" s="25"/>
       <c r="U960" s="25"/>
       <c r="V960" s="26"/>
       <c r="W960" s="23" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="X960" s="23"/>
     </row>
-    <row r="961" spans="1:24" ht="15" customHeight="1">
+    <row r="961" spans="1:24" ht="48.75" hidden="1" customHeight="1">
       <c r="A961" s="87">
         <f>YEAR(D961)</f>
         <v>2025</v>
@@ -71340,24 +71385,26 @@
         <v>45712</v>
       </c>
       <c r="E961" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F961" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G961" s="26" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H961" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I961" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J961" s="57" t="s">
-        <v>441</v>
-      </c>
-      <c r="K961" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="K961" s="58">
+        <v>45713</v>
+      </c>
       <c r="L961" s="26"/>
       <c r="M961" s="58">
         <v>45713</v>
@@ -71370,15 +71417,465 @@
       </c>
       <c r="R961" s="26"/>
       <c r="S961" s="104" t="s">
-        <v>758</v>
-      </c>
-      <c r="T961" s="25"/>
+        <v>760</v>
+      </c>
+      <c r="T961" s="25">
+        <v>0.375</v>
+      </c>
       <c r="U961" s="25"/>
       <c r="V961" s="26"/>
       <c r="W961" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="X961" s="23"/>
+        <v>448</v>
+      </c>
+      <c r="X961" s="23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="962" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="A962" s="87">
+        <f>YEAR(D962)</f>
+        <v>2025</v>
+      </c>
+      <c r="B962" s="26">
+        <f>MONTH(D962)</f>
+        <v>2</v>
+      </c>
+      <c r="C962" s="44">
+        <v>977</v>
+      </c>
+      <c r="D962" s="58">
+        <v>45712</v>
+      </c>
+      <c r="E962" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F962" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G962" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="H962" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I962" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J962" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K962" s="58"/>
+      <c r="L962" s="26"/>
+      <c r="M962" s="58"/>
+      <c r="N962" s="58"/>
+      <c r="O962" s="26"/>
+      <c r="P962" s="26"/>
+      <c r="Q962" s="26">
+        <v>0</v>
+      </c>
+      <c r="R962" s="26"/>
+      <c r="S962" s="24" t="s">
+        <v>761</v>
+      </c>
+      <c r="T962" s="25"/>
+      <c r="U962" s="25"/>
+      <c r="V962" s="26"/>
+      <c r="W962" s="23"/>
+      <c r="X962" s="23"/>
+    </row>
+    <row r="963" spans="1:24" ht="15" customHeight="1">
+      <c r="A963" s="87">
+        <f>YEAR(D963)</f>
+        <v>2025</v>
+      </c>
+      <c r="B963" s="26">
+        <f>MONTH(D963)</f>
+        <v>2</v>
+      </c>
+      <c r="C963" s="44">
+        <v>978</v>
+      </c>
+      <c r="D963" s="58">
+        <v>45713</v>
+      </c>
+      <c r="E963" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="F963" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G963" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="H963" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I963" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="J963" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K963" s="58"/>
+      <c r="L963" s="26"/>
+      <c r="M963" s="58"/>
+      <c r="N963" s="58"/>
+      <c r="O963" s="26"/>
+      <c r="P963" s="26"/>
+      <c r="Q963" s="26">
+        <v>1.0546</v>
+      </c>
+      <c r="R963" s="26"/>
+      <c r="S963" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="T963" s="25"/>
+      <c r="U963" s="25"/>
+      <c r="V963" s="26"/>
+      <c r="W963" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="X963" s="23" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="964" spans="1:24" ht="15" customHeight="1">
+      <c r="A964" s="87">
+        <f>YEAR(D964)</f>
+        <v>2025</v>
+      </c>
+      <c r="B964" s="26">
+        <f>MONTH(D964)</f>
+        <v>2</v>
+      </c>
+      <c r="C964" s="44">
+        <v>979</v>
+      </c>
+      <c r="D964" s="58">
+        <v>45713</v>
+      </c>
+      <c r="E964" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F964" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G964" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="H964" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I964" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="J964" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K964" s="58"/>
+      <c r="L964" s="26"/>
+      <c r="M964" s="58"/>
+      <c r="N964" s="58"/>
+      <c r="O964" s="26"/>
+      <c r="P964" s="26"/>
+      <c r="Q964" s="26">
+        <v>0</v>
+      </c>
+      <c r="R964" s="26"/>
+      <c r="S964" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="T964" s="25"/>
+      <c r="U964" s="25"/>
+      <c r="V964" s="26"/>
+      <c r="W964" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="X964" s="23" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="965" spans="1:24" ht="15" customHeight="1">
+      <c r="A965" s="87">
+        <f>YEAR(D965)</f>
+        <v>2025</v>
+      </c>
+      <c r="B965" s="26">
+        <f>MONTH(D965)</f>
+        <v>2</v>
+      </c>
+      <c r="C965" s="44">
+        <v>980</v>
+      </c>
+      <c r="D965" s="58">
+        <v>45713</v>
+      </c>
+      <c r="E965" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F965" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G965" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="H965" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I965" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="J965" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K965" s="58"/>
+      <c r="L965" s="26"/>
+      <c r="M965" s="58"/>
+      <c r="N965" s="58"/>
+      <c r="O965" s="26"/>
+      <c r="P965" s="26"/>
+      <c r="Q965" s="26">
+        <v>0</v>
+      </c>
+      <c r="R965" s="26"/>
+      <c r="S965" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="T965" s="25"/>
+      <c r="U965" s="25"/>
+      <c r="V965" s="26"/>
+      <c r="W965" s="23"/>
+      <c r="X965" s="23" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="966" spans="1:24" ht="15" customHeight="1">
+      <c r="A966" s="87">
+        <f>YEAR(D966)</f>
+        <v>2025</v>
+      </c>
+      <c r="B966" s="26">
+        <f>MONTH(D966)</f>
+        <v>2</v>
+      </c>
+      <c r="C966" s="44">
+        <v>981</v>
+      </c>
+      <c r="D966" s="58">
+        <v>45713</v>
+      </c>
+      <c r="E966" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="F966" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G966" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="H966" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I966" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="J966" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K966" s="58">
+        <v>45714</v>
+      </c>
+      <c r="L966" s="26"/>
+      <c r="M966" s="58"/>
+      <c r="N966" s="58"/>
+      <c r="O966" s="26"/>
+      <c r="P966" s="26"/>
+      <c r="Q966" s="26">
+        <v>0</v>
+      </c>
+      <c r="R966" s="26"/>
+      <c r="S966" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="T966" s="25"/>
+      <c r="U966" s="25"/>
+      <c r="V966" s="26"/>
+      <c r="W966" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="X966" s="23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="967" spans="1:24" ht="15" customHeight="1">
+      <c r="A967" s="87">
+        <f>YEAR(D967)</f>
+        <v>2025</v>
+      </c>
+      <c r="B967" s="26">
+        <f>MONTH(D967)</f>
+        <v>2</v>
+      </c>
+      <c r="C967" s="44">
+        <v>982</v>
+      </c>
+      <c r="D967" s="58">
+        <v>45713</v>
+      </c>
+      <c r="E967" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F967" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G967" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="H967" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I967" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J967" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K967" s="58"/>
+      <c r="L967" s="26"/>
+      <c r="M967" s="58"/>
+      <c r="N967" s="58"/>
+      <c r="O967" s="26"/>
+      <c r="P967" s="26"/>
+      <c r="Q967" s="26">
+        <v>0</v>
+      </c>
+      <c r="R967" s="26"/>
+      <c r="S967" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="T967" s="25"/>
+      <c r="U967" s="25"/>
+      <c r="V967" s="26"/>
+      <c r="W967" s="23"/>
+      <c r="X967" s="23" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="968" spans="1:24" ht="15" customHeight="1">
+      <c r="A968" s="87">
+        <f>YEAR(D968)</f>
+        <v>2025</v>
+      </c>
+      <c r="B968" s="26">
+        <f>MONTH(D968)</f>
+        <v>2</v>
+      </c>
+      <c r="C968" s="44">
+        <v>983</v>
+      </c>
+      <c r="D968" s="58">
+        <v>45713</v>
+      </c>
+      <c r="E968" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="F968" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G968" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="H968" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I968" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="J968" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K968" s="58">
+        <v>45714</v>
+      </c>
+      <c r="L968" s="26"/>
+      <c r="M968" s="58"/>
+      <c r="N968" s="58"/>
+      <c r="O968" s="26"/>
+      <c r="P968" s="26"/>
+      <c r="Q968" s="26">
+        <v>0</v>
+      </c>
+      <c r="R968" s="26"/>
+      <c r="S968" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="T968" s="25"/>
+      <c r="U968" s="25"/>
+      <c r="V968" s="26"/>
+      <c r="W968" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="X968" s="23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="969" spans="1:24" ht="15" customHeight="1">
+      <c r="A969" s="87">
+        <f>YEAR(D969)</f>
+        <v>2025</v>
+      </c>
+      <c r="B969" s="26">
+        <f>MONTH(D969)</f>
+        <v>2</v>
+      </c>
+      <c r="C969" s="44">
+        <v>984</v>
+      </c>
+      <c r="D969" s="58">
+        <v>45714</v>
+      </c>
+      <c r="E969" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F969" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G969" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="H969" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I969" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="J969" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K969" s="58">
+        <v>45714</v>
+      </c>
+      <c r="L969" s="26"/>
+      <c r="M969" s="58"/>
+      <c r="N969" s="58"/>
+      <c r="O969" s="26"/>
+      <c r="P969" s="26"/>
+      <c r="Q969" s="26">
+        <v>0</v>
+      </c>
+      <c r="R969" s="26"/>
+      <c r="S969" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="T969" s="25"/>
+      <c r="U969" s="25"/>
+      <c r="V969" s="26"/>
+      <c r="W969" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="X969" s="23" t="s">
+        <v>484</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
@@ -71386,7 +71883,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J961">
+  <conditionalFormatting sqref="J2:J969">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -71447,6 +71944,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -71455,7 +71958,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -71632,20 +72135,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3236" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{065D0715-551A-4BA6-A482-6AFE77D9F741}"/>
+  <xr:revisionPtr revIDLastSave="3251" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39AC0541-FCBD-47B9-BE90-D816B9C0FF1F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15847" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15846" uniqueCount="768">
   <si>
     <t>ANO</t>
   </si>
@@ -2419,7 +2419,7 @@
     <t>CORRETIVA PLANEJADA</t>
   </si>
   <si>
-    <t>REPARO ELÉTRICO DO SISTEMA DE ESTEIRAS E COMANDOS ELETRONICOS</t>
+    <t>Reparo elétrico do sistema das esteiras e comandos, troca das videas.</t>
   </si>
   <si>
     <t>Fabricar 5 moldes para ensaio de DSS, diâmetro 35,5 mm e altura de 20 mm.</t>
@@ -2431,13 +2431,7 @@
     <t>Serviço de solda, guarda corpos, escada e malão do caminhão SHD-2C59</t>
   </si>
   <si>
-    <t>AGUARDANDO</t>
-  </si>
-  <si>
     <t>Trocar flange eixo principal.</t>
-  </si>
-  <si>
-    <t>ITEM EM TRANSPORTE PARA CARAJAS</t>
   </si>
   <si>
     <t>8 Suportes de placas de identificação para baias do anexo</t>
@@ -2497,7 +2491,7 @@
     <t>Melhoria na casa de produtos de lavagem</t>
   </si>
   <si>
-    <t>Reforma na proteção do guincho.</t>
+    <t>Reforma do guincho e vazamento no painel.</t>
   </si>
   <si>
     <t xml:space="preserve">Fabricar suporte de denison para manter na vertical durante pesagem na balança. </t>
@@ -4142,8 +4136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
   <dimension ref="A1:AA969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S958" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X964" sqref="X964"/>
+    <sheetView tabSelected="1" topLeftCell="O950" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S964" sqref="S964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -70525,8 +70519,8 @@
       <c r="I946" s="26" t="s">
         <v>740</v>
       </c>
-      <c r="J946" s="57" t="s">
-        <v>428</v>
+      <c r="J946" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="K946" s="58">
         <v>45712</v>
@@ -70758,7 +70752,7 @@
         <v>652</v>
       </c>
       <c r="J950" s="57" t="s">
-        <v>745</v>
+        <v>29</v>
       </c>
       <c r="K950" s="58">
         <v>45708</v>
@@ -70767,7 +70761,9 @@
       <c r="M950" s="58">
         <v>45709</v>
       </c>
-      <c r="N950" s="58"/>
+      <c r="N950" s="58">
+        <v>45713</v>
+      </c>
       <c r="O950" s="26"/>
       <c r="P950" s="26"/>
       <c r="Q950" s="26">
@@ -70775,19 +70771,19 @@
       </c>
       <c r="R950" s="26"/>
       <c r="S950" s="24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="T950" s="25">
         <v>0.73611111111111116</v>
       </c>
-      <c r="U950" s="25"/>
+      <c r="U950" s="25">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="V950" s="26"/>
       <c r="W950" s="23" t="s">
-        <v>693</v>
-      </c>
-      <c r="X950" s="23" t="s">
-        <v>747</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="X950" s="23"/>
     </row>
     <row r="951" spans="1:24" ht="15" customHeight="1">
       <c r="A951" s="87">
@@ -70843,7 +70839,7 @@
         <v>433</v>
       </c>
       <c r="S951" s="24" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="T951" s="25"/>
       <c r="U951" s="25"/>
@@ -70901,7 +70897,7 @@
       </c>
       <c r="R952" s="26"/>
       <c r="S952" s="24" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="T952" s="25"/>
       <c r="U952" s="25"/>
@@ -70957,7 +70953,7 @@
       </c>
       <c r="R953" s="26"/>
       <c r="S953" s="104" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="T953" s="25"/>
       <c r="U953" s="25"/>
@@ -71017,7 +71013,7 @@
       </c>
       <c r="R954" s="26"/>
       <c r="S954" s="24" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="T954" s="25"/>
       <c r="U954" s="25"/>
@@ -71026,7 +71022,7 @@
         <v>448</v>
       </c>
       <c r="X954" s="23" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="955" spans="1:24" ht="108" customHeight="1">
@@ -71075,7 +71071,7 @@
       </c>
       <c r="R955" s="26"/>
       <c r="S955" s="104" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="T955" s="25"/>
       <c r="U955" s="25"/>
@@ -71131,7 +71127,7 @@
       </c>
       <c r="R956" s="26"/>
       <c r="S956" s="24" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="T956" s="25"/>
       <c r="U956" s="25"/>
@@ -71162,7 +71158,7 @@
         <v>453</v>
       </c>
       <c r="F957" s="26" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G957" s="26" t="s">
         <v>168</v>
@@ -71191,7 +71187,7 @@
       </c>
       <c r="R957" s="26"/>
       <c r="S957" s="24" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="T957" s="25">
         <v>0.375</v>
@@ -71249,7 +71245,7 @@
       </c>
       <c r="R958" s="26"/>
       <c r="S958" s="24" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="T958" s="25"/>
       <c r="U958" s="25"/>
@@ -71305,7 +71301,7 @@
       </c>
       <c r="R959" s="26"/>
       <c r="S959" s="24" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="T959" s="25"/>
       <c r="U959" s="25"/>
@@ -71359,7 +71355,7 @@
       </c>
       <c r="R960" s="26"/>
       <c r="S960" s="24" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="T960" s="25"/>
       <c r="U960" s="25"/>
@@ -71417,7 +71413,7 @@
       </c>
       <c r="R961" s="26"/>
       <c r="S961" s="104" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="T961" s="25">
         <v>0.375</v>
@@ -71475,7 +71471,7 @@
       </c>
       <c r="R962" s="26"/>
       <c r="S962" s="24" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="T962" s="25"/>
       <c r="U962" s="25"/>
@@ -71527,7 +71523,7 @@
       </c>
       <c r="R963" s="26"/>
       <c r="S963" s="24" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T963" s="25"/>
       <c r="U963" s="25"/>
@@ -71583,7 +71579,7 @@
       </c>
       <c r="R964" s="26"/>
       <c r="S964" s="24" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="T964" s="25"/>
       <c r="U964" s="25"/>
@@ -71592,7 +71588,7 @@
         <v>448</v>
       </c>
       <c r="X964" s="23" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="965" spans="1:24" ht="15" customHeight="1">
@@ -71639,14 +71635,14 @@
       </c>
       <c r="R965" s="26"/>
       <c r="S965" s="24" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="T965" s="25"/>
       <c r="U965" s="25"/>
       <c r="V965" s="26"/>
       <c r="W965" s="23"/>
       <c r="X965" s="23" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="966" spans="1:24" ht="15" customHeight="1">
@@ -71695,7 +71691,7 @@
       </c>
       <c r="R966" s="26"/>
       <c r="S966" s="24" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="T966" s="25"/>
       <c r="U966" s="25"/>
@@ -71751,14 +71747,14 @@
       </c>
       <c r="R967" s="26"/>
       <c r="S967" s="24" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="T967" s="25"/>
       <c r="U967" s="25"/>
       <c r="V967" s="26"/>
       <c r="W967" s="23"/>
       <c r="X967" s="23" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="968" spans="1:24" ht="15" customHeight="1">
@@ -71807,7 +71803,7 @@
       </c>
       <c r="R968" s="26"/>
       <c r="S968" s="24" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="T968" s="25"/>
       <c r="U968" s="25"/>
@@ -71865,7 +71861,7 @@
       </c>
       <c r="R969" s="26"/>
       <c r="S969" s="24" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="T969" s="25"/>
       <c r="U969" s="25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3251" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39AC0541-FCBD-47B9-BE90-D816B9C0FF1F}"/>
+  <xr:revisionPtr revIDLastSave="3252" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B0EDF7D-DE59-4AE2-A5E5-9ABE4987C32E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15846" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15853" uniqueCount="769">
   <si>
     <t>ANO</t>
   </si>
@@ -2513,6 +2513,11 @@
   </si>
   <si>
     <t>Fabricar dois suportes para capacetes, sala de segurança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 Desenbuchador HQ
+02 haste de 0,70 centímetros HQ
+</t>
   </si>
 </sst>
 </file>
@@ -3789,8 +3794,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X969" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X969" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X970" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X970" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4134,7 +4139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA969"/>
+  <dimension ref="A1:AA970"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O950" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="S964" sqref="S964"/>
@@ -71873,13 +71878,65 @@
         <v>484</v>
       </c>
     </row>
+    <row r="970" spans="1:24" ht="15" customHeight="1">
+      <c r="A970" s="87">
+        <f>YEAR(D970)</f>
+        <v>2025</v>
+      </c>
+      <c r="B970" s="26">
+        <f>MONTH(D970)</f>
+        <v>2</v>
+      </c>
+      <c r="C970" s="44">
+        <v>985</v>
+      </c>
+      <c r="D970" s="58">
+        <v>45714</v>
+      </c>
+      <c r="E970" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="F970" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G970" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="H970" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I970" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="J970" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K970" s="58"/>
+      <c r="L970" s="26"/>
+      <c r="M970" s="58"/>
+      <c r="N970" s="58"/>
+      <c r="O970" s="26"/>
+      <c r="P970" s="26"/>
+      <c r="Q970" s="26">
+        <v>0</v>
+      </c>
+      <c r="R970" s="26"/>
+      <c r="S970" s="104" t="s">
+        <v>768</v>
+      </c>
+      <c r="T970" s="25"/>
+      <c r="U970" s="25"/>
+      <c r="V970" s="26"/>
+      <c r="W970" s="23"/>
+      <c r="X970" s="23"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
     <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="CANCELADA">
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J969">
+  <conditionalFormatting sqref="J2:J970">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -71946,15 +72003,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -72131,14 +72179,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3252" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B0EDF7D-DE59-4AE2-A5E5-9ABE4987C32E}"/>
+  <xr:revisionPtr revIDLastSave="3319" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D13919ED-AC2F-4EBF-B340-EE8E50463DD7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15853" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15907" uniqueCount="778">
   <si>
     <t>ANO</t>
   </si>
@@ -1989,6 +1989,9 @@
     <t>Eliquelson Batista Lima</t>
   </si>
   <si>
+    <t>AGUARDANDO RETIRADA</t>
+  </si>
+  <si>
     <t>Fabricar 05 hastes HQ DE 1 M</t>
   </si>
   <si>
@@ -2437,7 +2440,7 @@
     <t>8 Suportes de placas de identificação para baias do anexo</t>
   </si>
   <si>
-    <t xml:space="preserve">02 hastes HQ de 80 cm;
+    <t xml:space="preserve">
 01 haste de percussão de 1 m;
 02 hastes percussão de 2 m.
 </t>
@@ -2452,9 +2455,6 @@
   </si>
   <si>
     <t xml:space="preserve">Trocar videas dos mordentes </t>
-  </si>
-  <si>
-    <t>AGUARDANDO RETIRADA</t>
   </si>
   <si>
     <t xml:space="preserve">Arrumar a peça do compensador de rosca 
@@ -2515,9 +2515,37 @@
     <t>Fabricar dois suportes para capacetes, sala de segurança.</t>
   </si>
   <si>
-    <t xml:space="preserve">01 Desenbuchador HQ
+    <t xml:space="preserve">01 Desembuchador HQ
 02 haste de 0,70 centímetros HQ
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabaritar tubos para perfuração, que será por parte dos facility. </t>
+  </si>
+  <si>
+    <t>001-25 MASA - DESCARACT. DA BARRAGEM VENÉ I</t>
+  </si>
+  <si>
+    <t>Rodrigo Borges de Oliveira</t>
+  </si>
+  <si>
+    <t>TROCA DE BOMBA HIDRÁULICA E OU RECUPERAÇÃO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troca do motor de partida </t>
+  </si>
+  <si>
+    <t>Fabricação de uma haste HQ 50 cm com rosca NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falange de adaptador </t>
+  </si>
+  <si>
+    <t>Guincho do cabo está travado</t>
+  </si>
+  <si>
+    <t>Guincho do cabo principal está travado
+Fazer a troca do filtro de óleo da sonda S40</t>
   </si>
 </sst>
 </file>
@@ -2852,7 +2880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3169,6 +3197,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3794,8 +3825,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X970" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X970" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X977" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X977" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4139,10 +4170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA970"/>
+  <dimension ref="A1:AA977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O950" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S964" sqref="S964"/>
+    <sheetView tabSelected="1" topLeftCell="A835" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A840" sqref="A840:XFD840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -4155,7 +4186,7 @@
     <col min="7" max="7" width="30.5703125" style="88" customWidth="1"/>
     <col min="8" max="8" width="27.5703125" style="88" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" style="88" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="88" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="88" customWidth="1"/>
     <col min="11" max="11" width="27.5703125" style="88" customWidth="1"/>
     <col min="12" max="12" width="26.42578125" style="88" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" style="88" bestFit="1" customWidth="1"/>
@@ -64347,7 +64378,7 @@
         <v>35</v>
       </c>
       <c r="J840" s="1" t="s">
-        <v>428</v>
+        <v>612</v>
       </c>
       <c r="K840" s="51">
         <v>45685</v>
@@ -64368,7 +64399,7 @@
         <v>433</v>
       </c>
       <c r="S840" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="T840" s="8">
         <v>0.33333333333333331</v>
@@ -64454,7 +64485,7 @@
         <v>546</v>
       </c>
       <c r="G842" s="41" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H842" s="3" t="s">
         <v>297</v>
@@ -64504,7 +64535,7 @@
         <v>399</v>
       </c>
       <c r="G843" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H843" s="3" t="s">
         <v>299</v>
@@ -64554,7 +64585,7 @@
         <v>438</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>297</v>
@@ -64704,7 +64735,7 @@
         <v>546</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H847" s="3" t="s">
         <v>297</v>
@@ -64826,7 +64857,7 @@
       </c>
       <c r="R849" s="3"/>
       <c r="S849" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="T849" s="3"/>
       <c r="U849" s="3"/>
@@ -64878,7 +64909,7 @@
       </c>
       <c r="R850" s="3"/>
       <c r="S850" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="T850" s="3"/>
       <c r="U850" s="3"/>
@@ -64912,7 +64943,7 @@
         <v>438</v>
       </c>
       <c r="G851" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H851" s="3" t="s">
         <v>297</v>
@@ -64934,7 +64965,7 @@
       </c>
       <c r="R851" s="3"/>
       <c r="S851" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="T851" s="3"/>
       <c r="U851" s="3"/>
@@ -64986,7 +65017,7 @@
       </c>
       <c r="R852" s="3"/>
       <c r="S852" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="T852" s="3"/>
       <c r="U852" s="3"/>
@@ -65042,7 +65073,7 @@
       </c>
       <c r="R853" s="3"/>
       <c r="S853" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="T853" s="3"/>
       <c r="U853" s="3"/>
@@ -65072,7 +65103,7 @@
         <v>438</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>297</v>
@@ -65094,7 +65125,7 @@
       </c>
       <c r="R854" s="3"/>
       <c r="S854" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="T854" s="3"/>
       <c r="U854" s="3"/>
@@ -65150,7 +65181,7 @@
       </c>
       <c r="R855" s="3"/>
       <c r="S855" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="T855" s="3"/>
       <c r="U855" s="3"/>
@@ -65204,7 +65235,7 @@
       </c>
       <c r="R856" s="3"/>
       <c r="S856" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="T856" s="3"/>
       <c r="U856" s="3"/>
@@ -65228,7 +65259,7 @@
         <v>45691.744351851848</v>
       </c>
       <c r="E857" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F857" s="3" t="s">
         <v>546</v>
@@ -65258,7 +65289,7 @@
       </c>
       <c r="R857" s="3"/>
       <c r="S857" s="12" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="T857" s="3"/>
       <c r="U857" s="3"/>
@@ -65316,7 +65347,7 @@
       </c>
       <c r="R858" s="3"/>
       <c r="S858" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="T858" s="3"/>
       <c r="U858" s="3"/>
@@ -65352,7 +65383,7 @@
         <v>297</v>
       </c>
       <c r="I859" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="J859" s="3" t="s">
         <v>60</v>
@@ -65368,7 +65399,7 @@
       </c>
       <c r="R859" s="3"/>
       <c r="S859" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="T859" s="3"/>
       <c r="U859" s="3"/>
@@ -65430,7 +65461,7 @@
         <v>433</v>
       </c>
       <c r="S860" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="T860" s="7">
         <v>0.34722222222222221</v>
@@ -65500,7 +65531,7 @@
         <v>433</v>
       </c>
       <c r="S861" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="T861" s="7">
         <v>0.61597222222222225</v>
@@ -65560,7 +65591,7 @@
       </c>
       <c r="R862" s="1"/>
       <c r="S862" s="12" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="T862" s="3"/>
       <c r="U862" s="3"/>
@@ -65590,7 +65621,7 @@
         <v>574</v>
       </c>
       <c r="G863" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H863" s="3" t="s">
         <v>297</v>
@@ -65622,7 +65653,7 @@
         <v>433</v>
       </c>
       <c r="S863" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="T863" s="7">
         <v>0.33333333333333331</v>
@@ -65692,7 +65723,7 @@
         <v>433</v>
       </c>
       <c r="S864" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="T864" s="14">
         <v>0.33333333333333331</v>
@@ -65727,10 +65758,10 @@
         <v>47</v>
       </c>
       <c r="F865" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G865" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H865" s="3" t="s">
         <v>297</v>
@@ -65762,7 +65793,7 @@
         <v>433</v>
       </c>
       <c r="S865" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="T865" s="14">
         <v>0.33333333333333331</v>
@@ -65830,7 +65861,7 @@
         <v>433</v>
       </c>
       <c r="S866" s="12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T866" s="7">
         <v>0.625</v>
@@ -65863,7 +65894,7 @@
         <v>47</v>
       </c>
       <c r="F867" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G867" s="3" t="s">
         <v>575</v>
@@ -65898,7 +65929,7 @@
         <v>433</v>
       </c>
       <c r="S867" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="T867" s="14">
         <v>0.33333333333333331</v>
@@ -65936,7 +65967,7 @@
         <v>99</v>
       </c>
       <c r="G868" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H868" s="3" t="s">
         <v>297</v>
@@ -65960,7 +65991,7 @@
       </c>
       <c r="R868" s="1"/>
       <c r="S868" s="28" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="T868" s="3"/>
       <c r="U868" s="3"/>
@@ -66016,14 +66047,14 @@
       <c r="Q869" s="3"/>
       <c r="R869" s="3"/>
       <c r="S869" s="28" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T869" s="3"/>
       <c r="U869" s="3"/>
       <c r="V869" s="3"/>
       <c r="W869" s="6"/>
       <c r="X869" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="870" spans="1:24" hidden="1">
@@ -66070,7 +66101,7 @@
       <c r="Q870" s="3"/>
       <c r="R870" s="3"/>
       <c r="S870" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="T870" s="3"/>
       <c r="U870" s="3"/>
@@ -66130,7 +66161,7 @@
       <c r="Q871" s="3"/>
       <c r="R871" s="3"/>
       <c r="S871" s="28" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="T871" s="7">
         <v>0.66666666666666663</v>
@@ -66188,7 +66219,7 @@
       <c r="Q872" s="32"/>
       <c r="R872" s="32"/>
       <c r="S872" s="30" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="T872" s="31"/>
       <c r="U872" s="31"/>
@@ -66218,7 +66249,7 @@
         <v>95</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H873" s="32" t="s">
         <v>297</v>
@@ -66238,7 +66269,7 @@
       <c r="Q873" s="32"/>
       <c r="R873" s="32"/>
       <c r="S873" s="30" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="T873" s="31"/>
       <c r="U873" s="31"/>
@@ -66288,7 +66319,7 @@
       <c r="Q874" s="32"/>
       <c r="R874" s="32"/>
       <c r="S874" s="30" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="T874" s="31"/>
       <c r="U874" s="31"/>
@@ -66340,7 +66371,7 @@
       <c r="Q875" s="32"/>
       <c r="R875" s="32"/>
       <c r="S875" s="30" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="T875" s="31"/>
       <c r="U875" s="31"/>
@@ -66394,7 +66425,7 @@
       <c r="Q876" s="32"/>
       <c r="R876" s="32"/>
       <c r="S876" s="37" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="T876" s="31"/>
       <c r="U876" s="31"/>
@@ -66448,7 +66479,7 @@
       <c r="Q877" s="32"/>
       <c r="R877" s="32"/>
       <c r="S877" s="30" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="T877" s="31"/>
       <c r="U877" s="31"/>
@@ -66712,7 +66743,7 @@
         <v>45694.829513888886</v>
       </c>
       <c r="E884" s="36" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F884" s="36" t="s">
         <v>152</v>
@@ -66724,7 +66755,7 @@
         <v>299</v>
       </c>
       <c r="I884" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J884" s="36" t="s">
         <v>29</v>
@@ -66744,7 +66775,7 @@
       </c>
       <c r="R884" s="36"/>
       <c r="S884" s="28" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="T884" s="35">
         <v>0.33333333333333331</v>
@@ -66775,16 +66806,16 @@
         <v>47</v>
       </c>
       <c r="F885" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G885" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H885" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I885" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J885" s="3" t="s">
         <v>29</v>
@@ -66812,7 +66843,7 @@
         <v>433</v>
       </c>
       <c r="S885" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="T885" s="7">
         <v>0.39374999999999999</v>
@@ -66825,7 +66856,7 @@
         <v>448</v>
       </c>
       <c r="X885" s="6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="886" spans="1:24" hidden="1">
@@ -66850,7 +66881,7 @@
         <v>99</v>
       </c>
       <c r="G886" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H886" s="3" t="s">
         <v>299</v>
@@ -66876,7 +66907,7 @@
       </c>
       <c r="R886" s="1"/>
       <c r="S886" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="T886" s="7">
         <v>0.33333333333333331</v>
@@ -66916,7 +66947,7 @@
         <v>297</v>
       </c>
       <c r="I887" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J887" s="3" t="s">
         <v>428</v>
@@ -66936,7 +66967,7 @@
       </c>
       <c r="R887" s="3"/>
       <c r="S887" s="12" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="T887" s="7">
         <v>0.67986111111111114</v>
@@ -66972,7 +67003,7 @@
         <v>31</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H888" s="3" t="s">
         <v>297</v>
@@ -66994,7 +67025,7 @@
       </c>
       <c r="R888" s="3"/>
       <c r="S888" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="T888" s="3"/>
       <c r="U888" s="3"/>
@@ -67034,7 +67065,7 @@
         <v>299</v>
       </c>
       <c r="I889" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J889" s="3" t="s">
         <v>29</v>
@@ -67055,10 +67086,10 @@
         <v>405</v>
       </c>
       <c r="R889" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="S889" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="T889" s="7">
         <v>0.33333333333333331</v>
@@ -67068,7 +67099,7 @@
       </c>
       <c r="V889" s="3"/>
       <c r="W889" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="X889" s="6"/>
     </row>
@@ -67094,7 +67125,7 @@
         <v>31</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H890" s="3" t="s">
         <v>297</v>
@@ -67126,7 +67157,7 @@
         <v>433</v>
       </c>
       <c r="S890" s="12" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="T890" s="7">
         <v>0.3576388888888889</v>
@@ -67160,7 +67191,7 @@
         <v>126</v>
       </c>
       <c r="G891" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H891" s="3" t="s">
         <v>297</v>
@@ -67186,7 +67217,7 @@
       </c>
       <c r="R891" s="1"/>
       <c r="S891" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T891" s="7">
         <v>0.33333333333333331</v>
@@ -67228,7 +67259,7 @@
         <v>299</v>
       </c>
       <c r="I892" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J892" s="3" t="s">
         <v>29</v>
@@ -67248,13 +67279,13 @@
       </c>
       <c r="R892" s="3"/>
       <c r="S892" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="T892" s="3"/>
       <c r="U892" s="3"/>
       <c r="V892" s="3"/>
       <c r="W892" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X892" s="6"/>
     </row>
@@ -67308,7 +67339,7 @@
       </c>
       <c r="R893" s="3"/>
       <c r="S893" s="12" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="T893" s="7">
         <v>0.65277777777777779</v>
@@ -67344,7 +67375,7 @@
         <v>546</v>
       </c>
       <c r="G894" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H894" s="3" t="s">
         <v>297</v>
@@ -67374,7 +67405,7 @@
       </c>
       <c r="R894" s="3"/>
       <c r="S894" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="T894" s="7">
         <v>0.58333333333333337</v>
@@ -67384,7 +67415,7 @@
       </c>
       <c r="V894" s="3"/>
       <c r="W894" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="X894" s="6"/>
     </row>
@@ -67416,7 +67447,7 @@
         <v>299</v>
       </c>
       <c r="I895" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J895" s="3" t="s">
         <v>29</v>
@@ -67436,7 +67467,7 @@
       </c>
       <c r="R895" s="3"/>
       <c r="S895" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="T895" s="7">
         <v>0.60416666666666663</v>
@@ -67446,7 +67477,7 @@
       </c>
       <c r="V895" s="3"/>
       <c r="W895" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="X895" s="6"/>
     </row>
@@ -67500,7 +67531,7 @@
       </c>
       <c r="R896" s="3"/>
       <c r="S896" s="12" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="T896" s="7">
         <v>0.65277777777777779</v>
@@ -67530,13 +67561,13 @@
         <v>45699</v>
       </c>
       <c r="E897" s="36" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F897" s="36" t="s">
         <v>391</v>
       </c>
       <c r="G897" s="36" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H897" s="36" t="s">
         <v>299</v>
@@ -67564,7 +67595,7 @@
       </c>
       <c r="R897" s="36"/>
       <c r="S897" s="28" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="T897" s="35">
         <v>0.41666666666666669</v>
@@ -67574,7 +67605,7 @@
       </c>
       <c r="V897" s="36"/>
       <c r="W897" s="33" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X897" s="27"/>
     </row>
@@ -67600,7 +67631,7 @@
         <v>546</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H898" s="3" t="s">
         <v>297</v>
@@ -67626,13 +67657,13 @@
       </c>
       <c r="R898" s="3"/>
       <c r="S898" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="T898" s="3"/>
       <c r="U898" s="3"/>
       <c r="V898" s="3"/>
       <c r="W898" s="6" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="X898" s="6"/>
     </row>
@@ -67658,7 +67689,7 @@
         <v>186</v>
       </c>
       <c r="G899" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H899" s="3" t="s">
         <v>299</v>
@@ -67684,7 +67715,7 @@
       </c>
       <c r="R899" s="3"/>
       <c r="S899" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="T899" s="7">
         <v>0.64583333333333337</v>
@@ -67694,7 +67725,7 @@
       </c>
       <c r="V899" s="3"/>
       <c r="W899" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X899" s="6"/>
     </row>
@@ -67746,7 +67777,7 @@
       </c>
       <c r="R900" s="3"/>
       <c r="S900" s="12" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="T900" s="7">
         <v>0.54166666666666663</v>
@@ -67808,7 +67839,7 @@
       </c>
       <c r="R901" s="3"/>
       <c r="S901" s="12" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="T901" s="7">
         <v>0.63124999999999998</v>
@@ -67838,7 +67869,7 @@
         <v>45699.760763888888</v>
       </c>
       <c r="E902" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F902" s="3" t="s">
         <v>546</v>
@@ -67870,7 +67901,7 @@
       </c>
       <c r="R902" s="3"/>
       <c r="S902" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="T902" s="7">
         <v>0.33333333333333331</v>
@@ -67932,7 +67963,7 @@
       </c>
       <c r="R903" s="3"/>
       <c r="S903" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="T903" s="7">
         <v>0.4201388888888889</v>
@@ -67965,7 +67996,7 @@
         <v>47</v>
       </c>
       <c r="F904" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G904" s="3" t="s">
         <v>560</v>
@@ -67974,7 +68005,7 @@
         <v>297</v>
       </c>
       <c r="I904" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J904" s="3" t="s">
         <v>29</v>
@@ -67994,7 +68025,7 @@
       </c>
       <c r="R904" s="3"/>
       <c r="S904" s="12" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="T904" s="7">
         <v>0.41666666666666669</v>
@@ -68004,7 +68035,7 @@
       </c>
       <c r="V904" s="3"/>
       <c r="W904" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="X904" s="6"/>
     </row>
@@ -68064,7 +68095,7 @@
         <v>433</v>
       </c>
       <c r="S905" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="T905" s="7">
         <v>0.60416666666666663</v>
@@ -68122,7 +68153,7 @@
       </c>
       <c r="R906" s="3"/>
       <c r="S906" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="T906" s="3"/>
       <c r="U906" s="3"/>
@@ -68184,7 +68215,7 @@
       </c>
       <c r="R907" s="3"/>
       <c r="S907" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="T907" s="7">
         <v>0.58333333333333337</v>
@@ -68220,7 +68251,7 @@
         <v>391</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H908" s="3" t="s">
         <v>299</v>
@@ -68246,7 +68277,7 @@
       </c>
       <c r="R908" s="3"/>
       <c r="S908" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="T908" s="7">
         <v>0.625</v>
@@ -68256,7 +68287,7 @@
       </c>
       <c r="V908" s="3"/>
       <c r="W908" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X908" s="6"/>
     </row>
@@ -68288,7 +68319,7 @@
         <v>299</v>
       </c>
       <c r="I909" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J909" s="3" t="s">
         <v>29</v>
@@ -68308,7 +68339,7 @@
       </c>
       <c r="R909" s="3"/>
       <c r="S909" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="T909" s="7">
         <v>0.57430555555555551</v>
@@ -68318,7 +68349,7 @@
       </c>
       <c r="V909" s="3"/>
       <c r="W909" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="X909" s="6"/>
     </row>
@@ -68350,7 +68381,7 @@
         <v>299</v>
       </c>
       <c r="I910" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J910" s="3" t="s">
         <v>29</v>
@@ -68372,7 +68403,7 @@
       </c>
       <c r="R910" s="3"/>
       <c r="S910" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="T910" s="7">
         <v>0.625</v>
@@ -68382,7 +68413,7 @@
       </c>
       <c r="V910" s="3"/>
       <c r="W910" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="X910" s="6"/>
     </row>
@@ -68408,13 +68439,13 @@
         <v>95</v>
       </c>
       <c r="G911" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H911" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I911" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J911" s="3" t="s">
         <v>29</v>
@@ -68436,7 +68467,7 @@
       </c>
       <c r="R911" s="3"/>
       <c r="S911" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="T911" s="7">
         <v>0.37013888888888891</v>
@@ -68446,7 +68477,7 @@
       </c>
       <c r="V911" s="3"/>
       <c r="W911" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="X911" s="6"/>
     </row>
@@ -68478,7 +68509,7 @@
         <v>299</v>
       </c>
       <c r="I912" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J912" s="3" t="s">
         <v>29</v>
@@ -68500,7 +68531,7 @@
       </c>
       <c r="R912" s="3"/>
       <c r="S912" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="T912" s="7">
         <v>0.54166666666666663</v>
@@ -68510,7 +68541,7 @@
       </c>
       <c r="V912" s="3"/>
       <c r="W912" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="X912" s="6"/>
     </row>
@@ -68542,7 +68573,7 @@
         <v>299</v>
       </c>
       <c r="I913" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J913" s="3" t="s">
         <v>29</v>
@@ -68562,7 +68593,7 @@
       </c>
       <c r="R913" s="3"/>
       <c r="S913" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="T913" s="7">
         <v>0.45833333333333331</v>
@@ -68596,7 +68627,7 @@
         <v>391</v>
       </c>
       <c r="G914" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H914" s="3" t="s">
         <v>297</v>
@@ -68622,16 +68653,16 @@
       </c>
       <c r="R914" s="3"/>
       <c r="S914" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="T914" s="7"/>
       <c r="U914" s="3"/>
       <c r="V914" s="3"/>
       <c r="W914" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="X914" s="6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="915" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68662,7 +68693,7 @@
         <v>297</v>
       </c>
       <c r="I915" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J915" s="3" t="s">
         <v>29</v>
@@ -68678,7 +68709,7 @@
       </c>
       <c r="R915" s="3"/>
       <c r="S915" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="T915" s="7"/>
       <c r="U915" s="3"/>
@@ -68706,13 +68737,13 @@
         <v>45701.614502314813</v>
       </c>
       <c r="E916" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>399</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>297</v>
@@ -68742,7 +68773,7 @@
         <v>500</v>
       </c>
       <c r="S916" s="12" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="T916" s="7"/>
       <c r="U916" s="3"/>
@@ -68776,13 +68807,13 @@
         <v>546</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H917" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I917" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J917" s="3" t="s">
         <v>29</v>
@@ -68804,7 +68835,7 @@
       </c>
       <c r="R917" s="3"/>
       <c r="S917" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="T917" s="7">
         <v>0.58611111111111114</v>
@@ -68815,7 +68846,7 @@
         <v>448</v>
       </c>
       <c r="X917" s="6" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="918" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68868,7 +68899,7 @@
       </c>
       <c r="R918" s="3"/>
       <c r="S918" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="T918" s="7">
         <v>0.58333333333333337</v>
@@ -68926,7 +68957,7 @@
       </c>
       <c r="R919" s="3"/>
       <c r="S919" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="T919" s="7"/>
       <c r="U919" s="3"/>
@@ -68960,13 +68991,13 @@
         <v>334</v>
       </c>
       <c r="G920" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H920" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I920" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J920" s="3" t="s">
         <v>29</v>
@@ -68986,7 +69017,7 @@
       </c>
       <c r="R920" s="3"/>
       <c r="S920" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="T920" s="7">
         <v>0.66666666666666663</v>
@@ -68996,7 +69027,7 @@
       </c>
       <c r="V920" s="3"/>
       <c r="W920" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="X920" s="6" t="s">
         <v>441</v>
@@ -69052,7 +69083,7 @@
       </c>
       <c r="R921" s="3"/>
       <c r="S921" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="T921" s="7">
         <v>0.375</v>
@@ -69114,7 +69145,7 @@
       </c>
       <c r="R922" s="3"/>
       <c r="S922" s="12" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="T922" s="7">
         <v>0.52083333333333337</v>
@@ -69144,10 +69175,10 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E923" s="81" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F923" s="81" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G923" s="81" t="s">
         <v>560</v>
@@ -69156,7 +69187,7 @@
         <v>297</v>
       </c>
       <c r="I923" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J923" s="3" t="s">
         <v>29</v>
@@ -69178,7 +69209,7 @@
       </c>
       <c r="R923" s="3"/>
       <c r="S923" s="100" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="T923" s="7">
         <v>0.54166666666666663</v>
@@ -69220,7 +69251,7 @@
         <v>299</v>
       </c>
       <c r="I924" s="61" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J924" s="61" t="s">
         <v>29</v>
@@ -69240,7 +69271,7 @@
       </c>
       <c r="R924" s="40"/>
       <c r="S924" s="101" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="T924" s="63">
         <v>0.5625</v>
@@ -69248,7 +69279,7 @@
       <c r="U924" s="40"/>
       <c r="V924" s="40"/>
       <c r="W924" s="40" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X924" s="40"/>
     </row>
@@ -69300,7 +69331,7 @@
       </c>
       <c r="R925" s="64"/>
       <c r="S925" s="102" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="T925" s="67">
         <v>0.41666666666666669</v>
@@ -69336,13 +69367,13 @@
         <v>546</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H926" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I926" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="J926" s="3" t="s">
         <v>29</v>
@@ -69362,13 +69393,13 @@
       </c>
       <c r="R926" s="3"/>
       <c r="S926" s="16" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="T926" s="7"/>
       <c r="U926" s="3"/>
       <c r="V926" s="3"/>
       <c r="W926" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="X926" s="6"/>
     </row>
@@ -69422,7 +69453,7 @@
       </c>
       <c r="R927" s="3"/>
       <c r="S927" s="16" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="T927" s="7"/>
       <c r="U927" s="3"/>
@@ -69456,7 +69487,7 @@
         <v>391</v>
       </c>
       <c r="G928" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H928" s="3" t="s">
         <v>297</v>
@@ -69478,7 +69509,7 @@
       </c>
       <c r="R928" s="3"/>
       <c r="S928" s="16" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="T928" s="7"/>
       <c r="U928" s="3"/>
@@ -69518,7 +69549,7 @@
         <v>297</v>
       </c>
       <c r="I929" s="18" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J929" s="44" t="s">
         <v>29</v>
@@ -69540,7 +69571,7 @@
       </c>
       <c r="R929" s="18"/>
       <c r="S929" s="17" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="T929" s="22">
         <v>0.35625000000000001</v>
@@ -69551,7 +69582,7 @@
         <v>448</v>
       </c>
       <c r="X929" s="21" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="930" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69604,7 +69635,7 @@
       </c>
       <c r="R930" s="18"/>
       <c r="S930" s="17" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="T930" s="22">
         <v>0.34722222222222221</v>
@@ -69614,7 +69645,7 @@
       </c>
       <c r="V930" s="19"/>
       <c r="W930" s="20" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="X930" s="21"/>
     </row>
@@ -69640,7 +69671,7 @@
         <v>186</v>
       </c>
       <c r="G931" s="26" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H931" s="26" t="s">
         <v>299</v>
@@ -69668,7 +69699,7 @@
       </c>
       <c r="R931" s="26"/>
       <c r="S931" s="24" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="T931" s="25"/>
       <c r="U931" s="25"/>
@@ -69694,7 +69725,7 @@
         <v>45705.627858796295</v>
       </c>
       <c r="E932" s="26" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F932" s="26" t="s">
         <v>424</v>
@@ -69706,7 +69737,7 @@
         <v>299</v>
       </c>
       <c r="I932" s="26" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J932" s="57" t="s">
         <v>29</v>
@@ -69728,7 +69759,7 @@
       </c>
       <c r="R932" s="26"/>
       <c r="S932" s="24" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="T932" s="25">
         <v>0.29166666666666669</v>
@@ -69738,7 +69769,7 @@
       </c>
       <c r="V932" s="26"/>
       <c r="W932" s="23" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="X932" s="23"/>
     </row>
@@ -69764,13 +69795,13 @@
         <v>99</v>
       </c>
       <c r="G933" s="26" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H933" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I933" s="26" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J933" s="57" t="s">
         <v>29</v>
@@ -69786,13 +69817,13 @@
       </c>
       <c r="R933" s="26"/>
       <c r="S933" s="24" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="T933" s="25"/>
       <c r="U933" s="25"/>
       <c r="V933" s="26"/>
       <c r="W933" s="23" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X933" s="23"/>
     </row>
@@ -69818,7 +69849,7 @@
         <v>186</v>
       </c>
       <c r="G934" s="26" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H934" s="26" t="s">
         <v>299</v>
@@ -69840,13 +69871,13 @@
       </c>
       <c r="R934" s="26"/>
       <c r="S934" s="24" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="T934" s="25"/>
       <c r="U934" s="25"/>
       <c r="V934" s="26"/>
       <c r="W934" s="23" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="X934" s="23"/>
     </row>
@@ -69872,7 +69903,7 @@
         <v>546</v>
       </c>
       <c r="G935" s="26" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H935" s="26" t="s">
         <v>297</v>
@@ -69894,7 +69925,7 @@
       </c>
       <c r="R935" s="26"/>
       <c r="S935" s="24" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="T935" s="25"/>
       <c r="U935" s="25"/>
@@ -69926,7 +69957,7 @@
         <v>574</v>
       </c>
       <c r="G936" s="26" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H936" s="26" t="s">
         <v>297</v>
@@ -69948,7 +69979,7 @@
       </c>
       <c r="R936" s="26"/>
       <c r="S936" s="24" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="T936" s="25"/>
       <c r="U936" s="25"/>
@@ -70010,7 +70041,7 @@
         <v>433</v>
       </c>
       <c r="S937" s="24" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="T937" s="25"/>
       <c r="U937" s="25"/>
@@ -70044,13 +70075,13 @@
         <v>546</v>
       </c>
       <c r="G938" s="26" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H938" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I938" s="26" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="J938" s="57" t="s">
         <v>428</v>
@@ -70076,7 +70107,7 @@
         <v>433</v>
       </c>
       <c r="S938" s="24" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="T938" s="25"/>
       <c r="U938" s="25"/>
@@ -70085,7 +70116,7 @@
         <v>448</v>
       </c>
       <c r="X938" s="23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="939" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70110,13 +70141,13 @@
         <v>546</v>
       </c>
       <c r="G939" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H939" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I939" s="26" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J939" s="57" t="s">
         <v>29</v>
@@ -70134,7 +70165,7 @@
       </c>
       <c r="R939" s="26"/>
       <c r="S939" s="24" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="T939" s="25"/>
       <c r="U939" s="25"/>
@@ -70170,7 +70201,7 @@
         <v>297</v>
       </c>
       <c r="I940" s="26" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J940" s="57" t="s">
         <v>60</v>
@@ -70188,7 +70219,7 @@
       </c>
       <c r="R940" s="26"/>
       <c r="S940" s="24" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T940" s="25"/>
       <c r="U940" s="25"/>
@@ -70197,7 +70228,7 @@
         <v>448</v>
       </c>
       <c r="X940" s="23" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="941" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70222,7 +70253,7 @@
         <v>546</v>
       </c>
       <c r="G941" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H941" s="26" t="s">
         <v>297</v>
@@ -70246,7 +70277,7 @@
       </c>
       <c r="R941" s="26"/>
       <c r="S941" s="24" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="T941" s="25"/>
       <c r="U941" s="25"/>
@@ -70255,7 +70286,7 @@
         <v>448</v>
       </c>
       <c r="X941" s="23" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="942" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70302,7 +70333,7 @@
       </c>
       <c r="R942" s="26"/>
       <c r="S942" s="24" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="T942" s="25"/>
       <c r="U942" s="25"/>
@@ -70332,13 +70363,13 @@
         <v>546</v>
       </c>
       <c r="G943" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H943" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I943" s="26" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J943" s="57" t="s">
         <v>29</v>
@@ -70358,7 +70389,7 @@
       </c>
       <c r="R943" s="26"/>
       <c r="S943" s="24" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="T943" s="25"/>
       <c r="U943" s="25"/>
@@ -70367,7 +70398,7 @@
         <v>448</v>
       </c>
       <c r="X943" s="23" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="944" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70398,7 +70429,7 @@
         <v>297</v>
       </c>
       <c r="I944" s="26" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J944" s="57" t="s">
         <v>29</v>
@@ -70418,7 +70449,7 @@
       </c>
       <c r="R944" s="26"/>
       <c r="S944" s="24" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="T944" s="25"/>
       <c r="U944" s="25"/>
@@ -70448,7 +70479,7 @@
         <v>546</v>
       </c>
       <c r="G945" s="26" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H945" s="26" t="s">
         <v>297</v>
@@ -70482,7 +70513,7 @@
         <v>433</v>
       </c>
       <c r="S945" s="24" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="T945" s="25"/>
       <c r="U945" s="25"/>
@@ -70516,15 +70547,15 @@
         <v>186</v>
       </c>
       <c r="G946" s="26" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H946" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I946" s="26" t="s">
-        <v>740</v>
-      </c>
-      <c r="J946" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="J946" s="44" t="s">
         <v>442</v>
       </c>
       <c r="K946" s="58">
@@ -70540,7 +70571,7 @@
       </c>
       <c r="R946" s="26"/>
       <c r="S946" s="24" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="T946" s="25">
         <v>0.54166666666666663</v>
@@ -70548,10 +70579,10 @@
       <c r="U946" s="25"/>
       <c r="V946" s="26"/>
       <c r="W946" s="23" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="X946" s="23" t="s">
-        <v>642</v>
+        <v>733</v>
       </c>
     </row>
     <row r="947" spans="1:24" ht="15" customHeight="1">
@@ -70600,7 +70631,7 @@
       </c>
       <c r="R947" s="26"/>
       <c r="S947" s="24" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="T947" s="25"/>
       <c r="U947" s="25"/>
@@ -70656,7 +70687,7 @@
       </c>
       <c r="R948" s="26"/>
       <c r="S948" s="24" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="T948" s="25"/>
       <c r="U948" s="25"/>
@@ -70688,13 +70719,13 @@
         <v>546</v>
       </c>
       <c r="G949" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H949" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I949" s="26" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J949" s="57" t="s">
         <v>29</v>
@@ -70714,7 +70745,7 @@
       </c>
       <c r="R949" s="26"/>
       <c r="S949" s="24" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="T949" s="25"/>
       <c r="U949" s="25"/>
@@ -70723,7 +70754,7 @@
         <v>448</v>
       </c>
       <c r="X949" s="23" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="950" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70754,7 +70785,7 @@
         <v>299</v>
       </c>
       <c r="I950" s="26" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J950" s="57" t="s">
         <v>29</v>
@@ -70776,7 +70807,7 @@
       </c>
       <c r="R950" s="26"/>
       <c r="S950" s="24" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="T950" s="25">
         <v>0.73611111111111116</v>
@@ -70786,7 +70817,7 @@
       </c>
       <c r="V950" s="26"/>
       <c r="W950" s="23" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X950" s="23"/>
     </row>
@@ -70821,7 +70852,7 @@
         <v>570</v>
       </c>
       <c r="J951" s="57" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K951" s="58">
         <v>45712</v>
@@ -70844,7 +70875,7 @@
         <v>433</v>
       </c>
       <c r="S951" s="24" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="T951" s="25"/>
       <c r="U951" s="25"/>
@@ -70856,7 +70887,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="952" spans="1:24" ht="15" customHeight="1">
+    <row r="952" spans="1:24" ht="51" customHeight="1">
       <c r="A952" s="87">
         <f>YEAR(D952)</f>
         <v>2025</v>
@@ -70901,8 +70932,8 @@
         <v>1302</v>
       </c>
       <c r="R952" s="26"/>
-      <c r="S952" s="24" t="s">
-        <v>747</v>
+      <c r="S952" s="104" t="s">
+        <v>748</v>
       </c>
       <c r="T952" s="25"/>
       <c r="U952" s="25"/>
@@ -70936,7 +70967,7 @@
         <v>546</v>
       </c>
       <c r="G953" s="26" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H953" s="26" t="s">
         <v>297</v>
@@ -70958,7 +70989,7 @@
       </c>
       <c r="R953" s="26"/>
       <c r="S953" s="104" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="T953" s="25"/>
       <c r="U953" s="25"/>
@@ -70990,7 +71021,7 @@
         <v>186</v>
       </c>
       <c r="G954" s="26" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H954" s="26" t="s">
         <v>297</v>
@@ -71018,7 +71049,7 @@
       </c>
       <c r="R954" s="26"/>
       <c r="S954" s="24" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="T954" s="25"/>
       <c r="U954" s="25"/>
@@ -71027,7 +71058,7 @@
         <v>448</v>
       </c>
       <c r="X954" s="23" t="s">
-        <v>750</v>
+        <v>612</v>
       </c>
     </row>
     <row r="955" spans="1:24" ht="108" customHeight="1">
@@ -71052,18 +71083,20 @@
         <v>31</v>
       </c>
       <c r="G955" s="26" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H955" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I955" s="26" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J955" s="57" t="s">
         <v>442</v>
       </c>
-      <c r="K955" s="58"/>
+      <c r="K955" s="58">
+        <v>45713</v>
+      </c>
       <c r="L955" s="26"/>
       <c r="M955" s="58">
         <v>45716</v>
@@ -71078,14 +71111,16 @@
       <c r="S955" s="104" t="s">
         <v>751</v>
       </c>
-      <c r="T955" s="25"/>
+      <c r="T955" s="25">
+        <v>0.625</v>
+      </c>
       <c r="U955" s="25"/>
       <c r="V955" s="26"/>
       <c r="W955" s="23" t="s">
-        <v>693</v>
+        <v>440</v>
       </c>
       <c r="X955" s="23" t="s">
-        <v>732</v>
+        <v>496</v>
       </c>
     </row>
     <row r="956" spans="1:24" ht="15" customHeight="1">
@@ -71116,7 +71151,7 @@
         <v>299</v>
       </c>
       <c r="I956" s="26" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J956" s="57" t="s">
         <v>442</v>
@@ -71138,10 +71173,10 @@
       <c r="U956" s="25"/>
       <c r="V956" s="26"/>
       <c r="W956" s="23" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="X956" s="23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="957" spans="1:24" ht="15" customHeight="1">
@@ -71172,7 +71207,7 @@
         <v>297</v>
       </c>
       <c r="I957" s="26" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J957" s="57" t="s">
         <v>428</v>
@@ -71203,7 +71238,7 @@
         <v>440</v>
       </c>
       <c r="X957" s="23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="958" spans="1:24" ht="15" customHeight="1">
@@ -71284,7 +71319,7 @@
         <v>399</v>
       </c>
       <c r="G959" s="26" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H959" s="26" t="s">
         <v>297</v>
@@ -71338,7 +71373,7 @@
         <v>546</v>
       </c>
       <c r="G960" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H960" s="26" t="s">
         <v>297</v>
@@ -71366,7 +71401,7 @@
       <c r="U960" s="25"/>
       <c r="V960" s="26"/>
       <c r="W960" s="23" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="X960" s="23"/>
     </row>
@@ -71392,7 +71427,7 @@
         <v>546</v>
       </c>
       <c r="G961" s="26" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H961" s="26" t="s">
         <v>297</v>
@@ -71506,13 +71541,13 @@
         <v>99</v>
       </c>
       <c r="G963" s="26" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H963" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I963" s="26" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J963" s="57" t="s">
         <v>442</v>
@@ -71534,10 +71569,10 @@
       <c r="U963" s="25"/>
       <c r="V963" s="26"/>
       <c r="W963" s="23" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="X963" s="23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="964" spans="1:24" ht="15" customHeight="1">
@@ -71672,7 +71707,7 @@
         <v>391</v>
       </c>
       <c r="G966" s="26" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H966" s="26" t="s">
         <v>297</v>
@@ -71793,13 +71828,15 @@
         <v>570</v>
       </c>
       <c r="J968" s="57" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K968" s="58">
         <v>45714</v>
       </c>
       <c r="L968" s="26"/>
-      <c r="M968" s="58"/>
+      <c r="M968" s="58">
+        <v>45714</v>
+      </c>
       <c r="N968" s="58"/>
       <c r="O968" s="26"/>
       <c r="P968" s="26"/>
@@ -71810,8 +71847,12 @@
       <c r="S968" s="24" t="s">
         <v>766</v>
       </c>
-      <c r="T968" s="25"/>
-      <c r="U968" s="25"/>
+      <c r="T968" s="25">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="U968" s="25">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="V968" s="26"/>
       <c r="W968" s="23" t="s">
         <v>554</v>
@@ -71842,7 +71883,7 @@
         <v>546</v>
       </c>
       <c r="G969" s="26" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H969" s="26" t="s">
         <v>297</v>
@@ -71851,7 +71892,7 @@
         <v>570</v>
       </c>
       <c r="J969" s="57" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K969" s="58">
         <v>45714</v>
@@ -71878,7 +71919,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="970" spans="1:24" ht="15" customHeight="1">
+    <row r="970" spans="1:24" ht="32.25" customHeight="1">
       <c r="A970" s="87">
         <f>YEAR(D970)</f>
         <v>2025</v>
@@ -71921,14 +71962,396 @@
         <v>0</v>
       </c>
       <c r="R970" s="26"/>
-      <c r="S970" s="104" t="s">
+      <c r="S970" s="107" t="s">
         <v>768</v>
       </c>
       <c r="T970" s="25"/>
       <c r="U970" s="25"/>
       <c r="V970" s="26"/>
-      <c r="W970" s="23"/>
-      <c r="X970" s="23"/>
+      <c r="W970" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="X970" s="23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="971" spans="1:24" ht="15" customHeight="1">
+      <c r="A971" s="87">
+        <f>YEAR(D971)</f>
+        <v>2025</v>
+      </c>
+      <c r="B971" s="26">
+        <f>MONTH(D971)</f>
+        <v>2</v>
+      </c>
+      <c r="C971" s="44">
+        <v>986</v>
+      </c>
+      <c r="D971" s="58">
+        <v>45714</v>
+      </c>
+      <c r="E971" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="F971" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G971" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="H971" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I971" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J971" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K971" s="58">
+        <v>45714</v>
+      </c>
+      <c r="L971" s="26"/>
+      <c r="M971" s="58">
+        <v>45714</v>
+      </c>
+      <c r="N971" s="58"/>
+      <c r="O971" s="26"/>
+      <c r="P971" s="26"/>
+      <c r="Q971" s="26">
+        <v>0</v>
+      </c>
+      <c r="R971" s="26"/>
+      <c r="S971" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="T971" s="25">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="U971" s="25">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="V971" s="26"/>
+      <c r="W971" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="X971" s="23"/>
+    </row>
+    <row r="972" spans="1:24" ht="15" customHeight="1">
+      <c r="A972" s="87">
+        <f>YEAR(D972)</f>
+        <v>2025</v>
+      </c>
+      <c r="B972" s="26">
+        <f>MONTH(D972)</f>
+        <v>2</v>
+      </c>
+      <c r="C972" s="44">
+        <v>987</v>
+      </c>
+      <c r="D972" s="58">
+        <v>45714</v>
+      </c>
+      <c r="E972" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="F972" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="G972" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="H972" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I972" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="J972" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K972" s="58"/>
+      <c r="L972" s="26"/>
+      <c r="M972" s="58"/>
+      <c r="N972" s="58"/>
+      <c r="O972" s="26"/>
+      <c r="P972" s="26"/>
+      <c r="Q972" s="26">
+        <v>51685</v>
+      </c>
+      <c r="R972" s="26"/>
+      <c r="S972" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="T972" s="25"/>
+      <c r="U972" s="25"/>
+      <c r="V972" s="26"/>
+      <c r="W972" s="23"/>
+      <c r="X972" s="23"/>
+    </row>
+    <row r="973" spans="1:24" ht="15" customHeight="1">
+      <c r="A973" s="87">
+        <f>YEAR(D973)</f>
+        <v>2025</v>
+      </c>
+      <c r="B973" s="26">
+        <f>MONTH(D973)</f>
+        <v>2</v>
+      </c>
+      <c r="C973" s="44">
+        <v>988</v>
+      </c>
+      <c r="D973" s="58">
+        <v>45714</v>
+      </c>
+      <c r="E973" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="F973" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="G973" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="H973" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I973" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="J973" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K973" s="58"/>
+      <c r="L973" s="26"/>
+      <c r="M973" s="58"/>
+      <c r="N973" s="58"/>
+      <c r="O973" s="26"/>
+      <c r="P973" s="26"/>
+      <c r="Q973" s="26">
+        <v>963</v>
+      </c>
+      <c r="R973" s="26"/>
+      <c r="S973" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="T973" s="25"/>
+      <c r="U973" s="25"/>
+      <c r="V973" s="26"/>
+      <c r="W973" s="23"/>
+      <c r="X973" s="23"/>
+    </row>
+    <row r="974" spans="1:24" ht="15" customHeight="1">
+      <c r="A974" s="87">
+        <f>YEAR(D974)</f>
+        <v>2025</v>
+      </c>
+      <c r="B974" s="26">
+        <f>MONTH(D974)</f>
+        <v>2</v>
+      </c>
+      <c r="C974" s="44">
+        <v>989</v>
+      </c>
+      <c r="D974" s="58">
+        <v>45714</v>
+      </c>
+      <c r="E974" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="F974" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G974" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="H974" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I974" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="J974" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K974" s="58"/>
+      <c r="L974" s="26"/>
+      <c r="M974" s="58"/>
+      <c r="N974" s="58"/>
+      <c r="O974" s="26"/>
+      <c r="P974" s="26"/>
+      <c r="Q974" s="26">
+        <v>0</v>
+      </c>
+      <c r="R974" s="26"/>
+      <c r="S974" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="T974" s="25"/>
+      <c r="U974" s="25"/>
+      <c r="V974" s="26"/>
+      <c r="W974" s="23"/>
+      <c r="X974" s="23"/>
+    </row>
+    <row r="975" spans="1:24" ht="15" customHeight="1">
+      <c r="A975" s="87">
+        <f>YEAR(D975)</f>
+        <v>2025</v>
+      </c>
+      <c r="B975" s="26">
+        <f>MONTH(D975)</f>
+        <v>2</v>
+      </c>
+      <c r="C975" s="44">
+        <v>990</v>
+      </c>
+      <c r="D975" s="58">
+        <v>45714</v>
+      </c>
+      <c r="E975" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="F975" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G975" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="H975" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I975" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="J975" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K975" s="58"/>
+      <c r="L975" s="26"/>
+      <c r="M975" s="58"/>
+      <c r="N975" s="58"/>
+      <c r="O975" s="26"/>
+      <c r="P975" s="26"/>
+      <c r="Q975" s="26">
+        <v>112</v>
+      </c>
+      <c r="R975" s="26"/>
+      <c r="S975" s="24" t="s">
+        <v>775</v>
+      </c>
+      <c r="T975" s="25"/>
+      <c r="U975" s="25"/>
+      <c r="V975" s="26"/>
+      <c r="W975" s="23"/>
+      <c r="X975" s="23"/>
+    </row>
+    <row r="976" spans="1:24" ht="15" customHeight="1">
+      <c r="A976" s="87">
+        <f>YEAR(D976)</f>
+        <v>2025</v>
+      </c>
+      <c r="B976" s="26">
+        <f>MONTH(D976)</f>
+        <v>2</v>
+      </c>
+      <c r="C976" s="44">
+        <v>991</v>
+      </c>
+      <c r="D976" s="58">
+        <v>45714</v>
+      </c>
+      <c r="E976" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="F976" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G976" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="H976" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I976" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="J976" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K976" s="58"/>
+      <c r="L976" s="26"/>
+      <c r="M976" s="58"/>
+      <c r="N976" s="58"/>
+      <c r="O976" s="26"/>
+      <c r="P976" s="26"/>
+      <c r="Q976" s="26">
+        <v>15364</v>
+      </c>
+      <c r="R976" s="26"/>
+      <c r="S976" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="T976" s="25"/>
+      <c r="U976" s="25"/>
+      <c r="V976" s="26"/>
+      <c r="W976" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="X976" s="23"/>
+    </row>
+    <row r="977" spans="1:24" ht="39" customHeight="1">
+      <c r="A977" s="87">
+        <f>YEAR(D977)</f>
+        <v>2025</v>
+      </c>
+      <c r="B977" s="26">
+        <f>MONTH(D977)</f>
+        <v>2</v>
+      </c>
+      <c r="C977" s="44">
+        <v>992</v>
+      </c>
+      <c r="D977" s="58">
+        <v>45714</v>
+      </c>
+      <c r="E977" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="F977" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G977" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="H977" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I977" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="J977" s="57" t="s">
+        <v>612</v>
+      </c>
+      <c r="K977" s="58"/>
+      <c r="L977" s="26"/>
+      <c r="M977" s="58"/>
+      <c r="N977" s="58"/>
+      <c r="O977" s="26"/>
+      <c r="P977" s="26"/>
+      <c r="Q977" s="26">
+        <v>15364</v>
+      </c>
+      <c r="R977" s="26"/>
+      <c r="S977" s="104" t="s">
+        <v>777</v>
+      </c>
+      <c r="T977" s="25"/>
+      <c r="U977" s="25"/>
+      <c r="V977" s="26"/>
+      <c r="W977" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="X977" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
@@ -71936,7 +72359,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J970">
+  <conditionalFormatting sqref="J2:J977">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -71983,9 +72406,12 @@
       <formula>NOT(ISERROR(SEARCH("AGUARDANDO",J945)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{C8D55F80-0126-4D77-B66E-444039F161D6}">
-      <formula1>"FINALIZADA,EM ANDAMENTO,CANCELADA,AGUARDANDO"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J590" xr:uid="{15A663AD-E0CE-4DA8-BD56-DD19F9521662}">
+      <formula1>"FINALIZADA,EM ANDAMENTO,CANCELADA,AGUARDANDO RETIRADA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{4A33A69B-6EA9-4ED0-B8C5-43C5B86F111E}">
+      <formula1>"ABERTA,FINALIZADA,CANCELADA,EM ANDAMENTO,AGUARDANDO RETIRADA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -71997,12 +72423,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -72179,7 +72599,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -72188,14 +72608,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3319" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D13919ED-AC2F-4EBF-B340-EE8E50463DD7}"/>
+  <xr:revisionPtr revIDLastSave="3394" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62E6C272-8ED1-4019-A93F-44E0FA221F07}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15907" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15991" uniqueCount="794">
   <si>
     <t>ANO</t>
   </si>
@@ -1595,9 +1595,6 @@
     <t>Fabricar uma passarela acima do teto do laboratório para manutenção das centrais de ar</t>
   </si>
   <si>
-    <t>EM FABRICAÇÃO</t>
-  </si>
-  <si>
     <t>Serviço de solda em guarda corpos do caminhão ID 59</t>
   </si>
   <si>
@@ -1671,6 +1668,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pintura nos itens de frentes de serviços: Tripé, grades de proteção, proteção do motor, </t>
+  </si>
+  <si>
+    <t>AGUARDANDO RETIRADA</t>
   </si>
   <si>
     <t>Fabricação de 3 bases para tambor de óleo 200l</t>
@@ -1989,9 +1989,6 @@
     <t>Eliquelson Batista Lima</t>
   </si>
   <si>
-    <t>AGUARDANDO RETIRADA</t>
-  </si>
-  <si>
     <t>Fabricar 05 hastes HQ DE 1 M</t>
   </si>
   <si>
@@ -2026,6 +2023,9 @@
   </si>
   <si>
     <t>3 Reduções do diâmetro da rosca de BW para NQ</t>
+  </si>
+  <si>
+    <t>quita</t>
   </si>
   <si>
     <t>203-24 MASA - PDE TATAJUBA</t>
@@ -2098,6 +2098,9 @@
   </si>
   <si>
     <t>Fabricar 03 rev. hw de 1 m; 02 rev. hw 50 cm e 03 hastes HQ de 70 cm</t>
+  </si>
+  <si>
+    <t>EM FABRICAÇÃO</t>
   </si>
   <si>
     <t>Soldar pegadores nas porcas da carroceria de caminhão munck</t>
@@ -2217,6 +2220,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sonda não pega na partida </t>
+  </si>
+  <si>
+    <t>743 horas</t>
   </si>
   <si>
     <t>REALIZAR MANUTENÇÃO PREVENTIVA DA MAQUINA DE ACORDO COM O PLANO DE MANUTENÇÃO:
@@ -2466,6 +2472,9 @@
 Lubrificação geral </t>
   </si>
   <si>
+    <t>AGUARDANDO TESTES E CHECKLIST</t>
+  </si>
+  <si>
     <t>Realizar solda na grade de proteção da hélice do motor</t>
   </si>
   <si>
@@ -2503,7 +2512,7 @@
     <t>Fabricar suporte de denison para câmara úmida e prateleira para blocos indeformados.</t>
   </si>
   <si>
-    <t>06 trado com videa na ponta HQ</t>
+    <t>06 trados com videas na ponta HQ</t>
   </si>
   <si>
     <t xml:space="preserve">Reforma de prateleiras usadas para acondicionar amostras indeformadas de bloco, realizar após a entrega das outras prateleiras. </t>
@@ -2516,7 +2525,7 @@
   </si>
   <si>
     <t xml:space="preserve">01 Desembuchador HQ
-02 haste de 0,70 centímetros HQ
+02 hastes de 70 centímetros HQ
 </t>
   </si>
   <si>
@@ -2529,7 +2538,7 @@
     <t>Rodrigo Borges de Oliveira</t>
   </si>
   <si>
-    <t>TROCA DE BOMBA HIDRÁULICA E OU RECUPERAÇÃO.</t>
+    <t>Troca de bomba hidraulica</t>
   </si>
   <si>
     <t xml:space="preserve">Troca do motor de partida </t>
@@ -2546,6 +2555,46 @@
   <si>
     <t>Guincho do cabo principal está travado
 Fazer a troca do filtro de óleo da sonda S40</t>
+  </si>
+  <si>
+    <t>Troca do motor de partida e de relé de partida 40A 12 v</t>
+  </si>
+  <si>
+    <t>Pintar guarda corpos do PRANCHA RWL-3G28</t>
+  </si>
+  <si>
+    <t>190-24 VALE - OMBREIRA ESQ. JACARÉ -CKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melhoria no volante do Sarrilho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 camisas denisons. OBS.: utilizar tubos comprados especificamente para esse fim. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substituição do guincho </t>
+  </si>
+  <si>
+    <t>Railton Oliveira da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignição não está funcionando fazer a troca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquina não pega na partida </t>
+  </si>
+  <si>
+    <t>117-23 PIAUÍ NIQUEL</t>
+  </si>
+  <si>
+    <t>01 - adaptação de redução de fêmea BW para macho HQ
+01 - adaptação de redução de fêmea BW para macho HW</t>
+  </si>
+  <si>
+    <t>Fábrica quatro pranchão para as patolas da sonda e dois suporte dos pranchões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobertura da ampliação do laboratório </t>
   </si>
 </sst>
 </file>
@@ -3825,11 +3874,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X977" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X977" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X987" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X987" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
+        <filter val="AGUARDANDO RETIRADA"/>
         <filter val="EM ANDAMENTO"/>
       </filters>
     </filterColumn>
@@ -4170,10 +4220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA977"/>
+  <dimension ref="A1:AA987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A835" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A840" sqref="A840:XFD840"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J980" sqref="J980"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -59487,7 +59537,7 @@
         <v>448</v>
       </c>
       <c r="X760" s="11" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
     </row>
     <row r="761" spans="1:24" hidden="1">
@@ -59548,7 +59598,7 @@
         <v>24</v>
       </c>
       <c r="S761" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T761" s="1" t="s">
         <v>24</v>
@@ -59580,7 +59630,7 @@
         <v>45674</v>
       </c>
       <c r="E762" s="40" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F762" s="47" t="s">
         <v>279</v>
@@ -59622,7 +59672,7 @@
         <v>24</v>
       </c>
       <c r="S762" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="T762" s="1" t="s">
         <v>24</v>
@@ -59654,7 +59704,7 @@
         <v>45674</v>
       </c>
       <c r="E763" s="75" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F763" s="47" t="s">
         <v>438</v>
@@ -59728,7 +59778,7 @@
         <v>45673</v>
       </c>
       <c r="E764" s="40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F764" s="47" t="s">
         <v>432</v>
@@ -59770,7 +59820,7 @@
         <v>24</v>
       </c>
       <c r="S764" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T764" s="8">
         <v>0.33333333333333331</v>
@@ -59786,7 +59836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="765" spans="1:24">
+    <row r="765" spans="1:24" hidden="1">
       <c r="A765" s="72">
         <f>YEAR(D765)</f>
         <v>2025</v>
@@ -59802,7 +59852,7 @@
         <v>45674</v>
       </c>
       <c r="E765" s="75" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F765" s="47" t="s">
         <v>219</v>
@@ -59817,7 +59867,7 @@
         <v>28</v>
       </c>
       <c r="J765" s="1" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="K765" s="46">
         <v>45677</v>
@@ -59832,13 +59882,13 @@
       </c>
       <c r="P765" s="1"/>
       <c r="Q765" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="R765" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="R765" s="1" t="s">
+      <c r="S765" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="S765" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="T765" s="8">
         <v>0.33333333333333331</v>
@@ -59850,10 +59900,10 @@
         <v>24</v>
       </c>
       <c r="W765" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="X765" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="X765" s="5" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="766" spans="1:24" hidden="1">
@@ -59872,7 +59922,7 @@
         <v>45674</v>
       </c>
       <c r="E766" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F766" s="47" t="s">
         <v>295</v>
@@ -59906,13 +59956,13 @@
       </c>
       <c r="P766" s="1"/>
       <c r="Q766" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="R766" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="R766" s="1" t="s">
+      <c r="S766" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="S766" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="T766" s="8">
         <v>0.45833333333333331</v>
@@ -59944,7 +59994,7 @@
         <v>45678</v>
       </c>
       <c r="E767" s="75" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F767" s="47" t="s">
         <v>24</v>
@@ -59984,7 +60034,7 @@
         <v>24</v>
       </c>
       <c r="S767" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="T767" s="1" t="s">
         <v>24</v>
@@ -60016,7 +60066,7 @@
         <v>45678</v>
       </c>
       <c r="E768" s="40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F768" s="47" t="s">
         <v>24</v>
@@ -60058,7 +60108,7 @@
         <v>24</v>
       </c>
       <c r="S768" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="T768" s="1" t="s">
         <v>24</v>
@@ -60090,7 +60140,7 @@
         <v>45678</v>
       </c>
       <c r="E769" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F769" s="47" t="s">
         <v>445</v>
@@ -60130,7 +60180,7 @@
         <v>24</v>
       </c>
       <c r="S769" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="T769" s="8">
         <v>0.33333333333333331</v>
@@ -60162,7 +60212,7 @@
         <v>45678</v>
       </c>
       <c r="E770" s="76" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F770" s="47" t="s">
         <v>24</v>
@@ -60236,7 +60286,7 @@
         <v>45678</v>
       </c>
       <c r="E771" s="75" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F771" s="47" t="s">
         <v>263</v>
@@ -60270,13 +60320,13 @@
       </c>
       <c r="P771" s="1"/>
       <c r="Q771" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="R771" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="R771" s="1" t="s">
+      <c r="S771" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="S771" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="T771" s="8">
         <v>0.33333333333333331</v>
@@ -60308,7 +60358,7 @@
         <v>45312</v>
       </c>
       <c r="E772" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F772" s="47" t="s">
         <v>24</v>
@@ -60342,7 +60392,7 @@
         <v>24</v>
       </c>
       <c r="S772" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T772" s="1" t="s">
         <v>24</v>
@@ -60391,7 +60441,7 @@
         <v>35</v>
       </c>
       <c r="J773" s="1" t="s">
-        <v>428</v>
+        <v>509</v>
       </c>
       <c r="K773" s="46">
         <v>45679</v>
@@ -60522,7 +60572,7 @@
         <v>45678</v>
       </c>
       <c r="E775" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F775" s="47" t="s">
         <v>512</v>
@@ -60596,7 +60646,7 @@
         <v>45678</v>
       </c>
       <c r="E776" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F776" s="48" t="s">
         <v>512</v>
@@ -61112,7 +61162,7 @@
         <v>45312</v>
       </c>
       <c r="E783" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F783" s="48" t="s">
         <v>24</v>
@@ -61186,7 +61236,7 @@
         <v>45312</v>
       </c>
       <c r="E784" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F784" s="47" t="s">
         <v>524</v>
@@ -64378,7 +64428,7 @@
         <v>35</v>
       </c>
       <c r="J840" s="1" t="s">
-        <v>612</v>
+        <v>509</v>
       </c>
       <c r="K840" s="51">
         <v>45685</v>
@@ -64399,7 +64449,7 @@
         <v>433</v>
       </c>
       <c r="S840" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="T840" s="8">
         <v>0.33333333333333331</v>
@@ -64485,7 +64535,7 @@
         <v>546</v>
       </c>
       <c r="G842" s="41" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H842" s="3" t="s">
         <v>297</v>
@@ -64535,7 +64585,7 @@
         <v>399</v>
       </c>
       <c r="G843" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H843" s="3" t="s">
         <v>299</v>
@@ -64585,7 +64635,7 @@
         <v>438</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>297</v>
@@ -64735,7 +64785,7 @@
         <v>546</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H847" s="3" t="s">
         <v>297</v>
@@ -64857,7 +64907,7 @@
       </c>
       <c r="R849" s="3"/>
       <c r="S849" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="T849" s="3"/>
       <c r="U849" s="3"/>
@@ -64909,7 +64959,7 @@
       </c>
       <c r="R850" s="3"/>
       <c r="S850" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T850" s="3"/>
       <c r="U850" s="3"/>
@@ -64943,7 +64993,7 @@
         <v>438</v>
       </c>
       <c r="G851" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H851" s="3" t="s">
         <v>297</v>
@@ -64965,7 +65015,7 @@
       </c>
       <c r="R851" s="3"/>
       <c r="S851" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T851" s="3"/>
       <c r="U851" s="3"/>
@@ -65017,7 +65067,7 @@
       </c>
       <c r="R852" s="3"/>
       <c r="S852" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="T852" s="3"/>
       <c r="U852" s="3"/>
@@ -65073,7 +65123,7 @@
       </c>
       <c r="R853" s="3"/>
       <c r="S853" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="T853" s="3"/>
       <c r="U853" s="3"/>
@@ -65103,7 +65153,7 @@
         <v>438</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>297</v>
@@ -65125,7 +65175,7 @@
       </c>
       <c r="R854" s="3"/>
       <c r="S854" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T854" s="3"/>
       <c r="U854" s="3"/>
@@ -65166,7 +65216,7 @@
         <v>42</v>
       </c>
       <c r="J855" s="3" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="K855" s="49">
         <v>45700</v>
@@ -65181,7 +65231,7 @@
       </c>
       <c r="R855" s="3"/>
       <c r="S855" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="T855" s="3"/>
       <c r="U855" s="3"/>
@@ -65235,7 +65285,7 @@
       </c>
       <c r="R856" s="3"/>
       <c r="S856" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T856" s="3"/>
       <c r="U856" s="3"/>
@@ -65244,9 +65294,8 @@
       <c r="X856" s="6"/>
     </row>
     <row r="857" spans="1:24" ht="121.5">
-      <c r="A857" s="48">
-        <f>YEAR(D857)</f>
-        <v>2025</v>
+      <c r="A857" s="48" t="s">
+        <v>624</v>
       </c>
       <c r="B857" s="3">
         <f>MONTH(D857)</f>
@@ -66001,7 +66050,7 @@
       </c>
       <c r="X868" s="5"/>
     </row>
-    <row r="869" spans="1:24">
+    <row r="869" spans="1:24" hidden="1">
       <c r="A869" s="48">
         <f>YEAR(D869)</f>
         <v>2025</v>
@@ -66032,7 +66081,7 @@
         <v>35</v>
       </c>
       <c r="J869" s="3" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="K869" s="49">
         <v>45700</v>
@@ -66174,7 +66223,7 @@
         <v>554</v>
       </c>
       <c r="X871" s="6" t="s">
-        <v>484</v>
+        <v>646</v>
       </c>
     </row>
     <row r="872" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66219,7 +66268,7 @@
       <c r="Q872" s="32"/>
       <c r="R872" s="32"/>
       <c r="S872" s="30" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="T872" s="31"/>
       <c r="U872" s="31"/>
@@ -66249,7 +66298,7 @@
         <v>95</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H873" s="32" t="s">
         <v>297</v>
@@ -66269,7 +66318,7 @@
       <c r="Q873" s="32"/>
       <c r="R873" s="32"/>
       <c r="S873" s="30" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="T873" s="31"/>
       <c r="U873" s="31"/>
@@ -66319,7 +66368,7 @@
       <c r="Q874" s="32"/>
       <c r="R874" s="32"/>
       <c r="S874" s="30" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="T874" s="31"/>
       <c r="U874" s="31"/>
@@ -66371,7 +66420,7 @@
       <c r="Q875" s="32"/>
       <c r="R875" s="32"/>
       <c r="S875" s="30" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="T875" s="31"/>
       <c r="U875" s="31"/>
@@ -66380,7 +66429,7 @@
         <v>554</v>
       </c>
       <c r="X875" s="34" t="s">
-        <v>484</v>
+        <v>646</v>
       </c>
     </row>
     <row r="876" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66425,7 +66474,7 @@
       <c r="Q876" s="32"/>
       <c r="R876" s="32"/>
       <c r="S876" s="37" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="T876" s="31"/>
       <c r="U876" s="31"/>
@@ -66479,7 +66528,7 @@
       <c r="Q877" s="32"/>
       <c r="R877" s="32"/>
       <c r="S877" s="30" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="T877" s="31"/>
       <c r="U877" s="31"/>
@@ -66755,7 +66804,7 @@
         <v>299</v>
       </c>
       <c r="I884" s="36" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J884" s="36" t="s">
         <v>29</v>
@@ -66775,7 +66824,7 @@
       </c>
       <c r="R884" s="36"/>
       <c r="S884" s="28" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="T884" s="35">
         <v>0.33333333333333331</v>
@@ -66815,7 +66864,7 @@
         <v>297</v>
       </c>
       <c r="I885" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J885" s="3" t="s">
         <v>29</v>
@@ -66843,7 +66892,7 @@
         <v>433</v>
       </c>
       <c r="S885" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="T885" s="7">
         <v>0.39374999999999999</v>
@@ -66856,7 +66905,7 @@
         <v>448</v>
       </c>
       <c r="X885" s="6" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="886" spans="1:24" hidden="1">
@@ -66907,7 +66956,7 @@
       </c>
       <c r="R886" s="1"/>
       <c r="S886" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="T886" s="7">
         <v>0.33333333333333331</v>
@@ -66947,7 +66996,7 @@
         <v>297</v>
       </c>
       <c r="I887" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J887" s="3" t="s">
         <v>428</v>
@@ -66967,7 +67016,7 @@
       </c>
       <c r="R887" s="3"/>
       <c r="S887" s="12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T887" s="7">
         <v>0.67986111111111114</v>
@@ -66978,7 +67027,7 @@
         <v>440</v>
       </c>
       <c r="X887" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="888" spans="1:24">
@@ -67003,7 +67052,7 @@
         <v>31</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H888" s="3" t="s">
         <v>297</v>
@@ -67025,7 +67074,7 @@
       </c>
       <c r="R888" s="3"/>
       <c r="S888" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="T888" s="3"/>
       <c r="U888" s="3"/>
@@ -67065,7 +67114,7 @@
         <v>299</v>
       </c>
       <c r="I889" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J889" s="3" t="s">
         <v>29</v>
@@ -67086,10 +67135,10 @@
         <v>405</v>
       </c>
       <c r="R889" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="S889" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T889" s="7">
         <v>0.33333333333333331</v>
@@ -67099,7 +67148,7 @@
       </c>
       <c r="V889" s="3"/>
       <c r="W889" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="X889" s="6"/>
     </row>
@@ -67125,7 +67174,7 @@
         <v>31</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H890" s="3" t="s">
         <v>297</v>
@@ -67157,7 +67206,7 @@
         <v>433</v>
       </c>
       <c r="S890" s="12" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="T890" s="7">
         <v>0.3576388888888889</v>
@@ -67191,7 +67240,7 @@
         <v>126</v>
       </c>
       <c r="G891" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H891" s="3" t="s">
         <v>297</v>
@@ -67217,7 +67266,7 @@
       </c>
       <c r="R891" s="1"/>
       <c r="S891" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="T891" s="7">
         <v>0.33333333333333331</v>
@@ -67228,7 +67277,7 @@
         <v>554</v>
       </c>
       <c r="X891" s="6" t="s">
-        <v>484</v>
+        <v>646</v>
       </c>
     </row>
     <row r="892" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -67259,7 +67308,7 @@
         <v>299</v>
       </c>
       <c r="I892" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J892" s="3" t="s">
         <v>29</v>
@@ -67279,13 +67328,13 @@
       </c>
       <c r="R892" s="3"/>
       <c r="S892" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="T892" s="3"/>
       <c r="U892" s="3"/>
       <c r="V892" s="3"/>
       <c r="W892" s="6" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="X892" s="6"/>
     </row>
@@ -67339,7 +67388,7 @@
       </c>
       <c r="R893" s="3"/>
       <c r="S893" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="T893" s="7">
         <v>0.65277777777777779</v>
@@ -67405,7 +67454,7 @@
       </c>
       <c r="R894" s="3"/>
       <c r="S894" s="12" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="T894" s="7">
         <v>0.58333333333333337</v>
@@ -67415,7 +67464,7 @@
       </c>
       <c r="V894" s="3"/>
       <c r="W894" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="X894" s="6"/>
     </row>
@@ -67447,7 +67496,7 @@
         <v>299</v>
       </c>
       <c r="I895" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J895" s="3" t="s">
         <v>29</v>
@@ -67467,7 +67516,7 @@
       </c>
       <c r="R895" s="3"/>
       <c r="S895" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="T895" s="7">
         <v>0.60416666666666663</v>
@@ -67477,7 +67526,7 @@
       </c>
       <c r="V895" s="3"/>
       <c r="W895" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="X895" s="6"/>
     </row>
@@ -67531,7 +67580,7 @@
       </c>
       <c r="R896" s="3"/>
       <c r="S896" s="12" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="T896" s="7">
         <v>0.65277777777777779</v>
@@ -67561,13 +67610,13 @@
         <v>45699</v>
       </c>
       <c r="E897" s="36" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F897" s="36" t="s">
         <v>391</v>
       </c>
       <c r="G897" s="36" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H897" s="36" t="s">
         <v>299</v>
@@ -67595,7 +67644,7 @@
       </c>
       <c r="R897" s="36"/>
       <c r="S897" s="28" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="T897" s="35">
         <v>0.41666666666666669</v>
@@ -67605,7 +67654,7 @@
       </c>
       <c r="V897" s="36"/>
       <c r="W897" s="33" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="X897" s="27"/>
     </row>
@@ -67631,7 +67680,7 @@
         <v>546</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H898" s="3" t="s">
         <v>297</v>
@@ -67657,13 +67706,13 @@
       </c>
       <c r="R898" s="3"/>
       <c r="S898" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="T898" s="3"/>
       <c r="U898" s="3"/>
       <c r="V898" s="3"/>
       <c r="W898" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="X898" s="6"/>
     </row>
@@ -67689,7 +67738,7 @@
         <v>186</v>
       </c>
       <c r="G899" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H899" s="3" t="s">
         <v>299</v>
@@ -67715,7 +67764,7 @@
       </c>
       <c r="R899" s="3"/>
       <c r="S899" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="T899" s="7">
         <v>0.64583333333333337</v>
@@ -67725,11 +67774,11 @@
       </c>
       <c r="V899" s="3"/>
       <c r="W899" s="6" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="X899" s="6"/>
     </row>
-    <row r="900" spans="1:24" ht="206.25" customHeight="1">
+    <row r="900" spans="1:24" ht="206.25" hidden="1" customHeight="1">
       <c r="A900" s="48">
         <f>YEAR(D900)</f>
         <v>2025</v>
@@ -67760,7 +67809,7 @@
         <v>117</v>
       </c>
       <c r="J900" s="3" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K900" s="49">
         <v>45702</v>
@@ -67769,15 +67818,21 @@
       <c r="M900" s="49">
         <v>45706</v>
       </c>
-      <c r="N900" s="3"/>
-      <c r="O900" s="3"/>
+      <c r="N900" s="49">
+        <v>45714</v>
+      </c>
+      <c r="O900" s="49">
+        <v>45702</v>
+      </c>
       <c r="P900" s="3"/>
       <c r="Q900" s="3">
         <v>493</v>
       </c>
-      <c r="R900" s="3"/>
+      <c r="R900" s="3" t="s">
+        <v>682</v>
+      </c>
       <c r="S900" s="12" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="T900" s="7">
         <v>0.54166666666666663</v>
@@ -67788,7 +67843,7 @@
         <v>440</v>
       </c>
       <c r="X900" s="38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="901" spans="1:24" ht="179.25" hidden="1" customHeight="1">
@@ -67839,7 +67894,7 @@
       </c>
       <c r="R901" s="3"/>
       <c r="S901" s="12" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="T901" s="7">
         <v>0.63124999999999998</v>
@@ -67869,7 +67924,7 @@
         <v>45699.760763888888</v>
       </c>
       <c r="E902" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F902" s="3" t="s">
         <v>546</v>
@@ -67901,7 +67956,7 @@
       </c>
       <c r="R902" s="3"/>
       <c r="S902" s="4" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="T902" s="7">
         <v>0.33333333333333331</v>
@@ -67912,10 +67967,10 @@
         <v>554</v>
       </c>
       <c r="X902" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="903" spans="1:24" ht="15" customHeight="1">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="903" spans="1:24" ht="33.75" customHeight="1">
       <c r="A903" s="48">
         <f>YEAR(D903)</f>
         <v>2025</v>
@@ -67962,8 +68017,8 @@
         <v>0</v>
       </c>
       <c r="R903" s="3"/>
-      <c r="S903" s="4" t="s">
-        <v>685</v>
+      <c r="S903" s="12" t="s">
+        <v>687</v>
       </c>
       <c r="T903" s="7">
         <v>0.4201388888888889</v>
@@ -67974,7 +68029,7 @@
         <v>448</v>
       </c>
       <c r="X903" s="6" t="s">
-        <v>484</v>
+        <v>646</v>
       </c>
     </row>
     <row r="904" spans="1:24" ht="39" hidden="1" customHeight="1">
@@ -67996,7 +68051,7 @@
         <v>47</v>
       </c>
       <c r="F904" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G904" s="3" t="s">
         <v>560</v>
@@ -68005,7 +68060,7 @@
         <v>297</v>
       </c>
       <c r="I904" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J904" s="3" t="s">
         <v>29</v>
@@ -68025,7 +68080,7 @@
       </c>
       <c r="R904" s="3"/>
       <c r="S904" s="12" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="T904" s="7">
         <v>0.41666666666666669</v>
@@ -68035,7 +68090,7 @@
       </c>
       <c r="V904" s="3"/>
       <c r="W904" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="X904" s="6"/>
     </row>
@@ -68095,7 +68150,7 @@
         <v>433</v>
       </c>
       <c r="S905" s="4" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="T905" s="7">
         <v>0.60416666666666663</v>
@@ -68153,7 +68208,7 @@
       </c>
       <c r="R906" s="3"/>
       <c r="S906" s="4" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="T906" s="3"/>
       <c r="U906" s="3"/>
@@ -68215,7 +68270,7 @@
       </c>
       <c r="R907" s="3"/>
       <c r="S907" s="4" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="T907" s="7">
         <v>0.58333333333333337</v>
@@ -68251,7 +68306,7 @@
         <v>391</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H908" s="3" t="s">
         <v>299</v>
@@ -68277,7 +68332,7 @@
       </c>
       <c r="R908" s="3"/>
       <c r="S908" s="4" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="T908" s="7">
         <v>0.625</v>
@@ -68287,7 +68342,7 @@
       </c>
       <c r="V908" s="3"/>
       <c r="W908" s="6" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="X908" s="6"/>
     </row>
@@ -68319,7 +68374,7 @@
         <v>299</v>
       </c>
       <c r="I909" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J909" s="3" t="s">
         <v>29</v>
@@ -68339,7 +68394,7 @@
       </c>
       <c r="R909" s="3"/>
       <c r="S909" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="T909" s="7">
         <v>0.57430555555555551</v>
@@ -68349,7 +68404,7 @@
       </c>
       <c r="V909" s="3"/>
       <c r="W909" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="X909" s="6"/>
     </row>
@@ -68381,7 +68436,7 @@
         <v>299</v>
       </c>
       <c r="I910" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J910" s="3" t="s">
         <v>29</v>
@@ -68403,7 +68458,7 @@
       </c>
       <c r="R910" s="3"/>
       <c r="S910" s="4" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="T910" s="7">
         <v>0.625</v>
@@ -68413,7 +68468,7 @@
       </c>
       <c r="V910" s="3"/>
       <c r="W910" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="X910" s="6"/>
     </row>
@@ -68439,13 +68494,13 @@
         <v>95</v>
       </c>
       <c r="G911" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H911" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I911" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J911" s="3" t="s">
         <v>29</v>
@@ -68467,7 +68522,7 @@
       </c>
       <c r="R911" s="3"/>
       <c r="S911" s="4" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="T911" s="7">
         <v>0.37013888888888891</v>
@@ -68477,7 +68532,7 @@
       </c>
       <c r="V911" s="3"/>
       <c r="W911" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="X911" s="6"/>
     </row>
@@ -68509,7 +68564,7 @@
         <v>299</v>
       </c>
       <c r="I912" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J912" s="3" t="s">
         <v>29</v>
@@ -68531,7 +68586,7 @@
       </c>
       <c r="R912" s="3"/>
       <c r="S912" s="4" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="T912" s="7">
         <v>0.54166666666666663</v>
@@ -68541,7 +68596,7 @@
       </c>
       <c r="V912" s="3"/>
       <c r="W912" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="X912" s="6"/>
     </row>
@@ -68573,7 +68628,7 @@
         <v>299</v>
       </c>
       <c r="I913" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J913" s="3" t="s">
         <v>29</v>
@@ -68593,7 +68648,7 @@
       </c>
       <c r="R913" s="3"/>
       <c r="S913" s="4" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="T913" s="7">
         <v>0.45833333333333331</v>
@@ -68627,7 +68682,7 @@
         <v>391</v>
       </c>
       <c r="G914" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H914" s="3" t="s">
         <v>297</v>
@@ -68653,16 +68708,16 @@
       </c>
       <c r="R914" s="3"/>
       <c r="S914" s="4" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="T914" s="7"/>
       <c r="U914" s="3"/>
       <c r="V914" s="3"/>
       <c r="W914" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="X914" s="6" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="915" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68693,7 +68748,7 @@
         <v>297</v>
       </c>
       <c r="I915" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J915" s="3" t="s">
         <v>29</v>
@@ -68709,7 +68764,7 @@
       </c>
       <c r="R915" s="3"/>
       <c r="S915" s="4" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="T915" s="7"/>
       <c r="U915" s="3"/>
@@ -68721,7 +68776,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="916" spans="1:24" ht="95.25" customHeight="1">
+    <row r="916" spans="1:24" ht="95.25" hidden="1" customHeight="1">
       <c r="A916" s="48">
         <f>YEAR(D916)</f>
         <v>2025</v>
@@ -68737,13 +68792,13 @@
         <v>45701.614502314813</v>
       </c>
       <c r="E916" s="3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>399</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>297</v>
@@ -68752,7 +68807,7 @@
         <v>117</v>
       </c>
       <c r="J916" s="3" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K916" s="49">
         <v>45341.5625</v>
@@ -68761,7 +68816,9 @@
       <c r="M916" s="49">
         <v>45709</v>
       </c>
-      <c r="N916" s="3"/>
+      <c r="N916" s="49">
+        <v>45713</v>
+      </c>
       <c r="O916" s="49">
         <v>45707</v>
       </c>
@@ -68773,7 +68830,7 @@
         <v>500</v>
       </c>
       <c r="S916" s="12" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="T916" s="7"/>
       <c r="U916" s="3"/>
@@ -68807,13 +68864,13 @@
         <v>546</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H917" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I917" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J917" s="3" t="s">
         <v>29</v>
@@ -68835,7 +68892,7 @@
       </c>
       <c r="R917" s="3"/>
       <c r="S917" s="4" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="T917" s="7">
         <v>0.58611111111111114</v>
@@ -68846,7 +68903,7 @@
         <v>448</v>
       </c>
       <c r="X917" s="6" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="918" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68899,7 +68956,7 @@
       </c>
       <c r="R918" s="3"/>
       <c r="S918" s="4" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="T918" s="7">
         <v>0.58333333333333337</v>
@@ -68957,7 +69014,7 @@
       </c>
       <c r="R919" s="3"/>
       <c r="S919" s="4" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="T919" s="7"/>
       <c r="U919" s="3"/>
@@ -68991,13 +69048,13 @@
         <v>334</v>
       </c>
       <c r="G920" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H920" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I920" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J920" s="3" t="s">
         <v>29</v>
@@ -69017,7 +69074,7 @@
       </c>
       <c r="R920" s="3"/>
       <c r="S920" s="4" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="T920" s="7">
         <v>0.66666666666666663</v>
@@ -69027,7 +69084,7 @@
       </c>
       <c r="V920" s="3"/>
       <c r="W920" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="X920" s="6" t="s">
         <v>441</v>
@@ -69083,7 +69140,7 @@
       </c>
       <c r="R921" s="3"/>
       <c r="S921" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="T921" s="7">
         <v>0.375</v>
@@ -69145,7 +69202,7 @@
       </c>
       <c r="R922" s="3"/>
       <c r="S922" s="12" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="T922" s="7">
         <v>0.52083333333333337</v>
@@ -69156,7 +69213,7 @@
         <v>440</v>
       </c>
       <c r="X922" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="923" spans="1:24" ht="60" hidden="1" customHeight="1">
@@ -69175,10 +69232,10 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E923" s="81" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F923" s="81" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G923" s="81" t="s">
         <v>560</v>
@@ -69187,7 +69244,7 @@
         <v>297</v>
       </c>
       <c r="I923" s="44" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J923" s="3" t="s">
         <v>29</v>
@@ -69209,7 +69266,7 @@
       </c>
       <c r="R923" s="3"/>
       <c r="S923" s="100" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="T923" s="7">
         <v>0.54166666666666663</v>
@@ -69251,7 +69308,7 @@
         <v>299</v>
       </c>
       <c r="I924" s="61" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J924" s="61" t="s">
         <v>29</v>
@@ -69271,7 +69328,7 @@
       </c>
       <c r="R924" s="40"/>
       <c r="S924" s="101" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="T924" s="63">
         <v>0.5625</v>
@@ -69279,7 +69336,7 @@
       <c r="U924" s="40"/>
       <c r="V924" s="40"/>
       <c r="W924" s="40" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="X924" s="40"/>
     </row>
@@ -69331,7 +69388,7 @@
       </c>
       <c r="R925" s="64"/>
       <c r="S925" s="102" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="T925" s="67">
         <v>0.41666666666666669</v>
@@ -69367,7 +69424,7 @@
         <v>546</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H926" s="3" t="s">
         <v>297</v>
@@ -69393,13 +69450,13 @@
       </c>
       <c r="R926" s="3"/>
       <c r="S926" s="16" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="T926" s="7"/>
       <c r="U926" s="3"/>
       <c r="V926" s="3"/>
       <c r="W926" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="X926" s="6"/>
     </row>
@@ -69453,7 +69510,7 @@
       </c>
       <c r="R927" s="3"/>
       <c r="S927" s="16" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="T927" s="7"/>
       <c r="U927" s="3"/>
@@ -69462,7 +69519,7 @@
         <v>448</v>
       </c>
       <c r="X927" s="6" t="s">
-        <v>484</v>
+        <v>646</v>
       </c>
     </row>
     <row r="928" spans="1:24" ht="15" customHeight="1">
@@ -69487,7 +69544,7 @@
         <v>391</v>
       </c>
       <c r="G928" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H928" s="3" t="s">
         <v>297</v>
@@ -69509,7 +69566,7 @@
       </c>
       <c r="R928" s="3"/>
       <c r="S928" s="16" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="T928" s="7"/>
       <c r="U928" s="3"/>
@@ -69549,7 +69606,7 @@
         <v>297</v>
       </c>
       <c r="I929" s="18" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="J929" s="44" t="s">
         <v>29</v>
@@ -69571,7 +69628,7 @@
       </c>
       <c r="R929" s="18"/>
       <c r="S929" s="17" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="T929" s="22">
         <v>0.35625000000000001</v>
@@ -69582,7 +69639,7 @@
         <v>448</v>
       </c>
       <c r="X929" s="21" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="930" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69635,7 +69692,7 @@
       </c>
       <c r="R930" s="18"/>
       <c r="S930" s="17" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="T930" s="22">
         <v>0.34722222222222221</v>
@@ -69645,7 +69702,7 @@
       </c>
       <c r="V930" s="19"/>
       <c r="W930" s="20" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="X930" s="21"/>
     </row>
@@ -69671,7 +69728,7 @@
         <v>186</v>
       </c>
       <c r="G931" s="26" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H931" s="26" t="s">
         <v>299</v>
@@ -69699,7 +69756,7 @@
       </c>
       <c r="R931" s="26"/>
       <c r="S931" s="24" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="T931" s="25"/>
       <c r="U931" s="25"/>
@@ -69725,7 +69782,7 @@
         <v>45705.627858796295</v>
       </c>
       <c r="E932" s="26" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F932" s="26" t="s">
         <v>424</v>
@@ -69737,7 +69794,7 @@
         <v>299</v>
       </c>
       <c r="I932" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J932" s="57" t="s">
         <v>29</v>
@@ -69759,7 +69816,7 @@
       </c>
       <c r="R932" s="26"/>
       <c r="S932" s="24" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="T932" s="25">
         <v>0.29166666666666669</v>
@@ -69769,7 +69826,7 @@
       </c>
       <c r="V932" s="26"/>
       <c r="W932" s="23" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="X932" s="23"/>
     </row>
@@ -69801,7 +69858,7 @@
         <v>299</v>
       </c>
       <c r="I933" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J933" s="57" t="s">
         <v>29</v>
@@ -69817,13 +69874,13 @@
       </c>
       <c r="R933" s="26"/>
       <c r="S933" s="24" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="T933" s="25"/>
       <c r="U933" s="25"/>
       <c r="V933" s="26"/>
       <c r="W933" s="23" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="X933" s="23"/>
     </row>
@@ -69849,7 +69906,7 @@
         <v>186</v>
       </c>
       <c r="G934" s="26" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H934" s="26" t="s">
         <v>299</v>
@@ -69871,13 +69928,13 @@
       </c>
       <c r="R934" s="26"/>
       <c r="S934" s="24" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="T934" s="25"/>
       <c r="U934" s="25"/>
       <c r="V934" s="26"/>
       <c r="W934" s="23" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="X934" s="23"/>
     </row>
@@ -69925,7 +69982,7 @@
       </c>
       <c r="R935" s="26"/>
       <c r="S935" s="24" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="T935" s="25"/>
       <c r="U935" s="25"/>
@@ -69979,7 +70036,7 @@
       </c>
       <c r="R936" s="26"/>
       <c r="S936" s="24" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="T936" s="25"/>
       <c r="U936" s="25"/>
@@ -70041,7 +70098,7 @@
         <v>433</v>
       </c>
       <c r="S937" s="24" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="T937" s="25"/>
       <c r="U937" s="25"/>
@@ -70053,7 +70110,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="938" spans="1:24" ht="15" customHeight="1">
+    <row r="938" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A938" s="87">
         <f>YEAR(D938)</f>
         <v>2025</v>
@@ -70075,7 +70132,7 @@
         <v>546</v>
       </c>
       <c r="G938" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H938" s="26" t="s">
         <v>297</v>
@@ -70084,7 +70141,7 @@
         <v>628</v>
       </c>
       <c r="J938" s="57" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K938" s="58">
         <v>45708</v>
@@ -70107,7 +70164,7 @@
         <v>433</v>
       </c>
       <c r="S938" s="24" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="T938" s="25"/>
       <c r="U938" s="25"/>
@@ -70116,7 +70173,7 @@
         <v>448</v>
       </c>
       <c r="X938" s="23" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="939" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70141,13 +70198,13 @@
         <v>546</v>
       </c>
       <c r="G939" s="26" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H939" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I939" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J939" s="57" t="s">
         <v>29</v>
@@ -70165,7 +70222,7 @@
       </c>
       <c r="R939" s="26"/>
       <c r="S939" s="24" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="T939" s="25"/>
       <c r="U939" s="25"/>
@@ -70201,7 +70258,7 @@
         <v>297</v>
       </c>
       <c r="I940" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J940" s="57" t="s">
         <v>60</v>
@@ -70219,7 +70276,7 @@
       </c>
       <c r="R940" s="26"/>
       <c r="S940" s="24" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="T940" s="25"/>
       <c r="U940" s="25"/>
@@ -70228,7 +70285,7 @@
         <v>448</v>
       </c>
       <c r="X940" s="23" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="941" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70253,7 +70310,7 @@
         <v>546</v>
       </c>
       <c r="G941" s="26" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H941" s="26" t="s">
         <v>297</v>
@@ -70277,7 +70334,7 @@
       </c>
       <c r="R941" s="26"/>
       <c r="S941" s="24" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="T941" s="25"/>
       <c r="U941" s="25"/>
@@ -70286,7 +70343,7 @@
         <v>448</v>
       </c>
       <c r="X941" s="23" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="942" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70333,7 +70390,7 @@
       </c>
       <c r="R942" s="26"/>
       <c r="S942" s="24" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="T942" s="25"/>
       <c r="U942" s="25"/>
@@ -70363,13 +70420,13 @@
         <v>546</v>
       </c>
       <c r="G943" s="26" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H943" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I943" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J943" s="57" t="s">
         <v>29</v>
@@ -70389,7 +70446,7 @@
       </c>
       <c r="R943" s="26"/>
       <c r="S943" s="24" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="T943" s="25"/>
       <c r="U943" s="25"/>
@@ -70398,7 +70455,7 @@
         <v>448</v>
       </c>
       <c r="X943" s="23" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="944" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70429,7 +70486,7 @@
         <v>297</v>
       </c>
       <c r="I944" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J944" s="57" t="s">
         <v>29</v>
@@ -70449,7 +70506,7 @@
       </c>
       <c r="R944" s="26"/>
       <c r="S944" s="24" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="T944" s="25"/>
       <c r="U944" s="25"/>
@@ -70479,7 +70536,7 @@
         <v>546</v>
       </c>
       <c r="G945" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H945" s="26" t="s">
         <v>297</v>
@@ -70513,7 +70570,7 @@
         <v>433</v>
       </c>
       <c r="S945" s="24" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="T945" s="25"/>
       <c r="U945" s="25"/>
@@ -70547,13 +70604,13 @@
         <v>186</v>
       </c>
       <c r="G946" s="26" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H946" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I946" s="26" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="J946" s="44" t="s">
         <v>442</v>
@@ -70571,7 +70628,7 @@
       </c>
       <c r="R946" s="26"/>
       <c r="S946" s="24" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="T946" s="25">
         <v>0.54166666666666663</v>
@@ -70579,13 +70636,13 @@
       <c r="U946" s="25"/>
       <c r="V946" s="26"/>
       <c r="W946" s="23" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="X946" s="23" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="947" spans="1:24" ht="15" customHeight="1">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="947" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A947" s="87">
         <f>YEAR(D947)</f>
         <v>2025</v>
@@ -70616,7 +70673,7 @@
         <v>42</v>
       </c>
       <c r="J947" s="57" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K947" s="58"/>
       <c r="L947" s="26"/>
@@ -70631,7 +70688,7 @@
       </c>
       <c r="R947" s="26"/>
       <c r="S947" s="24" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="T947" s="25"/>
       <c r="U947" s="25"/>
@@ -70687,7 +70744,7 @@
       </c>
       <c r="R948" s="26"/>
       <c r="S948" s="24" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="T948" s="25"/>
       <c r="U948" s="25"/>
@@ -70719,13 +70776,13 @@
         <v>546</v>
       </c>
       <c r="G949" s="26" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H949" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I949" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J949" s="57" t="s">
         <v>29</v>
@@ -70745,7 +70802,7 @@
       </c>
       <c r="R949" s="26"/>
       <c r="S949" s="24" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="T949" s="25"/>
       <c r="U949" s="25"/>
@@ -70754,7 +70811,7 @@
         <v>448</v>
       </c>
       <c r="X949" s="23" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="950" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70785,7 +70842,7 @@
         <v>299</v>
       </c>
       <c r="I950" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J950" s="57" t="s">
         <v>29</v>
@@ -70807,7 +70864,7 @@
       </c>
       <c r="R950" s="26"/>
       <c r="S950" s="24" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="T950" s="25">
         <v>0.73611111111111116</v>
@@ -70817,11 +70874,11 @@
       </c>
       <c r="V950" s="26"/>
       <c r="W950" s="23" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="X950" s="23"/>
     </row>
-    <row r="951" spans="1:24" ht="15" customHeight="1">
+    <row r="951" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A951" s="87">
         <f>YEAR(D951)</f>
         <v>2025</v>
@@ -70875,7 +70932,7 @@
         <v>433</v>
       </c>
       <c r="S951" s="24" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="T951" s="25"/>
       <c r="U951" s="25"/>
@@ -70933,7 +70990,7 @@
       </c>
       <c r="R952" s="26"/>
       <c r="S952" s="104" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="T952" s="25"/>
       <c r="U952" s="25"/>
@@ -70942,7 +70999,7 @@
         <v>554</v>
       </c>
       <c r="X952" s="23" t="s">
-        <v>484</v>
+        <v>646</v>
       </c>
     </row>
     <row r="953" spans="1:24" ht="91.5">
@@ -70967,7 +71024,7 @@
         <v>546</v>
       </c>
       <c r="G953" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H953" s="26" t="s">
         <v>297</v>
@@ -70989,7 +71046,7 @@
       </c>
       <c r="R953" s="26"/>
       <c r="S953" s="104" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="T953" s="25"/>
       <c r="U953" s="25"/>
@@ -71021,7 +71078,7 @@
         <v>186</v>
       </c>
       <c r="G954" s="26" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H954" s="26" t="s">
         <v>297</v>
@@ -71049,7 +71106,7 @@
       </c>
       <c r="R954" s="26"/>
       <c r="S954" s="24" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="T954" s="25"/>
       <c r="U954" s="25"/>
@@ -71058,7 +71115,7 @@
         <v>448</v>
       </c>
       <c r="X954" s="23" t="s">
-        <v>612</v>
+        <v>509</v>
       </c>
     </row>
     <row r="955" spans="1:24" ht="108" customHeight="1">
@@ -71083,16 +71140,16 @@
         <v>31</v>
       </c>
       <c r="G955" s="26" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H955" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I955" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J955" s="57" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="K955" s="58">
         <v>45713</v>
@@ -71101,7 +71158,9 @@
       <c r="M955" s="58">
         <v>45716</v>
       </c>
-      <c r="N955" s="58"/>
+      <c r="N955" s="58">
+        <v>45722</v>
+      </c>
       <c r="O955" s="26"/>
       <c r="P955" s="26"/>
       <c r="Q955" s="26">
@@ -71109,7 +71168,7 @@
       </c>
       <c r="R955" s="26"/>
       <c r="S955" s="104" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="T955" s="25">
         <v>0.625</v>
@@ -71120,7 +71179,7 @@
         <v>440</v>
       </c>
       <c r="X955" s="23" t="s">
-        <v>496</v>
+        <v>754</v>
       </c>
     </row>
     <row r="956" spans="1:24" ht="15" customHeight="1">
@@ -71151,7 +71210,7 @@
         <v>299</v>
       </c>
       <c r="I956" s="26" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="J956" s="57" t="s">
         <v>442</v>
@@ -71167,16 +71226,16 @@
       </c>
       <c r="R956" s="26"/>
       <c r="S956" s="24" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="T956" s="25"/>
       <c r="U956" s="25"/>
       <c r="V956" s="26"/>
       <c r="W956" s="23" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="X956" s="23" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="957" spans="1:24" ht="15" customHeight="1">
@@ -71198,7 +71257,7 @@
         <v>453</v>
       </c>
       <c r="F957" s="26" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="G957" s="26" t="s">
         <v>168</v>
@@ -71207,7 +71266,7 @@
         <v>297</v>
       </c>
       <c r="I957" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J957" s="57" t="s">
         <v>428</v>
@@ -71227,7 +71286,7 @@
       </c>
       <c r="R957" s="26"/>
       <c r="S957" s="24" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="T957" s="25">
         <v>0.375</v>
@@ -71238,7 +71297,7 @@
         <v>440</v>
       </c>
       <c r="X957" s="23" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="958" spans="1:24" ht="15" customHeight="1">
@@ -71285,7 +71344,7 @@
       </c>
       <c r="R958" s="26"/>
       <c r="S958" s="24" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="T958" s="25"/>
       <c r="U958" s="25"/>
@@ -71319,7 +71378,7 @@
         <v>399</v>
       </c>
       <c r="G959" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H959" s="26" t="s">
         <v>297</v>
@@ -71341,7 +71400,7 @@
       </c>
       <c r="R959" s="26"/>
       <c r="S959" s="24" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="T959" s="25"/>
       <c r="U959" s="25"/>
@@ -71351,7 +71410,7 @@
       </c>
       <c r="X959" s="23"/>
     </row>
-    <row r="960" spans="1:24" ht="15" customHeight="1">
+    <row r="960" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A960" s="87">
         <f>YEAR(D960)</f>
         <v>2025</v>
@@ -71373,7 +71432,7 @@
         <v>546</v>
       </c>
       <c r="G960" s="26" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H960" s="26" t="s">
         <v>297</v>
@@ -71382,7 +71441,7 @@
         <v>570</v>
       </c>
       <c r="J960" s="57" t="s">
-        <v>442</v>
+        <v>29</v>
       </c>
       <c r="K960" s="58"/>
       <c r="L960" s="26"/>
@@ -71395,13 +71454,13 @@
       </c>
       <c r="R960" s="26"/>
       <c r="S960" s="24" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="T960" s="25"/>
       <c r="U960" s="25"/>
       <c r="V960" s="26"/>
       <c r="W960" s="23" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="X960" s="23"/>
     </row>
@@ -71427,7 +71486,7 @@
         <v>546</v>
       </c>
       <c r="G961" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H961" s="26" t="s">
         <v>297</v>
@@ -71453,7 +71512,7 @@
       </c>
       <c r="R961" s="26"/>
       <c r="S961" s="104" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="T961" s="25">
         <v>0.375</v>
@@ -71464,7 +71523,7 @@
         <v>448</v>
       </c>
       <c r="X961" s="23" t="s">
-        <v>484</v>
+        <v>646</v>
       </c>
     </row>
     <row r="962" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71511,7 +71570,7 @@
       </c>
       <c r="R962" s="26"/>
       <c r="S962" s="24" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="T962" s="25"/>
       <c r="U962" s="25"/>
@@ -71547,7 +71606,7 @@
         <v>297</v>
       </c>
       <c r="I963" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J963" s="57" t="s">
         <v>442</v>
@@ -71563,16 +71622,16 @@
       </c>
       <c r="R963" s="26"/>
       <c r="S963" s="24" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="T963" s="25"/>
       <c r="U963" s="25"/>
       <c r="V963" s="26"/>
       <c r="W963" s="23" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="X963" s="23" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="964" spans="1:24" ht="15" customHeight="1">
@@ -71619,7 +71678,7 @@
       </c>
       <c r="R964" s="26"/>
       <c r="S964" s="24" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="T964" s="25"/>
       <c r="U964" s="25"/>
@@ -71628,7 +71687,7 @@
         <v>448</v>
       </c>
       <c r="X964" s="23" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="965" spans="1:24" ht="15" customHeight="1">
@@ -71675,14 +71734,16 @@
       </c>
       <c r="R965" s="26"/>
       <c r="S965" s="24" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="T965" s="25"/>
       <c r="U965" s="25"/>
       <c r="V965" s="26"/>
-      <c r="W965" s="23"/>
+      <c r="W965" s="23" t="s">
+        <v>448</v>
+      </c>
       <c r="X965" s="23" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="966" spans="1:24" ht="15" customHeight="1">
@@ -71707,7 +71768,7 @@
         <v>391</v>
       </c>
       <c r="G966" s="26" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H966" s="26" t="s">
         <v>297</v>
@@ -71731,7 +71792,7 @@
       </c>
       <c r="R966" s="26"/>
       <c r="S966" s="24" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="T966" s="25"/>
       <c r="U966" s="25"/>
@@ -71740,7 +71801,7 @@
         <v>448</v>
       </c>
       <c r="X966" s="23" t="s">
-        <v>484</v>
+        <v>646</v>
       </c>
     </row>
     <row r="967" spans="1:24" ht="15" customHeight="1">
@@ -71787,17 +71848,19 @@
       </c>
       <c r="R967" s="26"/>
       <c r="S967" s="24" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="T967" s="25"/>
       <c r="U967" s="25"/>
       <c r="V967" s="26"/>
-      <c r="W967" s="23"/>
+      <c r="W967" s="23" t="s">
+        <v>696</v>
+      </c>
       <c r="X967" s="23" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="968" spans="1:24" ht="15" customHeight="1">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="968" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A968" s="87">
         <f>YEAR(D968)</f>
         <v>2025</v>
@@ -71845,7 +71908,7 @@
       </c>
       <c r="R968" s="26"/>
       <c r="S968" s="24" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="T968" s="25">
         <v>0.35416666666666669</v>
@@ -71858,10 +71921,10 @@
         <v>554</v>
       </c>
       <c r="X968" s="23" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="969" spans="1:24" ht="15" customHeight="1">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="969" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A969" s="87">
         <f>YEAR(D969)</f>
         <v>2025</v>
@@ -71883,7 +71946,7 @@
         <v>546</v>
       </c>
       <c r="G969" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H969" s="26" t="s">
         <v>297</v>
@@ -71907,7 +71970,7 @@
       </c>
       <c r="R969" s="26"/>
       <c r="S969" s="24" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="T969" s="25"/>
       <c r="U969" s="25"/>
@@ -71916,7 +71979,7 @@
         <v>448</v>
       </c>
       <c r="X969" s="23" t="s">
-        <v>484</v>
+        <v>646</v>
       </c>
     </row>
     <row r="970" spans="1:24" ht="32.25" customHeight="1">
@@ -71950,9 +72013,11 @@
         <v>570</v>
       </c>
       <c r="J970" s="57" t="s">
-        <v>442</v>
-      </c>
-      <c r="K970" s="58"/>
+        <v>428</v>
+      </c>
+      <c r="K970" s="58">
+        <v>45715</v>
+      </c>
       <c r="L970" s="26"/>
       <c r="M970" s="58"/>
       <c r="N970" s="58"/>
@@ -71963,7 +72028,7 @@
       </c>
       <c r="R970" s="26"/>
       <c r="S970" s="107" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="T970" s="25"/>
       <c r="U970" s="25"/>
@@ -71972,10 +72037,10 @@
         <v>554</v>
       </c>
       <c r="X970" s="23" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="971" spans="1:24" ht="15" customHeight="1">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="971" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A971" s="87">
         <f>YEAR(D971)</f>
         <v>2025</v>
@@ -72023,7 +72088,7 @@
       </c>
       <c r="R971" s="26"/>
       <c r="S971" s="24" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="T971" s="25">
         <v>0.52083333333333337</v>
@@ -72053,19 +72118,19 @@
         <v>45714</v>
       </c>
       <c r="E972" s="26" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F972" s="26" t="s">
         <v>445</v>
       </c>
       <c r="G972" s="26" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="H972" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I972" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J972" s="57" t="s">
         <v>442</v>
@@ -72081,15 +72146,17 @@
       </c>
       <c r="R972" s="26"/>
       <c r="S972" s="24" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="T972" s="25"/>
       <c r="U972" s="25"/>
       <c r="V972" s="26"/>
-      <c r="W972" s="23"/>
+      <c r="W972" s="23" t="s">
+        <v>696</v>
+      </c>
       <c r="X972" s="23"/>
     </row>
-    <row r="973" spans="1:24" ht="15" customHeight="1">
+    <row r="973" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A973" s="87">
         <f>YEAR(D973)</f>
         <v>2025</v>
@@ -72117,10 +72184,10 @@
         <v>299</v>
       </c>
       <c r="I973" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J973" s="57" t="s">
-        <v>442</v>
+        <v>29</v>
       </c>
       <c r="K973" s="58"/>
       <c r="L973" s="26"/>
@@ -72133,7 +72200,7 @@
       </c>
       <c r="R973" s="26"/>
       <c r="S973" s="24" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="T973" s="25"/>
       <c r="U973" s="25"/>
@@ -72141,7 +72208,7 @@
       <c r="W973" s="23"/>
       <c r="X973" s="23"/>
     </row>
-    <row r="974" spans="1:24" ht="15" customHeight="1">
+    <row r="974" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A974" s="87">
         <f>YEAR(D974)</f>
         <v>2025</v>
@@ -72185,7 +72252,7 @@
       </c>
       <c r="R974" s="26"/>
       <c r="S974" s="24" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="T974" s="25"/>
       <c r="U974" s="25"/>
@@ -72193,7 +72260,7 @@
       <c r="W974" s="23"/>
       <c r="X974" s="23"/>
     </row>
-    <row r="975" spans="1:24" ht="15" customHeight="1">
+    <row r="975" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A975" s="87">
         <f>YEAR(D975)</f>
         <v>2025</v>
@@ -72221,7 +72288,7 @@
         <v>299</v>
       </c>
       <c r="I975" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J975" s="57" t="s">
         <v>29</v>
@@ -72237,7 +72304,7 @@
       </c>
       <c r="R975" s="26"/>
       <c r="S975" s="24" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="T975" s="25"/>
       <c r="U975" s="25"/>
@@ -72245,7 +72312,7 @@
       <c r="W975" s="23"/>
       <c r="X975" s="23"/>
     </row>
-    <row r="976" spans="1:24" ht="15" customHeight="1">
+    <row r="976" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A976" s="87">
         <f>YEAR(D976)</f>
         <v>2025</v>
@@ -72267,16 +72334,16 @@
         <v>95</v>
       </c>
       <c r="G976" s="26" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H976" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I976" s="26" t="s">
-        <v>117</v>
+        <v>654</v>
       </c>
       <c r="J976" s="57" t="s">
-        <v>442</v>
+        <v>60</v>
       </c>
       <c r="K976" s="58"/>
       <c r="L976" s="26"/>
@@ -72289,13 +72356,13 @@
       </c>
       <c r="R976" s="26"/>
       <c r="S976" s="24" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="T976" s="25"/>
       <c r="U976" s="25"/>
       <c r="V976" s="26"/>
       <c r="W976" s="23" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="X976" s="23"/>
     </row>
@@ -72321,21 +72388,27 @@
         <v>95</v>
       </c>
       <c r="G977" s="26" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H977" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I977" s="26" t="s">
-        <v>117</v>
+        <v>654</v>
       </c>
       <c r="J977" s="57" t="s">
-        <v>612</v>
-      </c>
-      <c r="K977" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="K977" s="58">
+        <v>45715</v>
+      </c>
       <c r="L977" s="26"/>
-      <c r="M977" s="58"/>
-      <c r="N977" s="58"/>
+      <c r="M977" s="58">
+        <v>45716</v>
+      </c>
+      <c r="N977" s="58">
+        <v>45715</v>
+      </c>
       <c r="O977" s="26"/>
       <c r="P977" s="26"/>
       <c r="Q977" s="26">
@@ -72343,15 +72416,565 @@
       </c>
       <c r="R977" s="26"/>
       <c r="S977" s="104" t="s">
-        <v>777</v>
-      </c>
-      <c r="T977" s="25"/>
-      <c r="U977" s="25"/>
+        <v>780</v>
+      </c>
+      <c r="T977" s="25">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="U977" s="25">
+        <v>0.625</v>
+      </c>
       <c r="V977" s="26"/>
       <c r="W977" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="X977" s="23"/>
+        <v>696</v>
+      </c>
+      <c r="X977" s="23" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="978" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="A978" s="87">
+        <f>YEAR(D978)</f>
+        <v>2025</v>
+      </c>
+      <c r="B978" s="26">
+        <f>MONTH(D978)</f>
+        <v>2</v>
+      </c>
+      <c r="C978" s="44">
+        <v>993</v>
+      </c>
+      <c r="D978" s="58">
+        <v>45715</v>
+      </c>
+      <c r="E978" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F978" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="G978" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="H978" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I978" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="J978" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K978" s="58">
+        <v>45715</v>
+      </c>
+      <c r="L978" s="26"/>
+      <c r="M978" s="58"/>
+      <c r="N978" s="58">
+        <v>45715</v>
+      </c>
+      <c r="O978" s="26"/>
+      <c r="P978" s="26"/>
+      <c r="Q978" s="26">
+        <v>355</v>
+      </c>
+      <c r="R978" s="26"/>
+      <c r="S978" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="T978" s="25"/>
+      <c r="U978" s="25"/>
+      <c r="V978" s="26"/>
+      <c r="W978" s="23"/>
+      <c r="X978" s="23"/>
+    </row>
+    <row r="979" spans="1:24" ht="15" customHeight="1">
+      <c r="A979" s="87">
+        <f>YEAR(D979)</f>
+        <v>2025</v>
+      </c>
+      <c r="B979" s="26">
+        <f>MONTH(D979)</f>
+        <v>2</v>
+      </c>
+      <c r="C979" s="44">
+        <v>994</v>
+      </c>
+      <c r="D979" s="58">
+        <v>45715</v>
+      </c>
+      <c r="E979" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F979" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G979" s="26" t="s">
+        <v>678</v>
+      </c>
+      <c r="H979" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I979" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J979" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K979" s="58"/>
+      <c r="L979" s="26"/>
+      <c r="M979" s="58"/>
+      <c r="N979" s="58"/>
+      <c r="O979" s="26"/>
+      <c r="P979" s="26"/>
+      <c r="Q979" s="26">
+        <v>0</v>
+      </c>
+      <c r="R979" s="26"/>
+      <c r="S979" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="T979" s="25"/>
+      <c r="U979" s="25"/>
+      <c r="V979" s="26"/>
+      <c r="W979" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="X979" s="23"/>
+    </row>
+    <row r="980" spans="1:24" ht="15" customHeight="1">
+      <c r="A980" s="87">
+        <f>YEAR(D980)</f>
+        <v>2025</v>
+      </c>
+      <c r="B980" s="26">
+        <f>MONTH(D980)</f>
+        <v>2</v>
+      </c>
+      <c r="C980" s="44">
+        <v>995</v>
+      </c>
+      <c r="D980" s="58">
+        <v>45716</v>
+      </c>
+      <c r="E980" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="F980" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="G980" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="H980" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I980" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J980" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K980" s="58">
+        <v>45722</v>
+      </c>
+      <c r="L980" s="26"/>
+      <c r="M980" s="58"/>
+      <c r="N980" s="58"/>
+      <c r="O980" s="26"/>
+      <c r="P980" s="26"/>
+      <c r="Q980" s="26">
+        <v>0</v>
+      </c>
+      <c r="R980" s="26"/>
+      <c r="S980" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="T980" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="U980" s="25"/>
+      <c r="V980" s="26"/>
+      <c r="W980" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="X980" s="23"/>
+    </row>
+    <row r="981" spans="1:24" ht="15" customHeight="1">
+      <c r="A981" s="87">
+        <f>YEAR(D981)</f>
+        <v>2025</v>
+      </c>
+      <c r="B981" s="26">
+        <f>MONTH(D981)</f>
+        <v>2</v>
+      </c>
+      <c r="C981" s="44">
+        <v>996</v>
+      </c>
+      <c r="D981" s="58">
+        <v>45716</v>
+      </c>
+      <c r="E981" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="F981" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G981" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="H981" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I981" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="J981" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K981" s="58"/>
+      <c r="L981" s="26"/>
+      <c r="M981" s="58"/>
+      <c r="N981" s="58"/>
+      <c r="O981" s="26"/>
+      <c r="P981" s="26"/>
+      <c r="Q981" s="26">
+        <v>0</v>
+      </c>
+      <c r="R981" s="26"/>
+      <c r="S981" s="24" t="s">
+        <v>785</v>
+      </c>
+      <c r="T981" s="25"/>
+      <c r="U981" s="25"/>
+      <c r="V981" s="26"/>
+      <c r="W981" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="X981" s="23"/>
+    </row>
+    <row r="982" spans="1:24" ht="15" customHeight="1">
+      <c r="A982" s="87">
+        <f>YEAR(D982)</f>
+        <v>2025</v>
+      </c>
+      <c r="B982" s="26">
+        <f>MONTH(D982)</f>
+        <v>2</v>
+      </c>
+      <c r="C982" s="44">
+        <v>997</v>
+      </c>
+      <c r="D982" s="58">
+        <v>45716</v>
+      </c>
+      <c r="E982" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="F982" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="G982" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="H982" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I982" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="J982" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K982" s="58"/>
+      <c r="L982" s="26"/>
+      <c r="M982" s="58"/>
+      <c r="N982" s="58"/>
+      <c r="O982" s="26"/>
+      <c r="P982" s="26"/>
+      <c r="Q982" s="26">
+        <v>1138</v>
+      </c>
+      <c r="R982" s="26"/>
+      <c r="S982" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="T982" s="25"/>
+      <c r="U982" s="25"/>
+      <c r="V982" s="26"/>
+      <c r="W982" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="X982" s="23"/>
+    </row>
+    <row r="983" spans="1:24" ht="15" customHeight="1">
+      <c r="A983" s="87">
+        <f>YEAR(D983)</f>
+        <v>2025</v>
+      </c>
+      <c r="B983" s="26">
+        <f>MONTH(D983)</f>
+        <v>3</v>
+      </c>
+      <c r="C983" s="44">
+        <v>998</v>
+      </c>
+      <c r="D983" s="58">
+        <v>45722</v>
+      </c>
+      <c r="E983" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="F983" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G983" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="H983" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I983" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="J983" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K983" s="58"/>
+      <c r="L983" s="26"/>
+      <c r="M983" s="58"/>
+      <c r="N983" s="58"/>
+      <c r="O983" s="26"/>
+      <c r="P983" s="26"/>
+      <c r="Q983" s="26">
+        <v>9496</v>
+      </c>
+      <c r="R983" s="26"/>
+      <c r="S983" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="T983" s="25"/>
+      <c r="U983" s="25"/>
+      <c r="V983" s="26"/>
+      <c r="W983" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="X983" s="23"/>
+    </row>
+    <row r="984" spans="1:24" ht="15" customHeight="1">
+      <c r="A984" s="87">
+        <f>YEAR(D984)</f>
+        <v>2025</v>
+      </c>
+      <c r="B984" s="26">
+        <f>MONTH(D984)</f>
+        <v>3</v>
+      </c>
+      <c r="C984" s="44">
+        <v>999</v>
+      </c>
+      <c r="D984" s="58">
+        <v>45722</v>
+      </c>
+      <c r="E984" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="F984" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G984" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="H984" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I984" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="J984" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K984" s="58"/>
+      <c r="L984" s="26"/>
+      <c r="M984" s="58"/>
+      <c r="N984" s="58"/>
+      <c r="O984" s="26"/>
+      <c r="P984" s="26"/>
+      <c r="Q984" s="26">
+        <v>678</v>
+      </c>
+      <c r="R984" s="26"/>
+      <c r="S984" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="T984" s="25"/>
+      <c r="U984" s="25"/>
+      <c r="V984" s="26"/>
+      <c r="W984" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="X984" s="23"/>
+    </row>
+    <row r="985" spans="1:24" ht="34.5" customHeight="1">
+      <c r="A985" s="87">
+        <f>YEAR(D985)</f>
+        <v>2025</v>
+      </c>
+      <c r="B985" s="26">
+        <f>MONTH(D985)</f>
+        <v>2</v>
+      </c>
+      <c r="C985" s="44">
+        <v>1000</v>
+      </c>
+      <c r="D985" s="58">
+        <v>45691</v>
+      </c>
+      <c r="E985" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="F985" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G985" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="H985" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I985" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="J985" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K985" s="58"/>
+      <c r="L985" s="26"/>
+      <c r="M985" s="58"/>
+      <c r="N985" s="58"/>
+      <c r="O985" s="26"/>
+      <c r="P985" s="26"/>
+      <c r="Q985" s="26">
+        <v>0</v>
+      </c>
+      <c r="R985" s="26"/>
+      <c r="S985" s="104" t="s">
+        <v>791</v>
+      </c>
+      <c r="T985" s="25"/>
+      <c r="U985" s="25"/>
+      <c r="V985" s="26"/>
+      <c r="W985" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="X985" s="23"/>
+    </row>
+    <row r="986" spans="1:24" ht="15" customHeight="1">
+      <c r="A986" s="87">
+        <f>YEAR(D986)</f>
+        <v>2025</v>
+      </c>
+      <c r="B986" s="26">
+        <f>MONTH(D986)</f>
+        <v>3</v>
+      </c>
+      <c r="C986" s="44">
+        <v>1001</v>
+      </c>
+      <c r="D986" s="58">
+        <v>45722</v>
+      </c>
+      <c r="E986" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="F986" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G986" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="H986" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I986" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="J986" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K986" s="58"/>
+      <c r="L986" s="26"/>
+      <c r="M986" s="58"/>
+      <c r="N986" s="58"/>
+      <c r="O986" s="26"/>
+      <c r="P986" s="26"/>
+      <c r="Q986" s="26">
+        <v>1010</v>
+      </c>
+      <c r="R986" s="26"/>
+      <c r="S986" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="T986" s="25"/>
+      <c r="U986" s="25"/>
+      <c r="V986" s="26"/>
+      <c r="W986" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="X986" s="23"/>
+    </row>
+    <row r="987" spans="1:24" ht="15" customHeight="1">
+      <c r="A987" s="87">
+        <f>YEAR(D987)</f>
+        <v>2025</v>
+      </c>
+      <c r="B987" s="26">
+        <f>MONTH(D987)</f>
+        <v>3</v>
+      </c>
+      <c r="C987" s="44">
+        <v>1002</v>
+      </c>
+      <c r="D987" s="58">
+        <v>45722</v>
+      </c>
+      <c r="E987" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F987" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G987" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="H987" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I987" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="J987" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K987" s="58"/>
+      <c r="L987" s="26"/>
+      <c r="M987" s="58"/>
+      <c r="N987" s="58"/>
+      <c r="O987" s="26"/>
+      <c r="P987" s="26"/>
+      <c r="Q987" s="26">
+        <v>0</v>
+      </c>
+      <c r="R987" s="26"/>
+      <c r="S987" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="T987" s="25"/>
+      <c r="U987" s="25"/>
+      <c r="V987" s="26"/>
+      <c r="W987" s="23"/>
+      <c r="X987" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
@@ -72359,7 +72982,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J977">
+  <conditionalFormatting sqref="J2:J987">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -72600,6 +73223,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -72608,20 +73237,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3394" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62E6C272-8ED1-4019-A93F-44E0FA221F07}"/>
+  <xr:revisionPtr revIDLastSave="3410" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DDBF180-7528-4FA8-8A65-8020EE2CCF7F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15991" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16011" uniqueCount="794">
   <si>
     <t>ANO</t>
   </si>
@@ -272,7 +272,7 @@
 •	Tambo de graxa para rosca.</t>
   </si>
   <si>
-    <t>Adequação de Segurança</t>
+    <t>ADEQUAÇÃO DE SEGURANÇA</t>
   </si>
   <si>
     <t>FABRICAÇÃO DO LIMITADOR HASTE</t>
@@ -1859,9 +1859,6 @@
     <t>André Ribeiro dos Santos</t>
   </si>
   <si>
-    <t>FABRICAÇÃO </t>
-  </si>
-  <si>
     <t>6 CAPACETES METÁLICOS PARA INSTRUMENTO</t>
   </si>
   <si>
@@ -2042,9 +2039,6 @@
   </si>
   <si>
     <t xml:space="preserve">Esteira da máquina caiu </t>
-  </si>
-  <si>
-    <t>ADEQUAÇÃO DE SEGURANÇA</t>
   </si>
   <si>
     <t xml:space="preserve">Apoio no posto para itens solicitados pelo Thiago frentista. </t>
@@ -2362,9 +2356,6 @@
     <t>FABRICAR 4 HASTE HQ DE 0,50CM SENDO COM ROSCA MACHO (NW)</t>
   </si>
   <si>
-    <t xml:space="preserve">FABRICAÇÃO </t>
-  </si>
-  <si>
     <t>reforma, solda em 04 guarda corpos</t>
   </si>
   <si>
@@ -2595,6 +2586,15 @@
   </si>
   <si>
     <t xml:space="preserve">cobertura da ampliação do laboratório </t>
+  </si>
+  <si>
+    <t>Fabricar proteções para motores brancos com partida elétrica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problema na morca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS MORSA NAS ESTAVA ABRINDO E NEM FECHANDO, PROVIDENCIA DO 5  BLOCO DE CONTATOS </t>
   </si>
 </sst>
 </file>
@@ -3874,8 +3874,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X987" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X987" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X990" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X990" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4220,10 +4220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA987"/>
+  <dimension ref="A1:AA990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J980" sqref="J980"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -6241,7 +6241,7 @@
       <c r="H28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -6759,7 +6759,7 @@
       <c r="H35" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="47" t="s">
+      <c r="I35" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J35" s="47" t="s">
@@ -7795,7 +7795,7 @@
       <c r="H49" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I49" s="47" t="s">
+      <c r="I49" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J49" s="47" t="s">
@@ -8017,7 +8017,7 @@
       <c r="H52" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="47" t="s">
+      <c r="I52" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J52" s="47" t="s">
@@ -8757,7 +8757,7 @@
       <c r="H62" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I62" s="47" t="s">
+      <c r="I62" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J62" s="47" t="s">
@@ -9867,7 +9867,7 @@
       <c r="H77" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I77" s="47" t="s">
+      <c r="I77" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J77" s="47" t="s">
@@ -10015,7 +10015,7 @@
       <c r="H79" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I79" s="47" t="s">
+      <c r="I79" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J79" s="47" t="s">
@@ -10533,7 +10533,7 @@
       <c r="H86" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I86" s="47" t="s">
+      <c r="I86" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J86" s="47" t="s">
@@ -11787,7 +11787,7 @@
       <c r="H103" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I103" s="47" t="s">
+      <c r="I103" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J103" s="47" t="s">
@@ -12601,7 +12601,7 @@
       <c r="H114" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I114" s="47" t="s">
+      <c r="I114" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J114" s="47" t="s">
@@ -12971,7 +12971,7 @@
       <c r="H119" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I119" s="47" t="s">
+      <c r="I119" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J119" s="47" t="s">
@@ -13563,7 +13563,7 @@
       <c r="H127" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I127" s="47" t="s">
+      <c r="I127" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J127" s="47" t="s">
@@ -13859,7 +13859,7 @@
       <c r="H131" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I131" s="47" t="s">
+      <c r="I131" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J131" s="47" t="s">
@@ -14599,7 +14599,7 @@
       <c r="H141" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I141" s="47" t="s">
+      <c r="I141" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J141" s="47" t="s">
@@ -15487,7 +15487,7 @@
       <c r="H153" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I153" s="47" t="s">
+      <c r="I153" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J153" s="47" t="s">
@@ -16227,7 +16227,7 @@
       <c r="H163" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I163" s="47" t="s">
+      <c r="I163" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J163" s="47" t="s">
@@ -17781,7 +17781,7 @@
       <c r="H184" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I184" s="47" t="s">
+      <c r="I184" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J184" s="47" t="s">
@@ -17929,7 +17929,7 @@
       <c r="H186" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I186" s="47" t="s">
+      <c r="I186" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J186" s="47" t="s">
@@ -19483,7 +19483,7 @@
       <c r="H207" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I207" s="47" t="s">
+      <c r="I207" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J207" s="47" t="s">
@@ -19705,7 +19705,7 @@
       <c r="H210" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="I210" s="47" t="s">
+      <c r="I210" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J210" s="47" t="s">
@@ -20149,7 +20149,7 @@
       <c r="H216" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="I216" s="47" t="s">
+      <c r="I216" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J216" s="47" t="s">
@@ -23923,7 +23923,7 @@
       <c r="H267" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="I267" s="47" t="s">
+      <c r="I267" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J267" s="47" t="s">
@@ -25477,7 +25477,7 @@
       <c r="H288" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="I288" s="47" t="s">
+      <c r="I288" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J288" s="47" t="s">
@@ -26205,7 +26205,7 @@
       <c r="H298" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="I298" s="47" t="s">
+      <c r="I298" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J298" s="47" t="s">
@@ -33653,7 +33653,7 @@
       <c r="H401" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="I401" s="47" t="s">
+      <c r="I401" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J401" s="47" t="s">
@@ -39989,7 +39989,7 @@
       <c r="H489" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="I489" s="47" t="s">
+      <c r="I489" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J489" s="47" t="s">
@@ -40061,7 +40061,7 @@
       <c r="H490" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="I490" s="47" t="s">
+      <c r="I490" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J490" s="47" t="s">
@@ -41069,7 +41069,7 @@
       <c r="H504" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="I504" s="47" t="s">
+      <c r="I504" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J504" s="47" t="s">
@@ -41933,7 +41933,7 @@
       <c r="H516" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="I516" s="47" t="s">
+      <c r="I516" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J516" s="47" t="s">
@@ -44165,7 +44165,7 @@
       <c r="H547" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="I547" s="47" t="s">
+      <c r="I547" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J547" s="47" t="s">
@@ -45965,7 +45965,7 @@
       <c r="H572" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="I572" s="47" t="s">
+      <c r="I572" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J572" s="47" t="s">
@@ -48127,7 +48127,7 @@
       <c r="H602" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="I602" s="47" t="s">
+      <c r="I602" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J602" s="47" t="s">
@@ -48415,7 +48415,7 @@
       <c r="H606" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="I606" s="47" t="s">
+      <c r="I606" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J606" s="47" t="s">
@@ -49279,7 +49279,7 @@
       <c r="H618" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="I618" s="47" t="s">
+      <c r="I618" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J618" s="47" t="s">
@@ -53153,7 +53153,7 @@
       <c r="H672" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="I672" s="47" t="s">
+      <c r="I672" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J672" s="47" t="s">
@@ -55445,7 +55445,7 @@
       <c r="H704" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="I704" s="47" t="s">
+      <c r="I704" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J704" s="47" t="s">
@@ -56309,7 +56309,7 @@
       <c r="H716" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="I716" s="47" t="s">
+      <c r="I716" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J716" s="47" t="s">
@@ -59715,7 +59715,7 @@
       <c r="H763" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I763" s="1" t="s">
+      <c r="I763" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J763" s="1" t="s">
@@ -61467,9 +61467,7 @@
       <c r="H787" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I787" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="I787" s="1"/>
       <c r="J787" s="1" t="s">
         <v>60</v>
       </c>
@@ -61541,9 +61539,7 @@
       <c r="H788" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I788" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="I788" s="1"/>
       <c r="J788" s="1" t="s">
         <v>60</v>
       </c>
@@ -63045,8 +63041,8 @@
       <c r="H815" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I815" s="1" t="s">
-        <v>570</v>
+      <c r="I815" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J815" s="1" t="s">
         <v>428</v>
@@ -63070,7 +63066,7 @@
         <v>433</v>
       </c>
       <c r="S815" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="T815" s="8">
         <v>0.56944444444444442</v>
@@ -63108,12 +63104,12 @@
         <v>279</v>
       </c>
       <c r="G816" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H816" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I816" s="44" t="s">
+      <c r="I816" s="45" t="s">
         <v>35</v>
       </c>
       <c r="J816" s="3" t="s">
@@ -63138,7 +63134,7 @@
         <v>433</v>
       </c>
       <c r="S816" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T816" s="7">
         <v>0.58333333333333337</v>
@@ -63173,10 +63169,10 @@
         <v>47</v>
       </c>
       <c r="F817" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G817" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="G817" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="H817" s="1" t="s">
         <v>297</v>
@@ -63198,7 +63194,7 @@
       <c r="Q817" s="1"/>
       <c r="R817" s="1"/>
       <c r="S817" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="T817" s="1"/>
       <c r="U817" s="1"/>
@@ -63252,7 +63248,7 @@
       <c r="Q818" s="1"/>
       <c r="R818" s="1"/>
       <c r="S818" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T818" s="1"/>
       <c r="U818" s="1"/>
@@ -63282,7 +63278,7 @@
         <v>445</v>
       </c>
       <c r="G819" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H819" s="1" t="s">
         <v>297</v>
@@ -63306,7 +63302,7 @@
       <c r="Q819" s="1"/>
       <c r="R819" s="1"/>
       <c r="S819" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T819" s="1"/>
       <c r="U819" s="1"/>
@@ -63336,7 +63332,7 @@
         <v>445</v>
       </c>
       <c r="G820" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H820" s="1" t="s">
         <v>297</v>
@@ -63384,7 +63380,7 @@
         <v>263</v>
       </c>
       <c r="G821" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H821" s="1" t="s">
         <v>299</v>
@@ -63406,11 +63402,11 @@
       <c r="O821" s="1"/>
       <c r="P821" s="1"/>
       <c r="Q821" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R821" s="1"/>
       <c r="S821" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="T821" s="8">
         <v>0.61111111111111116</v>
@@ -63444,7 +63440,7 @@
         <v>295</v>
       </c>
       <c r="G822" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H822" s="1" t="s">
         <v>299</v>
@@ -63466,11 +63462,11 @@
       <c r="O822" s="1"/>
       <c r="P822" s="1"/>
       <c r="Q822" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R822" s="1"/>
       <c r="S822" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T822" s="8">
         <v>0.33333333333333331</v>
@@ -63504,7 +63500,7 @@
         <v>25</v>
       </c>
       <c r="G823" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H823" s="1" t="s">
         <v>299</v>
@@ -63526,11 +63522,11 @@
       <c r="O823" s="1"/>
       <c r="P823" s="1"/>
       <c r="Q823" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R823" s="1"/>
       <c r="S823" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="T823" s="8">
         <v>0.38055555555555554</v>
@@ -63564,7 +63560,7 @@
         <v>306</v>
       </c>
       <c r="G824" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H824" s="1" t="s">
         <v>297</v>
@@ -63588,7 +63584,7 @@
       <c r="Q824" s="1"/>
       <c r="R824" s="1"/>
       <c r="S824" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T824" s="8"/>
       <c r="U824" s="8"/>
@@ -63618,7 +63614,7 @@
         <v>111</v>
       </c>
       <c r="G825" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H825" s="1" t="s">
         <v>297</v>
@@ -63642,7 +63638,7 @@
       <c r="Q825" s="1"/>
       <c r="R825" s="1"/>
       <c r="S825" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T825" s="1"/>
       <c r="U825" s="1"/>
@@ -63672,7 +63668,7 @@
         <v>76</v>
       </c>
       <c r="G826" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H826" s="1" t="s">
         <v>297</v>
@@ -63696,7 +63692,7 @@
       <c r="Q826" s="1"/>
       <c r="R826" s="1"/>
       <c r="S826" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T826" s="1"/>
       <c r="U826" s="1"/>
@@ -63726,7 +63722,7 @@
         <v>279</v>
       </c>
       <c r="G827" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H827" s="1" t="s">
         <v>297</v>
@@ -63750,7 +63746,7 @@
       <c r="Q827" s="1"/>
       <c r="R827" s="1"/>
       <c r="S827" s="95" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="T827" s="1"/>
       <c r="U827" s="1"/>
@@ -63780,7 +63776,7 @@
         <v>111</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H828" s="1" t="s">
         <v>299</v>
@@ -63802,11 +63798,11 @@
       <c r="O828" s="1"/>
       <c r="P828" s="1"/>
       <c r="Q828" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R828" s="1"/>
       <c r="S828" s="13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T828" s="8">
         <v>0.41666666666666669</v>
@@ -63840,7 +63836,7 @@
         <v>186</v>
       </c>
       <c r="G829" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H829" s="1" t="s">
         <v>299</v>
@@ -63862,11 +63858,11 @@
       <c r="O829" s="1"/>
       <c r="P829" s="1"/>
       <c r="Q829" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R829" s="1"/>
       <c r="S829" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="T829" s="8">
         <v>0.4375</v>
@@ -63900,7 +63896,7 @@
         <v>279</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H830" s="1" t="s">
         <v>299</v>
@@ -63920,7 +63916,7 @@
       <c r="Q830" s="1"/>
       <c r="R830" s="1"/>
       <c r="S830" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T830" s="1"/>
       <c r="U830" s="1"/>
@@ -63955,7 +63951,7 @@
       <c r="H831" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I831" s="44" t="s">
+      <c r="I831" s="45" t="s">
         <v>35</v>
       </c>
       <c r="J831" s="1" t="s">
@@ -63974,7 +63970,7 @@
       <c r="Q831" s="1"/>
       <c r="R831" s="1"/>
       <c r="S831" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T831" s="1"/>
       <c r="U831" s="1"/>
@@ -64028,7 +64024,7 @@
       <c r="Q832" s="1"/>
       <c r="R832" s="1"/>
       <c r="S832" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T832" s="1"/>
       <c r="U832" s="1"/>
@@ -64055,10 +64051,10 @@
         <v>463</v>
       </c>
       <c r="F833" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G833" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="G833" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="H833" s="1" t="s">
         <v>297</v>
@@ -64082,7 +64078,7 @@
       <c r="Q833" s="1"/>
       <c r="R833" s="1"/>
       <c r="S833" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T833" s="1"/>
       <c r="U833" s="1"/>
@@ -64136,7 +64132,7 @@
       <c r="Q834" s="1"/>
       <c r="R834" s="1"/>
       <c r="S834" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T834" s="1"/>
       <c r="U834" s="1"/>
@@ -64166,7 +64162,7 @@
         <v>279</v>
       </c>
       <c r="G835" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H835" s="1" t="s">
         <v>299</v>
@@ -64188,11 +64184,11 @@
       <c r="O835" s="1"/>
       <c r="P835" s="1"/>
       <c r="Q835" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="R835" s="1"/>
       <c r="S835" s="96" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T835" s="97">
         <v>0.375</v>
@@ -64275,7 +64271,7 @@
         <v>263</v>
       </c>
       <c r="G837" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H837" s="1" t="s">
         <v>297</v>
@@ -64323,7 +64319,7 @@
         <v>424</v>
       </c>
       <c r="G838" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H838" s="1" t="s">
         <v>297</v>
@@ -64449,7 +64445,7 @@
         <v>433</v>
       </c>
       <c r="S840" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="T840" s="8">
         <v>0.33333333333333331</v>
@@ -64490,8 +64486,8 @@
       <c r="H841" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I841" s="1" t="s">
-        <v>570</v>
+      <c r="I841" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J841" s="1" t="s">
         <v>29</v>
@@ -64535,13 +64531,13 @@
         <v>546</v>
       </c>
       <c r="G842" s="41" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H842" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I842" s="3" t="s">
-        <v>570</v>
+      <c r="I842" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J842" s="3" t="s">
         <v>60</v>
@@ -64585,7 +64581,7 @@
         <v>399</v>
       </c>
       <c r="G843" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H843" s="3" t="s">
         <v>299</v>
@@ -64635,7 +64631,7 @@
         <v>438</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>297</v>
@@ -64685,13 +64681,13 @@
         <v>111</v>
       </c>
       <c r="G845" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H845" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I845" s="1" t="s">
-        <v>570</v>
+      <c r="I845" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J845" s="3" t="s">
         <v>29</v>
@@ -64785,7 +64781,7 @@
         <v>546</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H847" s="3" t="s">
         <v>297</v>
@@ -64835,7 +64831,7 @@
         <v>295</v>
       </c>
       <c r="G848" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H848" s="3" t="s">
         <v>299</v>
@@ -64907,7 +64903,7 @@
       </c>
       <c r="R849" s="3"/>
       <c r="S849" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T849" s="3"/>
       <c r="U849" s="3"/>
@@ -64937,13 +64933,13 @@
         <v>279</v>
       </c>
       <c r="G850" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H850" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I850" s="1" t="s">
-        <v>570</v>
+      <c r="I850" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J850" s="3" t="s">
         <v>29</v>
@@ -64959,7 +64955,7 @@
       </c>
       <c r="R850" s="3"/>
       <c r="S850" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="T850" s="3"/>
       <c r="U850" s="3"/>
@@ -64993,7 +64989,7 @@
         <v>438</v>
       </c>
       <c r="G851" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H851" s="3" t="s">
         <v>297</v>
@@ -65015,7 +65011,7 @@
       </c>
       <c r="R851" s="3"/>
       <c r="S851" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T851" s="3"/>
       <c r="U851" s="3"/>
@@ -65050,8 +65046,8 @@
       <c r="H852" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I852" s="1" t="s">
-        <v>570</v>
+      <c r="I852" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J852" s="3" t="s">
         <v>60</v>
@@ -65067,7 +65063,7 @@
       </c>
       <c r="R852" s="3"/>
       <c r="S852" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T852" s="3"/>
       <c r="U852" s="3"/>
@@ -65101,13 +65097,13 @@
         <v>279</v>
       </c>
       <c r="G853" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H853" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I853" s="3" t="s">
-        <v>570</v>
+      <c r="I853" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J853" s="3" t="s">
         <v>29</v>
@@ -65123,7 +65119,7 @@
       </c>
       <c r="R853" s="3"/>
       <c r="S853" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="T853" s="3"/>
       <c r="U853" s="3"/>
@@ -65153,13 +65149,13 @@
         <v>438</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I854" s="3" t="s">
-        <v>570</v>
+      <c r="I854" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J854" s="3" t="s">
         <v>442</v>
@@ -65175,7 +65171,7 @@
       </c>
       <c r="R854" s="3"/>
       <c r="S854" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="T854" s="3"/>
       <c r="U854" s="3"/>
@@ -65231,7 +65227,7 @@
       </c>
       <c r="R855" s="3"/>
       <c r="S855" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T855" s="3"/>
       <c r="U855" s="3"/>
@@ -65263,7 +65259,7 @@
         <v>295</v>
       </c>
       <c r="G856" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H856" s="3" t="s">
         <v>299</v>
@@ -65285,7 +65281,7 @@
       </c>
       <c r="R856" s="3"/>
       <c r="S856" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="T856" s="3"/>
       <c r="U856" s="3"/>
@@ -65295,7 +65291,7 @@
     </row>
     <row r="857" spans="1:24" ht="121.5">
       <c r="A857" s="48" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B857" s="3">
         <f>MONTH(D857)</f>
@@ -65308,7 +65304,7 @@
         <v>45691.744351851848</v>
       </c>
       <c r="E857" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F857" s="3" t="s">
         <v>546</v>
@@ -65319,8 +65315,8 @@
       <c r="H857" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I857" s="1" t="s">
-        <v>570</v>
+      <c r="I857" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J857" s="3" t="s">
         <v>428</v>
@@ -65338,7 +65334,7 @@
       </c>
       <c r="R857" s="3"/>
       <c r="S857" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="T857" s="3"/>
       <c r="U857" s="3"/>
@@ -65374,7 +65370,7 @@
         <v>76</v>
       </c>
       <c r="G858" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H858" s="3" t="s">
         <v>299</v>
@@ -65396,7 +65392,7 @@
       </c>
       <c r="R858" s="3"/>
       <c r="S858" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="T858" s="3"/>
       <c r="U858" s="3"/>
@@ -65432,7 +65428,7 @@
         <v>297</v>
       </c>
       <c r="I859" s="3" t="s">
-        <v>628</v>
+        <v>70</v>
       </c>
       <c r="J859" s="3" t="s">
         <v>60</v>
@@ -65448,7 +65444,7 @@
       </c>
       <c r="R859" s="3"/>
       <c r="S859" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="T859" s="3"/>
       <c r="U859" s="3"/>
@@ -65478,13 +65474,13 @@
         <v>111</v>
       </c>
       <c r="G860" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H860" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I860" s="3" t="s">
-        <v>570</v>
+      <c r="I860" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J860" s="3" t="s">
         <v>428</v>
@@ -65510,7 +65506,7 @@
         <v>433</v>
       </c>
       <c r="S860" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="T860" s="7">
         <v>0.34722222222222221</v>
@@ -65546,7 +65542,7 @@
         <v>546</v>
       </c>
       <c r="G861" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H861" s="3" t="s">
         <v>297</v>
@@ -65580,7 +65576,7 @@
         <v>433</v>
       </c>
       <c r="S861" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="T861" s="7">
         <v>0.61597222222222225</v>
@@ -65618,13 +65614,13 @@
         <v>546</v>
       </c>
       <c r="G862" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H862" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I862" s="3" t="s">
-        <v>570</v>
+      <c r="I862" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J862" s="3" t="s">
         <v>29</v>
@@ -65640,7 +65636,7 @@
       </c>
       <c r="R862" s="1"/>
       <c r="S862" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="T862" s="3"/>
       <c r="U862" s="3"/>
@@ -65667,16 +65663,16 @@
         <v>47</v>
       </c>
       <c r="F863" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G863" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H863" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I863" s="3" t="s">
-        <v>570</v>
+      <c r="I863" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J863" s="3" t="s">
         <v>29</v>
@@ -65702,7 +65698,7 @@
         <v>433</v>
       </c>
       <c r="S863" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="T863" s="7">
         <v>0.33333333333333331</v>
@@ -65745,8 +65741,8 @@
       <c r="H864" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I864" s="3" t="s">
-        <v>570</v>
+      <c r="I864" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J864" s="3" t="s">
         <v>29</v>
@@ -65772,7 +65768,7 @@
         <v>433</v>
       </c>
       <c r="S864" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="T864" s="14">
         <v>0.33333333333333331</v>
@@ -65807,16 +65803,16 @@
         <v>47</v>
       </c>
       <c r="F865" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G865" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H865" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I865" s="3" t="s">
-        <v>570</v>
+      <c r="I865" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J865" s="3" t="s">
         <v>29</v>
@@ -65842,7 +65838,7 @@
         <v>433</v>
       </c>
       <c r="S865" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="T865" s="14">
         <v>0.33333333333333331</v>
@@ -65910,7 +65906,7 @@
         <v>433</v>
       </c>
       <c r="S866" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="T866" s="7">
         <v>0.625</v>
@@ -65943,16 +65939,16 @@
         <v>47</v>
       </c>
       <c r="F867" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G867" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H867" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I867" s="3" t="s">
-        <v>570</v>
+      <c r="I867" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J867" s="3" t="s">
         <v>29</v>
@@ -65978,7 +65974,7 @@
         <v>433</v>
       </c>
       <c r="S867" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="T867" s="14">
         <v>0.33333333333333331</v>
@@ -66016,7 +66012,7 @@
         <v>99</v>
       </c>
       <c r="G868" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H868" s="3" t="s">
         <v>297</v>
@@ -66040,7 +66036,7 @@
       </c>
       <c r="R868" s="1"/>
       <c r="S868" s="28" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="T868" s="3"/>
       <c r="U868" s="3"/>
@@ -66072,12 +66068,12 @@
         <v>279</v>
       </c>
       <c r="G869" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H869" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I869" s="1" t="s">
+      <c r="I869" s="45" t="s">
         <v>35</v>
       </c>
       <c r="J869" s="3" t="s">
@@ -66096,14 +66092,14 @@
       <c r="Q869" s="3"/>
       <c r="R869" s="3"/>
       <c r="S869" s="28" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="T869" s="3"/>
       <c r="U869" s="3"/>
       <c r="V869" s="3"/>
       <c r="W869" s="6"/>
       <c r="X869" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="870" spans="1:24" hidden="1">
@@ -66133,7 +66129,7 @@
       <c r="H870" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I870" s="44" t="s">
+      <c r="I870" s="45" t="s">
         <v>35</v>
       </c>
       <c r="J870" s="3" t="s">
@@ -66150,7 +66146,7 @@
       <c r="Q870" s="3"/>
       <c r="R870" s="3"/>
       <c r="S870" s="29" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="T870" s="3"/>
       <c r="U870" s="3"/>
@@ -66184,13 +66180,13 @@
         <v>130</v>
       </c>
       <c r="G871" s="78" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H871" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I871" s="1" t="s">
-        <v>570</v>
+      <c r="I871" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J871" s="3" t="s">
         <v>29</v>
@@ -66210,7 +66206,7 @@
       <c r="Q871" s="3"/>
       <c r="R871" s="3"/>
       <c r="S871" s="28" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="T871" s="7">
         <v>0.66666666666666663</v>
@@ -66223,7 +66219,7 @@
         <v>554</v>
       </c>
       <c r="X871" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="872" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66268,7 +66264,7 @@
       <c r="Q872" s="32"/>
       <c r="R872" s="32"/>
       <c r="S872" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="T872" s="31"/>
       <c r="U872" s="31"/>
@@ -66298,12 +66294,12 @@
         <v>95</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H873" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="I873" s="32" t="s">
+      <c r="I873" s="45" t="s">
         <v>35</v>
       </c>
       <c r="J873" s="32" t="s">
@@ -66318,7 +66314,7 @@
       <c r="Q873" s="32"/>
       <c r="R873" s="32"/>
       <c r="S873" s="30" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="T873" s="31"/>
       <c r="U873" s="31"/>
@@ -66348,12 +66344,12 @@
         <v>279</v>
       </c>
       <c r="G874" s="53" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H874" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="I874" s="32" t="s">
+      <c r="I874" s="45" t="s">
         <v>35</v>
       </c>
       <c r="J874" s="32" t="s">
@@ -66368,7 +66364,7 @@
       <c r="Q874" s="32"/>
       <c r="R874" s="32"/>
       <c r="S874" s="30" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="T874" s="31"/>
       <c r="U874" s="31"/>
@@ -66398,12 +66394,12 @@
         <v>279</v>
       </c>
       <c r="G875" s="53" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H875" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="I875" s="32" t="s">
+      <c r="I875" s="45" t="s">
         <v>35</v>
       </c>
       <c r="J875" s="32" t="s">
@@ -66420,7 +66416,7 @@
       <c r="Q875" s="32"/>
       <c r="R875" s="32"/>
       <c r="S875" s="30" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="T875" s="31"/>
       <c r="U875" s="31"/>
@@ -66429,7 +66425,7 @@
         <v>554</v>
       </c>
       <c r="X875" s="34" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="876" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66459,7 +66455,7 @@
       <c r="H876" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="I876" s="32" t="s">
+      <c r="I876" s="45" t="s">
         <v>35</v>
       </c>
       <c r="J876" s="32" t="s">
@@ -66474,7 +66470,7 @@
       <c r="Q876" s="32"/>
       <c r="R876" s="32"/>
       <c r="S876" s="37" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="T876" s="31"/>
       <c r="U876" s="31"/>
@@ -66508,12 +66504,12 @@
         <v>130</v>
       </c>
       <c r="G877" s="53" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H877" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="I877" s="32" t="s">
+      <c r="I877" s="45" t="s">
         <v>35</v>
       </c>
       <c r="J877" s="32" t="s">
@@ -66528,7 +66524,7 @@
       <c r="Q877" s="32"/>
       <c r="R877" s="32"/>
       <c r="S877" s="30" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="T877" s="31"/>
       <c r="U877" s="31"/>
@@ -66792,19 +66788,19 @@
         <v>45694.829513888886</v>
       </c>
       <c r="E884" s="36" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F884" s="36" t="s">
         <v>152</v>
       </c>
       <c r="G884" s="36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H884" s="36" t="s">
         <v>299</v>
       </c>
       <c r="I884" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J884" s="36" t="s">
         <v>29</v>
@@ -66824,7 +66820,7 @@
       </c>
       <c r="R884" s="36"/>
       <c r="S884" s="28" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="T884" s="35">
         <v>0.33333333333333331</v>
@@ -66855,16 +66851,16 @@
         <v>47</v>
       </c>
       <c r="F885" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G885" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H885" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I885" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J885" s="3" t="s">
         <v>29</v>
@@ -66892,7 +66888,7 @@
         <v>433</v>
       </c>
       <c r="S885" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="T885" s="7">
         <v>0.39374999999999999</v>
@@ -66905,7 +66901,7 @@
         <v>448</v>
       </c>
       <c r="X885" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="886" spans="1:24" hidden="1">
@@ -66930,7 +66926,7 @@
         <v>99</v>
       </c>
       <c r="G886" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H886" s="3" t="s">
         <v>299</v>
@@ -66956,7 +66952,7 @@
       </c>
       <c r="R886" s="1"/>
       <c r="S886" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="T886" s="7">
         <v>0.33333333333333331</v>
@@ -66990,13 +66986,13 @@
         <v>306</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H887" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I887" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J887" s="3" t="s">
         <v>428</v>
@@ -67016,7 +67012,7 @@
       </c>
       <c r="R887" s="3"/>
       <c r="S887" s="12" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="T887" s="7">
         <v>0.67986111111111114</v>
@@ -67052,13 +67048,13 @@
         <v>31</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H888" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I888" s="3" t="s">
-        <v>570</v>
+      <c r="I888" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J888" s="3" t="s">
         <v>442</v>
@@ -67074,7 +67070,7 @@
       </c>
       <c r="R888" s="3"/>
       <c r="S888" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="T888" s="3"/>
       <c r="U888" s="3"/>
@@ -67114,7 +67110,7 @@
         <v>299</v>
       </c>
       <c r="I889" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J889" s="3" t="s">
         <v>29</v>
@@ -67135,10 +67131,10 @@
         <v>405</v>
       </c>
       <c r="R889" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="S889" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="T889" s="7">
         <v>0.33333333333333331</v>
@@ -67148,7 +67144,7 @@
       </c>
       <c r="V889" s="3"/>
       <c r="W889" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X889" s="6"/>
     </row>
@@ -67174,13 +67170,13 @@
         <v>31</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H890" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I890" s="3" t="s">
-        <v>570</v>
+      <c r="I890" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J890" s="3" t="s">
         <v>29</v>
@@ -67206,7 +67202,7 @@
         <v>433</v>
       </c>
       <c r="S890" s="12" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="T890" s="7">
         <v>0.3576388888888889</v>
@@ -67240,13 +67236,13 @@
         <v>126</v>
       </c>
       <c r="G891" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H891" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I891" s="3" t="s">
-        <v>570</v>
+      <c r="I891" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J891" s="3" t="s">
         <v>428</v>
@@ -67266,7 +67262,7 @@
       </c>
       <c r="R891" s="1"/>
       <c r="S891" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="T891" s="7">
         <v>0.33333333333333331</v>
@@ -67277,7 +67273,7 @@
         <v>554</v>
       </c>
       <c r="X891" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="892" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -67302,13 +67298,13 @@
         <v>279</v>
       </c>
       <c r="G892" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H892" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I892" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J892" s="3" t="s">
         <v>29</v>
@@ -67328,13 +67324,13 @@
       </c>
       <c r="R892" s="3"/>
       <c r="S892" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="T892" s="3"/>
       <c r="U892" s="3"/>
       <c r="V892" s="3"/>
       <c r="W892" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="X892" s="6"/>
     </row>
@@ -67360,13 +67356,13 @@
         <v>279</v>
       </c>
       <c r="G893" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H893" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I893" s="3" t="s">
-        <v>570</v>
+      <c r="I893" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J893" s="3" t="s">
         <v>29</v>
@@ -67388,7 +67384,7 @@
       </c>
       <c r="R893" s="3"/>
       <c r="S893" s="12" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="T893" s="7">
         <v>0.65277777777777779</v>
@@ -67424,7 +67420,7 @@
         <v>546</v>
       </c>
       <c r="G894" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H894" s="3" t="s">
         <v>297</v>
@@ -67454,7 +67450,7 @@
       </c>
       <c r="R894" s="3"/>
       <c r="S894" s="12" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="T894" s="7">
         <v>0.58333333333333337</v>
@@ -67464,7 +67460,7 @@
       </c>
       <c r="V894" s="3"/>
       <c r="W894" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="X894" s="6"/>
     </row>
@@ -67490,13 +67486,13 @@
         <v>295</v>
       </c>
       <c r="G895" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H895" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I895" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J895" s="3" t="s">
         <v>29</v>
@@ -67516,7 +67512,7 @@
       </c>
       <c r="R895" s="3"/>
       <c r="S895" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="T895" s="7">
         <v>0.60416666666666663</v>
@@ -67526,7 +67522,7 @@
       </c>
       <c r="V895" s="3"/>
       <c r="W895" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="X895" s="6"/>
     </row>
@@ -67552,13 +67548,13 @@
         <v>279</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H896" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I896" s="3" t="s">
-        <v>570</v>
+      <c r="I896" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J896" s="3" t="s">
         <v>29</v>
@@ -67580,7 +67576,7 @@
       </c>
       <c r="R896" s="3"/>
       <c r="S896" s="12" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="T896" s="7">
         <v>0.65277777777777779</v>
@@ -67610,13 +67606,13 @@
         <v>45699</v>
       </c>
       <c r="E897" s="36" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F897" s="36" t="s">
         <v>391</v>
       </c>
       <c r="G897" s="36" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H897" s="36" t="s">
         <v>299</v>
@@ -67644,7 +67640,7 @@
       </c>
       <c r="R897" s="36"/>
       <c r="S897" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="T897" s="35">
         <v>0.41666666666666669</v>
@@ -67654,7 +67650,7 @@
       </c>
       <c r="V897" s="36"/>
       <c r="W897" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="X897" s="27"/>
     </row>
@@ -67680,13 +67676,13 @@
         <v>546</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H898" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I898" s="3" t="s">
-        <v>570</v>
+      <c r="I898" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J898" s="3" t="s">
         <v>29</v>
@@ -67706,13 +67702,13 @@
       </c>
       <c r="R898" s="3"/>
       <c r="S898" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="T898" s="3"/>
       <c r="U898" s="3"/>
       <c r="V898" s="3"/>
       <c r="W898" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="X898" s="6"/>
     </row>
@@ -67738,7 +67734,7 @@
         <v>186</v>
       </c>
       <c r="G899" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H899" s="3" t="s">
         <v>299</v>
@@ -67764,7 +67760,7 @@
       </c>
       <c r="R899" s="3"/>
       <c r="S899" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="T899" s="7">
         <v>0.64583333333333337</v>
@@ -67774,7 +67770,7 @@
       </c>
       <c r="V899" s="3"/>
       <c r="W899" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="X899" s="6"/>
     </row>
@@ -67829,10 +67825,10 @@
         <v>493</v>
       </c>
       <c r="R900" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="S900" s="12" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="T900" s="7">
         <v>0.54166666666666663</v>
@@ -67868,13 +67864,13 @@
         <v>546</v>
       </c>
       <c r="G901" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H901" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I901" s="3" t="s">
-        <v>570</v>
+      <c r="I901" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J901" s="3" t="s">
         <v>29</v>
@@ -67894,7 +67890,7 @@
       </c>
       <c r="R901" s="3"/>
       <c r="S901" s="12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="T901" s="7">
         <v>0.63124999999999998</v>
@@ -67924,19 +67920,19 @@
         <v>45699.760763888888</v>
       </c>
       <c r="E902" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F902" s="3" t="s">
         <v>546</v>
       </c>
       <c r="G902" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H902" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I902" s="3" t="s">
-        <v>570</v>
+      <c r="I902" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J902" s="3" t="s">
         <v>428</v>
@@ -67956,7 +67952,7 @@
       </c>
       <c r="R902" s="3"/>
       <c r="S902" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="T902" s="7">
         <v>0.33333333333333331</v>
@@ -67967,7 +67963,7 @@
         <v>554</v>
       </c>
       <c r="X902" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="903" spans="1:24" ht="33.75" customHeight="1">
@@ -67997,8 +67993,8 @@
       <c r="H903" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I903" s="3" t="s">
-        <v>570</v>
+      <c r="I903" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J903" s="3" t="s">
         <v>428</v>
@@ -68018,7 +68014,7 @@
       </c>
       <c r="R903" s="3"/>
       <c r="S903" s="12" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="T903" s="7">
         <v>0.4201388888888889</v>
@@ -68029,7 +68025,7 @@
         <v>448</v>
       </c>
       <c r="X903" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="904" spans="1:24" ht="39" hidden="1" customHeight="1">
@@ -68051,7 +68047,7 @@
         <v>47</v>
       </c>
       <c r="F904" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G904" s="3" t="s">
         <v>560</v>
@@ -68060,7 +68056,7 @@
         <v>297</v>
       </c>
       <c r="I904" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J904" s="3" t="s">
         <v>29</v>
@@ -68080,7 +68076,7 @@
       </c>
       <c r="R904" s="3"/>
       <c r="S904" s="12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="T904" s="7">
         <v>0.41666666666666669</v>
@@ -68090,7 +68086,7 @@
       </c>
       <c r="V904" s="3"/>
       <c r="W904" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="X904" s="6"/>
     </row>
@@ -68116,13 +68112,13 @@
         <v>546</v>
       </c>
       <c r="G905" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H905" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I905" s="3" t="s">
-        <v>570</v>
+      <c r="I905" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J905" s="3" t="s">
         <v>428</v>
@@ -68150,7 +68146,7 @@
         <v>433</v>
       </c>
       <c r="S905" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="T905" s="7">
         <v>0.60416666666666663</v>
@@ -68186,13 +68182,13 @@
         <v>25</v>
       </c>
       <c r="G906" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H906" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I906" s="3" t="s">
-        <v>570</v>
+      <c r="I906" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J906" s="3" t="s">
         <v>442</v>
@@ -68208,7 +68204,7 @@
       </c>
       <c r="R906" s="3"/>
       <c r="S906" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="T906" s="3"/>
       <c r="U906" s="3"/>
@@ -68247,8 +68243,8 @@
       <c r="H907" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I907" s="3" t="s">
-        <v>570</v>
+      <c r="I907" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J907" s="3" t="s">
         <v>29</v>
@@ -68270,7 +68266,7 @@
       </c>
       <c r="R907" s="3"/>
       <c r="S907" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="T907" s="7">
         <v>0.58333333333333337</v>
@@ -68306,7 +68302,7 @@
         <v>391</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H908" s="3" t="s">
         <v>299</v>
@@ -68332,7 +68328,7 @@
       </c>
       <c r="R908" s="3"/>
       <c r="S908" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="T908" s="7">
         <v>0.625</v>
@@ -68342,7 +68338,7 @@
       </c>
       <c r="V908" s="3"/>
       <c r="W908" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="X908" s="6"/>
     </row>
@@ -68374,7 +68370,7 @@
         <v>299</v>
       </c>
       <c r="I909" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J909" s="3" t="s">
         <v>29</v>
@@ -68394,7 +68390,7 @@
       </c>
       <c r="R909" s="3"/>
       <c r="S909" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="T909" s="7">
         <v>0.57430555555555551</v>
@@ -68404,7 +68400,7 @@
       </c>
       <c r="V909" s="3"/>
       <c r="W909" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X909" s="6"/>
     </row>
@@ -68436,7 +68432,7 @@
         <v>299</v>
       </c>
       <c r="I910" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J910" s="3" t="s">
         <v>29</v>
@@ -68458,7 +68454,7 @@
       </c>
       <c r="R910" s="3"/>
       <c r="S910" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="T910" s="7">
         <v>0.625</v>
@@ -68468,7 +68464,7 @@
       </c>
       <c r="V910" s="3"/>
       <c r="W910" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="X910" s="6"/>
     </row>
@@ -68494,13 +68490,13 @@
         <v>95</v>
       </c>
       <c r="G911" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H911" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I911" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J911" s="3" t="s">
         <v>29</v>
@@ -68522,7 +68518,7 @@
       </c>
       <c r="R911" s="3"/>
       <c r="S911" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="T911" s="7">
         <v>0.37013888888888891</v>
@@ -68532,7 +68528,7 @@
       </c>
       <c r="V911" s="3"/>
       <c r="W911" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X911" s="6"/>
     </row>
@@ -68558,13 +68554,13 @@
         <v>130</v>
       </c>
       <c r="G912" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H912" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I912" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J912" s="3" t="s">
         <v>29</v>
@@ -68586,7 +68582,7 @@
       </c>
       <c r="R912" s="3"/>
       <c r="S912" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="T912" s="7">
         <v>0.54166666666666663</v>
@@ -68596,7 +68592,7 @@
       </c>
       <c r="V912" s="3"/>
       <c r="W912" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X912" s="6"/>
     </row>
@@ -68622,13 +68618,13 @@
         <v>25</v>
       </c>
       <c r="G913" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H913" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I913" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J913" s="3" t="s">
         <v>29</v>
@@ -68648,7 +68644,7 @@
       </c>
       <c r="R913" s="3"/>
       <c r="S913" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="T913" s="7">
         <v>0.45833333333333331</v>
@@ -68682,13 +68678,13 @@
         <v>391</v>
       </c>
       <c r="G914" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H914" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I914" s="3" t="s">
-        <v>570</v>
+      <c r="I914" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J914" s="3" t="s">
         <v>29</v>
@@ -68708,16 +68704,16 @@
       </c>
       <c r="R914" s="3"/>
       <c r="S914" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="T914" s="7"/>
       <c r="U914" s="3"/>
       <c r="V914" s="3"/>
       <c r="W914" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="X914" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="915" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68748,7 +68744,7 @@
         <v>297</v>
       </c>
       <c r="I915" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J915" s="3" t="s">
         <v>29</v>
@@ -68764,7 +68760,7 @@
       </c>
       <c r="R915" s="3"/>
       <c r="S915" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="T915" s="7"/>
       <c r="U915" s="3"/>
@@ -68792,13 +68788,13 @@
         <v>45701.614502314813</v>
       </c>
       <c r="E916" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>399</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>297</v>
@@ -68830,7 +68826,7 @@
         <v>500</v>
       </c>
       <c r="S916" s="12" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="T916" s="7"/>
       <c r="U916" s="3"/>
@@ -68864,13 +68860,13 @@
         <v>546</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H917" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I917" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J917" s="3" t="s">
         <v>29</v>
@@ -68892,7 +68888,7 @@
       </c>
       <c r="R917" s="3"/>
       <c r="S917" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="T917" s="7">
         <v>0.58611111111111114</v>
@@ -68903,7 +68899,7 @@
         <v>448</v>
       </c>
       <c r="X917" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="918" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68956,7 +68952,7 @@
       </c>
       <c r="R918" s="3"/>
       <c r="S918" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="T918" s="7">
         <v>0.58333333333333337</v>
@@ -68997,11 +68993,11 @@
       <c r="H919" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I919" s="3" t="s">
-        <v>570</v>
+      <c r="I919" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J919" s="3" t="s">
-        <v>442</v>
+        <v>60</v>
       </c>
       <c r="K919" s="49"/>
       <c r="L919" s="3"/>
@@ -69014,7 +69010,7 @@
       </c>
       <c r="R919" s="3"/>
       <c r="S919" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="T919" s="7"/>
       <c r="U919" s="3"/>
@@ -69048,13 +69044,13 @@
         <v>334</v>
       </c>
       <c r="G920" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H920" s="3" t="s">
         <v>299</v>
       </c>
       <c r="I920" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J920" s="3" t="s">
         <v>29</v>
@@ -69074,7 +69070,7 @@
       </c>
       <c r="R920" s="3"/>
       <c r="S920" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="T920" s="7">
         <v>0.66666666666666663</v>
@@ -69084,7 +69080,7 @@
       </c>
       <c r="V920" s="3"/>
       <c r="W920" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X920" s="6" t="s">
         <v>441</v>
@@ -69112,13 +69108,13 @@
         <v>111</v>
       </c>
       <c r="G921" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H921" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I921" s="3" t="s">
-        <v>570</v>
+      <c r="I921" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J921" s="3" t="s">
         <v>29</v>
@@ -69140,7 +69136,7 @@
       </c>
       <c r="R921" s="3"/>
       <c r="S921" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="T921" s="7">
         <v>0.375</v>
@@ -69202,7 +69198,7 @@
       </c>
       <c r="R922" s="3"/>
       <c r="S922" s="12" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="T922" s="7">
         <v>0.52083333333333337</v>
@@ -69232,10 +69228,10 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E923" s="81" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F923" s="81" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G923" s="81" t="s">
         <v>560</v>
@@ -69244,7 +69240,7 @@
         <v>297</v>
       </c>
       <c r="I923" s="44" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J923" s="3" t="s">
         <v>29</v>
@@ -69266,7 +69262,7 @@
       </c>
       <c r="R923" s="3"/>
       <c r="S923" s="100" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="T923" s="7">
         <v>0.54166666666666663</v>
@@ -69302,13 +69298,13 @@
         <v>25</v>
       </c>
       <c r="G924" s="40" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H924" s="20" t="s">
         <v>299</v>
       </c>
       <c r="I924" s="61" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J924" s="61" t="s">
         <v>29</v>
@@ -69328,7 +69324,7 @@
       </c>
       <c r="R924" s="40"/>
       <c r="S924" s="101" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="T924" s="63">
         <v>0.5625</v>
@@ -69336,7 +69332,7 @@
       <c r="U924" s="40"/>
       <c r="V924" s="40"/>
       <c r="W924" s="40" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="X924" s="40"/>
     </row>
@@ -69362,13 +69358,13 @@
         <v>263</v>
       </c>
       <c r="G925" s="64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H925" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="I925" s="65" t="s">
-        <v>570</v>
+      <c r="I925" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J925" s="65" t="s">
         <v>60</v>
@@ -69388,7 +69384,7 @@
       </c>
       <c r="R925" s="64"/>
       <c r="S925" s="102" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T925" s="67">
         <v>0.41666666666666669</v>
@@ -69424,13 +69420,13 @@
         <v>546</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H926" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I926" s="3" t="s">
-        <v>628</v>
+        <v>70</v>
       </c>
       <c r="J926" s="3" t="s">
         <v>29</v>
@@ -69450,13 +69446,13 @@
       </c>
       <c r="R926" s="3"/>
       <c r="S926" s="16" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="T926" s="7"/>
       <c r="U926" s="3"/>
       <c r="V926" s="3"/>
       <c r="W926" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X926" s="6"/>
     </row>
@@ -69487,8 +69483,8 @@
       <c r="H927" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I927" s="3" t="s">
-        <v>570</v>
+      <c r="I927" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J927" s="3" t="s">
         <v>29</v>
@@ -69510,7 +69506,7 @@
       </c>
       <c r="R927" s="3"/>
       <c r="S927" s="16" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="T927" s="7"/>
       <c r="U927" s="3"/>
@@ -69519,7 +69515,7 @@
         <v>448</v>
       </c>
       <c r="X927" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="928" spans="1:24" ht="15" customHeight="1">
@@ -69544,13 +69540,13 @@
         <v>391</v>
       </c>
       <c r="G928" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H928" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I928" s="3" t="s">
-        <v>570</v>
+      <c r="I928" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J928" s="3" t="s">
         <v>442</v>
@@ -69566,7 +69562,7 @@
       </c>
       <c r="R928" s="3"/>
       <c r="S928" s="16" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="T928" s="7"/>
       <c r="U928" s="3"/>
@@ -69605,8 +69601,8 @@
       <c r="H929" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="I929" s="18" t="s">
-        <v>722</v>
+      <c r="I929" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J929" s="44" t="s">
         <v>29</v>
@@ -69628,7 +69624,7 @@
       </c>
       <c r="R929" s="18"/>
       <c r="S929" s="17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="T929" s="22">
         <v>0.35625000000000001</v>
@@ -69639,7 +69635,7 @@
         <v>448</v>
       </c>
       <c r="X929" s="21" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="930" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69692,7 +69688,7 @@
       </c>
       <c r="R930" s="18"/>
       <c r="S930" s="17" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="T930" s="22">
         <v>0.34722222222222221</v>
@@ -69702,7 +69698,7 @@
       </c>
       <c r="V930" s="19"/>
       <c r="W930" s="20" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X930" s="21"/>
     </row>
@@ -69728,13 +69724,13 @@
         <v>186</v>
       </c>
       <c r="G931" s="26" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H931" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I931" s="26" t="s">
-        <v>570</v>
+      <c r="I931" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J931" s="57" t="s">
         <v>29</v>
@@ -69756,7 +69752,7 @@
       </c>
       <c r="R931" s="26"/>
       <c r="S931" s="24" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="T931" s="25"/>
       <c r="U931" s="25"/>
@@ -69782,19 +69778,19 @@
         <v>45705.627858796295</v>
       </c>
       <c r="E932" s="26" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F932" s="26" t="s">
         <v>424</v>
       </c>
       <c r="G932" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H932" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I932" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J932" s="57" t="s">
         <v>29</v>
@@ -69816,7 +69812,7 @@
       </c>
       <c r="R932" s="26"/>
       <c r="S932" s="24" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="T932" s="25">
         <v>0.29166666666666669</v>
@@ -69826,7 +69822,7 @@
       </c>
       <c r="V932" s="26"/>
       <c r="W932" s="23" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="X932" s="23"/>
     </row>
@@ -69852,13 +69848,13 @@
         <v>99</v>
       </c>
       <c r="G933" s="26" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H933" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I933" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J933" s="57" t="s">
         <v>29</v>
@@ -69874,13 +69870,13 @@
       </c>
       <c r="R933" s="26"/>
       <c r="S933" s="24" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="T933" s="25"/>
       <c r="U933" s="25"/>
       <c r="V933" s="26"/>
       <c r="W933" s="23" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="X933" s="23"/>
     </row>
@@ -69906,7 +69902,7 @@
         <v>186</v>
       </c>
       <c r="G934" s="26" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H934" s="26" t="s">
         <v>299</v>
@@ -69928,13 +69924,13 @@
       </c>
       <c r="R934" s="26"/>
       <c r="S934" s="24" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="T934" s="25"/>
       <c r="U934" s="25"/>
       <c r="V934" s="26"/>
       <c r="W934" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X934" s="23"/>
     </row>
@@ -69960,13 +69956,13 @@
         <v>546</v>
       </c>
       <c r="G935" s="26" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H935" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I935" s="26" t="s">
-        <v>570</v>
+      <c r="I935" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J935" s="57" t="s">
         <v>29</v>
@@ -69982,7 +69978,7 @@
       </c>
       <c r="R935" s="26"/>
       <c r="S935" s="24" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="T935" s="25"/>
       <c r="U935" s="25"/>
@@ -70011,16 +70007,16 @@
         <v>47</v>
       </c>
       <c r="F936" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G936" s="26" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H936" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I936" s="26" t="s">
-        <v>570</v>
+      <c r="I936" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J936" s="57" t="s">
         <v>60</v>
@@ -70036,7 +70032,7 @@
       </c>
       <c r="R936" s="26"/>
       <c r="S936" s="24" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="T936" s="25"/>
       <c r="U936" s="25"/>
@@ -70071,8 +70067,8 @@
       <c r="H937" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I937" s="26" t="s">
-        <v>570</v>
+      <c r="I937" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J937" s="57" t="s">
         <v>428</v>
@@ -70098,7 +70094,7 @@
         <v>433</v>
       </c>
       <c r="S937" s="24" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="T937" s="25"/>
       <c r="U937" s="25"/>
@@ -70132,13 +70128,13 @@
         <v>546</v>
       </c>
       <c r="G938" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H938" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I938" s="26" t="s">
-        <v>628</v>
+        <v>70</v>
       </c>
       <c r="J938" s="57" t="s">
         <v>29</v>
@@ -70164,7 +70160,7 @@
         <v>433</v>
       </c>
       <c r="S938" s="24" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="T938" s="25"/>
       <c r="U938" s="25"/>
@@ -70173,7 +70169,7 @@
         <v>448</v>
       </c>
       <c r="X938" s="23" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="939" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70198,13 +70194,13 @@
         <v>546</v>
       </c>
       <c r="G939" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H939" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I939" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J939" s="57" t="s">
         <v>29</v>
@@ -70222,7 +70218,7 @@
       </c>
       <c r="R939" s="26"/>
       <c r="S939" s="24" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="T939" s="25"/>
       <c r="U939" s="25"/>
@@ -70258,7 +70254,7 @@
         <v>297</v>
       </c>
       <c r="I940" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J940" s="57" t="s">
         <v>60</v>
@@ -70276,7 +70272,7 @@
       </c>
       <c r="R940" s="26"/>
       <c r="S940" s="24" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="T940" s="25"/>
       <c r="U940" s="25"/>
@@ -70285,7 +70281,7 @@
         <v>448</v>
       </c>
       <c r="X940" s="23" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="941" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70310,7 +70306,7 @@
         <v>546</v>
       </c>
       <c r="G941" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H941" s="26" t="s">
         <v>297</v>
@@ -70334,7 +70330,7 @@
       </c>
       <c r="R941" s="26"/>
       <c r="S941" s="24" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="T941" s="25"/>
       <c r="U941" s="25"/>
@@ -70343,7 +70339,7 @@
         <v>448</v>
       </c>
       <c r="X941" s="23" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="942" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70368,13 +70364,13 @@
         <v>424</v>
       </c>
       <c r="G942" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H942" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I942" s="26" t="s">
-        <v>570</v>
+      <c r="I942" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J942" s="57" t="s">
         <v>29</v>
@@ -70390,7 +70386,7 @@
       </c>
       <c r="R942" s="26"/>
       <c r="S942" s="24" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="T942" s="25"/>
       <c r="U942" s="25"/>
@@ -70420,13 +70416,13 @@
         <v>546</v>
       </c>
       <c r="G943" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H943" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I943" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J943" s="57" t="s">
         <v>29</v>
@@ -70446,7 +70442,7 @@
       </c>
       <c r="R943" s="26"/>
       <c r="S943" s="24" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="T943" s="25"/>
       <c r="U943" s="25"/>
@@ -70455,7 +70451,7 @@
         <v>448</v>
       </c>
       <c r="X943" s="23" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="944" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70486,7 +70482,7 @@
         <v>297</v>
       </c>
       <c r="I944" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J944" s="57" t="s">
         <v>29</v>
@@ -70506,7 +70502,7 @@
       </c>
       <c r="R944" s="26"/>
       <c r="S944" s="24" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="T944" s="25"/>
       <c r="U944" s="25"/>
@@ -70536,13 +70532,13 @@
         <v>546</v>
       </c>
       <c r="G945" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H945" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I945" s="26" t="s">
-        <v>570</v>
+      <c r="I945" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J945" s="57" t="s">
         <v>428</v>
@@ -70570,7 +70566,7 @@
         <v>433</v>
       </c>
       <c r="S945" s="24" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="T945" s="25"/>
       <c r="U945" s="25"/>
@@ -70604,13 +70600,13 @@
         <v>186</v>
       </c>
       <c r="G946" s="26" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H946" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I946" s="26" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J946" s="44" t="s">
         <v>442</v>
@@ -70628,7 +70624,7 @@
       </c>
       <c r="R946" s="26"/>
       <c r="S946" s="24" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="T946" s="25">
         <v>0.54166666666666663</v>
@@ -70636,10 +70632,10 @@
       <c r="U946" s="25"/>
       <c r="V946" s="26"/>
       <c r="W946" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X946" s="23" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="947" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70688,7 +70684,7 @@
       </c>
       <c r="R947" s="26"/>
       <c r="S947" s="24" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="T947" s="25"/>
       <c r="U947" s="25"/>
@@ -70744,7 +70740,7 @@
       </c>
       <c r="R948" s="26"/>
       <c r="S948" s="24" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="T948" s="25"/>
       <c r="U948" s="25"/>
@@ -70776,13 +70772,13 @@
         <v>546</v>
       </c>
       <c r="G949" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H949" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I949" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J949" s="57" t="s">
         <v>29</v>
@@ -70802,7 +70798,7 @@
       </c>
       <c r="R949" s="26"/>
       <c r="S949" s="24" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="T949" s="25"/>
       <c r="U949" s="25"/>
@@ -70811,7 +70807,7 @@
         <v>448</v>
       </c>
       <c r="X949" s="23" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="950" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70836,13 +70832,13 @@
         <v>130</v>
       </c>
       <c r="G950" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H950" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I950" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J950" s="57" t="s">
         <v>29</v>
@@ -70864,7 +70860,7 @@
       </c>
       <c r="R950" s="26"/>
       <c r="S950" s="24" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="T950" s="25">
         <v>0.73611111111111116</v>
@@ -70874,7 +70870,7 @@
       </c>
       <c r="V950" s="26"/>
       <c r="W950" s="23" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="X950" s="23"/>
     </row>
@@ -70905,8 +70901,8 @@
       <c r="H951" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I951" s="26" t="s">
-        <v>570</v>
+      <c r="I951" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J951" s="57" t="s">
         <v>29</v>
@@ -70932,7 +70928,7 @@
         <v>433</v>
       </c>
       <c r="S951" s="24" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="T951" s="25"/>
       <c r="U951" s="25"/>
@@ -70966,13 +70962,13 @@
         <v>111</v>
       </c>
       <c r="G952" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H952" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I952" s="26" t="s">
-        <v>570</v>
+      <c r="I952" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J952" s="57" t="s">
         <v>428</v>
@@ -70990,7 +70986,7 @@
       </c>
       <c r="R952" s="26"/>
       <c r="S952" s="104" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="T952" s="25"/>
       <c r="U952" s="25"/>
@@ -70999,7 +70995,7 @@
         <v>554</v>
       </c>
       <c r="X952" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="953" spans="1:24" ht="91.5">
@@ -71024,13 +71020,13 @@
         <v>546</v>
       </c>
       <c r="G953" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H953" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I953" s="26" t="s">
-        <v>570</v>
+      <c r="I953" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J953" s="57" t="s">
         <v>442</v>
@@ -71046,7 +71042,7 @@
       </c>
       <c r="R953" s="26"/>
       <c r="S953" s="104" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="T953" s="25"/>
       <c r="U953" s="25"/>
@@ -71078,13 +71074,13 @@
         <v>186</v>
       </c>
       <c r="G954" s="26" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H954" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I954" s="26" t="s">
-        <v>570</v>
+      <c r="I954" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J954" s="57" t="s">
         <v>29</v>
@@ -71106,7 +71102,7 @@
       </c>
       <c r="R954" s="26"/>
       <c r="S954" s="24" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="T954" s="25"/>
       <c r="U954" s="25"/>
@@ -71140,13 +71136,13 @@
         <v>31</v>
       </c>
       <c r="G955" s="26" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H955" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I955" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J955" s="57" t="s">
         <v>428</v>
@@ -71168,7 +71164,7 @@
       </c>
       <c r="R955" s="26"/>
       <c r="S955" s="104" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="T955" s="25">
         <v>0.625</v>
@@ -71179,7 +71175,7 @@
         <v>440</v>
       </c>
       <c r="X955" s="23" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="956" spans="1:24" ht="15" customHeight="1">
@@ -71204,13 +71200,13 @@
         <v>279</v>
       </c>
       <c r="G956" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H956" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I956" s="26" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J956" s="57" t="s">
         <v>442</v>
@@ -71226,16 +71222,16 @@
       </c>
       <c r="R956" s="26"/>
       <c r="S956" s="24" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="T956" s="25"/>
       <c r="U956" s="25"/>
       <c r="V956" s="26"/>
       <c r="W956" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X956" s="23" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="957" spans="1:24" ht="15" customHeight="1">
@@ -71257,7 +71253,7 @@
         <v>453</v>
       </c>
       <c r="F957" s="26" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G957" s="26" t="s">
         <v>168</v>
@@ -71266,7 +71262,7 @@
         <v>297</v>
       </c>
       <c r="I957" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J957" s="57" t="s">
         <v>428</v>
@@ -71286,7 +71282,7 @@
       </c>
       <c r="R957" s="26"/>
       <c r="S957" s="24" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="T957" s="25">
         <v>0.375</v>
@@ -71297,7 +71293,7 @@
         <v>440</v>
       </c>
       <c r="X957" s="23" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="958" spans="1:24" ht="15" customHeight="1">
@@ -71327,8 +71323,8 @@
       <c r="H958" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I958" s="26" t="s">
-        <v>570</v>
+      <c r="I958" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J958" s="57" t="s">
         <v>442</v>
@@ -71344,7 +71340,7 @@
       </c>
       <c r="R958" s="26"/>
       <c r="S958" s="24" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="T958" s="25"/>
       <c r="U958" s="25"/>
@@ -71378,7 +71374,7 @@
         <v>399</v>
       </c>
       <c r="G959" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H959" s="26" t="s">
         <v>297</v>
@@ -71400,7 +71396,7 @@
       </c>
       <c r="R959" s="26"/>
       <c r="S959" s="24" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="T959" s="25"/>
       <c r="U959" s="25"/>
@@ -71432,13 +71428,13 @@
         <v>546</v>
       </c>
       <c r="G960" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H960" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I960" s="26" t="s">
-        <v>570</v>
+      <c r="I960" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J960" s="57" t="s">
         <v>29</v>
@@ -71454,13 +71450,13 @@
       </c>
       <c r="R960" s="26"/>
       <c r="S960" s="24" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="T960" s="25"/>
       <c r="U960" s="25"/>
       <c r="V960" s="26"/>
       <c r="W960" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X960" s="23"/>
     </row>
@@ -71486,13 +71482,13 @@
         <v>546</v>
       </c>
       <c r="G961" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H961" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I961" s="26" t="s">
-        <v>570</v>
+      <c r="I961" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J961" s="57" t="s">
         <v>29</v>
@@ -71512,7 +71508,7 @@
       </c>
       <c r="R961" s="26"/>
       <c r="S961" s="104" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="T961" s="25">
         <v>0.375</v>
@@ -71523,7 +71519,7 @@
         <v>448</v>
       </c>
       <c r="X961" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="962" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71570,7 +71566,7 @@
       </c>
       <c r="R962" s="26"/>
       <c r="S962" s="24" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="T962" s="25"/>
       <c r="U962" s="25"/>
@@ -71600,13 +71596,13 @@
         <v>99</v>
       </c>
       <c r="G963" s="26" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H963" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I963" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J963" s="57" t="s">
         <v>442</v>
@@ -71622,16 +71618,16 @@
       </c>
       <c r="R963" s="26"/>
       <c r="S963" s="24" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="T963" s="25"/>
       <c r="U963" s="25"/>
       <c r="V963" s="26"/>
       <c r="W963" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X963" s="23" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="964" spans="1:24" ht="15" customHeight="1">
@@ -71661,8 +71657,8 @@
       <c r="H964" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I964" s="26" t="s">
-        <v>570</v>
+      <c r="I964" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J964" s="57" t="s">
         <v>442</v>
@@ -71678,7 +71674,7 @@
       </c>
       <c r="R964" s="26"/>
       <c r="S964" s="24" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="T964" s="25"/>
       <c r="U964" s="25"/>
@@ -71687,7 +71683,7 @@
         <v>448</v>
       </c>
       <c r="X964" s="23" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="965" spans="1:24" ht="15" customHeight="1">
@@ -71717,8 +71713,8 @@
       <c r="H965" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I965" s="26" t="s">
-        <v>570</v>
+      <c r="I965" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J965" s="57" t="s">
         <v>442</v>
@@ -71734,7 +71730,7 @@
       </c>
       <c r="R965" s="26"/>
       <c r="S965" s="24" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="T965" s="25"/>
       <c r="U965" s="25"/>
@@ -71743,7 +71739,7 @@
         <v>448</v>
       </c>
       <c r="X965" s="23" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="966" spans="1:24" ht="15" customHeight="1">
@@ -71768,13 +71764,13 @@
         <v>391</v>
       </c>
       <c r="G966" s="26" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H966" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I966" s="26" t="s">
-        <v>570</v>
+      <c r="I966" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J966" s="57" t="s">
         <v>428</v>
@@ -71792,7 +71788,7 @@
       </c>
       <c r="R966" s="26"/>
       <c r="S966" s="24" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="T966" s="25"/>
       <c r="U966" s="25"/>
@@ -71801,7 +71797,7 @@
         <v>448</v>
       </c>
       <c r="X966" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="967" spans="1:24" ht="15" customHeight="1">
@@ -71848,16 +71844,16 @@
       </c>
       <c r="R967" s="26"/>
       <c r="S967" s="24" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="T967" s="25"/>
       <c r="U967" s="25"/>
       <c r="V967" s="26"/>
       <c r="W967" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X967" s="23" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="968" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71887,8 +71883,8 @@
       <c r="H968" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I968" s="26" t="s">
-        <v>570</v>
+      <c r="I968" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J968" s="57" t="s">
         <v>29</v>
@@ -71908,7 +71904,7 @@
       </c>
       <c r="R968" s="26"/>
       <c r="S968" s="24" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="T968" s="25">
         <v>0.35416666666666669</v>
@@ -71921,7 +71917,7 @@
         <v>554</v>
       </c>
       <c r="X968" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="969" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71946,13 +71942,13 @@
         <v>546</v>
       </c>
       <c r="G969" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H969" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I969" s="26" t="s">
-        <v>570</v>
+      <c r="I969" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J969" s="57" t="s">
         <v>29</v>
@@ -71970,7 +71966,7 @@
       </c>
       <c r="R969" s="26"/>
       <c r="S969" s="24" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="T969" s="25"/>
       <c r="U969" s="25"/>
@@ -71979,7 +71975,7 @@
         <v>448</v>
       </c>
       <c r="X969" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="970" spans="1:24" ht="32.25" customHeight="1">
@@ -72009,8 +72005,8 @@
       <c r="H970" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I970" s="26" t="s">
-        <v>570</v>
+      <c r="I970" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J970" s="57" t="s">
         <v>428</v>
@@ -72028,7 +72024,7 @@
       </c>
       <c r="R970" s="26"/>
       <c r="S970" s="107" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T970" s="25"/>
       <c r="U970" s="25"/>
@@ -72037,7 +72033,7 @@
         <v>554</v>
       </c>
       <c r="X970" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="971" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -72088,7 +72084,7 @@
       </c>
       <c r="R971" s="26"/>
       <c r="S971" s="24" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="T971" s="25">
         <v>0.52083333333333337</v>
@@ -72118,19 +72114,19 @@
         <v>45714</v>
       </c>
       <c r="E972" s="26" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F972" s="26" t="s">
         <v>445</v>
       </c>
       <c r="G972" s="26" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H972" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I972" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J972" s="57" t="s">
         <v>442</v>
@@ -72146,13 +72142,13 @@
       </c>
       <c r="R972" s="26"/>
       <c r="S972" s="24" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="T972" s="25"/>
       <c r="U972" s="25"/>
       <c r="V972" s="26"/>
       <c r="W972" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X972" s="23"/>
     </row>
@@ -72184,7 +72180,7 @@
         <v>299</v>
       </c>
       <c r="I973" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J973" s="57" t="s">
         <v>29</v>
@@ -72200,7 +72196,7 @@
       </c>
       <c r="R973" s="26"/>
       <c r="S973" s="24" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="T973" s="25"/>
       <c r="U973" s="25"/>
@@ -72235,8 +72231,8 @@
       <c r="H974" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I974" s="26" t="s">
-        <v>570</v>
+      <c r="I974" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J974" s="57" t="s">
         <v>29</v>
@@ -72252,7 +72248,7 @@
       </c>
       <c r="R974" s="26"/>
       <c r="S974" s="24" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="T974" s="25"/>
       <c r="U974" s="25"/>
@@ -72282,13 +72278,13 @@
         <v>25</v>
       </c>
       <c r="G975" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H975" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I975" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J975" s="57" t="s">
         <v>29</v>
@@ -72304,7 +72300,7 @@
       </c>
       <c r="R975" s="26"/>
       <c r="S975" s="24" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="T975" s="25"/>
       <c r="U975" s="25"/>
@@ -72334,13 +72330,13 @@
         <v>95</v>
       </c>
       <c r="G976" s="26" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H976" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I976" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J976" s="57" t="s">
         <v>60</v>
@@ -72356,13 +72352,13 @@
       </c>
       <c r="R976" s="26"/>
       <c r="S976" s="24" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="T976" s="25"/>
       <c r="U976" s="25"/>
       <c r="V976" s="26"/>
       <c r="W976" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X976" s="23"/>
     </row>
@@ -72388,13 +72384,13 @@
         <v>95</v>
       </c>
       <c r="G977" s="26" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H977" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I977" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J977" s="57" t="s">
         <v>29</v>
@@ -72416,7 +72412,7 @@
       </c>
       <c r="R977" s="26"/>
       <c r="S977" s="104" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="T977" s="25">
         <v>0.39583333333333331</v>
@@ -72426,7 +72422,7 @@
       </c>
       <c r="V977" s="26"/>
       <c r="W977" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X977" s="23" t="s">
         <v>495</v>
@@ -72454,13 +72450,13 @@
         <v>424</v>
       </c>
       <c r="G978" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H978" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I978" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J978" s="57" t="s">
         <v>29</v>
@@ -72480,7 +72476,7 @@
       </c>
       <c r="R978" s="26"/>
       <c r="S978" s="24" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="T978" s="25"/>
       <c r="U978" s="25"/>
@@ -72510,7 +72506,7 @@
         <v>546</v>
       </c>
       <c r="G979" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H979" s="26" t="s">
         <v>297</v>
@@ -72532,7 +72528,7 @@
       </c>
       <c r="R979" s="26"/>
       <c r="S979" s="24" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="T979" s="25"/>
       <c r="U979" s="25"/>
@@ -72558,13 +72554,13 @@
         <v>45716</v>
       </c>
       <c r="E980" s="26" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F980" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G980" s="26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H980" s="26" t="s">
         <v>297</v>
@@ -72588,7 +72584,7 @@
       </c>
       <c r="R980" s="26"/>
       <c r="S980" s="24" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="T980" s="25">
         <v>0.375</v>
@@ -72622,13 +72618,13 @@
         <v>95</v>
       </c>
       <c r="G981" s="26" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H981" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I981" s="26" t="s">
-        <v>570</v>
+      <c r="I981" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J981" s="57" t="s">
         <v>29</v>
@@ -72644,7 +72640,7 @@
       </c>
       <c r="R981" s="26"/>
       <c r="S981" s="24" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="T981" s="25"/>
       <c r="U981" s="25"/>
@@ -72682,7 +72678,7 @@
         <v>299</v>
       </c>
       <c r="I982" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J982" s="57" t="s">
         <v>442</v>
@@ -72698,13 +72694,13 @@
       </c>
       <c r="R982" s="26"/>
       <c r="S982" s="24" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="T982" s="25"/>
       <c r="U982" s="25"/>
       <c r="V982" s="26"/>
       <c r="W982" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X982" s="23"/>
     </row>
@@ -72730,13 +72726,13 @@
         <v>116</v>
       </c>
       <c r="G983" s="26" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="H983" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I983" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J983" s="57" t="s">
         <v>442</v>
@@ -72752,13 +72748,13 @@
       </c>
       <c r="R983" s="26"/>
       <c r="S983" s="24" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="T983" s="25"/>
       <c r="U983" s="25"/>
       <c r="V983" s="26"/>
       <c r="W983" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X983" s="23"/>
     </row>
@@ -72784,13 +72780,13 @@
         <v>76</v>
       </c>
       <c r="G984" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H984" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I984" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J984" s="57" t="s">
         <v>442</v>
@@ -72806,13 +72802,13 @@
       </c>
       <c r="R984" s="26"/>
       <c r="S984" s="24" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="T984" s="25"/>
       <c r="U984" s="25"/>
       <c r="V984" s="26"/>
       <c r="W984" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X984" s="23"/>
     </row>
@@ -72832,7 +72828,7 @@
         <v>45691</v>
       </c>
       <c r="E985" s="26" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F985" s="26" t="s">
         <v>89</v>
@@ -72843,8 +72839,8 @@
       <c r="H985" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I985" s="26" t="s">
-        <v>570</v>
+      <c r="I985" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J985" s="57" t="s">
         <v>442</v>
@@ -72860,7 +72856,7 @@
       </c>
       <c r="R985" s="26"/>
       <c r="S985" s="104" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="T985" s="25"/>
       <c r="U985" s="25"/>
@@ -72892,13 +72888,13 @@
         <v>130</v>
       </c>
       <c r="G986" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H986" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I986" s="26" t="s">
-        <v>570</v>
+      <c r="I986" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="J986" s="57" t="s">
         <v>442</v>
@@ -72914,13 +72910,13 @@
       </c>
       <c r="R986" s="26"/>
       <c r="S986" s="24" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="T986" s="25"/>
       <c r="U986" s="25"/>
       <c r="V986" s="26"/>
       <c r="W986" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="X986" s="23"/>
     </row>
@@ -72946,13 +72942,13 @@
         <v>546</v>
       </c>
       <c r="G987" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H987" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I987" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J987" s="57" t="s">
         <v>442</v>
@@ -72968,13 +72964,171 @@
       </c>
       <c r="R987" s="26"/>
       <c r="S987" s="24" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="T987" s="25"/>
       <c r="U987" s="25"/>
       <c r="V987" s="26"/>
-      <c r="W987" s="23"/>
+      <c r="W987" s="23" t="s">
+        <v>448</v>
+      </c>
       <c r="X987" s="23"/>
+    </row>
+    <row r="988" spans="1:24" ht="15" customHeight="1">
+      <c r="A988" s="87">
+        <f>YEAR(D988)</f>
+        <v>2025</v>
+      </c>
+      <c r="B988" s="26">
+        <f>MONTH(D988)</f>
+        <v>3</v>
+      </c>
+      <c r="C988" s="44">
+        <v>1003</v>
+      </c>
+      <c r="D988" s="58">
+        <v>45722</v>
+      </c>
+      <c r="E988" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F988" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G988" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="H988" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I988" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="J988" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K988" s="58"/>
+      <c r="L988" s="26"/>
+      <c r="M988" s="58"/>
+      <c r="N988" s="58"/>
+      <c r="O988" s="26"/>
+      <c r="P988" s="26"/>
+      <c r="Q988" s="26">
+        <v>0</v>
+      </c>
+      <c r="R988" s="26"/>
+      <c r="S988" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="T988" s="25"/>
+      <c r="U988" s="25"/>
+      <c r="V988" s="26"/>
+      <c r="W988" s="23"/>
+      <c r="X988" s="23"/>
+    </row>
+    <row r="989" spans="1:24" ht="15" customHeight="1">
+      <c r="A989" s="87">
+        <f>YEAR(D989)</f>
+        <v>2025</v>
+      </c>
+      <c r="B989" s="26">
+        <f>MONTH(D989)</f>
+        <v>3</v>
+      </c>
+      <c r="C989" s="44">
+        <v>1004</v>
+      </c>
+      <c r="D989" s="58">
+        <v>45722</v>
+      </c>
+      <c r="E989" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="F989" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G989" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="H989" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I989" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="J989" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K989" s="58"/>
+      <c r="L989" s="26"/>
+      <c r="M989" s="58"/>
+      <c r="N989" s="58"/>
+      <c r="O989" s="26"/>
+      <c r="P989" s="26"/>
+      <c r="Q989" s="26">
+        <v>1326</v>
+      </c>
+      <c r="R989" s="26"/>
+      <c r="S989" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="T989" s="25"/>
+      <c r="U989" s="25"/>
+      <c r="V989" s="26"/>
+      <c r="W989" s="23"/>
+      <c r="X989" s="23"/>
+    </row>
+    <row r="990" spans="1:24" ht="15" customHeight="1">
+      <c r="A990" s="87">
+        <f>YEAR(D990)</f>
+        <v>2025</v>
+      </c>
+      <c r="B990" s="26">
+        <f>MONTH(D990)</f>
+        <v>3</v>
+      </c>
+      <c r="C990" s="44">
+        <v>1005</v>
+      </c>
+      <c r="D990" s="58">
+        <v>45722</v>
+      </c>
+      <c r="E990" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="F990" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G990" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="H990" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I990" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="J990" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K990" s="58"/>
+      <c r="L990" s="26"/>
+      <c r="M990" s="58"/>
+      <c r="N990" s="58"/>
+      <c r="O990" s="26"/>
+      <c r="P990" s="26"/>
+      <c r="Q990" s="26">
+        <v>117</v>
+      </c>
+      <c r="R990" s="26"/>
+      <c r="S990" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="T990" s="25"/>
+      <c r="U990" s="25"/>
+      <c r="V990" s="26"/>
+      <c r="W990" s="23"/>
+      <c r="X990" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
@@ -72982,7 +73136,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J987">
+  <conditionalFormatting sqref="J2:J990">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -73046,6 +73200,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -73222,23 +73391,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73246,5 +73400,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3410" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DDBF180-7528-4FA8-8A65-8020EE2CCF7F}"/>
+  <xr:revisionPtr revIDLastSave="3460" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE6EEC3-EA22-4DF3-9A8F-3ED497303575}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16011" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16044" uniqueCount="799">
   <si>
     <t>ANO</t>
   </si>
@@ -2118,13 +2118,13 @@
     <t>Fabricar 01 haste HQ de 80 cm</t>
   </si>
   <si>
+    <t>FAZER 02 OLHAU (LOCAL DO ROLAMENTO)NO SUPORTE DA TORRE E COMPRA DE 02 ROLAMENTOSDE REFERENCIA 6206</t>
+  </si>
+  <si>
+    <t>Trocandos de rolamentos e enbuchamentos do eixos do sarrilho.</t>
+  </si>
+  <si>
     <t>CORRETIVA</t>
-  </si>
-  <si>
-    <t>FAZER 02 OLHAU (LOCAL DO ROLAMENTO)NO SUPORTE DA TORRE E COMPRA DE 02 ROLAMENTOSDE REFERENCIA 6206</t>
-  </si>
-  <si>
-    <t>Trocandos de rolamentos e enbuchamentos do eixos do sarrilho.</t>
   </si>
   <si>
     <t xml:space="preserve">Troca do Filtro de combustível </t>
@@ -2595,6 +2595,24 @@
   </si>
   <si>
     <t xml:space="preserve">AS MORSA NAS ESTAVA ABRINDO E NEM FECHANDO, PROVIDENCIA DO 5  BLOCO DE CONTATOS </t>
+  </si>
+  <si>
+    <t>FABRICAÇÃO </t>
+  </si>
+  <si>
+    <t>Adequações no torno:
+01 - Redução de NQ x BW
+01 - Redução de NQ x HQ</t>
+  </si>
+  <si>
+    <t>Abrir a rosca de 2 reduções de HW para a AW para rosca fêmea BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adequação para mobilização </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+06 haste NQ c/ 1,5m</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +2947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3249,6 +3267,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3874,8 +3895,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X990" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X990" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X994" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X994" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4220,10 +4241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA990"/>
+  <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="F922" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M991" sqref="M991"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -63727,7 +63748,7 @@
       <c r="H827" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I827" s="44" t="s">
+      <c r="I827" s="45" t="s">
         <v>28</v>
       </c>
       <c r="J827" s="1" t="s">
@@ -64586,7 +64607,7 @@
       <c r="H843" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I843" s="44" t="s">
+      <c r="I843" s="45" t="s">
         <v>28</v>
       </c>
       <c r="J843" s="3" t="s">
@@ -64736,7 +64757,7 @@
       <c r="H846" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I846" s="44" t="s">
+      <c r="I846" s="45" t="s">
         <v>28</v>
       </c>
       <c r="J846" s="3" t="s">
@@ -64836,7 +64857,7 @@
       <c r="H848" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I848" s="44" t="s">
+      <c r="I848" s="45" t="s">
         <v>28</v>
       </c>
       <c r="J848" s="3" t="s">
@@ -64994,7 +65015,7 @@
       <c r="H851" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I851" s="44" t="s">
+      <c r="I851" s="45" t="s">
         <v>28</v>
       </c>
       <c r="J851" s="3" t="s">
@@ -65264,7 +65285,7 @@
       <c r="H856" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I856" s="44" t="s">
+      <c r="I856" s="45" t="s">
         <v>28</v>
       </c>
       <c r="J856" s="3" t="s">
@@ -66017,7 +66038,7 @@
       <c r="H868" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I868" s="44" t="s">
+      <c r="I868" s="45" t="s">
         <v>28</v>
       </c>
       <c r="J868" s="3" t="s">
@@ -66799,8 +66820,8 @@
       <c r="H884" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="I884" s="36" t="s">
-        <v>652</v>
+      <c r="I884" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J884" s="36" t="s">
         <v>29</v>
@@ -66820,7 +66841,7 @@
       </c>
       <c r="R884" s="36"/>
       <c r="S884" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T884" s="35">
         <v>0.33333333333333331</v>
@@ -66859,8 +66880,8 @@
       <c r="H885" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I885" s="3" t="s">
-        <v>652</v>
+      <c r="I885" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J885" s="3" t="s">
         <v>29</v>
@@ -66888,7 +66909,7 @@
         <v>433</v>
       </c>
       <c r="S885" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="T885" s="7">
         <v>0.39374999999999999</v>
@@ -66901,7 +66922,7 @@
         <v>448</v>
       </c>
       <c r="X885" s="6" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="886" spans="1:24" hidden="1">
@@ -66991,8 +67012,8 @@
       <c r="H887" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I887" s="3" t="s">
-        <v>652</v>
+      <c r="I887" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J887" s="3" t="s">
         <v>428</v>
@@ -67109,8 +67130,8 @@
       <c r="H889" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I889" s="3" t="s">
-        <v>652</v>
+      <c r="I889" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J889" s="3" t="s">
         <v>29</v>
@@ -67303,8 +67324,8 @@
       <c r="H892" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I892" s="3" t="s">
-        <v>652</v>
+      <c r="I892" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J892" s="3" t="s">
         <v>29</v>
@@ -67491,8 +67512,8 @@
       <c r="H895" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I895" s="3" t="s">
-        <v>652</v>
+      <c r="I895" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J895" s="3" t="s">
         <v>29</v>
@@ -67617,7 +67638,7 @@
       <c r="H897" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="I897" s="36" t="s">
+      <c r="I897" s="45" t="s">
         <v>28</v>
       </c>
       <c r="J897" s="59" t="s">
@@ -68055,8 +68076,8 @@
       <c r="H904" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I904" s="3" t="s">
-        <v>652</v>
+      <c r="I904" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J904" s="3" t="s">
         <v>29</v>
@@ -68369,8 +68390,8 @@
       <c r="H909" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I909" s="3" t="s">
-        <v>652</v>
+      <c r="I909" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J909" s="3" t="s">
         <v>29</v>
@@ -68431,8 +68452,8 @@
       <c r="H910" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I910" s="3" t="s">
-        <v>652</v>
+      <c r="I910" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J910" s="3" t="s">
         <v>29</v>
@@ -68495,8 +68516,8 @@
       <c r="H911" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I911" s="3" t="s">
-        <v>652</v>
+      <c r="I911" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J911" s="3" t="s">
         <v>29</v>
@@ -68559,8 +68580,8 @@
       <c r="H912" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I912" s="3" t="s">
-        <v>652</v>
+      <c r="I912" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J912" s="3" t="s">
         <v>29</v>
@@ -68623,8 +68644,8 @@
       <c r="H913" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I913" s="3" t="s">
-        <v>652</v>
+      <c r="I913" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J913" s="3" t="s">
         <v>29</v>
@@ -68743,8 +68764,8 @@
       <c r="H915" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I915" s="3" t="s">
-        <v>652</v>
+      <c r="I915" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J915" s="3" t="s">
         <v>29</v>
@@ -68865,8 +68886,8 @@
       <c r="H917" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I917" s="3" t="s">
-        <v>652</v>
+      <c r="I917" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J917" s="3" t="s">
         <v>29</v>
@@ -69049,8 +69070,8 @@
       <c r="H920" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I920" s="3" t="s">
-        <v>652</v>
+      <c r="I920" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J920" s="3" t="s">
         <v>29</v>
@@ -69239,8 +69260,8 @@
       <c r="H923" s="81" t="s">
         <v>297</v>
       </c>
-      <c r="I923" s="44" t="s">
-        <v>652</v>
+      <c r="I923" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J923" s="3" t="s">
         <v>29</v>
@@ -69303,8 +69324,8 @@
       <c r="H924" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="I924" s="61" t="s">
-        <v>652</v>
+      <c r="I924" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J924" s="61" t="s">
         <v>29</v>
@@ -69665,7 +69686,7 @@
       <c r="H930" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="I930" s="18" t="s">
+      <c r="I930" s="45" t="s">
         <v>28</v>
       </c>
       <c r="J930" s="57" t="s">
@@ -69789,8 +69810,8 @@
       <c r="H932" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I932" s="26" t="s">
-        <v>652</v>
+      <c r="I932" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J932" s="57" t="s">
         <v>29</v>
@@ -69853,8 +69874,8 @@
       <c r="H933" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I933" s="26" t="s">
-        <v>652</v>
+      <c r="I933" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J933" s="57" t="s">
         <v>29</v>
@@ -70199,8 +70220,8 @@
       <c r="H939" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I939" s="26" t="s">
-        <v>652</v>
+      <c r="I939" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J939" s="57" t="s">
         <v>29</v>
@@ -70253,8 +70274,8 @@
       <c r="H940" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I940" s="26" t="s">
-        <v>652</v>
+      <c r="I940" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J940" s="57" t="s">
         <v>60</v>
@@ -70421,8 +70442,8 @@
       <c r="H943" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I943" s="26" t="s">
-        <v>652</v>
+      <c r="I943" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J943" s="57" t="s">
         <v>29</v>
@@ -70481,8 +70502,8 @@
       <c r="H944" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I944" s="26" t="s">
-        <v>652</v>
+      <c r="I944" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J944" s="57" t="s">
         <v>29</v>
@@ -70777,8 +70798,8 @@
       <c r="H949" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I949" s="26" t="s">
-        <v>652</v>
+      <c r="I949" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J949" s="57" t="s">
         <v>29</v>
@@ -70837,8 +70858,8 @@
       <c r="H950" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I950" s="26" t="s">
-        <v>652</v>
+      <c r="I950" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J950" s="57" t="s">
         <v>29</v>
@@ -71141,11 +71162,11 @@
       <c r="H955" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I955" s="26" t="s">
-        <v>652</v>
+      <c r="I955" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J955" s="57" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K955" s="58">
         <v>45713</v>
@@ -71261,8 +71282,8 @@
       <c r="H957" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I957" s="26" t="s">
-        <v>652</v>
+      <c r="I957" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J957" s="57" t="s">
         <v>428</v>
@@ -71601,8 +71622,8 @@
       <c r="H963" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I963" s="26" t="s">
-        <v>652</v>
+      <c r="I963" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J963" s="57" t="s">
         <v>442</v>
@@ -71661,7 +71682,7 @@
         <v>35</v>
       </c>
       <c r="J964" s="57" t="s">
-        <v>442</v>
+        <v>29</v>
       </c>
       <c r="K964" s="58"/>
       <c r="L964" s="26"/>
@@ -72009,7 +72030,7 @@
         <v>35</v>
       </c>
       <c r="J970" s="57" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="K970" s="58">
         <v>45715</v>
@@ -72125,8 +72146,8 @@
       <c r="H972" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I972" s="26" t="s">
-        <v>652</v>
+      <c r="I972" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J972" s="57" t="s">
         <v>442</v>
@@ -72179,8 +72200,8 @@
       <c r="H973" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I973" s="26" t="s">
-        <v>652</v>
+      <c r="I973" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J973" s="57" t="s">
         <v>29</v>
@@ -72283,8 +72304,8 @@
       <c r="H975" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I975" s="26" t="s">
-        <v>652</v>
+      <c r="I975" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J975" s="57" t="s">
         <v>29</v>
@@ -72335,8 +72356,8 @@
       <c r="H976" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I976" s="26" t="s">
-        <v>652</v>
+      <c r="I976" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J976" s="57" t="s">
         <v>60</v>
@@ -72389,8 +72410,8 @@
       <c r="H977" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I977" s="26" t="s">
-        <v>652</v>
+      <c r="I977" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J977" s="57" t="s">
         <v>29</v>
@@ -72455,8 +72476,8 @@
       <c r="H978" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I978" s="26" t="s">
-        <v>652</v>
+      <c r="I978" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J978" s="57" t="s">
         <v>29</v>
@@ -72677,13 +72698,15 @@
       <c r="H982" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I982" s="26" t="s">
-        <v>652</v>
+      <c r="I982" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J982" s="57" t="s">
-        <v>442</v>
-      </c>
-      <c r="K982" s="58"/>
+        <v>509</v>
+      </c>
+      <c r="K982" s="58">
+        <v>45723</v>
+      </c>
       <c r="L982" s="26"/>
       <c r="M982" s="58"/>
       <c r="N982" s="58"/>
@@ -72731,13 +72754,15 @@
       <c r="H983" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I983" s="26" t="s">
-        <v>652</v>
+      <c r="I983" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J983" s="57" t="s">
-        <v>442</v>
-      </c>
-      <c r="K983" s="58"/>
+        <v>509</v>
+      </c>
+      <c r="K983" s="58">
+        <v>45723</v>
+      </c>
       <c r="L983" s="26"/>
       <c r="M983" s="58"/>
       <c r="N983" s="58"/>
@@ -72785,16 +72810,20 @@
       <c r="H984" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I984" s="26" t="s">
-        <v>652</v>
+      <c r="I984" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J984" s="57" t="s">
-        <v>442</v>
-      </c>
-      <c r="K984" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="K984" s="58">
+        <v>45722</v>
+      </c>
       <c r="L984" s="26"/>
       <c r="M984" s="58"/>
-      <c r="N984" s="58"/>
+      <c r="N984" s="58">
+        <v>45722</v>
+      </c>
       <c r="O984" s="26"/>
       <c r="P984" s="26"/>
       <c r="Q984" s="26">
@@ -72804,8 +72833,12 @@
       <c r="S984" s="24" t="s">
         <v>786</v>
       </c>
-      <c r="T984" s="25"/>
-      <c r="U984" s="25"/>
+      <c r="T984" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="U984" s="25">
+        <v>0.58125000000000004</v>
+      </c>
       <c r="V984" s="26"/>
       <c r="W984" s="23" t="s">
         <v>694</v>
@@ -72843,7 +72876,7 @@
         <v>35</v>
       </c>
       <c r="J985" s="57" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="K985" s="58"/>
       <c r="L985" s="26"/>
@@ -72897,7 +72930,7 @@
         <v>35</v>
       </c>
       <c r="J986" s="57" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="K986" s="58"/>
       <c r="L986" s="26"/>
@@ -72947,8 +72980,8 @@
       <c r="H987" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I987" s="26" t="s">
-        <v>652</v>
+      <c r="I987" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J987" s="57" t="s">
         <v>442</v>
@@ -73005,7 +73038,7 @@
         <v>35</v>
       </c>
       <c r="J988" s="57" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="K988" s="58"/>
       <c r="L988" s="26"/>
@@ -73053,16 +73086,20 @@
       <c r="H989" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I989" s="26" t="s">
-        <v>652</v>
+      <c r="I989" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J989" s="57" t="s">
-        <v>442</v>
-      </c>
-      <c r="K989" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="K989" s="58">
+        <v>45722</v>
+      </c>
       <c r="L989" s="26"/>
       <c r="M989" s="58"/>
-      <c r="N989" s="58"/>
+      <c r="N989" s="58">
+        <v>45722</v>
+      </c>
       <c r="O989" s="26"/>
       <c r="P989" s="26"/>
       <c r="Q989" s="26">
@@ -73072,8 +73109,12 @@
       <c r="S989" s="24" t="s">
         <v>792</v>
       </c>
-      <c r="T989" s="25"/>
-      <c r="U989" s="25"/>
+      <c r="T989" s="25">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="U989" s="25">
+        <v>0.6166666666666667</v>
+      </c>
       <c r="V989" s="26"/>
       <c r="W989" s="23"/>
       <c r="X989" s="23"/>
@@ -73105,16 +73146,20 @@
       <c r="H990" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I990" s="26" t="s">
-        <v>652</v>
+      <c r="I990" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J990" s="57" t="s">
-        <v>442</v>
-      </c>
-      <c r="K990" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="K990" s="58">
+        <v>45722</v>
+      </c>
       <c r="L990" s="26"/>
       <c r="M990" s="58"/>
-      <c r="N990" s="58"/>
+      <c r="N990" s="58">
+        <v>45722</v>
+      </c>
       <c r="O990" s="26"/>
       <c r="P990" s="26"/>
       <c r="Q990" s="26">
@@ -73124,11 +73169,241 @@
       <c r="S990" s="24" t="s">
         <v>793</v>
       </c>
-      <c r="T990" s="25"/>
-      <c r="U990" s="25"/>
+      <c r="T990" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="U990" s="25">
+        <v>0.64861111111111114</v>
+      </c>
       <c r="V990" s="26"/>
-      <c r="W990" s="23"/>
+      <c r="W990" s="23" t="s">
+        <v>694</v>
+      </c>
       <c r="X990" s="23"/>
+    </row>
+    <row r="991" spans="1:24" ht="82.5" customHeight="1">
+      <c r="A991" s="87">
+        <f>YEAR(D991)</f>
+        <v>2025</v>
+      </c>
+      <c r="B991" s="26">
+        <f>MONTH(D991)</f>
+        <v>3</v>
+      </c>
+      <c r="C991" s="44">
+        <v>1006</v>
+      </c>
+      <c r="D991" s="58">
+        <v>45723</v>
+      </c>
+      <c r="E991" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="F991" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="G991" s="26" t="s">
+        <v>784</v>
+      </c>
+      <c r="H991" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I991" s="44" t="s">
+        <v>794</v>
+      </c>
+      <c r="J991" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K991" s="58"/>
+      <c r="L991" s="26"/>
+      <c r="M991" s="58">
+        <v>45723</v>
+      </c>
+      <c r="N991" s="58"/>
+      <c r="O991" s="26"/>
+      <c r="P991" s="26"/>
+      <c r="Q991" s="26">
+        <v>0</v>
+      </c>
+      <c r="R991" s="26"/>
+      <c r="S991" s="104" t="s">
+        <v>795</v>
+      </c>
+      <c r="T991" s="25"/>
+      <c r="U991" s="25"/>
+      <c r="V991" s="26"/>
+      <c r="W991" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="X991" s="23"/>
+    </row>
+    <row r="992" spans="1:24" ht="15" customHeight="1">
+      <c r="A992" s="87">
+        <f>YEAR(D992)</f>
+        <v>2025</v>
+      </c>
+      <c r="B992" s="26">
+        <f>MONTH(D992)</f>
+        <v>3</v>
+      </c>
+      <c r="C992" s="44">
+        <v>1007</v>
+      </c>
+      <c r="D992" s="58">
+        <v>45723</v>
+      </c>
+      <c r="E992" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F992" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G992" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="H992" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I992" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J992" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K992" s="58"/>
+      <c r="L992" s="26"/>
+      <c r="M992" s="58"/>
+      <c r="N992" s="58"/>
+      <c r="O992" s="26"/>
+      <c r="P992" s="26"/>
+      <c r="Q992" s="26">
+        <v>0</v>
+      </c>
+      <c r="R992" s="26"/>
+      <c r="S992" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="T992" s="25"/>
+      <c r="U992" s="25"/>
+      <c r="V992" s="26"/>
+      <c r="W992" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="X992" s="23"/>
+    </row>
+    <row r="993" spans="1:24" ht="15" customHeight="1">
+      <c r="A993" s="87">
+        <f>YEAR(D993)</f>
+        <v>2025</v>
+      </c>
+      <c r="B993" s="26">
+        <f>MONTH(D993)</f>
+        <v>3</v>
+      </c>
+      <c r="C993" s="44">
+        <v>1008</v>
+      </c>
+      <c r="D993" s="58">
+        <v>45723</v>
+      </c>
+      <c r="E993" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F993" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G993" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="H993" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I993" s="44" t="s">
+        <v>654</v>
+      </c>
+      <c r="J993" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K993" s="58">
+        <v>45723</v>
+      </c>
+      <c r="L993" s="26"/>
+      <c r="M993" s="58">
+        <v>45726</v>
+      </c>
+      <c r="N993" s="58"/>
+      <c r="O993" s="26"/>
+      <c r="P993" s="26"/>
+      <c r="Q993" s="26">
+        <v>323</v>
+      </c>
+      <c r="R993" s="26"/>
+      <c r="S993" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="T993" s="25"/>
+      <c r="U993" s="25"/>
+      <c r="V993" s="26"/>
+      <c r="W993" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="X993" s="23"/>
+    </row>
+    <row r="994" spans="1:24" ht="15" customHeight="1">
+      <c r="A994" s="87">
+        <f>YEAR(D994)</f>
+        <v>2025</v>
+      </c>
+      <c r="B994" s="26">
+        <f>MONTH(D994)</f>
+        <v>3</v>
+      </c>
+      <c r="C994" s="44">
+        <v>1009</v>
+      </c>
+      <c r="D994" s="58">
+        <v>45723</v>
+      </c>
+      <c r="E994" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="F994" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="G994" s="26" t="s">
+        <v>784</v>
+      </c>
+      <c r="H994" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I994" s="44" t="s">
+        <v>794</v>
+      </c>
+      <c r="J994" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K994" s="58"/>
+      <c r="L994" s="26"/>
+      <c r="M994" s="58">
+        <v>45723</v>
+      </c>
+      <c r="N994" s="58"/>
+      <c r="O994" s="26"/>
+      <c r="P994" s="26"/>
+      <c r="Q994" s="26">
+        <v>0</v>
+      </c>
+      <c r="R994" s="26"/>
+      <c r="S994" s="108" t="s">
+        <v>798</v>
+      </c>
+      <c r="T994" s="25"/>
+      <c r="U994" s="25"/>
+      <c r="V994" s="26"/>
+      <c r="W994" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="X994" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
@@ -73136,7 +73411,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J990">
+  <conditionalFormatting sqref="J2:J994">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -73200,21 +73475,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -73391,14 +73651,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3460" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE6EEC3-EA22-4DF3-9A8F-3ED497303575}"/>
+  <xr:revisionPtr revIDLastSave="3469" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6251DEB2-332A-44A2-A0EB-08E8E3D12F72}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16044" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16046" uniqueCount="801">
   <si>
     <t>ANO</t>
   </si>
@@ -2038,6 +2038,9 @@
 fabricação de 30 capacete metalico (proteção de instrumentação)</t>
   </si>
   <si>
+    <t>AGUARDANDO MATERIAL PARA CAPACETE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esteira da máquina caiu </t>
   </si>
   <si>
@@ -2613,6 +2616,9 @@
   <si>
     <t xml:space="preserve">
 06 haste NQ c/ 1,5m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabricação de suporte para capacetes </t>
   </si>
 </sst>
 </file>
@@ -3895,8 +3901,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X994" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X994" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X995" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X995" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4241,10 +4247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA994"/>
+  <dimension ref="A1:AA995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F922" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M991" sqref="M991"/>
+    <sheetView tabSelected="1" topLeftCell="S952" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Y957" sqref="Y957"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -64445,7 +64451,7 @@
         <v>35</v>
       </c>
       <c r="J840" s="1" t="s">
-        <v>509</v>
+        <v>29</v>
       </c>
       <c r="K840" s="51">
         <v>45685</v>
@@ -64473,9 +64479,7 @@
       </c>
       <c r="U840" s="1"/>
       <c r="V840" s="1"/>
-      <c r="W840" s="5" t="s">
-        <v>554</v>
-      </c>
+      <c r="W840" s="5"/>
       <c r="X840" s="11" t="s">
         <v>555</v>
       </c>
@@ -65363,10 +65367,10 @@
         <v>9023</v>
       </c>
       <c r="W857" s="6" t="s">
-        <v>554</v>
+        <v>448</v>
       </c>
       <c r="X857" s="27" t="s">
-        <v>441</v>
+        <v>626</v>
       </c>
     </row>
     <row r="858" spans="1:24" hidden="1">
@@ -65413,7 +65417,7 @@
       </c>
       <c r="R858" s="3"/>
       <c r="S858" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="T858" s="3"/>
       <c r="U858" s="3"/>
@@ -65465,7 +65469,7 @@
       </c>
       <c r="R859" s="3"/>
       <c r="S859" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="T859" s="3"/>
       <c r="U859" s="3"/>
@@ -65527,7 +65531,7 @@
         <v>433</v>
       </c>
       <c r="S860" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="T860" s="7">
         <v>0.34722222222222221</v>
@@ -65597,7 +65601,7 @@
         <v>433</v>
       </c>
       <c r="S861" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="T861" s="7">
         <v>0.61597222222222225</v>
@@ -65657,7 +65661,7 @@
       </c>
       <c r="R862" s="1"/>
       <c r="S862" s="12" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="T862" s="3"/>
       <c r="U862" s="3"/>
@@ -65687,7 +65691,7 @@
         <v>573</v>
       </c>
       <c r="G863" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H863" s="3" t="s">
         <v>297</v>
@@ -65719,7 +65723,7 @@
         <v>433</v>
       </c>
       <c r="S863" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="T863" s="7">
         <v>0.33333333333333331</v>
@@ -65789,7 +65793,7 @@
         <v>433</v>
       </c>
       <c r="S864" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="T864" s="14">
         <v>0.33333333333333331</v>
@@ -65824,10 +65828,10 @@
         <v>47</v>
       </c>
       <c r="F865" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G865" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H865" s="3" t="s">
         <v>297</v>
@@ -65859,7 +65863,7 @@
         <v>433</v>
       </c>
       <c r="S865" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="T865" s="14">
         <v>0.33333333333333331</v>
@@ -65927,7 +65931,7 @@
         <v>433</v>
       </c>
       <c r="S866" s="12" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="T866" s="7">
         <v>0.625</v>
@@ -65960,7 +65964,7 @@
         <v>47</v>
       </c>
       <c r="F867" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G867" s="3" t="s">
         <v>574</v>
@@ -65995,7 +65999,7 @@
         <v>433</v>
       </c>
       <c r="S867" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="T867" s="14">
         <v>0.33333333333333331</v>
@@ -66033,7 +66037,7 @@
         <v>99</v>
       </c>
       <c r="G868" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H868" s="3" t="s">
         <v>297</v>
@@ -66057,7 +66061,7 @@
       </c>
       <c r="R868" s="1"/>
       <c r="S868" s="28" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="T868" s="3"/>
       <c r="U868" s="3"/>
@@ -66113,14 +66117,14 @@
       <c r="Q869" s="3"/>
       <c r="R869" s="3"/>
       <c r="S869" s="28" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="T869" s="3"/>
       <c r="U869" s="3"/>
       <c r="V869" s="3"/>
       <c r="W869" s="6"/>
       <c r="X869" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="870" spans="1:24" hidden="1">
@@ -66167,7 +66171,7 @@
       <c r="Q870" s="3"/>
       <c r="R870" s="3"/>
       <c r="S870" s="29" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="T870" s="3"/>
       <c r="U870" s="3"/>
@@ -66227,7 +66231,7 @@
       <c r="Q871" s="3"/>
       <c r="R871" s="3"/>
       <c r="S871" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="T871" s="7">
         <v>0.66666666666666663</v>
@@ -66240,7 +66244,7 @@
         <v>554</v>
       </c>
       <c r="X871" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="872" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66285,7 +66289,7 @@
       <c r="Q872" s="32"/>
       <c r="R872" s="32"/>
       <c r="S872" s="30" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="T872" s="31"/>
       <c r="U872" s="31"/>
@@ -66315,7 +66319,7 @@
         <v>95</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H873" s="32" t="s">
         <v>297</v>
@@ -66335,7 +66339,7 @@
       <c r="Q873" s="32"/>
       <c r="R873" s="32"/>
       <c r="S873" s="30" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="T873" s="31"/>
       <c r="U873" s="31"/>
@@ -66385,7 +66389,7 @@
       <c r="Q874" s="32"/>
       <c r="R874" s="32"/>
       <c r="S874" s="30" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="T874" s="31"/>
       <c r="U874" s="31"/>
@@ -66437,7 +66441,7 @@
       <c r="Q875" s="32"/>
       <c r="R875" s="32"/>
       <c r="S875" s="30" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="T875" s="31"/>
       <c r="U875" s="31"/>
@@ -66446,7 +66450,7 @@
         <v>554</v>
       </c>
       <c r="X875" s="34" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="876" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66491,7 +66495,7 @@
       <c r="Q876" s="32"/>
       <c r="R876" s="32"/>
       <c r="S876" s="37" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="T876" s="31"/>
       <c r="U876" s="31"/>
@@ -66545,7 +66549,7 @@
       <c r="Q877" s="32"/>
       <c r="R877" s="32"/>
       <c r="S877" s="30" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="T877" s="31"/>
       <c r="U877" s="31"/>
@@ -66841,7 +66845,7 @@
       </c>
       <c r="R884" s="36"/>
       <c r="S884" s="28" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="T884" s="35">
         <v>0.33333333333333331</v>
@@ -66872,10 +66876,10 @@
         <v>47</v>
       </c>
       <c r="F885" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G885" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H885" s="3" t="s">
         <v>297</v>
@@ -66909,7 +66913,7 @@
         <v>433</v>
       </c>
       <c r="S885" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="T885" s="7">
         <v>0.39374999999999999</v>
@@ -66922,7 +66926,7 @@
         <v>448</v>
       </c>
       <c r="X885" s="6" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="886" spans="1:24" hidden="1">
@@ -66947,7 +66951,7 @@
         <v>99</v>
       </c>
       <c r="G886" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H886" s="3" t="s">
         <v>299</v>
@@ -66973,7 +66977,7 @@
       </c>
       <c r="R886" s="1"/>
       <c r="S886" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="T886" s="7">
         <v>0.33333333333333331</v>
@@ -67033,7 +67037,7 @@
       </c>
       <c r="R887" s="3"/>
       <c r="S887" s="12" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="T887" s="7">
         <v>0.67986111111111114</v>
@@ -67069,7 +67073,7 @@
         <v>31</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H888" s="3" t="s">
         <v>297</v>
@@ -67091,7 +67095,7 @@
       </c>
       <c r="R888" s="3"/>
       <c r="S888" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="T888" s="3"/>
       <c r="U888" s="3"/>
@@ -67152,10 +67156,10 @@
         <v>405</v>
       </c>
       <c r="R889" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="S889" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="T889" s="7">
         <v>0.33333333333333331</v>
@@ -67165,7 +67169,7 @@
       </c>
       <c r="V889" s="3"/>
       <c r="W889" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="X889" s="6"/>
     </row>
@@ -67191,7 +67195,7 @@
         <v>31</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H890" s="3" t="s">
         <v>297</v>
@@ -67223,7 +67227,7 @@
         <v>433</v>
       </c>
       <c r="S890" s="12" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="T890" s="7">
         <v>0.3576388888888889</v>
@@ -67257,7 +67261,7 @@
         <v>126</v>
       </c>
       <c r="G891" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H891" s="3" t="s">
         <v>297</v>
@@ -67283,7 +67287,7 @@
       </c>
       <c r="R891" s="1"/>
       <c r="S891" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T891" s="7">
         <v>0.33333333333333331</v>
@@ -67294,7 +67298,7 @@
         <v>554</v>
       </c>
       <c r="X891" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="892" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -67345,13 +67349,13 @@
       </c>
       <c r="R892" s="3"/>
       <c r="S892" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="T892" s="3"/>
       <c r="U892" s="3"/>
       <c r="V892" s="3"/>
       <c r="W892" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X892" s="6"/>
     </row>
@@ -67405,7 +67409,7 @@
       </c>
       <c r="R893" s="3"/>
       <c r="S893" s="12" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="T893" s="7">
         <v>0.65277777777777779</v>
@@ -67441,7 +67445,7 @@
         <v>546</v>
       </c>
       <c r="G894" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H894" s="3" t="s">
         <v>297</v>
@@ -67471,7 +67475,7 @@
       </c>
       <c r="R894" s="3"/>
       <c r="S894" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="T894" s="7">
         <v>0.58333333333333337</v>
@@ -67481,7 +67485,7 @@
       </c>
       <c r="V894" s="3"/>
       <c r="W894" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="X894" s="6"/>
     </row>
@@ -67533,7 +67537,7 @@
       </c>
       <c r="R895" s="3"/>
       <c r="S895" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="T895" s="7">
         <v>0.60416666666666663</v>
@@ -67543,7 +67547,7 @@
       </c>
       <c r="V895" s="3"/>
       <c r="W895" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="X895" s="6"/>
     </row>
@@ -67597,7 +67601,7 @@
       </c>
       <c r="R896" s="3"/>
       <c r="S896" s="12" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="T896" s="7">
         <v>0.65277777777777779</v>
@@ -67627,13 +67631,13 @@
         <v>45699</v>
       </c>
       <c r="E897" s="36" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F897" s="36" t="s">
         <v>391</v>
       </c>
       <c r="G897" s="36" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H897" s="36" t="s">
         <v>299</v>
@@ -67661,7 +67665,7 @@
       </c>
       <c r="R897" s="36"/>
       <c r="S897" s="28" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="T897" s="35">
         <v>0.41666666666666669</v>
@@ -67671,7 +67675,7 @@
       </c>
       <c r="V897" s="36"/>
       <c r="W897" s="33" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X897" s="27"/>
     </row>
@@ -67697,7 +67701,7 @@
         <v>546</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H898" s="3" t="s">
         <v>297</v>
@@ -67723,13 +67727,13 @@
       </c>
       <c r="R898" s="3"/>
       <c r="S898" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="T898" s="3"/>
       <c r="U898" s="3"/>
       <c r="V898" s="3"/>
       <c r="W898" s="6" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="X898" s="6"/>
     </row>
@@ -67755,7 +67759,7 @@
         <v>186</v>
       </c>
       <c r="G899" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H899" s="3" t="s">
         <v>299</v>
@@ -67781,7 +67785,7 @@
       </c>
       <c r="R899" s="3"/>
       <c r="S899" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="T899" s="7">
         <v>0.64583333333333337</v>
@@ -67791,7 +67795,7 @@
       </c>
       <c r="V899" s="3"/>
       <c r="W899" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X899" s="6"/>
     </row>
@@ -67846,10 +67850,10 @@
         <v>493</v>
       </c>
       <c r="R900" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="S900" s="12" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="T900" s="7">
         <v>0.54166666666666663</v>
@@ -67911,7 +67915,7 @@
       </c>
       <c r="R901" s="3"/>
       <c r="S901" s="12" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="T901" s="7">
         <v>0.63124999999999998</v>
@@ -67941,7 +67945,7 @@
         <v>45699.760763888888</v>
       </c>
       <c r="E902" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F902" s="3" t="s">
         <v>546</v>
@@ -67973,7 +67977,7 @@
       </c>
       <c r="R902" s="3"/>
       <c r="S902" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="T902" s="7">
         <v>0.33333333333333331</v>
@@ -67984,7 +67988,7 @@
         <v>554</v>
       </c>
       <c r="X902" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="903" spans="1:24" ht="33.75" customHeight="1">
@@ -68035,7 +68039,7 @@
       </c>
       <c r="R903" s="3"/>
       <c r="S903" s="12" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="T903" s="7">
         <v>0.4201388888888889</v>
@@ -68046,7 +68050,7 @@
         <v>448</v>
       </c>
       <c r="X903" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="904" spans="1:24" ht="39" hidden="1" customHeight="1">
@@ -68068,7 +68072,7 @@
         <v>47</v>
       </c>
       <c r="F904" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G904" s="3" t="s">
         <v>560</v>
@@ -68097,7 +68101,7 @@
       </c>
       <c r="R904" s="3"/>
       <c r="S904" s="12" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="T904" s="7">
         <v>0.41666666666666669</v>
@@ -68107,7 +68111,7 @@
       </c>
       <c r="V904" s="3"/>
       <c r="W904" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="X904" s="6"/>
     </row>
@@ -68167,7 +68171,7 @@
         <v>433</v>
       </c>
       <c r="S905" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="T905" s="7">
         <v>0.60416666666666663</v>
@@ -68225,7 +68229,7 @@
       </c>
       <c r="R906" s="3"/>
       <c r="S906" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="T906" s="3"/>
       <c r="U906" s="3"/>
@@ -68287,7 +68291,7 @@
       </c>
       <c r="R907" s="3"/>
       <c r="S907" s="4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="T907" s="7">
         <v>0.58333333333333337</v>
@@ -68323,7 +68327,7 @@
         <v>391</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H908" s="3" t="s">
         <v>299</v>
@@ -68349,7 +68353,7 @@
       </c>
       <c r="R908" s="3"/>
       <c r="S908" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="T908" s="7">
         <v>0.625</v>
@@ -68359,7 +68363,7 @@
       </c>
       <c r="V908" s="3"/>
       <c r="W908" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X908" s="6"/>
     </row>
@@ -68411,7 +68415,7 @@
       </c>
       <c r="R909" s="3"/>
       <c r="S909" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="T909" s="7">
         <v>0.57430555555555551</v>
@@ -68421,7 +68425,7 @@
       </c>
       <c r="V909" s="3"/>
       <c r="W909" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X909" s="6"/>
     </row>
@@ -68475,7 +68479,7 @@
       </c>
       <c r="R910" s="3"/>
       <c r="S910" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="T910" s="7">
         <v>0.625</v>
@@ -68485,7 +68489,7 @@
       </c>
       <c r="V910" s="3"/>
       <c r="W910" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="X910" s="6"/>
     </row>
@@ -68511,7 +68515,7 @@
         <v>95</v>
       </c>
       <c r="G911" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H911" s="3" t="s">
         <v>299</v>
@@ -68539,7 +68543,7 @@
       </c>
       <c r="R911" s="3"/>
       <c r="S911" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="T911" s="7">
         <v>0.37013888888888891</v>
@@ -68549,7 +68553,7 @@
       </c>
       <c r="V911" s="3"/>
       <c r="W911" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X911" s="6"/>
     </row>
@@ -68603,7 +68607,7 @@
       </c>
       <c r="R912" s="3"/>
       <c r="S912" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="T912" s="7">
         <v>0.54166666666666663</v>
@@ -68613,7 +68617,7 @@
       </c>
       <c r="V912" s="3"/>
       <c r="W912" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X912" s="6"/>
     </row>
@@ -68665,7 +68669,7 @@
       </c>
       <c r="R913" s="3"/>
       <c r="S913" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="T913" s="7">
         <v>0.45833333333333331</v>
@@ -68699,7 +68703,7 @@
         <v>391</v>
       </c>
       <c r="G914" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H914" s="3" t="s">
         <v>297</v>
@@ -68725,16 +68729,16 @@
       </c>
       <c r="R914" s="3"/>
       <c r="S914" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="T914" s="7"/>
       <c r="U914" s="3"/>
       <c r="V914" s="3"/>
       <c r="W914" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="X914" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="915" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68781,7 +68785,7 @@
       </c>
       <c r="R915" s="3"/>
       <c r="S915" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="T915" s="7"/>
       <c r="U915" s="3"/>
@@ -68809,7 +68813,7 @@
         <v>45701.614502314813</v>
       </c>
       <c r="E916" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>399</v>
@@ -68847,7 +68851,7 @@
         <v>500</v>
       </c>
       <c r="S916" s="12" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="T916" s="7"/>
       <c r="U916" s="3"/>
@@ -68881,7 +68885,7 @@
         <v>546</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H917" s="3" t="s">
         <v>297</v>
@@ -68909,7 +68913,7 @@
       </c>
       <c r="R917" s="3"/>
       <c r="S917" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="T917" s="7">
         <v>0.58611111111111114</v>
@@ -68920,7 +68924,7 @@
         <v>448</v>
       </c>
       <c r="X917" s="6" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="918" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68973,7 +68977,7 @@
       </c>
       <c r="R918" s="3"/>
       <c r="S918" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="T918" s="7">
         <v>0.58333333333333337</v>
@@ -69031,17 +69035,13 @@
       </c>
       <c r="R919" s="3"/>
       <c r="S919" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="T919" s="7"/>
       <c r="U919" s="3"/>
       <c r="V919" s="3"/>
-      <c r="W919" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="X919" s="6" t="s">
-        <v>555</v>
-      </c>
+      <c r="W919" s="6"/>
+      <c r="X919" s="6"/>
     </row>
     <row r="920" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A920" s="48">
@@ -69065,7 +69065,7 @@
         <v>334</v>
       </c>
       <c r="G920" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H920" s="3" t="s">
         <v>299</v>
@@ -69091,7 +69091,7 @@
       </c>
       <c r="R920" s="3"/>
       <c r="S920" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="T920" s="7">
         <v>0.66666666666666663</v>
@@ -69101,7 +69101,7 @@
       </c>
       <c r="V920" s="3"/>
       <c r="W920" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X920" s="6" t="s">
         <v>441</v>
@@ -69157,7 +69157,7 @@
       </c>
       <c r="R921" s="3"/>
       <c r="S921" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="T921" s="7">
         <v>0.375</v>
@@ -69219,7 +69219,7 @@
       </c>
       <c r="R922" s="3"/>
       <c r="S922" s="12" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="T922" s="7">
         <v>0.52083333333333337</v>
@@ -69249,10 +69249,10 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E923" s="81" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F923" s="81" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G923" s="81" t="s">
         <v>560</v>
@@ -69283,7 +69283,7 @@
       </c>
       <c r="R923" s="3"/>
       <c r="S923" s="100" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="T923" s="7">
         <v>0.54166666666666663</v>
@@ -69345,7 +69345,7 @@
       </c>
       <c r="R924" s="40"/>
       <c r="S924" s="101" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="T924" s="63">
         <v>0.5625</v>
@@ -69353,7 +69353,7 @@
       <c r="U924" s="40"/>
       <c r="V924" s="40"/>
       <c r="W924" s="40" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X924" s="40"/>
     </row>
@@ -69405,7 +69405,7 @@
       </c>
       <c r="R925" s="64"/>
       <c r="S925" s="102" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="T925" s="67">
         <v>0.41666666666666669</v>
@@ -69441,7 +69441,7 @@
         <v>546</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H926" s="3" t="s">
         <v>297</v>
@@ -69467,13 +69467,13 @@
       </c>
       <c r="R926" s="3"/>
       <c r="S926" s="16" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="T926" s="7"/>
       <c r="U926" s="3"/>
       <c r="V926" s="3"/>
       <c r="W926" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X926" s="6"/>
     </row>
@@ -69527,7 +69527,7 @@
       </c>
       <c r="R927" s="3"/>
       <c r="S927" s="16" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="T927" s="7"/>
       <c r="U927" s="3"/>
@@ -69536,7 +69536,7 @@
         <v>448</v>
       </c>
       <c r="X927" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="928" spans="1:24" ht="15" customHeight="1">
@@ -69561,7 +69561,7 @@
         <v>391</v>
       </c>
       <c r="G928" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H928" s="3" t="s">
         <v>297</v>
@@ -69583,7 +69583,7 @@
       </c>
       <c r="R928" s="3"/>
       <c r="S928" s="16" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="T928" s="7"/>
       <c r="U928" s="3"/>
@@ -69645,7 +69645,7 @@
       </c>
       <c r="R929" s="18"/>
       <c r="S929" s="17" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="T929" s="22">
         <v>0.35625000000000001</v>
@@ -69656,7 +69656,7 @@
         <v>448</v>
       </c>
       <c r="X929" s="21" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="930" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69709,7 +69709,7 @@
       </c>
       <c r="R930" s="18"/>
       <c r="S930" s="17" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="T930" s="22">
         <v>0.34722222222222221</v>
@@ -69719,7 +69719,7 @@
       </c>
       <c r="V930" s="19"/>
       <c r="W930" s="20" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X930" s="21"/>
     </row>
@@ -69745,7 +69745,7 @@
         <v>186</v>
       </c>
       <c r="G931" s="26" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H931" s="26" t="s">
         <v>299</v>
@@ -69773,7 +69773,7 @@
       </c>
       <c r="R931" s="26"/>
       <c r="S931" s="24" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="T931" s="25"/>
       <c r="U931" s="25"/>
@@ -69799,7 +69799,7 @@
         <v>45705.627858796295</v>
       </c>
       <c r="E932" s="26" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F932" s="26" t="s">
         <v>424</v>
@@ -69833,7 +69833,7 @@
       </c>
       <c r="R932" s="26"/>
       <c r="S932" s="24" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="T932" s="25">
         <v>0.29166666666666669</v>
@@ -69843,7 +69843,7 @@
       </c>
       <c r="V932" s="26"/>
       <c r="W932" s="23" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="X932" s="23"/>
     </row>
@@ -69869,7 +69869,7 @@
         <v>99</v>
       </c>
       <c r="G933" s="26" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H933" s="26" t="s">
         <v>299</v>
@@ -69891,13 +69891,13 @@
       </c>
       <c r="R933" s="26"/>
       <c r="S933" s="24" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="T933" s="25"/>
       <c r="U933" s="25"/>
       <c r="V933" s="26"/>
       <c r="W933" s="23" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X933" s="23"/>
     </row>
@@ -69923,7 +69923,7 @@
         <v>186</v>
       </c>
       <c r="G934" s="26" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H934" s="26" t="s">
         <v>299</v>
@@ -69945,13 +69945,13 @@
       </c>
       <c r="R934" s="26"/>
       <c r="S934" s="24" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="T934" s="25"/>
       <c r="U934" s="25"/>
       <c r="V934" s="26"/>
       <c r="W934" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X934" s="23"/>
     </row>
@@ -69977,7 +69977,7 @@
         <v>546</v>
       </c>
       <c r="G935" s="26" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H935" s="26" t="s">
         <v>297</v>
@@ -69999,7 +69999,7 @@
       </c>
       <c r="R935" s="26"/>
       <c r="S935" s="24" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="T935" s="25"/>
       <c r="U935" s="25"/>
@@ -70031,7 +70031,7 @@
         <v>573</v>
       </c>
       <c r="G936" s="26" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H936" s="26" t="s">
         <v>297</v>
@@ -70053,7 +70053,7 @@
       </c>
       <c r="R936" s="26"/>
       <c r="S936" s="24" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="T936" s="25"/>
       <c r="U936" s="25"/>
@@ -70115,7 +70115,7 @@
         <v>433</v>
       </c>
       <c r="S937" s="24" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="T937" s="25"/>
       <c r="U937" s="25"/>
@@ -70181,7 +70181,7 @@
         <v>433</v>
       </c>
       <c r="S938" s="24" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="T938" s="25"/>
       <c r="U938" s="25"/>
@@ -70190,7 +70190,7 @@
         <v>448</v>
       </c>
       <c r="X938" s="23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="939" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70215,7 +70215,7 @@
         <v>546</v>
       </c>
       <c r="G939" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H939" s="26" t="s">
         <v>297</v>
@@ -70239,7 +70239,7 @@
       </c>
       <c r="R939" s="26"/>
       <c r="S939" s="24" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="T939" s="25"/>
       <c r="U939" s="25"/>
@@ -70293,7 +70293,7 @@
       </c>
       <c r="R940" s="26"/>
       <c r="S940" s="24" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T940" s="25"/>
       <c r="U940" s="25"/>
@@ -70302,7 +70302,7 @@
         <v>448</v>
       </c>
       <c r="X940" s="23" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="941" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70327,7 +70327,7 @@
         <v>546</v>
       </c>
       <c r="G941" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H941" s="26" t="s">
         <v>297</v>
@@ -70351,7 +70351,7 @@
       </c>
       <c r="R941" s="26"/>
       <c r="S941" s="24" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="T941" s="25"/>
       <c r="U941" s="25"/>
@@ -70360,7 +70360,7 @@
         <v>448</v>
       </c>
       <c r="X941" s="23" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="942" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70407,7 +70407,7 @@
       </c>
       <c r="R942" s="26"/>
       <c r="S942" s="24" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="T942" s="25"/>
       <c r="U942" s="25"/>
@@ -70437,7 +70437,7 @@
         <v>546</v>
       </c>
       <c r="G943" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H943" s="26" t="s">
         <v>297</v>
@@ -70463,7 +70463,7 @@
       </c>
       <c r="R943" s="26"/>
       <c r="S943" s="24" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="T943" s="25"/>
       <c r="U943" s="25"/>
@@ -70472,7 +70472,7 @@
         <v>448</v>
       </c>
       <c r="X943" s="23" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="944" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70523,7 +70523,7 @@
       </c>
       <c r="R944" s="26"/>
       <c r="S944" s="24" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="T944" s="25"/>
       <c r="U944" s="25"/>
@@ -70587,7 +70587,7 @@
         <v>433</v>
       </c>
       <c r="S945" s="24" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="T945" s="25"/>
       <c r="U945" s="25"/>
@@ -70621,13 +70621,13 @@
         <v>186</v>
       </c>
       <c r="G946" s="26" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H946" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I946" s="26" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J946" s="44" t="s">
         <v>442</v>
@@ -70645,7 +70645,7 @@
       </c>
       <c r="R946" s="26"/>
       <c r="S946" s="24" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="T946" s="25">
         <v>0.54166666666666663</v>
@@ -70653,10 +70653,10 @@
       <c r="U946" s="25"/>
       <c r="V946" s="26"/>
       <c r="W946" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X946" s="23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="947" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70705,7 +70705,7 @@
       </c>
       <c r="R947" s="26"/>
       <c r="S947" s="24" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="T947" s="25"/>
       <c r="U947" s="25"/>
@@ -70761,7 +70761,7 @@
       </c>
       <c r="R948" s="26"/>
       <c r="S948" s="24" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="T948" s="25"/>
       <c r="U948" s="25"/>
@@ -70793,7 +70793,7 @@
         <v>546</v>
       </c>
       <c r="G949" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H949" s="26" t="s">
         <v>297</v>
@@ -70819,7 +70819,7 @@
       </c>
       <c r="R949" s="26"/>
       <c r="S949" s="24" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="T949" s="25"/>
       <c r="U949" s="25"/>
@@ -70828,7 +70828,7 @@
         <v>448</v>
       </c>
       <c r="X949" s="23" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="950" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70881,7 +70881,7 @@
       </c>
       <c r="R950" s="26"/>
       <c r="S950" s="24" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="T950" s="25">
         <v>0.73611111111111116</v>
@@ -70891,7 +70891,7 @@
       </c>
       <c r="V950" s="26"/>
       <c r="W950" s="23" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="X950" s="23"/>
     </row>
@@ -70949,7 +70949,7 @@
         <v>433</v>
       </c>
       <c r="S951" s="24" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="T951" s="25"/>
       <c r="U951" s="25"/>
@@ -71007,7 +71007,7 @@
       </c>
       <c r="R952" s="26"/>
       <c r="S952" s="104" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="T952" s="25"/>
       <c r="U952" s="25"/>
@@ -71016,7 +71016,7 @@
         <v>554</v>
       </c>
       <c r="X952" s="23" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="953" spans="1:24" ht="91.5">
@@ -71063,7 +71063,7 @@
       </c>
       <c r="R953" s="26"/>
       <c r="S953" s="104" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="T953" s="25"/>
       <c r="U953" s="25"/>
@@ -71095,7 +71095,7 @@
         <v>186</v>
       </c>
       <c r="G954" s="26" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H954" s="26" t="s">
         <v>297</v>
@@ -71123,7 +71123,7 @@
       </c>
       <c r="R954" s="26"/>
       <c r="S954" s="24" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="T954" s="25"/>
       <c r="U954" s="25"/>
@@ -71157,7 +71157,7 @@
         <v>31</v>
       </c>
       <c r="G955" s="26" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H955" s="26" t="s">
         <v>297</v>
@@ -71185,7 +71185,7 @@
       </c>
       <c r="R955" s="26"/>
       <c r="S955" s="104" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="T955" s="25">
         <v>0.625</v>
@@ -71196,7 +71196,7 @@
         <v>440</v>
       </c>
       <c r="X955" s="23" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="956" spans="1:24" ht="15" customHeight="1">
@@ -71227,7 +71227,7 @@
         <v>299</v>
       </c>
       <c r="I956" s="26" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J956" s="57" t="s">
         <v>442</v>
@@ -71243,16 +71243,16 @@
       </c>
       <c r="R956" s="26"/>
       <c r="S956" s="24" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="T956" s="25"/>
       <c r="U956" s="25"/>
       <c r="V956" s="26"/>
       <c r="W956" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X956" s="23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="957" spans="1:24" ht="15" customHeight="1">
@@ -71274,7 +71274,7 @@
         <v>453</v>
       </c>
       <c r="F957" s="26" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G957" s="26" t="s">
         <v>168</v>
@@ -71303,7 +71303,7 @@
       </c>
       <c r="R957" s="26"/>
       <c r="S957" s="24" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="T957" s="25">
         <v>0.375</v>
@@ -71314,7 +71314,7 @@
         <v>440</v>
       </c>
       <c r="X957" s="23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="958" spans="1:24" ht="15" customHeight="1">
@@ -71361,7 +71361,7 @@
       </c>
       <c r="R958" s="26"/>
       <c r="S958" s="24" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="T958" s="25"/>
       <c r="U958" s="25"/>
@@ -71417,7 +71417,7 @@
       </c>
       <c r="R959" s="26"/>
       <c r="S959" s="24" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="T959" s="25"/>
       <c r="U959" s="25"/>
@@ -71449,7 +71449,7 @@
         <v>546</v>
       </c>
       <c r="G960" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H960" s="26" t="s">
         <v>297</v>
@@ -71471,13 +71471,13 @@
       </c>
       <c r="R960" s="26"/>
       <c r="S960" s="24" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="T960" s="25"/>
       <c r="U960" s="25"/>
       <c r="V960" s="26"/>
       <c r="W960" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X960" s="23"/>
     </row>
@@ -71529,7 +71529,7 @@
       </c>
       <c r="R961" s="26"/>
       <c r="S961" s="104" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="T961" s="25">
         <v>0.375</v>
@@ -71540,7 +71540,7 @@
         <v>448</v>
       </c>
       <c r="X961" s="23" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="962" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71587,7 +71587,7 @@
       </c>
       <c r="R962" s="26"/>
       <c r="S962" s="24" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="T962" s="25"/>
       <c r="U962" s="25"/>
@@ -71617,7 +71617,7 @@
         <v>99</v>
       </c>
       <c r="G963" s="26" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H963" s="26" t="s">
         <v>297</v>
@@ -71639,16 +71639,16 @@
       </c>
       <c r="R963" s="26"/>
       <c r="S963" s="24" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="T963" s="25"/>
       <c r="U963" s="25"/>
       <c r="V963" s="26"/>
       <c r="W963" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X963" s="23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="964" spans="1:24" ht="15" customHeight="1">
@@ -71695,7 +71695,7 @@
       </c>
       <c r="R964" s="26"/>
       <c r="S964" s="24" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T964" s="25"/>
       <c r="U964" s="25"/>
@@ -71704,7 +71704,7 @@
         <v>448</v>
       </c>
       <c r="X964" s="23" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="965" spans="1:24" ht="15" customHeight="1">
@@ -71751,7 +71751,7 @@
       </c>
       <c r="R965" s="26"/>
       <c r="S965" s="24" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="T965" s="25"/>
       <c r="U965" s="25"/>
@@ -71760,7 +71760,7 @@
         <v>448</v>
       </c>
       <c r="X965" s="23" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="966" spans="1:24" ht="15" customHeight="1">
@@ -71785,7 +71785,7 @@
         <v>391</v>
       </c>
       <c r="G966" s="26" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H966" s="26" t="s">
         <v>297</v>
@@ -71809,7 +71809,7 @@
       </c>
       <c r="R966" s="26"/>
       <c r="S966" s="24" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="T966" s="25"/>
       <c r="U966" s="25"/>
@@ -71818,7 +71818,7 @@
         <v>448</v>
       </c>
       <c r="X966" s="23" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="967" spans="1:24" ht="15" customHeight="1">
@@ -71865,16 +71865,16 @@
       </c>
       <c r="R967" s="26"/>
       <c r="S967" s="24" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="T967" s="25"/>
       <c r="U967" s="25"/>
       <c r="V967" s="26"/>
       <c r="W967" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X967" s="23" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="968" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71925,7 +71925,7 @@
       </c>
       <c r="R968" s="26"/>
       <c r="S968" s="24" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="T968" s="25">
         <v>0.35416666666666669</v>
@@ -71938,7 +71938,7 @@
         <v>554</v>
       </c>
       <c r="X968" s="23" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="969" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71987,7 +71987,7 @@
       </c>
       <c r="R969" s="26"/>
       <c r="S969" s="24" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="T969" s="25"/>
       <c r="U969" s="25"/>
@@ -71996,7 +71996,7 @@
         <v>448</v>
       </c>
       <c r="X969" s="23" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="970" spans="1:24" ht="32.25" customHeight="1">
@@ -72045,17 +72045,13 @@
       </c>
       <c r="R970" s="26"/>
       <c r="S970" s="107" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="T970" s="25"/>
       <c r="U970" s="25"/>
       <c r="V970" s="26"/>
-      <c r="W970" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="X970" s="23" t="s">
-        <v>644</v>
-      </c>
+      <c r="W970" s="23"/>
+      <c r="X970" s="23"/>
     </row>
     <row r="971" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A971" s="87">
@@ -72105,7 +72101,7 @@
       </c>
       <c r="R971" s="26"/>
       <c r="S971" s="24" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="T971" s="25">
         <v>0.52083333333333337</v>
@@ -72135,13 +72131,13 @@
         <v>45714</v>
       </c>
       <c r="E972" s="26" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F972" s="26" t="s">
         <v>445</v>
       </c>
       <c r="G972" s="26" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H972" s="26" t="s">
         <v>299</v>
@@ -72163,13 +72159,13 @@
       </c>
       <c r="R972" s="26"/>
       <c r="S972" s="24" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="T972" s="25"/>
       <c r="U972" s="25"/>
       <c r="V972" s="26"/>
       <c r="W972" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X972" s="23"/>
     </row>
@@ -72217,7 +72213,7 @@
       </c>
       <c r="R973" s="26"/>
       <c r="S973" s="24" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="T973" s="25"/>
       <c r="U973" s="25"/>
@@ -72269,7 +72265,7 @@
       </c>
       <c r="R974" s="26"/>
       <c r="S974" s="24" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="T974" s="25"/>
       <c r="U974" s="25"/>
@@ -72321,7 +72317,7 @@
       </c>
       <c r="R975" s="26"/>
       <c r="S975" s="24" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="T975" s="25"/>
       <c r="U975" s="25"/>
@@ -72351,7 +72347,7 @@
         <v>95</v>
       </c>
       <c r="G976" s="26" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H976" s="26" t="s">
         <v>299</v>
@@ -72373,13 +72369,13 @@
       </c>
       <c r="R976" s="26"/>
       <c r="S976" s="24" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="T976" s="25"/>
       <c r="U976" s="25"/>
       <c r="V976" s="26"/>
       <c r="W976" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X976" s="23"/>
     </row>
@@ -72405,7 +72401,7 @@
         <v>95</v>
       </c>
       <c r="G977" s="26" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H977" s="26" t="s">
         <v>297</v>
@@ -72433,7 +72429,7 @@
       </c>
       <c r="R977" s="26"/>
       <c r="S977" s="104" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="T977" s="25">
         <v>0.39583333333333331</v>
@@ -72443,7 +72439,7 @@
       </c>
       <c r="V977" s="26"/>
       <c r="W977" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X977" s="23" t="s">
         <v>495</v>
@@ -72497,7 +72493,7 @@
       </c>
       <c r="R978" s="26"/>
       <c r="S978" s="24" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="T978" s="25"/>
       <c r="U978" s="25"/>
@@ -72527,7 +72523,7 @@
         <v>546</v>
       </c>
       <c r="G979" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H979" s="26" t="s">
         <v>297</v>
@@ -72549,7 +72545,7 @@
       </c>
       <c r="R979" s="26"/>
       <c r="S979" s="24" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="T979" s="25"/>
       <c r="U979" s="25"/>
@@ -72575,7 +72571,7 @@
         <v>45716</v>
       </c>
       <c r="E980" s="26" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F980" s="26" t="s">
         <v>604</v>
@@ -72605,7 +72601,7 @@
       </c>
       <c r="R980" s="26"/>
       <c r="S980" s="24" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="T980" s="25">
         <v>0.375</v>
@@ -72639,7 +72635,7 @@
         <v>95</v>
       </c>
       <c r="G981" s="26" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H981" s="26" t="s">
         <v>297</v>
@@ -72661,7 +72657,7 @@
       </c>
       <c r="R981" s="26"/>
       <c r="S981" s="24" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="T981" s="25"/>
       <c r="U981" s="25"/>
@@ -72717,13 +72713,13 @@
       </c>
       <c r="R982" s="26"/>
       <c r="S982" s="24" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="T982" s="25"/>
       <c r="U982" s="25"/>
       <c r="V982" s="26"/>
       <c r="W982" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X982" s="23"/>
     </row>
@@ -72749,7 +72745,7 @@
         <v>116</v>
       </c>
       <c r="G983" s="26" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H983" s="26" t="s">
         <v>299</v>
@@ -72773,13 +72769,13 @@
       </c>
       <c r="R983" s="26"/>
       <c r="S983" s="24" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="T983" s="25"/>
       <c r="U983" s="25"/>
       <c r="V983" s="26"/>
       <c r="W983" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X983" s="23"/>
     </row>
@@ -72831,7 +72827,7 @@
       </c>
       <c r="R984" s="26"/>
       <c r="S984" s="24" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="T984" s="25">
         <v>0.54166666666666663</v>
@@ -72841,7 +72837,7 @@
       </c>
       <c r="V984" s="26"/>
       <c r="W984" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X984" s="23"/>
     </row>
@@ -72861,7 +72857,7 @@
         <v>45691</v>
       </c>
       <c r="E985" s="26" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F985" s="26" t="s">
         <v>89</v>
@@ -72889,7 +72885,7 @@
       </c>
       <c r="R985" s="26"/>
       <c r="S985" s="104" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="T985" s="25"/>
       <c r="U985" s="25"/>
@@ -72943,13 +72939,13 @@
       </c>
       <c r="R986" s="26"/>
       <c r="S986" s="24" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="T986" s="25"/>
       <c r="U986" s="25"/>
       <c r="V986" s="26"/>
       <c r="W986" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X986" s="23"/>
     </row>
@@ -72997,7 +72993,7 @@
       </c>
       <c r="R987" s="26"/>
       <c r="S987" s="24" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="T987" s="25"/>
       <c r="U987" s="25"/>
@@ -73051,7 +73047,7 @@
       </c>
       <c r="R988" s="26"/>
       <c r="S988" s="24" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="T988" s="25"/>
       <c r="U988" s="25"/>
@@ -73107,7 +73103,7 @@
       </c>
       <c r="R989" s="26"/>
       <c r="S989" s="24" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="T989" s="25">
         <v>0.59722222222222221</v>
@@ -73167,7 +73163,7 @@
       </c>
       <c r="R990" s="26"/>
       <c r="S990" s="24" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="T990" s="25">
         <v>0.625</v>
@@ -73177,7 +73173,7 @@
       </c>
       <c r="V990" s="26"/>
       <c r="W990" s="23" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="X990" s="23"/>
     </row>
@@ -73203,13 +73199,13 @@
         <v>394</v>
       </c>
       <c r="G991" s="26" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H991" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I991" s="44" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="J991" s="57" t="s">
         <v>428</v>
@@ -73227,7 +73223,7 @@
       </c>
       <c r="R991" s="26"/>
       <c r="S991" s="104" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="T991" s="25"/>
       <c r="U991" s="25"/>
@@ -73281,7 +73277,7 @@
       </c>
       <c r="R992" s="26"/>
       <c r="S992" s="24" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="T992" s="25"/>
       <c r="U992" s="25"/>
@@ -73319,7 +73315,7 @@
         <v>297</v>
       </c>
       <c r="I993" s="44" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J993" s="57" t="s">
         <v>428</v>
@@ -73339,7 +73335,7 @@
       </c>
       <c r="R993" s="26"/>
       <c r="S993" s="24" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="T993" s="25"/>
       <c r="U993" s="25"/>
@@ -73371,13 +73367,13 @@
         <v>394</v>
       </c>
       <c r="G994" s="26" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H994" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I994" s="44" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="J994" s="57" t="s">
         <v>442</v>
@@ -73395,7 +73391,7 @@
       </c>
       <c r="R994" s="26"/>
       <c r="S994" s="108" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="T994" s="25"/>
       <c r="U994" s="25"/>
@@ -73404,6 +73400,58 @@
         <v>554</v>
       </c>
       <c r="X994" s="23"/>
+    </row>
+    <row r="995" spans="1:24" ht="15" customHeight="1">
+      <c r="A995" s="87">
+        <f>YEAR(D995)</f>
+        <v>2025</v>
+      </c>
+      <c r="B995" s="26">
+        <f>MONTH(D995)</f>
+        <v>3</v>
+      </c>
+      <c r="C995" s="44">
+        <v>1010</v>
+      </c>
+      <c r="D995" s="58">
+        <v>45723</v>
+      </c>
+      <c r="E995" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F995" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G995" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="H995" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I995" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J995" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K995" s="58"/>
+      <c r="L995" s="26"/>
+      <c r="M995" s="58"/>
+      <c r="N995" s="58"/>
+      <c r="O995" s="26"/>
+      <c r="P995" s="26"/>
+      <c r="Q995" s="26">
+        <v>0</v>
+      </c>
+      <c r="R995" s="26"/>
+      <c r="S995" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="T995" s="25"/>
+      <c r="U995" s="25"/>
+      <c r="V995" s="26"/>
+      <c r="W995" s="23"/>
+      <c r="X995" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
@@ -73411,7 +73459,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J994">
+  <conditionalFormatting sqref="J2:J995">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -73475,6 +73523,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -73651,7 +73705,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -73660,20 +73714,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3469" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6251DEB2-332A-44A2-A0EB-08E8E3D12F72}"/>
+  <xr:revisionPtr revIDLastSave="3511" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B8642F2-600D-4005-BA65-4B9CC4B36470}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16046" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16116" uniqueCount="814">
   <si>
     <t>ANO</t>
   </si>
@@ -1469,19 +1469,19 @@
     <t>AGUARDANDO MATERIAL</t>
   </si>
   <si>
+    <t xml:space="preserve">Pintura dos armários e prateleiras do pintor. Ao lado do pintor também possui uma tampa da caixa de passagem de água que não está pintado. </t>
+  </si>
+  <si>
+    <t>Trocar tela por chapa de aço e pintar armário da equipe da civil.</t>
+  </si>
+  <si>
+    <t>S23 - MACH 700</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
     <t>ABERTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pintura dos armários e prateleiras do pintor. Ao lado do pintor também possui uma tampa da caixa de passagem de água que não está pintado. </t>
-  </si>
-  <si>
-    <t>Trocar tela por chapa de aço e pintar armário da equipe da civil.</t>
-  </si>
-  <si>
-    <t>S23 - MACH 700</t>
-  </si>
-  <si>
-    <t>Miguel</t>
   </si>
   <si>
     <t xml:space="preserve">Fabricar um suporte para armazenamento de hastes, para a tornearia. </t>
@@ -1986,34 +1986,34 @@
     <t>Eliquelson Batista Lima</t>
   </si>
   <si>
+    <t>ADM / Predial</t>
+  </si>
+  <si>
+    <t>Francisco de Assis Fernandes Costa</t>
+  </si>
+  <si>
+    <t>Leandro Jeonimo da Silva Santos</t>
+  </si>
+  <si>
+    <t>Sérgio Rocha da Silva</t>
+  </si>
+  <si>
+    <t>Fabricar Redução BW p/ NQ</t>
+  </si>
+  <si>
+    <t>Rosca da cabeça do mandril tá gasto</t>
+  </si>
+  <si>
+    <t>Manutenção nos mordentes das morças: as morças não fecham na haste de SPT</t>
+  </si>
+  <si>
+    <t>Abertura de roscas em revestimentos HW</t>
+  </si>
+  <si>
+    <t>Um torpedo e uma garra, de 2" e 1" 1/4</t>
+  </si>
+  <si>
     <t>Fabricar 05 hastes HQ DE 1 M</t>
-  </si>
-  <si>
-    <t>ADM / Predial</t>
-  </si>
-  <si>
-    <t>Francisco de Assis Fernandes Costa</t>
-  </si>
-  <si>
-    <t>Leandro Jeonimo da Silva Santos</t>
-  </si>
-  <si>
-    <t>Sérgio Rocha da Silva</t>
-  </si>
-  <si>
-    <t>Fabricar Redução BW p/ NQ</t>
-  </si>
-  <si>
-    <t>Rosca da cabeça do mandril tá gasto</t>
-  </si>
-  <si>
-    <t>Manutenção nos mordentes das morças: as morças não fecham na haste de SPT</t>
-  </si>
-  <si>
-    <t>Abertura de roscas em revestimentos HW</t>
-  </si>
-  <si>
-    <t>Um torpedo e uma garra, de 2" e 1" 1/4</t>
   </si>
   <si>
     <t xml:space="preserve">Fabricação de 20 grades de isolamento físico </t>
@@ -2032,13 +2032,13 @@
 fabricação de 5 revestimento hw 1,00m
 fabricação de 5 revestimento hw 0,50m
 fabricação de 4 hastes hq 1,50m
-fabricação de 4 hastes hq 1,00m
+fabricação de 2 hastes hq 1,00m
 fabricação de hastes hq 0,50m
 fabricação de  4 redução bw-femea x hq macho
-fabricação de 30 capacete metalico (proteção de instrumentação)</t>
-  </si>
-  <si>
-    <t>AGUARDANDO MATERIAL PARA CAPACETE</t>
+fabricação de 5 capacete metalico (proteção de instrumentação)</t>
+  </si>
+  <si>
+    <t>EM FABRICAÇÃO ( capacetes de instrumentos)</t>
   </si>
   <si>
     <t xml:space="preserve">Esteira da máquina caiu </t>
@@ -2581,7 +2581,7 @@
     <t>117-23 PIAUÍ NIQUEL</t>
   </si>
   <si>
-    <t>01 - adaptação de redução de fêmea BW para macho HQ
+    <t>01 - adaptação de redução de fêmea NQ para macho HW
 01 - adaptação de redução de fêmea BW para macho HW</t>
   </si>
   <si>
@@ -2614,11 +2614,50 @@
     <t xml:space="preserve">Adequação para mobilização </t>
   </si>
   <si>
-    <t xml:space="preserve">
-06 haste NQ c/ 1,5m</t>
+    <t>03 haste NQ c/ 1,5m</t>
   </si>
   <si>
     <t xml:space="preserve">Fabricação de suporte para capacetes </t>
+  </si>
+  <si>
+    <t>Fábrica dois pares de cavaleta para hastes/revestimento.</t>
+  </si>
+  <si>
+    <t>Troca do reparo do cilindro da morsa - O-rings;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 - Camisa Denison </t>
+  </si>
+  <si>
+    <t>01 - Torpedo roscável para haste de percussão de 1"</t>
+  </si>
+  <si>
+    <t>FABRICAÇÃO DE 10 ALÇADOS DE HASTE PERCUSSIVA (NOVO MODELO)</t>
+  </si>
+  <si>
+    <t>Manutenção no Reset da Sonda</t>
+  </si>
+  <si>
+    <t>Manutenção no motor de partida da sonda</t>
+  </si>
+  <si>
+    <t>046-24 VALE - BARRAGEM DO SOSSEGO</t>
+  </si>
+  <si>
+    <t>Adilson Monteiro Santos</t>
+  </si>
+  <si>
+    <t>1 haste HQ de 1 metro
+1 haste HQ de 1,5 metro</t>
+  </si>
+  <si>
+    <t>SOSSEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABRICACAO DE 02 CASINHAS DE PROTEÇÃO DO BANHEIRO QUÍMICO </t>
+  </si>
+  <si>
+    <t>11 CAPACETES PARA INSTRUMENTOS</t>
   </si>
 </sst>
 </file>
@@ -3901,8 +3940,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X995" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X995" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1005" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X1005" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4247,10 +4286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA995"/>
+  <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S952" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Y957" sqref="Y957"/>
+    <sheetView tabSelected="1" topLeftCell="H857" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J888" sqref="J888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -52324,7 +52363,7 @@
         <v>48</v>
       </c>
       <c r="J660" s="47" t="s">
-        <v>442</v>
+        <v>29</v>
       </c>
       <c r="K660" s="46"/>
       <c r="L660" s="45" t="s">
@@ -52345,7 +52384,7 @@
         <v>433</v>
       </c>
       <c r="S660" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="T660" s="8"/>
       <c r="U660" s="1" t="s">
@@ -53065,7 +53104,7 @@
         <v>433</v>
       </c>
       <c r="S670" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T670" s="8"/>
       <c r="U670" s="1" t="s">
@@ -53676,7 +53715,7 @@
         <v>24</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G679" s="1" t="s">
         <v>275</v>
@@ -54327,7 +54366,7 @@
         <v>24</v>
       </c>
       <c r="G688" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H688" s="47" t="s">
         <v>297</v>
@@ -54480,7 +54519,7 @@
         <v>35</v>
       </c>
       <c r="J690" s="47" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K690" s="1"/>
       <c r="L690" s="1"/>
@@ -58646,7 +58685,7 @@
         <v>465</v>
       </c>
       <c r="F748" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G748" s="1" t="s">
         <v>426</v>
@@ -60170,7 +60209,7 @@
         <v>490</v>
       </c>
       <c r="F769" s="47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G769" s="1" t="s">
         <v>426</v>
@@ -61780,7 +61819,7 @@
         <v>35</v>
       </c>
       <c r="J791" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K791" s="1"/>
       <c r="L791" s="1"/>
@@ -61832,7 +61871,7 @@
         <v>35</v>
       </c>
       <c r="J792" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K792" s="1"/>
       <c r="L792" s="1"/>
@@ -61884,7 +61923,7 @@
         <v>35</v>
       </c>
       <c r="J793" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K793" s="1"/>
       <c r="L793" s="1"/>
@@ -61936,7 +61975,7 @@
         <v>35</v>
       </c>
       <c r="J794" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K794" s="1"/>
       <c r="L794" s="1"/>
@@ -62466,7 +62505,7 @@
         <v>28</v>
       </c>
       <c r="J804" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K804" s="1"/>
       <c r="L804" s="1"/>
@@ -62914,7 +62953,7 @@
         <v>35</v>
       </c>
       <c r="J812" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K812" s="1"/>
       <c r="L812" s="1"/>
@@ -63302,7 +63341,7 @@
         <v>465</v>
       </c>
       <c r="F819" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G819" s="1" t="s">
         <v>577</v>
@@ -63356,7 +63395,7 @@
         <v>465</v>
       </c>
       <c r="F820" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G820" s="1" t="s">
         <v>577</v>
@@ -64420,7 +64459,7 @@
       <c r="W839" s="5"/>
       <c r="X839" s="5"/>
     </row>
-    <row r="840" spans="1:27">
+    <row r="840" spans="1:27" hidden="1">
       <c r="A840" s="47">
         <f>YEAR(D840)</f>
         <v>2025</v>
@@ -64430,19 +64469,19 @@
         <v>1</v>
       </c>
       <c r="C840" s="1">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D840" s="46">
-        <v>45687</v>
+        <v>45687.648344907408</v>
       </c>
       <c r="E840" s="1" t="s">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="F840" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G840" s="1" t="s">
-        <v>40</v>
+        <v>546</v>
+      </c>
+      <c r="G840" s="52" t="s">
+        <v>564</v>
       </c>
       <c r="H840" s="1" t="s">
         <v>297</v>
@@ -64453,85 +64492,71 @@
       <c r="J840" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K840" s="51">
-        <v>45685</v>
-      </c>
-      <c r="L840" s="45"/>
-      <c r="M840" s="46">
-        <v>45712</v>
-      </c>
+      <c r="K840" s="1"/>
+      <c r="L840" s="1"/>
+      <c r="M840" s="1"/>
       <c r="N840" s="1"/>
-      <c r="O840" s="45" t="s">
-        <v>433</v>
-      </c>
+      <c r="O840" s="1"/>
       <c r="P840" s="1"/>
-      <c r="Q840" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="R840" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="S840" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="T840" s="8">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="Q840" s="8">
+        <v>0</v>
+      </c>
+      <c r="R840" s="1"/>
+      <c r="S840" s="2"/>
+      <c r="T840" s="1"/>
       <c r="U840" s="1"/>
       <c r="V840" s="1"/>
       <c r="W840" s="5"/>
-      <c r="X840" s="11" t="s">
-        <v>555</v>
-      </c>
+      <c r="X840" s="6"/>
     </row>
     <row r="841" spans="1:27" hidden="1">
-      <c r="A841" s="47">
+      <c r="A841" s="48">
         <f>YEAR(D841)</f>
         <v>2025</v>
       </c>
-      <c r="B841" s="1">
+      <c r="B841" s="3">
         <f>MONTH(D841)</f>
         <v>1</v>
       </c>
       <c r="C841" s="1">
-        <v>856</v>
-      </c>
-      <c r="D841" s="46">
-        <v>45687.648344907408</v>
-      </c>
-      <c r="E841" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D841" s="49">
+        <v>45687.649837962963</v>
+      </c>
+      <c r="E841" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F841" s="1" t="s">
+      <c r="F841" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="G841" s="52" t="s">
-        <v>564</v>
-      </c>
-      <c r="H841" s="1" t="s">
+      <c r="G841" s="41" t="s">
+        <v>611</v>
+      </c>
+      <c r="H841" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I841" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J841" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K841" s="1"/>
-      <c r="L841" s="1"/>
-      <c r="M841" s="1"/>
-      <c r="N841" s="1"/>
-      <c r="O841" s="1"/>
-      <c r="P841" s="1"/>
-      <c r="Q841" s="8">
+      <c r="J841" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K841" s="3"/>
+      <c r="L841" s="3"/>
+      <c r="M841" s="3"/>
+      <c r="N841" s="3"/>
+      <c r="O841" s="3"/>
+      <c r="P841" s="3"/>
+      <c r="Q841" s="7">
         <v>0</v>
       </c>
-      <c r="R841" s="1"/>
-      <c r="S841" s="2"/>
-      <c r="T841" s="1"/>
-      <c r="U841" s="1"/>
-      <c r="V841" s="1"/>
-      <c r="W841" s="5"/>
+      <c r="R841" s="3"/>
+      <c r="S841" s="4"/>
+      <c r="T841" s="3"/>
+      <c r="U841" s="3"/>
+      <c r="V841" s="3"/>
+      <c r="W841" s="6"/>
       <c r="X841" s="6"/>
     </row>
     <row r="842" spans="1:27" hidden="1">
@@ -64544,28 +64569,28 @@
         <v>1</v>
       </c>
       <c r="C842" s="1">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D842" s="49">
-        <v>45687.649837962963</v>
+        <v>45686.686238425929</v>
       </c>
       <c r="E842" s="3" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="F842" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="G842" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="G842" s="3" t="s">
         <v>612</v>
       </c>
       <c r="H842" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I842" s="45" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J842" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="K842" s="3"/>
       <c r="L842" s="3"/>
@@ -64573,8 +64598,8 @@
       <c r="N842" s="3"/>
       <c r="O842" s="3"/>
       <c r="P842" s="3"/>
-      <c r="Q842" s="7">
-        <v>0</v>
+      <c r="Q842" s="3">
+        <v>208</v>
       </c>
       <c r="R842" s="3"/>
       <c r="S842" s="4"/>
@@ -64594,22 +64619,22 @@
         <v>1</v>
       </c>
       <c r="C843" s="1">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D843" s="49">
-        <v>45686.686238425929</v>
+        <v>45687.688009259262</v>
       </c>
       <c r="E843" s="3" t="s">
         <v>473</v>
       </c>
       <c r="F843" s="3" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="G843" s="3" t="s">
         <v>613</v>
       </c>
       <c r="H843" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I843" s="45" t="s">
         <v>28</v>
@@ -64624,7 +64649,7 @@
       <c r="O843" s="3"/>
       <c r="P843" s="3"/>
       <c r="Q843" s="3">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="R843" s="3"/>
       <c r="S843" s="4"/>
@@ -64644,25 +64669,25 @@
         <v>1</v>
       </c>
       <c r="C844" s="1">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D844" s="49">
-        <v>45687.688009259262</v>
+        <v>45687.725104166668</v>
       </c>
       <c r="E844" s="3" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F844" s="3" t="s">
-        <v>438</v>
+        <v>111</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I844" s="45" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J844" s="3" t="s">
         <v>29</v>
@@ -64674,7 +64699,7 @@
       <c r="O844" s="3"/>
       <c r="P844" s="3"/>
       <c r="Q844" s="3">
-        <v>9</v>
+        <v>1265</v>
       </c>
       <c r="R844" s="3"/>
       <c r="S844" s="4"/>
@@ -64694,25 +64719,25 @@
         <v>1</v>
       </c>
       <c r="C845" s="1">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D845" s="49">
-        <v>45687.725104166668</v>
+        <v>45687.776539351849</v>
       </c>
       <c r="E845" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F845" s="3" t="s">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="G845" s="3" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="H845" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I845" s="45" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J845" s="3" t="s">
         <v>29</v>
@@ -64724,7 +64749,7 @@
       <c r="O845" s="3"/>
       <c r="P845" s="3"/>
       <c r="Q845" s="3">
-        <v>1265</v>
+        <v>480</v>
       </c>
       <c r="R845" s="3"/>
       <c r="S845" s="4"/>
@@ -64744,28 +64769,28 @@
         <v>1</v>
       </c>
       <c r="C846" s="1">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D846" s="49">
-        <v>45687.776539351849</v>
+        <v>45687.818611111114</v>
       </c>
       <c r="E846" s="3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F846" s="3" t="s">
-        <v>228</v>
+        <v>546</v>
       </c>
       <c r="G846" s="3" t="s">
-        <v>569</v>
+        <v>614</v>
       </c>
       <c r="H846" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I846" s="45" t="s">
-        <v>28</v>
+        <v>297</v>
+      </c>
+      <c r="I846" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J846" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="K846" s="3"/>
       <c r="L846" s="3"/>
@@ -64774,7 +64799,7 @@
       <c r="O846" s="3"/>
       <c r="P846" s="3"/>
       <c r="Q846" s="3">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="R846" s="3"/>
       <c r="S846" s="4"/>
@@ -64794,28 +64819,28 @@
         <v>1</v>
       </c>
       <c r="C847" s="1">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D847" s="49">
-        <v>45687.818611111114</v>
+        <v>45687.872094907405</v>
       </c>
       <c r="E847" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F847" s="3" t="s">
-        <v>546</v>
+        <v>295</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="H847" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="I847" s="1" t="s">
-        <v>42</v>
+        <v>299</v>
+      </c>
+      <c r="I847" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="J847" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="K847" s="3"/>
       <c r="L847" s="3"/>
@@ -64824,7 +64849,7 @@
       <c r="O847" s="3"/>
       <c r="P847" s="3"/>
       <c r="Q847" s="3">
-        <v>0</v>
+        <v>15022</v>
       </c>
       <c r="R847" s="3"/>
       <c r="S847" s="4"/>
@@ -64844,19 +64869,19 @@
         <v>1</v>
       </c>
       <c r="C848" s="1">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D848" s="49">
-        <v>45687.872094907405</v>
+        <v>45688.581076388888</v>
       </c>
       <c r="E848" s="3" t="s">
-        <v>451</v>
+        <v>556</v>
       </c>
       <c r="F848" s="3" t="s">
-        <v>295</v>
+        <v>524</v>
       </c>
       <c r="G848" s="3" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="H848" s="3" t="s">
         <v>299</v>
@@ -64874,10 +64899,12 @@
       <c r="O848" s="3"/>
       <c r="P848" s="3"/>
       <c r="Q848" s="3">
-        <v>15022</v>
+        <v>398</v>
       </c>
       <c r="R848" s="3"/>
-      <c r="S848" s="4"/>
+      <c r="S848" s="4" t="s">
+        <v>615</v>
+      </c>
       <c r="T848" s="3"/>
       <c r="U848" s="3"/>
       <c r="V848" s="3"/>
@@ -64894,25 +64921,25 @@
         <v>1</v>
       </c>
       <c r="C849" s="1">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D849" s="49">
-        <v>45688.581076388888</v>
+        <v>45688.670856481483</v>
       </c>
       <c r="E849" s="3" t="s">
-        <v>556</v>
+        <v>461</v>
       </c>
       <c r="F849" s="3" t="s">
-        <v>524</v>
+        <v>279</v>
       </c>
       <c r="G849" s="3" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="H849" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I849" s="45" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J849" s="3" t="s">
         <v>29</v>
@@ -64924,7 +64951,7 @@
       <c r="O849" s="3"/>
       <c r="P849" s="3"/>
       <c r="Q849" s="3">
-        <v>398</v>
+        <v>991</v>
       </c>
       <c r="R849" s="3"/>
       <c r="S849" s="4" t="s">
@@ -64933,8 +64960,12 @@
       <c r="T849" s="3"/>
       <c r="U849" s="3"/>
       <c r="V849" s="3"/>
-      <c r="W849" s="6"/>
-      <c r="X849" s="6"/>
+      <c r="W849" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="X849" s="6" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="850" spans="1:24" hidden="1">
       <c r="A850" s="48">
@@ -64946,25 +64977,25 @@
         <v>1</v>
       </c>
       <c r="C850" s="1">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D850" s="49">
-        <v>45688.670856481483</v>
+        <v>45688.693136574075</v>
       </c>
       <c r="E850" s="3" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="F850" s="3" t="s">
-        <v>279</v>
+        <v>438</v>
       </c>
       <c r="G850" s="3" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="H850" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I850" s="45" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J850" s="3" t="s">
         <v>29</v>
@@ -64976,7 +65007,7 @@
       <c r="O850" s="3"/>
       <c r="P850" s="3"/>
       <c r="Q850" s="3">
-        <v>991</v>
+        <v>10</v>
       </c>
       <c r="R850" s="3"/>
       <c r="S850" s="4" t="s">
@@ -64985,12 +65016,8 @@
       <c r="T850" s="3"/>
       <c r="U850" s="3"/>
       <c r="V850" s="3"/>
-      <c r="W850" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="X850" s="6" t="s">
-        <v>555</v>
-      </c>
+      <c r="W850" s="6"/>
+      <c r="X850" s="6"/>
     </row>
     <row r="851" spans="1:24" hidden="1">
       <c r="A851" s="48">
@@ -64999,31 +65026,31 @@
       </c>
       <c r="B851" s="3">
         <f>MONTH(D851)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C851" s="1">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D851" s="49">
-        <v>45688.693136574075</v>
+        <v>45691.49496527778</v>
       </c>
       <c r="E851" s="3" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="F851" s="3" t="s">
-        <v>438</v>
+        <v>546</v>
       </c>
       <c r="G851" s="3" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="H851" s="3" t="s">
         <v>297</v>
       </c>
       <c r="I851" s="45" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J851" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="K851" s="3"/>
       <c r="L851" s="3"/>
@@ -65032,7 +65059,7 @@
       <c r="O851" s="3"/>
       <c r="P851" s="3"/>
       <c r="Q851" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R851" s="3"/>
       <c r="S851" s="4" t="s">
@@ -65041,8 +65068,12 @@
       <c r="T851" s="3"/>
       <c r="U851" s="3"/>
       <c r="V851" s="3"/>
-      <c r="W851" s="6"/>
-      <c r="X851" s="6"/>
+      <c r="W851" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="X851" s="6" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="852" spans="1:24" hidden="1">
       <c r="A852" s="48">
@@ -65054,19 +65085,19 @@
         <v>2</v>
       </c>
       <c r="C852" s="1">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D852" s="49">
-        <v>45691.49496527778</v>
+        <v>45691.503622685188</v>
       </c>
       <c r="E852" s="3" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F852" s="3" t="s">
-        <v>546</v>
+        <v>279</v>
       </c>
       <c r="G852" s="3" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="H852" s="3" t="s">
         <v>297</v>
@@ -65075,7 +65106,7 @@
         <v>35</v>
       </c>
       <c r="J852" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="K852" s="3"/>
       <c r="L852" s="3"/>
@@ -65084,7 +65115,7 @@
       <c r="O852" s="3"/>
       <c r="P852" s="3"/>
       <c r="Q852" s="3">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="R852" s="3"/>
       <c r="S852" s="4" t="s">
@@ -65093,64 +65124,70 @@
       <c r="T852" s="3"/>
       <c r="U852" s="3"/>
       <c r="V852" s="3"/>
-      <c r="W852" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="X852" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="853" spans="1:24" hidden="1">
-      <c r="A853" s="48">
+      <c r="W852" s="6"/>
+      <c r="X852" s="6"/>
+    </row>
+    <row r="853" spans="1:24">
+      <c r="A853" s="47">
         <f>YEAR(D853)</f>
         <v>2025</v>
       </c>
-      <c r="B853" s="3">
+      <c r="B853" s="1">
         <f>MONTH(D853)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C853" s="1">
-        <v>868</v>
-      </c>
-      <c r="D853" s="49">
-        <v>45691.503622685188</v>
-      </c>
-      <c r="E853" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F853" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G853" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="H853" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="D853" s="46">
+        <v>45687</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F853" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G853" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H853" s="1" t="s">
         <v>297</v>
       </c>
       <c r="I853" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J853" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K853" s="3"/>
-      <c r="L853" s="3"/>
-      <c r="M853" s="3"/>
-      <c r="N853" s="3"/>
-      <c r="O853" s="3"/>
-      <c r="P853" s="3"/>
-      <c r="Q853" s="3">
-        <v>483</v>
-      </c>
-      <c r="R853" s="3"/>
-      <c r="S853" s="4" t="s">
+      <c r="J853" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K853" s="51">
+        <v>45685</v>
+      </c>
+      <c r="L853" s="45"/>
+      <c r="M853" s="46">
+        <v>45712</v>
+      </c>
+      <c r="N853" s="1"/>
+      <c r="O853" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="P853" s="1"/>
+      <c r="Q853" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="R853" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="S853" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="T853" s="3"/>
-      <c r="U853" s="3"/>
-      <c r="V853" s="3"/>
-      <c r="W853" s="6"/>
-      <c r="X853" s="6"/>
+      <c r="T853" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U853" s="1"/>
+      <c r="V853" s="1"/>
+      <c r="W853" s="5"/>
+      <c r="X853" s="11"/>
     </row>
     <row r="854" spans="1:24">
       <c r="A854" s="48">
@@ -65174,7 +65211,7 @@
         <v>438</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>297</v>
@@ -65183,7 +65220,7 @@
         <v>35</v>
       </c>
       <c r="J854" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K854" s="3"/>
       <c r="L854" s="3"/>
@@ -65306,7 +65343,7 @@
       </c>
       <c r="R856" s="3"/>
       <c r="S856" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T856" s="3"/>
       <c r="U856" s="3"/>
@@ -65344,14 +65381,16 @@
         <v>35</v>
       </c>
       <c r="J857" s="3" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K857" s="49">
         <v>45700</v>
       </c>
       <c r="L857" s="3"/>
       <c r="M857" s="3"/>
-      <c r="N857" s="3"/>
+      <c r="N857" s="49">
+        <v>45726</v>
+      </c>
       <c r="O857" s="3"/>
       <c r="P857" s="3"/>
       <c r="Q857" s="3">
@@ -65361,8 +65400,12 @@
       <c r="S857" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="T857" s="3"/>
-      <c r="U857" s="3"/>
+      <c r="T857" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="U857" s="7">
+        <v>0.75</v>
+      </c>
       <c r="V857" s="3">
         <v>9023</v>
       </c>
@@ -67048,7 +67091,7 @@
         <v>440</v>
       </c>
       <c r="X887" s="6" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
     </row>
     <row r="888" spans="1:24">
@@ -67082,7 +67125,7 @@
         <v>35</v>
       </c>
       <c r="J888" s="3" t="s">
-        <v>442</v>
+        <v>29</v>
       </c>
       <c r="K888" s="3"/>
       <c r="L888" s="3"/>
@@ -68216,7 +68259,7 @@
         <v>35</v>
       </c>
       <c r="J906" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K906" s="3"/>
       <c r="L906" s="3"/>
@@ -68819,7 +68862,7 @@
         <v>399</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>297</v>
@@ -69570,7 +69613,7 @@
         <v>35</v>
       </c>
       <c r="J928" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K928" s="49"/>
       <c r="L928" s="3"/>
@@ -70149,7 +70192,7 @@
         <v>546</v>
       </c>
       <c r="G938" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H938" s="26" t="s">
         <v>297</v>
@@ -70553,7 +70596,7 @@
         <v>546</v>
       </c>
       <c r="G945" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H945" s="26" t="s">
         <v>297</v>
@@ -70630,7 +70673,7 @@
         <v>741</v>
       </c>
       <c r="J946" s="44" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K946" s="58">
         <v>45712</v>
@@ -71041,7 +71084,7 @@
         <v>546</v>
       </c>
       <c r="G953" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H953" s="26" t="s">
         <v>297</v>
@@ -71050,7 +71093,7 @@
         <v>35</v>
       </c>
       <c r="J953" s="57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K953" s="58"/>
       <c r="L953" s="26"/>
@@ -71190,7 +71233,9 @@
       <c r="T955" s="25">
         <v>0.625</v>
       </c>
-      <c r="U955" s="25"/>
+      <c r="U955" s="25">
+        <v>0.3888888888888889</v>
+      </c>
       <c r="V955" s="26"/>
       <c r="W955" s="23" t="s">
         <v>440</v>
@@ -71230,7 +71275,7 @@
         <v>741</v>
       </c>
       <c r="J956" s="57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K956" s="58"/>
       <c r="L956" s="26"/>
@@ -71348,7 +71393,7 @@
         <v>35</v>
       </c>
       <c r="J958" s="57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K958" s="58"/>
       <c r="L958" s="26"/>
@@ -71395,7 +71440,7 @@
         <v>399</v>
       </c>
       <c r="G959" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H959" s="26" t="s">
         <v>297</v>
@@ -71503,7 +71548,7 @@
         <v>546</v>
       </c>
       <c r="G961" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H961" s="26" t="s">
         <v>297</v>
@@ -71626,7 +71671,7 @@
         <v>28</v>
       </c>
       <c r="J963" s="57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K963" s="58"/>
       <c r="L963" s="26"/>
@@ -71738,7 +71783,7 @@
         <v>35</v>
       </c>
       <c r="J965" s="57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K965" s="58"/>
       <c r="L965" s="26"/>
@@ -71852,7 +71897,7 @@
         <v>42</v>
       </c>
       <c r="J967" s="57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K967" s="58"/>
       <c r="L967" s="26"/>
@@ -71963,7 +72008,7 @@
         <v>546</v>
       </c>
       <c r="G969" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H969" s="26" t="s">
         <v>297</v>
@@ -72134,7 +72179,7 @@
         <v>771</v>
       </c>
       <c r="F972" s="26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G972" s="26" t="s">
         <v>772</v>
@@ -72146,7 +72191,7 @@
         <v>28</v>
       </c>
       <c r="J972" s="57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K972" s="58"/>
       <c r="L972" s="26"/>
@@ -72532,7 +72577,7 @@
         <v>48</v>
       </c>
       <c r="J979" s="57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K979" s="58"/>
       <c r="L979" s="26"/>
@@ -72577,7 +72622,7 @@
         <v>604</v>
       </c>
       <c r="G980" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H980" s="26" t="s">
         <v>297</v>
@@ -72841,7 +72886,7 @@
       </c>
       <c r="X984" s="23"/>
     </row>
-    <row r="985" spans="1:24" ht="34.5" customHeight="1">
+    <row r="985" spans="1:24" ht="39" customHeight="1">
       <c r="A985" s="87">
         <f>YEAR(D985)</f>
         <v>2025</v>
@@ -72877,7 +72922,9 @@
       <c r="K985" s="58"/>
       <c r="L985" s="26"/>
       <c r="M985" s="58"/>
-      <c r="N985" s="58"/>
+      <c r="N985" s="58">
+        <v>45726</v>
+      </c>
       <c r="O985" s="26"/>
       <c r="P985" s="26"/>
       <c r="Q985" s="26">
@@ -72971,7 +73018,7 @@
         <v>546</v>
       </c>
       <c r="G987" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H987" s="26" t="s">
         <v>297</v>
@@ -72980,7 +73027,7 @@
         <v>28</v>
       </c>
       <c r="J987" s="57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K987" s="58"/>
       <c r="L987" s="26"/>
@@ -73025,7 +73072,7 @@
         <v>546</v>
       </c>
       <c r="G988" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H988" s="26" t="s">
         <v>297</v>
@@ -73255,7 +73302,7 @@
         <v>546</v>
       </c>
       <c r="G992" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H992" s="26" t="s">
         <v>297</v>
@@ -73264,7 +73311,7 @@
         <v>42</v>
       </c>
       <c r="J992" s="57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K992" s="58"/>
       <c r="L992" s="26"/>
@@ -73376,7 +73423,7 @@
         <v>795</v>
       </c>
       <c r="J994" s="57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K994" s="58"/>
       <c r="L994" s="26"/>
@@ -73423,7 +73470,7 @@
         <v>546</v>
       </c>
       <c r="G995" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H995" s="26" t="s">
         <v>297</v>
@@ -73432,7 +73479,7 @@
         <v>42</v>
       </c>
       <c r="J995" s="57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K995" s="58"/>
       <c r="L995" s="26"/>
@@ -73453,13 +73500,543 @@
       <c r="W995" s="23"/>
       <c r="X995" s="23"/>
     </row>
+    <row r="996" spans="1:24" ht="15" customHeight="1">
+      <c r="A996" s="87">
+        <f>YEAR(D996)</f>
+        <v>2025</v>
+      </c>
+      <c r="B996" s="26">
+        <f>MONTH(D996)</f>
+        <v>3</v>
+      </c>
+      <c r="C996" s="44">
+        <v>1011</v>
+      </c>
+      <c r="D996" s="58">
+        <v>45723</v>
+      </c>
+      <c r="E996" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="F996" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G996" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="H996" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I996" s="44" t="s">
+        <v>795</v>
+      </c>
+      <c r="J996" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K996" s="58"/>
+      <c r="L996" s="26"/>
+      <c r="M996" s="58"/>
+      <c r="N996" s="58"/>
+      <c r="O996" s="26"/>
+      <c r="P996" s="26"/>
+      <c r="Q996" s="26">
+        <v>0</v>
+      </c>
+      <c r="R996" s="26"/>
+      <c r="S996" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="T996" s="25"/>
+      <c r="U996" s="25"/>
+      <c r="V996" s="26"/>
+      <c r="W996" s="23"/>
+      <c r="X996" s="23"/>
+    </row>
+    <row r="997" spans="1:24" ht="15" customHeight="1">
+      <c r="A997" s="87">
+        <f>YEAR(D997)</f>
+        <v>2025</v>
+      </c>
+      <c r="B997" s="26">
+        <f>MONTH(D997)</f>
+        <v>3</v>
+      </c>
+      <c r="C997" s="44">
+        <v>1012</v>
+      </c>
+      <c r="D997" s="58">
+        <v>45726</v>
+      </c>
+      <c r="E997" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F997" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="G997" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="H997" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I997" s="44" t="s">
+        <v>655</v>
+      </c>
+      <c r="J997" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K997" s="58"/>
+      <c r="L997" s="26"/>
+      <c r="M997" s="58"/>
+      <c r="N997" s="58"/>
+      <c r="O997" s="26"/>
+      <c r="P997" s="26"/>
+      <c r="Q997" s="26">
+        <v>25</v>
+      </c>
+      <c r="R997" s="26"/>
+      <c r="S997" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="T997" s="25"/>
+      <c r="U997" s="25"/>
+      <c r="V997" s="26"/>
+      <c r="W997" s="23"/>
+      <c r="X997" s="23"/>
+    </row>
+    <row r="998" spans="1:24" ht="15" customHeight="1">
+      <c r="A998" s="87">
+        <f>YEAR(D998)</f>
+        <v>2025</v>
+      </c>
+      <c r="B998" s="26">
+        <f>MONTH(D998)</f>
+        <v>3</v>
+      </c>
+      <c r="C998" s="44">
+        <v>1013</v>
+      </c>
+      <c r="D998" s="58">
+        <v>45723</v>
+      </c>
+      <c r="E998" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="F998" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G998" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="H998" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I998" s="44" t="s">
+        <v>795</v>
+      </c>
+      <c r="J998" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="K998" s="58"/>
+      <c r="L998" s="26"/>
+      <c r="M998" s="58"/>
+      <c r="N998" s="58">
+        <v>45726</v>
+      </c>
+      <c r="O998" s="26"/>
+      <c r="P998" s="26"/>
+      <c r="Q998" s="26">
+        <v>0</v>
+      </c>
+      <c r="R998" s="26"/>
+      <c r="S998" s="24" t="s">
+        <v>803</v>
+      </c>
+      <c r="T998" s="25"/>
+      <c r="U998" s="25"/>
+      <c r="V998" s="26"/>
+      <c r="W998" s="23"/>
+      <c r="X998" s="23"/>
+    </row>
+    <row r="999" spans="1:24" ht="15" customHeight="1">
+      <c r="A999" s="87">
+        <f>YEAR(D999)</f>
+        <v>2025</v>
+      </c>
+      <c r="B999" s="26">
+        <f>MONTH(D999)</f>
+        <v>3</v>
+      </c>
+      <c r="C999" s="44">
+        <v>1014</v>
+      </c>
+      <c r="D999" s="58">
+        <v>45726</v>
+      </c>
+      <c r="E999" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="F999" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G999" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="H999" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I999" s="44" t="s">
+        <v>795</v>
+      </c>
+      <c r="J999" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K999" s="58"/>
+      <c r="L999" s="26"/>
+      <c r="M999" s="58"/>
+      <c r="N999" s="58"/>
+      <c r="O999" s="26"/>
+      <c r="P999" s="26"/>
+      <c r="Q999" s="26">
+        <v>0</v>
+      </c>
+      <c r="R999" s="26"/>
+      <c r="S999" s="24" t="s">
+        <v>804</v>
+      </c>
+      <c r="T999" s="25"/>
+      <c r="U999" s="25"/>
+      <c r="V999" s="26"/>
+      <c r="W999" s="23"/>
+      <c r="X999" s="23"/>
+    </row>
+    <row r="1000" spans="1:24" ht="15" customHeight="1">
+      <c r="A1000" s="87">
+        <f>YEAR(D1000)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1000" s="26">
+        <f>MONTH(D1000)</f>
+        <v>3</v>
+      </c>
+      <c r="C1000" s="44">
+        <v>1015</v>
+      </c>
+      <c r="D1000" s="58">
+        <v>45726</v>
+      </c>
+      <c r="E1000" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1000" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G1000" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="H1000" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1000" s="44" t="s">
+        <v>795</v>
+      </c>
+      <c r="J1000" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1000" s="58"/>
+      <c r="L1000" s="26"/>
+      <c r="M1000" s="58"/>
+      <c r="N1000" s="58"/>
+      <c r="O1000" s="26"/>
+      <c r="P1000" s="26"/>
+      <c r="Q1000" s="26">
+        <v>0</v>
+      </c>
+      <c r="R1000" s="26"/>
+      <c r="S1000" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="T1000" s="25"/>
+      <c r="U1000" s="25"/>
+      <c r="V1000" s="26"/>
+      <c r="W1000" s="23"/>
+      <c r="X1000" s="23"/>
+    </row>
+    <row r="1001" spans="1:24" ht="15" customHeight="1">
+      <c r="A1001" s="87">
+        <f>YEAR(D1001)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1001" s="26">
+        <f>MONTH(D1001)</f>
+        <v>3</v>
+      </c>
+      <c r="C1001" s="44">
+        <v>1016</v>
+      </c>
+      <c r="D1001" s="58">
+        <v>45726</v>
+      </c>
+      <c r="E1001" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1001" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1001" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="H1001" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1001" s="44" t="s">
+        <v>655</v>
+      </c>
+      <c r="J1001" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1001" s="58"/>
+      <c r="L1001" s="26"/>
+      <c r="M1001" s="58"/>
+      <c r="N1001" s="58"/>
+      <c r="O1001" s="26"/>
+      <c r="P1001" s="26"/>
+      <c r="Q1001" s="26">
+        <v>25</v>
+      </c>
+      <c r="R1001" s="26"/>
+      <c r="S1001" s="24" t="s">
+        <v>806</v>
+      </c>
+      <c r="T1001" s="25"/>
+      <c r="U1001" s="25"/>
+      <c r="V1001" s="26"/>
+      <c r="W1001" s="23"/>
+      <c r="X1001" s="23"/>
+    </row>
+    <row r="1002" spans="1:24" ht="15" customHeight="1">
+      <c r="A1002" s="87">
+        <f>YEAR(D1002)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1002" s="26">
+        <f>MONTH(D1002)</f>
+        <v>3</v>
+      </c>
+      <c r="C1002" s="44">
+        <v>1017</v>
+      </c>
+      <c r="D1002" s="58">
+        <v>45726</v>
+      </c>
+      <c r="E1002" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1002" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1002" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="H1002" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1002" s="44" t="s">
+        <v>655</v>
+      </c>
+      <c r="J1002" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1002" s="58"/>
+      <c r="L1002" s="26"/>
+      <c r="M1002" s="58"/>
+      <c r="N1002" s="58"/>
+      <c r="O1002" s="26"/>
+      <c r="P1002" s="26"/>
+      <c r="Q1002" s="26">
+        <v>360</v>
+      </c>
+      <c r="R1002" s="26"/>
+      <c r="S1002" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="T1002" s="25"/>
+      <c r="U1002" s="25"/>
+      <c r="V1002" s="26"/>
+      <c r="W1002" s="23"/>
+      <c r="X1002" s="23"/>
+    </row>
+    <row r="1003" spans="1:24" ht="31.5" customHeight="1">
+      <c r="A1003" s="87">
+        <f>YEAR(D1003)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1003" s="26">
+        <f>MONTH(D1003)</f>
+        <v>3</v>
+      </c>
+      <c r="C1003" s="44">
+        <v>1018</v>
+      </c>
+      <c r="D1003" s="58">
+        <v>45726</v>
+      </c>
+      <c r="E1003" s="26" t="s">
+        <v>808</v>
+      </c>
+      <c r="F1003" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1003" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="H1003" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1003" s="44" t="s">
+        <v>795</v>
+      </c>
+      <c r="J1003" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1003" s="58">
+        <v>45726</v>
+      </c>
+      <c r="L1003" s="26"/>
+      <c r="M1003" s="58"/>
+      <c r="N1003" s="58">
+        <v>45726</v>
+      </c>
+      <c r="O1003" s="26"/>
+      <c r="P1003" s="26"/>
+      <c r="Q1003" s="26">
+        <v>0</v>
+      </c>
+      <c r="R1003" s="26"/>
+      <c r="S1003" s="104" t="s">
+        <v>810</v>
+      </c>
+      <c r="T1003" s="25"/>
+      <c r="U1003" s="25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="V1003" s="26"/>
+      <c r="W1003" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="X1003" s="23"/>
+    </row>
+    <row r="1004" spans="1:24" ht="15" customHeight="1">
+      <c r="A1004" s="87">
+        <f>YEAR(D1004)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1004" s="26">
+        <f>MONTH(D1004)</f>
+        <v>3</v>
+      </c>
+      <c r="C1004" s="44">
+        <v>1019</v>
+      </c>
+      <c r="D1004" s="58">
+        <v>45727</v>
+      </c>
+      <c r="E1004" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1004" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1004" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="H1004" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1004" s="44" t="s">
+        <v>795</v>
+      </c>
+      <c r="J1004" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1004" s="58"/>
+      <c r="L1004" s="26"/>
+      <c r="M1004" s="58"/>
+      <c r="N1004" s="58"/>
+      <c r="O1004" s="26"/>
+      <c r="P1004" s="26"/>
+      <c r="Q1004" s="26">
+        <v>502</v>
+      </c>
+      <c r="R1004" s="26"/>
+      <c r="S1004" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="T1004" s="25"/>
+      <c r="U1004" s="25"/>
+      <c r="V1004" s="26"/>
+      <c r="W1004" s="23"/>
+      <c r="X1004" s="23"/>
+    </row>
+    <row r="1005" spans="1:24" ht="15" customHeight="1">
+      <c r="A1005" s="87">
+        <f>YEAR(D1005)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1005" s="26">
+        <f>MONTH(D1005)</f>
+        <v>3</v>
+      </c>
+      <c r="C1005" s="44">
+        <v>1020</v>
+      </c>
+      <c r="D1005" s="58">
+        <v>45727</v>
+      </c>
+      <c r="E1005" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="F1005" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1005" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1005" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1005" s="44" t="s">
+        <v>795</v>
+      </c>
+      <c r="J1005" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1005" s="58"/>
+      <c r="L1005" s="26"/>
+      <c r="M1005" s="58"/>
+      <c r="N1005" s="58"/>
+      <c r="O1005" s="26"/>
+      <c r="P1005" s="26"/>
+      <c r="Q1005" s="26">
+        <v>0</v>
+      </c>
+      <c r="R1005" s="26"/>
+      <c r="S1005" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="T1005" s="25"/>
+      <c r="U1005" s="25"/>
+      <c r="V1005" s="26"/>
+      <c r="W1005" s="23"/>
+      <c r="X1005" s="23"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
     <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="CANCELADA">
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J995">
+  <conditionalFormatting sqref="J2:J1005">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3511" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B8642F2-600D-4005-BA65-4B9CC4B36470}"/>
+  <xr:revisionPtr revIDLastSave="3565" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA1BC604-E881-45C4-95CF-0676DFB47F47}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16116" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16027" uniqueCount="806">
   <si>
     <t>ANO</t>
   </si>
@@ -1625,9 +1625,6 @@
     <t>Manutenção completa e reparos na gaiola de proteção</t>
   </si>
   <si>
-    <t>MASA</t>
-  </si>
-  <si>
     <t xml:space="preserve">EM MANUTENÇÃO </t>
   </si>
   <si>
@@ -1809,9 +1806,6 @@
   </si>
   <si>
     <t>Fabricar 04 hastes hq 1,5 m, 04 hastes bw 1,5, 20 fincos p/ cerquite e tenda 3 x 3</t>
-  </si>
-  <si>
-    <t>TORNEARIA</t>
   </si>
   <si>
     <t>AGUARDANDO TORNO</t>
@@ -2047,7 +2041,10 @@
     <t xml:space="preserve">Apoio no posto para itens solicitados pelo Thiago frentista. </t>
   </si>
   <si>
-    <t>Fabricar duas reduções de HW para HQ</t>
+    <t>Fabricar redução de HW para HQ</t>
+  </si>
+  <si>
+    <t>TORNEARIA</t>
   </si>
   <si>
     <t>Reparos e Pintura na escada para a sonda S-36.</t>
@@ -2158,9 +2155,6 @@
     <t xml:space="preserve">Problema na parte elétrica </t>
   </si>
   <si>
-    <t>S11D</t>
-  </si>
-  <si>
     <t>FABRICA 2 REDUÇÃO BW FEMIA P/ HQ MACHA
 1 CABEÇA DE BATE SPT 1PL
 2 NIPE REDUÇÃO HQ FEMIA P/ BW MACHO</t>
@@ -2175,9 +2169,6 @@
     <t>Trocar o cabo do wire-line e guincho principal, trocar a fiação do reset da maquina.</t>
   </si>
   <si>
-    <t>CARAJAS</t>
-  </si>
-  <si>
     <t>Fabricar 3 hastes HQ de 1 m e uma hastes HQ de 1,5 mt</t>
   </si>
   <si>
@@ -2185,13 +2176,7 @@
 Obs: MT-14, tag antigo.</t>
   </si>
   <si>
-    <t>MATRIZ</t>
-  </si>
-  <si>
     <t>O cabo guincho da sonda é s51 está travado</t>
-  </si>
-  <si>
-    <t>SERRA LESTE</t>
   </si>
   <si>
     <t>03 redução de revestimento AW para HQ. 
@@ -2211,9 +2196,6 @@
   </si>
   <si>
     <t>Fabricar proteção do escapamento do caminhão RFP-7I49</t>
-  </si>
-  <si>
-    <t>FROTA</t>
   </si>
   <si>
     <t xml:space="preserve">Sonda não pega na partida </t>
@@ -2274,9 +2256,6 @@
     <t>Fazer Correção na fiação do sensor de rotação do mandril</t>
   </si>
   <si>
-    <t>MOBILIZAÇÃO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manutenção na bomba SB-100 troca o reparo da bomba de lama </t>
   </si>
   <si>
@@ -2374,9 +2353,6 @@
     <t>Troca do motor de partida da sonda - GEOSON 117-24 Barragem do Mirim e TCLD</t>
   </si>
   <si>
-    <t>SALOBO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Realizar manutenção no motor de partida,avaliar se será preciso realizar a troca do mesmo </t>
   </si>
   <si>
@@ -2423,6 +2399,9 @@
   </si>
   <si>
     <t>Reparo elétrico do sistema das esteiras e comandos, troca das videas.</t>
+  </si>
+  <si>
+    <t>MOBILIZAÇÃO</t>
   </si>
   <si>
     <t>Fabricar 5 moldes para ensaio de DSS, diâmetro 35,5 mm e altura de 20 mm.</t>
@@ -2649,9 +2628,6 @@
   <si>
     <t>1 haste HQ de 1 metro
 1 haste HQ de 1,5 metro</t>
-  </si>
-  <si>
-    <t>SOSSEGO</t>
   </si>
   <si>
     <t xml:space="preserve">FABRICACAO DE 02 CASINHAS DE PROTEÇÃO DO BANHEIRO QUÍMICO </t>
@@ -4288,8 +4264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H857" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J888" sqref="J888"/>
+    <sheetView tabSelected="1" topLeftCell="P749" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S887" sqref="S887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -52393,9 +52369,7 @@
       <c r="V660" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W660" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="W660" s="5"/>
       <c r="X660" s="5" t="s">
         <v>435</v>
       </c>
@@ -59393,7 +59367,7 @@
       <c r="V757" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W757" s="5"/>
+      <c r="W757" s="6"/>
       <c r="X757" s="5" t="s">
         <v>24</v>
       </c>
@@ -59467,7 +59441,7 @@
       <c r="V758" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W758" s="5"/>
+      <c r="W758" s="6"/>
       <c r="X758" s="5" t="s">
         <v>24</v>
       </c>
@@ -59675,7 +59649,7 @@
       <c r="V761" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W761" s="5"/>
+      <c r="W761" s="6"/>
       <c r="X761" s="5" t="s">
         <v>24</v>
       </c>
@@ -59749,7 +59723,7 @@
       <c r="V762" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W762" s="5"/>
+      <c r="W762" s="6"/>
       <c r="X762" s="5" t="s">
         <v>24</v>
       </c>
@@ -59823,7 +59797,7 @@
       <c r="V763" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W763" s="5"/>
+      <c r="W763" s="6"/>
       <c r="X763" s="5" t="s">
         <v>24</v>
       </c>
@@ -59897,7 +59871,7 @@
       <c r="V764" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W764" s="5"/>
+      <c r="W764" s="6"/>
       <c r="X764" s="5" t="s">
         <v>24</v>
       </c>
@@ -59965,11 +59939,9 @@
       <c r="V765" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W765" s="5" t="s">
+      <c r="W765" s="6"/>
+      <c r="X765" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="X765" s="5" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="766" spans="1:24" hidden="1">
@@ -59988,7 +59960,7 @@
         <v>45674</v>
       </c>
       <c r="E766" s="40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F766" s="47" t="s">
         <v>295</v>
@@ -60022,13 +59994,13 @@
       </c>
       <c r="P766" s="1"/>
       <c r="Q766" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="R766" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="R766" s="1" t="s">
+      <c r="S766" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="S766" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="T766" s="8">
         <v>0.45833333333333331</v>
@@ -60039,7 +60011,7 @@
       <c r="V766" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W766" s="5"/>
+      <c r="W766" s="6"/>
       <c r="X766" s="5" t="s">
         <v>24</v>
       </c>
@@ -60060,7 +60032,7 @@
         <v>45678</v>
       </c>
       <c r="E767" s="75" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F767" s="47" t="s">
         <v>24</v>
@@ -60100,7 +60072,7 @@
         <v>24</v>
       </c>
       <c r="S767" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T767" s="1" t="s">
         <v>24</v>
@@ -60111,7 +60083,7 @@
       <c r="V767" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W767" s="5"/>
+      <c r="W767" s="6"/>
       <c r="X767" s="5" t="s">
         <v>24</v>
       </c>
@@ -60132,7 +60104,7 @@
         <v>45678</v>
       </c>
       <c r="E768" s="40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F768" s="47" t="s">
         <v>24</v>
@@ -60174,7 +60146,7 @@
         <v>24</v>
       </c>
       <c r="S768" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="T768" s="1" t="s">
         <v>24</v>
@@ -60185,7 +60157,7 @@
       <c r="V768" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W768" s="5"/>
+      <c r="W768" s="6"/>
       <c r="X768" s="5" t="s">
         <v>24</v>
       </c>
@@ -60246,7 +60218,7 @@
         <v>24</v>
       </c>
       <c r="S769" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="T769" s="8">
         <v>0.33333333333333331</v>
@@ -60257,7 +60229,7 @@
       <c r="V769" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W769" s="5"/>
+      <c r="W769" s="6"/>
       <c r="X769" s="5" t="s">
         <v>24</v>
       </c>
@@ -60331,7 +60303,7 @@
       <c r="V770" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W770" s="5"/>
+      <c r="W770" s="6"/>
       <c r="X770" s="5" t="s">
         <v>24</v>
       </c>
@@ -60352,7 +60324,7 @@
         <v>45678</v>
       </c>
       <c r="E771" s="75" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F771" s="47" t="s">
         <v>263</v>
@@ -60386,13 +60358,13 @@
       </c>
       <c r="P771" s="1"/>
       <c r="Q771" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="R771" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="R771" s="1" t="s">
+      <c r="S771" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="S771" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="T771" s="8">
         <v>0.33333333333333331</v>
@@ -60403,7 +60375,7 @@
       <c r="V771" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W771" s="5"/>
+      <c r="W771" s="6"/>
       <c r="X771" s="5" t="s">
         <v>24</v>
       </c>
@@ -60424,7 +60396,7 @@
         <v>45312</v>
       </c>
       <c r="E772" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F772" s="47" t="s">
         <v>24</v>
@@ -60458,7 +60430,7 @@
         <v>24</v>
       </c>
       <c r="S772" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T772" s="1" t="s">
         <v>24</v>
@@ -60469,9 +60441,7 @@
       <c r="V772" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W772" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="W772" s="6"/>
       <c r="X772" s="11" t="s">
         <v>435</v>
       </c>
@@ -60507,7 +60477,7 @@
         <v>35</v>
       </c>
       <c r="J773" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K773" s="46">
         <v>45679</v>
@@ -60532,7 +60502,7 @@
         <v>433</v>
       </c>
       <c r="S773" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="T773" s="8">
         <v>0.41666666666666669</v>
@@ -60543,9 +60513,7 @@
       <c r="V773" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W773" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="W773" s="6"/>
       <c r="X773" s="11" t="s">
         <v>435</v>
       </c>
@@ -60606,7 +60574,7 @@
         <v>24</v>
       </c>
       <c r="S774" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="T774" s="1" t="s">
         <v>24</v>
@@ -60617,7 +60585,7 @@
       <c r="V774" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W774" s="5"/>
+      <c r="W774" s="6"/>
       <c r="X774" s="5" t="s">
         <v>24</v>
       </c>
@@ -60638,13 +60606,13 @@
         <v>45678</v>
       </c>
       <c r="E775" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F775" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="G775" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="G775" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="H775" s="1" t="s">
         <v>297</v>
@@ -60680,7 +60648,7 @@
         <v>24</v>
       </c>
       <c r="S775" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T775" s="1" t="s">
         <v>24</v>
@@ -60691,7 +60659,7 @@
       <c r="V775" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W775" s="5"/>
+      <c r="W775" s="6"/>
       <c r="X775" s="5" t="s">
         <v>24</v>
       </c>
@@ -60712,13 +60680,13 @@
         <v>45678</v>
       </c>
       <c r="E776" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F776" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="G776" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="G776" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="H776" s="3" t="s">
         <v>297</v>
@@ -60828,7 +60796,7 @@
         <v>24</v>
       </c>
       <c r="S777" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T777" s="3" t="s">
         <v>24</v>
@@ -60860,7 +60828,7 @@
         <v>45312</v>
       </c>
       <c r="E778" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F778" s="48" t="s">
         <v>130</v>
@@ -60896,13 +60864,13 @@
         <v>24</v>
       </c>
       <c r="Q778" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="R778" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="R778" s="3" t="s">
+      <c r="S778" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="S778" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="T778" s="7">
         <v>0.45416666666666666</v>
@@ -60976,7 +60944,7 @@
         <v>24</v>
       </c>
       <c r="S779" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="T779" s="7">
         <v>0.375</v>
@@ -61048,7 +61016,7 @@
         <v>24</v>
       </c>
       <c r="S780" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="T780" s="3" t="s">
         <v>24</v>
@@ -61122,7 +61090,7 @@
         <v>24</v>
       </c>
       <c r="S781" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T781" s="3" t="s">
         <v>24</v>
@@ -61228,7 +61196,7 @@
         <v>45312</v>
       </c>
       <c r="E783" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F783" s="48" t="s">
         <v>24</v>
@@ -61270,7 +61238,7 @@
         <v>24</v>
       </c>
       <c r="S783" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="T783" s="3" t="s">
         <v>24</v>
@@ -61305,7 +61273,7 @@
         <v>490</v>
       </c>
       <c r="F784" s="47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G784" s="1" t="s">
         <v>398</v>
@@ -61344,7 +61312,7 @@
         <v>24</v>
       </c>
       <c r="S784" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T784" s="8">
         <v>0.54166666666666663</v>
@@ -61418,7 +61386,7 @@
         <v>24</v>
       </c>
       <c r="S785" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="T785" s="1" t="s">
         <v>24</v>
@@ -61492,7 +61460,7 @@
         <v>24</v>
       </c>
       <c r="S786" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="T786" s="1" t="s">
         <v>24</v>
@@ -61708,7 +61676,7 @@
         <v>24</v>
       </c>
       <c r="S789" s="93" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="T789" s="3" t="s">
         <v>24</v>
@@ -61774,7 +61742,7 @@
         <v>433</v>
       </c>
       <c r="S790" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="T790" s="8">
         <v>0.56944444444444442</v>
@@ -61787,7 +61755,7 @@
         <v>448</v>
       </c>
       <c r="X790" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="791" spans="1:24">
@@ -61830,7 +61798,7 @@
       <c r="Q791" s="1"/>
       <c r="R791" s="1"/>
       <c r="S791" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="T791" s="1"/>
       <c r="U791" s="1"/>
@@ -61839,7 +61807,7 @@
         <v>448</v>
       </c>
       <c r="X791" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="792" spans="1:24">
@@ -61882,7 +61850,7 @@
       <c r="Q792" s="1"/>
       <c r="R792" s="1"/>
       <c r="S792" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="T792" s="1"/>
       <c r="U792" s="1"/>
@@ -61891,7 +61859,7 @@
         <v>448</v>
       </c>
       <c r="X792" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="793" spans="1:24">
@@ -61934,7 +61902,7 @@
       <c r="Q793" s="1"/>
       <c r="R793" s="1"/>
       <c r="S793" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="T793" s="1"/>
       <c r="U793" s="1"/>
@@ -61943,7 +61911,7 @@
         <v>448</v>
       </c>
       <c r="X793" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="794" spans="1:24">
@@ -61986,7 +61954,7 @@
       <c r="Q794" s="1"/>
       <c r="R794" s="1"/>
       <c r="S794" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="T794" s="1"/>
       <c r="U794" s="1"/>
@@ -61995,7 +61963,7 @@
         <v>448</v>
       </c>
       <c r="X794" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="795" spans="1:24" hidden="1">
@@ -62042,7 +62010,7 @@
       <c r="Q795" s="1"/>
       <c r="R795" s="1"/>
       <c r="S795" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T795" s="1"/>
       <c r="U795" s="1"/>
@@ -62092,7 +62060,7 @@
       <c r="Q796" s="1"/>
       <c r="R796" s="1"/>
       <c r="S796" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="T796" s="1"/>
       <c r="U796" s="1"/>
@@ -62142,7 +62110,7 @@
       <c r="Q797" s="1"/>
       <c r="R797" s="1"/>
       <c r="S797" s="93" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="T797" s="1"/>
       <c r="U797" s="1"/>
@@ -62192,7 +62160,7 @@
       <c r="Q798" s="1"/>
       <c r="R798" s="1"/>
       <c r="S798" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T798" s="1"/>
       <c r="U798" s="1"/>
@@ -62219,16 +62187,16 @@
         <v>463</v>
       </c>
       <c r="F799" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G799" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="G799" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="H799" s="1" t="s">
         <v>299</v>
       </c>
       <c r="I799" s="45" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J799" s="1" t="s">
         <v>29</v>
@@ -62248,13 +62216,13 @@
       </c>
       <c r="P799" s="1"/>
       <c r="Q799" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="R799" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="R799" s="1" t="s">
+      <c r="S799" s="9" t="s">
         <v>541</v>
-      </c>
-      <c r="S799" s="9" t="s">
-        <v>542</v>
       </c>
       <c r="T799" s="8">
         <v>0.5625</v>
@@ -62263,9 +62231,7 @@
         <v>0.5625</v>
       </c>
       <c r="V799" s="1"/>
-      <c r="W799" s="5" t="s">
-        <v>440</v>
-      </c>
+      <c r="W799" s="5"/>
       <c r="X799" s="5" t="s">
         <v>117</v>
       </c>
@@ -62312,7 +62278,7 @@
       <c r="Q800" s="1"/>
       <c r="R800" s="1"/>
       <c r="S800" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T800" s="1"/>
       <c r="U800" s="1"/>
@@ -62362,7 +62328,7 @@
       <c r="Q801" s="1"/>
       <c r="R801" s="1"/>
       <c r="S801" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="T801" s="1"/>
       <c r="U801" s="1"/>
@@ -62389,10 +62355,10 @@
         <v>463</v>
       </c>
       <c r="F802" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G802" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="G802" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="H802" s="1" t="s">
         <v>297</v>
@@ -62412,14 +62378,12 @@
       <c r="Q802" s="1"/>
       <c r="R802" s="1"/>
       <c r="S802" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T802" s="1"/>
       <c r="U802" s="1"/>
       <c r="V802" s="1"/>
-      <c r="W802" s="5" t="s">
-        <v>440</v>
-      </c>
+      <c r="W802" s="5"/>
       <c r="X802" s="5"/>
     </row>
     <row r="803" spans="1:24" hidden="1">
@@ -62441,10 +62405,10 @@
         <v>463</v>
       </c>
       <c r="F803" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G803" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="G803" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="H803" s="1" t="s">
         <v>297</v>
@@ -62464,14 +62428,12 @@
       <c r="Q803" s="1"/>
       <c r="R803" s="1"/>
       <c r="S803" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T803" s="1"/>
       <c r="U803" s="1"/>
       <c r="V803" s="1"/>
-      <c r="W803" s="5" t="s">
-        <v>440</v>
-      </c>
+      <c r="W803" s="5"/>
       <c r="X803" s="5"/>
     </row>
     <row r="804" spans="1:24">
@@ -62493,10 +62455,10 @@
         <v>453</v>
       </c>
       <c r="F804" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G804" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="G804" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="H804" s="1" t="s">
         <v>297</v>
@@ -62516,7 +62478,7 @@
       <c r="Q804" s="1"/>
       <c r="R804" s="1"/>
       <c r="S804" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="T804" s="1"/>
       <c r="U804" s="1"/>
@@ -62542,7 +62504,7 @@
         <v>45681</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F805" s="1" t="s">
         <v>25</v>
@@ -62570,7 +62532,7 @@
       <c r="Q805" s="1"/>
       <c r="R805" s="1"/>
       <c r="S805" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="T805" s="1"/>
       <c r="U805" s="1"/>
@@ -62597,7 +62559,7 @@
         <v>453</v>
       </c>
       <c r="F806" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G806" s="1"/>
       <c r="H806" s="1" t="s">
@@ -62622,7 +62584,7 @@
       <c r="Q806" s="1"/>
       <c r="R806" s="1"/>
       <c r="S806" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T806" s="1"/>
       <c r="U806" s="1"/>
@@ -62646,10 +62608,10 @@
         <v>45681</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F807" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G807" s="3"/>
       <c r="H807" s="3" t="s">
@@ -62675,7 +62637,7 @@
       <c r="T807" s="3"/>
       <c r="U807" s="3"/>
       <c r="V807" s="3"/>
-      <c r="W807" s="6"/>
+      <c r="W807" s="5"/>
       <c r="X807" s="6"/>
     </row>
     <row r="808" spans="1:24" hidden="1">
@@ -62734,18 +62696,16 @@
         <v>433</v>
       </c>
       <c r="S808" s="94" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="T808" s="7">
         <v>0.375</v>
       </c>
       <c r="U808" s="3"/>
       <c r="V808" s="3"/>
-      <c r="W808" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="W808" s="5"/>
       <c r="X808" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="809" spans="1:24" hidden="1">
@@ -62764,13 +62724,13 @@
         <v>45681</v>
       </c>
       <c r="E809" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F809" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G809" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H809" s="3" t="s">
         <v>297</v>
@@ -62796,7 +62756,7 @@
       </c>
       <c r="R809" s="3"/>
       <c r="S809" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="T809" s="7">
         <v>0.41666666666666669</v>
@@ -62805,7 +62765,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="V809" s="3"/>
-      <c r="W809" s="6"/>
+      <c r="W809" s="5"/>
       <c r="X809" s="6"/>
     </row>
     <row r="810" spans="1:24" hidden="1">
@@ -62827,10 +62787,10 @@
         <v>47</v>
       </c>
       <c r="F810" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G810" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H810" s="3" t="s">
         <v>297</v>
@@ -62850,14 +62810,12 @@
       <c r="Q810" s="3"/>
       <c r="R810" s="3"/>
       <c r="S810" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="T810" s="3"/>
       <c r="U810" s="3"/>
       <c r="V810" s="3"/>
-      <c r="W810" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="W810" s="5"/>
       <c r="X810" s="11" t="s">
         <v>435</v>
       </c>
@@ -62884,7 +62842,7 @@
         <v>289</v>
       </c>
       <c r="G811" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H811" s="3" t="s">
         <v>299</v>
@@ -62908,7 +62866,7 @@
       </c>
       <c r="R811" s="3"/>
       <c r="S811" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="T811" s="7">
         <v>0.33333333333333331</v>
@@ -62917,9 +62875,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="V811" s="3"/>
-      <c r="W811" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="W811" s="5"/>
       <c r="X811" s="6"/>
     </row>
     <row r="812" spans="1:24">
@@ -62941,10 +62897,10 @@
         <v>453</v>
       </c>
       <c r="F812" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G812" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H812" s="1" t="s">
         <v>297</v>
@@ -62964,7 +62920,7 @@
       <c r="Q812" s="1"/>
       <c r="R812" s="1"/>
       <c r="S812" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T812" s="1"/>
       <c r="U812" s="1"/>
@@ -62990,7 +62946,7 @@
         <v>45684</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F813" s="1" t="s">
         <v>39</v>
@@ -63018,7 +62974,7 @@
       <c r="Q813" s="1"/>
       <c r="R813" s="1"/>
       <c r="S813" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="T813" s="1"/>
       <c r="U813" s="1"/>
@@ -63048,7 +63004,7 @@
         <v>263</v>
       </c>
       <c r="G814" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H814" s="1" t="s">
         <v>297</v>
@@ -63072,7 +63028,7 @@
       <c r="Q814" s="1"/>
       <c r="R814" s="1"/>
       <c r="S814" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="T814" s="1"/>
       <c r="U814" s="1"/>
@@ -63102,7 +63058,7 @@
         <v>228</v>
       </c>
       <c r="G815" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H815" s="1" t="s">
         <v>297</v>
@@ -63132,7 +63088,7 @@
         <v>433</v>
       </c>
       <c r="S815" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="T815" s="8">
         <v>0.56944444444444442</v>
@@ -63170,7 +63126,7 @@
         <v>279</v>
       </c>
       <c r="G816" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H816" s="3" t="s">
         <v>297</v>
@@ -63200,7 +63156,7 @@
         <v>433</v>
       </c>
       <c r="S816" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="T816" s="7">
         <v>0.58333333333333337</v>
@@ -63235,10 +63191,10 @@
         <v>47</v>
       </c>
       <c r="F817" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G817" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H817" s="1" t="s">
         <v>297</v>
@@ -63260,7 +63216,7 @@
       <c r="Q817" s="1"/>
       <c r="R817" s="1"/>
       <c r="S817" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="T817" s="1"/>
       <c r="U817" s="1"/>
@@ -63284,13 +63240,13 @@
         <v>45684</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F818" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G818" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H818" s="1" t="s">
         <v>299</v>
@@ -63314,7 +63270,7 @@
       <c r="Q818" s="1"/>
       <c r="R818" s="1"/>
       <c r="S818" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="T818" s="1"/>
       <c r="U818" s="1"/>
@@ -63344,7 +63300,7 @@
         <v>444</v>
       </c>
       <c r="G819" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H819" s="1" t="s">
         <v>297</v>
@@ -63368,7 +63324,7 @@
       <c r="Q819" s="1"/>
       <c r="R819" s="1"/>
       <c r="S819" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="T819" s="1"/>
       <c r="U819" s="1"/>
@@ -63398,7 +63354,7 @@
         <v>444</v>
       </c>
       <c r="G820" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H820" s="1" t="s">
         <v>297</v>
@@ -63446,7 +63402,7 @@
         <v>263</v>
       </c>
       <c r="G821" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H821" s="1" t="s">
         <v>299</v>
@@ -63468,11 +63424,11 @@
       <c r="O821" s="1"/>
       <c r="P821" s="1"/>
       <c r="Q821" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="R821" s="1"/>
       <c r="S821" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="T821" s="8">
         <v>0.61111111111111116</v>
@@ -63506,7 +63462,7 @@
         <v>295</v>
       </c>
       <c r="G822" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H822" s="1" t="s">
         <v>299</v>
@@ -63528,11 +63484,11 @@
       <c r="O822" s="1"/>
       <c r="P822" s="1"/>
       <c r="Q822" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="R822" s="1"/>
       <c r="S822" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="T822" s="8">
         <v>0.33333333333333331</v>
@@ -63560,13 +63516,13 @@
         <v>45684</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F823" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G823" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H823" s="1" t="s">
         <v>299</v>
@@ -63588,11 +63544,11 @@
       <c r="O823" s="1"/>
       <c r="P823" s="1"/>
       <c r="Q823" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="R823" s="1"/>
       <c r="S823" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="T823" s="8">
         <v>0.38055555555555554</v>
@@ -63626,7 +63582,7 @@
         <v>306</v>
       </c>
       <c r="G824" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H824" s="1" t="s">
         <v>297</v>
@@ -63650,7 +63606,7 @@
       <c r="Q824" s="1"/>
       <c r="R824" s="1"/>
       <c r="S824" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="T824" s="8"/>
       <c r="U824" s="8"/>
@@ -63680,7 +63636,7 @@
         <v>111</v>
       </c>
       <c r="G825" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H825" s="1" t="s">
         <v>297</v>
@@ -63704,7 +63660,7 @@
       <c r="Q825" s="1"/>
       <c r="R825" s="1"/>
       <c r="S825" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="T825" s="1"/>
       <c r="U825" s="1"/>
@@ -63734,7 +63690,7 @@
         <v>76</v>
       </c>
       <c r="G826" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H826" s="1" t="s">
         <v>297</v>
@@ -63758,7 +63714,7 @@
       <c r="Q826" s="1"/>
       <c r="R826" s="1"/>
       <c r="S826" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="T826" s="1"/>
       <c r="U826" s="1"/>
@@ -63788,7 +63744,7 @@
         <v>279</v>
       </c>
       <c r="G827" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H827" s="1" t="s">
         <v>297</v>
@@ -63812,7 +63768,7 @@
       <c r="Q827" s="1"/>
       <c r="R827" s="1"/>
       <c r="S827" s="95" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="T827" s="1"/>
       <c r="U827" s="1"/>
@@ -63842,7 +63798,7 @@
         <v>111</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H828" s="1" t="s">
         <v>299</v>
@@ -63864,11 +63820,11 @@
       <c r="O828" s="1"/>
       <c r="P828" s="1"/>
       <c r="Q828" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="R828" s="1"/>
       <c r="S828" s="13" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="T828" s="8">
         <v>0.41666666666666669</v>
@@ -63902,7 +63858,7 @@
         <v>186</v>
       </c>
       <c r="G829" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H829" s="1" t="s">
         <v>299</v>
@@ -63924,11 +63880,11 @@
       <c r="O829" s="1"/>
       <c r="P829" s="1"/>
       <c r="Q829" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="R829" s="1"/>
       <c r="S829" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="T829" s="8">
         <v>0.4375</v>
@@ -63962,7 +63918,7 @@
         <v>279</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H830" s="1" t="s">
         <v>299</v>
@@ -63982,7 +63938,7 @@
       <c r="Q830" s="1"/>
       <c r="R830" s="1"/>
       <c r="S830" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="T830" s="1"/>
       <c r="U830" s="1"/>
@@ -64006,7 +63962,7 @@
         <v>45686</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F831" s="1" t="s">
         <v>130</v>
@@ -64036,7 +63992,7 @@
       <c r="Q831" s="1"/>
       <c r="R831" s="1"/>
       <c r="S831" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="T831" s="1"/>
       <c r="U831" s="1"/>
@@ -64063,10 +64019,10 @@
         <v>453</v>
       </c>
       <c r="F832" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G832" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H832" s="1" t="s">
         <v>297</v>
@@ -64090,7 +64046,7 @@
       <c r="Q832" s="1"/>
       <c r="R832" s="1"/>
       <c r="S832" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="T832" s="1"/>
       <c r="U832" s="1"/>
@@ -64117,10 +64073,10 @@
         <v>463</v>
       </c>
       <c r="F833" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G833" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H833" s="1" t="s">
         <v>297</v>
@@ -64144,7 +64100,7 @@
       <c r="Q833" s="1"/>
       <c r="R833" s="1"/>
       <c r="S833" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="T833" s="1"/>
       <c r="U833" s="1"/>
@@ -64174,7 +64130,7 @@
         <v>392</v>
       </c>
       <c r="G834" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H834" s="1" t="s">
         <v>299</v>
@@ -64198,7 +64154,7 @@
       <c r="Q834" s="1"/>
       <c r="R834" s="1"/>
       <c r="S834" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="T834" s="1"/>
       <c r="U834" s="1"/>
@@ -64228,7 +64184,7 @@
         <v>279</v>
       </c>
       <c r="G835" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H835" s="1" t="s">
         <v>299</v>
@@ -64250,11 +64206,11 @@
       <c r="O835" s="1"/>
       <c r="P835" s="1"/>
       <c r="Q835" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="R835" s="1"/>
       <c r="S835" s="96" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="T835" s="97">
         <v>0.375</v>
@@ -64285,10 +64241,10 @@
         <v>453</v>
       </c>
       <c r="F836" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G836" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="G836" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="H836" s="1" t="s">
         <v>297</v>
@@ -64337,7 +64293,7 @@
         <v>263</v>
       </c>
       <c r="G837" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H837" s="1" t="s">
         <v>297</v>
@@ -64385,7 +64341,7 @@
         <v>424</v>
       </c>
       <c r="G838" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H838" s="1" t="s">
         <v>297</v>
@@ -64433,7 +64389,7 @@
         <v>289</v>
       </c>
       <c r="G839" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H839" s="1" t="s">
         <v>299</v>
@@ -64478,10 +64434,10 @@
         <v>453</v>
       </c>
       <c r="F840" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G840" s="52" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H840" s="1" t="s">
         <v>297</v>
@@ -64528,10 +64484,10 @@
         <v>453</v>
       </c>
       <c r="F841" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G841" s="41" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H841" s="3" t="s">
         <v>297</v>
@@ -64581,7 +64537,7 @@
         <v>399</v>
       </c>
       <c r="G842" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H842" s="3" t="s">
         <v>299</v>
@@ -64631,7 +64587,7 @@
         <v>438</v>
       </c>
       <c r="G843" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H843" s="3" t="s">
         <v>297</v>
@@ -64681,7 +64637,7 @@
         <v>111</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>297</v>
@@ -64731,7 +64687,7 @@
         <v>228</v>
       </c>
       <c r="G845" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H845" s="3" t="s">
         <v>299</v>
@@ -64778,10 +64734,10 @@
         <v>453</v>
       </c>
       <c r="F846" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G846" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H846" s="3" t="s">
         <v>297</v>
@@ -64831,7 +64787,7 @@
         <v>295</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H847" s="3" t="s">
         <v>299</v>
@@ -64875,13 +64831,13 @@
         <v>45688.581076388888</v>
       </c>
       <c r="E848" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F848" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G848" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H848" s="3" t="s">
         <v>299</v>
@@ -64903,7 +64859,7 @@
       </c>
       <c r="R848" s="3"/>
       <c r="S848" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="T848" s="3"/>
       <c r="U848" s="3"/>
@@ -64933,7 +64889,7 @@
         <v>279</v>
       </c>
       <c r="G849" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H849" s="3" t="s">
         <v>297</v>
@@ -64955,16 +64911,14 @@
       </c>
       <c r="R849" s="3"/>
       <c r="S849" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="T849" s="3"/>
       <c r="U849" s="3"/>
       <c r="V849" s="3"/>
-      <c r="W849" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="W849" s="6"/>
       <c r="X849" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="850" spans="1:24" hidden="1">
@@ -64989,7 +64943,7 @@
         <v>438</v>
       </c>
       <c r="G850" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H850" s="3" t="s">
         <v>297</v>
@@ -65011,7 +64965,7 @@
       </c>
       <c r="R850" s="3"/>
       <c r="S850" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="T850" s="3"/>
       <c r="U850" s="3"/>
@@ -65038,10 +64992,10 @@
         <v>453</v>
       </c>
       <c r="F851" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G851" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H851" s="3" t="s">
         <v>297</v>
@@ -65063,16 +65017,14 @@
       </c>
       <c r="R851" s="3"/>
       <c r="S851" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="T851" s="3"/>
       <c r="U851" s="3"/>
       <c r="V851" s="3"/>
-      <c r="W851" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="W851" s="6"/>
       <c r="X851" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="852" spans="1:24" hidden="1">
@@ -65097,7 +65049,7 @@
         <v>279</v>
       </c>
       <c r="G852" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H852" s="3" t="s">
         <v>297</v>
@@ -65119,7 +65071,7 @@
       </c>
       <c r="R852" s="3"/>
       <c r="S852" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="T852" s="3"/>
       <c r="U852" s="3"/>
@@ -65179,14 +65131,14 @@
         <v>433</v>
       </c>
       <c r="S853" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="T853" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="U853" s="1"/>
       <c r="V853" s="1"/>
-      <c r="W853" s="5"/>
+      <c r="W853" s="6"/>
       <c r="X853" s="11"/>
     </row>
     <row r="854" spans="1:24">
@@ -65211,7 +65163,7 @@
         <v>438</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>297</v>
@@ -65233,7 +65185,7 @@
       </c>
       <c r="R854" s="3"/>
       <c r="S854" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="T854" s="3"/>
       <c r="U854" s="3"/>
@@ -65265,7 +65217,7 @@
         <v>263</v>
       </c>
       <c r="G855" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H855" s="3" t="s">
         <v>297</v>
@@ -65289,14 +65241,14 @@
       </c>
       <c r="R855" s="3"/>
       <c r="S855" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="T855" s="3"/>
       <c r="U855" s="3"/>
       <c r="V855" s="3"/>
       <c r="W855" s="6"/>
       <c r="X855" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="856" spans="1:24" hidden="1">
@@ -65321,7 +65273,7 @@
         <v>295</v>
       </c>
       <c r="G856" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H856" s="3" t="s">
         <v>299</v>
@@ -65343,7 +65295,7 @@
       </c>
       <c r="R856" s="3"/>
       <c r="S856" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="T856" s="3"/>
       <c r="U856" s="3"/>
@@ -65353,7 +65305,7 @@
     </row>
     <row r="857" spans="1:24" ht="121.5">
       <c r="A857" s="48" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B857" s="3">
         <f>MONTH(D857)</f>
@@ -65366,13 +65318,13 @@
         <v>45691.744351851848</v>
       </c>
       <c r="E857" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F857" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G857" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H857" s="3" t="s">
         <v>297</v>
@@ -65398,7 +65350,7 @@
       </c>
       <c r="R857" s="3"/>
       <c r="S857" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="T857" s="7">
         <v>0.39583333333333331</v>
@@ -65409,11 +65361,9 @@
       <c r="V857" s="3">
         <v>9023</v>
       </c>
-      <c r="W857" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="W857" s="6"/>
       <c r="X857" s="27" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="858" spans="1:24" hidden="1">
@@ -65438,7 +65388,7 @@
         <v>76</v>
       </c>
       <c r="G858" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H858" s="3" t="s">
         <v>299</v>
@@ -65460,7 +65410,7 @@
       </c>
       <c r="R858" s="3"/>
       <c r="S858" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="T858" s="3"/>
       <c r="U858" s="3"/>
@@ -65487,10 +65437,10 @@
         <v>453</v>
       </c>
       <c r="F859" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G859" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H859" s="3" t="s">
         <v>297</v>
@@ -65512,7 +65462,7 @@
       </c>
       <c r="R859" s="3"/>
       <c r="S859" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="T859" s="3"/>
       <c r="U859" s="3"/>
@@ -65542,7 +65492,7 @@
         <v>111</v>
       </c>
       <c r="G860" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H860" s="3" t="s">
         <v>297</v>
@@ -65574,7 +65524,7 @@
         <v>433</v>
       </c>
       <c r="S860" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="T860" s="7">
         <v>0.34722222222222221</v>
@@ -65582,10 +65532,10 @@
       <c r="U860" s="3"/>
       <c r="V860" s="3"/>
       <c r="W860" s="6" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="X860" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="861" spans="1:24" hidden="1">
@@ -65607,10 +65557,10 @@
         <v>47</v>
       </c>
       <c r="F861" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G861" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H861" s="3" t="s">
         <v>297</v>
@@ -65644,7 +65594,7 @@
         <v>433</v>
       </c>
       <c r="S861" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T861" s="7">
         <v>0.61597222222222225</v>
@@ -65653,9 +65603,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="V861" s="3"/>
-      <c r="W861" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="W861" s="6"/>
       <c r="X861" s="27" t="s">
         <v>435</v>
       </c>
@@ -65679,10 +65627,10 @@
         <v>458</v>
       </c>
       <c r="F862" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G862" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H862" s="3" t="s">
         <v>297</v>
@@ -65704,7 +65652,7 @@
       </c>
       <c r="R862" s="1"/>
       <c r="S862" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T862" s="3"/>
       <c r="U862" s="3"/>
@@ -65731,10 +65679,10 @@
         <v>47</v>
       </c>
       <c r="F863" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G863" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H863" s="3" t="s">
         <v>297</v>
@@ -65766,7 +65714,7 @@
         <v>433</v>
       </c>
       <c r="S863" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="T863" s="7">
         <v>0.33333333333333331</v>
@@ -65775,9 +65723,7 @@
         <v>0.40833333333333333</v>
       </c>
       <c r="V863" s="3"/>
-      <c r="W863" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="W863" s="6"/>
       <c r="X863" s="27" t="s">
         <v>435</v>
       </c>
@@ -65801,10 +65747,10 @@
         <v>47</v>
       </c>
       <c r="F864" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G864" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H864" s="3" t="s">
         <v>297</v>
@@ -65836,7 +65782,7 @@
         <v>433</v>
       </c>
       <c r="S864" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T864" s="14">
         <v>0.33333333333333331</v>
@@ -65845,9 +65791,7 @@
         <v>0.40833333333333333</v>
       </c>
       <c r="V864" s="3"/>
-      <c r="W864" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="W864" s="6"/>
       <c r="X864" s="11" t="s">
         <v>435</v>
       </c>
@@ -65871,10 +65815,10 @@
         <v>47</v>
       </c>
       <c r="F865" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G865" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="G865" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="H865" s="3" t="s">
         <v>297</v>
@@ -65906,7 +65850,7 @@
         <v>433</v>
       </c>
       <c r="S865" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T865" s="14">
         <v>0.33333333333333331</v>
@@ -65915,9 +65859,7 @@
         <v>0.40833333333333333</v>
       </c>
       <c r="V865" s="3"/>
-      <c r="W865" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="W865" s="6"/>
       <c r="X865" s="11" t="s">
         <v>435</v>
       </c>
@@ -65941,10 +65883,10 @@
         <v>47</v>
       </c>
       <c r="F866" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G866" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H866" s="3" t="s">
         <v>297</v>
@@ -65974,16 +65916,14 @@
         <v>433</v>
       </c>
       <c r="S866" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T866" s="7">
         <v>0.625</v>
       </c>
       <c r="U866" s="3"/>
       <c r="V866" s="3"/>
-      <c r="W866" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="W866" s="6"/>
       <c r="X866" s="11" t="s">
         <v>435</v>
       </c>
@@ -66007,10 +65947,10 @@
         <v>47</v>
       </c>
       <c r="F867" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G867" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H867" s="3" t="s">
         <v>297</v>
@@ -66042,7 +65982,7 @@
         <v>433</v>
       </c>
       <c r="S867" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T867" s="14">
         <v>0.33333333333333331</v>
@@ -66051,9 +65991,7 @@
         <v>0.40833333333333333</v>
       </c>
       <c r="V867" s="3"/>
-      <c r="W867" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="W867" s="6"/>
       <c r="X867" s="11" t="s">
         <v>435</v>
       </c>
@@ -66080,7 +66018,7 @@
         <v>99</v>
       </c>
       <c r="G868" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H868" s="3" t="s">
         <v>297</v>
@@ -66104,14 +66042,12 @@
       </c>
       <c r="R868" s="1"/>
       <c r="S868" s="28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="T868" s="3"/>
       <c r="U868" s="3"/>
       <c r="V868" s="3"/>
-      <c r="W868" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="W868" s="6"/>
       <c r="X868" s="5"/>
     </row>
     <row r="869" spans="1:24" hidden="1">
@@ -66136,7 +66072,7 @@
         <v>279</v>
       </c>
       <c r="G869" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H869" s="3" t="s">
         <v>297</v>
@@ -66160,14 +66096,14 @@
       <c r="Q869" s="3"/>
       <c r="R869" s="3"/>
       <c r="S869" s="28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="T869" s="3"/>
       <c r="U869" s="3"/>
       <c r="V869" s="3"/>
       <c r="W869" s="6"/>
       <c r="X869" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="870" spans="1:24" hidden="1">
@@ -66189,10 +66125,10 @@
         <v>453</v>
       </c>
       <c r="F870" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="G870" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="G870" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="H870" s="3" t="s">
         <v>297</v>
@@ -66214,14 +66150,12 @@
       <c r="Q870" s="3"/>
       <c r="R870" s="3"/>
       <c r="S870" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T870" s="3"/>
       <c r="U870" s="3"/>
       <c r="V870" s="3"/>
-      <c r="W870" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="W870" s="6"/>
       <c r="X870" s="6" t="s">
         <v>435</v>
       </c>
@@ -66248,7 +66182,7 @@
         <v>130</v>
       </c>
       <c r="G871" s="78" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H871" s="3" t="s">
         <v>297</v>
@@ -66274,7 +66208,7 @@
       <c r="Q871" s="3"/>
       <c r="R871" s="3"/>
       <c r="S871" s="28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T871" s="7">
         <v>0.66666666666666663</v>
@@ -66283,11 +66217,9 @@
         <v>0.36319444444444443</v>
       </c>
       <c r="V871" s="3"/>
-      <c r="W871" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="W871" s="6"/>
       <c r="X871" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="872" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66309,10 +66241,10 @@
         <v>453</v>
       </c>
       <c r="F872" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G872" s="53" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H872" s="32" t="s">
         <v>297</v>
@@ -66332,12 +66264,12 @@
       <c r="Q872" s="32"/>
       <c r="R872" s="32"/>
       <c r="S872" s="30" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="T872" s="31"/>
       <c r="U872" s="31"/>
       <c r="V872" s="32"/>
-      <c r="W872" s="33"/>
+      <c r="W872" s="6"/>
       <c r="X872" s="34"/>
     </row>
     <row r="873" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66362,7 +66294,7 @@
         <v>95</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H873" s="32" t="s">
         <v>297</v>
@@ -66382,12 +66314,12 @@
       <c r="Q873" s="32"/>
       <c r="R873" s="32"/>
       <c r="S873" s="30" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="T873" s="31"/>
       <c r="U873" s="31"/>
       <c r="V873" s="32"/>
-      <c r="W873" s="33"/>
+      <c r="W873" s="6"/>
       <c r="X873" s="34"/>
     </row>
     <row r="874" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66412,7 +66344,7 @@
         <v>279</v>
       </c>
       <c r="G874" s="53" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H874" s="32" t="s">
         <v>297</v>
@@ -66432,12 +66364,12 @@
       <c r="Q874" s="32"/>
       <c r="R874" s="32"/>
       <c r="S874" s="30" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T874" s="31"/>
       <c r="U874" s="31"/>
       <c r="V874" s="32"/>
-      <c r="W874" s="33"/>
+      <c r="W874" s="6"/>
       <c r="X874" s="34"/>
     </row>
     <row r="875" spans="1:24" ht="26.25" customHeight="1">
@@ -66462,7 +66394,7 @@
         <v>279</v>
       </c>
       <c r="G875" s="53" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H875" s="32" t="s">
         <v>297</v>
@@ -66484,16 +66416,16 @@
       <c r="Q875" s="32"/>
       <c r="R875" s="32"/>
       <c r="S875" s="30" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="T875" s="31"/>
       <c r="U875" s="31"/>
       <c r="V875" s="32"/>
       <c r="W875" s="33" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="X875" s="34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="876" spans="1:24" ht="26.25" hidden="1" customHeight="1">
@@ -66515,10 +66447,10 @@
         <v>453</v>
       </c>
       <c r="F876" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="G876" s="53" t="s">
         <v>546</v>
-      </c>
-      <c r="G876" s="53" t="s">
-        <v>547</v>
       </c>
       <c r="H876" s="32" t="s">
         <v>297</v>
@@ -66538,14 +66470,12 @@
       <c r="Q876" s="32"/>
       <c r="R876" s="32"/>
       <c r="S876" s="37" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="T876" s="31"/>
       <c r="U876" s="31"/>
       <c r="V876" s="32"/>
-      <c r="W876" s="33" t="s">
-        <v>48</v>
-      </c>
+      <c r="W876" s="6"/>
       <c r="X876" s="34" t="s">
         <v>435</v>
       </c>
@@ -66572,7 +66502,7 @@
         <v>130</v>
       </c>
       <c r="G877" s="53" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H877" s="32" t="s">
         <v>297</v>
@@ -66592,12 +66522,12 @@
       <c r="Q877" s="32"/>
       <c r="R877" s="32"/>
       <c r="S877" s="30" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="T877" s="31"/>
       <c r="U877" s="31"/>
       <c r="V877" s="32"/>
-      <c r="W877" s="33"/>
+      <c r="W877" s="6"/>
       <c r="X877" s="34"/>
     </row>
     <row r="878" spans="1:24" hidden="1">
@@ -66797,7 +66727,7 @@
       <c r="T882" s="7"/>
       <c r="U882" s="3"/>
       <c r="V882" s="3"/>
-      <c r="W882" s="11"/>
+      <c r="W882" s="6"/>
       <c r="X882" s="27"/>
     </row>
     <row r="883" spans="1:24" hidden="1">
@@ -66856,13 +66786,13 @@
         <v>45694.829513888886</v>
       </c>
       <c r="E884" s="36" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F884" s="36" t="s">
         <v>152</v>
       </c>
       <c r="G884" s="36" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H884" s="36" t="s">
         <v>299</v>
@@ -66888,7 +66818,7 @@
       </c>
       <c r="R884" s="36"/>
       <c r="S884" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T884" s="35">
         <v>0.33333333333333331</v>
@@ -66897,7 +66827,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="V884" s="36"/>
-      <c r="W884" s="33"/>
+      <c r="W884" s="6"/>
       <c r="X884" s="33"/>
     </row>
     <row r="885" spans="1:24" hidden="1">
@@ -66919,10 +66849,10 @@
         <v>47</v>
       </c>
       <c r="F885" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G885" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="G885" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="H885" s="3" t="s">
         <v>297</v>
@@ -66956,7 +66886,7 @@
         <v>433</v>
       </c>
       <c r="S885" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="T885" s="7">
         <v>0.39374999999999999</v>
@@ -66965,11 +66895,9 @@
         <v>0.58958333333333335</v>
       </c>
       <c r="V885" s="3"/>
-      <c r="W885" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="W885" s="6"/>
       <c r="X885" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="886" spans="1:24" hidden="1">
@@ -66994,7 +66922,7 @@
         <v>99</v>
       </c>
       <c r="G886" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H886" s="3" t="s">
         <v>299</v>
@@ -67020,7 +66948,7 @@
       </c>
       <c r="R886" s="1"/>
       <c r="S886" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="T886" s="7">
         <v>0.33333333333333331</v>
@@ -67054,7 +66982,7 @@
         <v>306</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H887" s="3" t="s">
         <v>297</v>
@@ -67080,7 +67008,7 @@
       </c>
       <c r="R887" s="3"/>
       <c r="S887" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T887" s="7">
         <v>0.67986111111111114</v>
@@ -67091,7 +67019,7 @@
         <v>440</v>
       </c>
       <c r="X887" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="888" spans="1:24">
@@ -67116,7 +67044,7 @@
         <v>31</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H888" s="3" t="s">
         <v>297</v>
@@ -67138,16 +67066,14 @@
       </c>
       <c r="R888" s="3"/>
       <c r="S888" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="T888" s="3"/>
       <c r="U888" s="3"/>
       <c r="V888" s="3"/>
-      <c r="W888" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="W888" s="6"/>
       <c r="X888" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="889" spans="1:24" hidden="1">
@@ -67166,13 +67092,13 @@
         <v>45695.822754629633</v>
       </c>
       <c r="E889" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F889" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G889" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H889" s="3" t="s">
         <v>299</v>
@@ -67199,10 +67125,10 @@
         <v>405</v>
       </c>
       <c r="R889" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="S889" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="S889" s="4" t="s">
-        <v>661</v>
       </c>
       <c r="T889" s="7">
         <v>0.33333333333333331</v>
@@ -67211,9 +67137,7 @@
         <v>0.68472222222222223</v>
       </c>
       <c r="V889" s="3"/>
-      <c r="W889" s="6" t="s">
-        <v>662</v>
-      </c>
+      <c r="W889" s="6"/>
       <c r="X889" s="6"/>
     </row>
     <row r="890" spans="1:24" ht="45.75" hidden="1">
@@ -67238,7 +67162,7 @@
         <v>31</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H890" s="3" t="s">
         <v>297</v>
@@ -67270,7 +67194,7 @@
         <v>433</v>
       </c>
       <c r="S890" s="12" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="T890" s="7">
         <v>0.3576388888888889</v>
@@ -67279,7 +67203,7 @@
       <c r="V890" s="3"/>
       <c r="W890" s="6"/>
       <c r="X890" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="891" spans="1:24">
@@ -67304,7 +67228,7 @@
         <v>126</v>
       </c>
       <c r="G891" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H891" s="3" t="s">
         <v>297</v>
@@ -67330,7 +67254,7 @@
       </c>
       <c r="R891" s="1"/>
       <c r="S891" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="T891" s="7">
         <v>0.33333333333333331</v>
@@ -67338,10 +67262,10 @@
       <c r="U891" s="3"/>
       <c r="V891" s="3"/>
       <c r="W891" s="6" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="X891" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="892" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -67366,7 +67290,7 @@
         <v>279</v>
       </c>
       <c r="G892" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H892" s="3" t="s">
         <v>299</v>
@@ -67392,14 +67316,12 @@
       </c>
       <c r="R892" s="3"/>
       <c r="S892" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="T892" s="3"/>
       <c r="U892" s="3"/>
       <c r="V892" s="3"/>
-      <c r="W892" s="6" t="s">
-        <v>667</v>
-      </c>
+      <c r="W892" s="6"/>
       <c r="X892" s="6"/>
     </row>
     <row r="893" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -67424,7 +67346,7 @@
         <v>279</v>
       </c>
       <c r="G893" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H893" s="3" t="s">
         <v>297</v>
@@ -67452,7 +67374,7 @@
       </c>
       <c r="R893" s="3"/>
       <c r="S893" s="12" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="T893" s="7">
         <v>0.65277777777777779</v>
@@ -67461,9 +67383,7 @@
         <v>0.68263888888888891</v>
       </c>
       <c r="V893" s="3"/>
-      <c r="W893" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="W893" s="6"/>
       <c r="X893" s="6"/>
     </row>
     <row r="894" spans="1:24" ht="45" hidden="1" customHeight="1">
@@ -67485,10 +67405,10 @@
         <v>47</v>
       </c>
       <c r="F894" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G894" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H894" s="3" t="s">
         <v>297</v>
@@ -67518,7 +67438,7 @@
       </c>
       <c r="R894" s="3"/>
       <c r="S894" s="12" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="T894" s="7">
         <v>0.58333333333333337</v>
@@ -67527,9 +67447,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="V894" s="3"/>
-      <c r="W894" s="6" t="s">
-        <v>670</v>
-      </c>
+      <c r="W894" s="6"/>
       <c r="X894" s="6"/>
     </row>
     <row r="895" spans="1:24" ht="33.75" hidden="1" customHeight="1">
@@ -67554,7 +67472,7 @@
         <v>295</v>
       </c>
       <c r="G895" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H895" s="3" t="s">
         <v>299</v>
@@ -67580,7 +67498,7 @@
       </c>
       <c r="R895" s="3"/>
       <c r="S895" s="4" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="T895" s="7">
         <v>0.60416666666666663</v>
@@ -67589,9 +67507,7 @@
         <v>0.63888888888888884</v>
       </c>
       <c r="V895" s="3"/>
-      <c r="W895" s="6" t="s">
-        <v>672</v>
-      </c>
+      <c r="W895" s="6"/>
       <c r="X895" s="6"/>
     </row>
     <row r="896" spans="1:24" ht="51.75" hidden="1" customHeight="1">
@@ -67616,7 +67532,7 @@
         <v>279</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H896" s="3" t="s">
         <v>297</v>
@@ -67644,7 +67560,7 @@
       </c>
       <c r="R896" s="3"/>
       <c r="S896" s="12" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="T896" s="7">
         <v>0.65277777777777779</v>
@@ -67653,9 +67569,7 @@
         <v>0.68263888888888891</v>
       </c>
       <c r="V896" s="3"/>
-      <c r="W896" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="W896" s="6"/>
       <c r="X896" s="6"/>
     </row>
     <row r="897" spans="1:24" s="60" customFormat="1" ht="30.75" hidden="1" customHeight="1">
@@ -67674,13 +67588,13 @@
         <v>45699</v>
       </c>
       <c r="E897" s="36" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F897" s="36" t="s">
         <v>391</v>
       </c>
       <c r="G897" s="36" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H897" s="36" t="s">
         <v>299</v>
@@ -67708,7 +67622,7 @@
       </c>
       <c r="R897" s="36"/>
       <c r="S897" s="28" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="T897" s="35">
         <v>0.41666666666666669</v>
@@ -67717,9 +67631,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="V897" s="36"/>
-      <c r="W897" s="33" t="s">
-        <v>667</v>
-      </c>
+      <c r="W897" s="6"/>
       <c r="X897" s="27"/>
     </row>
     <row r="898" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -67741,10 +67653,10 @@
         <v>453</v>
       </c>
       <c r="F898" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H898" s="3" t="s">
         <v>297</v>
@@ -67770,14 +67682,12 @@
       </c>
       <c r="R898" s="3"/>
       <c r="S898" s="4" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="T898" s="3"/>
       <c r="U898" s="3"/>
       <c r="V898" s="3"/>
-      <c r="W898" s="6" t="s">
-        <v>679</v>
-      </c>
+      <c r="W898" s="6"/>
       <c r="X898" s="6"/>
     </row>
     <row r="899" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -67802,7 +67712,7 @@
         <v>186</v>
       </c>
       <c r="G899" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H899" s="3" t="s">
         <v>299</v>
@@ -67828,7 +67738,7 @@
       </c>
       <c r="R899" s="3"/>
       <c r="S899" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="T899" s="7">
         <v>0.64583333333333337</v>
@@ -67837,9 +67747,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="V899" s="3"/>
-      <c r="W899" s="6" t="s">
-        <v>667</v>
-      </c>
+      <c r="W899" s="6"/>
       <c r="X899" s="6"/>
     </row>
     <row r="900" spans="1:24" ht="206.25" hidden="1" customHeight="1">
@@ -67864,7 +67772,7 @@
         <v>228</v>
       </c>
       <c r="G900" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H900" s="3" t="s">
         <v>297</v>
@@ -67893,21 +67801,19 @@
         <v>493</v>
       </c>
       <c r="R900" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="S900" s="12" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="T900" s="7">
         <v>0.54166666666666663</v>
       </c>
       <c r="U900" s="3"/>
       <c r="V900" s="3"/>
-      <c r="W900" s="6" t="s">
-        <v>440</v>
-      </c>
+      <c r="W900" s="6"/>
       <c r="X900" s="38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="901" spans="1:24" ht="179.25" hidden="1" customHeight="1">
@@ -67929,10 +67835,10 @@
         <v>461</v>
       </c>
       <c r="F901" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G901" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H901" s="3" t="s">
         <v>297</v>
@@ -67958,7 +67864,7 @@
       </c>
       <c r="R901" s="3"/>
       <c r="S901" s="12" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="T901" s="7">
         <v>0.63124999999999998</v>
@@ -67967,9 +67873,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="V901" s="3"/>
-      <c r="W901" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="W901" s="6"/>
       <c r="X901" s="6"/>
     </row>
     <row r="902" spans="1:24" ht="15" customHeight="1">
@@ -67988,13 +67892,13 @@
         <v>45699.760763888888</v>
       </c>
       <c r="E902" s="3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="F902" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G902" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H902" s="3" t="s">
         <v>297</v>
@@ -68020,7 +67924,7 @@
       </c>
       <c r="R902" s="3"/>
       <c r="S902" s="4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="T902" s="7">
         <v>0.33333333333333331</v>
@@ -68028,10 +67932,10 @@
       <c r="U902" s="3"/>
       <c r="V902" s="3"/>
       <c r="W902" s="6" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="X902" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="903" spans="1:24" ht="33.75" customHeight="1">
@@ -68053,10 +67957,10 @@
         <v>461</v>
       </c>
       <c r="F903" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G903" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H903" s="3" t="s">
         <v>297</v>
@@ -68082,7 +67986,7 @@
       </c>
       <c r="R903" s="3"/>
       <c r="S903" s="12" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="T903" s="7">
         <v>0.4201388888888889</v>
@@ -68093,7 +67997,7 @@
         <v>448</v>
       </c>
       <c r="X903" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="904" spans="1:24" ht="39" hidden="1" customHeight="1">
@@ -68115,10 +68019,10 @@
         <v>47</v>
       </c>
       <c r="F904" s="3" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="G904" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H904" s="3" t="s">
         <v>297</v>
@@ -68144,7 +68048,7 @@
       </c>
       <c r="R904" s="3"/>
       <c r="S904" s="12" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="T904" s="7">
         <v>0.41666666666666669</v>
@@ -68153,9 +68057,7 @@
         <v>0.58125000000000004</v>
       </c>
       <c r="V904" s="3"/>
-      <c r="W904" s="6" t="s">
-        <v>670</v>
-      </c>
+      <c r="W904" s="6"/>
       <c r="X904" s="6"/>
     </row>
     <row r="905" spans="1:24" ht="15" customHeight="1">
@@ -68177,10 +68079,10 @@
         <v>473</v>
       </c>
       <c r="F905" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G905" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H905" s="3" t="s">
         <v>297</v>
@@ -68214,7 +68116,7 @@
         <v>433</v>
       </c>
       <c r="S905" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="T905" s="7">
         <v>0.60416666666666663</v>
@@ -68250,7 +68152,7 @@
         <v>25</v>
       </c>
       <c r="G906" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H906" s="3" t="s">
         <v>297</v>
@@ -68272,16 +68174,16 @@
       </c>
       <c r="R906" s="3"/>
       <c r="S906" s="4" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="T906" s="3"/>
       <c r="U906" s="3"/>
       <c r="V906" s="3"/>
       <c r="W906" s="6" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="X906" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="907" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68303,10 +68205,10 @@
         <v>461</v>
       </c>
       <c r="F907" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G907" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H907" s="3" t="s">
         <v>297</v>
@@ -68334,7 +68236,7 @@
       </c>
       <c r="R907" s="3"/>
       <c r="S907" s="4" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="T907" s="7">
         <v>0.58333333333333337</v>
@@ -68343,9 +68245,7 @@
         <v>0.40277777777777779</v>
       </c>
       <c r="V907" s="3"/>
-      <c r="W907" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="W907" s="6"/>
       <c r="X907" s="6"/>
     </row>
     <row r="908" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68370,7 +68270,7 @@
         <v>391</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="H908" s="3" t="s">
         <v>299</v>
@@ -68396,7 +68296,7 @@
       </c>
       <c r="R908" s="3"/>
       <c r="S908" s="4" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="T908" s="7">
         <v>0.625</v>
@@ -68405,9 +68305,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="V908" s="3"/>
-      <c r="W908" s="6" t="s">
-        <v>667</v>
-      </c>
+      <c r="W908" s="6"/>
       <c r="X908" s="6"/>
     </row>
     <row r="909" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68426,7 +68324,7 @@
         <v>45700.720104166663</v>
       </c>
       <c r="E909" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F909" s="3" t="s">
         <v>39</v>
@@ -68458,7 +68356,7 @@
       </c>
       <c r="R909" s="3"/>
       <c r="S909" s="4" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="T909" s="7">
         <v>0.57430555555555551</v>
@@ -68467,9 +68365,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="V909" s="3"/>
-      <c r="W909" s="6" t="s">
-        <v>695</v>
-      </c>
+      <c r="W909" s="6"/>
       <c r="X909" s="6"/>
     </row>
     <row r="910" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68488,13 +68384,13 @@
         <v>45700.735138888886</v>
       </c>
       <c r="E910" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F910" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G910" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H910" s="3" t="s">
         <v>299</v>
@@ -68522,7 +68418,7 @@
       </c>
       <c r="R910" s="3"/>
       <c r="S910" s="4" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="T910" s="7">
         <v>0.625</v>
@@ -68531,9 +68427,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="V910" s="3"/>
-      <c r="W910" s="6" t="s">
-        <v>662</v>
-      </c>
+      <c r="W910" s="6"/>
       <c r="X910" s="6"/>
     </row>
     <row r="911" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68558,7 +68452,7 @@
         <v>95</v>
       </c>
       <c r="G911" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="H911" s="3" t="s">
         <v>299</v>
@@ -68586,7 +68480,7 @@
       </c>
       <c r="R911" s="3"/>
       <c r="S911" s="4" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="T911" s="7">
         <v>0.37013888888888891</v>
@@ -68595,9 +68489,7 @@
         <v>0.65625</v>
       </c>
       <c r="V911" s="3"/>
-      <c r="W911" s="6" t="s">
-        <v>695</v>
-      </c>
+      <c r="W911" s="6"/>
       <c r="X911" s="6"/>
     </row>
     <row r="912" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68622,7 +68514,7 @@
         <v>130</v>
       </c>
       <c r="G912" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H912" s="3" t="s">
         <v>299</v>
@@ -68650,7 +68542,7 @@
       </c>
       <c r="R912" s="3"/>
       <c r="S912" s="4" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="T912" s="7">
         <v>0.54166666666666663</v>
@@ -68659,9 +68551,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="V912" s="3"/>
-      <c r="W912" s="6" t="s">
-        <v>695</v>
-      </c>
+      <c r="W912" s="6"/>
       <c r="X912" s="6"/>
     </row>
     <row r="913" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68686,7 +68576,7 @@
         <v>25</v>
       </c>
       <c r="G913" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H913" s="3" t="s">
         <v>299</v>
@@ -68712,7 +68602,7 @@
       </c>
       <c r="R913" s="3"/>
       <c r="S913" s="4" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="T913" s="7">
         <v>0.45833333333333331</v>
@@ -68746,7 +68636,7 @@
         <v>391</v>
       </c>
       <c r="G914" s="3" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H914" s="3" t="s">
         <v>297</v>
@@ -68772,16 +68662,14 @@
       </c>
       <c r="R914" s="3"/>
       <c r="S914" s="4" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="T914" s="7"/>
       <c r="U914" s="3"/>
       <c r="V914" s="3"/>
-      <c r="W914" s="6" t="s">
-        <v>670</v>
-      </c>
+      <c r="W914" s="6"/>
       <c r="X914" s="6" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="915" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68803,10 +68691,10 @@
         <v>461</v>
       </c>
       <c r="F915" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G915" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H915" s="3" t="s">
         <v>297</v>
@@ -68828,14 +68716,12 @@
       </c>
       <c r="R915" s="3"/>
       <c r="S915" s="4" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="T915" s="7"/>
       <c r="U915" s="3"/>
       <c r="V915" s="3"/>
-      <c r="W915" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="W915" s="6"/>
       <c r="X915" s="6" t="s">
         <v>441</v>
       </c>
@@ -68856,13 +68742,13 @@
         <v>45701.614502314813</v>
       </c>
       <c r="E916" s="3" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>399</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>297</v>
@@ -68894,14 +68780,12 @@
         <v>500</v>
       </c>
       <c r="S916" s="12" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="T916" s="7"/>
       <c r="U916" s="3"/>
       <c r="V916" s="3"/>
-      <c r="W916" s="6" t="s">
-        <v>440</v>
-      </c>
+      <c r="W916" s="6"/>
       <c r="X916" s="6" t="s">
         <v>117</v>
       </c>
@@ -68925,10 +68809,10 @@
         <v>453</v>
       </c>
       <c r="F917" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H917" s="3" t="s">
         <v>297</v>
@@ -68956,18 +68840,16 @@
       </c>
       <c r="R917" s="3"/>
       <c r="S917" s="4" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="T917" s="7">
         <v>0.58611111111111114</v>
       </c>
       <c r="U917" s="3"/>
       <c r="V917" s="3"/>
-      <c r="W917" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="W917" s="6"/>
       <c r="X917" s="6" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="918" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68989,10 +68871,10 @@
         <v>473</v>
       </c>
       <c r="F918" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G918" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H918" s="3" t="s">
         <v>297</v>
@@ -69020,7 +68902,7 @@
       </c>
       <c r="R918" s="3"/>
       <c r="S918" s="4" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="T918" s="7">
         <v>0.58333333333333337</v>
@@ -69029,9 +68911,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="V918" s="3"/>
-      <c r="W918" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="W918" s="6"/>
       <c r="X918" s="6"/>
     </row>
     <row r="919" spans="1:24" ht="15" customHeight="1">
@@ -69053,10 +68933,10 @@
         <v>374</v>
       </c>
       <c r="F919" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G919" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H919" s="3" t="s">
         <v>297</v>
@@ -69078,7 +68958,7 @@
       </c>
       <c r="R919" s="3"/>
       <c r="S919" s="4" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="T919" s="7"/>
       <c r="U919" s="3"/>
@@ -69108,7 +68988,7 @@
         <v>334</v>
       </c>
       <c r="G920" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="H920" s="3" t="s">
         <v>299</v>
@@ -69134,7 +69014,7 @@
       </c>
       <c r="R920" s="3"/>
       <c r="S920" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="T920" s="7">
         <v>0.66666666666666663</v>
@@ -69143,9 +69023,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="V920" s="3"/>
-      <c r="W920" s="6" t="s">
-        <v>695</v>
-      </c>
+      <c r="W920" s="6"/>
       <c r="X920" s="6" t="s">
         <v>441</v>
       </c>
@@ -69172,7 +69050,7 @@
         <v>111</v>
       </c>
       <c r="G921" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H921" s="3" t="s">
         <v>297</v>
@@ -69200,18 +69078,16 @@
       </c>
       <c r="R921" s="3"/>
       <c r="S921" s="4" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="T921" s="7">
         <v>0.375</v>
       </c>
       <c r="U921" s="3"/>
       <c r="V921" s="3"/>
-      <c r="W921" s="6" t="s">
-        <v>554</v>
-      </c>
+      <c r="W921" s="6"/>
       <c r="X921" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="922" spans="1:24" ht="67.5" customHeight="1">
@@ -69236,7 +69112,7 @@
         <v>289</v>
       </c>
       <c r="G922" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H922" s="3" t="s">
         <v>297</v>
@@ -69262,7 +69138,7 @@
       </c>
       <c r="R922" s="3"/>
       <c r="S922" s="12" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="T922" s="7">
         <v>0.52083333333333337</v>
@@ -69273,7 +69149,7 @@
         <v>440</v>
       </c>
       <c r="X922" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="923" spans="1:24" ht="60" hidden="1" customHeight="1">
@@ -69292,13 +69168,13 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E923" s="81" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F923" s="81" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G923" s="81" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H923" s="81" t="s">
         <v>297</v>
@@ -69326,7 +69202,7 @@
       </c>
       <c r="R923" s="3"/>
       <c r="S923" s="100" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="T923" s="7">
         <v>0.54166666666666663</v>
@@ -69335,9 +69211,7 @@
         <v>0.625</v>
       </c>
       <c r="V923" s="3"/>
-      <c r="W923" s="6" t="s">
-        <v>440</v>
-      </c>
+      <c r="W923" s="6"/>
       <c r="X923" s="6"/>
     </row>
     <row r="924" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69362,7 +69236,7 @@
         <v>25</v>
       </c>
       <c r="G924" s="40" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H924" s="20" t="s">
         <v>299</v>
@@ -69388,16 +69262,14 @@
       </c>
       <c r="R924" s="40"/>
       <c r="S924" s="101" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="T924" s="63">
         <v>0.5625</v>
       </c>
       <c r="U924" s="40"/>
       <c r="V924" s="40"/>
-      <c r="W924" s="40" t="s">
-        <v>667</v>
-      </c>
+      <c r="W924" s="40"/>
       <c r="X924" s="40"/>
     </row>
     <row r="925" spans="1:24" ht="145.5" hidden="1" customHeight="1">
@@ -69422,7 +69294,7 @@
         <v>263</v>
       </c>
       <c r="G925" s="64" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H925" s="85" t="s">
         <v>297</v>
@@ -69448,16 +69320,14 @@
       </c>
       <c r="R925" s="64"/>
       <c r="S925" s="102" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="T925" s="67">
         <v>0.41666666666666669</v>
       </c>
       <c r="U925" s="64"/>
       <c r="V925" s="64"/>
-      <c r="W925" s="68" t="s">
-        <v>48</v>
-      </c>
+      <c r="W925" s="68"/>
       <c r="X925" s="69" t="s">
         <v>435</v>
       </c>
@@ -69481,10 +69351,10 @@
         <v>453</v>
       </c>
       <c r="F926" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H926" s="3" t="s">
         <v>297</v>
@@ -69510,14 +69380,12 @@
       </c>
       <c r="R926" s="3"/>
       <c r="S926" s="16" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="T926" s="7"/>
       <c r="U926" s="3"/>
       <c r="V926" s="3"/>
-      <c r="W926" s="6" t="s">
-        <v>695</v>
-      </c>
+      <c r="W926" s="6"/>
       <c r="X926" s="6"/>
     </row>
     <row r="927" spans="1:24" ht="38.25" hidden="1" customHeight="1">
@@ -69539,10 +69407,10 @@
         <v>453</v>
       </c>
       <c r="F927" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="G927" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="G927" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="H927" s="3" t="s">
         <v>297</v>
@@ -69570,16 +69438,14 @@
       </c>
       <c r="R927" s="3"/>
       <c r="S927" s="16" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="T927" s="7"/>
       <c r="U927" s="3"/>
       <c r="V927" s="3"/>
-      <c r="W927" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="W927" s="6"/>
       <c r="X927" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="928" spans="1:24" ht="15" customHeight="1">
@@ -69604,7 +69470,7 @@
         <v>391</v>
       </c>
       <c r="G928" s="3" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H928" s="3" t="s">
         <v>297</v>
@@ -69626,16 +69492,16 @@
       </c>
       <c r="R928" s="3"/>
       <c r="S928" s="16" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="T928" s="7"/>
       <c r="U928" s="3"/>
       <c r="V928" s="3"/>
       <c r="W928" s="6" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="X928" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="929" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69657,10 +69523,10 @@
         <v>374</v>
       </c>
       <c r="F929" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G929" s="18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H929" s="18" t="s">
         <v>297</v>
@@ -69688,18 +69554,16 @@
       </c>
       <c r="R929" s="18"/>
       <c r="S929" s="17" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="T929" s="22">
         <v>0.35625000000000001</v>
       </c>
       <c r="U929" s="18"/>
       <c r="V929" s="19"/>
-      <c r="W929" s="20" t="s">
-        <v>448</v>
-      </c>
+      <c r="W929" s="20"/>
       <c r="X929" s="21" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="930" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69718,7 +69582,7 @@
         <v>45705</v>
       </c>
       <c r="E930" s="18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F930" s="18" t="s">
         <v>39</v>
@@ -69752,7 +69616,7 @@
       </c>
       <c r="R930" s="18"/>
       <c r="S930" s="17" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="T930" s="22">
         <v>0.34722222222222221</v>
@@ -69761,9 +69625,7 @@
         <v>0.4375</v>
       </c>
       <c r="V930" s="19"/>
-      <c r="W930" s="20" t="s">
-        <v>695</v>
-      </c>
+      <c r="W930" s="20"/>
       <c r="X930" s="21"/>
     </row>
     <row r="931" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69788,7 +69650,7 @@
         <v>186</v>
       </c>
       <c r="G931" s="26" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H931" s="26" t="s">
         <v>299</v>
@@ -69816,14 +69678,12 @@
       </c>
       <c r="R931" s="26"/>
       <c r="S931" s="24" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="T931" s="25"/>
       <c r="U931" s="25"/>
       <c r="V931" s="26"/>
-      <c r="W931" s="23" t="s">
-        <v>448</v>
-      </c>
+      <c r="W931" s="23"/>
       <c r="X931" s="23"/>
     </row>
     <row r="932" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69842,13 +69702,13 @@
         <v>45705.627858796295</v>
       </c>
       <c r="E932" s="26" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="F932" s="26" t="s">
         <v>424</v>
       </c>
       <c r="G932" s="26" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H932" s="26" t="s">
         <v>299</v>
@@ -69876,7 +69736,7 @@
       </c>
       <c r="R932" s="26"/>
       <c r="S932" s="24" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="T932" s="25">
         <v>0.29166666666666669</v>
@@ -69885,9 +69745,7 @@
         <v>0.34722222222222221</v>
       </c>
       <c r="V932" s="26"/>
-      <c r="W932" s="23" t="s">
-        <v>726</v>
-      </c>
+      <c r="W932" s="23"/>
       <c r="X932" s="23"/>
     </row>
     <row r="933" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69912,7 +69770,7 @@
         <v>99</v>
       </c>
       <c r="G933" s="26" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H933" s="26" t="s">
         <v>299</v>
@@ -69934,14 +69792,12 @@
       </c>
       <c r="R933" s="26"/>
       <c r="S933" s="24" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="T933" s="25"/>
       <c r="U933" s="25"/>
       <c r="V933" s="26"/>
-      <c r="W933" s="23" t="s">
-        <v>667</v>
-      </c>
+      <c r="W933" s="23"/>
       <c r="X933" s="23"/>
     </row>
     <row r="934" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69966,7 +69822,7 @@
         <v>186</v>
       </c>
       <c r="G934" s="26" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H934" s="26" t="s">
         <v>299</v>
@@ -69988,14 +69844,12 @@
       </c>
       <c r="R934" s="26"/>
       <c r="S934" s="24" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="T934" s="25"/>
       <c r="U934" s="25"/>
       <c r="V934" s="26"/>
-      <c r="W934" s="23" t="s">
-        <v>695</v>
-      </c>
+      <c r="W934" s="23"/>
       <c r="X934" s="23"/>
     </row>
     <row r="935" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70017,10 +69871,10 @@
         <v>47</v>
       </c>
       <c r="F935" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G935" s="26" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H935" s="26" t="s">
         <v>297</v>
@@ -70042,14 +69896,12 @@
       </c>
       <c r="R935" s="26"/>
       <c r="S935" s="24" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="T935" s="25"/>
       <c r="U935" s="25"/>
       <c r="V935" s="26"/>
-      <c r="W935" s="23" t="s">
-        <v>448</v>
-      </c>
+      <c r="W935" s="23"/>
       <c r="X935" s="23"/>
     </row>
     <row r="936" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70071,10 +69923,10 @@
         <v>47</v>
       </c>
       <c r="F936" s="26" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G936" s="26" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H936" s="26" t="s">
         <v>297</v>
@@ -70096,7 +69948,7 @@
       </c>
       <c r="R936" s="26"/>
       <c r="S936" s="24" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="T936" s="25"/>
       <c r="U936" s="25"/>
@@ -70123,10 +69975,10 @@
         <v>463</v>
       </c>
       <c r="F937" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G937" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H937" s="26" t="s">
         <v>297</v>
@@ -70158,7 +70010,7 @@
         <v>433</v>
       </c>
       <c r="S937" s="24" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="T937" s="25"/>
       <c r="U937" s="25"/>
@@ -70189,10 +70041,10 @@
         <v>453</v>
       </c>
       <c r="F938" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G938" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H938" s="26" t="s">
         <v>297</v>
@@ -70224,16 +70076,14 @@
         <v>433</v>
       </c>
       <c r="S938" s="24" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="T938" s="25"/>
       <c r="U938" s="25"/>
       <c r="V938" s="26"/>
-      <c r="W938" s="23" t="s">
-        <v>448</v>
-      </c>
+      <c r="W938" s="23"/>
       <c r="X938" s="23" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="939" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70255,10 +70105,10 @@
         <v>453</v>
       </c>
       <c r="F939" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G939" s="26" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H939" s="26" t="s">
         <v>297</v>
@@ -70282,7 +70132,7 @@
       </c>
       <c r="R939" s="26"/>
       <c r="S939" s="24" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="T939" s="25"/>
       <c r="U939" s="25"/>
@@ -70309,10 +70159,10 @@
         <v>453</v>
       </c>
       <c r="F940" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G940" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H940" s="26" t="s">
         <v>297</v>
@@ -70336,16 +70186,14 @@
       </c>
       <c r="R940" s="26"/>
       <c r="S940" s="24" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="T940" s="25"/>
       <c r="U940" s="25"/>
       <c r="V940" s="26"/>
-      <c r="W940" s="23" t="s">
-        <v>448</v>
-      </c>
+      <c r="W940" s="23"/>
       <c r="X940" s="23" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="941" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70367,10 +70215,10 @@
         <v>453</v>
       </c>
       <c r="F941" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G941" s="26" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H941" s="26" t="s">
         <v>297</v>
@@ -70394,16 +70242,14 @@
       </c>
       <c r="R941" s="26"/>
       <c r="S941" s="24" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="T941" s="25"/>
       <c r="U941" s="25"/>
       <c r="V941" s="26"/>
-      <c r="W941" s="23" t="s">
-        <v>448</v>
-      </c>
+      <c r="W941" s="23"/>
       <c r="X941" s="23" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="942" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70428,7 +70274,7 @@
         <v>424</v>
       </c>
       <c r="G942" s="26" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H942" s="26" t="s">
         <v>297</v>
@@ -70450,7 +70296,7 @@
       </c>
       <c r="R942" s="26"/>
       <c r="S942" s="24" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="T942" s="25"/>
       <c r="U942" s="25"/>
@@ -70477,10 +70323,10 @@
         <v>453</v>
       </c>
       <c r="F943" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G943" s="26" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H943" s="26" t="s">
         <v>297</v>
@@ -70506,16 +70352,14 @@
       </c>
       <c r="R943" s="26"/>
       <c r="S943" s="24" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="T943" s="25"/>
       <c r="U943" s="25"/>
       <c r="V943" s="26"/>
-      <c r="W943" s="23" t="s">
-        <v>448</v>
-      </c>
+      <c r="W943" s="23"/>
       <c r="X943" s="23" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="944" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70537,10 +70381,10 @@
         <v>453</v>
       </c>
       <c r="F944" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G944" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H944" s="26" t="s">
         <v>297</v>
@@ -70566,7 +70410,7 @@
       </c>
       <c r="R944" s="26"/>
       <c r="S944" s="24" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="T944" s="25"/>
       <c r="U944" s="25"/>
@@ -70593,10 +70437,10 @@
         <v>453</v>
       </c>
       <c r="F945" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G945" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H945" s="26" t="s">
         <v>297</v>
@@ -70630,7 +70474,7 @@
         <v>433</v>
       </c>
       <c r="S945" s="24" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="T945" s="25"/>
       <c r="U945" s="25"/>
@@ -70658,19 +70502,19 @@
         <v>45708.50105324074</v>
       </c>
       <c r="E946" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F946" s="26" t="s">
         <v>186</v>
       </c>
       <c r="G946" s="26" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H946" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I946" s="26" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="J946" s="44" t="s">
         <v>446</v>
@@ -70688,7 +70532,7 @@
       </c>
       <c r="R946" s="26"/>
       <c r="S946" s="24" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="T946" s="25">
         <v>0.54166666666666663</v>
@@ -70696,10 +70540,10 @@
       <c r="U946" s="25"/>
       <c r="V946" s="26"/>
       <c r="W946" s="23" t="s">
-        <v>695</v>
+        <v>735</v>
       </c>
       <c r="X946" s="23" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="947" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70721,10 +70565,10 @@
         <v>453</v>
       </c>
       <c r="F947" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="G947" s="26" t="s">
         <v>546</v>
-      </c>
-      <c r="G947" s="26" t="s">
-        <v>547</v>
       </c>
       <c r="H947" s="26" t="s">
         <v>297</v>
@@ -70748,16 +70592,14 @@
       </c>
       <c r="R947" s="26"/>
       <c r="S947" s="24" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="T947" s="25"/>
       <c r="U947" s="25"/>
       <c r="V947" s="26"/>
-      <c r="W947" s="23" t="s">
-        <v>554</v>
-      </c>
+      <c r="W947" s="23"/>
       <c r="X947" s="23" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="948" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70779,10 +70621,10 @@
         <v>453</v>
       </c>
       <c r="F948" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="G948" s="26" t="s">
         <v>546</v>
-      </c>
-      <c r="G948" s="26" t="s">
-        <v>547</v>
       </c>
       <c r="H948" s="26" t="s">
         <v>297</v>
@@ -70804,7 +70646,7 @@
       </c>
       <c r="R948" s="26"/>
       <c r="S948" s="24" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="T948" s="25"/>
       <c r="U948" s="25"/>
@@ -70833,10 +70675,10 @@
         <v>453</v>
       </c>
       <c r="F949" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G949" s="26" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H949" s="26" t="s">
         <v>297</v>
@@ -70862,16 +70704,14 @@
       </c>
       <c r="R949" s="26"/>
       <c r="S949" s="24" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="T949" s="25"/>
       <c r="U949" s="25"/>
       <c r="V949" s="26"/>
-      <c r="W949" s="23" t="s">
-        <v>448</v>
-      </c>
+      <c r="W949" s="23"/>
       <c r="X949" s="23" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="950" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70896,7 +70736,7 @@
         <v>130</v>
       </c>
       <c r="G950" s="26" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H950" s="26" t="s">
         <v>299</v>
@@ -70924,7 +70764,7 @@
       </c>
       <c r="R950" s="26"/>
       <c r="S950" s="24" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="T950" s="25">
         <v>0.73611111111111116</v>
@@ -70933,9 +70773,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="V950" s="26"/>
-      <c r="W950" s="23" t="s">
-        <v>667</v>
-      </c>
+      <c r="W950" s="23"/>
       <c r="X950" s="23"/>
     </row>
     <row r="951" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70957,10 +70795,10 @@
         <v>453</v>
       </c>
       <c r="F951" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G951" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H951" s="26" t="s">
         <v>297</v>
@@ -70992,14 +70830,12 @@
         <v>433</v>
       </c>
       <c r="S951" s="24" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="T951" s="25"/>
       <c r="U951" s="25"/>
       <c r="V951" s="26"/>
-      <c r="W951" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="W951" s="23"/>
       <c r="X951" s="23" t="s">
         <v>435</v>
       </c>
@@ -71026,7 +70862,7 @@
         <v>111</v>
       </c>
       <c r="G952" s="26" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H952" s="26" t="s">
         <v>297</v>
@@ -71050,16 +70886,16 @@
       </c>
       <c r="R952" s="26"/>
       <c r="S952" s="104" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="T952" s="25"/>
       <c r="U952" s="25"/>
       <c r="V952" s="26"/>
       <c r="W952" s="23" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="X952" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="953" spans="1:24" ht="91.5">
@@ -71081,10 +70917,10 @@
         <v>473</v>
       </c>
       <c r="F953" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G953" s="26" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H953" s="26" t="s">
         <v>297</v>
@@ -71106,13 +70942,13 @@
       </c>
       <c r="R953" s="26"/>
       <c r="S953" s="104" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="T953" s="25"/>
       <c r="U953" s="25"/>
       <c r="V953" s="26"/>
       <c r="W953" s="23" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="X953" s="23"/>
     </row>
@@ -71138,7 +70974,7 @@
         <v>186</v>
       </c>
       <c r="G954" s="26" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H954" s="26" t="s">
         <v>297</v>
@@ -71166,16 +71002,14 @@
       </c>
       <c r="R954" s="26"/>
       <c r="S954" s="24" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="T954" s="25"/>
       <c r="U954" s="25"/>
       <c r="V954" s="26"/>
-      <c r="W954" s="23" t="s">
-        <v>448</v>
-      </c>
+      <c r="W954" s="23"/>
       <c r="X954" s="23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="955" spans="1:24" ht="108" customHeight="1">
@@ -71200,7 +71034,7 @@
         <v>31</v>
       </c>
       <c r="G955" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H955" s="26" t="s">
         <v>297</v>
@@ -71228,7 +71062,7 @@
       </c>
       <c r="R955" s="26"/>
       <c r="S955" s="104" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="T955" s="25">
         <v>0.625</v>
@@ -71237,11 +71071,9 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="V955" s="26"/>
-      <c r="W955" s="23" t="s">
-        <v>440</v>
-      </c>
+      <c r="W955" s="23"/>
       <c r="X955" s="23" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="956" spans="1:24" ht="15" customHeight="1">
@@ -71266,13 +71098,13 @@
         <v>279</v>
       </c>
       <c r="G956" s="26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H956" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I956" s="26" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="J956" s="57" t="s">
         <v>446</v>
@@ -71288,16 +71120,16 @@
       </c>
       <c r="R956" s="26"/>
       <c r="S956" s="24" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="T956" s="25"/>
       <c r="U956" s="25"/>
       <c r="V956" s="26"/>
       <c r="W956" s="23" t="s">
-        <v>695</v>
+        <v>735</v>
       </c>
       <c r="X956" s="23" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="957" spans="1:24" ht="15" customHeight="1">
@@ -71319,7 +71151,7 @@
         <v>453</v>
       </c>
       <c r="F957" s="26" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G957" s="26" t="s">
         <v>168</v>
@@ -71348,7 +71180,7 @@
       </c>
       <c r="R957" s="26"/>
       <c r="S957" s="24" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="T957" s="25">
         <v>0.375</v>
@@ -71359,7 +71191,7 @@
         <v>440</v>
       </c>
       <c r="X957" s="23" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="958" spans="1:24" ht="15" customHeight="1">
@@ -71381,10 +71213,10 @@
         <v>453</v>
       </c>
       <c r="F958" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G958" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H958" s="26" t="s">
         <v>299</v>
@@ -71406,16 +71238,16 @@
       </c>
       <c r="R958" s="26"/>
       <c r="S958" s="24" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="T958" s="25"/>
       <c r="U958" s="25"/>
       <c r="V958" s="26"/>
       <c r="W958" s="23" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="X958" s="23" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="959" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71440,7 +71272,7 @@
         <v>399</v>
       </c>
       <c r="G959" s="26" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H959" s="26" t="s">
         <v>297</v>
@@ -71462,14 +71294,12 @@
       </c>
       <c r="R959" s="26"/>
       <c r="S959" s="24" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="T959" s="25"/>
       <c r="U959" s="25"/>
       <c r="V959" s="26"/>
-      <c r="W959" s="23" t="s">
-        <v>554</v>
-      </c>
+      <c r="W959" s="23"/>
       <c r="X959" s="23"/>
     </row>
     <row r="960" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71491,10 +71321,10 @@
         <v>453</v>
       </c>
       <c r="F960" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G960" s="26" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H960" s="26" t="s">
         <v>297</v>
@@ -71516,14 +71346,12 @@
       </c>
       <c r="R960" s="26"/>
       <c r="S960" s="24" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="T960" s="25"/>
       <c r="U960" s="25"/>
       <c r="V960" s="26"/>
-      <c r="W960" s="23" t="s">
-        <v>695</v>
-      </c>
+      <c r="W960" s="23"/>
       <c r="X960" s="23"/>
     </row>
     <row r="961" spans="1:24" ht="48.75" hidden="1" customHeight="1">
@@ -71545,10 +71373,10 @@
         <v>453</v>
       </c>
       <c r="F961" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G961" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H961" s="26" t="s">
         <v>297</v>
@@ -71574,18 +71402,16 @@
       </c>
       <c r="R961" s="26"/>
       <c r="S961" s="104" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="T961" s="25">
         <v>0.375</v>
       </c>
       <c r="U961" s="25"/>
       <c r="V961" s="26"/>
-      <c r="W961" s="23" t="s">
-        <v>448</v>
-      </c>
+      <c r="W961" s="23"/>
       <c r="X961" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="962" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71607,10 +71433,10 @@
         <v>453</v>
       </c>
       <c r="F962" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G962" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H962" s="26" t="s">
         <v>297</v>
@@ -71632,7 +71458,7 @@
       </c>
       <c r="R962" s="26"/>
       <c r="S962" s="24" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="T962" s="25"/>
       <c r="U962" s="25"/>
@@ -71662,7 +71488,7 @@
         <v>99</v>
       </c>
       <c r="G963" s="26" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H963" s="26" t="s">
         <v>297</v>
@@ -71684,16 +71510,16 @@
       </c>
       <c r="R963" s="26"/>
       <c r="S963" s="24" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="T963" s="25"/>
       <c r="U963" s="25"/>
       <c r="V963" s="26"/>
       <c r="W963" s="23" t="s">
-        <v>695</v>
+        <v>735</v>
       </c>
       <c r="X963" s="23" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="964" spans="1:24" ht="15" customHeight="1">
@@ -71715,10 +71541,10 @@
         <v>453</v>
       </c>
       <c r="F964" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="G964" s="26" t="s">
         <v>546</v>
-      </c>
-      <c r="G964" s="26" t="s">
-        <v>547</v>
       </c>
       <c r="H964" s="26" t="s">
         <v>297</v>
@@ -71740,16 +71566,14 @@
       </c>
       <c r="R964" s="26"/>
       <c r="S964" s="24" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="T964" s="25"/>
       <c r="U964" s="25"/>
       <c r="V964" s="26"/>
-      <c r="W964" s="23" t="s">
-        <v>448</v>
-      </c>
+      <c r="W964" s="23"/>
       <c r="X964" s="23" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="965" spans="1:24" ht="15" customHeight="1">
@@ -71771,10 +71595,10 @@
         <v>453</v>
       </c>
       <c r="F965" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="G965" s="26" t="s">
         <v>546</v>
-      </c>
-      <c r="G965" s="26" t="s">
-        <v>547</v>
       </c>
       <c r="H965" s="26" t="s">
         <v>297</v>
@@ -71796,7 +71620,7 @@
       </c>
       <c r="R965" s="26"/>
       <c r="S965" s="24" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="T965" s="25"/>
       <c r="U965" s="25"/>
@@ -71805,7 +71629,7 @@
         <v>448</v>
       </c>
       <c r="X965" s="23" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="966" spans="1:24" ht="15" customHeight="1">
@@ -71830,7 +71654,7 @@
         <v>391</v>
       </c>
       <c r="G966" s="26" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H966" s="26" t="s">
         <v>297</v>
@@ -71839,7 +71663,7 @@
         <v>35</v>
       </c>
       <c r="J966" s="57" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="K966" s="58">
         <v>45714</v>
@@ -71854,7 +71678,7 @@
       </c>
       <c r="R966" s="26"/>
       <c r="S966" s="24" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="T966" s="25"/>
       <c r="U966" s="25"/>
@@ -71863,7 +71687,7 @@
         <v>448</v>
       </c>
       <c r="X966" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="967" spans="1:24" ht="15" customHeight="1">
@@ -71885,10 +71709,10 @@
         <v>453</v>
       </c>
       <c r="F967" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="G967" s="26" t="s">
         <v>546</v>
-      </c>
-      <c r="G967" s="26" t="s">
-        <v>547</v>
       </c>
       <c r="H967" s="26" t="s">
         <v>297</v>
@@ -71910,16 +71734,16 @@
       </c>
       <c r="R967" s="26"/>
       <c r="S967" s="24" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="T967" s="25"/>
       <c r="U967" s="25"/>
       <c r="V967" s="26"/>
       <c r="W967" s="23" t="s">
-        <v>695</v>
+        <v>735</v>
       </c>
       <c r="X967" s="23" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="968" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71941,10 +71765,10 @@
         <v>463</v>
       </c>
       <c r="F968" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G968" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H968" s="26" t="s">
         <v>297</v>
@@ -71970,7 +71794,7 @@
       </c>
       <c r="R968" s="26"/>
       <c r="S968" s="24" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="T968" s="25">
         <v>0.35416666666666669</v>
@@ -71979,11 +71803,9 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="V968" s="26"/>
-      <c r="W968" s="23" t="s">
-        <v>554</v>
-      </c>
+      <c r="W968" s="23"/>
       <c r="X968" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="969" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -72005,10 +71827,10 @@
         <v>453</v>
       </c>
       <c r="F969" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G969" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H969" s="26" t="s">
         <v>297</v>
@@ -72032,16 +71854,14 @@
       </c>
       <c r="R969" s="26"/>
       <c r="S969" s="24" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="T969" s="25"/>
       <c r="U969" s="25"/>
       <c r="V969" s="26"/>
-      <c r="W969" s="23" t="s">
-        <v>448</v>
-      </c>
+      <c r="W969" s="23"/>
       <c r="X969" s="23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="970" spans="1:24" ht="32.25" customHeight="1">
@@ -72063,10 +71883,10 @@
         <v>463</v>
       </c>
       <c r="F970" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G970" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H970" s="26" t="s">
         <v>297</v>
@@ -72090,7 +71910,7 @@
       </c>
       <c r="R970" s="26"/>
       <c r="S970" s="107" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="T970" s="25"/>
       <c r="U970" s="25"/>
@@ -72117,10 +71937,10 @@
         <v>463</v>
       </c>
       <c r="F971" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G971" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H971" s="26" t="s">
         <v>297</v>
@@ -72146,7 +71966,7 @@
       </c>
       <c r="R971" s="26"/>
       <c r="S971" s="24" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="T971" s="25">
         <v>0.52083333333333337</v>
@@ -72155,9 +71975,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="V971" s="26"/>
-      <c r="W971" s="23" t="s">
-        <v>554</v>
-      </c>
+      <c r="W971" s="23"/>
       <c r="X971" s="23"/>
     </row>
     <row r="972" spans="1:24" ht="15" customHeight="1">
@@ -72176,13 +71994,13 @@
         <v>45714</v>
       </c>
       <c r="E972" s="26" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F972" s="26" t="s">
         <v>444</v>
       </c>
       <c r="G972" s="26" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="H972" s="26" t="s">
         <v>299</v>
@@ -72204,13 +72022,13 @@
       </c>
       <c r="R972" s="26"/>
       <c r="S972" s="24" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="T972" s="25"/>
       <c r="U972" s="25"/>
       <c r="V972" s="26"/>
       <c r="W972" s="23" t="s">
-        <v>695</v>
+        <v>735</v>
       </c>
       <c r="X972" s="23"/>
     </row>
@@ -72258,7 +72076,7 @@
       </c>
       <c r="R973" s="26"/>
       <c r="S973" s="24" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="T973" s="25"/>
       <c r="U973" s="25"/>
@@ -72285,10 +72103,10 @@
         <v>461</v>
       </c>
       <c r="F974" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G974" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H974" s="26" t="s">
         <v>297</v>
@@ -72310,7 +72128,7 @@
       </c>
       <c r="R974" s="26"/>
       <c r="S974" s="24" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="T974" s="25"/>
       <c r="U974" s="25"/>
@@ -72340,7 +72158,7 @@
         <v>25</v>
       </c>
       <c r="G975" s="26" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H975" s="26" t="s">
         <v>299</v>
@@ -72362,7 +72180,7 @@
       </c>
       <c r="R975" s="26"/>
       <c r="S975" s="24" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="T975" s="25"/>
       <c r="U975" s="25"/>
@@ -72392,7 +72210,7 @@
         <v>95</v>
       </c>
       <c r="G976" s="26" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="H976" s="26" t="s">
         <v>299</v>
@@ -72414,14 +72232,12 @@
       </c>
       <c r="R976" s="26"/>
       <c r="S976" s="24" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="T976" s="25"/>
       <c r="U976" s="25"/>
       <c r="V976" s="26"/>
-      <c r="W976" s="23" t="s">
-        <v>695</v>
-      </c>
+      <c r="W976" s="23"/>
       <c r="X976" s="23"/>
     </row>
     <row r="977" spans="1:24" ht="39" customHeight="1">
@@ -72446,7 +72262,7 @@
         <v>95</v>
       </c>
       <c r="G977" s="26" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="H977" s="26" t="s">
         <v>297</v>
@@ -72474,7 +72290,7 @@
       </c>
       <c r="R977" s="26"/>
       <c r="S977" s="104" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="T977" s="25">
         <v>0.39583333333333331</v>
@@ -72483,11 +72299,9 @@
         <v>0.625</v>
       </c>
       <c r="V977" s="26"/>
-      <c r="W977" s="23" t="s">
-        <v>695</v>
-      </c>
+      <c r="W977" s="23"/>
       <c r="X977" s="23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="978" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -72512,7 +72326,7 @@
         <v>424</v>
       </c>
       <c r="G978" s="26" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H978" s="26" t="s">
         <v>299</v>
@@ -72538,7 +72352,7 @@
       </c>
       <c r="R978" s="26"/>
       <c r="S978" s="24" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="T978" s="25"/>
       <c r="U978" s="25"/>
@@ -72565,10 +72379,10 @@
         <v>453</v>
       </c>
       <c r="F979" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G979" s="26" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H979" s="26" t="s">
         <v>297</v>
@@ -72590,7 +72404,7 @@
       </c>
       <c r="R979" s="26"/>
       <c r="S979" s="24" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="T979" s="25"/>
       <c r="U979" s="25"/>
@@ -72616,13 +72430,13 @@
         <v>45716</v>
       </c>
       <c r="E980" s="26" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F980" s="26" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G980" s="26" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H980" s="26" t="s">
         <v>297</v>
@@ -72646,16 +72460,14 @@
       </c>
       <c r="R980" s="26"/>
       <c r="S980" s="24" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="T980" s="25">
         <v>0.375</v>
       </c>
       <c r="U980" s="25"/>
       <c r="V980" s="26"/>
-      <c r="W980" s="23" t="s">
-        <v>448</v>
-      </c>
+      <c r="W980" s="23"/>
       <c r="X980" s="23"/>
     </row>
     <row r="981" spans="1:24" ht="15" customHeight="1">
@@ -72680,7 +72492,7 @@
         <v>95</v>
       </c>
       <c r="G981" s="26" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="H981" s="26" t="s">
         <v>297</v>
@@ -72702,14 +72514,12 @@
       </c>
       <c r="R981" s="26"/>
       <c r="S981" s="24" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="T981" s="25"/>
       <c r="U981" s="25"/>
       <c r="V981" s="26"/>
-      <c r="W981" s="23" t="s">
-        <v>448</v>
-      </c>
+      <c r="W981" s="23"/>
       <c r="X981" s="23"/>
     </row>
     <row r="982" spans="1:24" ht="15" customHeight="1">
@@ -72743,7 +72553,7 @@
         <v>28</v>
       </c>
       <c r="J982" s="57" t="s">
-        <v>509</v>
+        <v>29</v>
       </c>
       <c r="K982" s="58">
         <v>45723</v>
@@ -72758,14 +72568,12 @@
       </c>
       <c r="R982" s="26"/>
       <c r="S982" s="24" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="T982" s="25"/>
       <c r="U982" s="25"/>
       <c r="V982" s="26"/>
-      <c r="W982" s="23" t="s">
-        <v>695</v>
-      </c>
+      <c r="W982" s="23"/>
       <c r="X982" s="23"/>
     </row>
     <row r="983" spans="1:24" ht="15" customHeight="1">
@@ -72790,7 +72598,7 @@
         <v>116</v>
       </c>
       <c r="G983" s="26" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="H983" s="26" t="s">
         <v>299</v>
@@ -72799,7 +72607,7 @@
         <v>28</v>
       </c>
       <c r="J983" s="57" t="s">
-        <v>509</v>
+        <v>29</v>
       </c>
       <c r="K983" s="58">
         <v>45723</v>
@@ -72814,14 +72622,12 @@
       </c>
       <c r="R983" s="26"/>
       <c r="S983" s="24" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="T983" s="25"/>
       <c r="U983" s="25"/>
       <c r="V983" s="26"/>
-      <c r="W983" s="23" t="s">
-        <v>695</v>
-      </c>
+      <c r="W983" s="23"/>
       <c r="X983" s="23"/>
     </row>
     <row r="984" spans="1:24" ht="15" customHeight="1">
@@ -72846,7 +72652,7 @@
         <v>76</v>
       </c>
       <c r="G984" s="26" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H984" s="26" t="s">
         <v>299</v>
@@ -72872,7 +72678,7 @@
       </c>
       <c r="R984" s="26"/>
       <c r="S984" s="24" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="T984" s="25">
         <v>0.54166666666666663</v>
@@ -72881,9 +72687,7 @@
         <v>0.58125000000000004</v>
       </c>
       <c r="V984" s="26"/>
-      <c r="W984" s="23" t="s">
-        <v>695</v>
-      </c>
+      <c r="W984" s="23"/>
       <c r="X984" s="23"/>
     </row>
     <row r="985" spans="1:24" ht="39" customHeight="1">
@@ -72902,13 +72706,13 @@
         <v>45691</v>
       </c>
       <c r="E985" s="26" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="F985" s="26" t="s">
         <v>89</v>
       </c>
       <c r="G985" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H985" s="26" t="s">
         <v>297</v>
@@ -72917,7 +72721,7 @@
         <v>35</v>
       </c>
       <c r="J985" s="57" t="s">
-        <v>509</v>
+        <v>29</v>
       </c>
       <c r="K985" s="58"/>
       <c r="L985" s="26"/>
@@ -72932,14 +72736,12 @@
       </c>
       <c r="R985" s="26"/>
       <c r="S985" s="104" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="T985" s="25"/>
       <c r="U985" s="25"/>
       <c r="V985" s="26"/>
-      <c r="W985" s="23" t="s">
-        <v>554</v>
-      </c>
+      <c r="W985" s="23"/>
       <c r="X985" s="23"/>
     </row>
     <row r="986" spans="1:24" ht="15" customHeight="1">
@@ -72964,7 +72766,7 @@
         <v>130</v>
       </c>
       <c r="G986" s="26" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H986" s="26" t="s">
         <v>297</v>
@@ -72986,13 +72788,13 @@
       </c>
       <c r="R986" s="26"/>
       <c r="S986" s="24" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="T986" s="25"/>
       <c r="U986" s="25"/>
       <c r="V986" s="26"/>
       <c r="W986" s="23" t="s">
-        <v>695</v>
+        <v>735</v>
       </c>
       <c r="X986" s="23"/>
     </row>
@@ -73015,10 +72817,10 @@
         <v>453</v>
       </c>
       <c r="F987" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G987" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H987" s="26" t="s">
         <v>297</v>
@@ -73040,7 +72842,7 @@
       </c>
       <c r="R987" s="26"/>
       <c r="S987" s="24" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="T987" s="25"/>
       <c r="U987" s="25"/>
@@ -73069,10 +72871,10 @@
         <v>453</v>
       </c>
       <c r="F988" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G988" s="26" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H988" s="26" t="s">
         <v>297</v>
@@ -73094,7 +72896,7 @@
       </c>
       <c r="R988" s="26"/>
       <c r="S988" s="24" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="T988" s="25"/>
       <c r="U988" s="25"/>
@@ -73124,7 +72926,7 @@
         <v>111</v>
       </c>
       <c r="G989" s="26" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H989" s="26" t="s">
         <v>299</v>
@@ -73150,7 +72952,7 @@
       </c>
       <c r="R989" s="26"/>
       <c r="S989" s="24" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="T989" s="25">
         <v>0.59722222222222221</v>
@@ -73184,7 +72986,7 @@
         <v>25</v>
       </c>
       <c r="G990" s="26" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H990" s="26" t="s">
         <v>299</v>
@@ -73210,7 +73012,7 @@
       </c>
       <c r="R990" s="26"/>
       <c r="S990" s="24" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="T990" s="25">
         <v>0.625</v>
@@ -73219,9 +73021,7 @@
         <v>0.64861111111111114</v>
       </c>
       <c r="V990" s="26"/>
-      <c r="W990" s="23" t="s">
-        <v>695</v>
-      </c>
+      <c r="W990" s="23"/>
       <c r="X990" s="23"/>
     </row>
     <row r="991" spans="1:24" ht="82.5" customHeight="1">
@@ -73246,16 +73046,16 @@
         <v>394</v>
       </c>
       <c r="G991" s="26" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="H991" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I991" s="44" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="J991" s="57" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K991" s="58"/>
       <c r="L991" s="26"/>
@@ -73270,13 +73070,13 @@
       </c>
       <c r="R991" s="26"/>
       <c r="S991" s="104" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="T991" s="25"/>
       <c r="U991" s="25"/>
       <c r="V991" s="26"/>
       <c r="W991" s="23" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="X991" s="23"/>
     </row>
@@ -73299,10 +73099,10 @@
         <v>473</v>
       </c>
       <c r="F992" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G992" s="26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H992" s="26" t="s">
         <v>297</v>
@@ -73324,13 +73124,13 @@
       </c>
       <c r="R992" s="26"/>
       <c r="S992" s="24" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="T992" s="25"/>
       <c r="U992" s="25"/>
       <c r="V992" s="26"/>
       <c r="W992" s="23" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="X992" s="23"/>
     </row>
@@ -73356,13 +73156,13 @@
         <v>160</v>
       </c>
       <c r="G993" s="26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H993" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I993" s="44" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J993" s="57" t="s">
         <v>428</v>
@@ -73382,7 +73182,7 @@
       </c>
       <c r="R993" s="26"/>
       <c r="S993" s="24" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="T993" s="25"/>
       <c r="U993" s="25"/>
@@ -73414,13 +73214,13 @@
         <v>394</v>
       </c>
       <c r="G994" s="26" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="H994" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I994" s="44" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="J994" s="57" t="s">
         <v>446</v>
@@ -73438,13 +73238,13 @@
       </c>
       <c r="R994" s="26"/>
       <c r="S994" s="108" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="T994" s="25"/>
       <c r="U994" s="25"/>
       <c r="V994" s="26"/>
       <c r="W994" s="23" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="X994" s="23"/>
     </row>
@@ -73467,10 +73267,10 @@
         <v>453</v>
       </c>
       <c r="F995" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G995" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H995" s="26" t="s">
         <v>297</v>
@@ -73492,7 +73292,7 @@
       </c>
       <c r="R995" s="26"/>
       <c r="S995" s="24" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="T995" s="25"/>
       <c r="U995" s="25"/>
@@ -73522,13 +73322,13 @@
         <v>130</v>
       </c>
       <c r="G996" s="26" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H996" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I996" s="44" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="J996" s="57" t="s">
         <v>446</v>
@@ -73544,7 +73344,7 @@
       </c>
       <c r="R996" s="26"/>
       <c r="S996" s="24" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="T996" s="25"/>
       <c r="U996" s="25"/>
@@ -73574,13 +73374,13 @@
         <v>438</v>
       </c>
       <c r="G997" s="26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H997" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I997" s="44" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J997" s="57" t="s">
         <v>446</v>
@@ -73596,7 +73396,7 @@
       </c>
       <c r="R997" s="26"/>
       <c r="S997" s="24" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="T997" s="25"/>
       <c r="U997" s="25"/>
@@ -73620,22 +73420,22 @@
         <v>45723</v>
       </c>
       <c r="E998" s="26" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="F998" s="26" t="s">
         <v>89</v>
       </c>
       <c r="G998" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H998" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I998" s="44" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="J998" s="57" t="s">
-        <v>509</v>
+        <v>29</v>
       </c>
       <c r="K998" s="58"/>
       <c r="L998" s="26"/>
@@ -73650,7 +73450,7 @@
       </c>
       <c r="R998" s="26"/>
       <c r="S998" s="24" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="T998" s="25"/>
       <c r="U998" s="25"/>
@@ -73674,22 +73474,22 @@
         <v>45726</v>
       </c>
       <c r="E999" s="26" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="F999" s="26" t="s">
         <v>89</v>
       </c>
       <c r="G999" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H999" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I999" s="44" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="J999" s="57" t="s">
-        <v>446</v>
+        <v>29</v>
       </c>
       <c r="K999" s="58"/>
       <c r="L999" s="26"/>
@@ -73702,7 +73502,7 @@
       </c>
       <c r="R999" s="26"/>
       <c r="S999" s="24" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="T999" s="25"/>
       <c r="U999" s="25"/>
@@ -73729,16 +73529,16 @@
         <v>453</v>
       </c>
       <c r="F1000" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G1000" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H1000" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I1000" s="44" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="J1000" s="57" t="s">
         <v>446</v>
@@ -73754,7 +73554,7 @@
       </c>
       <c r="R1000" s="26"/>
       <c r="S1000" s="24" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="T1000" s="25"/>
       <c r="U1000" s="25"/>
@@ -73784,13 +73584,13 @@
         <v>424</v>
       </c>
       <c r="G1001" s="26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H1001" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I1001" s="44" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J1001" s="57" t="s">
         <v>446</v>
@@ -73806,7 +73606,7 @@
       </c>
       <c r="R1001" s="26"/>
       <c r="S1001" s="24" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="T1001" s="25"/>
       <c r="U1001" s="25"/>
@@ -73836,13 +73636,13 @@
         <v>424</v>
       </c>
       <c r="G1002" s="26" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H1002" s="26" t="s">
         <v>299</v>
       </c>
       <c r="I1002" s="44" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J1002" s="57" t="s">
         <v>446</v>
@@ -73858,7 +73658,7 @@
       </c>
       <c r="R1002" s="26"/>
       <c r="S1002" s="24" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="T1002" s="25"/>
       <c r="U1002" s="25"/>
@@ -73882,19 +73682,19 @@
         <v>45726</v>
       </c>
       <c r="E1003" s="26" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="F1003" s="26" t="s">
         <v>126</v>
       </c>
       <c r="G1003" s="26" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="H1003" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I1003" s="44" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="J1003" s="57" t="s">
         <v>29</v>
@@ -73914,16 +73714,14 @@
       </c>
       <c r="R1003" s="26"/>
       <c r="S1003" s="104" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="T1003" s="25"/>
       <c r="U1003" s="25">
         <v>0.72916666666666663</v>
       </c>
       <c r="V1003" s="26"/>
-      <c r="W1003" s="23" t="s">
-        <v>811</v>
-      </c>
+      <c r="W1003" s="23"/>
       <c r="X1003" s="23"/>
     </row>
     <row r="1004" spans="1:24" ht="15" customHeight="1">
@@ -73948,13 +73746,13 @@
         <v>228</v>
       </c>
       <c r="G1004" s="26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H1004" s="26" t="s">
         <v>297</v>
       </c>
       <c r="I1004" s="44" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="J1004" s="57" t="s">
         <v>446</v>
@@ -73970,7 +73768,7 @@
       </c>
       <c r="R1004" s="26"/>
       <c r="S1004" s="24" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="T1004" s="25"/>
       <c r="U1004" s="25"/>
@@ -73994,7 +73792,7 @@
         <v>45727</v>
       </c>
       <c r="E1005" s="26" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F1005" s="26" t="s">
         <v>432</v>
@@ -74006,7 +73804,7 @@
         <v>297</v>
       </c>
       <c r="I1005" s="44" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="J1005" s="57" t="s">
         <v>446</v>
@@ -74022,7 +73820,7 @@
       </c>
       <c r="R1005" s="26"/>
       <c r="S1005" s="24" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="T1005" s="25"/>
       <c r="U1005" s="25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3565" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA1BC604-E881-45C4-95CF-0676DFB47F47}"/>
+  <xr:revisionPtr revIDLastSave="3571" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE25A56A-220B-41F2-A1C4-C716A1EDD39D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16027" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16034" uniqueCount="808">
   <si>
     <t>ANO</t>
   </si>
@@ -2634,6 +2634,12 @@
   </si>
   <si>
     <t>11 CAPACETES PARA INSTRUMENTOS</t>
+  </si>
+  <si>
+    <t>Joardson de Jesus Rodrigues</t>
+  </si>
+  <si>
+    <t>Fábrica 4 hastes 50cm</t>
   </si>
 </sst>
 </file>
@@ -3916,8 +3922,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1005" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X1005" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1006" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X1006" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4262,10 +4268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA1005"/>
+  <dimension ref="A1:AA1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P749" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S887" sqref="S887"/>
+    <sheetView tabSelected="1" topLeftCell="Q919" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A928" sqref="A928:XFD928"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -66403,7 +66409,7 @@
         <v>35</v>
       </c>
       <c r="J875" s="32" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K875" s="54">
         <v>45700</v>
@@ -69479,7 +69485,7 @@
         <v>35</v>
       </c>
       <c r="J928" s="3" t="s">
-        <v>446</v>
+        <v>60</v>
       </c>
       <c r="K928" s="49"/>
       <c r="L928" s="3"/>
@@ -73755,7 +73761,7 @@
         <v>788</v>
       </c>
       <c r="J1004" s="57" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="K1004" s="58"/>
       <c r="L1004" s="26"/>
@@ -73828,13 +73834,65 @@
       <c r="W1005" s="23"/>
       <c r="X1005" s="23"/>
     </row>
+    <row r="1006" spans="1:24" ht="15" customHeight="1">
+      <c r="A1006" s="87">
+        <f>YEAR(D1006)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1006" s="26">
+        <f>MONTH(D1006)</f>
+        <v>3</v>
+      </c>
+      <c r="C1006" s="44">
+        <v>1021</v>
+      </c>
+      <c r="D1006" s="58">
+        <v>45727</v>
+      </c>
+      <c r="E1006" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1006" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1006" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="H1006" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1006" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="J1006" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1006" s="58"/>
+      <c r="L1006" s="26"/>
+      <c r="M1006" s="58"/>
+      <c r="N1006" s="58"/>
+      <c r="O1006" s="26"/>
+      <c r="P1006" s="26"/>
+      <c r="Q1006" s="26">
+        <v>1012</v>
+      </c>
+      <c r="R1006" s="26"/>
+      <c r="S1006" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="T1006" s="25"/>
+      <c r="U1006" s="25"/>
+      <c r="V1006" s="26"/>
+      <c r="W1006" s="23"/>
+      <c r="X1006" s="23"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
     <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="CANCELADA">
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1005">
+  <conditionalFormatting sqref="J2:J1006">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -73898,12 +73956,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -74080,7 +74132,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -74089,14 +74141,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3571" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE25A56A-220B-41F2-A1C4-C716A1EDD39D}"/>
+  <xr:revisionPtr revIDLastSave="3693" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EBDEE72-F77A-4F54-A6EF-A32CCC3FD456}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16034" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16147" uniqueCount="823">
   <si>
     <t>ANO</t>
   </si>
@@ -1793,6 +1793,9 @@
     <t>Realizar fenda no eixo de suporte do dispersor de amostras.</t>
   </si>
   <si>
+    <t>TORNEARIA</t>
+  </si>
+  <si>
     <t>146-24 VALE - PDE SUL II - CKS</t>
   </si>
   <si>
@@ -2042,9 +2045,6 @@
   </si>
   <si>
     <t>Fabricar redução de HW para HQ</t>
-  </si>
-  <si>
-    <t>TORNEARIA</t>
   </si>
   <si>
     <t>Reparos e Pintura na escada para a sonda S-36.</t>
@@ -2639,7 +2639,55 @@
     <t>Joardson de Jesus Rodrigues</t>
   </si>
   <si>
-    <t>Fábrica 4 hastes 50cm</t>
+    <t>Fábrica 4 hastes HQ 50 cm, 4 hastes hq de 50 cm com rosca NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 camisas Denison com chanfro </t>
+  </si>
+  <si>
+    <t>Rafael dos Santos Espinoza</t>
+  </si>
+  <si>
+    <t>Manutenção preventiva e revisão no compressor CP-03.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabricação de Portas com cadeado para a prateleira que irá Guardar os itens Calibrados </t>
+  </si>
+  <si>
+    <t>TROCA DO KIT DE RELAÇÃO E PREECNHIMETO DO PIÃO DA ACOPLAEM COM A MOTOBOMBA.</t>
+  </si>
+  <si>
+    <t>FABRICAR SUPORTE DA PATOLA - RXC-9C76</t>
+  </si>
+  <si>
+    <t>3 hastes de percussão de 1,00 metro  e 02 manuseador de hastes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+04 hastes de percussão de 1.00 metro
+</t>
+  </si>
+  <si>
+    <t>Soldar proteção de ciclismo, cortar o cabo de aço do caminhão QEI-7D15</t>
+  </si>
+  <si>
+    <t>05 haste de 1m HQ.</t>
+  </si>
+  <si>
+    <t>MT 01 - MOTOR BRANCO</t>
+  </si>
+  <si>
+    <t>Arrumar a partida, arrumar o suporte do tanque de combustível,o suporte interno do rotor, trocar o filtro de combustível,arrumar o motor,pois está fumaçando, substituir a grade de proteção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 SUPORTE PARA 5 COLETORES DE 60 LITROS COM PEDAL </t>
+  </si>
+  <si>
+    <t>1 calha de correr de 6 metros
+1 calha com morsa de 6 metros</t>
+  </si>
+  <si>
+    <t>Manutenção corretiva na parte elétrica mecânica e hidráulica motor caixa de engrenagem</t>
   </si>
 </sst>
 </file>
@@ -2737,7 +2785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2969,12 +3017,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3297,6 +3369,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3922,8 +4003,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1006" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X1006" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1019" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X1019" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4268,10 +4349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA1006"/>
+  <dimension ref="A1:AA1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q919" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A928" sqref="A928:XFD928"/>
+    <sheetView tabSelected="1" topLeftCell="I981" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N1007" sqref="N1007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -59580,7 +59661,7 @@
       </c>
       <c r="V760" s="1"/>
       <c r="W760" s="5" t="s">
-        <v>448</v>
+        <v>48</v>
       </c>
       <c r="X760" s="11" t="s">
         <v>435</v>
@@ -61727,7 +61808,7 @@
         <v>35</v>
       </c>
       <c r="J790" s="1" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="K790" s="46">
         <v>45685</v>
@@ -62490,7 +62571,7 @@
       <c r="U804" s="1"/>
       <c r="V804" s="1"/>
       <c r="W804" s="5" t="s">
-        <v>448</v>
+        <v>548</v>
       </c>
       <c r="X804" s="5"/>
     </row>
@@ -62510,7 +62591,7 @@
         <v>45681</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F805" s="1" t="s">
         <v>25</v>
@@ -62538,7 +62619,7 @@
       <c r="Q805" s="1"/>
       <c r="R805" s="1"/>
       <c r="S805" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T805" s="1"/>
       <c r="U805" s="1"/>
@@ -62590,7 +62671,7 @@
       <c r="Q806" s="1"/>
       <c r="R806" s="1"/>
       <c r="S806" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="T806" s="1"/>
       <c r="U806" s="1"/>
@@ -62614,7 +62695,7 @@
         <v>45681</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F807" s="3" t="s">
         <v>545</v>
@@ -62702,7 +62783,7 @@
         <v>433</v>
       </c>
       <c r="S808" s="94" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T808" s="7">
         <v>0.375</v>
@@ -62711,7 +62792,7 @@
       <c r="V808" s="3"/>
       <c r="W808" s="5"/>
       <c r="X808" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="809" spans="1:24" hidden="1">
@@ -62730,13 +62811,13 @@
         <v>45681</v>
       </c>
       <c r="E809" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F809" s="3" t="s">
         <v>523</v>
       </c>
       <c r="G809" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H809" s="3" t="s">
         <v>297</v>
@@ -62762,7 +62843,7 @@
       </c>
       <c r="R809" s="3"/>
       <c r="S809" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="T809" s="7">
         <v>0.41666666666666669</v>
@@ -62793,10 +62874,10 @@
         <v>47</v>
       </c>
       <c r="F810" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G810" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H810" s="3" t="s">
         <v>297</v>
@@ -62816,7 +62897,7 @@
       <c r="Q810" s="3"/>
       <c r="R810" s="3"/>
       <c r="S810" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="T810" s="3"/>
       <c r="U810" s="3"/>
@@ -62848,7 +62929,7 @@
         <v>289</v>
       </c>
       <c r="G811" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H811" s="3" t="s">
         <v>299</v>
@@ -62872,7 +62953,7 @@
       </c>
       <c r="R811" s="3"/>
       <c r="S811" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="T811" s="7">
         <v>0.33333333333333331</v>
@@ -62906,7 +62987,7 @@
         <v>545</v>
       </c>
       <c r="G812" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H812" s="1" t="s">
         <v>297</v>
@@ -62926,7 +63007,7 @@
       <c r="Q812" s="1"/>
       <c r="R812" s="1"/>
       <c r="S812" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="T812" s="1"/>
       <c r="U812" s="1"/>
@@ -62952,7 +63033,7 @@
         <v>45684</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F813" s="1" t="s">
         <v>39</v>
@@ -62967,7 +63048,7 @@
         <v>35</v>
       </c>
       <c r="J813" s="1" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="K813" s="46">
         <v>45702</v>
@@ -62980,7 +63061,7 @@
       <c r="Q813" s="1"/>
       <c r="R813" s="1"/>
       <c r="S813" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="T813" s="1"/>
       <c r="U813" s="1"/>
@@ -63010,7 +63091,7 @@
         <v>263</v>
       </c>
       <c r="G814" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H814" s="1" t="s">
         <v>297</v>
@@ -63034,7 +63115,7 @@
       <c r="Q814" s="1"/>
       <c r="R814" s="1"/>
       <c r="S814" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="T814" s="1"/>
       <c r="U814" s="1"/>
@@ -63064,7 +63145,7 @@
         <v>228</v>
       </c>
       <c r="G815" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H815" s="1" t="s">
         <v>297</v>
@@ -63073,7 +63154,7 @@
         <v>35</v>
       </c>
       <c r="J815" s="1" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K815" s="46">
         <v>45685</v>
@@ -63094,7 +63175,7 @@
         <v>433</v>
       </c>
       <c r="S815" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="T815" s="8">
         <v>0.56944444444444442</v>
@@ -63132,7 +63213,7 @@
         <v>279</v>
       </c>
       <c r="G816" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H816" s="3" t="s">
         <v>297</v>
@@ -63162,7 +63243,7 @@
         <v>433</v>
       </c>
       <c r="S816" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="T816" s="7">
         <v>0.58333333333333337</v>
@@ -63197,10 +63278,10 @@
         <v>47</v>
       </c>
       <c r="F817" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G817" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H817" s="1" t="s">
         <v>297</v>
@@ -63222,7 +63303,7 @@
       <c r="Q817" s="1"/>
       <c r="R817" s="1"/>
       <c r="S817" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="T817" s="1"/>
       <c r="U817" s="1"/>
@@ -63246,13 +63327,13 @@
         <v>45684</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F818" s="1" t="s">
         <v>523</v>
       </c>
       <c r="G818" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H818" s="1" t="s">
         <v>299</v>
@@ -63276,7 +63357,7 @@
       <c r="Q818" s="1"/>
       <c r="R818" s="1"/>
       <c r="S818" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T818" s="1"/>
       <c r="U818" s="1"/>
@@ -63306,7 +63387,7 @@
         <v>444</v>
       </c>
       <c r="G819" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H819" s="1" t="s">
         <v>297</v>
@@ -63330,7 +63411,7 @@
       <c r="Q819" s="1"/>
       <c r="R819" s="1"/>
       <c r="S819" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T819" s="1"/>
       <c r="U819" s="1"/>
@@ -63360,7 +63441,7 @@
         <v>444</v>
       </c>
       <c r="G820" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H820" s="1" t="s">
         <v>297</v>
@@ -63408,7 +63489,7 @@
         <v>263</v>
       </c>
       <c r="G821" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H821" s="1" t="s">
         <v>299</v>
@@ -63430,11 +63511,11 @@
       <c r="O821" s="1"/>
       <c r="P821" s="1"/>
       <c r="Q821" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="R821" s="1"/>
       <c r="S821" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="T821" s="8">
         <v>0.61111111111111116</v>
@@ -63468,7 +63549,7 @@
         <v>295</v>
       </c>
       <c r="G822" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H822" s="1" t="s">
         <v>299</v>
@@ -63490,11 +63571,11 @@
       <c r="O822" s="1"/>
       <c r="P822" s="1"/>
       <c r="Q822" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="R822" s="1"/>
       <c r="S822" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T822" s="8">
         <v>0.33333333333333331</v>
@@ -63522,13 +63603,13 @@
         <v>45684</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F823" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G823" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H823" s="1" t="s">
         <v>299</v>
@@ -63550,11 +63631,11 @@
       <c r="O823" s="1"/>
       <c r="P823" s="1"/>
       <c r="Q823" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="R823" s="1"/>
       <c r="S823" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T823" s="8">
         <v>0.38055555555555554</v>
@@ -63588,7 +63669,7 @@
         <v>306</v>
       </c>
       <c r="G824" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H824" s="1" t="s">
         <v>297</v>
@@ -63612,7 +63693,7 @@
       <c r="Q824" s="1"/>
       <c r="R824" s="1"/>
       <c r="S824" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T824" s="8"/>
       <c r="U824" s="8"/>
@@ -63642,7 +63723,7 @@
         <v>111</v>
       </c>
       <c r="G825" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H825" s="1" t="s">
         <v>297</v>
@@ -63666,7 +63747,7 @@
       <c r="Q825" s="1"/>
       <c r="R825" s="1"/>
       <c r="S825" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="T825" s="1"/>
       <c r="U825" s="1"/>
@@ -63696,7 +63777,7 @@
         <v>76</v>
       </c>
       <c r="G826" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H826" s="1" t="s">
         <v>297</v>
@@ -63720,7 +63801,7 @@
       <c r="Q826" s="1"/>
       <c r="R826" s="1"/>
       <c r="S826" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="T826" s="1"/>
       <c r="U826" s="1"/>
@@ -63750,7 +63831,7 @@
         <v>279</v>
       </c>
       <c r="G827" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H827" s="1" t="s">
         <v>297</v>
@@ -63774,7 +63855,7 @@
       <c r="Q827" s="1"/>
       <c r="R827" s="1"/>
       <c r="S827" s="95" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="T827" s="1"/>
       <c r="U827" s="1"/>
@@ -63804,7 +63885,7 @@
         <v>111</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H828" s="1" t="s">
         <v>299</v>
@@ -63826,11 +63907,11 @@
       <c r="O828" s="1"/>
       <c r="P828" s="1"/>
       <c r="Q828" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="R828" s="1"/>
       <c r="S828" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T828" s="8">
         <v>0.41666666666666669</v>
@@ -63864,7 +63945,7 @@
         <v>186</v>
       </c>
       <c r="G829" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H829" s="1" t="s">
         <v>299</v>
@@ -63886,11 +63967,11 @@
       <c r="O829" s="1"/>
       <c r="P829" s="1"/>
       <c r="Q829" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="R829" s="1"/>
       <c r="S829" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="T829" s="8">
         <v>0.4375</v>
@@ -63924,7 +64005,7 @@
         <v>279</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H830" s="1" t="s">
         <v>299</v>
@@ -63944,7 +64025,7 @@
       <c r="Q830" s="1"/>
       <c r="R830" s="1"/>
       <c r="S830" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T830" s="1"/>
       <c r="U830" s="1"/>
@@ -63968,7 +64049,7 @@
         <v>45686</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F831" s="1" t="s">
         <v>130</v>
@@ -63998,7 +64079,7 @@
       <c r="Q831" s="1"/>
       <c r="R831" s="1"/>
       <c r="S831" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="T831" s="1"/>
       <c r="U831" s="1"/>
@@ -64028,7 +64109,7 @@
         <v>545</v>
       </c>
       <c r="G832" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H832" s="1" t="s">
         <v>297</v>
@@ -64052,7 +64133,7 @@
       <c r="Q832" s="1"/>
       <c r="R832" s="1"/>
       <c r="S832" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="T832" s="1"/>
       <c r="U832" s="1"/>
@@ -64079,10 +64160,10 @@
         <v>463</v>
       </c>
       <c r="F833" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G833" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H833" s="1" t="s">
         <v>297</v>
@@ -64106,7 +64187,7 @@
       <c r="Q833" s="1"/>
       <c r="R833" s="1"/>
       <c r="S833" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T833" s="1"/>
       <c r="U833" s="1"/>
@@ -64136,7 +64217,7 @@
         <v>392</v>
       </c>
       <c r="G834" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H834" s="1" t="s">
         <v>299</v>
@@ -64160,7 +64241,7 @@
       <c r="Q834" s="1"/>
       <c r="R834" s="1"/>
       <c r="S834" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="T834" s="1"/>
       <c r="U834" s="1"/>
@@ -64190,7 +64271,7 @@
         <v>279</v>
       </c>
       <c r="G835" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H835" s="1" t="s">
         <v>299</v>
@@ -64212,11 +64293,11 @@
       <c r="O835" s="1"/>
       <c r="P835" s="1"/>
       <c r="Q835" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="R835" s="1"/>
       <c r="S835" s="96" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="T835" s="97">
         <v>0.375</v>
@@ -64299,7 +64380,7 @@
         <v>263</v>
       </c>
       <c r="G837" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H837" s="1" t="s">
         <v>297</v>
@@ -64347,7 +64428,7 @@
         <v>424</v>
       </c>
       <c r="G838" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H838" s="1" t="s">
         <v>297</v>
@@ -64395,7 +64476,7 @@
         <v>289</v>
       </c>
       <c r="G839" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H839" s="1" t="s">
         <v>299</v>
@@ -64443,7 +64524,7 @@
         <v>545</v>
       </c>
       <c r="G840" s="52" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H840" s="1" t="s">
         <v>297</v>
@@ -64493,7 +64574,7 @@
         <v>545</v>
       </c>
       <c r="G841" s="41" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H841" s="3" t="s">
         <v>297</v>
@@ -64543,7 +64624,7 @@
         <v>399</v>
       </c>
       <c r="G842" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H842" s="3" t="s">
         <v>299</v>
@@ -64593,7 +64674,7 @@
         <v>438</v>
       </c>
       <c r="G843" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H843" s="3" t="s">
         <v>297</v>
@@ -64643,7 +64724,7 @@
         <v>111</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>297</v>
@@ -64693,7 +64774,7 @@
         <v>228</v>
       </c>
       <c r="G845" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H845" s="3" t="s">
         <v>299</v>
@@ -64743,7 +64824,7 @@
         <v>545</v>
       </c>
       <c r="G846" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H846" s="3" t="s">
         <v>297</v>
@@ -64793,7 +64874,7 @@
         <v>295</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H847" s="3" t="s">
         <v>299</v>
@@ -64837,13 +64918,13 @@
         <v>45688.581076388888</v>
       </c>
       <c r="E848" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F848" s="3" t="s">
         <v>523</v>
       </c>
       <c r="G848" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H848" s="3" t="s">
         <v>299</v>
@@ -64865,7 +64946,7 @@
       </c>
       <c r="R848" s="3"/>
       <c r="S848" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="T848" s="3"/>
       <c r="U848" s="3"/>
@@ -64895,7 +64976,7 @@
         <v>279</v>
       </c>
       <c r="G849" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H849" s="3" t="s">
         <v>297</v>
@@ -64917,14 +64998,14 @@
       </c>
       <c r="R849" s="3"/>
       <c r="S849" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="T849" s="3"/>
       <c r="U849" s="3"/>
       <c r="V849" s="3"/>
       <c r="W849" s="6"/>
       <c r="X849" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="850" spans="1:24" hidden="1">
@@ -64949,7 +65030,7 @@
         <v>438</v>
       </c>
       <c r="G850" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H850" s="3" t="s">
         <v>297</v>
@@ -64971,7 +65052,7 @@
       </c>
       <c r="R850" s="3"/>
       <c r="S850" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="T850" s="3"/>
       <c r="U850" s="3"/>
@@ -65001,7 +65082,7 @@
         <v>545</v>
       </c>
       <c r="G851" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H851" s="3" t="s">
         <v>297</v>
@@ -65023,14 +65104,14 @@
       </c>
       <c r="R851" s="3"/>
       <c r="S851" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="T851" s="3"/>
       <c r="U851" s="3"/>
       <c r="V851" s="3"/>
       <c r="W851" s="6"/>
       <c r="X851" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="852" spans="1:24" hidden="1">
@@ -65055,7 +65136,7 @@
         <v>279</v>
       </c>
       <c r="G852" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H852" s="3" t="s">
         <v>297</v>
@@ -65077,7 +65158,7 @@
       </c>
       <c r="R852" s="3"/>
       <c r="S852" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="T852" s="3"/>
       <c r="U852" s="3"/>
@@ -65137,7 +65218,7 @@
         <v>433</v>
       </c>
       <c r="S853" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="T853" s="8">
         <v>0.33333333333333331</v>
@@ -65169,7 +65250,7 @@
         <v>438</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>297</v>
@@ -65191,7 +65272,7 @@
       </c>
       <c r="R854" s="3"/>
       <c r="S854" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="T854" s="3"/>
       <c r="U854" s="3"/>
@@ -65223,7 +65304,7 @@
         <v>263</v>
       </c>
       <c r="G855" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H855" s="3" t="s">
         <v>297</v>
@@ -65247,14 +65328,14 @@
       </c>
       <c r="R855" s="3"/>
       <c r="S855" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="T855" s="3"/>
       <c r="U855" s="3"/>
       <c r="V855" s="3"/>
       <c r="W855" s="6"/>
       <c r="X855" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="856" spans="1:24" hidden="1">
@@ -65279,7 +65360,7 @@
         <v>295</v>
       </c>
       <c r="G856" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H856" s="3" t="s">
         <v>299</v>
@@ -65301,7 +65382,7 @@
       </c>
       <c r="R856" s="3"/>
       <c r="S856" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="T856" s="3"/>
       <c r="U856" s="3"/>
@@ -65311,7 +65392,7 @@
     </row>
     <row r="857" spans="1:24" ht="121.5">
       <c r="A857" s="48" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B857" s="3">
         <f>MONTH(D857)</f>
@@ -65324,13 +65405,13 @@
         <v>45691.744351851848</v>
       </c>
       <c r="E857" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F857" s="3" t="s">
         <v>545</v>
       </c>
       <c r="G857" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H857" s="3" t="s">
         <v>297</v>
@@ -65356,7 +65437,7 @@
       </c>
       <c r="R857" s="3"/>
       <c r="S857" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="T857" s="7">
         <v>0.39583333333333331</v>
@@ -65369,7 +65450,7 @@
       </c>
       <c r="W857" s="6"/>
       <c r="X857" s="27" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="858" spans="1:24" hidden="1">
@@ -65394,7 +65475,7 @@
         <v>76</v>
       </c>
       <c r="G858" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H858" s="3" t="s">
         <v>299</v>
@@ -65416,7 +65497,7 @@
       </c>
       <c r="R858" s="3"/>
       <c r="S858" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="T858" s="3"/>
       <c r="U858" s="3"/>
@@ -65446,7 +65527,7 @@
         <v>545</v>
       </c>
       <c r="G859" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H859" s="3" t="s">
         <v>297</v>
@@ -65468,7 +65549,7 @@
       </c>
       <c r="R859" s="3"/>
       <c r="S859" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="T859" s="3"/>
       <c r="U859" s="3"/>
@@ -65498,7 +65579,7 @@
         <v>111</v>
       </c>
       <c r="G860" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H860" s="3" t="s">
         <v>297</v>
@@ -65530,7 +65611,7 @@
         <v>433</v>
       </c>
       <c r="S860" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="T860" s="7">
         <v>0.34722222222222221</v>
@@ -65538,10 +65619,10 @@
       <c r="U860" s="3"/>
       <c r="V860" s="3"/>
       <c r="W860" s="6" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="X860" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="861" spans="1:24" hidden="1">
@@ -65566,7 +65647,7 @@
         <v>545</v>
       </c>
       <c r="G861" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H861" s="3" t="s">
         <v>297</v>
@@ -65636,7 +65717,7 @@
         <v>545</v>
       </c>
       <c r="G862" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H862" s="3" t="s">
         <v>297</v>
@@ -65685,7 +65766,7 @@
         <v>47</v>
       </c>
       <c r="F863" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G863" s="3" t="s">
         <v>631</v>
@@ -65753,10 +65834,10 @@
         <v>47</v>
       </c>
       <c r="F864" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G864" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H864" s="3" t="s">
         <v>297</v>
@@ -65892,7 +65973,7 @@
         <v>545</v>
       </c>
       <c r="G866" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H866" s="3" t="s">
         <v>297</v>
@@ -65956,7 +66037,7 @@
         <v>637</v>
       </c>
       <c r="G867" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H867" s="3" t="s">
         <v>297</v>
@@ -66078,7 +66159,7 @@
         <v>279</v>
       </c>
       <c r="G869" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H869" s="3" t="s">
         <v>297</v>
@@ -66188,7 +66269,7 @@
         <v>130</v>
       </c>
       <c r="G871" s="78" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H871" s="3" t="s">
         <v>297</v>
@@ -66250,7 +66331,7 @@
         <v>545</v>
       </c>
       <c r="G872" s="53" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H872" s="32" t="s">
         <v>297</v>
@@ -66350,7 +66431,7 @@
         <v>279</v>
       </c>
       <c r="G874" s="53" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H874" s="32" t="s">
         <v>297</v>
@@ -66400,7 +66481,7 @@
         <v>279</v>
       </c>
       <c r="G875" s="53" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H875" s="32" t="s">
         <v>297</v>
@@ -66428,7 +66509,7 @@
       <c r="U875" s="31"/>
       <c r="V875" s="32"/>
       <c r="W875" s="33" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="X875" s="34" t="s">
         <v>644</v>
@@ -66508,7 +66589,7 @@
         <v>130</v>
       </c>
       <c r="G877" s="53" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H877" s="32" t="s">
         <v>297</v>
@@ -66792,13 +66873,13 @@
         <v>45694.829513888886</v>
       </c>
       <c r="E884" s="36" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F884" s="36" t="s">
         <v>152</v>
       </c>
       <c r="G884" s="36" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H884" s="36" t="s">
         <v>299</v>
@@ -66988,7 +67069,7 @@
         <v>306</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H887" s="3" t="s">
         <v>297</v>
@@ -67079,7 +67160,7 @@
       <c r="V888" s="3"/>
       <c r="W888" s="6"/>
       <c r="X888" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="889" spans="1:24" hidden="1">
@@ -67098,13 +67179,13 @@
         <v>45695.822754629633</v>
       </c>
       <c r="E889" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F889" s="3" t="s">
         <v>523</v>
       </c>
       <c r="G889" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H889" s="3" t="s">
         <v>299</v>
@@ -67209,7 +67290,7 @@
       <c r="V890" s="3"/>
       <c r="W890" s="6"/>
       <c r="X890" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="891" spans="1:24">
@@ -67268,7 +67349,7 @@
       <c r="U891" s="3"/>
       <c r="V891" s="3"/>
       <c r="W891" s="6" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="X891" s="6" t="s">
         <v>644</v>
@@ -67296,7 +67377,7 @@
         <v>279</v>
       </c>
       <c r="G892" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H892" s="3" t="s">
         <v>299</v>
@@ -67352,7 +67433,7 @@
         <v>279</v>
       </c>
       <c r="G893" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H893" s="3" t="s">
         <v>297</v>
@@ -67478,7 +67559,7 @@
         <v>295</v>
       </c>
       <c r="G895" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H895" s="3" t="s">
         <v>299</v>
@@ -67538,7 +67619,7 @@
         <v>279</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H896" s="3" t="s">
         <v>297</v>
@@ -67778,7 +67859,7 @@
         <v>228</v>
       </c>
       <c r="G900" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H900" s="3" t="s">
         <v>297</v>
@@ -67844,7 +67925,7 @@
         <v>545</v>
       </c>
       <c r="G901" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H901" s="3" t="s">
         <v>297</v>
@@ -67904,7 +67985,7 @@
         <v>545</v>
       </c>
       <c r="G902" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H902" s="3" t="s">
         <v>297</v>
@@ -67938,7 +68019,7 @@
       <c r="U902" s="3"/>
       <c r="V902" s="3"/>
       <c r="W902" s="6" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="X902" s="6" t="s">
         <v>644</v>
@@ -67966,7 +68047,7 @@
         <v>545</v>
       </c>
       <c r="G903" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H903" s="3" t="s">
         <v>297</v>
@@ -68000,7 +68081,7 @@
       <c r="U903" s="3"/>
       <c r="V903" s="3"/>
       <c r="W903" s="6" t="s">
-        <v>448</v>
+        <v>48</v>
       </c>
       <c r="X903" s="6" t="s">
         <v>644</v>
@@ -68028,7 +68109,7 @@
         <v>681</v>
       </c>
       <c r="G904" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H904" s="3" t="s">
         <v>297</v>
@@ -68088,7 +68169,7 @@
         <v>545</v>
       </c>
       <c r="G905" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H905" s="3" t="s">
         <v>297</v>
@@ -68097,7 +68178,7 @@
         <v>35</v>
       </c>
       <c r="J905" s="3" t="s">
-        <v>428</v>
+        <v>508</v>
       </c>
       <c r="K905" s="49">
         <v>45700</v>
@@ -68158,7 +68239,7 @@
         <v>25</v>
       </c>
       <c r="G906" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H906" s="3" t="s">
         <v>297</v>
@@ -68186,10 +68267,10 @@
       <c r="U906" s="3"/>
       <c r="V906" s="3"/>
       <c r="W906" s="6" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="X906" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="907" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68214,7 +68295,7 @@
         <v>545</v>
       </c>
       <c r="G907" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H907" s="3" t="s">
         <v>297</v>
@@ -68330,7 +68411,7 @@
         <v>45700.720104166663</v>
       </c>
       <c r="E909" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F909" s="3" t="s">
         <v>39</v>
@@ -68390,13 +68471,13 @@
         <v>45700.735138888886</v>
       </c>
       <c r="E910" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F910" s="3" t="s">
         <v>523</v>
       </c>
       <c r="G910" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H910" s="3" t="s">
         <v>299</v>
@@ -68520,7 +68601,7 @@
         <v>130</v>
       </c>
       <c r="G912" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H912" s="3" t="s">
         <v>299</v>
@@ -68582,7 +68663,7 @@
         <v>25</v>
       </c>
       <c r="G913" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H913" s="3" t="s">
         <v>299</v>
@@ -68700,7 +68781,7 @@
         <v>545</v>
       </c>
       <c r="G915" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H915" s="3" t="s">
         <v>297</v>
@@ -68754,7 +68835,7 @@
         <v>399</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>297</v>
@@ -68880,7 +68961,7 @@
         <v>545</v>
       </c>
       <c r="G918" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H918" s="3" t="s">
         <v>297</v>
@@ -68942,7 +69023,7 @@
         <v>523</v>
       </c>
       <c r="G919" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H919" s="3" t="s">
         <v>297</v>
@@ -69056,7 +69137,7 @@
         <v>111</v>
       </c>
       <c r="G921" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H921" s="3" t="s">
         <v>297</v>
@@ -69093,7 +69174,7 @@
       <c r="V921" s="3"/>
       <c r="W921" s="6"/>
       <c r="X921" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="922" spans="1:24" ht="67.5" customHeight="1">
@@ -69118,7 +69199,7 @@
         <v>289</v>
       </c>
       <c r="G922" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H922" s="3" t="s">
         <v>297</v>
@@ -69180,7 +69261,7 @@
         <v>707</v>
       </c>
       <c r="G923" s="81" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H923" s="81" t="s">
         <v>297</v>
@@ -69242,7 +69323,7 @@
         <v>25</v>
       </c>
       <c r="G924" s="40" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H924" s="20" t="s">
         <v>299</v>
@@ -69300,7 +69381,7 @@
         <v>263</v>
       </c>
       <c r="G925" s="64" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H925" s="85" t="s">
         <v>297</v>
@@ -69504,10 +69585,10 @@
       <c r="U928" s="3"/>
       <c r="V928" s="3"/>
       <c r="W928" s="6" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="X928" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="929" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69532,7 +69613,7 @@
         <v>523</v>
       </c>
       <c r="G929" s="18" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H929" s="18" t="s">
         <v>297</v>
@@ -69588,7 +69669,7 @@
         <v>45705</v>
       </c>
       <c r="E930" s="18" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F930" s="18" t="s">
         <v>39</v>
@@ -69714,7 +69795,7 @@
         <v>424</v>
       </c>
       <c r="G932" s="26" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H932" s="26" t="s">
         <v>299</v>
@@ -69929,7 +70010,7 @@
         <v>47</v>
       </c>
       <c r="F936" s="26" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G936" s="26" t="s">
         <v>631</v>
@@ -69984,7 +70065,7 @@
         <v>545</v>
       </c>
       <c r="G937" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H937" s="26" t="s">
         <v>297</v>
@@ -69993,7 +70074,7 @@
         <v>35</v>
       </c>
       <c r="J937" s="57" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K937" s="58">
         <v>45706</v>
@@ -70050,7 +70131,7 @@
         <v>545</v>
       </c>
       <c r="G938" s="26" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H938" s="26" t="s">
         <v>297</v>
@@ -70168,7 +70249,7 @@
         <v>545</v>
       </c>
       <c r="G940" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H940" s="26" t="s">
         <v>297</v>
@@ -70280,7 +70361,7 @@
         <v>424</v>
       </c>
       <c r="G942" s="26" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H942" s="26" t="s">
         <v>297</v>
@@ -70390,7 +70471,7 @@
         <v>545</v>
       </c>
       <c r="G944" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H944" s="26" t="s">
         <v>297</v>
@@ -70446,7 +70527,7 @@
         <v>545</v>
       </c>
       <c r="G945" s="26" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H945" s="26" t="s">
         <v>297</v>
@@ -70508,7 +70589,7 @@
         <v>45708.50105324074</v>
       </c>
       <c r="E946" s="26" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F946" s="26" t="s">
         <v>186</v>
@@ -70605,7 +70686,7 @@
       <c r="V947" s="26"/>
       <c r="W947" s="23"/>
       <c r="X947" s="23" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="948" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70742,7 +70823,7 @@
         <v>130</v>
       </c>
       <c r="G950" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H950" s="26" t="s">
         <v>299</v>
@@ -70804,7 +70885,7 @@
         <v>545</v>
       </c>
       <c r="G951" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H951" s="26" t="s">
         <v>297</v>
@@ -70868,7 +70949,7 @@
         <v>111</v>
       </c>
       <c r="G952" s="26" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H952" s="26" t="s">
         <v>297</v>
@@ -70898,7 +70979,7 @@
       <c r="U952" s="25"/>
       <c r="V952" s="26"/>
       <c r="W952" s="23" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="X952" s="23" t="s">
         <v>644</v>
@@ -70926,7 +71007,7 @@
         <v>545</v>
       </c>
       <c r="G953" s="26" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H953" s="26" t="s">
         <v>297</v>
@@ -70954,7 +71035,7 @@
       <c r="U953" s="25"/>
       <c r="V953" s="26"/>
       <c r="W953" s="23" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="X953" s="23"/>
     </row>
@@ -71104,7 +71185,7 @@
         <v>279</v>
       </c>
       <c r="G956" s="26" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H956" s="26" t="s">
         <v>299</v>
@@ -71222,7 +71303,7 @@
         <v>545</v>
       </c>
       <c r="G958" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H958" s="26" t="s">
         <v>299</v>
@@ -71250,10 +71331,10 @@
       <c r="U958" s="25"/>
       <c r="V958" s="26"/>
       <c r="W958" s="23" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="X958" s="23" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="959" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71278,7 +71359,7 @@
         <v>399</v>
       </c>
       <c r="G959" s="26" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H959" s="26" t="s">
         <v>297</v>
@@ -71382,7 +71463,7 @@
         <v>545</v>
       </c>
       <c r="G961" s="26" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H961" s="26" t="s">
         <v>297</v>
@@ -71442,7 +71523,7 @@
         <v>545</v>
       </c>
       <c r="G962" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H962" s="26" t="s">
         <v>297</v>
@@ -71503,9 +71584,11 @@
         <v>28</v>
       </c>
       <c r="J963" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="K963" s="58"/>
+        <v>428</v>
+      </c>
+      <c r="K963" s="58">
+        <v>45713</v>
+      </c>
       <c r="L963" s="26"/>
       <c r="M963" s="58"/>
       <c r="N963" s="58"/>
@@ -71518,14 +71601,16 @@
       <c r="S963" s="24" t="s">
         <v>754</v>
       </c>
-      <c r="T963" s="25"/>
+      <c r="T963" s="25">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="U963" s="25"/>
       <c r="V963" s="26"/>
       <c r="W963" s="23" t="s">
-        <v>735</v>
+        <v>440</v>
       </c>
       <c r="X963" s="23" t="s">
-        <v>725</v>
+        <v>529</v>
       </c>
     </row>
     <row r="964" spans="1:24" ht="15" customHeight="1">
@@ -71561,10 +71646,14 @@
       <c r="J964" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="K964" s="58"/>
+      <c r="K964" s="58">
+        <v>45722</v>
+      </c>
       <c r="L964" s="26"/>
       <c r="M964" s="58"/>
-      <c r="N964" s="58"/>
+      <c r="N964" s="58">
+        <v>45723</v>
+      </c>
       <c r="O964" s="26"/>
       <c r="P964" s="26"/>
       <c r="Q964" s="26">
@@ -71774,7 +71863,7 @@
         <v>545</v>
       </c>
       <c r="G968" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H968" s="26" t="s">
         <v>297</v>
@@ -71836,7 +71925,7 @@
         <v>545</v>
       </c>
       <c r="G969" s="26" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H969" s="26" t="s">
         <v>297</v>
@@ -71892,7 +71981,7 @@
         <v>545</v>
       </c>
       <c r="G970" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H970" s="26" t="s">
         <v>297</v>
@@ -71946,7 +72035,7 @@
         <v>545</v>
       </c>
       <c r="G971" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H971" s="26" t="s">
         <v>297</v>
@@ -72112,7 +72201,7 @@
         <v>545</v>
       </c>
       <c r="G974" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H974" s="26" t="s">
         <v>297</v>
@@ -72164,7 +72253,7 @@
         <v>25</v>
       </c>
       <c r="G975" s="26" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H975" s="26" t="s">
         <v>299</v>
@@ -72332,7 +72421,7 @@
         <v>424</v>
       </c>
       <c r="G978" s="26" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H978" s="26" t="s">
         <v>299</v>
@@ -72397,7 +72486,7 @@
         <v>48</v>
       </c>
       <c r="J979" s="57" t="s">
-        <v>446</v>
+        <v>60</v>
       </c>
       <c r="K979" s="58"/>
       <c r="L979" s="26"/>
@@ -72439,10 +72528,10 @@
         <v>774</v>
       </c>
       <c r="F980" s="26" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G980" s="26" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H980" s="26" t="s">
         <v>297</v>
@@ -72658,7 +72747,7 @@
         <v>76</v>
       </c>
       <c r="G984" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H984" s="26" t="s">
         <v>299</v>
@@ -72718,7 +72807,7 @@
         <v>89</v>
       </c>
       <c r="G985" s="26" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H985" s="26" t="s">
         <v>297</v>
@@ -72772,7 +72861,7 @@
         <v>130</v>
       </c>
       <c r="G986" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H986" s="26" t="s">
         <v>297</v>
@@ -72826,7 +72915,7 @@
         <v>545</v>
       </c>
       <c r="G987" s="26" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H987" s="26" t="s">
         <v>297</v>
@@ -72835,9 +72924,11 @@
         <v>28</v>
       </c>
       <c r="J987" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="K987" s="58"/>
+        <v>428</v>
+      </c>
+      <c r="K987" s="58">
+        <v>45726</v>
+      </c>
       <c r="L987" s="26"/>
       <c r="M987" s="58"/>
       <c r="N987" s="58"/>
@@ -72880,7 +72971,7 @@
         <v>545</v>
       </c>
       <c r="G988" s="26" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H988" s="26" t="s">
         <v>297</v>
@@ -72907,7 +72998,9 @@
       <c r="T988" s="25"/>
       <c r="U988" s="25"/>
       <c r="V988" s="26"/>
-      <c r="W988" s="23"/>
+      <c r="W988" s="23" t="s">
+        <v>448</v>
+      </c>
       <c r="X988" s="23"/>
     </row>
     <row r="989" spans="1:24" ht="15" customHeight="1">
@@ -72932,7 +73025,7 @@
         <v>111</v>
       </c>
       <c r="G989" s="26" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H989" s="26" t="s">
         <v>299</v>
@@ -72992,7 +73085,7 @@
         <v>25</v>
       </c>
       <c r="G990" s="26" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H990" s="26" t="s">
         <v>299</v>
@@ -73082,7 +73175,7 @@
       <c r="U991" s="25"/>
       <c r="V991" s="26"/>
       <c r="W991" s="23" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="X991" s="23"/>
     </row>
@@ -73108,7 +73201,7 @@
         <v>545</v>
       </c>
       <c r="G992" s="26" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H992" s="26" t="s">
         <v>297</v>
@@ -73117,12 +73210,16 @@
         <v>42</v>
       </c>
       <c r="J992" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="K992" s="58"/>
+        <v>508</v>
+      </c>
+      <c r="K992" s="58">
+        <v>45727</v>
+      </c>
       <c r="L992" s="26"/>
       <c r="M992" s="58"/>
-      <c r="N992" s="58"/>
+      <c r="N992" s="58">
+        <v>45728</v>
+      </c>
       <c r="O992" s="26"/>
       <c r="P992" s="26"/>
       <c r="Q992" s="26">
@@ -73136,9 +73233,11 @@
       <c r="U992" s="25"/>
       <c r="V992" s="26"/>
       <c r="W992" s="23" t="s">
-        <v>628</v>
-      </c>
-      <c r="X992" s="23"/>
+        <v>548</v>
+      </c>
+      <c r="X992" s="23" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="993" spans="1:24" ht="15" customHeight="1">
       <c r="A993" s="87">
@@ -73162,7 +73261,7 @@
         <v>160</v>
       </c>
       <c r="G993" s="26" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H993" s="26" t="s">
         <v>297</v>
@@ -73250,7 +73349,7 @@
       <c r="U994" s="25"/>
       <c r="V994" s="26"/>
       <c r="W994" s="23" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="X994" s="23"/>
     </row>
@@ -73276,7 +73375,7 @@
         <v>545</v>
       </c>
       <c r="G995" s="26" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H995" s="26" t="s">
         <v>297</v>
@@ -73285,12 +73384,16 @@
         <v>42</v>
       </c>
       <c r="J995" s="57" t="s">
-        <v>446</v>
+        <v>29</v>
       </c>
       <c r="K995" s="58"/>
       <c r="L995" s="26"/>
-      <c r="M995" s="58"/>
-      <c r="N995" s="58"/>
+      <c r="M995" s="58">
+        <v>45728</v>
+      </c>
+      <c r="N995" s="58">
+        <v>45728</v>
+      </c>
       <c r="O995" s="26"/>
       <c r="P995" s="26"/>
       <c r="Q995" s="26">
@@ -73303,7 +73406,9 @@
       <c r="T995" s="25"/>
       <c r="U995" s="25"/>
       <c r="V995" s="26"/>
-      <c r="W995" s="23"/>
+      <c r="W995" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="X995" s="23"/>
     </row>
     <row r="996" spans="1:24" ht="15" customHeight="1">
@@ -73328,7 +73433,7 @@
         <v>130</v>
       </c>
       <c r="G996" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H996" s="26" t="s">
         <v>299</v>
@@ -73337,11 +73442,15 @@
         <v>788</v>
       </c>
       <c r="J996" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="K996" s="58"/>
+        <v>428</v>
+      </c>
+      <c r="K996" s="58">
+        <v>45727</v>
+      </c>
       <c r="L996" s="26"/>
-      <c r="M996" s="58"/>
+      <c r="M996" s="58">
+        <v>45730</v>
+      </c>
       <c r="N996" s="58"/>
       <c r="O996" s="26"/>
       <c r="P996" s="26"/>
@@ -73355,7 +73464,9 @@
       <c r="T996" s="25"/>
       <c r="U996" s="25"/>
       <c r="V996" s="26"/>
-      <c r="W996" s="23"/>
+      <c r="W996" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="X996" s="23"/>
     </row>
     <row r="997" spans="1:24" ht="15" customHeight="1">
@@ -73380,7 +73491,7 @@
         <v>438</v>
       </c>
       <c r="G997" s="26" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H997" s="26" t="s">
         <v>299</v>
@@ -73389,12 +73500,18 @@
         <v>654</v>
       </c>
       <c r="J997" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="K997" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="K997" s="58">
+        <v>45726</v>
+      </c>
       <c r="L997" s="26"/>
-      <c r="M997" s="58"/>
-      <c r="N997" s="58"/>
+      <c r="M997" s="58">
+        <v>45726</v>
+      </c>
+      <c r="N997" s="58">
+        <v>45727</v>
+      </c>
       <c r="O997" s="26"/>
       <c r="P997" s="26"/>
       <c r="Q997" s="26">
@@ -73404,10 +73521,16 @@
       <c r="S997" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="T997" s="25"/>
-      <c r="U997" s="25"/>
+      <c r="T997" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="U997" s="25">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="V997" s="26"/>
-      <c r="W997" s="23"/>
+      <c r="W997" s="23" t="s">
+        <v>735</v>
+      </c>
       <c r="X997" s="23"/>
     </row>
     <row r="998" spans="1:24" ht="15" customHeight="1">
@@ -73432,7 +73555,7 @@
         <v>89</v>
       </c>
       <c r="G998" s="26" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H998" s="26" t="s">
         <v>297</v>
@@ -73486,7 +73609,7 @@
         <v>89</v>
       </c>
       <c r="G999" s="26" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H999" s="26" t="s">
         <v>297</v>
@@ -73538,7 +73661,7 @@
         <v>545</v>
       </c>
       <c r="G1000" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1000" s="26" t="s">
         <v>297</v>
@@ -73565,7 +73688,9 @@
       <c r="T1000" s="25"/>
       <c r="U1000" s="25"/>
       <c r="V1000" s="26"/>
-      <c r="W1000" s="23"/>
+      <c r="W1000" s="23" t="s">
+        <v>548</v>
+      </c>
       <c r="X1000" s="23"/>
     </row>
     <row r="1001" spans="1:24" ht="15" customHeight="1">
@@ -73590,7 +73715,7 @@
         <v>424</v>
       </c>
       <c r="G1001" s="26" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1001" s="26" t="s">
         <v>299</v>
@@ -73599,12 +73724,18 @@
         <v>654</v>
       </c>
       <c r="J1001" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="K1001" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="K1001" s="58">
+        <v>45726</v>
+      </c>
       <c r="L1001" s="26"/>
-      <c r="M1001" s="58"/>
-      <c r="N1001" s="58"/>
+      <c r="M1001" s="58">
+        <v>45726</v>
+      </c>
+      <c r="N1001" s="58">
+        <v>45726</v>
+      </c>
       <c r="O1001" s="26"/>
       <c r="P1001" s="26"/>
       <c r="Q1001" s="26">
@@ -73614,10 +73745,16 @@
       <c r="S1001" s="24" t="s">
         <v>799</v>
       </c>
-      <c r="T1001" s="25"/>
-      <c r="U1001" s="25"/>
+      <c r="T1001" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="U1001" s="25">
+        <v>0.5625</v>
+      </c>
       <c r="V1001" s="26"/>
-      <c r="W1001" s="23"/>
+      <c r="W1001" s="23" t="s">
+        <v>735</v>
+      </c>
       <c r="X1001" s="23"/>
     </row>
     <row r="1002" spans="1:24" ht="15" customHeight="1">
@@ -73642,7 +73779,7 @@
         <v>424</v>
       </c>
       <c r="G1002" s="26" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1002" s="26" t="s">
         <v>299</v>
@@ -73651,12 +73788,18 @@
         <v>654</v>
       </c>
       <c r="J1002" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="K1002" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="K1002" s="58">
+        <v>45726</v>
+      </c>
       <c r="L1002" s="26"/>
-      <c r="M1002" s="58"/>
-      <c r="N1002" s="58"/>
+      <c r="M1002" s="58">
+        <v>45726</v>
+      </c>
+      <c r="N1002" s="58">
+        <v>45726</v>
+      </c>
       <c r="O1002" s="26"/>
       <c r="P1002" s="26"/>
       <c r="Q1002" s="26">
@@ -73666,10 +73809,16 @@
       <c r="S1002" s="24" t="s">
         <v>800</v>
       </c>
-      <c r="T1002" s="25"/>
-      <c r="U1002" s="25"/>
+      <c r="T1002" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="U1002" s="25">
+        <v>0.5625</v>
+      </c>
       <c r="V1002" s="26"/>
-      <c r="W1002" s="23"/>
+      <c r="W1002" s="23" t="s">
+        <v>735</v>
+      </c>
       <c r="X1002" s="23"/>
     </row>
     <row r="1003" spans="1:24" ht="31.5" customHeight="1">
@@ -73752,7 +73901,7 @@
         <v>228</v>
       </c>
       <c r="G1004" s="26" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1004" s="26" t="s">
         <v>297</v>
@@ -73779,7 +73928,9 @@
       <c r="T1004" s="25"/>
       <c r="U1004" s="25"/>
       <c r="V1004" s="26"/>
-      <c r="W1004" s="23"/>
+      <c r="W1004" s="23" t="s">
+        <v>448</v>
+      </c>
       <c r="X1004" s="23"/>
     </row>
     <row r="1005" spans="1:24" ht="15" customHeight="1">
@@ -73813,9 +73964,11 @@
         <v>788</v>
       </c>
       <c r="J1005" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="K1005" s="58"/>
+        <v>428</v>
+      </c>
+      <c r="K1005" s="58">
+        <v>45727</v>
+      </c>
       <c r="L1005" s="26"/>
       <c r="M1005" s="58"/>
       <c r="N1005" s="58"/>
@@ -73831,7 +73984,9 @@
       <c r="T1005" s="25"/>
       <c r="U1005" s="25"/>
       <c r="V1005" s="26"/>
-      <c r="W1005" s="23"/>
+      <c r="W1005" s="109" t="s">
+        <v>448</v>
+      </c>
       <c r="X1005" s="23"/>
     </row>
     <row r="1006" spans="1:24" ht="15" customHeight="1">
@@ -73883,8 +74038,732 @@
       <c r="T1006" s="25"/>
       <c r="U1006" s="25"/>
       <c r="V1006" s="26"/>
-      <c r="W1006" s="23"/>
+      <c r="W1006" s="111" t="s">
+        <v>548</v>
+      </c>
       <c r="X1006" s="23"/>
+    </row>
+    <row r="1007" spans="1:24" ht="15" customHeight="1">
+      <c r="A1007" s="87">
+        <f>YEAR(D1007)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1007" s="26">
+        <f>MONTH(D1007)</f>
+        <v>3</v>
+      </c>
+      <c r="C1007" s="44">
+        <v>1022</v>
+      </c>
+      <c r="D1007" s="58">
+        <v>45727</v>
+      </c>
+      <c r="E1007" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1007" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1007" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1007" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1007" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="J1007" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1007" s="58"/>
+      <c r="L1007" s="26"/>
+      <c r="M1007" s="58"/>
+      <c r="N1007" s="58"/>
+      <c r="O1007" s="26"/>
+      <c r="P1007" s="26"/>
+      <c r="Q1007" s="26">
+        <v>0</v>
+      </c>
+      <c r="R1007" s="26"/>
+      <c r="S1007" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="T1007" s="25"/>
+      <c r="U1007" s="25"/>
+      <c r="V1007" s="26"/>
+      <c r="W1007" s="110" t="s">
+        <v>548</v>
+      </c>
+      <c r="X1007" s="23"/>
+    </row>
+    <row r="1008" spans="1:24" ht="15" customHeight="1">
+      <c r="A1008" s="87">
+        <f>YEAR(D1008)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1008" s="26">
+        <f>MONTH(D1008)</f>
+        <v>3</v>
+      </c>
+      <c r="C1008" s="44">
+        <v>1023</v>
+      </c>
+      <c r="D1008" s="58">
+        <v>45727</v>
+      </c>
+      <c r="E1008" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1008" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1008" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="H1008" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1008" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1008" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K1008" s="58">
+        <v>45728</v>
+      </c>
+      <c r="L1008" s="26"/>
+      <c r="M1008" s="58"/>
+      <c r="N1008" s="58"/>
+      <c r="O1008" s="26"/>
+      <c r="P1008" s="26"/>
+      <c r="Q1008" s="26">
+        <v>0</v>
+      </c>
+      <c r="R1008" s="26"/>
+      <c r="S1008" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="T1008" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="U1008" s="25"/>
+      <c r="V1008" s="26"/>
+      <c r="W1008" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="X1008" s="23"/>
+    </row>
+    <row r="1009" spans="1:24" ht="15" customHeight="1">
+      <c r="A1009" s="87">
+        <f>YEAR(D1009)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1009" s="26">
+        <f>MONTH(D1009)</f>
+        <v>3</v>
+      </c>
+      <c r="C1009" s="44">
+        <v>1024</v>
+      </c>
+      <c r="D1009" s="58">
+        <v>45727</v>
+      </c>
+      <c r="E1009" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1009" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1009" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="H1009" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1009" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="J1009" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1009" s="58"/>
+      <c r="L1009" s="26"/>
+      <c r="M1009" s="58"/>
+      <c r="N1009" s="58"/>
+      <c r="O1009" s="26"/>
+      <c r="P1009" s="26"/>
+      <c r="Q1009" s="26">
+        <v>99</v>
+      </c>
+      <c r="R1009" s="26"/>
+      <c r="S1009" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="T1009" s="25"/>
+      <c r="U1009" s="25"/>
+      <c r="V1009" s="26"/>
+      <c r="W1009" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="X1009" s="23"/>
+    </row>
+    <row r="1010" spans="1:24" ht="15" customHeight="1">
+      <c r="A1010" s="87">
+        <f>YEAR(D1010)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1010" s="26">
+        <f>MONTH(D1010)</f>
+        <v>3</v>
+      </c>
+      <c r="C1010" s="44">
+        <v>1025</v>
+      </c>
+      <c r="D1010" s="58">
+        <v>45727</v>
+      </c>
+      <c r="E1010" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="F1010" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1010" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1010" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1010" s="44" t="s">
+        <v>654</v>
+      </c>
+      <c r="J1010" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1010" s="58"/>
+      <c r="L1010" s="26"/>
+      <c r="M1010" s="58"/>
+      <c r="N1010" s="58"/>
+      <c r="O1010" s="26"/>
+      <c r="P1010" s="26"/>
+      <c r="Q1010" s="26">
+        <v>4150</v>
+      </c>
+      <c r="R1010" s="26"/>
+      <c r="S1010" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="T1010" s="25"/>
+      <c r="U1010" s="25"/>
+      <c r="V1010" s="26"/>
+      <c r="W1010" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="X1010" s="23"/>
+    </row>
+    <row r="1011" spans="1:24" ht="15" customHeight="1">
+      <c r="A1011" s="87">
+        <f>YEAR(D1011)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1011" s="26">
+        <f>MONTH(D1011)</f>
+        <v>3</v>
+      </c>
+      <c r="C1011" s="44">
+        <v>1026</v>
+      </c>
+      <c r="D1011" s="58">
+        <v>45728</v>
+      </c>
+      <c r="E1011" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1011" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1011" s="26" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1011" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1011" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="J1011" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K1011" s="58">
+        <v>45728</v>
+      </c>
+      <c r="L1011" s="26"/>
+      <c r="M1011" s="58"/>
+      <c r="N1011" s="58"/>
+      <c r="O1011" s="26"/>
+      <c r="P1011" s="26"/>
+      <c r="Q1011" s="26">
+        <v>0</v>
+      </c>
+      <c r="R1011" s="26"/>
+      <c r="S1011" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="T1011" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="U1011" s="25"/>
+      <c r="V1011" s="26"/>
+      <c r="W1011" s="23"/>
+      <c r="X1011" s="23"/>
+    </row>
+    <row r="1012" spans="1:24" ht="28.5" customHeight="1">
+      <c r="A1012" s="87">
+        <f>YEAR(D1012)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1012" s="26">
+        <f>MONTH(D1012)</f>
+        <v>3</v>
+      </c>
+      <c r="C1012" s="44">
+        <v>1027</v>
+      </c>
+      <c r="D1012" s="58">
+        <v>45728</v>
+      </c>
+      <c r="E1012" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1012" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1012" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="H1012" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1012" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="J1012" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1012" s="58"/>
+      <c r="L1012" s="26"/>
+      <c r="M1012" s="58"/>
+      <c r="N1012" s="58"/>
+      <c r="O1012" s="26"/>
+      <c r="P1012" s="26"/>
+      <c r="Q1012" s="26">
+        <v>1102</v>
+      </c>
+      <c r="R1012" s="26"/>
+      <c r="S1012" s="104" t="s">
+        <v>814</v>
+      </c>
+      <c r="T1012" s="25"/>
+      <c r="U1012" s="25"/>
+      <c r="V1012" s="26"/>
+      <c r="W1012" s="23"/>
+      <c r="X1012" s="23"/>
+    </row>
+    <row r="1013" spans="1:24" ht="15" customHeight="1">
+      <c r="A1013" s="87">
+        <f>YEAR(D1013)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1013" s="26">
+        <f>MONTH(D1013)</f>
+        <v>3</v>
+      </c>
+      <c r="C1013" s="44">
+        <v>1028</v>
+      </c>
+      <c r="D1013" s="58">
+        <v>45728</v>
+      </c>
+      <c r="E1013" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1013" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1013" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1013" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1013" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="J1013" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1013" s="58">
+        <v>45728</v>
+      </c>
+      <c r="L1013" s="26"/>
+      <c r="M1013" s="58">
+        <v>45728</v>
+      </c>
+      <c r="N1013" s="58">
+        <v>45728</v>
+      </c>
+      <c r="O1013" s="26"/>
+      <c r="P1013" s="26"/>
+      <c r="Q1013" s="26">
+        <v>0</v>
+      </c>
+      <c r="R1013" s="26"/>
+      <c r="S1013" s="104" t="s">
+        <v>815</v>
+      </c>
+      <c r="T1013" s="25"/>
+      <c r="U1013" s="25">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="V1013" s="26"/>
+      <c r="W1013" s="110" t="s">
+        <v>548</v>
+      </c>
+      <c r="X1013" s="23"/>
+    </row>
+    <row r="1014" spans="1:24" ht="15" customHeight="1">
+      <c r="A1014" s="87">
+        <f>YEAR(D1014)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1014" s="26">
+        <f>MONTH(D1014)</f>
+        <v>3</v>
+      </c>
+      <c r="C1014" s="44">
+        <v>1029</v>
+      </c>
+      <c r="D1014" s="58">
+        <v>45728</v>
+      </c>
+      <c r="E1014" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1014" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1014" s="26" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1014" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1014" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="J1014" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1014" s="58"/>
+      <c r="L1014" s="26"/>
+      <c r="M1014" s="58"/>
+      <c r="N1014" s="58"/>
+      <c r="O1014" s="26"/>
+      <c r="P1014" s="26"/>
+      <c r="Q1014" s="26">
+        <v>0</v>
+      </c>
+      <c r="R1014" s="26"/>
+      <c r="S1014" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="T1014" s="25"/>
+      <c r="U1014" s="25"/>
+      <c r="V1014" s="26"/>
+      <c r="W1014" s="23"/>
+      <c r="X1014" s="23"/>
+    </row>
+    <row r="1015" spans="1:24" ht="15" customHeight="1">
+      <c r="A1015" s="87">
+        <f>YEAR(D1015)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1015" s="26">
+        <f>MONTH(D1015)</f>
+        <v>3</v>
+      </c>
+      <c r="C1015" s="44">
+        <v>1030</v>
+      </c>
+      <c r="D1015" s="58">
+        <v>45728</v>
+      </c>
+      <c r="E1015" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1015" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1015" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="H1015" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1015" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="J1015" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1015" s="58">
+        <v>45728</v>
+      </c>
+      <c r="L1015" s="26"/>
+      <c r="M1015" s="58">
+        <v>45728</v>
+      </c>
+      <c r="N1015" s="58"/>
+      <c r="O1015" s="26"/>
+      <c r="P1015" s="26"/>
+      <c r="Q1015" s="26">
+        <v>10329</v>
+      </c>
+      <c r="R1015" s="26"/>
+      <c r="S1015" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="T1015" s="25"/>
+      <c r="U1015" s="25"/>
+      <c r="V1015" s="26"/>
+      <c r="W1015" s="110" t="s">
+        <v>548</v>
+      </c>
+      <c r="X1015" s="23"/>
+    </row>
+    <row r="1016" spans="1:24" ht="15" customHeight="1">
+      <c r="A1016" s="87">
+        <f>YEAR(D1016)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1016" s="26">
+        <f>MONTH(D1016)</f>
+        <v>3</v>
+      </c>
+      <c r="C1016" s="44">
+        <v>1031</v>
+      </c>
+      <c r="D1016" s="58">
+        <v>45728</v>
+      </c>
+      <c r="E1016" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1016" s="26" t="s">
+        <v>818</v>
+      </c>
+      <c r="G1016" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1016" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1016" s="44" t="s">
+        <v>654</v>
+      </c>
+      <c r="J1016" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1016" s="58"/>
+      <c r="L1016" s="26"/>
+      <c r="M1016" s="58"/>
+      <c r="N1016" s="58"/>
+      <c r="O1016" s="26"/>
+      <c r="P1016" s="26"/>
+      <c r="Q1016" s="26">
+        <v>511</v>
+      </c>
+      <c r="R1016" s="26"/>
+      <c r="S1016" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="T1016" s="25"/>
+      <c r="U1016" s="25"/>
+      <c r="V1016" s="26"/>
+      <c r="W1016" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="X1016" s="23"/>
+    </row>
+    <row r="1017" spans="1:24" ht="15" customHeight="1">
+      <c r="A1017" s="87">
+        <f>YEAR(D1017)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1017" s="26">
+        <f>MONTH(D1017)</f>
+        <v>3</v>
+      </c>
+      <c r="C1017" s="44">
+        <v>1032</v>
+      </c>
+      <c r="D1017" s="58">
+        <v>45728</v>
+      </c>
+      <c r="E1017" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1017" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1017" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1017" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1017" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="J1017" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1017" s="58"/>
+      <c r="L1017" s="26"/>
+      <c r="M1017" s="58"/>
+      <c r="N1017" s="58"/>
+      <c r="O1017" s="26"/>
+      <c r="P1017" s="26"/>
+      <c r="Q1017" s="26">
+        <v>0</v>
+      </c>
+      <c r="R1017" s="26"/>
+      <c r="S1017" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="T1017" s="25"/>
+      <c r="U1017" s="25"/>
+      <c r="V1017" s="26"/>
+      <c r="W1017" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="X1017" s="23"/>
+    </row>
+    <row r="1018" spans="1:24" ht="15" customHeight="1">
+      <c r="A1018" s="87">
+        <f>YEAR(D1018)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1018" s="26">
+        <f>MONTH(D1018)</f>
+        <v>3</v>
+      </c>
+      <c r="C1018" s="44">
+        <v>1033</v>
+      </c>
+      <c r="D1018" s="58">
+        <v>45728</v>
+      </c>
+      <c r="E1018" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1018" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1018" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1018" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1018" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="J1018" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1018" s="58"/>
+      <c r="L1018" s="26"/>
+      <c r="M1018" s="58"/>
+      <c r="N1018" s="58"/>
+      <c r="O1018" s="26"/>
+      <c r="P1018" s="26"/>
+      <c r="Q1018" s="26">
+        <v>0</v>
+      </c>
+      <c r="R1018" s="26"/>
+      <c r="S1018" s="104" t="s">
+        <v>821</v>
+      </c>
+      <c r="T1018" s="25"/>
+      <c r="U1018" s="25"/>
+      <c r="V1018" s="26"/>
+      <c r="W1018" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="X1018" s="23"/>
+    </row>
+    <row r="1019" spans="1:24" ht="15" customHeight="1">
+      <c r="A1019" s="87">
+        <f>YEAR(D1019)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1019" s="26">
+        <f>MONTH(D1019)</f>
+        <v>3</v>
+      </c>
+      <c r="C1019" s="44">
+        <v>1034</v>
+      </c>
+      <c r="D1019" s="58">
+        <v>45728</v>
+      </c>
+      <c r="E1019" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1019" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1019" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="H1019" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1019" s="44" t="s">
+        <v>654</v>
+      </c>
+      <c r="J1019" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K1019" s="58">
+        <v>45728</v>
+      </c>
+      <c r="L1019" s="26"/>
+      <c r="M1019" s="58"/>
+      <c r="N1019" s="58"/>
+      <c r="O1019" s="26"/>
+      <c r="P1019" s="26"/>
+      <c r="Q1019" s="26">
+        <v>15417</v>
+      </c>
+      <c r="R1019" s="26"/>
+      <c r="S1019" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="T1019" s="25">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="U1019" s="25"/>
+      <c r="V1019" s="26"/>
+      <c r="W1019" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="X1019" s="23" t="s">
+        <v>725</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
@@ -73892,7 +74771,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1006">
+  <conditionalFormatting sqref="J2:J1019">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -73943,7 +74822,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J590" xr:uid="{15A663AD-E0CE-4DA8-BD56-DD19F9521662}">
       <formula1>"FINALIZADA,EM ANDAMENTO,CANCELADA,AGUARDANDO RETIRADA"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{4A33A69B-6EA9-4ED0-B8C5-43C5B86F111E}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048575" xr:uid="{4A33A69B-6EA9-4ED0-B8C5-43C5B86F111E}">
       <formula1>"ABERTA,FINALIZADA,CANCELADA,EM ANDAMENTO,AGUARDANDO RETIRADA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -73956,6 +74835,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -74132,15 +75020,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -74148,11 +75027,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3693" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EBDEE72-F77A-4F54-A6EF-A32CCC3FD456}"/>
+  <xr:revisionPtr revIDLastSave="3701" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24122228-DA25-4574-97D6-61F39A71419D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -4008,7 +4008,6 @@
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
-        <filter val="AGUARDANDO RETIRADA"/>
         <filter val="EM ANDAMENTO"/>
       </filters>
     </filterColumn>
@@ -4351,8 +4350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
   <dimension ref="A1:AA1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I981" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N1007" sqref="N1007"/>
+    <sheetView tabSelected="1" topLeftCell="E956" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L1014" sqref="L1014"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -52395,7 +52394,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="660" spans="1:24">
+    <row r="660" spans="1:24" hidden="1">
       <c r="A660" s="72">
         <f>YEAR(D660)</f>
         <v>2024</v>
@@ -60533,7 +60532,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="773" spans="1:24">
+    <row r="773" spans="1:24" hidden="1">
       <c r="A773" s="72">
         <f>YEAR(D773)</f>
         <v>2025</v>
@@ -61779,7 +61778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="790" spans="1:24">
+    <row r="790" spans="1:24" hidden="1">
       <c r="A790" s="47">
         <f>YEAR(D790)</f>
         <v>2025</v>
@@ -63017,7 +63016,7 @@
       </c>
       <c r="X812" s="5"/>
     </row>
-    <row r="813" spans="1:24">
+    <row r="813" spans="1:24" hidden="1">
       <c r="A813" s="47">
         <f>YEAR(D813)</f>
         <v>2025</v>
@@ -63123,7 +63122,7 @@
       <c r="W814" s="5"/>
       <c r="X814" s="5"/>
     </row>
-    <row r="815" spans="1:24">
+    <row r="815" spans="1:24" hidden="1">
       <c r="A815" s="47">
         <f>YEAR(D815)</f>
         <v>2025</v>
@@ -65166,7 +65165,7 @@
       <c r="W852" s="6"/>
       <c r="X852" s="6"/>
     </row>
-    <row r="853" spans="1:24">
+    <row r="853" spans="1:24" hidden="1">
       <c r="A853" s="47">
         <f>YEAR(D853)</f>
         <v>2025</v>
@@ -65282,7 +65281,7 @@
       </c>
       <c r="X854" s="6"/>
     </row>
-    <row r="855" spans="1:24">
+    <row r="855" spans="1:24" hidden="1">
       <c r="A855" s="48">
         <f>YEAR(D855)</f>
         <v>2025</v>
@@ -65390,7 +65389,7 @@
       <c r="W856" s="6"/>
       <c r="X856" s="6"/>
     </row>
-    <row r="857" spans="1:24" ht="121.5">
+    <row r="857" spans="1:24" ht="121.5" hidden="1">
       <c r="A857" s="48" t="s">
         <v>622</v>
       </c>
@@ -66459,7 +66458,7 @@
       <c r="W874" s="6"/>
       <c r="X874" s="34"/>
     </row>
-    <row r="875" spans="1:24" ht="26.25" customHeight="1">
+    <row r="875" spans="1:24" ht="26.25" hidden="1" customHeight="1">
       <c r="A875" s="47">
         <f>YEAR(D876)</f>
         <v>2025</v>
@@ -67109,7 +67108,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="888" spans="1:24">
+    <row r="888" spans="1:24" hidden="1">
       <c r="A888" s="48">
         <f>YEAR(D888)</f>
         <v>2025</v>
@@ -68147,7 +68146,7 @@
       <c r="W904" s="6"/>
       <c r="X904" s="6"/>
     </row>
-    <row r="905" spans="1:24" ht="15" customHeight="1">
+    <row r="905" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A905" s="48">
         <f>YEAR(D905)</f>
         <v>2025</v>
@@ -68214,7 +68213,7 @@
         <v>48</v>
       </c>
       <c r="X905" s="6" t="s">
-        <v>435</v>
+        <v>508</v>
       </c>
     </row>
     <row r="906" spans="1:24" ht="15" customHeight="1">
@@ -69001,7 +69000,7 @@
       <c r="W918" s="6"/>
       <c r="X918" s="6"/>
     </row>
-    <row r="919" spans="1:24" ht="15" customHeight="1">
+    <row r="919" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A919" s="48">
         <f>YEAR(D919)</f>
         <v>2025</v>
@@ -69535,7 +69534,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="928" spans="1:24" ht="15" customHeight="1">
+    <row r="928" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A928" s="48">
         <f>YEAR(D928)</f>
         <v>2025</v>
@@ -70043,7 +70042,7 @@
       <c r="W936" s="23"/>
       <c r="X936" s="23"/>
     </row>
-    <row r="937" spans="1:24" ht="15" customHeight="1">
+    <row r="937" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A937" s="87">
         <f>YEAR(D937)</f>
         <v>2025</v>
@@ -71099,7 +71098,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="955" spans="1:24" ht="108" customHeight="1">
+    <row r="955" spans="1:24" ht="108" hidden="1" customHeight="1">
       <c r="A955" s="87">
         <f>YEAR(D955)</f>
         <v>2025</v>
@@ -71613,7 +71612,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="964" spans="1:24" ht="15" customHeight="1">
+    <row r="964" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A964" s="87">
         <f>YEAR(D964)</f>
         <v>2025</v>
@@ -71727,7 +71726,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="966" spans="1:24" ht="15" customHeight="1">
+    <row r="966" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A966" s="87">
         <f>YEAR(D966)</f>
         <v>2025</v>
@@ -71959,7 +71958,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="970" spans="1:24" ht="32.25" customHeight="1">
+    <row r="970" spans="1:24" ht="32.25" hidden="1" customHeight="1">
       <c r="A970" s="87">
         <f>YEAR(D970)</f>
         <v>2025</v>
@@ -72335,7 +72334,7 @@
       <c r="W976" s="23"/>
       <c r="X976" s="23"/>
     </row>
-    <row r="977" spans="1:24" ht="39" customHeight="1">
+    <row r="977" spans="1:24" ht="39" hidden="1" customHeight="1">
       <c r="A977" s="87">
         <f>YEAR(D977)</f>
         <v>2025</v>
@@ -72455,7 +72454,7 @@
       <c r="W978" s="23"/>
       <c r="X978" s="23"/>
     </row>
-    <row r="979" spans="1:24" ht="15" customHeight="1">
+    <row r="979" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A979" s="87">
         <f>YEAR(D979)</f>
         <v>2025</v>
@@ -72509,7 +72508,7 @@
       </c>
       <c r="X979" s="23"/>
     </row>
-    <row r="980" spans="1:24" ht="15" customHeight="1">
+    <row r="980" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A980" s="87">
         <f>YEAR(D980)</f>
         <v>2025</v>
@@ -72565,7 +72564,7 @@
       <c r="W980" s="23"/>
       <c r="X980" s="23"/>
     </row>
-    <row r="981" spans="1:24" ht="15" customHeight="1">
+    <row r="981" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A981" s="87">
         <f>YEAR(D981)</f>
         <v>2025</v>
@@ -72617,7 +72616,7 @@
       <c r="W981" s="23"/>
       <c r="X981" s="23"/>
     </row>
-    <row r="982" spans="1:24" ht="15" customHeight="1">
+    <row r="982" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A982" s="87">
         <f>YEAR(D982)</f>
         <v>2025</v>
@@ -72671,7 +72670,7 @@
       <c r="W982" s="23"/>
       <c r="X982" s="23"/>
     </row>
-    <row r="983" spans="1:24" ht="15" customHeight="1">
+    <row r="983" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A983" s="87">
         <f>YEAR(D983)</f>
         <v>2025</v>
@@ -72725,7 +72724,7 @@
       <c r="W983" s="23"/>
       <c r="X983" s="23"/>
     </row>
-    <row r="984" spans="1:24" ht="15" customHeight="1">
+    <row r="984" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A984" s="87">
         <f>YEAR(D984)</f>
         <v>2025</v>
@@ -72785,7 +72784,7 @@
       <c r="W984" s="23"/>
       <c r="X984" s="23"/>
     </row>
-    <row r="985" spans="1:24" ht="39" customHeight="1">
+    <row r="985" spans="1:24" ht="39" hidden="1" customHeight="1">
       <c r="A985" s="87">
         <f>YEAR(D985)</f>
         <v>2025</v>
@@ -72872,7 +72871,9 @@
       <c r="J986" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="K986" s="58"/>
+      <c r="K986" s="58">
+        <v>45723</v>
+      </c>
       <c r="L986" s="26"/>
       <c r="M986" s="58"/>
       <c r="N986" s="58"/>
@@ -72893,7 +72894,7 @@
       </c>
       <c r="X986" s="23"/>
     </row>
-    <row r="987" spans="1:24" ht="15" customHeight="1">
+    <row r="987" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A987" s="87">
         <f>YEAR(D987)</f>
         <v>2025</v>
@@ -72924,14 +72925,16 @@
         <v>28</v>
       </c>
       <c r="J987" s="57" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K987" s="58">
         <v>45726</v>
       </c>
       <c r="L987" s="26"/>
       <c r="M987" s="58"/>
-      <c r="N987" s="58"/>
+      <c r="N987" s="58">
+        <v>45728</v>
+      </c>
       <c r="O987" s="26"/>
       <c r="P987" s="26"/>
       <c r="Q987" s="26">
@@ -72982,7 +72985,9 @@
       <c r="J988" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="K988" s="58"/>
+      <c r="K988" s="58">
+        <v>45722</v>
+      </c>
       <c r="L988" s="26"/>
       <c r="M988" s="58"/>
       <c r="N988" s="58"/>
@@ -73003,7 +73008,7 @@
       </c>
       <c r="X988" s="23"/>
     </row>
-    <row r="989" spans="1:24" ht="15" customHeight="1">
+    <row r="989" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A989" s="87">
         <f>YEAR(D989)</f>
         <v>2025</v>
@@ -73063,7 +73068,7 @@
       <c r="W989" s="23"/>
       <c r="X989" s="23"/>
     </row>
-    <row r="990" spans="1:24" ht="15" customHeight="1">
+    <row r="990" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A990" s="87">
         <f>YEAR(D990)</f>
         <v>2025</v>
@@ -73123,7 +73128,7 @@
       <c r="W990" s="23"/>
       <c r="X990" s="23"/>
     </row>
-    <row r="991" spans="1:24" ht="82.5" customHeight="1">
+    <row r="991" spans="1:24" ht="82.5" hidden="1" customHeight="1">
       <c r="A991" s="87">
         <f>YEAR(D991)</f>
         <v>2025</v>
@@ -73179,7 +73184,7 @@
       </c>
       <c r="X991" s="23"/>
     </row>
-    <row r="992" spans="1:24" ht="15" customHeight="1">
+    <row r="992" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A992" s="87">
         <f>YEAR(D992)</f>
         <v>2025</v>
@@ -73353,7 +73358,7 @@
       </c>
       <c r="X994" s="23"/>
     </row>
-    <row r="995" spans="1:24" ht="15" customHeight="1">
+    <row r="995" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A995" s="87">
         <f>YEAR(D995)</f>
         <v>2025</v>
@@ -73469,7 +73474,7 @@
       </c>
       <c r="X996" s="23"/>
     </row>
-    <row r="997" spans="1:24" ht="15" customHeight="1">
+    <row r="997" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A997" s="87">
         <f>YEAR(D997)</f>
         <v>2025</v>
@@ -73533,7 +73538,7 @@
       </c>
       <c r="X997" s="23"/>
     </row>
-    <row r="998" spans="1:24" ht="15" customHeight="1">
+    <row r="998" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A998" s="87">
         <f>YEAR(D998)</f>
         <v>2025</v>
@@ -73587,7 +73592,7 @@
       <c r="W998" s="23"/>
       <c r="X998" s="23"/>
     </row>
-    <row r="999" spans="1:24" ht="15" customHeight="1">
+    <row r="999" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A999" s="87">
         <f>YEAR(D999)</f>
         <v>2025</v>
@@ -73693,7 +73698,7 @@
       </c>
       <c r="X1000" s="23"/>
     </row>
-    <row r="1001" spans="1:24" ht="15" customHeight="1">
+    <row r="1001" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1001" s="87">
         <f>YEAR(D1001)</f>
         <v>2025</v>
@@ -73757,7 +73762,7 @@
       </c>
       <c r="X1001" s="23"/>
     </row>
-    <row r="1002" spans="1:24" ht="15" customHeight="1">
+    <row r="1002" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1002" s="87">
         <f>YEAR(D1002)</f>
         <v>2025</v>
@@ -73821,7 +73826,7 @@
       </c>
       <c r="X1002" s="23"/>
     </row>
-    <row r="1003" spans="1:24" ht="31.5" customHeight="1">
+    <row r="1003" spans="1:24" ht="31.5" hidden="1" customHeight="1">
       <c r="A1003" s="87">
         <f>YEAR(D1003)</f>
         <v>2025</v>
@@ -73912,7 +73917,9 @@
       <c r="J1004" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="K1004" s="58"/>
+      <c r="K1004" s="58">
+        <v>45723</v>
+      </c>
       <c r="L1004" s="26"/>
       <c r="M1004" s="58"/>
       <c r="N1004" s="58"/>
@@ -74371,7 +74378,7 @@
       <c r="W1012" s="23"/>
       <c r="X1012" s="23"/>
     </row>
-    <row r="1013" spans="1:24" ht="15" customHeight="1">
+    <row r="1013" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1013" s="87">
         <f>YEAR(D1013)</f>
         <v>2025</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3821" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B6A5C5-3A62-474A-B059-7ADFC1B90B48}"/>
+  <xr:revisionPtr revIDLastSave="3826" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC647832-2CAE-4BD9-B568-109D7ECE58E7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16288" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16289" uniqueCount="854">
   <si>
     <t>ANO</t>
   </si>
@@ -1545,6 +1545,9 @@
   </si>
   <si>
     <t>A sonda 32 está apresentando vazamento de  óleo hidráulico no comando da patola e no avanço da bomba de água. A bomba de água tá vazando e apresentando falha na aceleração.</t>
+  </si>
+  <si>
+    <t>10030 / 8933</t>
   </si>
   <si>
     <t>145-24 VALE - PERA JUSANTE - CKS</t>
@@ -4443,8 +4446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
   <dimension ref="A1:AA1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P956" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X1025" sqref="X1025"/>
+    <sheetView tabSelected="1" topLeftCell="S972" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U988" sqref="U988"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -58738,7 +58741,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="V746" s="1" t="s">
-        <v>24</v>
+        <v>468</v>
       </c>
       <c r="W746" s="5"/>
       <c r="X746" s="5" t="s">
@@ -58761,7 +58764,7 @@
         <v>45670</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F747" s="1" t="s">
         <v>111</v>
@@ -58803,7 +58806,7 @@
         <v>24</v>
       </c>
       <c r="S747" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T747" s="1" t="s">
         <v>24</v>
@@ -58835,7 +58838,7 @@
         <v>45670</v>
       </c>
       <c r="E748" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F748" s="1" t="s">
         <v>447</v>
@@ -58877,7 +58880,7 @@
         <v>24</v>
       </c>
       <c r="S748" s="90" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T748" s="1" t="s">
         <v>24</v>
@@ -58958,7 +58961,7 @@
         <v>441</v>
       </c>
       <c r="X749" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="750" spans="1:24" hidden="1">
@@ -58977,7 +58980,7 @@
         <v>45671</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F750" s="1" t="s">
         <v>186</v>
@@ -59019,7 +59022,7 @@
         <v>24</v>
       </c>
       <c r="S750" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T750" s="8">
         <v>0.41666666666666669</v>
@@ -59051,10 +59054,10 @@
         <v>45671</v>
       </c>
       <c r="E751" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F751" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G751" s="1" t="s">
         <v>24</v>
@@ -59093,7 +59096,7 @@
         <v>24</v>
       </c>
       <c r="S751" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T751" s="1" t="s">
         <v>24</v>
@@ -59167,7 +59170,7 @@
         <v>24</v>
       </c>
       <c r="S752" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="T752" s="1" t="s">
         <v>24</v>
@@ -59199,10 +59202,10 @@
         <v>45672</v>
       </c>
       <c r="E753" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F753" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G753" s="1" t="s">
         <v>361</v>
@@ -59241,7 +59244,7 @@
         <v>24</v>
       </c>
       <c r="S753" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T753" s="8">
         <v>0.33333333333333331</v>
@@ -59273,7 +59276,7 @@
         <v>45672</v>
       </c>
       <c r="E754" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F754" s="1" t="s">
         <v>424</v>
@@ -59315,7 +59318,7 @@
         <v>24</v>
       </c>
       <c r="S754" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T754" s="8">
         <v>0.5</v>
@@ -59389,7 +59392,7 @@
         <v>24</v>
       </c>
       <c r="S755" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T755" s="1" t="s">
         <v>24</v>
@@ -59460,10 +59463,10 @@
         <v>986</v>
       </c>
       <c r="R756" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="S756" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="T756" s="8">
         <v>0.60416666666666663</v>
@@ -59535,7 +59538,7 @@
         <v>24</v>
       </c>
       <c r="S757" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T757" s="1" t="s">
         <v>24</v>
@@ -59609,7 +59612,7 @@
         <v>24</v>
       </c>
       <c r="S758" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T758" s="1" t="s">
         <v>24</v>
@@ -59675,7 +59678,7 @@
         <v>434</v>
       </c>
       <c r="S759" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T759" s="8">
         <v>0.41666666666666669</v>
@@ -59690,7 +59693,7 @@
         <v>451</v>
       </c>
       <c r="X759" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="760" spans="1:24">
@@ -59743,7 +59746,7 @@
         <v>434</v>
       </c>
       <c r="S760" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T760" s="8">
         <v>0.34722222222222221</v>
@@ -59756,7 +59759,7 @@
         <v>48</v>
       </c>
       <c r="X760" s="11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="761" spans="1:24" hidden="1">
@@ -59817,7 +59820,7 @@
         <v>24</v>
       </c>
       <c r="S761" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T761" s="1" t="s">
         <v>24</v>
@@ -59849,7 +59852,7 @@
         <v>45674</v>
       </c>
       <c r="E762" s="38" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F762" s="45" t="s">
         <v>279</v>
@@ -59891,7 +59894,7 @@
         <v>24</v>
       </c>
       <c r="S762" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T762" s="1" t="s">
         <v>24</v>
@@ -59923,7 +59926,7 @@
         <v>45674</v>
       </c>
       <c r="E763" s="73" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F763" s="45" t="s">
         <v>439</v>
@@ -59997,7 +60000,7 @@
         <v>45673</v>
       </c>
       <c r="E764" s="38" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F764" s="45" t="s">
         <v>433</v>
@@ -60039,7 +60042,7 @@
         <v>24</v>
       </c>
       <c r="S764" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="T764" s="8">
         <v>0.33333333333333331</v>
@@ -60071,7 +60074,7 @@
         <v>45674</v>
       </c>
       <c r="E765" s="73" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F765" s="45" t="s">
         <v>219</v>
@@ -60101,13 +60104,13 @@
       </c>
       <c r="P765" s="1"/>
       <c r="Q765" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="R765" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="S765" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T765" s="8">
         <v>0.33333333333333331</v>
@@ -60120,7 +60123,7 @@
       </c>
       <c r="W765" s="6"/>
       <c r="X765" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="766" spans="1:24" hidden="1">
@@ -60139,7 +60142,7 @@
         <v>45674</v>
       </c>
       <c r="E766" s="38" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F766" s="45" t="s">
         <v>295</v>
@@ -60173,13 +60176,13 @@
       </c>
       <c r="P766" s="1"/>
       <c r="Q766" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="R766" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="S766" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="T766" s="8">
         <v>0.45833333333333331</v>
@@ -60211,7 +60214,7 @@
         <v>45678</v>
       </c>
       <c r="E767" s="73" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F767" s="45" t="s">
         <v>24</v>
@@ -60251,7 +60254,7 @@
         <v>24</v>
       </c>
       <c r="S767" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="T767" s="1" t="s">
         <v>24</v>
@@ -60283,7 +60286,7 @@
         <v>45678</v>
       </c>
       <c r="E768" s="38" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F768" s="45" t="s">
         <v>24</v>
@@ -60325,7 +60328,7 @@
         <v>24</v>
       </c>
       <c r="S768" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="T768" s="1" t="s">
         <v>24</v>
@@ -60357,7 +60360,7 @@
         <v>45678</v>
       </c>
       <c r="E769" s="38" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F769" s="45" t="s">
         <v>447</v>
@@ -60397,7 +60400,7 @@
         <v>24</v>
       </c>
       <c r="S769" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="T769" s="8">
         <v>0.33333333333333331</v>
@@ -60429,7 +60432,7 @@
         <v>45678</v>
       </c>
       <c r="E770" s="74" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F770" s="45" t="s">
         <v>24</v>
@@ -60503,7 +60506,7 @@
         <v>45678</v>
       </c>
       <c r="E771" s="73" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F771" s="45" t="s">
         <v>263</v>
@@ -60537,13 +60540,13 @@
       </c>
       <c r="P771" s="1"/>
       <c r="Q771" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="R771" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S771" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="T771" s="8">
         <v>0.33333333333333331</v>
@@ -60575,7 +60578,7 @@
         <v>45312</v>
       </c>
       <c r="E772" s="38" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F772" s="45" t="s">
         <v>24</v>
@@ -60609,7 +60612,7 @@
         <v>24</v>
       </c>
       <c r="S772" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="T772" s="1" t="s">
         <v>24</v>
@@ -60656,7 +60659,7 @@
         <v>35</v>
       </c>
       <c r="J773" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K773" s="44">
         <v>45679</v>
@@ -60681,7 +60684,7 @@
         <v>434</v>
       </c>
       <c r="S773" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="T773" s="8">
         <v>0.41666666666666669</v>
@@ -60753,7 +60756,7 @@
         <v>24</v>
       </c>
       <c r="S774" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T774" s="1" t="s">
         <v>24</v>
@@ -60785,13 +60788,13 @@
         <v>45678</v>
       </c>
       <c r="E775" s="38" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F775" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G775" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H775" s="1" t="s">
         <v>297</v>
@@ -60827,7 +60830,7 @@
         <v>24</v>
       </c>
       <c r="S775" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="T775" s="1" t="s">
         <v>24</v>
@@ -60859,13 +60862,13 @@
         <v>45678</v>
       </c>
       <c r="E776" s="38" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F776" s="46" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G776" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H776" s="3" t="s">
         <v>297</v>
@@ -60975,7 +60978,7 @@
         <v>24</v>
       </c>
       <c r="S777" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="T777" s="3" t="s">
         <v>24</v>
@@ -61007,7 +61010,7 @@
         <v>45312</v>
       </c>
       <c r="E778" s="38" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F778" s="46" t="s">
         <v>130</v>
@@ -61043,13 +61046,13 @@
         <v>24</v>
       </c>
       <c r="Q778" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="R778" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="S778" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T778" s="7">
         <v>0.45416666666666666</v>
@@ -61123,7 +61126,7 @@
         <v>24</v>
       </c>
       <c r="S779" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="T779" s="7">
         <v>0.375</v>
@@ -61195,7 +61198,7 @@
         <v>24</v>
       </c>
       <c r="S780" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="T780" s="3" t="s">
         <v>24</v>
@@ -61269,7 +61272,7 @@
         <v>24</v>
       </c>
       <c r="S781" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="T781" s="3" t="s">
         <v>24</v>
@@ -61375,7 +61378,7 @@
         <v>45312</v>
       </c>
       <c r="E783" s="38" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F783" s="46" t="s">
         <v>24</v>
@@ -61417,7 +61420,7 @@
         <v>24</v>
       </c>
       <c r="S783" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="T783" s="3" t="s">
         <v>24</v>
@@ -61449,10 +61452,10 @@
         <v>45312</v>
       </c>
       <c r="E784" s="38" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F784" s="45" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G784" s="1" t="s">
         <v>398</v>
@@ -61491,7 +61494,7 @@
         <v>24</v>
       </c>
       <c r="S784" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T784" s="8">
         <v>0.54166666666666663</v>
@@ -61565,7 +61568,7 @@
         <v>24</v>
       </c>
       <c r="S785" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T785" s="1" t="s">
         <v>24</v>
@@ -61639,7 +61642,7 @@
         <v>24</v>
       </c>
       <c r="S786" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="T786" s="1" t="s">
         <v>24</v>
@@ -61855,7 +61858,7 @@
         <v>24</v>
       </c>
       <c r="S789" s="91" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="T789" s="3" t="s">
         <v>24</v>
@@ -61921,7 +61924,7 @@
         <v>434</v>
       </c>
       <c r="S790" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T790" s="8">
         <v>0.56944444444444442</v>
@@ -61934,7 +61937,7 @@
         <v>451</v>
       </c>
       <c r="X790" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="791" spans="1:24">
@@ -61977,7 +61980,7 @@
       <c r="Q791" s="1"/>
       <c r="R791" s="1"/>
       <c r="S791" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T791" s="1"/>
       <c r="U791" s="1"/>
@@ -61986,7 +61989,7 @@
         <v>451</v>
       </c>
       <c r="X791" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="792" spans="1:24">
@@ -62029,7 +62032,7 @@
       <c r="Q792" s="1"/>
       <c r="R792" s="1"/>
       <c r="S792" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T792" s="1"/>
       <c r="U792" s="1"/>
@@ -62038,7 +62041,7 @@
         <v>451</v>
       </c>
       <c r="X792" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="793" spans="1:24">
@@ -62081,7 +62084,7 @@
       <c r="Q793" s="1"/>
       <c r="R793" s="1"/>
       <c r="S793" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T793" s="1"/>
       <c r="U793" s="1"/>
@@ -62090,7 +62093,7 @@
         <v>451</v>
       </c>
       <c r="X793" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="794" spans="1:24">
@@ -62133,7 +62136,7 @@
       <c r="Q794" s="1"/>
       <c r="R794" s="1"/>
       <c r="S794" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T794" s="1"/>
       <c r="U794" s="1"/>
@@ -62142,7 +62145,7 @@
         <v>451</v>
       </c>
       <c r="X794" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="795" spans="1:24" hidden="1">
@@ -62189,7 +62192,7 @@
       <c r="Q795" s="1"/>
       <c r="R795" s="1"/>
       <c r="S795" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T795" s="1"/>
       <c r="U795" s="1"/>
@@ -62241,7 +62244,7 @@
       <c r="Q796" s="1"/>
       <c r="R796" s="1"/>
       <c r="S796" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="T796" s="1"/>
       <c r="U796" s="1"/>
@@ -62293,7 +62296,7 @@
       <c r="Q797" s="1"/>
       <c r="R797" s="1"/>
       <c r="S797" s="91" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T797" s="1"/>
       <c r="U797" s="1"/>
@@ -62345,7 +62348,7 @@
       <c r="Q798" s="1"/>
       <c r="R798" s="1"/>
       <c r="S798" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="T798" s="1"/>
       <c r="U798" s="1"/>
@@ -62371,19 +62374,19 @@
         <v>45680</v>
       </c>
       <c r="E799" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F799" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G799" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H799" s="1" t="s">
         <v>299</v>
       </c>
       <c r="I799" s="43" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J799" s="1" t="s">
         <v>29</v>
@@ -62403,13 +62406,13 @@
       </c>
       <c r="P799" s="1"/>
       <c r="Q799" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="R799" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="S799" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="T799" s="8">
         <v>0.5625</v>
@@ -62465,7 +62468,7 @@
       <c r="Q800" s="1"/>
       <c r="R800" s="1"/>
       <c r="S800" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T800" s="1"/>
       <c r="U800" s="1"/>
@@ -62517,7 +62520,7 @@
       <c r="Q801" s="1"/>
       <c r="R801" s="1"/>
       <c r="S801" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="T801" s="1"/>
       <c r="U801" s="1"/>
@@ -62543,13 +62546,13 @@
         <v>45680</v>
       </c>
       <c r="E802" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F802" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G802" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H802" s="1" t="s">
         <v>297</v>
@@ -62569,7 +62572,7 @@
       <c r="Q802" s="1"/>
       <c r="R802" s="1"/>
       <c r="S802" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T802" s="1"/>
       <c r="U802" s="1"/>
@@ -62593,13 +62596,13 @@
         <v>45680</v>
       </c>
       <c r="E803" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F803" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G803" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H803" s="1" t="s">
         <v>297</v>
@@ -62619,7 +62622,7 @@
       <c r="Q803" s="1"/>
       <c r="R803" s="1"/>
       <c r="S803" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T803" s="1"/>
       <c r="U803" s="1"/>
@@ -62646,10 +62649,10 @@
         <v>457</v>
       </c>
       <c r="F804" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G804" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H804" s="1" t="s">
         <v>297</v>
@@ -62669,16 +62672,16 @@
       <c r="Q804" s="1"/>
       <c r="R804" s="1"/>
       <c r="S804" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="T804" s="1"/>
       <c r="U804" s="1"/>
       <c r="V804" s="1"/>
       <c r="W804" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X804" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="805" spans="1:24" hidden="1">
@@ -62697,7 +62700,7 @@
         <v>45681</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F805" s="1" t="s">
         <v>25</v>
@@ -62725,7 +62728,7 @@
       <c r="Q805" s="1"/>
       <c r="R805" s="1"/>
       <c r="S805" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="T805" s="1"/>
       <c r="U805" s="1"/>
@@ -62754,7 +62757,7 @@
         <v>457</v>
       </c>
       <c r="F806" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G806" s="1"/>
       <c r="H806" s="1" t="s">
@@ -62779,7 +62782,7 @@
       <c r="Q806" s="1"/>
       <c r="R806" s="1"/>
       <c r="S806" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="T806" s="1"/>
       <c r="U806" s="1"/>
@@ -62805,10 +62808,10 @@
         <v>45681</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F807" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G807" s="3"/>
       <c r="H807" s="3" t="s">
@@ -62853,7 +62856,7 @@
         <v>45681</v>
       </c>
       <c r="E808" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F808" s="3" t="s">
         <v>433</v>
@@ -62893,7 +62896,7 @@
         <v>434</v>
       </c>
       <c r="S808" s="92" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="T808" s="7">
         <v>0.375</v>
@@ -62921,13 +62924,13 @@
         <v>45681</v>
       </c>
       <c r="E809" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F809" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G809" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H809" s="3" t="s">
         <v>297</v>
@@ -62953,7 +62956,7 @@
       </c>
       <c r="R809" s="3"/>
       <c r="S809" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="T809" s="7">
         <v>0.41666666666666669</v>
@@ -62986,10 +62989,10 @@
         <v>47</v>
       </c>
       <c r="F810" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G810" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H810" s="3" t="s">
         <v>297</v>
@@ -63009,7 +63012,7 @@
       <c r="Q810" s="3"/>
       <c r="R810" s="3"/>
       <c r="S810" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="T810" s="3"/>
       <c r="U810" s="3"/>
@@ -63035,13 +63038,13 @@
         <v>45687.534421296295</v>
       </c>
       <c r="E811" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F811" s="3" t="s">
         <v>289</v>
       </c>
       <c r="G811" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H811" s="3" t="s">
         <v>299</v>
@@ -63065,7 +63068,7 @@
       </c>
       <c r="R811" s="3"/>
       <c r="S811" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="T811" s="7">
         <v>0.33333333333333331</v>
@@ -63098,10 +63101,10 @@
         <v>457</v>
       </c>
       <c r="F812" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G812" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H812" s="1" t="s">
         <v>297</v>
@@ -63121,7 +63124,7 @@
       <c r="Q812" s="1"/>
       <c r="R812" s="1"/>
       <c r="S812" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="T812" s="1"/>
       <c r="U812" s="1"/>
@@ -63130,7 +63133,7 @@
         <v>451</v>
       </c>
       <c r="X812" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="813" spans="1:24" hidden="1">
@@ -63149,7 +63152,7 @@
         <v>45684</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F813" s="1" t="s">
         <v>39</v>
@@ -63177,7 +63180,7 @@
       <c r="Q813" s="1"/>
       <c r="R813" s="1"/>
       <c r="S813" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T813" s="1"/>
       <c r="U813" s="1"/>
@@ -63207,7 +63210,7 @@
         <v>263</v>
       </c>
       <c r="G814" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H814" s="1" t="s">
         <v>297</v>
@@ -63231,7 +63234,7 @@
       <c r="Q814" s="1"/>
       <c r="R814" s="1"/>
       <c r="S814" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T814" s="1"/>
       <c r="U814" s="1"/>
@@ -63263,7 +63266,7 @@
         <v>228</v>
       </c>
       <c r="G815" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H815" s="1" t="s">
         <v>297</v>
@@ -63293,7 +63296,7 @@
         <v>434</v>
       </c>
       <c r="S815" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T815" s="8">
         <v>0.56944444444444442</v>
@@ -63329,7 +63332,7 @@
         <v>279</v>
       </c>
       <c r="G816" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H816" s="3" t="s">
         <v>297</v>
@@ -63359,7 +63362,7 @@
         <v>434</v>
       </c>
       <c r="S816" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="T816" s="7">
         <v>0.58333333333333337</v>
@@ -63372,7 +63375,7 @@
         <v>451</v>
       </c>
       <c r="X816" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="817" spans="1:24" hidden="1">
@@ -63394,10 +63397,10 @@
         <v>47</v>
       </c>
       <c r="F817" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G817" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H817" s="1" t="s">
         <v>297</v>
@@ -63419,7 +63422,7 @@
       <c r="Q817" s="1"/>
       <c r="R817" s="1"/>
       <c r="S817" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T817" s="1"/>
       <c r="U817" s="1"/>
@@ -63445,13 +63448,13 @@
         <v>45684</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F818" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G818" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H818" s="1" t="s">
         <v>299</v>
@@ -63475,7 +63478,7 @@
       <c r="Q818" s="1"/>
       <c r="R818" s="1"/>
       <c r="S818" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T818" s="1"/>
       <c r="U818" s="1"/>
@@ -63501,13 +63504,13 @@
         <v>45684</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F819" s="1" t="s">
         <v>447</v>
       </c>
       <c r="G819" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H819" s="1" t="s">
         <v>297</v>
@@ -63531,7 +63534,7 @@
       <c r="Q819" s="1"/>
       <c r="R819" s="1"/>
       <c r="S819" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T819" s="1"/>
       <c r="U819" s="1"/>
@@ -63557,13 +63560,13 @@
         <v>45684</v>
       </c>
       <c r="E820" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F820" s="1" t="s">
         <v>447</v>
       </c>
       <c r="G820" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H820" s="1" t="s">
         <v>297</v>
@@ -63611,7 +63614,7 @@
         <v>263</v>
       </c>
       <c r="G821" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H821" s="1" t="s">
         <v>299</v>
@@ -63633,11 +63636,11 @@
       <c r="O821" s="1"/>
       <c r="P821" s="1"/>
       <c r="Q821" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="R821" s="1"/>
       <c r="S821" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T821" s="8">
         <v>0.61111111111111116</v>
@@ -63673,7 +63676,7 @@
         <v>295</v>
       </c>
       <c r="G822" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H822" s="1" t="s">
         <v>299</v>
@@ -63695,11 +63698,11 @@
       <c r="O822" s="1"/>
       <c r="P822" s="1"/>
       <c r="Q822" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R822" s="1"/>
       <c r="S822" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="T822" s="8">
         <v>0.33333333333333331</v>
@@ -63729,13 +63732,13 @@
         <v>45684</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F823" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G823" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H823" s="1" t="s">
         <v>299</v>
@@ -63757,11 +63760,11 @@
       <c r="O823" s="1"/>
       <c r="P823" s="1"/>
       <c r="Q823" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="R823" s="1"/>
       <c r="S823" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="T823" s="8">
         <v>0.38055555555555554</v>
@@ -63797,7 +63800,7 @@
         <v>306</v>
       </c>
       <c r="G824" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H824" s="1" t="s">
         <v>297</v>
@@ -63821,7 +63824,7 @@
       <c r="Q824" s="1"/>
       <c r="R824" s="1"/>
       <c r="S824" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T824" s="8"/>
       <c r="U824" s="8"/>
@@ -63847,13 +63850,13 @@
         <v>45685</v>
       </c>
       <c r="E825" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F825" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G825" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H825" s="1" t="s">
         <v>297</v>
@@ -63877,7 +63880,7 @@
       <c r="Q825" s="1"/>
       <c r="R825" s="1"/>
       <c r="S825" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="T825" s="1"/>
       <c r="U825" s="1"/>
@@ -63903,13 +63906,13 @@
         <v>45685</v>
       </c>
       <c r="E826" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F826" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G826" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H826" s="1" t="s">
         <v>297</v>
@@ -63933,7 +63936,7 @@
       <c r="Q826" s="1"/>
       <c r="R826" s="1"/>
       <c r="S826" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T826" s="1"/>
       <c r="U826" s="1"/>
@@ -63965,7 +63968,7 @@
         <v>279</v>
       </c>
       <c r="G827" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H827" s="1" t="s">
         <v>297</v>
@@ -63989,7 +63992,7 @@
       <c r="Q827" s="1"/>
       <c r="R827" s="1"/>
       <c r="S827" s="93" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="T827" s="1"/>
       <c r="U827" s="1"/>
@@ -64015,13 +64018,13 @@
         <v>45685</v>
       </c>
       <c r="E828" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F828" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H828" s="1" t="s">
         <v>299</v>
@@ -64043,11 +64046,11 @@
       <c r="O828" s="1"/>
       <c r="P828" s="1"/>
       <c r="Q828" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="R828" s="1"/>
       <c r="S828" s="13" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="T828" s="8">
         <v>0.41666666666666669</v>
@@ -64083,7 +64086,7 @@
         <v>186</v>
       </c>
       <c r="G829" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H829" s="1" t="s">
         <v>299</v>
@@ -64105,11 +64108,11 @@
       <c r="O829" s="1"/>
       <c r="P829" s="1"/>
       <c r="Q829" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="R829" s="1"/>
       <c r="S829" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T829" s="8">
         <v>0.4375</v>
@@ -64145,7 +64148,7 @@
         <v>279</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H830" s="1" t="s">
         <v>299</v>
@@ -64165,7 +64168,7 @@
       <c r="Q830" s="1"/>
       <c r="R830" s="1"/>
       <c r="S830" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="T830" s="1"/>
       <c r="U830" s="1"/>
@@ -64189,7 +64192,7 @@
         <v>45686</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F831" s="1" t="s">
         <v>130</v>
@@ -64219,7 +64222,7 @@
       <c r="Q831" s="1"/>
       <c r="R831" s="1"/>
       <c r="S831" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="T831" s="1"/>
       <c r="U831" s="1"/>
@@ -64248,10 +64251,10 @@
         <v>457</v>
       </c>
       <c r="F832" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G832" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H832" s="1" t="s">
         <v>297</v>
@@ -64275,7 +64278,7 @@
       <c r="Q832" s="1"/>
       <c r="R832" s="1"/>
       <c r="S832" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="T832" s="1"/>
       <c r="U832" s="1"/>
@@ -64301,13 +64304,13 @@
         <v>45686</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F833" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G833" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H833" s="1" t="s">
         <v>297</v>
@@ -64331,7 +64334,7 @@
       <c r="Q833" s="1"/>
       <c r="R833" s="1"/>
       <c r="S833" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="T833" s="1"/>
       <c r="U833" s="1"/>
@@ -64363,7 +64366,7 @@
         <v>392</v>
       </c>
       <c r="G834" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H834" s="1" t="s">
         <v>299</v>
@@ -64387,7 +64390,7 @@
       <c r="Q834" s="1"/>
       <c r="R834" s="1"/>
       <c r="S834" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="T834" s="1"/>
       <c r="U834" s="1"/>
@@ -64419,7 +64422,7 @@
         <v>279</v>
       </c>
       <c r="G835" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H835" s="1" t="s">
         <v>299</v>
@@ -64441,11 +64444,11 @@
       <c r="O835" s="1"/>
       <c r="P835" s="1"/>
       <c r="Q835" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R835" s="1"/>
       <c r="S835" s="94" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="T835" s="95">
         <v>0.375</v>
@@ -64478,10 +64481,10 @@
         <v>457</v>
       </c>
       <c r="F836" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G836" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H836" s="1" t="s">
         <v>297</v>
@@ -64532,7 +64535,7 @@
         <v>263</v>
       </c>
       <c r="G837" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H837" s="1" t="s">
         <v>297</v>
@@ -64576,13 +64579,13 @@
         <v>45687</v>
       </c>
       <c r="E838" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F838" s="1" t="s">
         <v>424</v>
       </c>
       <c r="G838" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H838" s="1" t="s">
         <v>297</v>
@@ -64626,13 +64629,13 @@
         <v>45686</v>
       </c>
       <c r="E839" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F839" s="1" t="s">
         <v>289</v>
       </c>
       <c r="G839" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H839" s="1" t="s">
         <v>299</v>
@@ -64679,10 +64682,10 @@
         <v>457</v>
       </c>
       <c r="F840" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G840" s="50" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H840" s="1" t="s">
         <v>297</v>
@@ -64731,10 +64734,10 @@
         <v>457</v>
       </c>
       <c r="F841" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G841" s="39" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H841" s="3" t="s">
         <v>297</v>
@@ -64778,13 +64781,13 @@
         <v>45686.686238425929</v>
       </c>
       <c r="E842" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F842" s="3" t="s">
         <v>399</v>
       </c>
       <c r="G842" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H842" s="3" t="s">
         <v>299</v>
@@ -64830,13 +64833,13 @@
         <v>45687.688009259262</v>
       </c>
       <c r="E843" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F843" s="3" t="s">
         <v>439</v>
       </c>
       <c r="G843" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H843" s="3" t="s">
         <v>297</v>
@@ -64888,7 +64891,7 @@
         <v>111</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>297</v>
@@ -64940,7 +64943,7 @@
         <v>228</v>
       </c>
       <c r="G845" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H845" s="3" t="s">
         <v>299</v>
@@ -64989,10 +64992,10 @@
         <v>457</v>
       </c>
       <c r="F846" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G846" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H846" s="3" t="s">
         <v>297</v>
@@ -65042,7 +65045,7 @@
         <v>295</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H847" s="3" t="s">
         <v>299</v>
@@ -65088,13 +65091,13 @@
         <v>45688.581076388888</v>
       </c>
       <c r="E848" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F848" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G848" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H848" s="3" t="s">
         <v>299</v>
@@ -65116,7 +65119,7 @@
       </c>
       <c r="R848" s="3"/>
       <c r="S848" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="T848" s="3"/>
       <c r="U848" s="3"/>
@@ -65148,7 +65151,7 @@
         <v>279</v>
       </c>
       <c r="G849" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H849" s="3" t="s">
         <v>297</v>
@@ -65170,7 +65173,7 @@
       </c>
       <c r="R849" s="3"/>
       <c r="S849" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="T849" s="3"/>
       <c r="U849" s="3"/>
@@ -65196,13 +65199,13 @@
         <v>45688.693136574075</v>
       </c>
       <c r="E850" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F850" s="3" t="s">
         <v>439</v>
       </c>
       <c r="G850" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H850" s="3" t="s">
         <v>297</v>
@@ -65224,7 +65227,7 @@
       </c>
       <c r="R850" s="3"/>
       <c r="S850" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="T850" s="3"/>
       <c r="U850" s="3"/>
@@ -65253,10 +65256,10 @@
         <v>457</v>
       </c>
       <c r="F851" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G851" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H851" s="3" t="s">
         <v>297</v>
@@ -65278,14 +65281,14 @@
       </c>
       <c r="R851" s="3"/>
       <c r="S851" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="T851" s="3"/>
       <c r="U851" s="3"/>
       <c r="V851" s="3"/>
       <c r="W851" s="6"/>
       <c r="X851" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="852" spans="1:24" hidden="1">
@@ -65310,7 +65313,7 @@
         <v>279</v>
       </c>
       <c r="G852" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H852" s="3" t="s">
         <v>297</v>
@@ -65332,7 +65335,7 @@
       </c>
       <c r="R852" s="3"/>
       <c r="S852" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="T852" s="3"/>
       <c r="U852" s="3"/>
@@ -65394,7 +65397,7 @@
         <v>434</v>
       </c>
       <c r="S853" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="T853" s="8">
         <v>0.33333333333333331</v>
@@ -65422,13 +65425,13 @@
         <v>45691.557245370372</v>
       </c>
       <c r="E854" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F854" s="3" t="s">
         <v>439</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>297</v>
@@ -65450,7 +65453,7 @@
       </c>
       <c r="R854" s="3"/>
       <c r="S854" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="T854" s="3"/>
       <c r="U854" s="3"/>
@@ -65459,7 +65462,7 @@
         <v>451</v>
       </c>
       <c r="X854" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="855" spans="1:24" hidden="1">
@@ -65484,7 +65487,7 @@
         <v>263</v>
       </c>
       <c r="G855" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H855" s="3" t="s">
         <v>297</v>
@@ -65508,14 +65511,14 @@
       </c>
       <c r="R855" s="3"/>
       <c r="S855" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="T855" s="3"/>
       <c r="U855" s="3"/>
       <c r="V855" s="3"/>
       <c r="W855" s="6"/>
       <c r="X855" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="856" spans="1:24" hidden="1">
@@ -65540,7 +65543,7 @@
         <v>295</v>
       </c>
       <c r="G856" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H856" s="3" t="s">
         <v>299</v>
@@ -65562,7 +65565,7 @@
       </c>
       <c r="R856" s="3"/>
       <c r="S856" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="T856" s="3"/>
       <c r="U856" s="3"/>
@@ -65574,7 +65577,7 @@
     </row>
     <row r="857" spans="1:24" ht="121.5" hidden="1">
       <c r="A857" s="46" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B857" s="3">
         <f>MONTH(D857)</f>
@@ -65587,13 +65590,13 @@
         <v>45691.744351851848</v>
       </c>
       <c r="E857" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F857" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G857" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H857" s="3" t="s">
         <v>297</v>
@@ -65619,7 +65622,7 @@
       </c>
       <c r="R857" s="3"/>
       <c r="S857" s="12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="T857" s="7">
         <v>0.39583333333333331</v>
@@ -65651,13 +65654,13 @@
         <v>45691.772453703707</v>
       </c>
       <c r="E858" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F858" s="3" t="s">
         <v>76</v>
       </c>
       <c r="G858" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H858" s="3" t="s">
         <v>299</v>
@@ -65679,7 +65682,7 @@
       </c>
       <c r="R858" s="3"/>
       <c r="S858" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="T858" s="3"/>
       <c r="U858" s="3"/>
@@ -65706,10 +65709,10 @@
         <v>457</v>
       </c>
       <c r="F859" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G859" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H859" s="3" t="s">
         <v>297</v>
@@ -65731,7 +65734,7 @@
       </c>
       <c r="R859" s="3"/>
       <c r="S859" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="T859" s="3"/>
       <c r="U859" s="3"/>
@@ -65755,13 +65758,13 @@
         <v>45692.569467592592</v>
       </c>
       <c r="E860" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F860" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G860" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H860" s="3" t="s">
         <v>297</v>
@@ -65793,7 +65796,7 @@
         <v>434</v>
       </c>
       <c r="S860" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="T860" s="7">
         <v>0.34722222222222221</v>
@@ -65801,10 +65804,10 @@
       <c r="U860" s="3"/>
       <c r="V860" s="3"/>
       <c r="W860" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X860" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="861" spans="1:24" hidden="1">
@@ -65826,10 +65829,10 @@
         <v>47</v>
       </c>
       <c r="F861" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G861" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H861" s="3" t="s">
         <v>297</v>
@@ -65863,7 +65866,7 @@
         <v>434</v>
       </c>
       <c r="S861" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="T861" s="7">
         <v>0.61597222222222225</v>
@@ -65896,10 +65899,10 @@
         <v>463</v>
       </c>
       <c r="F862" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G862" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H862" s="3" t="s">
         <v>297</v>
@@ -65921,7 +65924,7 @@
       </c>
       <c r="R862" s="1"/>
       <c r="S862" s="12" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="T862" s="3"/>
       <c r="U862" s="3"/>
@@ -65950,10 +65953,10 @@
         <v>47</v>
       </c>
       <c r="F863" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G863" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H863" s="3" t="s">
         <v>297</v>
@@ -65985,7 +65988,7 @@
         <v>434</v>
       </c>
       <c r="S863" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T863" s="7">
         <v>0.33333333333333331</v>
@@ -66018,10 +66021,10 @@
         <v>47</v>
       </c>
       <c r="F864" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G864" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H864" s="3" t="s">
         <v>297</v>
@@ -66053,7 +66056,7 @@
         <v>434</v>
       </c>
       <c r="S864" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="T864" s="14">
         <v>0.33333333333333331</v>
@@ -66086,10 +66089,10 @@
         <v>47</v>
       </c>
       <c r="F865" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G865" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H865" s="3" t="s">
         <v>297</v>
@@ -66121,7 +66124,7 @@
         <v>434</v>
       </c>
       <c r="S865" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="T865" s="14">
         <v>0.33333333333333331</v>
@@ -66154,10 +66157,10 @@
         <v>47</v>
       </c>
       <c r="F866" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G866" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H866" s="3" t="s">
         <v>297</v>
@@ -66187,7 +66190,7 @@
         <v>434</v>
       </c>
       <c r="S866" s="12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="T866" s="7">
         <v>0.625</v>
@@ -66218,10 +66221,10 @@
         <v>47</v>
       </c>
       <c r="F867" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G867" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H867" s="3" t="s">
         <v>297</v>
@@ -66253,7 +66256,7 @@
         <v>434</v>
       </c>
       <c r="S867" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="T867" s="14">
         <v>0.33333333333333331</v>
@@ -66289,7 +66292,7 @@
         <v>99</v>
       </c>
       <c r="G868" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H868" s="3" t="s">
         <v>297</v>
@@ -66313,7 +66316,7 @@
       </c>
       <c r="R868" s="1"/>
       <c r="S868" s="27" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="T868" s="3"/>
       <c r="U868" s="3"/>
@@ -66345,7 +66348,7 @@
         <v>279</v>
       </c>
       <c r="G869" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H869" s="3" t="s">
         <v>297</v>
@@ -66369,14 +66372,14 @@
       <c r="Q869" s="3"/>
       <c r="R869" s="3"/>
       <c r="S869" s="27" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="T869" s="3"/>
       <c r="U869" s="3"/>
       <c r="V869" s="3"/>
       <c r="W869" s="6"/>
       <c r="X869" s="6" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="870" spans="1:24" hidden="1">
@@ -66398,10 +66401,10 @@
         <v>457</v>
       </c>
       <c r="F870" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G870" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H870" s="3" t="s">
         <v>297</v>
@@ -66423,7 +66426,7 @@
       <c r="Q870" s="3"/>
       <c r="R870" s="3"/>
       <c r="S870" s="28" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="T870" s="3"/>
       <c r="U870" s="3"/>
@@ -66455,7 +66458,7 @@
         <v>130</v>
       </c>
       <c r="G871" s="76" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H871" s="3" t="s">
         <v>297</v>
@@ -66481,7 +66484,7 @@
       <c r="Q871" s="3"/>
       <c r="R871" s="3"/>
       <c r="S871" s="27" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="T871" s="7">
         <v>0.66666666666666663</v>
@@ -66514,10 +66517,10 @@
         <v>457</v>
       </c>
       <c r="F872" s="31" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G872" s="51" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H872" s="31" t="s">
         <v>297</v>
@@ -66537,7 +66540,7 @@
       <c r="Q872" s="31"/>
       <c r="R872" s="31"/>
       <c r="S872" s="29" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="T872" s="30"/>
       <c r="U872" s="30"/>
@@ -66569,7 +66572,7 @@
         <v>95</v>
       </c>
       <c r="G873" s="51" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H873" s="31" t="s">
         <v>297</v>
@@ -66589,7 +66592,7 @@
       <c r="Q873" s="31"/>
       <c r="R873" s="31"/>
       <c r="S873" s="29" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="T873" s="30"/>
       <c r="U873" s="30"/>
@@ -66621,7 +66624,7 @@
         <v>279</v>
       </c>
       <c r="G874" s="51" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H874" s="31" t="s">
         <v>297</v>
@@ -66641,7 +66644,7 @@
       <c r="Q874" s="31"/>
       <c r="R874" s="31"/>
       <c r="S874" s="29" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="T874" s="30"/>
       <c r="U874" s="30"/>
@@ -66673,7 +66676,7 @@
         <v>279</v>
       </c>
       <c r="G875" s="51" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H875" s="31" t="s">
         <v>297</v>
@@ -66695,7 +66698,7 @@
       <c r="Q875" s="31"/>
       <c r="R875" s="31"/>
       <c r="S875" s="29" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T875" s="30"/>
       <c r="U875" s="30"/>
@@ -66724,10 +66727,10 @@
         <v>457</v>
       </c>
       <c r="F876" s="31" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G876" s="51" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H876" s="31" t="s">
         <v>297</v>
@@ -66747,7 +66750,7 @@
       <c r="Q876" s="31"/>
       <c r="R876" s="31"/>
       <c r="S876" s="35" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="T876" s="30"/>
       <c r="U876" s="30"/>
@@ -66779,7 +66782,7 @@
         <v>130</v>
       </c>
       <c r="G877" s="51" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H877" s="31" t="s">
         <v>297</v>
@@ -66799,7 +66802,7 @@
       <c r="Q877" s="31"/>
       <c r="R877" s="31"/>
       <c r="S877" s="29" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="T877" s="30"/>
       <c r="U877" s="30"/>
@@ -67065,13 +67068,13 @@
         <v>45694.829513888886</v>
       </c>
       <c r="E884" s="34" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F884" s="34" t="s">
         <v>152</v>
       </c>
       <c r="G884" s="34" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H884" s="34" t="s">
         <v>299</v>
@@ -67097,7 +67100,7 @@
       </c>
       <c r="R884" s="34"/>
       <c r="S884" s="27" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="T884" s="33">
         <v>0.33333333333333331</v>
@@ -67130,10 +67133,10 @@
         <v>47</v>
       </c>
       <c r="F885" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G885" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H885" s="3" t="s">
         <v>297</v>
@@ -67167,7 +67170,7 @@
         <v>434</v>
       </c>
       <c r="S885" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T885" s="7">
         <v>0.39374999999999999</v>
@@ -67203,7 +67206,7 @@
         <v>99</v>
       </c>
       <c r="G886" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H886" s="3" t="s">
         <v>299</v>
@@ -67229,7 +67232,7 @@
       </c>
       <c r="R886" s="1"/>
       <c r="S886" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="T886" s="7">
         <v>0.33333333333333331</v>
@@ -67265,7 +67268,7 @@
         <v>306</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H887" s="3" t="s">
         <v>297</v>
@@ -67291,7 +67294,7 @@
       </c>
       <c r="R887" s="3"/>
       <c r="S887" s="12" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="T887" s="7">
         <v>0.67986111111111114</v>
@@ -67302,7 +67305,7 @@
         <v>441</v>
       </c>
       <c r="X887" s="36" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="888" spans="1:24" hidden="1">
@@ -67327,7 +67330,7 @@
         <v>31</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H888" s="3" t="s">
         <v>297</v>
@@ -67349,7 +67352,7 @@
       </c>
       <c r="R888" s="3"/>
       <c r="S888" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="T888" s="3"/>
       <c r="U888" s="3"/>
@@ -67375,13 +67378,13 @@
         <v>45695.822754629633</v>
       </c>
       <c r="E889" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F889" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G889" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H889" s="3" t="s">
         <v>299</v>
@@ -67408,10 +67411,10 @@
         <v>405</v>
       </c>
       <c r="R889" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="S889" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="T889" s="7">
         <v>0.33333333333333331</v>
@@ -67447,7 +67450,7 @@
         <v>31</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H890" s="3" t="s">
         <v>297</v>
@@ -67479,7 +67482,7 @@
         <v>434</v>
       </c>
       <c r="S890" s="12" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="T890" s="7">
         <v>0.3576388888888889</v>
@@ -67513,7 +67516,7 @@
         <v>126</v>
       </c>
       <c r="G891" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H891" s="3" t="s">
         <v>297</v>
@@ -67539,7 +67542,7 @@
       </c>
       <c r="R891" s="1"/>
       <c r="S891" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="T891" s="7">
         <v>0.33333333333333331</v>
@@ -67549,10 +67552,10 @@
         <v>10088</v>
       </c>
       <c r="W891" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X891" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="892" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -67577,7 +67580,7 @@
         <v>279</v>
       </c>
       <c r="G892" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H892" s="3" t="s">
         <v>299</v>
@@ -67603,7 +67606,7 @@
       </c>
       <c r="R892" s="3"/>
       <c r="S892" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="T892" s="3"/>
       <c r="U892" s="3"/>
@@ -67635,7 +67638,7 @@
         <v>279</v>
       </c>
       <c r="G893" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H893" s="3" t="s">
         <v>297</v>
@@ -67663,7 +67666,7 @@
       </c>
       <c r="R893" s="3"/>
       <c r="S893" s="12" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="T893" s="7">
         <v>0.65277777777777779</v>
@@ -67696,10 +67699,10 @@
         <v>47</v>
       </c>
       <c r="F894" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G894" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H894" s="3" t="s">
         <v>297</v>
@@ -67729,7 +67732,7 @@
       </c>
       <c r="R894" s="3"/>
       <c r="S894" s="12" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="T894" s="7">
         <v>0.58333333333333337</v>
@@ -67765,7 +67768,7 @@
         <v>295</v>
       </c>
       <c r="G895" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H895" s="3" t="s">
         <v>299</v>
@@ -67791,7 +67794,7 @@
       </c>
       <c r="R895" s="3"/>
       <c r="S895" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="T895" s="7">
         <v>0.60416666666666663</v>
@@ -67827,7 +67830,7 @@
         <v>279</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H896" s="3" t="s">
         <v>297</v>
@@ -67855,7 +67858,7 @@
       </c>
       <c r="R896" s="3"/>
       <c r="S896" s="12" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="T896" s="7">
         <v>0.65277777777777779</v>
@@ -67885,13 +67888,13 @@
         <v>45699</v>
       </c>
       <c r="E897" s="34" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F897" s="34" t="s">
         <v>391</v>
       </c>
       <c r="G897" s="34" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H897" s="34" t="s">
         <v>299</v>
@@ -67919,7 +67922,7 @@
       </c>
       <c r="R897" s="34"/>
       <c r="S897" s="27" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="T897" s="33">
         <v>0.41666666666666669</v>
@@ -67950,10 +67953,10 @@
         <v>457</v>
       </c>
       <c r="F898" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H898" s="3" t="s">
         <v>297</v>
@@ -67979,7 +67982,7 @@
       </c>
       <c r="R898" s="3"/>
       <c r="S898" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="T898" s="3"/>
       <c r="U898" s="3"/>
@@ -68011,7 +68014,7 @@
         <v>186</v>
       </c>
       <c r="G899" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H899" s="3" t="s">
         <v>299</v>
@@ -68037,7 +68040,7 @@
       </c>
       <c r="R899" s="3"/>
       <c r="S899" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="T899" s="7">
         <v>0.64583333333333337</v>
@@ -68073,7 +68076,7 @@
         <v>228</v>
       </c>
       <c r="G900" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H900" s="3" t="s">
         <v>297</v>
@@ -68102,10 +68105,10 @@
         <v>493</v>
       </c>
       <c r="R900" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="S900" s="12" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="T900" s="7">
         <v>0.54166666666666663</v>
@@ -68136,10 +68139,10 @@
         <v>466</v>
       </c>
       <c r="F901" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G901" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H901" s="3" t="s">
         <v>297</v>
@@ -68165,7 +68168,7 @@
       </c>
       <c r="R901" s="3"/>
       <c r="S901" s="12" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="T901" s="7">
         <v>0.63124999999999998</v>
@@ -68195,13 +68198,13 @@
         <v>45699.760763888888</v>
       </c>
       <c r="E902" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F902" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G902" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H902" s="3" t="s">
         <v>297</v>
@@ -68227,7 +68230,7 @@
       </c>
       <c r="R902" s="3"/>
       <c r="S902" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="T902" s="7">
         <v>0.33333333333333331</v>
@@ -68237,10 +68240,10 @@
         <v>10088</v>
       </c>
       <c r="W902" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X902" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="903" spans="1:24" ht="33.75" customHeight="1">
@@ -68262,10 +68265,10 @@
         <v>466</v>
       </c>
       <c r="F903" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G903" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H903" s="3" t="s">
         <v>297</v>
@@ -68291,7 +68294,7 @@
       </c>
       <c r="R903" s="3"/>
       <c r="S903" s="12" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="T903" s="7">
         <v>0.4201388888888889</v>
@@ -68302,7 +68305,7 @@
         <v>48</v>
       </c>
       <c r="X903" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="904" spans="1:24" ht="39" hidden="1" customHeight="1">
@@ -68324,10 +68327,10 @@
         <v>47</v>
       </c>
       <c r="F904" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G904" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H904" s="3" t="s">
         <v>297</v>
@@ -68353,7 +68356,7 @@
       </c>
       <c r="R904" s="3"/>
       <c r="S904" s="12" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="T904" s="7">
         <v>0.41666666666666669</v>
@@ -68383,13 +68386,13 @@
         <v>45700.619826388887</v>
       </c>
       <c r="E905" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F905" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G905" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H905" s="3" t="s">
         <v>297</v>
@@ -68398,7 +68401,7 @@
         <v>35</v>
       </c>
       <c r="J905" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K905" s="47">
         <v>45700</v>
@@ -68423,7 +68426,7 @@
         <v>434</v>
       </c>
       <c r="S905" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="T905" s="7">
         <v>0.60416666666666663</v>
@@ -68457,7 +68460,7 @@
         <v>25</v>
       </c>
       <c r="G906" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H906" s="3" t="s">
         <v>297</v>
@@ -68479,16 +68482,16 @@
       </c>
       <c r="R906" s="3"/>
       <c r="S906" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="T906" s="3"/>
       <c r="U906" s="3"/>
       <c r="V906" s="3"/>
       <c r="W906" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X906" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="907" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -68510,10 +68513,10 @@
         <v>466</v>
       </c>
       <c r="F907" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G907" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H907" s="3" t="s">
         <v>297</v>
@@ -68541,7 +68544,7 @@
       </c>
       <c r="R907" s="3"/>
       <c r="S907" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="T907" s="7">
         <v>0.58333333333333337</v>
@@ -68571,13 +68574,13 @@
         <v>45700.715914351851</v>
       </c>
       <c r="E908" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F908" s="3" t="s">
         <v>391</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H908" s="3" t="s">
         <v>299</v>
@@ -68603,7 +68606,7 @@
       </c>
       <c r="R908" s="3"/>
       <c r="S908" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="T908" s="7">
         <v>0.625</v>
@@ -68633,7 +68636,7 @@
         <v>45700.720104166663</v>
       </c>
       <c r="E909" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F909" s="3" t="s">
         <v>39</v>
@@ -68665,7 +68668,7 @@
       </c>
       <c r="R909" s="3"/>
       <c r="S909" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="T909" s="7">
         <v>0.57430555555555551</v>
@@ -68695,13 +68698,13 @@
         <v>45700.735138888886</v>
       </c>
       <c r="E910" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F910" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G910" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H910" s="3" t="s">
         <v>299</v>
@@ -68729,7 +68732,7 @@
       </c>
       <c r="R910" s="3"/>
       <c r="S910" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="T910" s="7">
         <v>0.625</v>
@@ -68765,7 +68768,7 @@
         <v>95</v>
       </c>
       <c r="G911" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H911" s="3" t="s">
         <v>299</v>
@@ -68793,7 +68796,7 @@
       </c>
       <c r="R911" s="3"/>
       <c r="S911" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="T911" s="7">
         <v>0.37013888888888891</v>
@@ -68829,7 +68832,7 @@
         <v>130</v>
       </c>
       <c r="G912" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H912" s="3" t="s">
         <v>299</v>
@@ -68857,7 +68860,7 @@
       </c>
       <c r="R912" s="3"/>
       <c r="S912" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="T912" s="7">
         <v>0.54166666666666663</v>
@@ -68893,7 +68896,7 @@
         <v>25</v>
       </c>
       <c r="G913" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H913" s="3" t="s">
         <v>299</v>
@@ -68919,7 +68922,7 @@
       </c>
       <c r="R913" s="3"/>
       <c r="S913" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="T913" s="7">
         <v>0.45833333333333331</v>
@@ -68949,13 +68952,13 @@
         <v>45701.507488425923</v>
       </c>
       <c r="E914" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F914" s="3" t="s">
         <v>391</v>
       </c>
       <c r="G914" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H914" s="3" t="s">
         <v>297</v>
@@ -68981,7 +68984,7 @@
       </c>
       <c r="R914" s="3"/>
       <c r="S914" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="T914" s="7"/>
       <c r="U914" s="3"/>
@@ -69010,10 +69013,10 @@
         <v>466</v>
       </c>
       <c r="F915" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G915" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H915" s="3" t="s">
         <v>297</v>
@@ -69035,7 +69038,7 @@
       </c>
       <c r="R915" s="3"/>
       <c r="S915" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="T915" s="7"/>
       <c r="U915" s="3"/>
@@ -69061,13 +69064,13 @@
         <v>45701.614502314813</v>
       </c>
       <c r="E916" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>399</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>297</v>
@@ -69099,7 +69102,7 @@
         <v>500</v>
       </c>
       <c r="S916" s="12" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="T916" s="7"/>
       <c r="U916" s="3"/>
@@ -69128,10 +69131,10 @@
         <v>457</v>
       </c>
       <c r="F917" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H917" s="3" t="s">
         <v>297</v>
@@ -69159,7 +69162,7 @@
       </c>
       <c r="R917" s="3"/>
       <c r="S917" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="T917" s="7">
         <v>0.58611111111111114</v>
@@ -69187,13 +69190,13 @@
         <v>45701.717581018522</v>
       </c>
       <c r="E918" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F918" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G918" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H918" s="3" t="s">
         <v>297</v>
@@ -69221,7 +69224,7 @@
       </c>
       <c r="R918" s="3"/>
       <c r="S918" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="T918" s="7">
         <v>0.58333333333333337</v>
@@ -69254,10 +69257,10 @@
         <v>374</v>
       </c>
       <c r="F919" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G919" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H919" s="3" t="s">
         <v>297</v>
@@ -69279,7 +69282,7 @@
       </c>
       <c r="R919" s="3"/>
       <c r="S919" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="T919" s="7"/>
       <c r="U919" s="3"/>
@@ -69303,13 +69306,13 @@
         <v>45701.781006944446</v>
       </c>
       <c r="E920" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F920" s="3" t="s">
         <v>334</v>
       </c>
       <c r="G920" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H920" s="3" t="s">
         <v>299</v>
@@ -69335,7 +69338,7 @@
       </c>
       <c r="R920" s="3"/>
       <c r="S920" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="T920" s="7">
         <v>0.66666666666666663</v>
@@ -69365,13 +69368,13 @@
         <v>45701.850763888891</v>
       </c>
       <c r="E921" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F921" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G921" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H921" s="3" t="s">
         <v>297</v>
@@ -69399,7 +69402,7 @@
       </c>
       <c r="R921" s="3"/>
       <c r="S921" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="T921" s="7">
         <v>0.375</v>
@@ -69427,13 +69430,13 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E922" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F922" s="3" t="s">
         <v>289</v>
       </c>
       <c r="G922" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H922" s="3" t="s">
         <v>297</v>
@@ -69459,7 +69462,7 @@
       </c>
       <c r="R922" s="3"/>
       <c r="S922" s="12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="T922" s="7">
         <v>0.52083333333333337</v>
@@ -69489,13 +69492,13 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E923" s="79" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F923" s="79" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G923" s="79" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H923" s="79" t="s">
         <v>297</v>
@@ -69523,7 +69526,7 @@
       </c>
       <c r="R923" s="3"/>
       <c r="S923" s="98" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="T923" s="7">
         <v>0.54166666666666663</v>
@@ -69559,7 +69562,7 @@
         <v>25</v>
       </c>
       <c r="G924" s="38" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H924" s="20" t="s">
         <v>299</v>
@@ -69585,7 +69588,7 @@
       </c>
       <c r="R924" s="38"/>
       <c r="S924" s="99" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="T924" s="61">
         <v>0.5625</v>
@@ -69619,7 +69622,7 @@
         <v>263</v>
       </c>
       <c r="G925" s="62" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H925" s="83" t="s">
         <v>297</v>
@@ -69645,7 +69648,7 @@
       </c>
       <c r="R925" s="62"/>
       <c r="S925" s="100" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="T925" s="65">
         <v>0.41666666666666669</v>
@@ -69676,10 +69679,10 @@
         <v>457</v>
       </c>
       <c r="F926" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H926" s="3" t="s">
         <v>297</v>
@@ -69705,7 +69708,7 @@
       </c>
       <c r="R926" s="3"/>
       <c r="S926" s="16" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="T926" s="7"/>
       <c r="U926" s="3"/>
@@ -69734,10 +69737,10 @@
         <v>457</v>
       </c>
       <c r="F927" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G927" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H927" s="3" t="s">
         <v>297</v>
@@ -69765,7 +69768,7 @@
       </c>
       <c r="R927" s="3"/>
       <c r="S927" s="16" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="T927" s="7"/>
       <c r="U927" s="3"/>
@@ -69791,13 +69794,13 @@
         <v>45705.388020833336</v>
       </c>
       <c r="E928" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F928" s="3" t="s">
         <v>391</v>
       </c>
       <c r="G928" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H928" s="3" t="s">
         <v>297</v>
@@ -69819,16 +69822,16 @@
       </c>
       <c r="R928" s="3"/>
       <c r="S928" s="16" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="T928" s="7"/>
       <c r="U928" s="3"/>
       <c r="V928" s="3"/>
       <c r="W928" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X928" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="929" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69850,10 +69853,10 @@
         <v>374</v>
       </c>
       <c r="F929" s="18" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G929" s="18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H929" s="18" t="s">
         <v>297</v>
@@ -69881,7 +69884,7 @@
       </c>
       <c r="R929" s="18"/>
       <c r="S929" s="17" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="T929" s="21">
         <v>0.35625000000000001</v>
@@ -69909,7 +69912,7 @@
         <v>45705</v>
       </c>
       <c r="E930" s="18" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F930" s="18" t="s">
         <v>39</v>
@@ -69943,7 +69946,7 @@
       </c>
       <c r="R930" s="18"/>
       <c r="S930" s="17" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="T930" s="21">
         <v>0.34722222222222221</v>
@@ -69979,7 +69982,7 @@
         <v>186</v>
       </c>
       <c r="G931" s="25" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H931" s="25" t="s">
         <v>299</v>
@@ -70007,7 +70010,7 @@
       </c>
       <c r="R931" s="25"/>
       <c r="S931" s="23" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="T931" s="24"/>
       <c r="U931" s="24"/>
@@ -70033,13 +70036,13 @@
         <v>45705.627858796295</v>
       </c>
       <c r="E932" s="25" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F932" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G932" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H932" s="25" t="s">
         <v>299</v>
@@ -70067,7 +70070,7 @@
       </c>
       <c r="R932" s="25"/>
       <c r="S932" s="23" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="T932" s="24">
         <v>0.29166666666666669</v>
@@ -70103,7 +70106,7 @@
         <v>99</v>
       </c>
       <c r="G933" s="25" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H933" s="25" t="s">
         <v>299</v>
@@ -70125,7 +70128,7 @@
       </c>
       <c r="R933" s="25"/>
       <c r="S933" s="23" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="T933" s="24"/>
       <c r="U933" s="24"/>
@@ -70157,7 +70160,7 @@
         <v>186</v>
       </c>
       <c r="G934" s="25" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H934" s="25" t="s">
         <v>299</v>
@@ -70179,7 +70182,7 @@
       </c>
       <c r="R934" s="25"/>
       <c r="S934" s="23" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="T934" s="24"/>
       <c r="U934" s="24"/>
@@ -70208,10 +70211,10 @@
         <v>47</v>
       </c>
       <c r="F935" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G935" s="25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H935" s="25" t="s">
         <v>297</v>
@@ -70233,7 +70236,7 @@
       </c>
       <c r="R935" s="25"/>
       <c r="S935" s="23" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="T935" s="24"/>
       <c r="U935" s="24"/>
@@ -70262,10 +70265,10 @@
         <v>47</v>
       </c>
       <c r="F936" s="25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G936" s="25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H936" s="25" t="s">
         <v>297</v>
@@ -70287,7 +70290,7 @@
       </c>
       <c r="R936" s="25"/>
       <c r="S936" s="23" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="T936" s="24"/>
       <c r="U936" s="24"/>
@@ -70311,13 +70314,13 @@
         <v>45706.579976851855</v>
       </c>
       <c r="E937" s="25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F937" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G937" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H937" s="25" t="s">
         <v>297</v>
@@ -70349,7 +70352,7 @@
         <v>434</v>
       </c>
       <c r="S937" s="23" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="T937" s="24"/>
       <c r="U937" s="24"/>
@@ -70378,10 +70381,10 @@
         <v>457</v>
       </c>
       <c r="F938" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G938" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H938" s="25" t="s">
         <v>297</v>
@@ -70413,7 +70416,7 @@
         <v>434</v>
       </c>
       <c r="S938" s="23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="T938" s="24"/>
       <c r="U938" s="24"/>
@@ -70442,10 +70445,10 @@
         <v>457</v>
       </c>
       <c r="F939" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G939" s="25" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H939" s="25" t="s">
         <v>297</v>
@@ -70469,7 +70472,7 @@
       </c>
       <c r="R939" s="25"/>
       <c r="S939" s="23" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="T939" s="24"/>
       <c r="U939" s="24"/>
@@ -70498,10 +70501,10 @@
         <v>457</v>
       </c>
       <c r="F940" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G940" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H940" s="25" t="s">
         <v>297</v>
@@ -70525,14 +70528,14 @@
       </c>
       <c r="R940" s="25"/>
       <c r="S940" s="23" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T940" s="24"/>
       <c r="U940" s="24"/>
       <c r="V940" s="25"/>
       <c r="W940" s="22"/>
       <c r="X940" s="22" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="941" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70554,10 +70557,10 @@
         <v>457</v>
       </c>
       <c r="F941" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G941" s="25" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H941" s="25" t="s">
         <v>297</v>
@@ -70581,14 +70584,14 @@
       </c>
       <c r="R941" s="25"/>
       <c r="S941" s="23" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="T941" s="24"/>
       <c r="U941" s="24"/>
       <c r="V941" s="25"/>
       <c r="W941" s="22"/>
       <c r="X941" s="22" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="942" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70607,13 +70610,13 @@
         <v>45707.741481481484</v>
       </c>
       <c r="E942" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F942" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G942" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H942" s="25" t="s">
         <v>297</v>
@@ -70635,7 +70638,7 @@
       </c>
       <c r="R942" s="25"/>
       <c r="S942" s="23" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="T942" s="24"/>
       <c r="U942" s="24"/>
@@ -70664,10 +70667,10 @@
         <v>457</v>
       </c>
       <c r="F943" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G943" s="25" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H943" s="25" t="s">
         <v>297</v>
@@ -70693,7 +70696,7 @@
       </c>
       <c r="R943" s="25"/>
       <c r="S943" s="23" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="T943" s="24"/>
       <c r="U943" s="24"/>
@@ -70722,10 +70725,10 @@
         <v>457</v>
       </c>
       <c r="F944" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G944" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H944" s="25" t="s">
         <v>297</v>
@@ -70751,7 +70754,7 @@
       </c>
       <c r="R944" s="25"/>
       <c r="S944" s="23" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="T944" s="24"/>
       <c r="U944" s="24"/>
@@ -70780,10 +70783,10 @@
         <v>457</v>
       </c>
       <c r="F945" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G945" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H945" s="25" t="s">
         <v>297</v>
@@ -70817,7 +70820,7 @@
         <v>434</v>
       </c>
       <c r="S945" s="23" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="T945" s="24"/>
       <c r="U945" s="24"/>
@@ -70826,7 +70829,7 @@
         <v>48</v>
       </c>
       <c r="X945" s="22" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="946" spans="1:24" ht="15" customHeight="1">
@@ -70845,19 +70848,19 @@
         <v>45708.50105324074</v>
       </c>
       <c r="E946" s="25" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F946" s="25" t="s">
         <v>186</v>
       </c>
       <c r="G946" s="25" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H946" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I946" s="25" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="J946" s="42" t="s">
         <v>449</v>
@@ -70875,7 +70878,7 @@
       </c>
       <c r="R946" s="25"/>
       <c r="S946" s="23" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="T946" s="24">
         <v>0.54166666666666663</v>
@@ -70883,10 +70886,10 @@
       <c r="U946" s="24"/>
       <c r="V946" s="25"/>
       <c r="W946" s="22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="X946" s="22" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="947" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70908,10 +70911,10 @@
         <v>457</v>
       </c>
       <c r="F947" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G947" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H947" s="25" t="s">
         <v>297</v>
@@ -70935,7 +70938,7 @@
       </c>
       <c r="R947" s="25"/>
       <c r="S947" s="23" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="T947" s="24"/>
       <c r="U947" s="24"/>
@@ -70964,10 +70967,10 @@
         <v>457</v>
       </c>
       <c r="F948" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G948" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H948" s="25" t="s">
         <v>297</v>
@@ -70989,7 +70992,7 @@
       </c>
       <c r="R948" s="25"/>
       <c r="S948" s="23" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="T948" s="24"/>
       <c r="U948" s="24"/>
@@ -71018,10 +71021,10 @@
         <v>457</v>
       </c>
       <c r="F949" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G949" s="25" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H949" s="25" t="s">
         <v>297</v>
@@ -71047,7 +71050,7 @@
       </c>
       <c r="R949" s="25"/>
       <c r="S949" s="23" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="T949" s="24"/>
       <c r="U949" s="24"/>
@@ -71079,7 +71082,7 @@
         <v>130</v>
       </c>
       <c r="G950" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H950" s="25" t="s">
         <v>299</v>
@@ -71107,7 +71110,7 @@
       </c>
       <c r="R950" s="25"/>
       <c r="S950" s="23" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="T950" s="24">
         <v>0.73611111111111116</v>
@@ -71140,10 +71143,10 @@
         <v>457</v>
       </c>
       <c r="F951" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G951" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H951" s="25" t="s">
         <v>297</v>
@@ -71175,7 +71178,7 @@
         <v>434</v>
       </c>
       <c r="S951" s="23" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="T951" s="24"/>
       <c r="U951" s="24"/>
@@ -71201,13 +71204,13 @@
         <v>45709</v>
       </c>
       <c r="E952" s="25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F952" s="25" t="s">
         <v>111</v>
       </c>
       <c r="G952" s="25" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H952" s="25" t="s">
         <v>297</v>
@@ -71231,16 +71234,16 @@
       </c>
       <c r="R952" s="25"/>
       <c r="S952" s="102" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="T952" s="24"/>
       <c r="U952" s="24"/>
       <c r="V952" s="25"/>
       <c r="W952" s="22" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X952" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="953" spans="1:24" ht="91.5">
@@ -71259,13 +71262,13 @@
         <v>45709</v>
       </c>
       <c r="E953" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F953" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G953" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H953" s="25" t="s">
         <v>297</v>
@@ -71287,16 +71290,16 @@
       </c>
       <c r="R953" s="25"/>
       <c r="S953" s="102" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="T953" s="24"/>
       <c r="U953" s="24"/>
       <c r="V953" s="25"/>
       <c r="W953" s="22" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X953" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="954" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71321,7 +71324,7 @@
         <v>186</v>
       </c>
       <c r="G954" s="25" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H954" s="25" t="s">
         <v>297</v>
@@ -71349,7 +71352,7 @@
       </c>
       <c r="R954" s="25"/>
       <c r="S954" s="23" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="T954" s="24"/>
       <c r="U954" s="24"/>
@@ -71381,7 +71384,7 @@
         <v>31</v>
       </c>
       <c r="G955" s="25" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H955" s="25" t="s">
         <v>297</v>
@@ -71409,7 +71412,7 @@
       </c>
       <c r="R955" s="25"/>
       <c r="S955" s="102" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="T955" s="24">
         <v>0.625</v>
@@ -71445,13 +71448,13 @@
         <v>279</v>
       </c>
       <c r="G956" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H956" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I956" s="25" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="J956" s="55" t="s">
         <v>449</v>
@@ -71467,16 +71470,16 @@
       </c>
       <c r="R956" s="25"/>
       <c r="S956" s="23" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="T956" s="24"/>
       <c r="U956" s="24"/>
       <c r="V956" s="25"/>
       <c r="W956" s="22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="X956" s="22" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="957" spans="1:24" ht="72" customHeight="1">
@@ -71498,7 +71501,7 @@
         <v>457</v>
       </c>
       <c r="F957" s="25" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G957" s="25" t="s">
         <v>168</v>
@@ -71527,7 +71530,7 @@
       </c>
       <c r="R957" s="25"/>
       <c r="S957" s="23" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="T957" s="24">
         <v>0.375</v>
@@ -71560,10 +71563,10 @@
         <v>457</v>
       </c>
       <c r="F958" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G958" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H958" s="25" t="s">
         <v>299</v>
@@ -71585,16 +71588,16 @@
       </c>
       <c r="R958" s="25"/>
       <c r="S958" s="23" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="T958" s="24"/>
       <c r="U958" s="24"/>
       <c r="V958" s="25"/>
       <c r="W958" s="22" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X958" s="22" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="959" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71613,13 +71616,13 @@
         <v>45712</v>
       </c>
       <c r="E959" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F959" s="25" t="s">
         <v>399</v>
       </c>
       <c r="G959" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H959" s="25" t="s">
         <v>297</v>
@@ -71641,7 +71644,7 @@
       </c>
       <c r="R959" s="25"/>
       <c r="S959" s="23" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="T959" s="24"/>
       <c r="U959" s="24"/>
@@ -71670,10 +71673,10 @@
         <v>457</v>
       </c>
       <c r="F960" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G960" s="25" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H960" s="25" t="s">
         <v>297</v>
@@ -71695,7 +71698,7 @@
       </c>
       <c r="R960" s="25"/>
       <c r="S960" s="23" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T960" s="24"/>
       <c r="U960" s="24"/>
@@ -71724,10 +71727,10 @@
         <v>457</v>
       </c>
       <c r="F961" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G961" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H961" s="25" t="s">
         <v>297</v>
@@ -71753,7 +71756,7 @@
       </c>
       <c r="R961" s="25"/>
       <c r="S961" s="102" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="T961" s="24">
         <v>0.375</v>
@@ -71784,10 +71787,10 @@
         <v>457</v>
       </c>
       <c r="F962" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G962" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H962" s="25" t="s">
         <v>297</v>
@@ -71809,7 +71812,7 @@
       </c>
       <c r="R962" s="25"/>
       <c r="S962" s="23" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="T962" s="24"/>
       <c r="U962" s="24"/>
@@ -71841,7 +71844,7 @@
         <v>99</v>
       </c>
       <c r="G963" s="25" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H963" s="25" t="s">
         <v>297</v>
@@ -71865,13 +71868,15 @@
       </c>
       <c r="R963" s="25"/>
       <c r="S963" s="23" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="T963" s="24">
         <v>0.39583333333333331</v>
       </c>
       <c r="U963" s="24"/>
-      <c r="V963" s="25"/>
+      <c r="V963" s="25">
+        <v>10181</v>
+      </c>
       <c r="W963" s="22" t="s">
         <v>441</v>
       </c>
@@ -71898,10 +71903,10 @@
         <v>457</v>
       </c>
       <c r="F964" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G964" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H964" s="25" t="s">
         <v>297</v>
@@ -71927,7 +71932,7 @@
       </c>
       <c r="R964" s="25"/>
       <c r="S964" s="23" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="T964" s="24"/>
       <c r="U964" s="24"/>
@@ -71956,10 +71961,10 @@
         <v>457</v>
       </c>
       <c r="F965" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G965" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H965" s="25" t="s">
         <v>297</v>
@@ -71981,7 +71986,7 @@
       </c>
       <c r="R965" s="25"/>
       <c r="S965" s="23" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="T965" s="24"/>
       <c r="U965" s="24"/>
@@ -71990,7 +71995,7 @@
         <v>451</v>
       </c>
       <c r="X965" s="22" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="966" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -72009,13 +72014,13 @@
         <v>45713</v>
       </c>
       <c r="E966" s="25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F966" s="25" t="s">
         <v>391</v>
       </c>
       <c r="G966" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H966" s="25" t="s">
         <v>297</v>
@@ -72039,7 +72044,7 @@
       </c>
       <c r="R966" s="25"/>
       <c r="S966" s="23" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="T966" s="24"/>
       <c r="U966" s="24"/>
@@ -72048,7 +72053,7 @@
         <v>451</v>
       </c>
       <c r="X966" s="22" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="967" spans="1:24" ht="15" customHeight="1">
@@ -72070,10 +72075,10 @@
         <v>457</v>
       </c>
       <c r="F967" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G967" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H967" s="25" t="s">
         <v>297</v>
@@ -72095,16 +72100,16 @@
       </c>
       <c r="R967" s="25"/>
       <c r="S967" s="23" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="T967" s="24"/>
       <c r="U967" s="24"/>
       <c r="V967" s="25"/>
       <c r="W967" s="22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="X967" s="22" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="968" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -72123,13 +72128,13 @@
         <v>45713</v>
       </c>
       <c r="E968" s="25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F968" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G968" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H968" s="25" t="s">
         <v>297</v>
@@ -72155,7 +72160,7 @@
       </c>
       <c r="R968" s="25"/>
       <c r="S968" s="23" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="T968" s="24">
         <v>0.35416666666666669</v>
@@ -72188,10 +72193,10 @@
         <v>457</v>
       </c>
       <c r="F969" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G969" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H969" s="25" t="s">
         <v>297</v>
@@ -72215,7 +72220,7 @@
       </c>
       <c r="R969" s="25"/>
       <c r="S969" s="23" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="T969" s="24"/>
       <c r="U969" s="24"/>
@@ -72241,13 +72246,13 @@
         <v>45714</v>
       </c>
       <c r="E970" s="25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F970" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G970" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H970" s="25" t="s">
         <v>297</v>
@@ -72271,7 +72276,7 @@
       </c>
       <c r="R970" s="25"/>
       <c r="S970" s="105" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="T970" s="24"/>
       <c r="U970" s="24"/>
@@ -72295,13 +72300,13 @@
         <v>45714</v>
       </c>
       <c r="E971" s="25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F971" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G971" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H971" s="25" t="s">
         <v>297</v>
@@ -72327,7 +72332,7 @@
       </c>
       <c r="R971" s="25"/>
       <c r="S971" s="23" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="T971" s="24">
         <v>0.52083333333333337</v>
@@ -72357,19 +72362,19 @@
         <v>45714</v>
       </c>
       <c r="E972" s="25" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F972" s="25" t="s">
         <v>447</v>
       </c>
       <c r="G972" s="25" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H972" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I972" s="43" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="J972" s="55" t="s">
         <v>449</v>
@@ -72385,16 +72390,16 @@
       </c>
       <c r="R972" s="25"/>
       <c r="S972" s="23" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="T972" s="24"/>
       <c r="U972" s="24"/>
       <c r="V972" s="25"/>
       <c r="W972" s="22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="X972" s="22" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="973" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -72413,7 +72418,7 @@
         <v>45714</v>
       </c>
       <c r="E973" s="25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F973" s="25" t="s">
         <v>269</v>
@@ -72441,7 +72446,7 @@
       </c>
       <c r="R973" s="25"/>
       <c r="S973" s="23" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="T973" s="24"/>
       <c r="U973" s="24"/>
@@ -72470,10 +72475,10 @@
         <v>466</v>
       </c>
       <c r="F974" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G974" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H974" s="25" t="s">
         <v>297</v>
@@ -72495,7 +72500,7 @@
       </c>
       <c r="R974" s="25"/>
       <c r="S974" s="23" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="T974" s="24"/>
       <c r="U974" s="24"/>
@@ -72527,7 +72532,7 @@
         <v>25</v>
       </c>
       <c r="G975" s="25" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H975" s="25" t="s">
         <v>299</v>
@@ -72549,7 +72554,7 @@
       </c>
       <c r="R975" s="25"/>
       <c r="S975" s="23" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="T975" s="24"/>
       <c r="U975" s="24"/>
@@ -72581,7 +72586,7 @@
         <v>95</v>
       </c>
       <c r="G976" s="25" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H976" s="25" t="s">
         <v>299</v>
@@ -72603,7 +72608,7 @@
       </c>
       <c r="R976" s="25"/>
       <c r="S976" s="23" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="T976" s="24"/>
       <c r="U976" s="24"/>
@@ -72633,7 +72638,7 @@
         <v>95</v>
       </c>
       <c r="G977" s="25" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H977" s="25" t="s">
         <v>297</v>
@@ -72661,7 +72666,7 @@
       </c>
       <c r="R977" s="25"/>
       <c r="S977" s="102" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="T977" s="24">
         <v>0.39583333333333331</v>
@@ -72691,13 +72696,13 @@
         <v>45715</v>
       </c>
       <c r="E978" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F978" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G978" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H978" s="25" t="s">
         <v>299</v>
@@ -72723,7 +72728,7 @@
       </c>
       <c r="R978" s="25"/>
       <c r="S978" s="23" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="T978" s="24"/>
       <c r="U978" s="24"/>
@@ -72752,10 +72757,10 @@
         <v>457</v>
       </c>
       <c r="F979" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G979" s="25" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H979" s="25" t="s">
         <v>297</v>
@@ -72777,7 +72782,7 @@
       </c>
       <c r="R979" s="25"/>
       <c r="S979" s="23" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="T979" s="24"/>
       <c r="U979" s="24"/>
@@ -72803,13 +72808,13 @@
         <v>45716</v>
       </c>
       <c r="E980" s="25" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F980" s="25" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G980" s="25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H980" s="25" t="s">
         <v>297</v>
@@ -72833,7 +72838,7 @@
       </c>
       <c r="R980" s="25"/>
       <c r="S980" s="23" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="T980" s="24">
         <v>0.375</v>
@@ -72867,7 +72872,7 @@
         <v>95</v>
       </c>
       <c r="G981" s="25" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H981" s="25" t="s">
         <v>297</v>
@@ -72889,7 +72894,7 @@
       </c>
       <c r="R981" s="25"/>
       <c r="S981" s="23" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="T981" s="24"/>
       <c r="U981" s="24"/>
@@ -72915,7 +72920,7 @@
         <v>45716</v>
       </c>
       <c r="E982" s="25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F982" s="25" t="s">
         <v>269</v>
@@ -72945,7 +72950,7 @@
       </c>
       <c r="R982" s="25"/>
       <c r="S982" s="23" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="T982" s="24"/>
       <c r="U982" s="24"/>
@@ -72971,13 +72976,13 @@
         <v>45722</v>
       </c>
       <c r="E983" s="25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F983" s="25" t="s">
         <v>116</v>
       </c>
       <c r="G983" s="25" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H983" s="25" t="s">
         <v>299</v>
@@ -73001,7 +73006,7 @@
       </c>
       <c r="R983" s="25"/>
       <c r="S983" s="23" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="T983" s="24"/>
       <c r="U983" s="24"/>
@@ -73027,13 +73032,13 @@
         <v>45722</v>
       </c>
       <c r="E984" s="25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F984" s="25" t="s">
         <v>76</v>
       </c>
       <c r="G984" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H984" s="25" t="s">
         <v>299</v>
@@ -73059,7 +73064,7 @@
       </c>
       <c r="R984" s="25"/>
       <c r="S984" s="23" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="T984" s="24">
         <v>0.54166666666666663</v>
@@ -73089,13 +73094,13 @@
         <v>45691</v>
       </c>
       <c r="E985" s="25" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F985" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G985" s="25" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H985" s="25" t="s">
         <v>297</v>
@@ -73119,7 +73124,7 @@
       </c>
       <c r="R985" s="25"/>
       <c r="S985" s="102" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="T985" s="24"/>
       <c r="U985" s="24"/>
@@ -73151,7 +73156,7 @@
         <v>130</v>
       </c>
       <c r="G986" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H986" s="25" t="s">
         <v>297</v>
@@ -73175,16 +73180,16 @@
       </c>
       <c r="R986" s="25"/>
       <c r="S986" s="23" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="T986" s="24"/>
       <c r="U986" s="24"/>
       <c r="V986" s="25"/>
       <c r="W986" s="22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="X986" s="110" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="987" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -73206,10 +73211,10 @@
         <v>457</v>
       </c>
       <c r="F987" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G987" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H987" s="25" t="s">
         <v>297</v>
@@ -73235,7 +73240,7 @@
       </c>
       <c r="R987" s="25"/>
       <c r="S987" s="23" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="T987" s="24"/>
       <c r="U987" s="24"/>
@@ -73264,10 +73269,10 @@
         <v>457</v>
       </c>
       <c r="F988" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G988" s="25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H988" s="25" t="s">
         <v>297</v>
@@ -73291,7 +73296,7 @@
       </c>
       <c r="R988" s="25"/>
       <c r="S988" s="23" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="T988" s="24"/>
       <c r="U988" s="24"/>
@@ -73300,7 +73305,7 @@
         <v>451</v>
       </c>
       <c r="X988" s="22" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="989" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -73319,13 +73324,13 @@
         <v>45722</v>
       </c>
       <c r="E989" s="25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F989" s="25" t="s">
         <v>111</v>
       </c>
       <c r="G989" s="25" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H989" s="25" t="s">
         <v>299</v>
@@ -73351,7 +73356,7 @@
       </c>
       <c r="R989" s="25"/>
       <c r="S989" s="23" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="T989" s="24">
         <v>0.59722222222222221</v>
@@ -73387,7 +73392,7 @@
         <v>25</v>
       </c>
       <c r="G990" s="25" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H990" s="25" t="s">
         <v>299</v>
@@ -73413,7 +73418,7 @@
       </c>
       <c r="R990" s="25"/>
       <c r="S990" s="23" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="T990" s="24">
         <v>0.625</v>
@@ -73443,19 +73448,19 @@
         <v>45723</v>
       </c>
       <c r="E991" s="25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F991" s="25" t="s">
         <v>394</v>
       </c>
       <c r="G991" s="25" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H991" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I991" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J991" s="55" t="s">
         <v>29</v>
@@ -73473,7 +73478,7 @@
       </c>
       <c r="R991" s="25"/>
       <c r="S991" s="102" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="T991" s="24"/>
       <c r="U991" s="24"/>
@@ -73499,13 +73504,13 @@
         <v>45723</v>
       </c>
       <c r="E992" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F992" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G992" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H992" s="25" t="s">
         <v>297</v>
@@ -73531,7 +73536,7 @@
       </c>
       <c r="R992" s="25"/>
       <c r="S992" s="23" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="T992" s="24"/>
       <c r="U992" s="24"/>
@@ -73563,13 +73568,13 @@
         <v>160</v>
       </c>
       <c r="G993" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H993" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I993" s="42" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J993" s="55" t="s">
         <v>428</v>
@@ -73589,7 +73594,7 @@
       </c>
       <c r="R993" s="25"/>
       <c r="S993" s="23" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="T993" s="24"/>
       <c r="U993" s="24"/>
@@ -73598,7 +73603,7 @@
         <v>441</v>
       </c>
       <c r="X993" s="110" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="994" spans="1:24" ht="15" customHeight="1">
@@ -73617,19 +73622,19 @@
         <v>45723</v>
       </c>
       <c r="E994" s="25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F994" s="25" t="s">
         <v>394</v>
       </c>
       <c r="G994" s="25" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H994" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I994" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J994" s="55" t="s">
         <v>449</v>
@@ -73647,16 +73652,16 @@
       </c>
       <c r="R994" s="25"/>
       <c r="S994" s="106" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="T994" s="24"/>
       <c r="U994" s="24"/>
       <c r="V994" s="25"/>
       <c r="W994" s="22" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X994" s="22" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="995" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -73678,10 +73683,10 @@
         <v>457</v>
       </c>
       <c r="F995" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G995" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H995" s="25" t="s">
         <v>297</v>
@@ -73707,7 +73712,7 @@
       </c>
       <c r="R995" s="25"/>
       <c r="S995" s="23" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="T995" s="24"/>
       <c r="U995" s="24"/>
@@ -73739,13 +73744,13 @@
         <v>130</v>
       </c>
       <c r="G996" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H996" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I996" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J996" s="55" t="s">
         <v>428</v>
@@ -73765,7 +73770,7 @@
       </c>
       <c r="R996" s="25"/>
       <c r="S996" s="23" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="T996" s="24"/>
       <c r="U996" s="24"/>
@@ -73774,7 +73779,7 @@
         <v>48</v>
       </c>
       <c r="X996" s="22" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="997" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -73793,19 +73798,19 @@
         <v>45726</v>
       </c>
       <c r="E997" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F997" s="25" t="s">
         <v>439</v>
       </c>
       <c r="G997" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H997" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I997" s="42" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J997" s="55" t="s">
         <v>29</v>
@@ -73827,7 +73832,7 @@
       </c>
       <c r="R997" s="25"/>
       <c r="S997" s="23" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T997" s="24">
         <v>0.54166666666666663</v>
@@ -73857,19 +73862,19 @@
         <v>45723</v>
       </c>
       <c r="E998" s="25" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F998" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G998" s="25" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H998" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I998" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J998" s="55" t="s">
         <v>29</v>
@@ -73887,7 +73892,7 @@
       </c>
       <c r="R998" s="25"/>
       <c r="S998" s="23" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="T998" s="24"/>
       <c r="U998" s="24"/>
@@ -73913,19 +73918,19 @@
         <v>45726</v>
       </c>
       <c r="E999" s="25" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F999" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G999" s="25" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H999" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I999" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J999" s="55" t="s">
         <v>29</v>
@@ -73941,7 +73946,7 @@
       </c>
       <c r="R999" s="25"/>
       <c r="S999" s="23" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="T999" s="24"/>
       <c r="U999" s="24"/>
@@ -73970,16 +73975,16 @@
         <v>457</v>
       </c>
       <c r="F1000" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G1000" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1000" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1000" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1000" s="55" t="s">
         <v>449</v>
@@ -73997,16 +74002,16 @@
       </c>
       <c r="R1000" s="25"/>
       <c r="S1000" s="23" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="T1000" s="24"/>
       <c r="U1000" s="24"/>
       <c r="V1000" s="25"/>
       <c r="W1000" s="22" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X1000" s="22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1001" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -74025,19 +74030,19 @@
         <v>45726</v>
       </c>
       <c r="E1001" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F1001" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G1001" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1001" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1001" s="42" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J1001" s="55" t="s">
         <v>29</v>
@@ -74059,7 +74064,7 @@
       </c>
       <c r="R1001" s="25"/>
       <c r="S1001" s="23" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="T1001" s="24">
         <v>0.45833333333333331</v>
@@ -74089,19 +74094,19 @@
         <v>45726</v>
       </c>
       <c r="E1002" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F1002" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G1002" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1002" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1002" s="42" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J1002" s="55" t="s">
         <v>29</v>
@@ -74123,7 +74128,7 @@
       </c>
       <c r="R1002" s="25"/>
       <c r="S1002" s="23" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="T1002" s="24">
         <v>0.45833333333333331</v>
@@ -74153,19 +74158,19 @@
         <v>45726</v>
       </c>
       <c r="E1003" s="25" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F1003" s="25" t="s">
         <v>126</v>
       </c>
       <c r="G1003" s="25" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1003" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1003" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1003" s="55" t="s">
         <v>29</v>
@@ -74185,7 +74190,7 @@
       </c>
       <c r="R1003" s="25"/>
       <c r="S1003" s="102" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="T1003" s="24"/>
       <c r="U1003" s="24">
@@ -74219,13 +74224,13 @@
         <v>228</v>
       </c>
       <c r="G1004" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1004" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1004" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1004" s="55" t="s">
         <v>428</v>
@@ -74243,7 +74248,7 @@
       </c>
       <c r="R1004" s="25"/>
       <c r="S1004" s="23" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="T1004" s="24"/>
       <c r="U1004" s="24"/>
@@ -74252,7 +74257,7 @@
         <v>451</v>
       </c>
       <c r="X1004" s="22" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1005" spans="1:24" ht="15" customHeight="1">
@@ -74271,7 +74276,7 @@
         <v>45727</v>
       </c>
       <c r="E1005" s="25" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F1005" s="25" t="s">
         <v>433</v>
@@ -74283,7 +74288,7 @@
         <v>297</v>
       </c>
       <c r="I1005" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1005" s="55" t="s">
         <v>428</v>
@@ -74301,7 +74306,7 @@
       </c>
       <c r="R1005" s="25"/>
       <c r="S1005" s="23" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="T1005" s="24"/>
       <c r="U1005" s="24"/>
@@ -74310,7 +74315,7 @@
         <v>451</v>
       </c>
       <c r="X1005" s="22" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1006" spans="1:24" ht="15" customHeight="1">
@@ -74335,13 +74340,13 @@
         <v>130</v>
       </c>
       <c r="G1006" s="25" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1006" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1006" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1006" s="55" t="s">
         <v>449</v>
@@ -74357,16 +74362,16 @@
       </c>
       <c r="R1006" s="25"/>
       <c r="S1006" s="23" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="T1006" s="24"/>
       <c r="U1006" s="24"/>
       <c r="V1006" s="25"/>
       <c r="W1006" s="109" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X1006" s="22" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1007" spans="1:24" ht="15" customHeight="1">
@@ -74388,16 +74393,16 @@
         <v>457</v>
       </c>
       <c r="F1007" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G1007" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1007" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1007" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1007" s="55" t="s">
         <v>449</v>
@@ -74415,16 +74420,16 @@
       </c>
       <c r="R1007" s="25"/>
       <c r="S1007" s="23" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="T1007" s="24"/>
       <c r="U1007" s="24"/>
       <c r="V1007" s="25"/>
       <c r="W1007" s="108" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X1007" s="22" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1008" spans="1:24" ht="15" customHeight="1">
@@ -74443,13 +74448,13 @@
         <v>45727</v>
       </c>
       <c r="E1008" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F1008" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G1008" s="25" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1008" s="25" t="s">
         <v>297</v>
@@ -74473,18 +74478,20 @@
       </c>
       <c r="R1008" s="25"/>
       <c r="S1008" s="23" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="T1008" s="24">
         <v>0.375</v>
       </c>
       <c r="U1008" s="24"/>
-      <c r="V1008" s="25"/>
+      <c r="V1008" s="25">
+        <v>10162</v>
+      </c>
       <c r="W1008" s="22" t="s">
         <v>441</v>
       </c>
       <c r="X1008" s="22" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1009" spans="1:24" ht="15" customHeight="1">
@@ -74506,16 +74513,16 @@
         <v>457</v>
       </c>
       <c r="F1009" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G1009" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1009" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1009" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1009" s="55" t="s">
         <v>449</v>
@@ -74531,7 +74538,7 @@
       </c>
       <c r="R1009" s="25"/>
       <c r="S1009" s="23" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="T1009" s="24"/>
       <c r="U1009" s="24"/>
@@ -74540,7 +74547,7 @@
         <v>451</v>
       </c>
       <c r="X1009" s="22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1010" spans="1:24" ht="15" customHeight="1">
@@ -74559,7 +74566,7 @@
         <v>45727</v>
       </c>
       <c r="E1010" s="25" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F1010" s="25" t="s">
         <v>433</v>
@@ -74571,7 +74578,7 @@
         <v>299</v>
       </c>
       <c r="I1010" s="42" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J1010" s="55" t="s">
         <v>449</v>
@@ -74587,13 +74594,13 @@
       </c>
       <c r="R1010" s="25"/>
       <c r="S1010" s="23" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="T1010" s="24"/>
       <c r="U1010" s="24"/>
       <c r="V1010" s="25"/>
       <c r="W1010" s="22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="X1010" s="22" t="s">
         <v>442</v>
@@ -74618,16 +74625,16 @@
         <v>457</v>
       </c>
       <c r="F1011" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G1011" s="25" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1011" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1011" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1011" s="55" t="s">
         <v>428</v>
@@ -74645,7 +74652,7 @@
       </c>
       <c r="R1011" s="25"/>
       <c r="S1011" s="23" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="T1011" s="24">
         <v>0.58333333333333337</v>
@@ -74656,7 +74663,7 @@
         <v>451</v>
       </c>
       <c r="X1011" s="22" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1012" spans="1:24" ht="28.5" customHeight="1">
@@ -74681,13 +74688,13 @@
         <v>295</v>
       </c>
       <c r="G1012" s="25" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1012" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1012" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1012" s="55" t="s">
         <v>449</v>
@@ -74703,16 +74710,16 @@
       </c>
       <c r="R1012" s="25"/>
       <c r="S1012" s="102" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="T1012" s="24"/>
       <c r="U1012" s="24"/>
       <c r="V1012" s="25"/>
       <c r="W1012" s="22" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X1012" s="22" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1013" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -74734,16 +74741,16 @@
         <v>457</v>
       </c>
       <c r="F1013" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G1013" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1013" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1013" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1013" s="55" t="s">
         <v>29</v>
@@ -74765,7 +74772,7 @@
       </c>
       <c r="R1013" s="25"/>
       <c r="S1013" s="102" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="T1013" s="24"/>
       <c r="U1013" s="24">
@@ -74796,16 +74803,16 @@
         <v>457</v>
       </c>
       <c r="F1014" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G1014" s="25" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1014" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1014" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1014" s="55" t="s">
         <v>449</v>
@@ -74821,7 +74828,7 @@
       </c>
       <c r="R1014" s="25"/>
       <c r="S1014" s="23" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="T1014" s="24"/>
       <c r="U1014" s="24"/>
@@ -74830,7 +74837,7 @@
         <v>451</v>
       </c>
       <c r="X1014" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="1015" spans="1:24" ht="15" customHeight="1">
@@ -74855,13 +74862,13 @@
         <v>111</v>
       </c>
       <c r="G1015" s="25" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1015" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1015" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1015" s="55" t="s">
         <v>449</v>
@@ -74881,16 +74888,16 @@
       </c>
       <c r="R1015" s="18"/>
       <c r="S1015" s="17" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="T1015" s="21"/>
       <c r="U1015" s="21"/>
       <c r="V1015" s="18"/>
       <c r="W1015" s="19" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X1015" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="1016" spans="1:24" ht="51.75" customHeight="1">
@@ -74912,16 +74919,16 @@
         <v>466</v>
       </c>
       <c r="F1016" s="25" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G1016" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1016" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1016" s="42" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J1016" s="55" t="s">
         <v>428</v>
@@ -74939,16 +74946,16 @@
       </c>
       <c r="R1016" s="111"/>
       <c r="S1016" s="112" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="T1016" s="21"/>
       <c r="U1016" s="21"/>
       <c r="V1016" s="18"/>
       <c r="W1016" s="22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="X1016" s="22" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1017" spans="1:24" ht="15" customHeight="1">
@@ -74973,13 +74980,13 @@
         <v>228</v>
       </c>
       <c r="G1017" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1017" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1017" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1017" s="55" t="s">
         <v>449</v>
@@ -74995,7 +75002,7 @@
       </c>
       <c r="R1017" s="25"/>
       <c r="S1017" s="23" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="T1017" s="24"/>
       <c r="U1017" s="24"/>
@@ -75004,7 +75011,7 @@
         <v>451</v>
       </c>
       <c r="X1017" s="22" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1018" spans="1:24" ht="40.5" customHeight="1">
@@ -75029,13 +75036,13 @@
         <v>279</v>
       </c>
       <c r="G1018" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1018" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1018" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1018" s="55" t="s">
         <v>449</v>
@@ -75051,7 +75058,7 @@
       </c>
       <c r="R1018" s="25"/>
       <c r="S1018" s="102" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="T1018" s="24"/>
       <c r="U1018" s="24"/>
@@ -75060,7 +75067,7 @@
         <v>451</v>
       </c>
       <c r="X1018" s="22" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1019" spans="1:24" ht="15" customHeight="1">
@@ -75085,13 +75092,13 @@
         <v>95</v>
       </c>
       <c r="G1019" s="25" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1019" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1019" s="42" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J1019" s="55" t="s">
         <v>428</v>
@@ -75109,7 +75116,7 @@
       </c>
       <c r="R1019" s="25"/>
       <c r="S1019" s="23" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="T1019" s="24">
         <v>0.58333333333333337</v>
@@ -75117,10 +75124,10 @@
       <c r="U1019" s="24"/>
       <c r="V1019" s="25"/>
       <c r="W1019" s="22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="X1019" s="22" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1020" spans="1:24" ht="15" customHeight="1">
@@ -75139,19 +75146,19 @@
         <v>45729</v>
       </c>
       <c r="E1020" s="25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F1020" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G1020" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1020" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1020" s="42" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J1020" s="55" t="s">
         <v>428</v>
@@ -75171,7 +75178,7 @@
       </c>
       <c r="R1020" s="25"/>
       <c r="S1020" s="23" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="T1020" s="24">
         <v>0.375</v>
@@ -75179,10 +75186,10 @@
       <c r="U1020" s="24"/>
       <c r="V1020" s="25"/>
       <c r="W1020" s="22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="X1020" s="22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1021" spans="1:24" ht="15" customHeight="1">
@@ -75201,19 +75208,19 @@
         <v>45729</v>
       </c>
       <c r="E1021" s="25" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F1021" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G1021" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1021" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1021" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J1021" s="55" t="s">
         <v>449</v>
@@ -75229,14 +75236,16 @@
       </c>
       <c r="R1021" s="25"/>
       <c r="S1021" s="23" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="T1021" s="24"/>
       <c r="U1021" s="24"/>
       <c r="V1021" s="25"/>
-      <c r="W1021" s="22"/>
+      <c r="W1021" s="22" t="s">
+        <v>451</v>
+      </c>
       <c r="X1021" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3826" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC647832-2CAE-4BD9-B568-109D7ECE58E7}"/>
+  <xr:revisionPtr revIDLastSave="3848" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77AD7573-4BDA-4534-9869-07C15F6C9255}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16289" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16305" uniqueCount="857">
   <si>
     <t>ANO</t>
   </si>
@@ -2781,6 +2781,15 @@
   </si>
   <si>
     <t>Fabricação de 10 capacetes para instrumentos</t>
+  </si>
+  <si>
+    <t>extensão da prateleira dos extintores</t>
+  </si>
+  <si>
+    <t>Logo após a fabricação da baia para as baterias, essa OS terá inicio (acordado com o Maycon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacia de contenção das prateleiras das baterias </t>
   </si>
 </sst>
 </file>
@@ -4099,8 +4108,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1021" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X1021" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1023" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X1023" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4444,10 +4453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA1021"/>
+  <dimension ref="A1:AA1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S972" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U988" sqref="U988"/>
+    <sheetView tabSelected="1" topLeftCell="A972" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A1007" sqref="A1007:XFD1007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -4474,7 +4483,7 @@
     <col min="21" max="21" width="11.42578125" style="86" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.7109375" style="86" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22" style="86" customWidth="1"/>
-    <col min="24" max="24" width="75.28515625" style="86" customWidth="1"/>
+    <col min="24" max="24" width="83.85546875" style="86" customWidth="1"/>
     <col min="25" max="25" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -68469,7 +68478,7 @@
         <v>35</v>
       </c>
       <c r="J906" s="3" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="K906" s="3"/>
       <c r="L906" s="3"/>
@@ -71219,7 +71228,7 @@
         <v>35</v>
       </c>
       <c r="J952" s="55" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="K952" s="56">
         <v>45709</v>
@@ -71239,12 +71248,8 @@
       <c r="T952" s="24"/>
       <c r="U952" s="24"/>
       <c r="V952" s="25"/>
-      <c r="W952" s="22" t="s">
-        <v>556</v>
-      </c>
-      <c r="X952" s="22" t="s">
-        <v>638</v>
-      </c>
+      <c r="W952" s="22"/>
+      <c r="X952" s="22"/>
     </row>
     <row r="953" spans="1:24" ht="91.5">
       <c r="A953" s="85">
@@ -74405,7 +74410,7 @@
         <v>804</v>
       </c>
       <c r="J1007" s="55" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="K1007" s="56"/>
       <c r="L1007" s="25"/>
@@ -74871,7 +74876,7 @@
         <v>804</v>
       </c>
       <c r="J1015" s="55" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K1015" s="56">
         <v>45728</v>
@@ -74989,11 +74994,15 @@
         <v>804</v>
       </c>
       <c r="J1017" s="55" t="s">
-        <v>449</v>
-      </c>
-      <c r="K1017" s="56"/>
+        <v>428</v>
+      </c>
+      <c r="K1017" s="56">
+        <v>45729</v>
+      </c>
       <c r="L1017" s="25"/>
-      <c r="M1017" s="56"/>
+      <c r="M1017" s="56">
+        <v>45730</v>
+      </c>
       <c r="N1017" s="56"/>
       <c r="O1017" s="25"/>
       <c r="P1017" s="25"/>
@@ -75225,9 +75234,13 @@
       <c r="J1021" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="K1021" s="56"/>
+      <c r="K1021" s="56">
+        <v>45726</v>
+      </c>
       <c r="L1021" s="25"/>
-      <c r="M1021" s="56"/>
+      <c r="M1021" s="56">
+        <v>45730</v>
+      </c>
       <c r="N1021" s="56"/>
       <c r="O1021" s="25"/>
       <c r="P1021" s="25"/>
@@ -75245,6 +75258,122 @@
         <v>451</v>
       </c>
       <c r="X1021" s="22" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:24" ht="15" customHeight="1">
+      <c r="A1022" s="85">
+        <f>YEAR(D1022)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1022" s="25">
+        <f>MONTH(D1022)</f>
+        <v>3</v>
+      </c>
+      <c r="C1022" s="42">
+        <v>1037</v>
+      </c>
+      <c r="D1022" s="56">
+        <v>45729</v>
+      </c>
+      <c r="E1022" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1022" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1022" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1022" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1022" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="J1022" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1022" s="56"/>
+      <c r="L1022" s="25"/>
+      <c r="M1022" s="56"/>
+      <c r="N1022" s="56"/>
+      <c r="O1022" s="25"/>
+      <c r="P1022" s="25"/>
+      <c r="Q1022" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1022" s="25"/>
+      <c r="S1022" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="T1022" s="24"/>
+      <c r="U1022" s="24"/>
+      <c r="V1022" s="25"/>
+      <c r="W1022" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="X1022" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:24" ht="15" customHeight="1">
+      <c r="A1023" s="85">
+        <f>YEAR(D1023)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1023" s="25">
+        <f>MONTH(D1023)</f>
+        <v>3</v>
+      </c>
+      <c r="C1023" s="42">
+        <v>1038</v>
+      </c>
+      <c r="D1023" s="56">
+        <v>45729</v>
+      </c>
+      <c r="E1023" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1023" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1023" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1023" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1023" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="J1023" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="K1023" s="56">
+        <v>45729</v>
+      </c>
+      <c r="L1023" s="25"/>
+      <c r="M1023" s="56">
+        <v>45729</v>
+      </c>
+      <c r="N1023" s="56"/>
+      <c r="O1023" s="25"/>
+      <c r="P1023" s="25"/>
+      <c r="Q1023" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1023" s="25"/>
+      <c r="S1023" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="T1023" s="24"/>
+      <c r="U1023" s="24"/>
+      <c r="V1023" s="25"/>
+      <c r="W1023" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="X1023" s="22" t="s">
         <v>638</v>
       </c>
     </row>
@@ -75254,7 +75383,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1021">
+  <conditionalFormatting sqref="J2:J1023">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -75318,21 +75447,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -75509,8 +75623,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -75518,5 +75647,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3848" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77AD7573-4BDA-4534-9869-07C15F6C9255}"/>
+  <xr:revisionPtr revIDLastSave="3851" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE69DC1-3C98-4D86-8228-4000B21DFA3F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16305" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16303" uniqueCount="857">
   <si>
     <t>ANO</t>
   </si>
@@ -1817,9 +1817,6 @@
     <t>Realizar fenda no eixo de suporte do dispersor de amostras.</t>
   </si>
   <si>
-    <t>TORNEARIA</t>
-  </si>
-  <si>
     <t>146-24 VALE - PDE SUL II - CKS</t>
   </si>
   <si>
@@ -2072,6 +2069,9 @@
   </si>
   <si>
     <t>Fabricar redução de HW para HQ</t>
+  </si>
+  <si>
+    <t>TORNEARIA</t>
   </si>
   <si>
     <t>Em processo</t>
@@ -4455,8 +4455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
   <dimension ref="A1:AA1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A972" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A1007" sqref="A1007:XFD1007"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A804" sqref="A804:XFD804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -62670,7 +62670,7 @@
         <v>28</v>
       </c>
       <c r="J804" s="1" t="s">
-        <v>449</v>
+        <v>29</v>
       </c>
       <c r="K804" s="1"/>
       <c r="L804" s="1"/>
@@ -62686,12 +62686,8 @@
       <c r="T804" s="1"/>
       <c r="U804" s="1"/>
       <c r="V804" s="1"/>
-      <c r="W804" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="X804" s="5" t="s">
-        <v>539</v>
-      </c>
+      <c r="W804" s="5"/>
+      <c r="X804" s="5"/>
     </row>
     <row r="805" spans="1:24" hidden="1">
       <c r="A805" s="45">
@@ -62709,7 +62705,7 @@
         <v>45681</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F805" s="1" t="s">
         <v>25</v>
@@ -62737,7 +62733,7 @@
       <c r="Q805" s="1"/>
       <c r="R805" s="1"/>
       <c r="S805" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="T805" s="1"/>
       <c r="U805" s="1"/>
@@ -62791,7 +62787,7 @@
       <c r="Q806" s="1"/>
       <c r="R806" s="1"/>
       <c r="S806" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="T806" s="1"/>
       <c r="U806" s="1"/>
@@ -62817,7 +62813,7 @@
         <v>45681</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F807" s="3" t="s">
         <v>553</v>
@@ -62905,7 +62901,7 @@
         <v>434</v>
       </c>
       <c r="S808" s="92" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="T808" s="7">
         <v>0.375</v>
@@ -62933,13 +62929,13 @@
         <v>45681</v>
       </c>
       <c r="E809" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F809" s="3" t="s">
         <v>531</v>
       </c>
       <c r="G809" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H809" s="3" t="s">
         <v>297</v>
@@ -62965,7 +62961,7 @@
       </c>
       <c r="R809" s="3"/>
       <c r="S809" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="T809" s="7">
         <v>0.41666666666666669</v>
@@ -62998,10 +62994,10 @@
         <v>47</v>
       </c>
       <c r="F810" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G810" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="G810" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="H810" s="3" t="s">
         <v>297</v>
@@ -63021,7 +63017,7 @@
       <c r="Q810" s="3"/>
       <c r="R810" s="3"/>
       <c r="S810" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T810" s="3"/>
       <c r="U810" s="3"/>
@@ -63053,7 +63049,7 @@
         <v>289</v>
       </c>
       <c r="G811" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H811" s="3" t="s">
         <v>299</v>
@@ -63077,7 +63073,7 @@
       </c>
       <c r="R811" s="3"/>
       <c r="S811" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T811" s="7">
         <v>0.33333333333333331</v>
@@ -63113,7 +63109,7 @@
         <v>553</v>
       </c>
       <c r="G812" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H812" s="1" t="s">
         <v>297</v>
@@ -63133,7 +63129,7 @@
       <c r="Q812" s="1"/>
       <c r="R812" s="1"/>
       <c r="S812" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="T812" s="1"/>
       <c r="U812" s="1"/>
@@ -63142,7 +63138,7 @@
         <v>451</v>
       </c>
       <c r="X812" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="813" spans="1:24" hidden="1">
@@ -63161,7 +63157,7 @@
         <v>45684</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F813" s="1" t="s">
         <v>39</v>
@@ -63189,7 +63185,7 @@
       <c r="Q813" s="1"/>
       <c r="R813" s="1"/>
       <c r="S813" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T813" s="1"/>
       <c r="U813" s="1"/>
@@ -63219,7 +63215,7 @@
         <v>263</v>
       </c>
       <c r="G814" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H814" s="1" t="s">
         <v>297</v>
@@ -63243,7 +63239,7 @@
       <c r="Q814" s="1"/>
       <c r="R814" s="1"/>
       <c r="S814" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="T814" s="1"/>
       <c r="U814" s="1"/>
@@ -63275,7 +63271,7 @@
         <v>228</v>
       </c>
       <c r="G815" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H815" s="1" t="s">
         <v>297</v>
@@ -63305,7 +63301,7 @@
         <v>434</v>
       </c>
       <c r="S815" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T815" s="8">
         <v>0.56944444444444442</v>
@@ -63341,7 +63337,7 @@
         <v>279</v>
       </c>
       <c r="G816" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H816" s="3" t="s">
         <v>297</v>
@@ -63371,7 +63367,7 @@
         <v>434</v>
       </c>
       <c r="S816" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T816" s="7">
         <v>0.58333333333333337</v>
@@ -63406,10 +63402,10 @@
         <v>47</v>
       </c>
       <c r="F817" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G817" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="G817" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="H817" s="1" t="s">
         <v>297</v>
@@ -63431,7 +63427,7 @@
       <c r="Q817" s="1"/>
       <c r="R817" s="1"/>
       <c r="S817" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="T817" s="1"/>
       <c r="U817" s="1"/>
@@ -63457,13 +63453,13 @@
         <v>45684</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F818" s="1" t="s">
         <v>531</v>
       </c>
       <c r="G818" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H818" s="1" t="s">
         <v>299</v>
@@ -63487,7 +63483,7 @@
       <c r="Q818" s="1"/>
       <c r="R818" s="1"/>
       <c r="S818" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="T818" s="1"/>
       <c r="U818" s="1"/>
@@ -63519,7 +63515,7 @@
         <v>447</v>
       </c>
       <c r="G819" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H819" s="1" t="s">
         <v>297</v>
@@ -63543,7 +63539,7 @@
       <c r="Q819" s="1"/>
       <c r="R819" s="1"/>
       <c r="S819" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T819" s="1"/>
       <c r="U819" s="1"/>
@@ -63575,7 +63571,7 @@
         <v>447</v>
       </c>
       <c r="G820" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H820" s="1" t="s">
         <v>297</v>
@@ -63623,7 +63619,7 @@
         <v>263</v>
       </c>
       <c r="G821" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H821" s="1" t="s">
         <v>299</v>
@@ -63645,11 +63641,11 @@
       <c r="O821" s="1"/>
       <c r="P821" s="1"/>
       <c r="Q821" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R821" s="1"/>
       <c r="S821" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="T821" s="8">
         <v>0.61111111111111116</v>
@@ -63685,7 +63681,7 @@
         <v>295</v>
       </c>
       <c r="G822" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H822" s="1" t="s">
         <v>299</v>
@@ -63707,11 +63703,11 @@
       <c r="O822" s="1"/>
       <c r="P822" s="1"/>
       <c r="Q822" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R822" s="1"/>
       <c r="S822" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T822" s="8">
         <v>0.33333333333333331</v>
@@ -63741,13 +63737,13 @@
         <v>45684</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F823" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G823" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H823" s="1" t="s">
         <v>299</v>
@@ -63769,11 +63765,11 @@
       <c r="O823" s="1"/>
       <c r="P823" s="1"/>
       <c r="Q823" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R823" s="1"/>
       <c r="S823" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T823" s="8">
         <v>0.38055555555555554</v>
@@ -63809,7 +63805,7 @@
         <v>306</v>
       </c>
       <c r="G824" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H824" s="1" t="s">
         <v>297</v>
@@ -63833,7 +63829,7 @@
       <c r="Q824" s="1"/>
       <c r="R824" s="1"/>
       <c r="S824" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="T824" s="8"/>
       <c r="U824" s="8"/>
@@ -63865,7 +63861,7 @@
         <v>111</v>
       </c>
       <c r="G825" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H825" s="1" t="s">
         <v>297</v>
@@ -63889,7 +63885,7 @@
       <c r="Q825" s="1"/>
       <c r="R825" s="1"/>
       <c r="S825" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T825" s="1"/>
       <c r="U825" s="1"/>
@@ -63921,7 +63917,7 @@
         <v>76</v>
       </c>
       <c r="G826" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H826" s="1" t="s">
         <v>297</v>
@@ -63945,7 +63941,7 @@
       <c r="Q826" s="1"/>
       <c r="R826" s="1"/>
       <c r="S826" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T826" s="1"/>
       <c r="U826" s="1"/>
@@ -63977,7 +63973,7 @@
         <v>279</v>
       </c>
       <c r="G827" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H827" s="1" t="s">
         <v>297</v>
@@ -64001,7 +63997,7 @@
       <c r="Q827" s="1"/>
       <c r="R827" s="1"/>
       <c r="S827" s="93" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T827" s="1"/>
       <c r="U827" s="1"/>
@@ -64033,7 +64029,7 @@
         <v>111</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H828" s="1" t="s">
         <v>299</v>
@@ -64055,11 +64051,11 @@
       <c r="O828" s="1"/>
       <c r="P828" s="1"/>
       <c r="Q828" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R828" s="1"/>
       <c r="S828" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T828" s="8">
         <v>0.41666666666666669</v>
@@ -64095,7 +64091,7 @@
         <v>186</v>
       </c>
       <c r="G829" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H829" s="1" t="s">
         <v>299</v>
@@ -64117,11 +64113,11 @@
       <c r="O829" s="1"/>
       <c r="P829" s="1"/>
       <c r="Q829" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="R829" s="1"/>
       <c r="S829" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T829" s="8">
         <v>0.4375</v>
@@ -64157,7 +64153,7 @@
         <v>279</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H830" s="1" t="s">
         <v>299</v>
@@ -64177,7 +64173,7 @@
       <c r="Q830" s="1"/>
       <c r="R830" s="1"/>
       <c r="S830" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T830" s="1"/>
       <c r="U830" s="1"/>
@@ -64201,7 +64197,7 @@
         <v>45686</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F831" s="1" t="s">
         <v>130</v>
@@ -64231,7 +64227,7 @@
       <c r="Q831" s="1"/>
       <c r="R831" s="1"/>
       <c r="S831" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T831" s="1"/>
       <c r="U831" s="1"/>
@@ -64263,7 +64259,7 @@
         <v>553</v>
       </c>
       <c r="G832" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H832" s="1" t="s">
         <v>297</v>
@@ -64287,7 +64283,7 @@
       <c r="Q832" s="1"/>
       <c r="R832" s="1"/>
       <c r="S832" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T832" s="1"/>
       <c r="U832" s="1"/>
@@ -64316,10 +64312,10 @@
         <v>469</v>
       </c>
       <c r="F833" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G833" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="G833" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="H833" s="1" t="s">
         <v>297</v>
@@ -64343,7 +64339,7 @@
       <c r="Q833" s="1"/>
       <c r="R833" s="1"/>
       <c r="S833" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="T833" s="1"/>
       <c r="U833" s="1"/>
@@ -64375,7 +64371,7 @@
         <v>392</v>
       </c>
       <c r="G834" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H834" s="1" t="s">
         <v>299</v>
@@ -64399,7 +64395,7 @@
       <c r="Q834" s="1"/>
       <c r="R834" s="1"/>
       <c r="S834" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T834" s="1"/>
       <c r="U834" s="1"/>
@@ -64431,7 +64427,7 @@
         <v>279</v>
       </c>
       <c r="G835" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H835" s="1" t="s">
         <v>299</v>
@@ -64453,11 +64449,11 @@
       <c r="O835" s="1"/>
       <c r="P835" s="1"/>
       <c r="Q835" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="R835" s="1"/>
       <c r="S835" s="94" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="T835" s="95">
         <v>0.375</v>
@@ -64544,7 +64540,7 @@
         <v>263</v>
       </c>
       <c r="G837" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H837" s="1" t="s">
         <v>297</v>
@@ -64594,7 +64590,7 @@
         <v>424</v>
       </c>
       <c r="G838" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H838" s="1" t="s">
         <v>297</v>
@@ -64644,7 +64640,7 @@
         <v>289</v>
       </c>
       <c r="G839" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H839" s="1" t="s">
         <v>299</v>
@@ -64694,7 +64690,7 @@
         <v>553</v>
       </c>
       <c r="G840" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H840" s="1" t="s">
         <v>297</v>
@@ -64746,7 +64742,7 @@
         <v>553</v>
       </c>
       <c r="G841" s="39" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H841" s="3" t="s">
         <v>297</v>
@@ -64796,7 +64792,7 @@
         <v>399</v>
       </c>
       <c r="G842" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H842" s="3" t="s">
         <v>299</v>
@@ -64848,7 +64844,7 @@
         <v>439</v>
       </c>
       <c r="G843" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H843" s="3" t="s">
         <v>297</v>
@@ -64900,7 +64896,7 @@
         <v>111</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>297</v>
@@ -64952,7 +64948,7 @@
         <v>228</v>
       </c>
       <c r="G845" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H845" s="3" t="s">
         <v>299</v>
@@ -65004,7 +65000,7 @@
         <v>553</v>
       </c>
       <c r="G846" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H846" s="3" t="s">
         <v>297</v>
@@ -65054,7 +65050,7 @@
         <v>295</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H847" s="3" t="s">
         <v>299</v>
@@ -65100,13 +65096,13 @@
         <v>45688.581076388888</v>
       </c>
       <c r="E848" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F848" s="3" t="s">
         <v>531</v>
       </c>
       <c r="G848" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H848" s="3" t="s">
         <v>299</v>
@@ -65128,7 +65124,7 @@
       </c>
       <c r="R848" s="3"/>
       <c r="S848" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="T848" s="3"/>
       <c r="U848" s="3"/>
@@ -65160,7 +65156,7 @@
         <v>279</v>
       </c>
       <c r="G849" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H849" s="3" t="s">
         <v>297</v>
@@ -65182,7 +65178,7 @@
       </c>
       <c r="R849" s="3"/>
       <c r="S849" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T849" s="3"/>
       <c r="U849" s="3"/>
@@ -65214,7 +65210,7 @@
         <v>439</v>
       </c>
       <c r="G850" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H850" s="3" t="s">
         <v>297</v>
@@ -65236,7 +65232,7 @@
       </c>
       <c r="R850" s="3"/>
       <c r="S850" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="T850" s="3"/>
       <c r="U850" s="3"/>
@@ -65268,7 +65264,7 @@
         <v>553</v>
       </c>
       <c r="G851" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H851" s="3" t="s">
         <v>297</v>
@@ -65290,14 +65286,14 @@
       </c>
       <c r="R851" s="3"/>
       <c r="S851" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T851" s="3"/>
       <c r="U851" s="3"/>
       <c r="V851" s="3"/>
       <c r="W851" s="6"/>
       <c r="X851" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="852" spans="1:24" hidden="1">
@@ -65322,7 +65318,7 @@
         <v>279</v>
       </c>
       <c r="G852" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H852" s="3" t="s">
         <v>297</v>
@@ -65344,7 +65340,7 @@
       </c>
       <c r="R852" s="3"/>
       <c r="S852" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="T852" s="3"/>
       <c r="U852" s="3"/>
@@ -65406,7 +65402,7 @@
         <v>434</v>
       </c>
       <c r="S853" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T853" s="8">
         <v>0.33333333333333331</v>
@@ -65440,7 +65436,7 @@
         <v>439</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>297</v>
@@ -65462,7 +65458,7 @@
       </c>
       <c r="R854" s="3"/>
       <c r="S854" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="T854" s="3"/>
       <c r="U854" s="3"/>
@@ -65471,7 +65467,7 @@
         <v>451</v>
       </c>
       <c r="X854" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="855" spans="1:24" hidden="1">
@@ -65496,7 +65492,7 @@
         <v>263</v>
       </c>
       <c r="G855" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H855" s="3" t="s">
         <v>297</v>
@@ -65520,14 +65516,14 @@
       </c>
       <c r="R855" s="3"/>
       <c r="S855" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T855" s="3"/>
       <c r="U855" s="3"/>
       <c r="V855" s="3"/>
       <c r="W855" s="6"/>
       <c r="X855" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="856" spans="1:24" hidden="1">
@@ -65552,7 +65548,7 @@
         <v>295</v>
       </c>
       <c r="G856" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H856" s="3" t="s">
         <v>299</v>
@@ -65574,7 +65570,7 @@
       </c>
       <c r="R856" s="3"/>
       <c r="S856" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T856" s="3"/>
       <c r="U856" s="3"/>
@@ -65586,7 +65582,7 @@
     </row>
     <row r="857" spans="1:24" ht="121.5" hidden="1">
       <c r="A857" s="46" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B857" s="3">
         <f>MONTH(D857)</f>
@@ -65599,13 +65595,13 @@
         <v>45691.744351851848</v>
       </c>
       <c r="E857" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F857" s="3" t="s">
         <v>553</v>
       </c>
       <c r="G857" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H857" s="3" t="s">
         <v>297</v>
@@ -65631,7 +65627,7 @@
       </c>
       <c r="R857" s="3"/>
       <c r="S857" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T857" s="7">
         <v>0.39583333333333331</v>
@@ -65669,7 +65665,7 @@
         <v>76</v>
       </c>
       <c r="G858" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H858" s="3" t="s">
         <v>299</v>
@@ -65691,7 +65687,7 @@
       </c>
       <c r="R858" s="3"/>
       <c r="S858" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T858" s="3"/>
       <c r="U858" s="3"/>
@@ -65721,7 +65717,7 @@
         <v>553</v>
       </c>
       <c r="G859" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H859" s="3" t="s">
         <v>297</v>
@@ -65743,7 +65739,7 @@
       </c>
       <c r="R859" s="3"/>
       <c r="S859" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T859" s="3"/>
       <c r="U859" s="3"/>
@@ -65773,7 +65769,7 @@
         <v>111</v>
       </c>
       <c r="G860" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H860" s="3" t="s">
         <v>297</v>
@@ -65805,7 +65801,7 @@
         <v>434</v>
       </c>
       <c r="S860" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T860" s="7">
         <v>0.34722222222222221</v>
@@ -65813,7 +65809,7 @@
       <c r="U860" s="3"/>
       <c r="V860" s="3"/>
       <c r="W860" s="6" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="X860" s="6" t="s">
         <v>638</v>
@@ -65841,7 +65837,7 @@
         <v>553</v>
       </c>
       <c r="G861" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H861" s="3" t="s">
         <v>297</v>
@@ -65911,7 +65907,7 @@
         <v>553</v>
       </c>
       <c r="G862" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H862" s="3" t="s">
         <v>297</v>
@@ -65962,7 +65958,7 @@
         <v>47</v>
       </c>
       <c r="F863" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G863" s="3" t="s">
         <v>641</v>
@@ -66030,10 +66026,10 @@
         <v>47</v>
       </c>
       <c r="F864" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G864" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="G864" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="H864" s="3" t="s">
         <v>297</v>
@@ -66169,7 +66165,7 @@
         <v>553</v>
       </c>
       <c r="G866" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H866" s="3" t="s">
         <v>297</v>
@@ -66233,7 +66229,7 @@
         <v>647</v>
       </c>
       <c r="G867" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H867" s="3" t="s">
         <v>297</v>
@@ -66357,7 +66353,7 @@
         <v>279</v>
       </c>
       <c r="G869" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H869" s="3" t="s">
         <v>297</v>
@@ -66467,7 +66463,7 @@
         <v>130</v>
       </c>
       <c r="G871" s="76" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H871" s="3" t="s">
         <v>297</v>
@@ -66529,7 +66525,7 @@
         <v>553</v>
       </c>
       <c r="G872" s="51" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H872" s="31" t="s">
         <v>297</v>
@@ -66633,7 +66629,7 @@
         <v>279</v>
       </c>
       <c r="G874" s="51" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H874" s="31" t="s">
         <v>297</v>
@@ -66685,7 +66681,7 @@
         <v>279</v>
       </c>
       <c r="G875" s="51" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H875" s="31" t="s">
         <v>297</v>
@@ -66791,7 +66787,7 @@
         <v>130</v>
       </c>
       <c r="G877" s="51" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H877" s="31" t="s">
         <v>297</v>
@@ -67077,13 +67073,13 @@
         <v>45694.829513888886</v>
       </c>
       <c r="E884" s="34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F884" s="34" t="s">
         <v>152</v>
       </c>
       <c r="G884" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H884" s="34" t="s">
         <v>299</v>
@@ -67277,7 +67273,7 @@
         <v>306</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H887" s="3" t="s">
         <v>297</v>
@@ -67387,13 +67383,13 @@
         <v>45695.822754629633</v>
       </c>
       <c r="E889" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F889" s="3" t="s">
         <v>531</v>
       </c>
       <c r="G889" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H889" s="3" t="s">
         <v>299</v>
@@ -67561,7 +67557,7 @@
         <v>10088</v>
       </c>
       <c r="W891" s="6" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="X891" s="6" t="s">
         <v>673</v>
@@ -67589,7 +67585,7 @@
         <v>279</v>
       </c>
       <c r="G892" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H892" s="3" t="s">
         <v>299</v>
@@ -67647,7 +67643,7 @@
         <v>279</v>
       </c>
       <c r="G893" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H893" s="3" t="s">
         <v>297</v>
@@ -67777,7 +67773,7 @@
         <v>295</v>
       </c>
       <c r="G895" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H895" s="3" t="s">
         <v>299</v>
@@ -67839,7 +67835,7 @@
         <v>279</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H896" s="3" t="s">
         <v>297</v>
@@ -68085,7 +68081,7 @@
         <v>228</v>
       </c>
       <c r="G900" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H900" s="3" t="s">
         <v>297</v>
@@ -68151,7 +68147,7 @@
         <v>553</v>
       </c>
       <c r="G901" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H901" s="3" t="s">
         <v>297</v>
@@ -68213,7 +68209,7 @@
         <v>553</v>
       </c>
       <c r="G902" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H902" s="3" t="s">
         <v>297</v>
@@ -68249,7 +68245,7 @@
         <v>10088</v>
       </c>
       <c r="W902" s="6" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="X902" s="6" t="s">
         <v>673</v>
@@ -68277,7 +68273,7 @@
         <v>553</v>
       </c>
       <c r="G903" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H903" s="3" t="s">
         <v>297</v>
@@ -68339,7 +68335,7 @@
         <v>692</v>
       </c>
       <c r="G904" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H904" s="3" t="s">
         <v>297</v>
@@ -68401,7 +68397,7 @@
         <v>553</v>
       </c>
       <c r="G905" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H905" s="3" t="s">
         <v>297</v>
@@ -68469,7 +68465,7 @@
         <v>25</v>
       </c>
       <c r="G906" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H906" s="3" t="s">
         <v>297</v>
@@ -68497,7 +68493,7 @@
       <c r="U906" s="3"/>
       <c r="V906" s="3"/>
       <c r="W906" s="6" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="X906" s="6" t="s">
         <v>638</v>
@@ -68525,7 +68521,7 @@
         <v>553</v>
       </c>
       <c r="G907" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H907" s="3" t="s">
         <v>297</v>
@@ -68645,7 +68641,7 @@
         <v>45700.720104166663</v>
       </c>
       <c r="E909" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F909" s="3" t="s">
         <v>39</v>
@@ -68707,13 +68703,13 @@
         <v>45700.735138888886</v>
       </c>
       <c r="E910" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F910" s="3" t="s">
         <v>531</v>
       </c>
       <c r="G910" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H910" s="3" t="s">
         <v>299</v>
@@ -68841,7 +68837,7 @@
         <v>130</v>
       </c>
       <c r="G912" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H912" s="3" t="s">
         <v>299</v>
@@ -68905,7 +68901,7 @@
         <v>25</v>
       </c>
       <c r="G913" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H913" s="3" t="s">
         <v>299</v>
@@ -69025,7 +69021,7 @@
         <v>553</v>
       </c>
       <c r="G915" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H915" s="3" t="s">
         <v>297</v>
@@ -69079,7 +69075,7 @@
         <v>399</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>297</v>
@@ -69205,7 +69201,7 @@
         <v>553</v>
       </c>
       <c r="G918" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H918" s="3" t="s">
         <v>297</v>
@@ -69269,7 +69265,7 @@
         <v>531</v>
       </c>
       <c r="G919" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H919" s="3" t="s">
         <v>297</v>
@@ -69383,7 +69379,7 @@
         <v>111</v>
       </c>
       <c r="G921" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H921" s="3" t="s">
         <v>297</v>
@@ -69445,7 +69441,7 @@
         <v>289</v>
       </c>
       <c r="G922" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H922" s="3" t="s">
         <v>297</v>
@@ -69507,7 +69503,7 @@
         <v>716</v>
       </c>
       <c r="G923" s="79" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H923" s="79" t="s">
         <v>297</v>
@@ -69571,7 +69567,7 @@
         <v>25</v>
       </c>
       <c r="G924" s="38" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H924" s="20" t="s">
         <v>299</v>
@@ -69631,7 +69627,7 @@
         <v>263</v>
       </c>
       <c r="G925" s="62" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H925" s="83" t="s">
         <v>297</v>
@@ -69837,10 +69833,10 @@
       <c r="U928" s="3"/>
       <c r="V928" s="3"/>
       <c r="W928" s="6" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="X928" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="929" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69865,7 +69861,7 @@
         <v>531</v>
       </c>
       <c r="G929" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H929" s="18" t="s">
         <v>297</v>
@@ -69921,7 +69917,7 @@
         <v>45705</v>
       </c>
       <c r="E930" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F930" s="18" t="s">
         <v>39</v>
@@ -70051,7 +70047,7 @@
         <v>424</v>
       </c>
       <c r="G932" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H932" s="25" t="s">
         <v>299</v>
@@ -70274,7 +70270,7 @@
         <v>47</v>
       </c>
       <c r="F936" s="25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G936" s="25" t="s">
         <v>641</v>
@@ -70329,7 +70325,7 @@
         <v>553</v>
       </c>
       <c r="G937" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H937" s="25" t="s">
         <v>297</v>
@@ -70393,7 +70389,7 @@
         <v>553</v>
       </c>
       <c r="G938" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H938" s="25" t="s">
         <v>297</v>
@@ -70513,7 +70509,7 @@
         <v>553</v>
       </c>
       <c r="G940" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H940" s="25" t="s">
         <v>297</v>
@@ -70625,7 +70621,7 @@
         <v>424</v>
       </c>
       <c r="G942" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H942" s="25" t="s">
         <v>297</v>
@@ -70737,7 +70733,7 @@
         <v>553</v>
       </c>
       <c r="G944" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H944" s="25" t="s">
         <v>297</v>
@@ -70795,7 +70791,7 @@
         <v>553</v>
       </c>
       <c r="G945" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H945" s="25" t="s">
         <v>297</v>
@@ -70857,7 +70853,7 @@
         <v>45708.50105324074</v>
       </c>
       <c r="E946" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F946" s="25" t="s">
         <v>186</v>
@@ -71091,7 +71087,7 @@
         <v>130</v>
       </c>
       <c r="G950" s="25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H950" s="25" t="s">
         <v>299</v>
@@ -71155,7 +71151,7 @@
         <v>553</v>
       </c>
       <c r="G951" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H951" s="25" t="s">
         <v>297</v>
@@ -71219,7 +71215,7 @@
         <v>111</v>
       </c>
       <c r="G952" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H952" s="25" t="s">
         <v>297</v>
@@ -71273,7 +71269,7 @@
         <v>553</v>
       </c>
       <c r="G953" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H953" s="25" t="s">
         <v>297</v>
@@ -71301,7 +71297,7 @@
       <c r="U953" s="24"/>
       <c r="V953" s="25"/>
       <c r="W953" s="22" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="X953" s="22" t="s">
         <v>638</v>
@@ -71453,7 +71449,7 @@
         <v>279</v>
       </c>
       <c r="G956" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H956" s="25" t="s">
         <v>299</v>
@@ -71571,7 +71567,7 @@
         <v>553</v>
       </c>
       <c r="G958" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H958" s="25" t="s">
         <v>299</v>
@@ -71599,7 +71595,7 @@
       <c r="U958" s="24"/>
       <c r="V958" s="25"/>
       <c r="W958" s="22" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="X958" s="22" t="s">
         <v>760</v>
@@ -71627,7 +71623,7 @@
         <v>399</v>
       </c>
       <c r="G959" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H959" s="25" t="s">
         <v>297</v>
@@ -71735,7 +71731,7 @@
         <v>553</v>
       </c>
       <c r="G961" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H961" s="25" t="s">
         <v>297</v>
@@ -71795,7 +71791,7 @@
         <v>553</v>
       </c>
       <c r="G962" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H962" s="25" t="s">
         <v>297</v>
@@ -72139,7 +72135,7 @@
         <v>553</v>
       </c>
       <c r="G968" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H968" s="25" t="s">
         <v>297</v>
@@ -72201,7 +72197,7 @@
         <v>553</v>
       </c>
       <c r="G969" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H969" s="25" t="s">
         <v>297</v>
@@ -72257,7 +72253,7 @@
         <v>553</v>
       </c>
       <c r="G970" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H970" s="25" t="s">
         <v>297</v>
@@ -72311,7 +72307,7 @@
         <v>553</v>
       </c>
       <c r="G971" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H971" s="25" t="s">
         <v>297</v>
@@ -72483,7 +72479,7 @@
         <v>553</v>
       </c>
       <c r="G974" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H974" s="25" t="s">
         <v>297</v>
@@ -72537,7 +72533,7 @@
         <v>25</v>
       </c>
       <c r="G975" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H975" s="25" t="s">
         <v>299</v>
@@ -72707,7 +72703,7 @@
         <v>424</v>
       </c>
       <c r="G978" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H978" s="25" t="s">
         <v>299</v>
@@ -72816,10 +72812,10 @@
         <v>788</v>
       </c>
       <c r="F980" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G980" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H980" s="25" t="s">
         <v>297</v>
@@ -73043,7 +73039,7 @@
         <v>76</v>
       </c>
       <c r="G984" s="25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H984" s="25" t="s">
         <v>299</v>
@@ -73105,7 +73101,7 @@
         <v>89</v>
       </c>
       <c r="G985" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H985" s="25" t="s">
         <v>297</v>
@@ -73161,7 +73157,7 @@
         <v>130</v>
       </c>
       <c r="G986" s="25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H986" s="25" t="s">
         <v>297</v>
@@ -73219,7 +73215,7 @@
         <v>553</v>
       </c>
       <c r="G987" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H987" s="25" t="s">
         <v>297</v>
@@ -73277,7 +73273,7 @@
         <v>553</v>
       </c>
       <c r="G988" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H988" s="25" t="s">
         <v>297</v>
@@ -73335,7 +73331,7 @@
         <v>111</v>
       </c>
       <c r="G989" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H989" s="25" t="s">
         <v>299</v>
@@ -73397,7 +73393,7 @@
         <v>25</v>
       </c>
       <c r="G990" s="25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H990" s="25" t="s">
         <v>299</v>
@@ -73515,7 +73511,7 @@
         <v>553</v>
       </c>
       <c r="G992" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H992" s="25" t="s">
         <v>297</v>
@@ -73573,7 +73569,7 @@
         <v>160</v>
       </c>
       <c r="G993" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H993" s="25" t="s">
         <v>297</v>
@@ -73663,7 +73659,7 @@
       <c r="U994" s="24"/>
       <c r="V994" s="25"/>
       <c r="W994" s="22" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="X994" s="22" t="s">
         <v>760</v>
@@ -73691,7 +73687,7 @@
         <v>553</v>
       </c>
       <c r="G995" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H995" s="25" t="s">
         <v>297</v>
@@ -73749,7 +73745,7 @@
         <v>130</v>
       </c>
       <c r="G996" s="25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H996" s="25" t="s">
         <v>299</v>
@@ -73809,7 +73805,7 @@
         <v>439</v>
       </c>
       <c r="G997" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H997" s="25" t="s">
         <v>299</v>
@@ -73873,7 +73869,7 @@
         <v>89</v>
       </c>
       <c r="G998" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H998" s="25" t="s">
         <v>297</v>
@@ -73929,7 +73925,7 @@
         <v>89</v>
       </c>
       <c r="G999" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H999" s="25" t="s">
         <v>297</v>
@@ -73983,7 +73979,7 @@
         <v>553</v>
       </c>
       <c r="G1000" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1000" s="25" t="s">
         <v>297</v>
@@ -74013,10 +74009,10 @@
       <c r="U1000" s="24"/>
       <c r="V1000" s="25"/>
       <c r="W1000" s="22" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="X1000" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1001" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -74041,7 +74037,7 @@
         <v>424</v>
       </c>
       <c r="G1001" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1001" s="25" t="s">
         <v>299</v>
@@ -74105,7 +74101,7 @@
         <v>424</v>
       </c>
       <c r="G1002" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1002" s="25" t="s">
         <v>299</v>
@@ -74229,7 +74225,7 @@
         <v>228</v>
       </c>
       <c r="G1004" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1004" s="25" t="s">
         <v>297</v>
@@ -74373,7 +74369,7 @@
       <c r="U1006" s="24"/>
       <c r="V1006" s="25"/>
       <c r="W1006" s="109" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="X1006" s="22" t="s">
         <v>760</v>
@@ -74401,7 +74397,7 @@
         <v>553</v>
       </c>
       <c r="G1007" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1007" s="25" t="s">
         <v>297</v>
@@ -74431,7 +74427,7 @@
       <c r="U1007" s="24"/>
       <c r="V1007" s="25"/>
       <c r="W1007" s="108" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="X1007" s="22" t="s">
         <v>829</v>
@@ -74521,7 +74517,7 @@
         <v>553</v>
       </c>
       <c r="G1009" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1009" s="25" t="s">
         <v>297</v>
@@ -74552,7 +74548,7 @@
         <v>451</v>
       </c>
       <c r="X1009" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1010" spans="1:24" ht="15" customHeight="1">
@@ -74693,7 +74689,7 @@
         <v>295</v>
       </c>
       <c r="G1012" s="25" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1012" s="25" t="s">
         <v>297</v>
@@ -74721,7 +74717,7 @@
       <c r="U1012" s="24"/>
       <c r="V1012" s="25"/>
       <c r="W1012" s="22" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="X1012" s="22" t="s">
         <v>838</v>
@@ -74749,7 +74745,7 @@
         <v>553</v>
       </c>
       <c r="G1013" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1013" s="25" t="s">
         <v>297</v>
@@ -74867,7 +74863,7 @@
         <v>111</v>
       </c>
       <c r="G1015" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1015" s="25" t="s">
         <v>297</v>
@@ -74899,7 +74895,7 @@
       <c r="U1015" s="21"/>
       <c r="V1015" s="18"/>
       <c r="W1015" s="19" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="X1015" s="22" t="s">
         <v>638</v>
@@ -74927,7 +74923,7 @@
         <v>842</v>
       </c>
       <c r="G1016" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1016" s="25" t="s">
         <v>297</v>
@@ -74985,7 +74981,7 @@
         <v>228</v>
       </c>
       <c r="G1017" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1017" s="25" t="s">
         <v>297</v>
@@ -75045,7 +75041,7 @@
         <v>279</v>
       </c>
       <c r="G1018" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1018" s="25" t="s">
         <v>297</v>
@@ -75161,7 +75157,7 @@
         <v>424</v>
       </c>
       <c r="G1020" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1020" s="25" t="s">
         <v>299</v>
@@ -75223,7 +75219,7 @@
         <v>424</v>
       </c>
       <c r="G1021" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1021" s="25" t="s">
         <v>297</v>
@@ -75283,7 +75279,7 @@
         <v>553</v>
       </c>
       <c r="G1022" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1022" s="25" t="s">
         <v>297</v>
@@ -75339,7 +75335,7 @@
         <v>553</v>
       </c>
       <c r="G1023" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1023" s="25" t="s">
         <v>297</v>
@@ -75447,6 +75443,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -75623,23 +75634,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -75647,5 +75643,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3851" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE69DC1-3C98-4D86-8228-4000B21DFA3F}"/>
+  <xr:revisionPtr revIDLastSave="3861" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18A9686F-EAF8-4C98-ADD2-705441CB313F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16303" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16304" uniqueCount="856">
   <si>
     <t>ANO</t>
   </si>
@@ -2705,9 +2705,6 @@
     <t xml:space="preserve">4 camisas Denison com chanfro </t>
   </si>
   <si>
-    <t>Cortar e levar para o Torno</t>
-  </si>
-  <si>
     <t>Rafael dos Santos Espinoza</t>
   </si>
   <si>
@@ -2730,9 +2727,6 @@
   </si>
   <si>
     <t>3 hastes de percussão de 1,00 metro  e 02 manuseador de hastes</t>
-  </si>
-  <si>
-    <t>Em processo, manuseadores dispoinveis</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2790,6 +2784,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bacia de contenção das prateleiras das baterias </t>
+  </si>
+  <si>
+    <t>CABEÇA D´ÁGUA VAZANDO (FAZER TROCAR DA MESMA)</t>
   </si>
 </sst>
 </file>
@@ -4108,8 +4105,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1023" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X1023" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1024" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X1024" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4453,10 +4450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA1023"/>
+  <dimension ref="A1:AA1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A804" sqref="A804:XFD804"/>
+    <sheetView tabSelected="1" topLeftCell="G972" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J1007" sqref="J1007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -68492,12 +68489,8 @@
       <c r="T906" s="3"/>
       <c r="U906" s="3"/>
       <c r="V906" s="3"/>
-      <c r="W906" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="X906" s="6" t="s">
-        <v>638</v>
-      </c>
+      <c r="W906" s="6"/>
+      <c r="X906" s="6"/>
     </row>
     <row r="907" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A907" s="46">
@@ -74406,14 +74399,16 @@
         <v>804</v>
       </c>
       <c r="J1007" s="55" t="s">
-        <v>516</v>
+        <v>29</v>
       </c>
       <c r="K1007" s="56"/>
       <c r="L1007" s="25"/>
       <c r="M1007" s="56">
         <v>45729</v>
       </c>
-      <c r="N1007" s="56"/>
+      <c r="N1007" s="56">
+        <v>45729</v>
+      </c>
       <c r="O1007" s="25"/>
       <c r="P1007" s="25"/>
       <c r="Q1007" s="25">
@@ -74426,12 +74421,8 @@
       <c r="T1007" s="24"/>
       <c r="U1007" s="24"/>
       <c r="V1007" s="25"/>
-      <c r="W1007" s="108" t="s">
-        <v>637</v>
-      </c>
-      <c r="X1007" s="22" t="s">
-        <v>829</v>
-      </c>
+      <c r="W1007" s="108"/>
+      <c r="X1007" s="22"/>
     </row>
     <row r="1008" spans="1:24" ht="15" customHeight="1">
       <c r="A1008" s="85">
@@ -74455,7 +74446,7 @@
         <v>553</v>
       </c>
       <c r="G1008" s="25" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1008" s="25" t="s">
         <v>297</v>
@@ -74479,7 +74470,7 @@
       </c>
       <c r="R1008" s="25"/>
       <c r="S1008" s="23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="T1008" s="24">
         <v>0.375</v>
@@ -74492,7 +74483,7 @@
         <v>441</v>
       </c>
       <c r="X1008" s="22" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1009" spans="1:24" ht="15" customHeight="1">
@@ -74539,7 +74530,7 @@
       </c>
       <c r="R1009" s="25"/>
       <c r="S1009" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="T1009" s="24"/>
       <c r="U1009" s="24"/>
@@ -74595,7 +74586,7 @@
       </c>
       <c r="R1010" s="25"/>
       <c r="S1010" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="T1010" s="24"/>
       <c r="U1010" s="24"/>
@@ -74653,7 +74644,7 @@
       </c>
       <c r="R1011" s="25"/>
       <c r="S1011" s="23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="T1011" s="24">
         <v>0.58333333333333337</v>
@@ -74664,7 +74655,7 @@
         <v>451</v>
       </c>
       <c r="X1011" s="22" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1012" spans="1:24" ht="28.5" customHeight="1">
@@ -74698,7 +74689,7 @@
         <v>804</v>
       </c>
       <c r="J1012" s="55" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="K1012" s="56"/>
       <c r="L1012" s="25"/>
@@ -74711,17 +74702,13 @@
       </c>
       <c r="R1012" s="25"/>
       <c r="S1012" s="102" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="T1012" s="24"/>
       <c r="U1012" s="24"/>
       <c r="V1012" s="25"/>
-      <c r="W1012" s="22" t="s">
-        <v>637</v>
-      </c>
-      <c r="X1012" s="22" t="s">
-        <v>838</v>
-      </c>
+      <c r="W1012" s="22"/>
+      <c r="X1012" s="22"/>
     </row>
     <row r="1013" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1013" s="85">
@@ -74773,7 +74760,7 @@
       </c>
       <c r="R1013" s="25"/>
       <c r="S1013" s="102" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="T1013" s="24"/>
       <c r="U1013" s="24">
@@ -74829,7 +74816,7 @@
       </c>
       <c r="R1014" s="25"/>
       <c r="S1014" s="23" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="T1014" s="24"/>
       <c r="U1014" s="24"/>
@@ -74889,7 +74876,7 @@
       </c>
       <c r="R1015" s="18"/>
       <c r="S1015" s="17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="T1015" s="21"/>
       <c r="U1015" s="21"/>
@@ -74920,7 +74907,7 @@
         <v>466</v>
       </c>
       <c r="F1016" s="25" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G1016" s="25" t="s">
         <v>575</v>
@@ -74947,7 +74934,7 @@
       </c>
       <c r="R1016" s="111"/>
       <c r="S1016" s="112" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="T1016" s="21"/>
       <c r="U1016" s="21"/>
@@ -74956,7 +74943,7 @@
         <v>745</v>
       </c>
       <c r="X1016" s="22" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1017" spans="1:24" ht="15" customHeight="1">
@@ -75007,7 +74994,7 @@
       </c>
       <c r="R1017" s="25"/>
       <c r="S1017" s="23" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="T1017" s="24"/>
       <c r="U1017" s="24"/>
@@ -75016,7 +75003,7 @@
         <v>451</v>
       </c>
       <c r="X1017" s="22" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1018" spans="1:24" ht="40.5" customHeight="1">
@@ -75063,7 +75050,7 @@
       </c>
       <c r="R1018" s="25"/>
       <c r="S1018" s="102" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="T1018" s="24"/>
       <c r="U1018" s="24"/>
@@ -75072,7 +75059,7 @@
         <v>451</v>
       </c>
       <c r="X1018" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1019" spans="1:24" ht="15" customHeight="1">
@@ -75121,7 +75108,7 @@
       </c>
       <c r="R1019" s="25"/>
       <c r="S1019" s="23" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="T1019" s="24">
         <v>0.58333333333333337</v>
@@ -75132,7 +75119,7 @@
         <v>745</v>
       </c>
       <c r="X1019" s="22" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1020" spans="1:24" ht="15" customHeight="1">
@@ -75194,7 +75181,7 @@
         <v>745</v>
       </c>
       <c r="X1020" s="22" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1021" spans="1:24" ht="15" customHeight="1">
@@ -75213,7 +75200,7 @@
         <v>45729</v>
       </c>
       <c r="E1021" s="25" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F1021" s="25" t="s">
         <v>424</v>
@@ -75245,7 +75232,7 @@
       </c>
       <c r="R1021" s="25"/>
       <c r="S1021" s="23" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="T1021" s="24"/>
       <c r="U1021" s="24"/>
@@ -75301,7 +75288,7 @@
       </c>
       <c r="R1022" s="25"/>
       <c r="S1022" s="23" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="T1022" s="24"/>
       <c r="U1022" s="24"/>
@@ -75310,7 +75297,7 @@
         <v>451</v>
       </c>
       <c r="X1022" s="22" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1023" spans="1:24" ht="15" customHeight="1">
@@ -75361,7 +75348,7 @@
       </c>
       <c r="R1023" s="25"/>
       <c r="S1023" s="23" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="T1023" s="24"/>
       <c r="U1023" s="24"/>
@@ -75372,6 +75359,58 @@
       <c r="X1023" s="22" t="s">
         <v>638</v>
       </c>
+    </row>
+    <row r="1024" spans="1:24" ht="15" customHeight="1">
+      <c r="A1024" s="85">
+        <f>YEAR(D1024)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1024" s="25">
+        <f>MONTH(D1024)</f>
+        <v>3</v>
+      </c>
+      <c r="C1024" s="42">
+        <v>1039</v>
+      </c>
+      <c r="D1024" s="56">
+        <v>45729</v>
+      </c>
+      <c r="E1024" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1024" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1024" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="H1024" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1024" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1024" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1024" s="56"/>
+      <c r="L1024" s="25"/>
+      <c r="M1024" s="56"/>
+      <c r="N1024" s="56"/>
+      <c r="O1024" s="25"/>
+      <c r="P1024" s="25"/>
+      <c r="Q1024" s="25">
+        <v>139</v>
+      </c>
+      <c r="R1024" s="25"/>
+      <c r="S1024" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="T1024" s="24"/>
+      <c r="U1024" s="24"/>
+      <c r="V1024" s="25"/>
+      <c r="W1024" s="22"/>
+      <c r="X1024" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
@@ -75379,7 +75418,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1023">
+  <conditionalFormatting sqref="J2:J1024">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3861" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18A9686F-EAF8-4C98-ADD2-705441CB313F}"/>
+  <xr:revisionPtr revIDLastSave="3871" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B410F001-3C86-4AA5-A21A-C69ECE7E1340}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16304" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16346" uniqueCount="864">
   <si>
     <t>ANO</t>
   </si>
@@ -2787,6 +2787,33 @@
   </si>
   <si>
     <t>CABEÇA D´ÁGUA VAZANDO (FAZER TROCAR DA MESMA)</t>
+  </si>
+  <si>
+    <t>Fabricação de Niple de união para mangueiras cristais de 1 polegada</t>
+  </si>
+  <si>
+    <t>07-25 VALE AS IS PDETBM -S11D</t>
+  </si>
+  <si>
+    <t>Retirada do implemento da INNRA e manutenção PREVENTIVA de 500 horas</t>
+  </si>
+  <si>
+    <t>, AVALIAÇÃO ESTRUTURAL, HIDRÁULICA E ELÉTRICA ANTES DE SUBIR PARA CARAJÁS</t>
+  </si>
+  <si>
+    <t>01- Suporte de garrafa térmica e galão abaixo da garrafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03 hastes de 0,80 cm ou 70 cm HQ
+02 hastes de 1,00 m HQ 
+02 hastes de 1,50 m HQ</t>
+  </si>
+  <si>
+    <t>SPT - 04</t>
+  </si>
+  <si>
+    <t>10 LUVAS DE AÇO DE 1"</t>
   </si>
 </sst>
 </file>
@@ -4105,8 +4132,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1024" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X1024" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1030" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X1030" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4450,10 +4477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA1024"/>
+  <dimension ref="A1:AA1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G972" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J1007" sqref="J1007"/>
+    <sheetView tabSelected="1" topLeftCell="A1017" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J1030" sqref="J1030"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -74285,7 +74312,7 @@
         <v>804</v>
       </c>
       <c r="J1005" s="55" t="s">
-        <v>428</v>
+        <v>516</v>
       </c>
       <c r="K1005" s="56">
         <v>45727</v>
@@ -75412,13 +75439,325 @@
       <c r="W1024" s="22"/>
       <c r="X1024" s="22"/>
     </row>
+    <row r="1025" spans="1:24" ht="15" customHeight="1">
+      <c r="A1025" s="85">
+        <f>YEAR(D1025)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1025" s="25">
+        <f>MONTH(D1025)</f>
+        <v>3</v>
+      </c>
+      <c r="C1025" s="42">
+        <v>1040</v>
+      </c>
+      <c r="D1025" s="56">
+        <v>45730</v>
+      </c>
+      <c r="E1025" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="F1025" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="G1025" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="H1025" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1025" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="J1025" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1025" s="56"/>
+      <c r="L1025" s="25"/>
+      <c r="M1025" s="56"/>
+      <c r="N1025" s="56"/>
+      <c r="O1025" s="25"/>
+      <c r="P1025" s="25"/>
+      <c r="Q1025" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1025" s="25"/>
+      <c r="S1025" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="T1025" s="24"/>
+      <c r="U1025" s="24"/>
+      <c r="V1025" s="25"/>
+      <c r="W1025" s="22"/>
+      <c r="X1025" s="22"/>
+    </row>
+    <row r="1026" spans="1:24" ht="15" customHeight="1">
+      <c r="A1026" s="85">
+        <f>YEAR(D1026)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1026" s="25">
+        <f>MONTH(D1026)</f>
+        <v>3</v>
+      </c>
+      <c r="C1026" s="42">
+        <v>1041</v>
+      </c>
+      <c r="D1026" s="56">
+        <v>45730</v>
+      </c>
+      <c r="E1026" s="25" t="s">
+        <v>857</v>
+      </c>
+      <c r="F1026" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="G1026" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="H1026" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1026" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1026" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1026" s="56"/>
+      <c r="L1026" s="25"/>
+      <c r="M1026" s="56"/>
+      <c r="N1026" s="56"/>
+      <c r="O1026" s="25"/>
+      <c r="P1026" s="25"/>
+      <c r="Q1026" s="25">
+        <v>472</v>
+      </c>
+      <c r="R1026" s="25"/>
+      <c r="S1026" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="T1026" s="24"/>
+      <c r="U1026" s="24"/>
+      <c r="V1026" s="25"/>
+      <c r="W1026" s="22"/>
+      <c r="X1026" s="22"/>
+    </row>
+    <row r="1027" spans="1:24" ht="15" customHeight="1">
+      <c r="A1027" s="85">
+        <f>YEAR(D1027)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1027" s="25">
+        <f>MONTH(D1027)</f>
+        <v>3</v>
+      </c>
+      <c r="C1027" s="42">
+        <v>1042</v>
+      </c>
+      <c r="D1027" s="56">
+        <v>45730</v>
+      </c>
+      <c r="E1027" s="25" t="s">
+        <v>857</v>
+      </c>
+      <c r="F1027" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1027" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1027" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1027" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1027" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1027" s="56"/>
+      <c r="L1027" s="25"/>
+      <c r="M1027" s="56"/>
+      <c r="N1027" s="56"/>
+      <c r="O1027" s="25"/>
+      <c r="P1027" s="25"/>
+      <c r="Q1027" s="25">
+        <v>437</v>
+      </c>
+      <c r="R1027" s="25"/>
+      <c r="S1027" s="23" t="s">
+        <v>859</v>
+      </c>
+      <c r="T1027" s="24"/>
+      <c r="U1027" s="24"/>
+      <c r="V1027" s="25"/>
+      <c r="W1027" s="22"/>
+      <c r="X1027" s="22"/>
+    </row>
+    <row r="1028" spans="1:24" ht="15" customHeight="1">
+      <c r="A1028" s="85">
+        <f>YEAR(D1028)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1028" s="25">
+        <f>MONTH(D1028)</f>
+        <v>3</v>
+      </c>
+      <c r="C1028" s="42">
+        <v>1043</v>
+      </c>
+      <c r="D1028" s="56">
+        <v>45730</v>
+      </c>
+      <c r="E1028" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1028" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1028" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1028" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1028" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="J1028" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1028" s="56"/>
+      <c r="L1028" s="25"/>
+      <c r="M1028" s="56"/>
+      <c r="N1028" s="56"/>
+      <c r="O1028" s="25"/>
+      <c r="P1028" s="25"/>
+      <c r="Q1028" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1028" s="25"/>
+      <c r="S1028" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="T1028" s="24"/>
+      <c r="U1028" s="24"/>
+      <c r="V1028" s="25"/>
+      <c r="W1028" s="22"/>
+      <c r="X1028" s="22"/>
+    </row>
+    <row r="1029" spans="1:24" ht="27" customHeight="1">
+      <c r="A1029" s="85">
+        <f>YEAR(D1029)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1029" s="25">
+        <f>MONTH(D1029)</f>
+        <v>3</v>
+      </c>
+      <c r="C1029" s="42">
+        <v>1044</v>
+      </c>
+      <c r="D1029" s="56">
+        <v>45730</v>
+      </c>
+      <c r="E1029" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1029" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1029" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="H1029" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1029" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="J1029" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1029" s="56"/>
+      <c r="L1029" s="25"/>
+      <c r="M1029" s="56"/>
+      <c r="N1029" s="56"/>
+      <c r="O1029" s="25"/>
+      <c r="P1029" s="25"/>
+      <c r="Q1029" s="25">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="R1029" s="25"/>
+      <c r="S1029" s="102" t="s">
+        <v>861</v>
+      </c>
+      <c r="T1029" s="24"/>
+      <c r="U1029" s="24"/>
+      <c r="V1029" s="25"/>
+      <c r="W1029" s="22"/>
+      <c r="X1029" s="22"/>
+    </row>
+    <row r="1030" spans="1:24" ht="15" customHeight="1">
+      <c r="A1030" s="85">
+        <f>YEAR(D1030)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1030" s="25">
+        <f>MONTH(D1030)</f>
+        <v>3</v>
+      </c>
+      <c r="C1030" s="42">
+        <v>1045</v>
+      </c>
+      <c r="D1030" s="56">
+        <v>45730</v>
+      </c>
+      <c r="E1030" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1030" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="G1030" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="H1030" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1030" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="J1030" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="K1030" s="56"/>
+      <c r="L1030" s="25"/>
+      <c r="M1030" s="56"/>
+      <c r="N1030" s="56"/>
+      <c r="O1030" s="25"/>
+      <c r="P1030" s="25"/>
+      <c r="Q1030" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1030" s="25"/>
+      <c r="S1030" s="23" t="s">
+        <v>863</v>
+      </c>
+      <c r="T1030" s="24"/>
+      <c r="U1030" s="24"/>
+      <c r="V1030" s="25"/>
+      <c r="W1030" s="22"/>
+      <c r="X1030" s="22"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
     <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="CANCELADA">
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1024">
+  <conditionalFormatting sqref="J2:J1030">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -75482,21 +75821,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -75673,14 +76003,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3871" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B410F001-3C86-4AA5-A21A-C69ECE7E1340}"/>
+  <xr:revisionPtr revIDLastSave="3872" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E84C66-DE8E-487E-8618-92D85DD4BF85}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -4479,7 +4479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
   <dimension ref="A1:AA1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1017" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1010" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="J1030" sqref="J1030"/>
     </sheetView>
   </sheetViews>
@@ -75730,7 +75730,7 @@
         <v>804</v>
       </c>
       <c r="J1030" s="55" t="s">
-        <v>516</v>
+        <v>29</v>
       </c>
       <c r="K1030" s="56"/>
       <c r="L1030" s="25"/>
@@ -75827,6 +75827,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -76003,23 +76012,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3872" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E84C66-DE8E-487E-8618-92D85DD4BF85}"/>
+  <xr:revisionPtr revIDLastSave="3874" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08008B23-C0A3-44DF-AF25-B6B5C526063D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16346" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16348" uniqueCount="864">
   <si>
     <t>ANO</t>
   </si>
@@ -4479,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
   <dimension ref="A1:AA1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1010" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J1030" sqref="J1030"/>
+    <sheetView tabSelected="1" topLeftCell="S1015" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X1029" sqref="X1029"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -75696,8 +75696,12 @@
       <c r="T1029" s="24"/>
       <c r="U1029" s="24"/>
       <c r="V1029" s="25"/>
-      <c r="W1029" s="22"/>
-      <c r="X1029" s="22"/>
+      <c r="W1029" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="X1029" s="22" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="1030" spans="1:24" ht="15" customHeight="1">
       <c r="A1030" s="85">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3874" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08008B23-C0A3-44DF-AF25-B6B5C526063D}"/>
+  <xr:revisionPtr revIDLastSave="3883" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA200565-F92A-4D8D-9FBB-FF9232D12D3F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16348" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16363" uniqueCount="866">
   <si>
     <t>ANO</t>
   </si>
@@ -2814,6 +2814,12 @@
   </si>
   <si>
     <t>10 LUVAS DE AÇO DE 1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabricação de 10 luva liza hq , 2 calibrado para sapata nw para hq </t>
+  </si>
+  <si>
+    <t>Inspeção e manutenção corretiva no solenoide ou troca da bateria, verificação de local de vazamento de óleo hidráulico.</t>
   </si>
 </sst>
 </file>
@@ -4132,8 +4138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1030" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X1030" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1032" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X1032" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4477,10 +4483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA1030"/>
+  <dimension ref="A1:AA1032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1015" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X1029" sqref="X1029"/>
+    <sheetView tabSelected="1" topLeftCell="S993" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T1005" sqref="T1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -74332,12 +74338,8 @@
       <c r="T1005" s="24"/>
       <c r="U1005" s="24"/>
       <c r="V1005" s="25"/>
-      <c r="W1005" s="107" t="s">
-        <v>451</v>
-      </c>
-      <c r="X1005" s="22" t="s">
-        <v>801</v>
-      </c>
+      <c r="W1005" s="107"/>
+      <c r="X1005" s="22"/>
     </row>
     <row r="1006" spans="1:24" ht="15" customHeight="1">
       <c r="A1006" s="85">
@@ -75436,7 +75438,9 @@
       <c r="T1024" s="24"/>
       <c r="U1024" s="24"/>
       <c r="V1024" s="25"/>
-      <c r="W1024" s="22"/>
+      <c r="W1024" s="22" t="s">
+        <v>745</v>
+      </c>
       <c r="X1024" s="22"/>
     </row>
     <row r="1025" spans="1:24" ht="15" customHeight="1">
@@ -75470,7 +75474,7 @@
         <v>804</v>
       </c>
       <c r="J1025" s="55" t="s">
-        <v>449</v>
+        <v>60</v>
       </c>
       <c r="K1025" s="56"/>
       <c r="L1025" s="25"/>
@@ -75540,7 +75544,9 @@
       <c r="T1026" s="24"/>
       <c r="U1026" s="24"/>
       <c r="V1026" s="25"/>
-      <c r="W1026" s="22"/>
+      <c r="W1026" s="22" t="s">
+        <v>745</v>
+      </c>
       <c r="X1026" s="22"/>
     </row>
     <row r="1027" spans="1:24" ht="15" customHeight="1">
@@ -75592,7 +75598,9 @@
       <c r="T1027" s="24"/>
       <c r="U1027" s="24"/>
       <c r="V1027" s="25"/>
-      <c r="W1027" s="22"/>
+      <c r="W1027" s="22" t="s">
+        <v>745</v>
+      </c>
       <c r="X1027" s="22"/>
     </row>
     <row r="1028" spans="1:24" ht="15" customHeight="1">
@@ -75626,7 +75634,7 @@
         <v>804</v>
       </c>
       <c r="J1028" s="55" t="s">
-        <v>449</v>
+        <v>29</v>
       </c>
       <c r="K1028" s="56"/>
       <c r="L1028" s="25"/>
@@ -75755,13 +75763,117 @@
       <c r="W1030" s="22"/>
       <c r="X1030" s="22"/>
     </row>
+    <row r="1031" spans="1:24" ht="15" customHeight="1">
+      <c r="A1031" s="85">
+        <f>YEAR(D1031)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1031" s="25">
+        <f>MONTH(D1031)</f>
+        <v>3</v>
+      </c>
+      <c r="C1031" s="42">
+        <v>1046</v>
+      </c>
+      <c r="D1031" s="56">
+        <v>45733</v>
+      </c>
+      <c r="E1031" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1031" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1031" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="H1031" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1031" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="J1031" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1031" s="56"/>
+      <c r="L1031" s="25"/>
+      <c r="M1031" s="56"/>
+      <c r="N1031" s="56"/>
+      <c r="O1031" s="25"/>
+      <c r="P1031" s="25"/>
+      <c r="Q1031" s="25">
+        <v>6</v>
+      </c>
+      <c r="R1031" s="25"/>
+      <c r="S1031" s="23" t="s">
+        <v>864</v>
+      </c>
+      <c r="T1031" s="24"/>
+      <c r="U1031" s="24"/>
+      <c r="V1031" s="25"/>
+      <c r="W1031" s="22"/>
+      <c r="X1031" s="22"/>
+    </row>
+    <row r="1032" spans="1:24" ht="15" customHeight="1">
+      <c r="A1032" s="85">
+        <f>YEAR(D1032)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1032" s="25">
+        <f>MONTH(D1032)</f>
+        <v>3</v>
+      </c>
+      <c r="C1032" s="42">
+        <v>1047</v>
+      </c>
+      <c r="D1032" s="56">
+        <v>45733</v>
+      </c>
+      <c r="E1032" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1032" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1032" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1032" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1032" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="J1032" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1032" s="56"/>
+      <c r="L1032" s="25"/>
+      <c r="M1032" s="56"/>
+      <c r="N1032" s="56"/>
+      <c r="O1032" s="25"/>
+      <c r="P1032" s="25"/>
+      <c r="Q1032" s="25">
+        <v>5853</v>
+      </c>
+      <c r="R1032" s="25"/>
+      <c r="S1032" s="23" t="s">
+        <v>865</v>
+      </c>
+      <c r="T1032" s="24"/>
+      <c r="U1032" s="24"/>
+      <c r="V1032" s="25"/>
+      <c r="W1032" s="22"/>
+      <c r="X1032" s="22"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
     <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="CANCELADA">
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1030">
+  <conditionalFormatting sqref="J2:J1032">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -75825,12 +75937,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -75839,7 +75945,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -76016,14 +76122,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3883" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA200565-F92A-4D8D-9FBB-FF9232D12D3F}"/>
+  <xr:revisionPtr revIDLastSave="3888" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A47B2B-36C7-4494-B270-4D531EA7A776}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16363" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16363" uniqueCount="867">
   <si>
     <t>ANO</t>
   </si>
@@ -2694,6 +2694,9 @@
   </si>
   <si>
     <t>11 CAPACETES PARA INSTRUMENTOS</t>
+  </si>
+  <si>
+    <t>Aguardando retirada</t>
   </si>
   <si>
     <t>Joardson de Jesus Rodrigues</t>
@@ -2917,7 +2920,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3154,19 +3157,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -3178,7 +3168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3496,13 +3486,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4485,8 +4472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
   <dimension ref="A1:AA1032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S993" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="T1005" sqref="T1005"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W906" sqref="W906:W1012"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -71304,7 +71291,7 @@
         <v>35</v>
       </c>
       <c r="J953" s="55" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="K953" s="56"/>
       <c r="L953" s="25"/>
@@ -71322,9 +71309,7 @@
       <c r="T953" s="24"/>
       <c r="U953" s="24"/>
       <c r="V953" s="25"/>
-      <c r="W953" s="22" t="s">
-        <v>637</v>
-      </c>
+      <c r="W953" s="6"/>
       <c r="X953" s="22" t="s">
         <v>638</v>
       </c>
@@ -71567,7 +71552,7 @@
       <c r="W957" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="X957" s="110" t="s">
+      <c r="X957" s="109" t="s">
         <v>442</v>
       </c>
     </row>
@@ -73215,7 +73200,7 @@
       <c r="W986" s="22" t="s">
         <v>745</v>
       </c>
-      <c r="X986" s="110" t="s">
+      <c r="X986" s="109" t="s">
         <v>798</v>
       </c>
     </row>
@@ -73629,7 +73614,7 @@
       <c r="W993" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="X993" s="110" t="s">
+      <c r="X993" s="109" t="s">
         <v>809</v>
       </c>
     </row>
@@ -74324,7 +74309,9 @@
         <v>45727</v>
       </c>
       <c r="L1005" s="25"/>
-      <c r="M1005" s="56"/>
+      <c r="M1005" s="56">
+        <v>45730</v>
+      </c>
       <c r="N1005" s="56"/>
       <c r="O1005" s="25"/>
       <c r="P1005" s="25"/>
@@ -74336,10 +74323,14 @@
         <v>825</v>
       </c>
       <c r="T1005" s="24"/>
-      <c r="U1005" s="24"/>
+      <c r="U1005" s="24">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="V1005" s="25"/>
-      <c r="W1005" s="107"/>
-      <c r="X1005" s="22"/>
+      <c r="W1005" s="6"/>
+      <c r="X1005" s="22" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="1006" spans="1:24" ht="15" customHeight="1">
       <c r="A1006" s="85">
@@ -74363,7 +74354,7 @@
         <v>130</v>
       </c>
       <c r="G1006" s="25" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1006" s="25" t="s">
         <v>297</v>
@@ -74385,12 +74376,12 @@
       </c>
       <c r="R1006" s="25"/>
       <c r="S1006" s="23" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="T1006" s="24"/>
       <c r="U1006" s="24"/>
       <c r="V1006" s="25"/>
-      <c r="W1006" s="109" t="s">
+      <c r="W1006" s="108" t="s">
         <v>637</v>
       </c>
       <c r="X1006" s="22" t="s">
@@ -74445,12 +74436,12 @@
       </c>
       <c r="R1007" s="25"/>
       <c r="S1007" s="23" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="T1007" s="24"/>
       <c r="U1007" s="24"/>
       <c r="V1007" s="25"/>
-      <c r="W1007" s="108"/>
+      <c r="W1007" s="107"/>
       <c r="X1007" s="22"/>
     </row>
     <row r="1008" spans="1:24" ht="15" customHeight="1">
@@ -74475,7 +74466,7 @@
         <v>553</v>
       </c>
       <c r="G1008" s="25" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1008" s="25" t="s">
         <v>297</v>
@@ -74499,7 +74490,7 @@
       </c>
       <c r="R1008" s="25"/>
       <c r="S1008" s="23" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="T1008" s="24">
         <v>0.375</v>
@@ -74512,7 +74503,7 @@
         <v>441</v>
       </c>
       <c r="X1008" s="22" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1009" spans="1:24" ht="15" customHeight="1">
@@ -74559,7 +74550,7 @@
       </c>
       <c r="R1009" s="25"/>
       <c r="S1009" s="23" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="T1009" s="24"/>
       <c r="U1009" s="24"/>
@@ -74615,7 +74606,7 @@
       </c>
       <c r="R1010" s="25"/>
       <c r="S1010" s="23" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="T1010" s="24"/>
       <c r="U1010" s="24"/>
@@ -74673,7 +74664,7 @@
       </c>
       <c r="R1011" s="25"/>
       <c r="S1011" s="23" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="T1011" s="24">
         <v>0.58333333333333337</v>
@@ -74684,7 +74675,7 @@
         <v>451</v>
       </c>
       <c r="X1011" s="22" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1012" spans="1:24" ht="28.5" customHeight="1">
@@ -74731,12 +74722,12 @@
       </c>
       <c r="R1012" s="25"/>
       <c r="S1012" s="102" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="T1012" s="24"/>
       <c r="U1012" s="24"/>
       <c r="V1012" s="25"/>
-      <c r="W1012" s="22"/>
+      <c r="W1012" s="6"/>
       <c r="X1012" s="22"/>
     </row>
     <row r="1013" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -74789,7 +74780,7 @@
       </c>
       <c r="R1013" s="25"/>
       <c r="S1013" s="102" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="T1013" s="24"/>
       <c r="U1013" s="24">
@@ -74845,7 +74836,7 @@
       </c>
       <c r="R1014" s="25"/>
       <c r="S1014" s="23" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="T1014" s="24"/>
       <c r="U1014" s="24"/>
@@ -74905,7 +74896,7 @@
       </c>
       <c r="R1015" s="18"/>
       <c r="S1015" s="17" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="T1015" s="21"/>
       <c r="U1015" s="21"/>
@@ -74936,7 +74927,7 @@
         <v>466</v>
       </c>
       <c r="F1016" s="25" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G1016" s="25" t="s">
         <v>575</v>
@@ -74961,9 +74952,9 @@
       <c r="Q1016" s="25">
         <v>511</v>
       </c>
-      <c r="R1016" s="111"/>
-      <c r="S1016" s="112" t="s">
-        <v>841</v>
+      <c r="R1016" s="110"/>
+      <c r="S1016" s="111" t="s">
+        <v>842</v>
       </c>
       <c r="T1016" s="21"/>
       <c r="U1016" s="21"/>
@@ -74972,7 +74963,7 @@
         <v>745</v>
       </c>
       <c r="X1016" s="22" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1017" spans="1:24" ht="15" customHeight="1">
@@ -75023,7 +75014,7 @@
       </c>
       <c r="R1017" s="25"/>
       <c r="S1017" s="23" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="T1017" s="24"/>
       <c r="U1017" s="24"/>
@@ -75032,7 +75023,7 @@
         <v>451</v>
       </c>
       <c r="X1017" s="22" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1018" spans="1:24" ht="40.5" customHeight="1">
@@ -75079,7 +75070,7 @@
       </c>
       <c r="R1018" s="25"/>
       <c r="S1018" s="102" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="T1018" s="24"/>
       <c r="U1018" s="24"/>
@@ -75088,7 +75079,7 @@
         <v>451</v>
       </c>
       <c r="X1018" s="22" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1019" spans="1:24" ht="15" customHeight="1">
@@ -75137,7 +75128,7 @@
       </c>
       <c r="R1019" s="25"/>
       <c r="S1019" s="23" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="T1019" s="24">
         <v>0.58333333333333337</v>
@@ -75148,7 +75139,7 @@
         <v>745</v>
       </c>
       <c r="X1019" s="22" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1020" spans="1:24" ht="15" customHeight="1">
@@ -75210,7 +75201,7 @@
         <v>745</v>
       </c>
       <c r="X1020" s="22" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1021" spans="1:24" ht="15" customHeight="1">
@@ -75229,7 +75220,7 @@
         <v>45729</v>
       </c>
       <c r="E1021" s="25" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F1021" s="25" t="s">
         <v>424</v>
@@ -75261,7 +75252,7 @@
       </c>
       <c r="R1021" s="25"/>
       <c r="S1021" s="23" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="T1021" s="24"/>
       <c r="U1021" s="24"/>
@@ -75317,7 +75308,7 @@
       </c>
       <c r="R1022" s="25"/>
       <c r="S1022" s="23" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="T1022" s="24"/>
       <c r="U1022" s="24"/>
@@ -75326,7 +75317,7 @@
         <v>451</v>
       </c>
       <c r="X1022" s="22" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1023" spans="1:24" ht="15" customHeight="1">
@@ -75377,7 +75368,7 @@
       </c>
       <c r="R1023" s="25"/>
       <c r="S1023" s="23" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="T1023" s="24"/>
       <c r="U1023" s="24"/>
@@ -75433,7 +75424,7 @@
       </c>
       <c r="R1024" s="25"/>
       <c r="S1024" s="23" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="T1024" s="24"/>
       <c r="U1024" s="24"/>
@@ -75487,7 +75478,7 @@
       </c>
       <c r="R1025" s="25"/>
       <c r="S1025" s="23" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="T1025" s="24"/>
       <c r="U1025" s="24"/>
@@ -75511,7 +75502,7 @@
         <v>45730</v>
       </c>
       <c r="E1026" s="25" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F1026" s="25" t="s">
         <v>531</v>
@@ -75539,7 +75530,7 @@
       </c>
       <c r="R1026" s="25"/>
       <c r="S1026" s="23" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="T1026" s="24"/>
       <c r="U1026" s="24"/>
@@ -75565,7 +75556,7 @@
         <v>45730</v>
       </c>
       <c r="E1027" s="25" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F1027" s="25" t="s">
         <v>39</v>
@@ -75593,7 +75584,7 @@
       </c>
       <c r="R1027" s="25"/>
       <c r="S1027" s="23" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="T1027" s="24"/>
       <c r="U1027" s="24"/>
@@ -75647,7 +75638,7 @@
       </c>
       <c r="R1028" s="25"/>
       <c r="S1028" s="23" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="T1028" s="24"/>
       <c r="U1028" s="24"/>
@@ -75699,7 +75690,7 @@
       </c>
       <c r="R1029" s="25"/>
       <c r="S1029" s="102" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="T1029" s="24"/>
       <c r="U1029" s="24"/>
@@ -75730,7 +75721,7 @@
         <v>47</v>
       </c>
       <c r="F1030" s="25" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G1030" s="25" t="s">
         <v>641</v>
@@ -75755,7 +75746,7 @@
       </c>
       <c r="R1030" s="25"/>
       <c r="S1030" s="23" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="T1030" s="24"/>
       <c r="U1030" s="24"/>
@@ -75807,7 +75798,7 @@
       </c>
       <c r="R1031" s="25"/>
       <c r="S1031" s="23" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="T1031" s="24"/>
       <c r="U1031" s="24"/>
@@ -75859,7 +75850,7 @@
       </c>
       <c r="R1032" s="25"/>
       <c r="S1032" s="23" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="T1032" s="24"/>
       <c r="U1032" s="24"/>
@@ -75937,12 +75928,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76123,13 +76111,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76137,5 +76128,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3888" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A47B2B-36C7-4494-B270-4D531EA7A776}"/>
+  <xr:revisionPtr revIDLastSave="3949" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{584C564B-F891-4CAF-9C62-E5A74F4F74B1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16363" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16387" uniqueCount="873">
   <si>
     <t>ANO</t>
   </si>
@@ -1481,7 +1481,7 @@
     <t>Trocar tela por chapa de aço e pintar armário da equipe da civil.</t>
   </si>
   <si>
-    <t>Aguardando finalização dos itens da passarela</t>
+    <t>Aguardando munck para levar a cabine</t>
   </si>
   <si>
     <t>S23 - MACH 700</t>
@@ -1758,6 +1758,9 @@
   </si>
   <si>
     <t>Malão para SPT</t>
+  </si>
+  <si>
+    <t>10232 e 10226</t>
   </si>
   <si>
     <t xml:space="preserve">Aguardando material </t>
@@ -1884,6 +1887,9 @@
   </si>
   <si>
     <t>2 FORMAS DE 50 X 50 CM PARA CONCRETAR</t>
+  </si>
+  <si>
+    <t>Aguardando material 1/2</t>
   </si>
   <si>
     <t>SPT - 05</t>
@@ -2335,6 +2341,9 @@
     <t>Preventiva da maquina; Vazamento no motor; Alavanca da embreagem desregulada (não fecha o sensor); Regular alavanca da caixa de transferência; Grade frontal empenada no lado dos comandos; Solda em proteção traseira; Trocar cabeça d´água; Substituir mangote por um de 10 mts; Substituir haste da agulha do mandril; Abrir e verificar cabeça hidráulica; Trocar botoeiras que não acionam; Trocar Overshot; Substituir sensor da grade por magnético; Trocar registros da cabeça d´água e poço de retorno; Solda no tubo de descarga;</t>
   </si>
   <si>
+    <t>Em processo - em teste</t>
+  </si>
+  <si>
     <t>069-23 EFC E RFSP</t>
   </si>
   <si>
@@ -2490,7 +2499,7 @@
     <t>Fabricação de 250 luvas de percussão</t>
   </si>
   <si>
-    <t>Aguardando materiais utilizados para sua fabricação</t>
+    <t>Em processo 20/250</t>
   </si>
   <si>
     <t>Abrir entrada do pescador HW para entrada de haste HQ e Fabricação de cabeça de Bater SPT para sonda S-62</t>
@@ -2618,7 +2627,7 @@
     <t>Fabricar proteções para motores brancos com partida elétrica.</t>
   </si>
   <si>
-    <t xml:space="preserve">Em processo </t>
+    <t>aguardando barra chata para fcontinua fabricação</t>
   </si>
   <si>
     <t xml:space="preserve">Problema na morca </t>
@@ -2650,10 +2659,13 @@
     <t>03 haste NQ c/ 1,5m</t>
   </si>
   <si>
+    <t>Aguardando materiais utilizados para sua fabricação</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fabricação de suporte para capacetes </t>
   </si>
   <si>
-    <t>Fábrica dois pares de cavaleta para hastes/revestimento.</t>
+    <t>Fábrica dois pares de cavaletes para hastes/revestimento.</t>
   </si>
   <si>
     <t>Programar para iniciar fabricação amanhã 14/03</t>
@@ -2823,6 +2835,12 @@
   </si>
   <si>
     <t>Inspeção e manutenção corretiva no solenoide ou troca da bateria, verificação de local de vazamento de óleo hidráulico.</t>
+  </si>
+  <si>
+    <t>Manutenção bombo d'água (vazamento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">troca do fusivel conforme a foto do whatsapp. O eletricista vai ter que comparecer na frente. </t>
   </si>
 </sst>
 </file>
@@ -2882,7 +2900,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2916,6 +2934,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3168,7 +3192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3500,6 +3524,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4125,8 +4152,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1032" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X1032" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1034" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X1034" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4470,10 +4497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:AA1032"/>
+  <dimension ref="A1:Z1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W906" sqref="W906:W1012"/>
+    <sheetView tabSelected="1" topLeftCell="S1023" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W1037" sqref="W1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -4501,7 +4528,6 @@
     <col min="22" max="22" width="10.7109375" style="86" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22" style="86" customWidth="1"/>
     <col min="24" max="24" width="83.85546875" style="86" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -54721,7 +54747,7 @@
         <v>24</v>
       </c>
       <c r="V690" s="1">
-        <v>8479</v>
+        <v>8497</v>
       </c>
       <c r="W690" s="5" t="s">
         <v>451</v>
@@ -59685,7 +59711,7 @@
         <v>35</v>
       </c>
       <c r="J759" s="1" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="K759" s="44">
         <v>45674</v>
@@ -59753,7 +59779,7 @@
         <v>35</v>
       </c>
       <c r="J760" s="1" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K760" s="44">
         <v>45674</v>
@@ -62010,12 +62036,14 @@
       </c>
       <c r="T791" s="1"/>
       <c r="U791" s="1"/>
-      <c r="V791" s="1"/>
+      <c r="V791" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="W791" s="5" t="s">
         <v>451</v>
       </c>
       <c r="X791" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="792" spans="1:24">
@@ -62062,12 +62090,14 @@
       </c>
       <c r="T792" s="1"/>
       <c r="U792" s="1"/>
-      <c r="V792" s="1"/>
+      <c r="V792" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="W792" s="5" t="s">
         <v>451</v>
       </c>
       <c r="X792" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="793" spans="1:24">
@@ -62114,12 +62144,14 @@
       </c>
       <c r="T793" s="1"/>
       <c r="U793" s="1"/>
-      <c r="V793" s="1"/>
+      <c r="V793" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="W793" s="5" t="s">
         <v>451</v>
       </c>
       <c r="X793" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="794" spans="1:24">
@@ -62166,12 +62198,14 @@
       </c>
       <c r="T794" s="1"/>
       <c r="U794" s="1"/>
-      <c r="V794" s="1"/>
+      <c r="V794" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="W794" s="5" t="s">
         <v>451</v>
       </c>
       <c r="X794" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="795" spans="1:24" hidden="1">
@@ -62218,7 +62252,7 @@
       <c r="Q795" s="1"/>
       <c r="R795" s="1"/>
       <c r="S795" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="T795" s="1"/>
       <c r="U795" s="1"/>
@@ -62270,7 +62304,7 @@
       <c r="Q796" s="1"/>
       <c r="R796" s="1"/>
       <c r="S796" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T796" s="1"/>
       <c r="U796" s="1"/>
@@ -62322,7 +62356,7 @@
       <c r="Q797" s="1"/>
       <c r="R797" s="1"/>
       <c r="S797" s="91" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="T797" s="1"/>
       <c r="U797" s="1"/>
@@ -62374,7 +62408,7 @@
       <c r="Q798" s="1"/>
       <c r="R798" s="1"/>
       <c r="S798" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T798" s="1"/>
       <c r="U798" s="1"/>
@@ -62403,16 +62437,16 @@
         <v>469</v>
       </c>
       <c r="F799" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G799" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H799" s="1" t="s">
         <v>299</v>
       </c>
       <c r="I799" s="43" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J799" s="1" t="s">
         <v>29</v>
@@ -62432,13 +62466,13 @@
       </c>
       <c r="P799" s="1"/>
       <c r="Q799" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="R799" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S799" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T799" s="8">
         <v>0.5625</v>
@@ -62494,7 +62528,7 @@
       <c r="Q800" s="1"/>
       <c r="R800" s="1"/>
       <c r="S800" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="T800" s="1"/>
       <c r="U800" s="1"/>
@@ -62546,7 +62580,7 @@
       <c r="Q801" s="1"/>
       <c r="R801" s="1"/>
       <c r="S801" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T801" s="1"/>
       <c r="U801" s="1"/>
@@ -62575,10 +62609,10 @@
         <v>469</v>
       </c>
       <c r="F802" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G802" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H802" s="1" t="s">
         <v>297</v>
@@ -62598,7 +62632,7 @@
       <c r="Q802" s="1"/>
       <c r="R802" s="1"/>
       <c r="S802" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T802" s="1"/>
       <c r="U802" s="1"/>
@@ -62625,10 +62659,10 @@
         <v>469</v>
       </c>
       <c r="F803" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G803" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H803" s="1" t="s">
         <v>297</v>
@@ -62648,7 +62682,7 @@
       <c r="Q803" s="1"/>
       <c r="R803" s="1"/>
       <c r="S803" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T803" s="1"/>
       <c r="U803" s="1"/>
@@ -62675,10 +62709,10 @@
         <v>457</v>
       </c>
       <c r="F804" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G804" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H804" s="1" t="s">
         <v>297</v>
@@ -62698,7 +62732,7 @@
       <c r="Q804" s="1"/>
       <c r="R804" s="1"/>
       <c r="S804" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="T804" s="1"/>
       <c r="U804" s="1"/>
@@ -62722,7 +62756,7 @@
         <v>45681</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F805" s="1" t="s">
         <v>25</v>
@@ -62750,7 +62784,7 @@
       <c r="Q805" s="1"/>
       <c r="R805" s="1"/>
       <c r="S805" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="T805" s="1"/>
       <c r="U805" s="1"/>
@@ -62779,7 +62813,7 @@
         <v>457</v>
       </c>
       <c r="F806" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G806" s="1"/>
       <c r="H806" s="1" t="s">
@@ -62804,7 +62838,7 @@
       <c r="Q806" s="1"/>
       <c r="R806" s="1"/>
       <c r="S806" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="T806" s="1"/>
       <c r="U806" s="1"/>
@@ -62830,10 +62864,10 @@
         <v>45681</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F807" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G807" s="3"/>
       <c r="H807" s="3" t="s">
@@ -62918,7 +62952,7 @@
         <v>434</v>
       </c>
       <c r="S808" s="92" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="T808" s="7">
         <v>0.375</v>
@@ -62946,13 +62980,13 @@
         <v>45681</v>
       </c>
       <c r="E809" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F809" s="3" t="s">
         <v>531</v>
       </c>
       <c r="G809" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H809" s="3" t="s">
         <v>297</v>
@@ -62978,7 +63012,7 @@
       </c>
       <c r="R809" s="3"/>
       <c r="S809" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="T809" s="7">
         <v>0.41666666666666669</v>
@@ -63011,10 +63045,10 @@
         <v>47</v>
       </c>
       <c r="F810" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G810" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H810" s="3" t="s">
         <v>297</v>
@@ -63034,7 +63068,7 @@
       <c r="Q810" s="3"/>
       <c r="R810" s="3"/>
       <c r="S810" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="T810" s="3"/>
       <c r="U810" s="3"/>
@@ -63066,7 +63100,7 @@
         <v>289</v>
       </c>
       <c r="G811" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H811" s="3" t="s">
         <v>299</v>
@@ -63090,7 +63124,7 @@
       </c>
       <c r="R811" s="3"/>
       <c r="S811" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="T811" s="7">
         <v>0.33333333333333331</v>
@@ -63123,10 +63157,10 @@
         <v>457</v>
       </c>
       <c r="F812" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G812" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H812" s="1" t="s">
         <v>297</v>
@@ -63146,7 +63180,7 @@
       <c r="Q812" s="1"/>
       <c r="R812" s="1"/>
       <c r="S812" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="T812" s="1"/>
       <c r="U812" s="1"/>
@@ -63155,7 +63189,7 @@
         <v>451</v>
       </c>
       <c r="X812" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="813" spans="1:24" hidden="1">
@@ -63174,7 +63208,7 @@
         <v>45684</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F813" s="1" t="s">
         <v>39</v>
@@ -63202,7 +63236,7 @@
       <c r="Q813" s="1"/>
       <c r="R813" s="1"/>
       <c r="S813" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T813" s="1"/>
       <c r="U813" s="1"/>
@@ -63232,7 +63266,7 @@
         <v>263</v>
       </c>
       <c r="G814" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H814" s="1" t="s">
         <v>297</v>
@@ -63256,7 +63290,7 @@
       <c r="Q814" s="1"/>
       <c r="R814" s="1"/>
       <c r="S814" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T814" s="1"/>
       <c r="U814" s="1"/>
@@ -63288,7 +63322,7 @@
         <v>228</v>
       </c>
       <c r="G815" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H815" s="1" t="s">
         <v>297</v>
@@ -63318,7 +63352,7 @@
         <v>434</v>
       </c>
       <c r="S815" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T815" s="8">
         <v>0.56944444444444442</v>
@@ -63354,7 +63388,7 @@
         <v>279</v>
       </c>
       <c r="G816" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H816" s="3" t="s">
         <v>297</v>
@@ -63384,7 +63418,7 @@
         <v>434</v>
       </c>
       <c r="S816" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="T816" s="7">
         <v>0.58333333333333337</v>
@@ -63397,7 +63431,7 @@
         <v>451</v>
       </c>
       <c r="X816" s="11" t="s">
-        <v>539</v>
+        <v>580</v>
       </c>
     </row>
     <row r="817" spans="1:24" hidden="1">
@@ -63419,10 +63453,10 @@
         <v>47</v>
       </c>
       <c r="F817" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G817" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H817" s="1" t="s">
         <v>297</v>
@@ -63444,7 +63478,7 @@
       <c r="Q817" s="1"/>
       <c r="R817" s="1"/>
       <c r="S817" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="T817" s="1"/>
       <c r="U817" s="1"/>
@@ -63470,13 +63504,13 @@
         <v>45684</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F818" s="1" t="s">
         <v>531</v>
       </c>
       <c r="G818" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H818" s="1" t="s">
         <v>299</v>
@@ -63500,7 +63534,7 @@
       <c r="Q818" s="1"/>
       <c r="R818" s="1"/>
       <c r="S818" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="T818" s="1"/>
       <c r="U818" s="1"/>
@@ -63532,7 +63566,7 @@
         <v>447</v>
       </c>
       <c r="G819" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H819" s="1" t="s">
         <v>297</v>
@@ -63556,7 +63590,7 @@
       <c r="Q819" s="1"/>
       <c r="R819" s="1"/>
       <c r="S819" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="T819" s="1"/>
       <c r="U819" s="1"/>
@@ -63588,7 +63622,7 @@
         <v>447</v>
       </c>
       <c r="G820" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H820" s="1" t="s">
         <v>297</v>
@@ -63636,7 +63670,7 @@
         <v>263</v>
       </c>
       <c r="G821" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H821" s="1" t="s">
         <v>299</v>
@@ -63658,11 +63692,11 @@
       <c r="O821" s="1"/>
       <c r="P821" s="1"/>
       <c r="Q821" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="R821" s="1"/>
       <c r="S821" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="T821" s="8">
         <v>0.61111111111111116</v>
@@ -63698,7 +63732,7 @@
         <v>295</v>
       </c>
       <c r="G822" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H822" s="1" t="s">
         <v>299</v>
@@ -63720,11 +63754,11 @@
       <c r="O822" s="1"/>
       <c r="P822" s="1"/>
       <c r="Q822" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="R822" s="1"/>
       <c r="S822" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="T822" s="8">
         <v>0.33333333333333331</v>
@@ -63754,13 +63788,13 @@
         <v>45684</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F823" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G823" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H823" s="1" t="s">
         <v>299</v>
@@ -63782,11 +63816,11 @@
       <c r="O823" s="1"/>
       <c r="P823" s="1"/>
       <c r="Q823" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="R823" s="1"/>
       <c r="S823" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="T823" s="8">
         <v>0.38055555555555554</v>
@@ -63822,7 +63856,7 @@
         <v>306</v>
       </c>
       <c r="G824" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H824" s="1" t="s">
         <v>297</v>
@@ -63846,7 +63880,7 @@
       <c r="Q824" s="1"/>
       <c r="R824" s="1"/>
       <c r="S824" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="T824" s="8"/>
       <c r="U824" s="8"/>
@@ -63878,7 +63912,7 @@
         <v>111</v>
       </c>
       <c r="G825" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H825" s="1" t="s">
         <v>297</v>
@@ -63902,7 +63936,7 @@
       <c r="Q825" s="1"/>
       <c r="R825" s="1"/>
       <c r="S825" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="T825" s="1"/>
       <c r="U825" s="1"/>
@@ -63934,7 +63968,7 @@
         <v>76</v>
       </c>
       <c r="G826" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H826" s="1" t="s">
         <v>297</v>
@@ -63958,7 +63992,7 @@
       <c r="Q826" s="1"/>
       <c r="R826" s="1"/>
       <c r="S826" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="T826" s="1"/>
       <c r="U826" s="1"/>
@@ -63990,7 +64024,7 @@
         <v>279</v>
       </c>
       <c r="G827" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H827" s="1" t="s">
         <v>297</v>
@@ -64014,7 +64048,7 @@
       <c r="Q827" s="1"/>
       <c r="R827" s="1"/>
       <c r="S827" s="93" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="T827" s="1"/>
       <c r="U827" s="1"/>
@@ -64046,7 +64080,7 @@
         <v>111</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H828" s="1" t="s">
         <v>299</v>
@@ -64068,11 +64102,11 @@
       <c r="O828" s="1"/>
       <c r="P828" s="1"/>
       <c r="Q828" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="R828" s="1"/>
       <c r="S828" s="13" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="T828" s="8">
         <v>0.41666666666666669</v>
@@ -64108,7 +64142,7 @@
         <v>186</v>
       </c>
       <c r="G829" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H829" s="1" t="s">
         <v>299</v>
@@ -64130,11 +64164,11 @@
       <c r="O829" s="1"/>
       <c r="P829" s="1"/>
       <c r="Q829" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="R829" s="1"/>
       <c r="S829" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="T829" s="8">
         <v>0.4375</v>
@@ -64170,7 +64204,7 @@
         <v>279</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H830" s="1" t="s">
         <v>299</v>
@@ -64190,7 +64224,7 @@
       <c r="Q830" s="1"/>
       <c r="R830" s="1"/>
       <c r="S830" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="T830" s="1"/>
       <c r="U830" s="1"/>
@@ -64214,7 +64248,7 @@
         <v>45686</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F831" s="1" t="s">
         <v>130</v>
@@ -64244,7 +64278,7 @@
       <c r="Q831" s="1"/>
       <c r="R831" s="1"/>
       <c r="S831" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="T831" s="1"/>
       <c r="U831" s="1"/>
@@ -64273,10 +64307,10 @@
         <v>457</v>
       </c>
       <c r="F832" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G832" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H832" s="1" t="s">
         <v>297</v>
@@ -64300,7 +64334,7 @@
       <c r="Q832" s="1"/>
       <c r="R832" s="1"/>
       <c r="S832" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="T832" s="1"/>
       <c r="U832" s="1"/>
@@ -64310,7 +64344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="833" spans="1:27" ht="76.5" hidden="1">
+    <row r="833" spans="1:26" ht="76.5" hidden="1">
       <c r="A833" s="45">
         <f>YEAR(D833)</f>
         <v>2025</v>
@@ -64329,10 +64363,10 @@
         <v>469</v>
       </c>
       <c r="F833" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G833" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H833" s="1" t="s">
         <v>297</v>
@@ -64356,7 +64390,7 @@
       <c r="Q833" s="1"/>
       <c r="R833" s="1"/>
       <c r="S833" s="9" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="T833" s="1"/>
       <c r="U833" s="1"/>
@@ -64366,7 +64400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="834" spans="1:27" hidden="1">
+    <row r="834" spans="1:26" hidden="1">
       <c r="A834" s="45">
         <f>YEAR(D834)</f>
         <v>2025</v>
@@ -64388,7 +64422,7 @@
         <v>392</v>
       </c>
       <c r="G834" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H834" s="1" t="s">
         <v>299</v>
@@ -64412,7 +64446,7 @@
       <c r="Q834" s="1"/>
       <c r="R834" s="1"/>
       <c r="S834" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="T834" s="1"/>
       <c r="U834" s="1"/>
@@ -64422,7 +64456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="835" spans="1:27" hidden="1">
+    <row r="835" spans="1:26" hidden="1">
       <c r="A835" s="45">
         <f>YEAR(D835)</f>
         <v>2025</v>
@@ -64444,7 +64478,7 @@
         <v>279</v>
       </c>
       <c r="G835" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H835" s="1" t="s">
         <v>299</v>
@@ -64466,11 +64500,11 @@
       <c r="O835" s="1"/>
       <c r="P835" s="1"/>
       <c r="Q835" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="R835" s="1"/>
       <c r="S835" s="94" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="T835" s="95">
         <v>0.375</v>
@@ -64484,7 +64518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="836" spans="1:27" hidden="1">
+    <row r="836" spans="1:26" hidden="1">
       <c r="A836" s="45">
         <f>YEAR(D836)</f>
         <v>2025</v>
@@ -64503,10 +64537,10 @@
         <v>457</v>
       </c>
       <c r="F836" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G836" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H836" s="1" t="s">
         <v>297</v>
@@ -64533,9 +64567,9 @@
       <c r="X836" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AA836" s="10"/>
-    </row>
-    <row r="837" spans="1:27" hidden="1">
+      <c r="Z836" s="10"/>
+    </row>
+    <row r="837" spans="1:26" hidden="1">
       <c r="A837" s="45">
         <f>YEAR(D837)</f>
         <v>2025</v>
@@ -64557,7 +64591,7 @@
         <v>263</v>
       </c>
       <c r="G837" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H837" s="1" t="s">
         <v>297</v>
@@ -64585,7 +64619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="838" spans="1:27" hidden="1">
+    <row r="838" spans="1:26" hidden="1">
       <c r="A838" s="45">
         <f>YEAR(D838)</f>
         <v>2025</v>
@@ -64607,7 +64641,7 @@
         <v>424</v>
       </c>
       <c r="G838" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H838" s="1" t="s">
         <v>297</v>
@@ -64635,7 +64669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="839" spans="1:27" hidden="1">
+    <row r="839" spans="1:26" hidden="1">
       <c r="A839" s="45">
         <f>YEAR(D839)</f>
         <v>2025</v>
@@ -64657,7 +64691,7 @@
         <v>289</v>
       </c>
       <c r="G839" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H839" s="1" t="s">
         <v>299</v>
@@ -64685,7 +64719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="840" spans="1:27" hidden="1">
+    <row r="840" spans="1:26" hidden="1">
       <c r="A840" s="45">
         <f>YEAR(D840)</f>
         <v>2025</v>
@@ -64704,10 +64738,10 @@
         <v>457</v>
       </c>
       <c r="F840" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G840" s="50" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H840" s="1" t="s">
         <v>297</v>
@@ -64737,7 +64771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="841" spans="1:27" hidden="1">
+    <row r="841" spans="1:26" hidden="1">
       <c r="A841" s="46">
         <f>YEAR(D841)</f>
         <v>2025</v>
@@ -64756,10 +64790,10 @@
         <v>457</v>
       </c>
       <c r="F841" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G841" s="39" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H841" s="3" t="s">
         <v>297</v>
@@ -64787,7 +64821,7 @@
       <c r="W841" s="6"/>
       <c r="X841" s="6"/>
     </row>
-    <row r="842" spans="1:27" hidden="1">
+    <row r="842" spans="1:26" hidden="1">
       <c r="A842" s="46">
         <f>YEAR(D842)</f>
         <v>2025</v>
@@ -64809,7 +64843,7 @@
         <v>399</v>
       </c>
       <c r="G842" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H842" s="3" t="s">
         <v>299</v>
@@ -64839,7 +64873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="843" spans="1:27" hidden="1">
+    <row r="843" spans="1:26" hidden="1">
       <c r="A843" s="46">
         <f>YEAR(D843)</f>
         <v>2025</v>
@@ -64861,7 +64895,7 @@
         <v>439</v>
       </c>
       <c r="G843" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H843" s="3" t="s">
         <v>297</v>
@@ -64891,7 +64925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="844" spans="1:27" hidden="1">
+    <row r="844" spans="1:26" hidden="1">
       <c r="A844" s="46">
         <f>YEAR(D844)</f>
         <v>2025</v>
@@ -64913,7 +64947,7 @@
         <v>111</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>297</v>
@@ -64943,7 +64977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="845" spans="1:27" hidden="1">
+    <row r="845" spans="1:26" hidden="1">
       <c r="A845" s="46">
         <f>YEAR(D845)</f>
         <v>2025</v>
@@ -64965,7 +64999,7 @@
         <v>228</v>
       </c>
       <c r="G845" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H845" s="3" t="s">
         <v>299</v>
@@ -64995,7 +65029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="846" spans="1:27" hidden="1">
+    <row r="846" spans="1:26" hidden="1">
       <c r="A846" s="46">
         <f>YEAR(D846)</f>
         <v>2025</v>
@@ -65014,10 +65048,10 @@
         <v>457</v>
       </c>
       <c r="F846" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G846" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H846" s="3" t="s">
         <v>297</v>
@@ -65045,7 +65079,7 @@
       <c r="W846" s="6"/>
       <c r="X846" s="6"/>
     </row>
-    <row r="847" spans="1:27" hidden="1">
+    <row r="847" spans="1:26" hidden="1">
       <c r="A847" s="46">
         <f>YEAR(D847)</f>
         <v>2025</v>
@@ -65067,7 +65101,7 @@
         <v>295</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H847" s="3" t="s">
         <v>299</v>
@@ -65097,7 +65131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="848" spans="1:27" hidden="1">
+    <row r="848" spans="1:26" hidden="1">
       <c r="A848" s="46">
         <f>YEAR(D848)</f>
         <v>2025</v>
@@ -65113,13 +65147,13 @@
         <v>45688.581076388888</v>
       </c>
       <c r="E848" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F848" s="3" t="s">
         <v>531</v>
       </c>
       <c r="G848" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H848" s="3" t="s">
         <v>299</v>
@@ -65141,7 +65175,7 @@
       </c>
       <c r="R848" s="3"/>
       <c r="S848" s="4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="T848" s="3"/>
       <c r="U848" s="3"/>
@@ -65173,7 +65207,7 @@
         <v>279</v>
       </c>
       <c r="G849" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H849" s="3" t="s">
         <v>297</v>
@@ -65195,7 +65229,7 @@
       </c>
       <c r="R849" s="3"/>
       <c r="S849" s="4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="T849" s="3"/>
       <c r="U849" s="3"/>
@@ -65227,7 +65261,7 @@
         <v>439</v>
       </c>
       <c r="G850" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H850" s="3" t="s">
         <v>297</v>
@@ -65249,7 +65283,7 @@
       </c>
       <c r="R850" s="3"/>
       <c r="S850" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="T850" s="3"/>
       <c r="U850" s="3"/>
@@ -65278,10 +65312,10 @@
         <v>457</v>
       </c>
       <c r="F851" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G851" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H851" s="3" t="s">
         <v>297</v>
@@ -65303,14 +65337,14 @@
       </c>
       <c r="R851" s="3"/>
       <c r="S851" s="4" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="T851" s="3"/>
       <c r="U851" s="3"/>
       <c r="V851" s="3"/>
       <c r="W851" s="6"/>
       <c r="X851" s="6" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="852" spans="1:24" hidden="1">
@@ -65335,7 +65369,7 @@
         <v>279</v>
       </c>
       <c r="G852" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H852" s="3" t="s">
         <v>297</v>
@@ -65357,7 +65391,7 @@
       </c>
       <c r="R852" s="3"/>
       <c r="S852" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="T852" s="3"/>
       <c r="U852" s="3"/>
@@ -65419,7 +65453,7 @@
         <v>434</v>
       </c>
       <c r="S853" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="T853" s="8">
         <v>0.33333333333333331</v>
@@ -65453,7 +65487,7 @@
         <v>439</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>297</v>
@@ -65475,7 +65509,7 @@
       </c>
       <c r="R854" s="3"/>
       <c r="S854" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="T854" s="3"/>
       <c r="U854" s="3"/>
@@ -65484,7 +65518,7 @@
         <v>451</v>
       </c>
       <c r="X854" s="6" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="855" spans="1:24" hidden="1">
@@ -65509,7 +65543,7 @@
         <v>263</v>
       </c>
       <c r="G855" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H855" s="3" t="s">
         <v>297</v>
@@ -65533,14 +65567,14 @@
       </c>
       <c r="R855" s="3"/>
       <c r="S855" s="4" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="T855" s="3"/>
       <c r="U855" s="3"/>
       <c r="V855" s="3"/>
       <c r="W855" s="6"/>
       <c r="X855" s="6" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="856" spans="1:24" hidden="1">
@@ -65565,7 +65599,7 @@
         <v>295</v>
       </c>
       <c r="G856" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H856" s="3" t="s">
         <v>299</v>
@@ -65587,7 +65621,7 @@
       </c>
       <c r="R856" s="3"/>
       <c r="S856" s="4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="T856" s="3"/>
       <c r="U856" s="3"/>
@@ -65599,7 +65633,7 @@
     </row>
     <row r="857" spans="1:24" ht="121.5" hidden="1">
       <c r="A857" s="46" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B857" s="3">
         <f>MONTH(D857)</f>
@@ -65612,13 +65646,13 @@
         <v>45691.744351851848</v>
       </c>
       <c r="E857" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F857" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G857" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H857" s="3" t="s">
         <v>297</v>
@@ -65644,7 +65678,7 @@
       </c>
       <c r="R857" s="3"/>
       <c r="S857" s="12" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="T857" s="7">
         <v>0.39583333333333331</v>
@@ -65682,7 +65716,7 @@
         <v>76</v>
       </c>
       <c r="G858" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H858" s="3" t="s">
         <v>299</v>
@@ -65704,7 +65738,7 @@
       </c>
       <c r="R858" s="3"/>
       <c r="S858" s="4" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="T858" s="3"/>
       <c r="U858" s="3"/>
@@ -65731,10 +65765,10 @@
         <v>457</v>
       </c>
       <c r="F859" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G859" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H859" s="3" t="s">
         <v>297</v>
@@ -65756,7 +65790,7 @@
       </c>
       <c r="R859" s="3"/>
       <c r="S859" s="4" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="T859" s="3"/>
       <c r="U859" s="3"/>
@@ -65786,7 +65820,7 @@
         <v>111</v>
       </c>
       <c r="G860" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H860" s="3" t="s">
         <v>297</v>
@@ -65818,7 +65852,7 @@
         <v>434</v>
       </c>
       <c r="S860" s="4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="T860" s="7">
         <v>0.34722222222222221</v>
@@ -65826,10 +65860,10 @@
       <c r="U860" s="3"/>
       <c r="V860" s="3"/>
       <c r="W860" s="6" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X860" s="6" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="861" spans="1:24" hidden="1">
@@ -65851,10 +65885,10 @@
         <v>47</v>
       </c>
       <c r="F861" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G861" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H861" s="3" t="s">
         <v>297</v>
@@ -65888,7 +65922,7 @@
         <v>434</v>
       </c>
       <c r="S861" s="4" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="T861" s="7">
         <v>0.61597222222222225</v>
@@ -65921,10 +65955,10 @@
         <v>463</v>
       </c>
       <c r="F862" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G862" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H862" s="3" t="s">
         <v>297</v>
@@ -65946,7 +65980,7 @@
       </c>
       <c r="R862" s="1"/>
       <c r="S862" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="T862" s="3"/>
       <c r="U862" s="3"/>
@@ -65975,10 +66009,10 @@
         <v>47</v>
       </c>
       <c r="F863" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G863" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H863" s="3" t="s">
         <v>297</v>
@@ -66010,7 +66044,7 @@
         <v>434</v>
       </c>
       <c r="S863" s="4" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="T863" s="7">
         <v>0.33333333333333331</v>
@@ -66043,10 +66077,10 @@
         <v>47</v>
       </c>
       <c r="F864" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G864" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H864" s="3" t="s">
         <v>297</v>
@@ -66078,7 +66112,7 @@
         <v>434</v>
       </c>
       <c r="S864" s="4" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="T864" s="14">
         <v>0.33333333333333331</v>
@@ -66111,10 +66145,10 @@
         <v>47</v>
       </c>
       <c r="F865" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G865" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H865" s="3" t="s">
         <v>297</v>
@@ -66146,7 +66180,7 @@
         <v>434</v>
       </c>
       <c r="S865" s="4" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="T865" s="14">
         <v>0.33333333333333331</v>
@@ -66179,10 +66213,10 @@
         <v>47</v>
       </c>
       <c r="F866" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G866" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H866" s="3" t="s">
         <v>297</v>
@@ -66212,7 +66246,7 @@
         <v>434</v>
       </c>
       <c r="S866" s="12" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="T866" s="7">
         <v>0.625</v>
@@ -66243,10 +66277,10 @@
         <v>47</v>
       </c>
       <c r="F867" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G867" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H867" s="3" t="s">
         <v>297</v>
@@ -66278,7 +66312,7 @@
         <v>434</v>
       </c>
       <c r="S867" s="4" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="T867" s="14">
         <v>0.33333333333333331</v>
@@ -66314,7 +66348,7 @@
         <v>99</v>
       </c>
       <c r="G868" s="3" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H868" s="3" t="s">
         <v>297</v>
@@ -66338,7 +66372,7 @@
       </c>
       <c r="R868" s="1"/>
       <c r="S868" s="27" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="T868" s="3"/>
       <c r="U868" s="3"/>
@@ -66370,7 +66404,7 @@
         <v>279</v>
       </c>
       <c r="G869" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H869" s="3" t="s">
         <v>297</v>
@@ -66394,14 +66428,14 @@
       <c r="Q869" s="3"/>
       <c r="R869" s="3"/>
       <c r="S869" s="27" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="T869" s="3"/>
       <c r="U869" s="3"/>
       <c r="V869" s="3"/>
       <c r="W869" s="6"/>
       <c r="X869" s="6" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="870" spans="1:24" hidden="1">
@@ -66423,10 +66457,10 @@
         <v>457</v>
       </c>
       <c r="F870" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G870" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H870" s="3" t="s">
         <v>297</v>
@@ -66448,7 +66482,7 @@
       <c r="Q870" s="3"/>
       <c r="R870" s="3"/>
       <c r="S870" s="28" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="T870" s="3"/>
       <c r="U870" s="3"/>
@@ -66480,7 +66514,7 @@
         <v>130</v>
       </c>
       <c r="G871" s="76" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H871" s="3" t="s">
         <v>297</v>
@@ -66506,7 +66540,7 @@
       <c r="Q871" s="3"/>
       <c r="R871" s="3"/>
       <c r="S871" s="27" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="T871" s="7">
         <v>0.66666666666666663</v>
@@ -66539,10 +66573,10 @@
         <v>457</v>
       </c>
       <c r="F872" s="31" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G872" s="51" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H872" s="31" t="s">
         <v>297</v>
@@ -66562,7 +66596,7 @@
       <c r="Q872" s="31"/>
       <c r="R872" s="31"/>
       <c r="S872" s="29" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="T872" s="30"/>
       <c r="U872" s="30"/>
@@ -66594,7 +66628,7 @@
         <v>95</v>
       </c>
       <c r="G873" s="51" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H873" s="31" t="s">
         <v>297</v>
@@ -66614,7 +66648,7 @@
       <c r="Q873" s="31"/>
       <c r="R873" s="31"/>
       <c r="S873" s="29" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="T873" s="30"/>
       <c r="U873" s="30"/>
@@ -66646,7 +66680,7 @@
         <v>279</v>
       </c>
       <c r="G874" s="51" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H874" s="31" t="s">
         <v>297</v>
@@ -66666,7 +66700,7 @@
       <c r="Q874" s="31"/>
       <c r="R874" s="31"/>
       <c r="S874" s="29" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="T874" s="30"/>
       <c r="U874" s="30"/>
@@ -66698,7 +66732,7 @@
         <v>279</v>
       </c>
       <c r="G875" s="51" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H875" s="31" t="s">
         <v>297</v>
@@ -66720,7 +66754,7 @@
       <c r="Q875" s="31"/>
       <c r="R875" s="31"/>
       <c r="S875" s="29" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="T875" s="30"/>
       <c r="U875" s="30"/>
@@ -66749,10 +66783,10 @@
         <v>457</v>
       </c>
       <c r="F876" s="31" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G876" s="51" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H876" s="31" t="s">
         <v>297</v>
@@ -66772,7 +66806,7 @@
       <c r="Q876" s="31"/>
       <c r="R876" s="31"/>
       <c r="S876" s="35" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="T876" s="30"/>
       <c r="U876" s="30"/>
@@ -66804,7 +66838,7 @@
         <v>130</v>
       </c>
       <c r="G877" s="51" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H877" s="31" t="s">
         <v>297</v>
@@ -66824,7 +66858,7 @@
       <c r="Q877" s="31"/>
       <c r="R877" s="31"/>
       <c r="S877" s="29" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="T877" s="30"/>
       <c r="U877" s="30"/>
@@ -67090,13 +67124,13 @@
         <v>45694.829513888886</v>
       </c>
       <c r="E884" s="34" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F884" s="34" t="s">
         <v>152</v>
       </c>
       <c r="G884" s="34" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H884" s="34" t="s">
         <v>299</v>
@@ -67122,7 +67156,7 @@
       </c>
       <c r="R884" s="34"/>
       <c r="S884" s="27" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="T884" s="33">
         <v>0.33333333333333331</v>
@@ -67155,10 +67189,10 @@
         <v>47</v>
       </c>
       <c r="F885" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G885" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H885" s="3" t="s">
         <v>297</v>
@@ -67192,7 +67226,7 @@
         <v>434</v>
       </c>
       <c r="S885" s="4" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="T885" s="7">
         <v>0.39374999999999999</v>
@@ -67228,7 +67262,7 @@
         <v>99</v>
       </c>
       <c r="G886" s="3" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H886" s="3" t="s">
         <v>299</v>
@@ -67254,7 +67288,7 @@
       </c>
       <c r="R886" s="1"/>
       <c r="S886" s="4" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="T886" s="7">
         <v>0.33333333333333331</v>
@@ -67290,7 +67324,7 @@
         <v>306</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H887" s="3" t="s">
         <v>297</v>
@@ -67316,7 +67350,7 @@
       </c>
       <c r="R887" s="3"/>
       <c r="S887" s="12" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="T887" s="7">
         <v>0.67986111111111114</v>
@@ -67327,7 +67361,7 @@
         <v>441</v>
       </c>
       <c r="X887" s="36" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="888" spans="1:24" hidden="1">
@@ -67352,7 +67386,7 @@
         <v>31</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H888" s="3" t="s">
         <v>297</v>
@@ -67374,7 +67408,7 @@
       </c>
       <c r="R888" s="3"/>
       <c r="S888" s="4" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="T888" s="3"/>
       <c r="U888" s="3"/>
@@ -67400,13 +67434,13 @@
         <v>45695.822754629633</v>
       </c>
       <c r="E889" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F889" s="3" t="s">
         <v>531</v>
       </c>
       <c r="G889" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H889" s="3" t="s">
         <v>299</v>
@@ -67433,10 +67467,10 @@
         <v>405</v>
       </c>
       <c r="R889" s="3" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="S889" s="4" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="T889" s="7">
         <v>0.33333333333333331</v>
@@ -67472,7 +67506,7 @@
         <v>31</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H890" s="3" t="s">
         <v>297</v>
@@ -67504,7 +67538,7 @@
         <v>434</v>
       </c>
       <c r="S890" s="12" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="T890" s="7">
         <v>0.3576388888888889</v>
@@ -67538,7 +67572,7 @@
         <v>126</v>
       </c>
       <c r="G891" s="3" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H891" s="3" t="s">
         <v>297</v>
@@ -67564,7 +67598,7 @@
       </c>
       <c r="R891" s="1"/>
       <c r="S891" s="4" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="T891" s="7">
         <v>0.33333333333333331</v>
@@ -67574,10 +67608,10 @@
         <v>10088</v>
       </c>
       <c r="W891" s="6" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X891" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="892" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -67602,7 +67636,7 @@
         <v>279</v>
       </c>
       <c r="G892" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H892" s="3" t="s">
         <v>299</v>
@@ -67628,7 +67662,7 @@
       </c>
       <c r="R892" s="3"/>
       <c r="S892" s="4" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="T892" s="3"/>
       <c r="U892" s="3"/>
@@ -67660,7 +67694,7 @@
         <v>279</v>
       </c>
       <c r="G893" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H893" s="3" t="s">
         <v>297</v>
@@ -67688,7 +67722,7 @@
       </c>
       <c r="R893" s="3"/>
       <c r="S893" s="12" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="T893" s="7">
         <v>0.65277777777777779</v>
@@ -67721,10 +67755,10 @@
         <v>47</v>
       </c>
       <c r="F894" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G894" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H894" s="3" t="s">
         <v>297</v>
@@ -67754,7 +67788,7 @@
       </c>
       <c r="R894" s="3"/>
       <c r="S894" s="12" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="T894" s="7">
         <v>0.58333333333333337</v>
@@ -67790,7 +67824,7 @@
         <v>295</v>
       </c>
       <c r="G895" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H895" s="3" t="s">
         <v>299</v>
@@ -67816,7 +67850,7 @@
       </c>
       <c r="R895" s="3"/>
       <c r="S895" s="4" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="T895" s="7">
         <v>0.60416666666666663</v>
@@ -67852,7 +67886,7 @@
         <v>279</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H896" s="3" t="s">
         <v>297</v>
@@ -67880,7 +67914,7 @@
       </c>
       <c r="R896" s="3"/>
       <c r="S896" s="12" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="T896" s="7">
         <v>0.65277777777777779</v>
@@ -67910,13 +67944,13 @@
         <v>45699</v>
       </c>
       <c r="E897" s="34" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F897" s="34" t="s">
         <v>391</v>
       </c>
       <c r="G897" s="34" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H897" s="34" t="s">
         <v>299</v>
@@ -67944,7 +67978,7 @@
       </c>
       <c r="R897" s="34"/>
       <c r="S897" s="27" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="T897" s="33">
         <v>0.41666666666666669</v>
@@ -67975,10 +68009,10 @@
         <v>457</v>
       </c>
       <c r="F898" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H898" s="3" t="s">
         <v>297</v>
@@ -68004,7 +68038,7 @@
       </c>
       <c r="R898" s="3"/>
       <c r="S898" s="4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="T898" s="3"/>
       <c r="U898" s="3"/>
@@ -68036,7 +68070,7 @@
         <v>186</v>
       </c>
       <c r="G899" s="3" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H899" s="3" t="s">
         <v>299</v>
@@ -68062,7 +68096,7 @@
       </c>
       <c r="R899" s="3"/>
       <c r="S899" s="4" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="T899" s="7">
         <v>0.64583333333333337</v>
@@ -68098,7 +68132,7 @@
         <v>228</v>
       </c>
       <c r="G900" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H900" s="3" t="s">
         <v>297</v>
@@ -68127,10 +68161,10 @@
         <v>493</v>
       </c>
       <c r="R900" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="S900" s="12" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="T900" s="7">
         <v>0.54166666666666663</v>
@@ -68161,10 +68195,10 @@
         <v>466</v>
       </c>
       <c r="F901" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G901" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H901" s="3" t="s">
         <v>297</v>
@@ -68190,7 +68224,7 @@
       </c>
       <c r="R901" s="3"/>
       <c r="S901" s="12" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="T901" s="7">
         <v>0.63124999999999998</v>
@@ -68220,13 +68254,13 @@
         <v>45699.760763888888</v>
       </c>
       <c r="E902" s="3" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F902" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G902" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H902" s="3" t="s">
         <v>297</v>
@@ -68252,7 +68286,7 @@
       </c>
       <c r="R902" s="3"/>
       <c r="S902" s="4" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="T902" s="7">
         <v>0.33333333333333331</v>
@@ -68262,10 +68296,10 @@
         <v>10088</v>
       </c>
       <c r="W902" s="6" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X902" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="903" spans="1:24" ht="33.75" customHeight="1">
@@ -68287,10 +68321,10 @@
         <v>466</v>
       </c>
       <c r="F903" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G903" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H903" s="3" t="s">
         <v>297</v>
@@ -68316,7 +68350,7 @@
       </c>
       <c r="R903" s="3"/>
       <c r="S903" s="12" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="T903" s="7">
         <v>0.4201388888888889</v>
@@ -68327,7 +68361,7 @@
         <v>48</v>
       </c>
       <c r="X903" s="6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="904" spans="1:24" ht="39" hidden="1" customHeight="1">
@@ -68349,10 +68383,10 @@
         <v>47</v>
       </c>
       <c r="F904" s="3" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G904" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H904" s="3" t="s">
         <v>297</v>
@@ -68378,7 +68412,7 @@
       </c>
       <c r="R904" s="3"/>
       <c r="S904" s="12" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="T904" s="7">
         <v>0.41666666666666669</v>
@@ -68411,10 +68445,10 @@
         <v>479</v>
       </c>
       <c r="F905" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G905" s="3" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H905" s="3" t="s">
         <v>297</v>
@@ -68448,7 +68482,7 @@
         <v>434</v>
       </c>
       <c r="S905" s="4" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="T905" s="7">
         <v>0.60416666666666663</v>
@@ -68482,7 +68516,7 @@
         <v>25</v>
       </c>
       <c r="G906" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H906" s="3" t="s">
         <v>297</v>
@@ -68504,7 +68538,7 @@
       </c>
       <c r="R906" s="3"/>
       <c r="S906" s="4" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="T906" s="3"/>
       <c r="U906" s="3"/>
@@ -68531,10 +68565,10 @@
         <v>466</v>
       </c>
       <c r="F907" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G907" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H907" s="3" t="s">
         <v>297</v>
@@ -68562,7 +68596,7 @@
       </c>
       <c r="R907" s="3"/>
       <c r="S907" s="4" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="T907" s="7">
         <v>0.58333333333333337</v>
@@ -68598,7 +68632,7 @@
         <v>391</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H908" s="3" t="s">
         <v>299</v>
@@ -68624,7 +68658,7 @@
       </c>
       <c r="R908" s="3"/>
       <c r="S908" s="4" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="T908" s="7">
         <v>0.625</v>
@@ -68654,7 +68688,7 @@
         <v>45700.720104166663</v>
       </c>
       <c r="E909" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F909" s="3" t="s">
         <v>39</v>
@@ -68686,7 +68720,7 @@
       </c>
       <c r="R909" s="3"/>
       <c r="S909" s="4" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="T909" s="7">
         <v>0.57430555555555551</v>
@@ -68716,13 +68750,13 @@
         <v>45700.735138888886</v>
       </c>
       <c r="E910" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F910" s="3" t="s">
         <v>531</v>
       </c>
       <c r="G910" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H910" s="3" t="s">
         <v>299</v>
@@ -68750,7 +68784,7 @@
       </c>
       <c r="R910" s="3"/>
       <c r="S910" s="4" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="T910" s="7">
         <v>0.625</v>
@@ -68786,7 +68820,7 @@
         <v>95</v>
       </c>
       <c r="G911" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H911" s="3" t="s">
         <v>299</v>
@@ -68814,7 +68848,7 @@
       </c>
       <c r="R911" s="3"/>
       <c r="S911" s="4" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="T911" s="7">
         <v>0.37013888888888891</v>
@@ -68850,7 +68884,7 @@
         <v>130</v>
       </c>
       <c r="G912" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H912" s="3" t="s">
         <v>299</v>
@@ -68878,7 +68912,7 @@
       </c>
       <c r="R912" s="3"/>
       <c r="S912" s="4" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="T912" s="7">
         <v>0.54166666666666663</v>
@@ -68914,7 +68948,7 @@
         <v>25</v>
       </c>
       <c r="G913" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H913" s="3" t="s">
         <v>299</v>
@@ -68940,7 +68974,7 @@
       </c>
       <c r="R913" s="3"/>
       <c r="S913" s="4" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="T913" s="7">
         <v>0.45833333333333331</v>
@@ -68976,7 +69010,7 @@
         <v>391</v>
       </c>
       <c r="G914" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H914" s="3" t="s">
         <v>297</v>
@@ -69002,7 +69036,7 @@
       </c>
       <c r="R914" s="3"/>
       <c r="S914" s="4" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="T914" s="7"/>
       <c r="U914" s="3"/>
@@ -69031,10 +69065,10 @@
         <v>466</v>
       </c>
       <c r="F915" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G915" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H915" s="3" t="s">
         <v>297</v>
@@ -69056,7 +69090,7 @@
       </c>
       <c r="R915" s="3"/>
       <c r="S915" s="4" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="T915" s="7"/>
       <c r="U915" s="3"/>
@@ -69082,13 +69116,13 @@
         <v>45701.614502314813</v>
       </c>
       <c r="E916" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>399</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>297</v>
@@ -69120,7 +69154,7 @@
         <v>500</v>
       </c>
       <c r="S916" s="12" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="T916" s="7"/>
       <c r="U916" s="3"/>
@@ -69149,10 +69183,10 @@
         <v>457</v>
       </c>
       <c r="F917" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H917" s="3" t="s">
         <v>297</v>
@@ -69180,7 +69214,7 @@
       </c>
       <c r="R917" s="3"/>
       <c r="S917" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="T917" s="7">
         <v>0.58611111111111114</v>
@@ -69211,10 +69245,10 @@
         <v>479</v>
       </c>
       <c r="F918" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G918" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H918" s="3" t="s">
         <v>297</v>
@@ -69242,7 +69276,7 @@
       </c>
       <c r="R918" s="3"/>
       <c r="S918" s="4" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="T918" s="7">
         <v>0.58333333333333337</v>
@@ -69278,7 +69312,7 @@
         <v>531</v>
       </c>
       <c r="G919" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H919" s="3" t="s">
         <v>297</v>
@@ -69300,7 +69334,7 @@
       </c>
       <c r="R919" s="3"/>
       <c r="S919" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="T919" s="7"/>
       <c r="U919" s="3"/>
@@ -69330,7 +69364,7 @@
         <v>334</v>
       </c>
       <c r="G920" s="3" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H920" s="3" t="s">
         <v>299</v>
@@ -69356,7 +69390,7 @@
       </c>
       <c r="R920" s="3"/>
       <c r="S920" s="4" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="T920" s="7">
         <v>0.66666666666666663</v>
@@ -69392,7 +69426,7 @@
         <v>111</v>
       </c>
       <c r="G921" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H921" s="3" t="s">
         <v>297</v>
@@ -69420,7 +69454,7 @@
       </c>
       <c r="R921" s="3"/>
       <c r="S921" s="4" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="T921" s="7">
         <v>0.375</v>
@@ -69454,7 +69488,7 @@
         <v>289</v>
       </c>
       <c r="G922" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H922" s="3" t="s">
         <v>297</v>
@@ -69480,7 +69514,7 @@
       </c>
       <c r="R922" s="3"/>
       <c r="S922" s="12" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="T922" s="7">
         <v>0.52083333333333337</v>
@@ -69491,7 +69525,7 @@
         <v>441</v>
       </c>
       <c r="X922" s="6" t="s">
-        <v>442</v>
+        <v>717</v>
       </c>
     </row>
     <row r="923" spans="1:24" ht="60" hidden="1" customHeight="1">
@@ -69510,13 +69544,13 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E923" s="79" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F923" s="79" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="G923" s="79" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H923" s="79" t="s">
         <v>297</v>
@@ -69544,7 +69578,7 @@
       </c>
       <c r="R923" s="3"/>
       <c r="S923" s="98" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="T923" s="7">
         <v>0.54166666666666663</v>
@@ -69580,7 +69614,7 @@
         <v>25</v>
       </c>
       <c r="G924" s="38" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H924" s="20" t="s">
         <v>299</v>
@@ -69606,7 +69640,7 @@
       </c>
       <c r="R924" s="38"/>
       <c r="S924" s="99" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="T924" s="61">
         <v>0.5625</v>
@@ -69640,7 +69674,7 @@
         <v>263</v>
       </c>
       <c r="G925" s="62" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H925" s="83" t="s">
         <v>297</v>
@@ -69666,7 +69700,7 @@
       </c>
       <c r="R925" s="62"/>
       <c r="S925" s="100" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="T925" s="65">
         <v>0.41666666666666669</v>
@@ -69697,10 +69731,10 @@
         <v>457</v>
       </c>
       <c r="F926" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H926" s="3" t="s">
         <v>297</v>
@@ -69726,7 +69760,7 @@
       </c>
       <c r="R926" s="3"/>
       <c r="S926" s="16" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="T926" s="7"/>
       <c r="U926" s="3"/>
@@ -69755,10 +69789,10 @@
         <v>457</v>
       </c>
       <c r="F927" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G927" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H927" s="3" t="s">
         <v>297</v>
@@ -69786,7 +69820,7 @@
       </c>
       <c r="R927" s="3"/>
       <c r="S927" s="16" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="T927" s="7"/>
       <c r="U927" s="3"/>
@@ -69818,7 +69852,7 @@
         <v>391</v>
       </c>
       <c r="G928" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H928" s="3" t="s">
         <v>297</v>
@@ -69840,16 +69874,16 @@
       </c>
       <c r="R928" s="3"/>
       <c r="S928" s="16" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="T928" s="7"/>
       <c r="U928" s="3"/>
       <c r="V928" s="3"/>
       <c r="W928" s="6" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X928" s="6" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="929" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69874,7 +69908,7 @@
         <v>531</v>
       </c>
       <c r="G929" s="18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H929" s="18" t="s">
         <v>297</v>
@@ -69902,7 +69936,7 @@
       </c>
       <c r="R929" s="18"/>
       <c r="S929" s="17" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="T929" s="21">
         <v>0.35625000000000001</v>
@@ -69930,7 +69964,7 @@
         <v>45705</v>
       </c>
       <c r="E930" s="18" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F930" s="18" t="s">
         <v>39</v>
@@ -69964,7 +69998,7 @@
       </c>
       <c r="R930" s="18"/>
       <c r="S930" s="17" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="T930" s="21">
         <v>0.34722222222222221</v>
@@ -70000,7 +70034,7 @@
         <v>186</v>
       </c>
       <c r="G931" s="25" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H931" s="25" t="s">
         <v>299</v>
@@ -70028,7 +70062,7 @@
       </c>
       <c r="R931" s="25"/>
       <c r="S931" s="23" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="T931" s="24"/>
       <c r="U931" s="24"/>
@@ -70054,13 +70088,13 @@
         <v>45705.627858796295</v>
       </c>
       <c r="E932" s="25" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F932" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G932" s="25" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H932" s="25" t="s">
         <v>299</v>
@@ -70088,7 +70122,7 @@
       </c>
       <c r="R932" s="25"/>
       <c r="S932" s="23" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="T932" s="24">
         <v>0.29166666666666669</v>
@@ -70124,7 +70158,7 @@
         <v>99</v>
       </c>
       <c r="G933" s="25" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H933" s="25" t="s">
         <v>299</v>
@@ -70146,7 +70180,7 @@
       </c>
       <c r="R933" s="25"/>
       <c r="S933" s="23" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="T933" s="24"/>
       <c r="U933" s="24"/>
@@ -70178,7 +70212,7 @@
         <v>186</v>
       </c>
       <c r="G934" s="25" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H934" s="25" t="s">
         <v>299</v>
@@ -70200,7 +70234,7 @@
       </c>
       <c r="R934" s="25"/>
       <c r="S934" s="23" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="T934" s="24"/>
       <c r="U934" s="24"/>
@@ -70229,10 +70263,10 @@
         <v>47</v>
       </c>
       <c r="F935" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G935" s="25" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H935" s="25" t="s">
         <v>297</v>
@@ -70254,7 +70288,7 @@
       </c>
       <c r="R935" s="25"/>
       <c r="S935" s="23" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="T935" s="24"/>
       <c r="U935" s="24"/>
@@ -70283,10 +70317,10 @@
         <v>47</v>
       </c>
       <c r="F936" s="25" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G936" s="25" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H936" s="25" t="s">
         <v>297</v>
@@ -70308,7 +70342,7 @@
       </c>
       <c r="R936" s="25"/>
       <c r="S936" s="23" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="T936" s="24"/>
       <c r="U936" s="24"/>
@@ -70335,10 +70369,10 @@
         <v>469</v>
       </c>
       <c r="F937" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G937" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H937" s="25" t="s">
         <v>297</v>
@@ -70370,7 +70404,7 @@
         <v>434</v>
       </c>
       <c r="S937" s="23" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="T937" s="24"/>
       <c r="U937" s="24"/>
@@ -70399,10 +70433,10 @@
         <v>457</v>
       </c>
       <c r="F938" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G938" s="25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H938" s="25" t="s">
         <v>297</v>
@@ -70434,7 +70468,7 @@
         <v>434</v>
       </c>
       <c r="S938" s="23" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="T938" s="24"/>
       <c r="U938" s="24"/>
@@ -70463,10 +70497,10 @@
         <v>457</v>
       </c>
       <c r="F939" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G939" s="25" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H939" s="25" t="s">
         <v>297</v>
@@ -70490,7 +70524,7 @@
       </c>
       <c r="R939" s="25"/>
       <c r="S939" s="23" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="T939" s="24"/>
       <c r="U939" s="24"/>
@@ -70519,10 +70553,10 @@
         <v>457</v>
       </c>
       <c r="F940" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G940" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H940" s="25" t="s">
         <v>297</v>
@@ -70546,14 +70580,14 @@
       </c>
       <c r="R940" s="25"/>
       <c r="S940" s="23" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="T940" s="24"/>
       <c r="U940" s="24"/>
       <c r="V940" s="25"/>
       <c r="W940" s="22"/>
       <c r="X940" s="22" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="941" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70575,10 +70609,10 @@
         <v>457</v>
       </c>
       <c r="F941" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G941" s="25" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H941" s="25" t="s">
         <v>297</v>
@@ -70602,14 +70636,14 @@
       </c>
       <c r="R941" s="25"/>
       <c r="S941" s="23" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="T941" s="24"/>
       <c r="U941" s="24"/>
       <c r="V941" s="25"/>
       <c r="W941" s="22"/>
       <c r="X941" s="22" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="942" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70634,7 +70668,7 @@
         <v>424</v>
       </c>
       <c r="G942" s="25" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H942" s="25" t="s">
         <v>297</v>
@@ -70656,7 +70690,7 @@
       </c>
       <c r="R942" s="25"/>
       <c r="S942" s="23" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="T942" s="24"/>
       <c r="U942" s="24"/>
@@ -70685,10 +70719,10 @@
         <v>457</v>
       </c>
       <c r="F943" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G943" s="25" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H943" s="25" t="s">
         <v>297</v>
@@ -70714,7 +70748,7 @@
       </c>
       <c r="R943" s="25"/>
       <c r="S943" s="23" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="T943" s="24"/>
       <c r="U943" s="24"/>
@@ -70743,10 +70777,10 @@
         <v>457</v>
       </c>
       <c r="F944" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G944" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H944" s="25" t="s">
         <v>297</v>
@@ -70772,7 +70806,7 @@
       </c>
       <c r="R944" s="25"/>
       <c r="S944" s="23" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T944" s="24"/>
       <c r="U944" s="24"/>
@@ -70801,10 +70835,10 @@
         <v>457</v>
       </c>
       <c r="F945" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G945" s="25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H945" s="25" t="s">
         <v>297</v>
@@ -70838,7 +70872,7 @@
         <v>434</v>
       </c>
       <c r="S945" s="23" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="T945" s="24"/>
       <c r="U945" s="24"/>
@@ -70847,7 +70881,7 @@
         <v>48</v>
       </c>
       <c r="X945" s="22" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="946" spans="1:24" ht="15" customHeight="1">
@@ -70866,19 +70900,19 @@
         <v>45708.50105324074</v>
       </c>
       <c r="E946" s="25" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F946" s="25" t="s">
         <v>186</v>
       </c>
       <c r="G946" s="25" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H946" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I946" s="25" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="J946" s="42" t="s">
         <v>449</v>
@@ -70896,7 +70930,7 @@
       </c>
       <c r="R946" s="25"/>
       <c r="S946" s="23" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="T946" s="24">
         <v>0.54166666666666663</v>
@@ -70904,10 +70938,10 @@
       <c r="U946" s="24"/>
       <c r="V946" s="25"/>
       <c r="W946" s="22" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="X946" s="22" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="947" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70929,10 +70963,10 @@
         <v>457</v>
       </c>
       <c r="F947" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G947" s="25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H947" s="25" t="s">
         <v>297</v>
@@ -70956,7 +70990,7 @@
       </c>
       <c r="R947" s="25"/>
       <c r="S947" s="23" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="T947" s="24"/>
       <c r="U947" s="24"/>
@@ -70985,10 +71019,10 @@
         <v>457</v>
       </c>
       <c r="F948" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G948" s="25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H948" s="25" t="s">
         <v>297</v>
@@ -71010,7 +71044,7 @@
       </c>
       <c r="R948" s="25"/>
       <c r="S948" s="23" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="T948" s="24"/>
       <c r="U948" s="24"/>
@@ -71039,10 +71073,10 @@
         <v>457</v>
       </c>
       <c r="F949" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G949" s="25" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H949" s="25" t="s">
         <v>297</v>
@@ -71068,7 +71102,7 @@
       </c>
       <c r="R949" s="25"/>
       <c r="S949" s="23" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="T949" s="24"/>
       <c r="U949" s="24"/>
@@ -71100,7 +71134,7 @@
         <v>130</v>
       </c>
       <c r="G950" s="25" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H950" s="25" t="s">
         <v>299</v>
@@ -71128,7 +71162,7 @@
       </c>
       <c r="R950" s="25"/>
       <c r="S950" s="23" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="T950" s="24">
         <v>0.73611111111111116</v>
@@ -71161,10 +71195,10 @@
         <v>457</v>
       </c>
       <c r="F951" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G951" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H951" s="25" t="s">
         <v>297</v>
@@ -71196,7 +71230,7 @@
         <v>434</v>
       </c>
       <c r="S951" s="23" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="T951" s="24"/>
       <c r="U951" s="24"/>
@@ -71228,7 +71262,7 @@
         <v>111</v>
       </c>
       <c r="G952" s="25" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H952" s="25" t="s">
         <v>297</v>
@@ -71252,7 +71286,7 @@
       </c>
       <c r="R952" s="25"/>
       <c r="S952" s="102" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="T952" s="24"/>
       <c r="U952" s="24"/>
@@ -71279,10 +71313,10 @@
         <v>479</v>
       </c>
       <c r="F953" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G953" s="25" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H953" s="25" t="s">
         <v>297</v>
@@ -71304,14 +71338,14 @@
       </c>
       <c r="R953" s="25"/>
       <c r="S953" s="102" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="T953" s="24"/>
       <c r="U953" s="24"/>
       <c r="V953" s="25"/>
       <c r="W953" s="6"/>
       <c r="X953" s="22" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="954" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71336,7 +71370,7 @@
         <v>186</v>
       </c>
       <c r="G954" s="25" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H954" s="25" t="s">
         <v>297</v>
@@ -71364,7 +71398,7 @@
       </c>
       <c r="R954" s="25"/>
       <c r="S954" s="23" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="T954" s="24"/>
       <c r="U954" s="24"/>
@@ -71396,7 +71430,7 @@
         <v>31</v>
       </c>
       <c r="G955" s="25" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H955" s="25" t="s">
         <v>297</v>
@@ -71424,7 +71458,7 @@
       </c>
       <c r="R955" s="25"/>
       <c r="S955" s="102" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="T955" s="24">
         <v>0.625</v>
@@ -71460,13 +71494,13 @@
         <v>279</v>
       </c>
       <c r="G956" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H956" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I956" s="25" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="J956" s="55" t="s">
         <v>449</v>
@@ -71482,16 +71516,16 @@
       </c>
       <c r="R956" s="25"/>
       <c r="S956" s="23" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="T956" s="24"/>
       <c r="U956" s="24"/>
       <c r="V956" s="25"/>
       <c r="W956" s="22" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="X956" s="22" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="957" spans="1:24" ht="72" customHeight="1">
@@ -71513,7 +71547,7 @@
         <v>457</v>
       </c>
       <c r="F957" s="25" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="G957" s="25" t="s">
         <v>168</v>
@@ -71542,7 +71576,7 @@
       </c>
       <c r="R957" s="25"/>
       <c r="S957" s="23" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="T957" s="24">
         <v>0.375</v>
@@ -71575,10 +71609,10 @@
         <v>457</v>
       </c>
       <c r="F958" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G958" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H958" s="25" t="s">
         <v>299</v>
@@ -71589,7 +71623,9 @@
       <c r="J958" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="K958" s="56"/>
+      <c r="K958" s="56">
+        <v>45731</v>
+      </c>
       <c r="L958" s="25"/>
       <c r="M958" s="56"/>
       <c r="N958" s="56"/>
@@ -71600,16 +71636,16 @@
       </c>
       <c r="R958" s="25"/>
       <c r="S958" s="23" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="T958" s="24"/>
       <c r="U958" s="24"/>
       <c r="V958" s="25"/>
       <c r="W958" s="22" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X958" s="22" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="959" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71634,7 +71670,7 @@
         <v>399</v>
       </c>
       <c r="G959" s="25" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H959" s="25" t="s">
         <v>297</v>
@@ -71656,7 +71692,7 @@
       </c>
       <c r="R959" s="25"/>
       <c r="S959" s="23" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="T959" s="24"/>
       <c r="U959" s="24"/>
@@ -71685,10 +71721,10 @@
         <v>457</v>
       </c>
       <c r="F960" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G960" s="25" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H960" s="25" t="s">
         <v>297</v>
@@ -71710,7 +71746,7 @@
       </c>
       <c r="R960" s="25"/>
       <c r="S960" s="23" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="T960" s="24"/>
       <c r="U960" s="24"/>
@@ -71739,10 +71775,10 @@
         <v>457</v>
       </c>
       <c r="F961" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G961" s="25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H961" s="25" t="s">
         <v>297</v>
@@ -71768,7 +71804,7 @@
       </c>
       <c r="R961" s="25"/>
       <c r="S961" s="102" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="T961" s="24">
         <v>0.375</v>
@@ -71799,10 +71835,10 @@
         <v>457</v>
       </c>
       <c r="F962" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G962" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H962" s="25" t="s">
         <v>297</v>
@@ -71824,7 +71860,7 @@
       </c>
       <c r="R962" s="25"/>
       <c r="S962" s="23" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="T962" s="24"/>
       <c r="U962" s="24"/>
@@ -71856,7 +71892,7 @@
         <v>99</v>
       </c>
       <c r="G963" s="25" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H963" s="25" t="s">
         <v>297</v>
@@ -71880,7 +71916,7 @@
       </c>
       <c r="R963" s="25"/>
       <c r="S963" s="23" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="T963" s="24">
         <v>0.39583333333333331</v>
@@ -71915,10 +71951,10 @@
         <v>457</v>
       </c>
       <c r="F964" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G964" s="25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H964" s="25" t="s">
         <v>297</v>
@@ -71944,7 +71980,7 @@
       </c>
       <c r="R964" s="25"/>
       <c r="S964" s="23" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="T964" s="24"/>
       <c r="U964" s="24"/>
@@ -71973,10 +72009,10 @@
         <v>457</v>
       </c>
       <c r="F965" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G965" s="25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H965" s="25" t="s">
         <v>297</v>
@@ -71998,7 +72034,7 @@
       </c>
       <c r="R965" s="25"/>
       <c r="S965" s="23" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="T965" s="24"/>
       <c r="U965" s="24"/>
@@ -72007,7 +72043,7 @@
         <v>451</v>
       </c>
       <c r="X965" s="22" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="966" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -72032,7 +72068,7 @@
         <v>391</v>
       </c>
       <c r="G966" s="25" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H966" s="25" t="s">
         <v>297</v>
@@ -72056,7 +72092,7 @@
       </c>
       <c r="R966" s="25"/>
       <c r="S966" s="23" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="T966" s="24"/>
       <c r="U966" s="24"/>
@@ -72065,7 +72101,7 @@
         <v>451</v>
       </c>
       <c r="X966" s="22" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="967" spans="1:24" ht="15" customHeight="1">
@@ -72087,10 +72123,10 @@
         <v>457</v>
       </c>
       <c r="F967" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G967" s="25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H967" s="25" t="s">
         <v>297</v>
@@ -72112,16 +72148,16 @@
       </c>
       <c r="R967" s="25"/>
       <c r="S967" s="23" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="T967" s="24"/>
       <c r="U967" s="24"/>
       <c r="V967" s="25"/>
       <c r="W967" s="22" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="X967" s="22" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="968" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -72143,10 +72179,10 @@
         <v>469</v>
       </c>
       <c r="F968" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G968" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H968" s="25" t="s">
         <v>297</v>
@@ -72172,7 +72208,7 @@
       </c>
       <c r="R968" s="25"/>
       <c r="S968" s="23" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="T968" s="24">
         <v>0.35416666666666669</v>
@@ -72205,10 +72241,10 @@
         <v>457</v>
       </c>
       <c r="F969" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G969" s="25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H969" s="25" t="s">
         <v>297</v>
@@ -72232,7 +72268,7 @@
       </c>
       <c r="R969" s="25"/>
       <c r="S969" s="23" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="T969" s="24"/>
       <c r="U969" s="24"/>
@@ -72261,10 +72297,10 @@
         <v>469</v>
       </c>
       <c r="F970" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G970" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H970" s="25" t="s">
         <v>297</v>
@@ -72288,7 +72324,7 @@
       </c>
       <c r="R970" s="25"/>
       <c r="S970" s="105" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="T970" s="24"/>
       <c r="U970" s="24"/>
@@ -72315,10 +72351,10 @@
         <v>469</v>
       </c>
       <c r="F971" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G971" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H971" s="25" t="s">
         <v>297</v>
@@ -72344,7 +72380,7 @@
       </c>
       <c r="R971" s="25"/>
       <c r="S971" s="23" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="T971" s="24">
         <v>0.52083333333333337</v>
@@ -72374,19 +72410,19 @@
         <v>45714</v>
       </c>
       <c r="E972" s="25" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F972" s="25" t="s">
         <v>447</v>
       </c>
       <c r="G972" s="25" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="H972" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I972" s="43" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="J972" s="55" t="s">
         <v>449</v>
@@ -72402,16 +72438,16 @@
       </c>
       <c r="R972" s="25"/>
       <c r="S972" s="23" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="T972" s="24"/>
       <c r="U972" s="24"/>
       <c r="V972" s="25"/>
       <c r="W972" s="22" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="X972" s="22" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="973" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -72458,7 +72494,7 @@
       </c>
       <c r="R973" s="25"/>
       <c r="S973" s="23" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="T973" s="24"/>
       <c r="U973" s="24"/>
@@ -72487,10 +72523,10 @@
         <v>466</v>
       </c>
       <c r="F974" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G974" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H974" s="25" t="s">
         <v>297</v>
@@ -72512,7 +72548,7 @@
       </c>
       <c r="R974" s="25"/>
       <c r="S974" s="23" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="T974" s="24"/>
       <c r="U974" s="24"/>
@@ -72544,7 +72580,7 @@
         <v>25</v>
       </c>
       <c r="G975" s="25" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H975" s="25" t="s">
         <v>299</v>
@@ -72566,7 +72602,7 @@
       </c>
       <c r="R975" s="25"/>
       <c r="S975" s="23" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="T975" s="24"/>
       <c r="U975" s="24"/>
@@ -72598,7 +72634,7 @@
         <v>95</v>
       </c>
       <c r="G976" s="25" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H976" s="25" t="s">
         <v>299</v>
@@ -72620,7 +72656,7 @@
       </c>
       <c r="R976" s="25"/>
       <c r="S976" s="23" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="T976" s="24"/>
       <c r="U976" s="24"/>
@@ -72650,7 +72686,7 @@
         <v>95</v>
       </c>
       <c r="G977" s="25" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H977" s="25" t="s">
         <v>297</v>
@@ -72678,7 +72714,7 @@
       </c>
       <c r="R977" s="25"/>
       <c r="S977" s="102" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="T977" s="24">
         <v>0.39583333333333331</v>
@@ -72714,7 +72750,7 @@
         <v>424</v>
       </c>
       <c r="G978" s="25" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H978" s="25" t="s">
         <v>299</v>
@@ -72740,7 +72776,7 @@
       </c>
       <c r="R978" s="25"/>
       <c r="S978" s="23" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="T978" s="24"/>
       <c r="U978" s="24"/>
@@ -72769,10 +72805,10 @@
         <v>457</v>
       </c>
       <c r="F979" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G979" s="25" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H979" s="25" t="s">
         <v>297</v>
@@ -72794,7 +72830,7 @@
       </c>
       <c r="R979" s="25"/>
       <c r="S979" s="23" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="T979" s="24"/>
       <c r="U979" s="24"/>
@@ -72820,13 +72856,13 @@
         <v>45716</v>
       </c>
       <c r="E980" s="25" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="F980" s="25" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G980" s="25" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H980" s="25" t="s">
         <v>297</v>
@@ -72850,7 +72886,7 @@
       </c>
       <c r="R980" s="25"/>
       <c r="S980" s="23" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="T980" s="24">
         <v>0.375</v>
@@ -72884,7 +72920,7 @@
         <v>95</v>
       </c>
       <c r="G981" s="25" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H981" s="25" t="s">
         <v>297</v>
@@ -72906,7 +72942,7 @@
       </c>
       <c r="R981" s="25"/>
       <c r="S981" s="23" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="T981" s="24"/>
       <c r="U981" s="24"/>
@@ -72962,7 +72998,7 @@
       </c>
       <c r="R982" s="25"/>
       <c r="S982" s="23" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="T982" s="24"/>
       <c r="U982" s="24"/>
@@ -72994,7 +73030,7 @@
         <v>116</v>
       </c>
       <c r="G983" s="25" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="H983" s="25" t="s">
         <v>299</v>
@@ -73018,7 +73054,7 @@
       </c>
       <c r="R983" s="25"/>
       <c r="S983" s="23" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="T983" s="24"/>
       <c r="U983" s="24"/>
@@ -73050,7 +73086,7 @@
         <v>76</v>
       </c>
       <c r="G984" s="25" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H984" s="25" t="s">
         <v>299</v>
@@ -73076,7 +73112,7 @@
       </c>
       <c r="R984" s="25"/>
       <c r="S984" s="23" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="T984" s="24">
         <v>0.54166666666666663</v>
@@ -73106,13 +73142,13 @@
         <v>45691</v>
       </c>
       <c r="E985" s="25" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="F985" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G985" s="25" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H985" s="25" t="s">
         <v>297</v>
@@ -73136,7 +73172,7 @@
       </c>
       <c r="R985" s="25"/>
       <c r="S985" s="102" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="T985" s="24"/>
       <c r="U985" s="24"/>
@@ -73168,7 +73204,7 @@
         <v>130</v>
       </c>
       <c r="G986" s="25" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H986" s="25" t="s">
         <v>297</v>
@@ -73192,16 +73228,16 @@
       </c>
       <c r="R986" s="25"/>
       <c r="S986" s="23" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="T986" s="24"/>
       <c r="U986" s="24"/>
       <c r="V986" s="25"/>
       <c r="W986" s="22" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="X986" s="109" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="987" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -73223,10 +73259,10 @@
         <v>457</v>
       </c>
       <c r="F987" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G987" s="25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H987" s="25" t="s">
         <v>297</v>
@@ -73252,7 +73288,7 @@
       </c>
       <c r="R987" s="25"/>
       <c r="S987" s="23" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="T987" s="24"/>
       <c r="U987" s="24"/>
@@ -73281,10 +73317,10 @@
         <v>457</v>
       </c>
       <c r="F988" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G988" s="25" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H988" s="25" t="s">
         <v>297</v>
@@ -73308,16 +73344,18 @@
       </c>
       <c r="R988" s="25"/>
       <c r="S988" s="23" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="T988" s="24"/>
       <c r="U988" s="24"/>
-      <c r="V988" s="25"/>
+      <c r="V988" s="25">
+        <v>10232</v>
+      </c>
       <c r="W988" s="22" t="s">
         <v>451</v>
       </c>
       <c r="X988" s="22" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="989" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -73342,7 +73380,7 @@
         <v>111</v>
       </c>
       <c r="G989" s="25" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H989" s="25" t="s">
         <v>299</v>
@@ -73368,7 +73406,7 @@
       </c>
       <c r="R989" s="25"/>
       <c r="S989" s="23" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="T989" s="24">
         <v>0.59722222222222221</v>
@@ -73404,7 +73442,7 @@
         <v>25</v>
       </c>
       <c r="G990" s="25" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H990" s="25" t="s">
         <v>299</v>
@@ -73430,7 +73468,7 @@
       </c>
       <c r="R990" s="25"/>
       <c r="S990" s="23" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="T990" s="24">
         <v>0.625</v>
@@ -73466,13 +73504,13 @@
         <v>394</v>
       </c>
       <c r="G991" s="25" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="H991" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I991" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J991" s="55" t="s">
         <v>29</v>
@@ -73490,7 +73528,7 @@
       </c>
       <c r="R991" s="25"/>
       <c r="S991" s="102" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="T991" s="24"/>
       <c r="U991" s="24"/>
@@ -73519,10 +73557,10 @@
         <v>479</v>
       </c>
       <c r="F992" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G992" s="25" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H992" s="25" t="s">
         <v>297</v>
@@ -73548,7 +73586,7 @@
       </c>
       <c r="R992" s="25"/>
       <c r="S992" s="23" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="T992" s="24"/>
       <c r="U992" s="24"/>
@@ -73580,13 +73618,13 @@
         <v>160</v>
       </c>
       <c r="G993" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H993" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I993" s="42" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="J993" s="55" t="s">
         <v>428</v>
@@ -73595,8 +73633,8 @@
         <v>45723</v>
       </c>
       <c r="L993" s="25"/>
-      <c r="M993" s="56">
-        <v>45726</v>
+      <c r="M993" s="112">
+        <v>45733</v>
       </c>
       <c r="N993" s="56"/>
       <c r="O993" s="25"/>
@@ -73606,7 +73644,7 @@
       </c>
       <c r="R993" s="25"/>
       <c r="S993" s="23" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="T993" s="24"/>
       <c r="U993" s="24"/>
@@ -73615,7 +73653,7 @@
         <v>441</v>
       </c>
       <c r="X993" s="109" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="994" spans="1:24" ht="15" customHeight="1">
@@ -73640,13 +73678,13 @@
         <v>394</v>
       </c>
       <c r="G994" s="25" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="H994" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I994" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J994" s="55" t="s">
         <v>449</v>
@@ -73654,7 +73692,7 @@
       <c r="K994" s="56"/>
       <c r="L994" s="25"/>
       <c r="M994" s="56">
-        <v>45723</v>
+        <v>45734</v>
       </c>
       <c r="N994" s="56"/>
       <c r="O994" s="25"/>
@@ -73664,16 +73702,16 @@
       </c>
       <c r="R994" s="25"/>
       <c r="S994" s="106" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="T994" s="24"/>
       <c r="U994" s="24"/>
       <c r="V994" s="25"/>
       <c r="W994" s="22" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X994" s="22" t="s">
-        <v>760</v>
+        <v>814</v>
       </c>
     </row>
     <row r="995" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -73695,10 +73733,10 @@
         <v>457</v>
       </c>
       <c r="F995" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G995" s="25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H995" s="25" t="s">
         <v>297</v>
@@ -73724,7 +73762,7 @@
       </c>
       <c r="R995" s="25"/>
       <c r="S995" s="23" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="T995" s="24"/>
       <c r="U995" s="24"/>
@@ -73756,13 +73794,13 @@
         <v>130</v>
       </c>
       <c r="G996" s="25" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H996" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I996" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J996" s="55" t="s">
         <v>428</v>
@@ -73772,7 +73810,7 @@
       </c>
       <c r="L996" s="25"/>
       <c r="M996" s="56">
-        <v>45730</v>
+        <v>45736</v>
       </c>
       <c r="N996" s="56"/>
       <c r="O996" s="25"/>
@@ -73782,7 +73820,7 @@
       </c>
       <c r="R996" s="25"/>
       <c r="S996" s="23" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="T996" s="24"/>
       <c r="U996" s="24"/>
@@ -73791,7 +73829,7 @@
         <v>48</v>
       </c>
       <c r="X996" s="22" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
     </row>
     <row r="997" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -73816,13 +73854,13 @@
         <v>439</v>
       </c>
       <c r="G997" s="25" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H997" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I997" s="42" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="J997" s="55" t="s">
         <v>29</v>
@@ -73844,7 +73882,7 @@
       </c>
       <c r="R997" s="25"/>
       <c r="S997" s="23" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="T997" s="24">
         <v>0.54166666666666663</v>
@@ -73874,19 +73912,19 @@
         <v>45723</v>
       </c>
       <c r="E998" s="25" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="F998" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G998" s="25" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H998" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I998" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J998" s="55" t="s">
         <v>29</v>
@@ -73904,7 +73942,7 @@
       </c>
       <c r="R998" s="25"/>
       <c r="S998" s="23" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="T998" s="24"/>
       <c r="U998" s="24"/>
@@ -73930,19 +73968,19 @@
         <v>45726</v>
       </c>
       <c r="E999" s="25" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="F999" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G999" s="25" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H999" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I999" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J999" s="55" t="s">
         <v>29</v>
@@ -73958,7 +73996,7 @@
       </c>
       <c r="R999" s="25"/>
       <c r="S999" s="23" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="T999" s="24"/>
       <c r="U999" s="24"/>
@@ -73987,16 +74025,16 @@
         <v>457</v>
       </c>
       <c r="F1000" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1000" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1000" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1000" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1000" s="55" t="s">
         <v>449</v>
@@ -74014,16 +74052,16 @@
       </c>
       <c r="R1000" s="25"/>
       <c r="S1000" s="23" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="T1000" s="24"/>
       <c r="U1000" s="24"/>
       <c r="V1000" s="25"/>
       <c r="W1000" s="22" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X1000" s="22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1001" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -74048,13 +74086,13 @@
         <v>424</v>
       </c>
       <c r="G1001" s="25" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H1001" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1001" s="42" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="J1001" s="55" t="s">
         <v>29</v>
@@ -74076,7 +74114,7 @@
       </c>
       <c r="R1001" s="25"/>
       <c r="S1001" s="23" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="T1001" s="24">
         <v>0.45833333333333331</v>
@@ -74112,13 +74150,13 @@
         <v>424</v>
       </c>
       <c r="G1002" s="25" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H1002" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1002" s="42" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="J1002" s="55" t="s">
         <v>29</v>
@@ -74140,7 +74178,7 @@
       </c>
       <c r="R1002" s="25"/>
       <c r="S1002" s="23" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="T1002" s="24">
         <v>0.45833333333333331</v>
@@ -74170,19 +74208,19 @@
         <v>45726</v>
       </c>
       <c r="E1003" s="25" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="F1003" s="25" t="s">
         <v>126</v>
       </c>
       <c r="G1003" s="25" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="H1003" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1003" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1003" s="55" t="s">
         <v>29</v>
@@ -74202,7 +74240,7 @@
       </c>
       <c r="R1003" s="25"/>
       <c r="S1003" s="102" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="T1003" s="24"/>
       <c r="U1003" s="24">
@@ -74236,13 +74274,13 @@
         <v>228</v>
       </c>
       <c r="G1004" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1004" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1004" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1004" s="55" t="s">
         <v>428</v>
@@ -74260,7 +74298,7 @@
       </c>
       <c r="R1004" s="25"/>
       <c r="S1004" s="23" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="T1004" s="24"/>
       <c r="U1004" s="24"/>
@@ -74269,7 +74307,7 @@
         <v>451</v>
       </c>
       <c r="X1004" s="22" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1005" spans="1:24" ht="15" customHeight="1">
@@ -74288,7 +74326,7 @@
         <v>45727</v>
       </c>
       <c r="E1005" s="25" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F1005" s="25" t="s">
         <v>433</v>
@@ -74300,7 +74338,7 @@
         <v>297</v>
       </c>
       <c r="I1005" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1005" s="55" t="s">
         <v>516</v>
@@ -74320,7 +74358,7 @@
       </c>
       <c r="R1005" s="25"/>
       <c r="S1005" s="23" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="T1005" s="24"/>
       <c r="U1005" s="24">
@@ -74329,7 +74367,7 @@
       <c r="V1005" s="25"/>
       <c r="W1005" s="6"/>
       <c r="X1005" s="22" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1006" spans="1:24" ht="15" customHeight="1">
@@ -74354,18 +74392,20 @@
         <v>130</v>
       </c>
       <c r="G1006" s="25" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H1006" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1006" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1006" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="K1006" s="56"/>
+      <c r="K1006" s="56">
+        <v>45731</v>
+      </c>
       <c r="L1006" s="25"/>
       <c r="M1006" s="56"/>
       <c r="N1006" s="56"/>
@@ -74376,16 +74416,16 @@
       </c>
       <c r="R1006" s="25"/>
       <c r="S1006" s="23" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="T1006" s="24"/>
       <c r="U1006" s="24"/>
       <c r="V1006" s="25"/>
       <c r="W1006" s="108" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X1006" s="22" t="s">
-        <v>760</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1007" spans="1:24" ht="15" customHeight="1">
@@ -74407,16 +74447,16 @@
         <v>457</v>
       </c>
       <c r="F1007" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1007" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1007" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1007" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1007" s="55" t="s">
         <v>29</v>
@@ -74436,7 +74476,7 @@
       </c>
       <c r="R1007" s="25"/>
       <c r="S1007" s="23" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="T1007" s="24"/>
       <c r="U1007" s="24"/>
@@ -74463,10 +74503,10 @@
         <v>479</v>
       </c>
       <c r="F1008" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1008" s="25" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="H1008" s="25" t="s">
         <v>297</v>
@@ -74490,7 +74530,7 @@
       </c>
       <c r="R1008" s="25"/>
       <c r="S1008" s="23" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="T1008" s="24">
         <v>0.375</v>
@@ -74503,7 +74543,7 @@
         <v>441</v>
       </c>
       <c r="X1008" s="22" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1009" spans="1:24" ht="15" customHeight="1">
@@ -74525,21 +74565,23 @@
         <v>457</v>
       </c>
       <c r="F1009" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1009" s="25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1009" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1009" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1009" s="55" t="s">
-        <v>449</v>
-      </c>
-      <c r="K1009" s="56"/>
+        <v>428</v>
+      </c>
+      <c r="K1009" s="56">
+        <v>45733</v>
+      </c>
       <c r="L1009" s="25"/>
       <c r="M1009" s="56"/>
       <c r="N1009" s="56"/>
@@ -74550,7 +74592,7 @@
       </c>
       <c r="R1009" s="25"/>
       <c r="S1009" s="23" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="T1009" s="24"/>
       <c r="U1009" s="24"/>
@@ -74559,7 +74601,7 @@
         <v>451</v>
       </c>
       <c r="X1009" s="22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1010" spans="1:24" ht="15" customHeight="1">
@@ -74578,7 +74620,7 @@
         <v>45727</v>
       </c>
       <c r="E1010" s="25" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F1010" s="25" t="s">
         <v>433</v>
@@ -74590,7 +74632,7 @@
         <v>299</v>
       </c>
       <c r="I1010" s="42" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="J1010" s="55" t="s">
         <v>449</v>
@@ -74606,13 +74648,13 @@
       </c>
       <c r="R1010" s="25"/>
       <c r="S1010" s="23" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="T1010" s="24"/>
       <c r="U1010" s="24"/>
       <c r="V1010" s="25"/>
       <c r="W1010" s="22" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="X1010" s="22" t="s">
         <v>442</v>
@@ -74637,16 +74679,16 @@
         <v>457</v>
       </c>
       <c r="F1011" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1011" s="25" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1011" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1011" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1011" s="55" t="s">
         <v>428</v>
@@ -74655,7 +74697,9 @@
         <v>45728</v>
       </c>
       <c r="L1011" s="25"/>
-      <c r="M1011" s="56"/>
+      <c r="M1011" s="56">
+        <v>45733</v>
+      </c>
       <c r="N1011" s="56"/>
       <c r="O1011" s="25"/>
       <c r="P1011" s="25"/>
@@ -74664,7 +74708,7 @@
       </c>
       <c r="R1011" s="25"/>
       <c r="S1011" s="23" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="T1011" s="24">
         <v>0.58333333333333337</v>
@@ -74675,7 +74719,7 @@
         <v>451</v>
       </c>
       <c r="X1011" s="22" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1012" spans="1:24" ht="28.5" customHeight="1">
@@ -74700,13 +74744,13 @@
         <v>295</v>
       </c>
       <c r="G1012" s="25" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H1012" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1012" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1012" s="55" t="s">
         <v>516</v>
@@ -74722,7 +74766,7 @@
       </c>
       <c r="R1012" s="25"/>
       <c r="S1012" s="102" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="T1012" s="24"/>
       <c r="U1012" s="24"/>
@@ -74749,16 +74793,16 @@
         <v>457</v>
       </c>
       <c r="F1013" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1013" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1013" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1013" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1013" s="55" t="s">
         <v>29</v>
@@ -74780,7 +74824,7 @@
       </c>
       <c r="R1013" s="25"/>
       <c r="S1013" s="102" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="T1013" s="24"/>
       <c r="U1013" s="24">
@@ -74811,24 +74855,28 @@
         <v>457</v>
       </c>
       <c r="F1014" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1014" s="25" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1014" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1014" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1014" s="55" t="s">
-        <v>449</v>
-      </c>
-      <c r="K1014" s="56"/>
+        <v>29</v>
+      </c>
+      <c r="K1014" s="56">
+        <v>45728</v>
+      </c>
       <c r="L1014" s="25"/>
       <c r="M1014" s="56"/>
-      <c r="N1014" s="56"/>
+      <c r="N1014" s="56">
+        <v>45729</v>
+      </c>
       <c r="O1014" s="25"/>
       <c r="P1014" s="25"/>
       <c r="Q1014" s="25">
@@ -74836,7 +74884,7 @@
       </c>
       <c r="R1014" s="25"/>
       <c r="S1014" s="23" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="T1014" s="24"/>
       <c r="U1014" s="24"/>
@@ -74845,7 +74893,7 @@
         <v>451</v>
       </c>
       <c r="X1014" s="22" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1015" spans="1:24" ht="15" customHeight="1">
@@ -74870,13 +74918,13 @@
         <v>111</v>
       </c>
       <c r="G1015" s="25" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H1015" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1015" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1015" s="55" t="s">
         <v>428</v>
@@ -74896,16 +74944,16 @@
       </c>
       <c r="R1015" s="18"/>
       <c r="S1015" s="17" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="T1015" s="21"/>
       <c r="U1015" s="21"/>
       <c r="V1015" s="18"/>
       <c r="W1015" s="19" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X1015" s="22" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1016" spans="1:24" ht="51.75" customHeight="1">
@@ -74927,16 +74975,16 @@
         <v>466</v>
       </c>
       <c r="F1016" s="25" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="G1016" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1016" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1016" s="42" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="J1016" s="55" t="s">
         <v>428</v>
@@ -74945,7 +74993,9 @@
         <v>45728</v>
       </c>
       <c r="L1016" s="25"/>
-      <c r="M1016" s="56"/>
+      <c r="M1016" s="56">
+        <v>45737</v>
+      </c>
       <c r="N1016" s="56"/>
       <c r="O1016" s="25"/>
       <c r="P1016" s="25"/>
@@ -74954,16 +75004,16 @@
       </c>
       <c r="R1016" s="110"/>
       <c r="S1016" s="111" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="T1016" s="21"/>
       <c r="U1016" s="21"/>
       <c r="V1016" s="18"/>
       <c r="W1016" s="22" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="X1016" s="22" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1017" spans="1:24" ht="15" customHeight="1">
@@ -74988,13 +75038,13 @@
         <v>228</v>
       </c>
       <c r="G1017" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1017" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1017" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1017" s="55" t="s">
         <v>428</v>
@@ -75014,7 +75064,7 @@
       </c>
       <c r="R1017" s="25"/>
       <c r="S1017" s="23" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="T1017" s="24"/>
       <c r="U1017" s="24"/>
@@ -75023,7 +75073,7 @@
         <v>451</v>
       </c>
       <c r="X1017" s="22" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1018" spans="1:24" ht="40.5" customHeight="1">
@@ -75048,16 +75098,16 @@
         <v>279</v>
       </c>
       <c r="G1018" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1018" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1018" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1018" s="55" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="K1018" s="56"/>
       <c r="L1018" s="25"/>
@@ -75070,16 +75120,14 @@
       </c>
       <c r="R1018" s="25"/>
       <c r="S1018" s="102" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="T1018" s="24"/>
       <c r="U1018" s="24"/>
       <c r="V1018" s="25"/>
-      <c r="W1018" s="22" t="s">
-        <v>451</v>
-      </c>
+      <c r="W1018" s="22"/>
       <c r="X1018" s="22" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1019" spans="1:24" ht="15" customHeight="1">
@@ -75104,13 +75152,13 @@
         <v>95</v>
       </c>
       <c r="G1019" s="25" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H1019" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1019" s="42" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="J1019" s="55" t="s">
         <v>428</v>
@@ -75128,7 +75176,7 @@
       </c>
       <c r="R1019" s="25"/>
       <c r="S1019" s="23" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="T1019" s="24">
         <v>0.58333333333333337</v>
@@ -75136,10 +75184,10 @@
       <c r="U1019" s="24"/>
       <c r="V1019" s="25"/>
       <c r="W1019" s="22" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="X1019" s="22" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1020" spans="1:24" ht="15" customHeight="1">
@@ -75164,16 +75212,16 @@
         <v>424</v>
       </c>
       <c r="G1020" s="25" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H1020" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1020" s="42" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="J1020" s="55" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K1020" s="56">
         <v>45729</v>
@@ -75182,7 +75230,9 @@
       <c r="M1020" s="56">
         <v>45729</v>
       </c>
-      <c r="N1020" s="56"/>
+      <c r="N1020" s="56">
+        <v>45729</v>
+      </c>
       <c r="O1020" s="25"/>
       <c r="P1020" s="25"/>
       <c r="Q1020" s="25">
@@ -75190,18 +75240,20 @@
       </c>
       <c r="R1020" s="25"/>
       <c r="S1020" s="23" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="T1020" s="24">
         <v>0.375</v>
       </c>
-      <c r="U1020" s="24"/>
+      <c r="U1020" s="24">
+        <v>0.39861111111111114</v>
+      </c>
       <c r="V1020" s="25"/>
       <c r="W1020" s="22" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="X1020" s="22" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1021" spans="1:24" ht="15" customHeight="1">
@@ -75220,22 +75272,22 @@
         <v>45729</v>
       </c>
       <c r="E1021" s="25" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="F1021" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G1021" s="25" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H1021" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1021" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1021" s="55" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K1021" s="56">
         <v>45726</v>
@@ -75252,16 +75304,16 @@
       </c>
       <c r="R1021" s="25"/>
       <c r="S1021" s="23" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="T1021" s="24"/>
       <c r="U1021" s="24"/>
       <c r="V1021" s="25"/>
       <c r="W1021" s="22" t="s">
-        <v>451</v>
+        <v>48</v>
       </c>
       <c r="X1021" s="22" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1022" spans="1:24" ht="15" customHeight="1">
@@ -75283,16 +75335,16 @@
         <v>457</v>
       </c>
       <c r="F1022" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1022" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1022" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1022" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1022" s="55" t="s">
         <v>449</v>
@@ -75308,7 +75360,7 @@
       </c>
       <c r="R1022" s="25"/>
       <c r="S1022" s="23" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="T1022" s="24"/>
       <c r="U1022" s="24"/>
@@ -75317,7 +75369,7 @@
         <v>451</v>
       </c>
       <c r="X1022" s="22" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1023" spans="1:24" ht="15" customHeight="1">
@@ -75339,16 +75391,16 @@
         <v>457</v>
       </c>
       <c r="F1023" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1023" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1023" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1023" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1023" s="55" t="s">
         <v>428</v>
@@ -75368,16 +75420,16 @@
       </c>
       <c r="R1023" s="25"/>
       <c r="S1023" s="23" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="T1023" s="24"/>
       <c r="U1023" s="24"/>
       <c r="V1023" s="25"/>
       <c r="W1023" s="22" t="s">
-        <v>451</v>
+        <v>48</v>
       </c>
       <c r="X1023" s="22" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1024" spans="1:24" ht="15" customHeight="1">
@@ -75402,7 +75454,7 @@
         <v>25</v>
       </c>
       <c r="G1024" s="25" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H1024" s="25" t="s">
         <v>299</v>
@@ -75411,12 +75463,18 @@
         <v>117</v>
       </c>
       <c r="J1024" s="55" t="s">
-        <v>449</v>
-      </c>
-      <c r="K1024" s="56"/>
+        <v>29</v>
+      </c>
+      <c r="K1024" s="56">
+        <v>45733</v>
+      </c>
       <c r="L1024" s="25"/>
-      <c r="M1024" s="56"/>
-      <c r="N1024" s="56"/>
+      <c r="M1024" s="56">
+        <v>45733</v>
+      </c>
+      <c r="N1024" s="56">
+        <v>45733</v>
+      </c>
       <c r="O1024" s="25"/>
       <c r="P1024" s="25"/>
       <c r="Q1024" s="25">
@@ -75424,13 +75482,17 @@
       </c>
       <c r="R1024" s="25"/>
       <c r="S1024" s="23" t="s">
-        <v>856</v>
-      </c>
-      <c r="T1024" s="24"/>
-      <c r="U1024" s="24"/>
+        <v>860</v>
+      </c>
+      <c r="T1024" s="24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U1024" s="24">
+        <v>0.34722222222222221</v>
+      </c>
       <c r="V1024" s="25"/>
       <c r="W1024" s="22" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="X1024" s="22"/>
     </row>
@@ -75450,19 +75512,19 @@
         <v>45730</v>
       </c>
       <c r="E1025" s="25" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F1025" s="25" t="s">
         <v>399</v>
       </c>
       <c r="G1025" s="25" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H1025" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1025" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1025" s="55" t="s">
         <v>60</v>
@@ -75478,7 +75540,7 @@
       </c>
       <c r="R1025" s="25"/>
       <c r="S1025" s="23" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="T1025" s="24"/>
       <c r="U1025" s="24"/>
@@ -75502,13 +75564,13 @@
         <v>45730</v>
       </c>
       <c r="E1026" s="25" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F1026" s="25" t="s">
         <v>531</v>
       </c>
       <c r="G1026" s="25" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1026" s="25" t="s">
         <v>297</v>
@@ -75530,15 +75592,17 @@
       </c>
       <c r="R1026" s="25"/>
       <c r="S1026" s="23" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="T1026" s="24"/>
       <c r="U1026" s="24"/>
       <c r="V1026" s="25"/>
       <c r="W1026" s="22" t="s">
-        <v>745</v>
-      </c>
-      <c r="X1026" s="22"/>
+        <v>748</v>
+      </c>
+      <c r="X1026" s="22" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="1027" spans="1:24" ht="15" customHeight="1">
       <c r="A1027" s="85">
@@ -75556,7 +75620,7 @@
         <v>45730</v>
       </c>
       <c r="E1027" s="25" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F1027" s="25" t="s">
         <v>39</v>
@@ -75584,15 +75648,17 @@
       </c>
       <c r="R1027" s="25"/>
       <c r="S1027" s="23" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="T1027" s="24"/>
       <c r="U1027" s="24"/>
       <c r="V1027" s="25"/>
       <c r="W1027" s="22" t="s">
-        <v>745</v>
-      </c>
-      <c r="X1027" s="22"/>
+        <v>748</v>
+      </c>
+      <c r="X1027" s="22" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="1028" spans="1:24" ht="15" customHeight="1">
       <c r="A1028" s="85">
@@ -75616,13 +75682,13 @@
         <v>263</v>
       </c>
       <c r="G1028" s="25" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H1028" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1028" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1028" s="55" t="s">
         <v>29</v>
@@ -75638,7 +75704,7 @@
       </c>
       <c r="R1028" s="25"/>
       <c r="S1028" s="23" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="T1028" s="24"/>
       <c r="U1028" s="24"/>
@@ -75668,13 +75734,13 @@
         <v>279</v>
       </c>
       <c r="G1029" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1029" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1029" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1029" s="55" t="s">
         <v>449</v>
@@ -75690,16 +75756,16 @@
       </c>
       <c r="R1029" s="25"/>
       <c r="S1029" s="102" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="T1029" s="24"/>
       <c r="U1029" s="24"/>
       <c r="V1029" s="25"/>
       <c r="W1029" s="22" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X1029" s="22" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1030" spans="1:24" ht="15" customHeight="1">
@@ -75721,16 +75787,16 @@
         <v>47</v>
       </c>
       <c r="F1030" s="25" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="G1030" s="25" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H1030" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1030" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1030" s="55" t="s">
         <v>29</v>
@@ -75746,7 +75812,7 @@
       </c>
       <c r="R1030" s="25"/>
       <c r="S1030" s="23" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="T1030" s="24"/>
       <c r="U1030" s="24"/>
@@ -75773,23 +75839,27 @@
         <v>457</v>
       </c>
       <c r="F1031" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1031" s="25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1031" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1031" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J1031" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="K1031" s="56"/>
+      <c r="K1031" s="56">
+        <v>45733</v>
+      </c>
       <c r="L1031" s="25"/>
-      <c r="M1031" s="56"/>
+      <c r="M1031" s="56">
+        <v>45733</v>
+      </c>
       <c r="N1031" s="56"/>
       <c r="O1031" s="25"/>
       <c r="P1031" s="25"/>
@@ -75798,13 +75868,17 @@
       </c>
       <c r="R1031" s="25"/>
       <c r="S1031" s="23" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="T1031" s="24"/>
       <c r="U1031" s="24"/>
       <c r="V1031" s="25"/>
-      <c r="W1031" s="22"/>
-      <c r="X1031" s="22"/>
+      <c r="W1031" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="X1031" s="22" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="1032" spans="1:24" ht="15" customHeight="1">
       <c r="A1032" s="85">
@@ -75828,13 +75902,13 @@
         <v>263</v>
       </c>
       <c r="G1032" s="25" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H1032" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1032" s="42" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="J1032" s="55" t="s">
         <v>449</v>
@@ -75850,13 +75924,123 @@
       </c>
       <c r="R1032" s="25"/>
       <c r="S1032" s="23" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="T1032" s="24"/>
       <c r="U1032" s="24"/>
       <c r="V1032" s="25"/>
-      <c r="W1032" s="22"/>
+      <c r="W1032" s="22" t="s">
+        <v>748</v>
+      </c>
       <c r="X1032" s="22"/>
+    </row>
+    <row r="1033" spans="1:24" ht="15" customHeight="1">
+      <c r="A1033" s="85">
+        <f>YEAR(D1033)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1033" s="25">
+        <f>MONTH(D1033)</f>
+        <v>3</v>
+      </c>
+      <c r="C1033" s="42">
+        <v>1048</v>
+      </c>
+      <c r="D1033" s="56">
+        <v>45733</v>
+      </c>
+      <c r="E1033" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1033" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1033" s="25" t="s">
+        <v>831</v>
+      </c>
+      <c r="H1033" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1033" s="42" t="s">
+        <v>810</v>
+      </c>
+      <c r="J1033" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1033" s="56"/>
+      <c r="L1033" s="25"/>
+      <c r="M1033" s="56"/>
+      <c r="N1033" s="56"/>
+      <c r="O1033" s="25"/>
+      <c r="P1033" s="25"/>
+      <c r="Q1033" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1033" s="25"/>
+      <c r="S1033" s="23" t="s">
+        <v>871</v>
+      </c>
+      <c r="T1033" s="24"/>
+      <c r="U1033" s="24"/>
+      <c r="V1033" s="25"/>
+      <c r="W1033" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="X1033" s="22"/>
+    </row>
+    <row r="1034" spans="1:24" ht="15" customHeight="1">
+      <c r="A1034" s="85">
+        <f>YEAR(D1034)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1034" s="25">
+        <f>MONTH(D1034)</f>
+        <v>3</v>
+      </c>
+      <c r="C1034" s="42">
+        <v>1049</v>
+      </c>
+      <c r="D1034" s="56">
+        <v>45733</v>
+      </c>
+      <c r="E1034" s="25" t="s">
+        <v>855</v>
+      </c>
+      <c r="F1034" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1034" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="H1034" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1034" s="42" t="s">
+        <v>810</v>
+      </c>
+      <c r="J1034" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1034" s="56"/>
+      <c r="L1034" s="25"/>
+      <c r="M1034" s="56"/>
+      <c r="N1034" s="56"/>
+      <c r="O1034" s="25"/>
+      <c r="P1034" s="25"/>
+      <c r="Q1034" s="25">
+        <v>362</v>
+      </c>
+      <c r="R1034" s="25"/>
+      <c r="S1034" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="T1034" s="24"/>
+      <c r="U1034" s="24"/>
+      <c r="V1034" s="25"/>
+      <c r="W1034" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="X1034" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
@@ -75864,7 +76048,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1032">
+  <conditionalFormatting sqref="J2:J1034">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -75928,12 +76112,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -76110,7 +76288,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -76119,14 +76297,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3949" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{584C564B-F891-4CAF-9C62-E5A74F4F74B1}"/>
+  <xr:revisionPtr revIDLastSave="3955" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D80B5AC9-5D6C-4D46-98F4-EEFF6D0AEB38}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16387" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16408" uniqueCount="878">
   <si>
     <t>ANO</t>
   </si>
@@ -2831,7 +2831,10 @@
     <t>10 LUVAS DE AÇO DE 1"</t>
   </si>
   <si>
-    <t xml:space="preserve">fabricação de 10 luva liza hq , 2 calibrado para sapata nw para hq </t>
+    <t xml:space="preserve">fabricação de 10 luva liza HQ , 2 calibrado para sapata nw para hq </t>
+  </si>
+  <si>
+    <t>Em processo, faltam as 10 luvas lisas HQ</t>
   </si>
   <si>
     <t>Inspeção e manutenção corretiva no solenoide ou troca da bateria, verificação de local de vazamento de óleo hidráulico.</t>
@@ -2841,6 +2844,18 @@
   </si>
   <si>
     <t xml:space="preserve">troca do fusivel conforme a foto do whatsapp. O eletricista vai ter que comparecer na frente. </t>
+  </si>
+  <si>
+    <t>022-24 VALE - PDE NW -SERRA LESTE -ET COBRA</t>
+  </si>
+  <si>
+    <t>01 Casinha para tambor laranja do Projeto Serra leste. Casinha esta que ficará no canteiro de apoio</t>
+  </si>
+  <si>
+    <t>Fábrica calha de manobra de 6m</t>
+  </si>
+  <si>
+    <t>TROCAR O CABO DE AÇO PRINCIPAL.</t>
   </si>
 </sst>
 </file>
@@ -4152,8 +4167,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1034" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X1034" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1037" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X1037" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4497,10 +4512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:Z1034"/>
+  <dimension ref="A1:Z1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1023" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W1037" sqref="W1037"/>
+    <sheetView tabSelected="1" topLeftCell="S1010" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W1019" sqref="W1019"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -75070,7 +75085,7 @@
       <c r="U1017" s="24"/>
       <c r="V1017" s="25"/>
       <c r="W1017" s="22" t="s">
-        <v>451</v>
+        <v>48</v>
       </c>
       <c r="X1017" s="22" t="s">
         <v>849</v>
@@ -75877,7 +75892,7 @@
         <v>451</v>
       </c>
       <c r="X1031" s="22" t="s">
-        <v>640</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1032" spans="1:24" ht="15" customHeight="1">
@@ -75924,7 +75939,7 @@
       </c>
       <c r="R1032" s="25"/>
       <c r="S1032" s="23" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="T1032" s="24"/>
       <c r="U1032" s="24"/>
@@ -75978,7 +75993,7 @@
       </c>
       <c r="R1033" s="25"/>
       <c r="S1033" s="23" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="T1033" s="24"/>
       <c r="U1033" s="24"/>
@@ -76032,7 +76047,7 @@
       </c>
       <c r="R1034" s="25"/>
       <c r="S1034" s="23" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="T1034" s="24"/>
       <c r="U1034" s="24"/>
@@ -76041,6 +76056,162 @@
         <v>748</v>
       </c>
       <c r="X1034" s="22"/>
+    </row>
+    <row r="1035" spans="1:24" ht="15" customHeight="1">
+      <c r="A1035" s="85">
+        <f>YEAR(D1035)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1035" s="25">
+        <f>MONTH(D1035)</f>
+        <v>3</v>
+      </c>
+      <c r="C1035" s="42">
+        <v>1050</v>
+      </c>
+      <c r="D1035" s="56">
+        <v>45733</v>
+      </c>
+      <c r="E1035" s="25" t="s">
+        <v>874</v>
+      </c>
+      <c r="F1035" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="G1035" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1035" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1035" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="J1035" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1035" s="56"/>
+      <c r="L1035" s="25"/>
+      <c r="M1035" s="56"/>
+      <c r="N1035" s="56"/>
+      <c r="O1035" s="25"/>
+      <c r="P1035" s="25"/>
+      <c r="Q1035" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1035" s="25"/>
+      <c r="S1035" s="23" t="s">
+        <v>875</v>
+      </c>
+      <c r="T1035" s="24"/>
+      <c r="U1035" s="24"/>
+      <c r="V1035" s="25"/>
+      <c r="W1035" s="22"/>
+      <c r="X1035" s="22"/>
+    </row>
+    <row r="1036" spans="1:24" ht="15" customHeight="1">
+      <c r="A1036" s="85">
+        <f>YEAR(D1036)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1036" s="25">
+        <f>MONTH(D1036)</f>
+        <v>3</v>
+      </c>
+      <c r="C1036" s="42">
+        <v>1051</v>
+      </c>
+      <c r="D1036" s="56">
+        <v>45733</v>
+      </c>
+      <c r="E1036" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1036" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1036" s="25" t="s">
+        <v>831</v>
+      </c>
+      <c r="H1036" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1036" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="J1036" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1036" s="56"/>
+      <c r="L1036" s="25"/>
+      <c r="M1036" s="56"/>
+      <c r="N1036" s="56"/>
+      <c r="O1036" s="25"/>
+      <c r="P1036" s="25"/>
+      <c r="Q1036" s="25">
+        <v>1024</v>
+      </c>
+      <c r="R1036" s="25"/>
+      <c r="S1036" s="23" t="s">
+        <v>876</v>
+      </c>
+      <c r="T1036" s="24"/>
+      <c r="U1036" s="24"/>
+      <c r="V1036" s="25"/>
+      <c r="W1036" s="22"/>
+      <c r="X1036" s="22"/>
+    </row>
+    <row r="1037" spans="1:24" ht="15" customHeight="1">
+      <c r="A1037" s="85">
+        <f>YEAR(D1037)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1037" s="25">
+        <f>MONTH(D1037)</f>
+        <v>3</v>
+      </c>
+      <c r="C1037" s="42">
+        <v>1052</v>
+      </c>
+      <c r="D1037" s="56">
+        <v>45733</v>
+      </c>
+      <c r="E1037" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1037" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1037" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="H1037" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1037" s="42" t="s">
+        <v>810</v>
+      </c>
+      <c r="J1037" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1037" s="56"/>
+      <c r="L1037" s="25"/>
+      <c r="M1037" s="56"/>
+      <c r="N1037" s="56"/>
+      <c r="O1037" s="25"/>
+      <c r="P1037" s="25"/>
+      <c r="Q1037" s="25">
+        <v>142</v>
+      </c>
+      <c r="R1037" s="25"/>
+      <c r="S1037" s="23" t="s">
+        <v>877</v>
+      </c>
+      <c r="T1037" s="24"/>
+      <c r="U1037" s="24"/>
+      <c r="V1037" s="25"/>
+      <c r="W1037" s="22"/>
+      <c r="X1037" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
@@ -76048,7 +76219,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1034">
+  <conditionalFormatting sqref="J2:J1037">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -76112,6 +76283,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -76288,23 +76474,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76312,5 +76483,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3955" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D80B5AC9-5D6C-4D46-98F4-EEFF6D0AEB38}"/>
+  <xr:revisionPtr revIDLastSave="4120" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E3E4EE5-A5CD-4FD0-B4A9-7C5517ECAF8B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16408" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16531" uniqueCount="893">
   <si>
     <t>ANO</t>
   </si>
@@ -1481,7 +1481,7 @@
     <t>Trocar tela por chapa de aço e pintar armário da equipe da civil.</t>
   </si>
   <si>
-    <t>Aguardando munck para levar a cabine</t>
+    <t>Em processo</t>
   </si>
   <si>
     <t>S23 - MACH 700</t>
@@ -1521,9 +1521,6 @@
   </si>
   <si>
     <t>Fabricaçao de Prateleiras para armazenamento de latas de tintas</t>
-  </si>
-  <si>
-    <t>Irá para pintura após o armario da civil</t>
   </si>
   <si>
     <t xml:space="preserve">Frota </t>
@@ -2075,12 +2072,6 @@
   </si>
   <si>
     <t>Fabricar redução de HW para HQ</t>
-  </si>
-  <si>
-    <t>TORNEARIA</t>
-  </si>
-  <si>
-    <t>Em processo</t>
   </si>
   <si>
     <t>Reparos e Pintura na escada para a sonda S-36.</t>
@@ -2197,6 +2188,9 @@
   </si>
   <si>
     <t>02 REDUÇÃO MACHO DE REVESTIMENTO HW PARA HQ FEMEA</t>
+  </si>
+  <si>
+    <t>TORNEARIA</t>
   </si>
   <si>
     <t>AGUARDANDO MATERIAL (SC 10088)</t>
@@ -2627,7 +2621,7 @@
     <t>Fabricar proteções para motores brancos com partida elétrica.</t>
   </si>
   <si>
-    <t>aguardando barra chata para fcontinua fabricação</t>
+    <t>aguardando barra chata para continuar fabricação</t>
   </si>
   <si>
     <t xml:space="preserve">Problema na morca </t>
@@ -2665,7 +2659,7 @@
     <t xml:space="preserve">Fabricação de suporte para capacetes </t>
   </si>
   <si>
-    <t>Fábrica dois pares de cavaletes para hastes/revestimento.</t>
+    <t>Fábricar dois pares de cavaletes para hastes/revestimento.</t>
   </si>
   <si>
     <t>Programar para iniciar fabricação amanhã 14/03</t>
@@ -2702,15 +2696,15 @@
     <t xml:space="preserve">FABRICACAO DE 02 CASINHAS DE PROTEÇÃO DO BANHEIRO QUÍMICO </t>
   </si>
   <si>
-    <t>01 unidade disponivel, fabricar mais uma</t>
-  </si>
-  <si>
     <t>11 CAPACETES PARA INSTRUMENTOS</t>
   </si>
   <si>
     <t>Aguardando retirada</t>
   </si>
   <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
     <t>Joardson de Jesus Rodrigues</t>
   </si>
   <si>
@@ -2726,7 +2720,7 @@
     <t>Manutenção preventiva e revisão no compressor CP-03.</t>
   </si>
   <si>
-    <t>Aguardando filtros e suporte para bateria (adequação)</t>
+    <t xml:space="preserve">Aguardando filtros </t>
   </si>
   <si>
     <t xml:space="preserve">Fabricação de Portas com cadeado para a prateleira que irá Guardar os itens Calibrados </t>
@@ -2813,7 +2807,7 @@
     <t>Retirada do implemento da INNRA e manutenção PREVENTIVA de 500 horas</t>
   </si>
   <si>
-    <t>, AVALIAÇÃO ESTRUTURAL, HIDRÁULICA E ELÉTRICA ANTES DE SUBIR PARA CARAJÁS</t>
+    <t>AVALIAÇÃO ESTRUTURAL, HIDRÁULICA E ELÉTRICA ANTES DE SUBIR PARA CARAJÁS</t>
   </si>
   <si>
     <t>01- Suporte de garrafa térmica e galão abaixo da garrafa</t>
@@ -2856,6 +2850,66 @@
   </si>
   <si>
     <t>TROCAR O CABO DE AÇO PRINCIPAL.</t>
+  </si>
+  <si>
+    <t>REFORÇA A  GAIOLA DA SONDA S47.</t>
+  </si>
+  <si>
+    <t>MT 05 - MOTOR BRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar motor, está fumaçando , realizar manutenção geral, pois o mesmo não está puxando água,pode ser o selo mecânico ou rotor </t>
+  </si>
+  <si>
+    <t>Calha de manobra deslizante de 6 metros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabo principal do guincho está danificado </t>
+  </si>
+  <si>
+    <t>Soldar caixa do cabo do guincho lado esquerdo e fabricar suporte de patola do caminhão PXK-7G22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabricação de forma de aço na medida 40x25 para instalação de base de concreto para instrumentação na área Vale </t>
+  </si>
+  <si>
+    <t>01 DESEMBUCHADOR HQ</t>
+  </si>
+  <si>
+    <t>Na tornearia e logo após irá descer para caldeiraria.</t>
+  </si>
+  <si>
+    <t>Instalar santo Antônio da caminhonete RWV-8G98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03 HASTE DE 1M HQ;
+03 HASTE HQ DE 1M;
+03 HASTE HQ DE 0,80M.
+</t>
+  </si>
+  <si>
+    <t>Novamente, vazamento de óleo no radiador da sonda.</t>
+  </si>
+  <si>
+    <t>Fabricar um par de cavaletes</t>
+  </si>
+  <si>
+    <t>163-24 MASA - BARRAGEM VNÉ II</t>
+  </si>
+  <si>
+    <t>Fabricação de 2 cabeças de bater o SPT.
+3 redutor NQ fêmea para HQ macho
+3 redutor NQ fêmea para HQ macho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabricação:
+6 unidades placas de segurança tipo cavalete.
+1 Tenda 3X3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manutenção no reset da sonda </t>
   </si>
 </sst>
 </file>
@@ -2915,7 +2969,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2952,14 +3006,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -3199,6 +3247,21 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3540,7 +3603,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4167,8 +4230,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1037" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X1037" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1051" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X1051" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}">
     <filterColumn colId="9">
       <filters>
         <filter val="ABERTA"/>
@@ -4512,10 +4575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:Z1037"/>
+  <dimension ref="A1:Z1051"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1010" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W1019" sqref="W1019"/>
+    <sheetView tabSelected="1" topLeftCell="S1043" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X1058" sqref="X1058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -4540,8 +4603,8 @@
     <col min="19" max="19" width="153" style="101" customWidth="1"/>
     <col min="20" max="20" width="14" style="86" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="86" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="86" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="86" customWidth="1"/>
+    <col min="23" max="23" width="26.42578125" style="86" customWidth="1"/>
     <col min="24" max="24" width="83.85546875" style="86" customWidth="1"/>
   </cols>
   <sheetData>
@@ -53271,7 +53334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="670" spans="1:24">
+    <row r="670" spans="1:24" hidden="1">
       <c r="A670" s="70">
         <f>YEAR(D670)</f>
         <v>2024</v>
@@ -53302,7 +53365,7 @@
         <v>48</v>
       </c>
       <c r="J670" s="45" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K670" s="44">
         <v>45691</v>
@@ -53313,7 +53376,9 @@
       <c r="M670" s="44">
         <v>45712</v>
       </c>
-      <c r="N670" s="1"/>
+      <c r="N670" s="44">
+        <v>45735</v>
+      </c>
       <c r="O670" s="43" t="s">
         <v>434</v>
       </c>
@@ -58519,7 +58584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="743" spans="1:24">
+    <row r="743" spans="1:24" hidden="1">
       <c r="A743" s="70">
         <f>YEAR(D743)</f>
         <v>2025</v>
@@ -58550,7 +58615,7 @@
         <v>35</v>
       </c>
       <c r="J743" s="1" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K743" s="44">
         <v>45691</v>
@@ -58561,7 +58626,9 @@
       <c r="M743" s="44">
         <v>45712</v>
       </c>
-      <c r="N743" s="1"/>
+      <c r="N743" s="44">
+        <v>45736</v>
+      </c>
       <c r="O743" s="43" t="s">
         <v>434</v>
       </c>
@@ -58586,11 +58653,9 @@
       <c r="V743" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W743" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="W743" s="5"/>
       <c r="X743" s="11" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="744" spans="1:24" hidden="1">
@@ -58615,7 +58680,7 @@
         <v>24</v>
       </c>
       <c r="G744" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H744" s="1" t="s">
         <v>297</v>
@@ -58651,7 +58716,7 @@
         <v>24</v>
       </c>
       <c r="S744" s="90" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="T744" s="1" t="s">
         <v>24</v>
@@ -58683,10 +58748,10 @@
         <v>45670</v>
       </c>
       <c r="E745" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F745" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="F745" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="G745" s="1" t="s">
         <v>131</v>
@@ -58725,7 +58790,7 @@
         <v>24</v>
       </c>
       <c r="S745" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="T745" s="1" t="s">
         <v>24</v>
@@ -58757,7 +58822,7 @@
         <v>45670</v>
       </c>
       <c r="E746" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F746" s="1" t="s">
         <v>401</v>
@@ -58799,7 +58864,7 @@
         <v>24</v>
       </c>
       <c r="S746" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="T746" s="8">
         <v>0.33333333333333331</v>
@@ -58808,7 +58873,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="V746" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="W746" s="5"/>
       <c r="X746" s="5" t="s">
@@ -58831,7 +58896,7 @@
         <v>45670</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F747" s="1" t="s">
         <v>111</v>
@@ -58873,7 +58938,7 @@
         <v>24</v>
       </c>
       <c r="S747" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T747" s="1" t="s">
         <v>24</v>
@@ -58905,7 +58970,7 @@
         <v>45670</v>
       </c>
       <c r="E748" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F748" s="1" t="s">
         <v>447</v>
@@ -58947,7 +59012,7 @@
         <v>24</v>
       </c>
       <c r="S748" s="90" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="T748" s="1" t="s">
         <v>24</v>
@@ -58979,7 +59044,7 @@
         <v>45671</v>
       </c>
       <c r="E749" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F749" s="1" t="s">
         <v>401</v>
@@ -59013,7 +59078,7 @@
         <v>2470</v>
       </c>
       <c r="S749" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="T749" s="8">
         <v>0.40625</v>
@@ -59028,7 +59093,7 @@
         <v>441</v>
       </c>
       <c r="X749" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="750" spans="1:24" hidden="1">
@@ -59047,7 +59112,7 @@
         <v>45671</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F750" s="1" t="s">
         <v>186</v>
@@ -59089,7 +59154,7 @@
         <v>24</v>
       </c>
       <c r="S750" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="T750" s="8">
         <v>0.41666666666666669</v>
@@ -59121,10 +59186,10 @@
         <v>45671</v>
       </c>
       <c r="E751" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F751" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="F751" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="G751" s="1" t="s">
         <v>24</v>
@@ -59163,7 +59228,7 @@
         <v>24</v>
       </c>
       <c r="S751" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T751" s="1" t="s">
         <v>24</v>
@@ -59195,7 +59260,7 @@
         <v>45672</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F752" s="1" t="s">
         <v>279</v>
@@ -59237,7 +59302,7 @@
         <v>24</v>
       </c>
       <c r="S752" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T752" s="1" t="s">
         <v>24</v>
@@ -59269,10 +59334,10 @@
         <v>45672</v>
       </c>
       <c r="E753" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F753" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="F753" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="G753" s="1" t="s">
         <v>361</v>
@@ -59311,7 +59376,7 @@
         <v>24</v>
       </c>
       <c r="S753" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="T753" s="8">
         <v>0.33333333333333331</v>
@@ -59343,7 +59408,7 @@
         <v>45672</v>
       </c>
       <c r="E754" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F754" s="1" t="s">
         <v>424</v>
@@ -59385,7 +59450,7 @@
         <v>24</v>
       </c>
       <c r="S754" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="T754" s="8">
         <v>0.5</v>
@@ -59459,7 +59524,7 @@
         <v>24</v>
       </c>
       <c r="S755" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T755" s="1" t="s">
         <v>24</v>
@@ -59530,10 +59595,10 @@
         <v>986</v>
       </c>
       <c r="R756" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="S756" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="S756" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="T756" s="8">
         <v>0.60416666666666663</v>
@@ -59569,7 +59634,7 @@
         <v>24</v>
       </c>
       <c r="G757" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H757" s="1" t="s">
         <v>297</v>
@@ -59605,7 +59670,7 @@
         <v>24</v>
       </c>
       <c r="S757" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T757" s="1" t="s">
         <v>24</v>
@@ -59679,7 +59744,7 @@
         <v>24</v>
       </c>
       <c r="S758" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="T758" s="1" t="s">
         <v>24</v>
@@ -59695,7 +59760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="759" spans="1:24">
+    <row r="759" spans="1:24" hidden="1">
       <c r="A759" s="70">
         <f>YEAR(D759)</f>
         <v>2025</v>
@@ -59745,7 +59810,7 @@
         <v>434</v>
       </c>
       <c r="S759" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T759" s="8">
         <v>0.41666666666666669</v>
@@ -59760,10 +59825,10 @@
         <v>451</v>
       </c>
       <c r="X759" s="5" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="760" spans="1:24">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="760" spans="1:24" hidden="1">
       <c r="A760" s="70">
         <f>YEAR(D760)</f>
         <v>2025</v>
@@ -59813,7 +59878,7 @@
         <v>434</v>
       </c>
       <c r="S760" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T760" s="8">
         <v>0.34722222222222221</v>
@@ -59826,7 +59891,7 @@
         <v>48</v>
       </c>
       <c r="X760" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="761" spans="1:24" hidden="1">
@@ -59887,7 +59952,7 @@
         <v>24</v>
       </c>
       <c r="S761" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T761" s="1" t="s">
         <v>24</v>
@@ -59919,7 +59984,7 @@
         <v>45674</v>
       </c>
       <c r="E762" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F762" s="45" t="s">
         <v>279</v>
@@ -59961,7 +60026,7 @@
         <v>24</v>
       </c>
       <c r="S762" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T762" s="1" t="s">
         <v>24</v>
@@ -59993,7 +60058,7 @@
         <v>45674</v>
       </c>
       <c r="E763" s="73" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F763" s="45" t="s">
         <v>439</v>
@@ -60067,7 +60132,7 @@
         <v>45673</v>
       </c>
       <c r="E764" s="38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F764" s="45" t="s">
         <v>433</v>
@@ -60109,7 +60174,7 @@
         <v>24</v>
       </c>
       <c r="S764" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="T764" s="8">
         <v>0.33333333333333331</v>
@@ -60141,7 +60206,7 @@
         <v>45674</v>
       </c>
       <c r="E765" s="73" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F765" s="45" t="s">
         <v>219</v>
@@ -60171,13 +60236,13 @@
       </c>
       <c r="P765" s="1"/>
       <c r="Q765" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="R765" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="R765" s="1" t="s">
+      <c r="S765" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="S765" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="T765" s="8">
         <v>0.33333333333333331</v>
@@ -60190,7 +60255,7 @@
       </c>
       <c r="W765" s="6"/>
       <c r="X765" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="766" spans="1:24" hidden="1">
@@ -60209,7 +60274,7 @@
         <v>45674</v>
       </c>
       <c r="E766" s="38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F766" s="45" t="s">
         <v>295</v>
@@ -60243,13 +60308,13 @@
       </c>
       <c r="P766" s="1"/>
       <c r="Q766" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="R766" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="R766" s="1" t="s">
+      <c r="S766" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="S766" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="T766" s="8">
         <v>0.45833333333333331</v>
@@ -60281,7 +60346,7 @@
         <v>45678</v>
       </c>
       <c r="E767" s="73" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F767" s="45" t="s">
         <v>24</v>
@@ -60321,7 +60386,7 @@
         <v>24</v>
       </c>
       <c r="S767" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T767" s="1" t="s">
         <v>24</v>
@@ -60353,7 +60418,7 @@
         <v>45678</v>
       </c>
       <c r="E768" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F768" s="45" t="s">
         <v>24</v>
@@ -60395,7 +60460,7 @@
         <v>24</v>
       </c>
       <c r="S768" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T768" s="1" t="s">
         <v>24</v>
@@ -60427,7 +60492,7 @@
         <v>45678</v>
       </c>
       <c r="E769" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F769" s="45" t="s">
         <v>447</v>
@@ -60467,7 +60532,7 @@
         <v>24</v>
       </c>
       <c r="S769" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="T769" s="8">
         <v>0.33333333333333331</v>
@@ -60499,7 +60564,7 @@
         <v>45678</v>
       </c>
       <c r="E770" s="74" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F770" s="45" t="s">
         <v>24</v>
@@ -60573,7 +60638,7 @@
         <v>45678</v>
       </c>
       <c r="E771" s="73" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F771" s="45" t="s">
         <v>263</v>
@@ -60607,13 +60672,13 @@
       </c>
       <c r="P771" s="1"/>
       <c r="Q771" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="R771" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="R771" s="1" t="s">
+      <c r="S771" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="S771" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="T771" s="8">
         <v>0.33333333333333331</v>
@@ -60645,7 +60710,7 @@
         <v>45312</v>
       </c>
       <c r="E772" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F772" s="45" t="s">
         <v>24</v>
@@ -60679,7 +60744,7 @@
         <v>24</v>
       </c>
       <c r="S772" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T772" s="1" t="s">
         <v>24</v>
@@ -60726,7 +60791,7 @@
         <v>35</v>
       </c>
       <c r="J773" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K773" s="44">
         <v>45679</v>
@@ -60751,7 +60816,7 @@
         <v>434</v>
       </c>
       <c r="S773" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="T773" s="8">
         <v>0.41666666666666669</v>
@@ -60823,7 +60888,7 @@
         <v>24</v>
       </c>
       <c r="S774" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T774" s="1" t="s">
         <v>24</v>
@@ -60855,13 +60920,13 @@
         <v>45678</v>
       </c>
       <c r="E775" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F775" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="G775" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="G775" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="H775" s="1" t="s">
         <v>297</v>
@@ -60897,7 +60962,7 @@
         <v>24</v>
       </c>
       <c r="S775" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="T775" s="1" t="s">
         <v>24</v>
@@ -60929,13 +60994,13 @@
         <v>45678</v>
       </c>
       <c r="E776" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F776" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="G776" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="G776" s="3" t="s">
-        <v>520</v>
       </c>
       <c r="H776" s="3" t="s">
         <v>297</v>
@@ -61045,7 +61110,7 @@
         <v>24</v>
       </c>
       <c r="S777" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T777" s="3" t="s">
         <v>24</v>
@@ -61077,7 +61142,7 @@
         <v>45312</v>
       </c>
       <c r="E778" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F778" s="46" t="s">
         <v>130</v>
@@ -61113,13 +61178,13 @@
         <v>24</v>
       </c>
       <c r="Q778" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="R778" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="R778" s="3" t="s">
+      <c r="S778" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="S778" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="T778" s="7">
         <v>0.45416666666666666</v>
@@ -61151,7 +61216,7 @@
         <v>45312</v>
       </c>
       <c r="E779" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F779" s="46" t="s">
         <v>228</v>
@@ -61193,7 +61258,7 @@
         <v>24</v>
       </c>
       <c r="S779" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="T779" s="7">
         <v>0.375</v>
@@ -61265,7 +61330,7 @@
         <v>24</v>
       </c>
       <c r="S780" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="T780" s="3" t="s">
         <v>24</v>
@@ -61339,7 +61404,7 @@
         <v>24</v>
       </c>
       <c r="S781" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="T781" s="3" t="s">
         <v>24</v>
@@ -61445,7 +61510,7 @@
         <v>45312</v>
       </c>
       <c r="E783" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F783" s="46" t="s">
         <v>24</v>
@@ -61487,7 +61552,7 @@
         <v>24</v>
       </c>
       <c r="S783" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T783" s="3" t="s">
         <v>24</v>
@@ -61519,10 +61584,10 @@
         <v>45312</v>
       </c>
       <c r="E784" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F784" s="45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G784" s="1" t="s">
         <v>398</v>
@@ -61561,7 +61626,7 @@
         <v>24</v>
       </c>
       <c r="S784" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T784" s="8">
         <v>0.54166666666666663</v>
@@ -61635,7 +61700,7 @@
         <v>24</v>
       </c>
       <c r="S785" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T785" s="1" t="s">
         <v>24</v>
@@ -61709,7 +61774,7 @@
         <v>24</v>
       </c>
       <c r="S786" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="T786" s="1" t="s">
         <v>24</v>
@@ -61925,7 +61990,7 @@
         <v>24</v>
       </c>
       <c r="S789" s="91" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="T789" s="3" t="s">
         <v>24</v>
@@ -61991,7 +62056,7 @@
         <v>434</v>
       </c>
       <c r="S790" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T790" s="8">
         <v>0.56944444444444442</v>
@@ -62004,7 +62069,7 @@
         <v>451</v>
       </c>
       <c r="X790" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="791" spans="1:24">
@@ -62047,18 +62112,18 @@
       <c r="Q791" s="1"/>
       <c r="R791" s="1"/>
       <c r="S791" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="T791" s="1"/>
+      <c r="U791" s="112"/>
+      <c r="V791" s="45" t="s">
         <v>538</v>
-      </c>
-      <c r="T791" s="1"/>
-      <c r="U791" s="1"/>
-      <c r="V791" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="W791" s="5" t="s">
         <v>451</v>
       </c>
       <c r="X791" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="792" spans="1:24">
@@ -62101,18 +62166,18 @@
       <c r="Q792" s="1"/>
       <c r="R792" s="1"/>
       <c r="S792" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="T792" s="1"/>
+      <c r="U792" s="112"/>
+      <c r="V792" s="45" t="s">
         <v>538</v>
-      </c>
-      <c r="T792" s="1"/>
-      <c r="U792" s="1"/>
-      <c r="V792" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="W792" s="5" t="s">
         <v>451</v>
       </c>
       <c r="X792" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="793" spans="1:24">
@@ -62155,18 +62220,18 @@
       <c r="Q793" s="1"/>
       <c r="R793" s="1"/>
       <c r="S793" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="T793" s="1"/>
+      <c r="U793" s="112"/>
+      <c r="V793" s="45" t="s">
         <v>538</v>
-      </c>
-      <c r="T793" s="1"/>
-      <c r="U793" s="1"/>
-      <c r="V793" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="W793" s="5" t="s">
         <v>451</v>
       </c>
       <c r="X793" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="794" spans="1:24">
@@ -62209,18 +62274,18 @@
       <c r="Q794" s="1"/>
       <c r="R794" s="1"/>
       <c r="S794" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="T794" s="1"/>
+      <c r="U794" s="112"/>
+      <c r="V794" s="45" t="s">
         <v>538</v>
-      </c>
-      <c r="T794" s="1"/>
-      <c r="U794" s="1"/>
-      <c r="V794" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="W794" s="5" t="s">
         <v>451</v>
       </c>
       <c r="X794" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="795" spans="1:24" hidden="1">
@@ -62267,7 +62332,7 @@
       <c r="Q795" s="1"/>
       <c r="R795" s="1"/>
       <c r="S795" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="T795" s="1"/>
       <c r="U795" s="1"/>
@@ -62319,7 +62384,7 @@
       <c r="Q796" s="1"/>
       <c r="R796" s="1"/>
       <c r="S796" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="T796" s="1"/>
       <c r="U796" s="1"/>
@@ -62371,7 +62436,7 @@
       <c r="Q797" s="1"/>
       <c r="R797" s="1"/>
       <c r="S797" s="91" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T797" s="1"/>
       <c r="U797" s="1"/>
@@ -62423,7 +62488,7 @@
       <c r="Q798" s="1"/>
       <c r="R798" s="1"/>
       <c r="S798" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="T798" s="1"/>
       <c r="U798" s="1"/>
@@ -62449,19 +62514,19 @@
         <v>45680</v>
       </c>
       <c r="E799" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F799" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G799" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="G799" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="H799" s="1" t="s">
         <v>299</v>
       </c>
       <c r="I799" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J799" s="1" t="s">
         <v>29</v>
@@ -62481,13 +62546,13 @@
       </c>
       <c r="P799" s="1"/>
       <c r="Q799" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="R799" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="R799" s="1" t="s">
+      <c r="S799" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="S799" s="9" t="s">
-        <v>550</v>
       </c>
       <c r="T799" s="8">
         <v>0.5625</v>
@@ -62543,7 +62608,7 @@
       <c r="Q800" s="1"/>
       <c r="R800" s="1"/>
       <c r="S800" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T800" s="1"/>
       <c r="U800" s="1"/>
@@ -62595,7 +62660,7 @@
       <c r="Q801" s="1"/>
       <c r="R801" s="1"/>
       <c r="S801" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T801" s="1"/>
       <c r="U801" s="1"/>
@@ -62621,13 +62686,13 @@
         <v>45680</v>
       </c>
       <c r="E802" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F802" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G802" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="G802" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="H802" s="1" t="s">
         <v>297</v>
@@ -62647,7 +62712,7 @@
       <c r="Q802" s="1"/>
       <c r="R802" s="1"/>
       <c r="S802" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="T802" s="1"/>
       <c r="U802" s="1"/>
@@ -62671,13 +62736,13 @@
         <v>45680</v>
       </c>
       <c r="E803" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F803" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G803" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="G803" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="H803" s="1" t="s">
         <v>297</v>
@@ -62697,7 +62762,7 @@
       <c r="Q803" s="1"/>
       <c r="R803" s="1"/>
       <c r="S803" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="T803" s="1"/>
       <c r="U803" s="1"/>
@@ -62705,7 +62770,7 @@
       <c r="W803" s="5"/>
       <c r="X803" s="5"/>
     </row>
-    <row r="804" spans="1:24">
+    <row r="804" spans="1:24" hidden="1">
       <c r="A804" s="45">
         <f>YEAR(D804)</f>
         <v>2025</v>
@@ -62724,10 +62789,10 @@
         <v>457</v>
       </c>
       <c r="F804" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G804" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="G804" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="H804" s="1" t="s">
         <v>297</v>
@@ -62747,7 +62812,7 @@
       <c r="Q804" s="1"/>
       <c r="R804" s="1"/>
       <c r="S804" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T804" s="1"/>
       <c r="U804" s="1"/>
@@ -62771,7 +62836,7 @@
         <v>45681</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F805" s="1" t="s">
         <v>25</v>
@@ -62799,7 +62864,7 @@
       <c r="Q805" s="1"/>
       <c r="R805" s="1"/>
       <c r="S805" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="T805" s="1"/>
       <c r="U805" s="1"/>
@@ -62828,7 +62893,7 @@
         <v>457</v>
       </c>
       <c r="F806" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G806" s="1"/>
       <c r="H806" s="1" t="s">
@@ -62853,7 +62918,7 @@
       <c r="Q806" s="1"/>
       <c r="R806" s="1"/>
       <c r="S806" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="T806" s="1"/>
       <c r="U806" s="1"/>
@@ -62879,10 +62944,10 @@
         <v>45681</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F807" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G807" s="3"/>
       <c r="H807" s="3" t="s">
@@ -62927,7 +62992,7 @@
         <v>45681</v>
       </c>
       <c r="E808" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F808" s="3" t="s">
         <v>433</v>
@@ -62967,7 +63032,7 @@
         <v>434</v>
       </c>
       <c r="S808" s="92" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="T808" s="7">
         <v>0.375</v>
@@ -62995,13 +63060,13 @@
         <v>45681</v>
       </c>
       <c r="E809" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F809" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="G809" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="F809" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G809" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="H809" s="3" t="s">
         <v>297</v>
@@ -63027,7 +63092,7 @@
       </c>
       <c r="R809" s="3"/>
       <c r="S809" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="T809" s="7">
         <v>0.41666666666666669</v>
@@ -63060,10 +63125,10 @@
         <v>47</v>
       </c>
       <c r="F810" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G810" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="G810" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="H810" s="3" t="s">
         <v>297</v>
@@ -63083,7 +63148,7 @@
       <c r="Q810" s="3"/>
       <c r="R810" s="3"/>
       <c r="S810" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T810" s="3"/>
       <c r="U810" s="3"/>
@@ -63109,13 +63174,13 @@
         <v>45687.534421296295</v>
       </c>
       <c r="E811" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F811" s="3" t="s">
         <v>289</v>
       </c>
       <c r="G811" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H811" s="3" t="s">
         <v>299</v>
@@ -63139,7 +63204,7 @@
       </c>
       <c r="R811" s="3"/>
       <c r="S811" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T811" s="7">
         <v>0.33333333333333331</v>
@@ -63172,10 +63237,10 @@
         <v>457</v>
       </c>
       <c r="F812" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G812" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H812" s="1" t="s">
         <v>297</v>
@@ -63195,7 +63260,7 @@
       <c r="Q812" s="1"/>
       <c r="R812" s="1"/>
       <c r="S812" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="T812" s="1"/>
       <c r="U812" s="1"/>
@@ -63204,7 +63269,7 @@
         <v>451</v>
       </c>
       <c r="X812" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="813" spans="1:24" hidden="1">
@@ -63223,7 +63288,7 @@
         <v>45684</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F813" s="1" t="s">
         <v>39</v>
@@ -63251,7 +63316,7 @@
       <c r="Q813" s="1"/>
       <c r="R813" s="1"/>
       <c r="S813" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T813" s="1"/>
       <c r="U813" s="1"/>
@@ -63281,7 +63346,7 @@
         <v>263</v>
       </c>
       <c r="G814" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H814" s="1" t="s">
         <v>297</v>
@@ -63305,7 +63370,7 @@
       <c r="Q814" s="1"/>
       <c r="R814" s="1"/>
       <c r="S814" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="T814" s="1"/>
       <c r="U814" s="1"/>
@@ -63331,13 +63396,13 @@
         <v>45684</v>
       </c>
       <c r="E815" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F815" s="1" t="s">
         <v>228</v>
       </c>
       <c r="G815" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H815" s="1" t="s">
         <v>297</v>
@@ -63367,7 +63432,7 @@
         <v>434</v>
       </c>
       <c r="S815" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T815" s="8">
         <v>0.56944444444444442</v>
@@ -63381,7 +63446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="816" spans="1:24">
+    <row r="816" spans="1:24" hidden="1">
       <c r="A816" s="46">
         <f>YEAR(D816)</f>
         <v>2025</v>
@@ -63397,13 +63462,13 @@
         <v>45684</v>
       </c>
       <c r="E816" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F816" s="3" t="s">
         <v>279</v>
       </c>
       <c r="G816" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H816" s="3" t="s">
         <v>297</v>
@@ -63412,7 +63477,7 @@
         <v>35</v>
       </c>
       <c r="J816" s="3" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K816" s="47">
         <v>45694</v>
@@ -63433,7 +63498,7 @@
         <v>434</v>
       </c>
       <c r="S816" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T816" s="7">
         <v>0.58333333333333337</v>
@@ -63446,7 +63511,7 @@
         <v>451</v>
       </c>
       <c r="X816" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="817" spans="1:24" hidden="1">
@@ -63468,10 +63533,10 @@
         <v>47</v>
       </c>
       <c r="F817" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G817" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="G817" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="H817" s="1" t="s">
         <v>297</v>
@@ -63493,7 +63558,7 @@
       <c r="Q817" s="1"/>
       <c r="R817" s="1"/>
       <c r="S817" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="T817" s="1"/>
       <c r="U817" s="1"/>
@@ -63519,13 +63584,13 @@
         <v>45684</v>
       </c>
       <c r="E818" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F818" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G818" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="F818" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="G818" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="H818" s="1" t="s">
         <v>299</v>
@@ -63549,7 +63614,7 @@
       <c r="Q818" s="1"/>
       <c r="R818" s="1"/>
       <c r="S818" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T818" s="1"/>
       <c r="U818" s="1"/>
@@ -63575,13 +63640,13 @@
         <v>45684</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F819" s="1" t="s">
         <v>447</v>
       </c>
       <c r="G819" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H819" s="1" t="s">
         <v>297</v>
@@ -63605,7 +63670,7 @@
       <c r="Q819" s="1"/>
       <c r="R819" s="1"/>
       <c r="S819" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="T819" s="1"/>
       <c r="U819" s="1"/>
@@ -63631,13 +63696,13 @@
         <v>45684</v>
       </c>
       <c r="E820" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F820" s="1" t="s">
         <v>447</v>
       </c>
       <c r="G820" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H820" s="1" t="s">
         <v>297</v>
@@ -63685,7 +63750,7 @@
         <v>263</v>
       </c>
       <c r="G821" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H821" s="1" t="s">
         <v>299</v>
@@ -63707,11 +63772,11 @@
       <c r="O821" s="1"/>
       <c r="P821" s="1"/>
       <c r="Q821" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R821" s="1"/>
       <c r="S821" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="T821" s="8">
         <v>0.61111111111111116</v>
@@ -63747,7 +63812,7 @@
         <v>295</v>
       </c>
       <c r="G822" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H822" s="1" t="s">
         <v>299</v>
@@ -63769,11 +63834,11 @@
       <c r="O822" s="1"/>
       <c r="P822" s="1"/>
       <c r="Q822" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R822" s="1"/>
       <c r="S822" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T822" s="8">
         <v>0.33333333333333331</v>
@@ -63803,13 +63868,13 @@
         <v>45684</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F823" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G823" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H823" s="1" t="s">
         <v>299</v>
@@ -63831,11 +63896,11 @@
       <c r="O823" s="1"/>
       <c r="P823" s="1"/>
       <c r="Q823" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R823" s="1"/>
       <c r="S823" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="T823" s="8">
         <v>0.38055555555555554</v>
@@ -63865,13 +63930,13 @@
         <v>45685</v>
       </c>
       <c r="E824" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F824" s="1" t="s">
         <v>306</v>
       </c>
       <c r="G824" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H824" s="1" t="s">
         <v>297</v>
@@ -63895,7 +63960,7 @@
       <c r="Q824" s="1"/>
       <c r="R824" s="1"/>
       <c r="S824" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T824" s="8"/>
       <c r="U824" s="8"/>
@@ -63921,13 +63986,13 @@
         <v>45685</v>
       </c>
       <c r="E825" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F825" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G825" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H825" s="1" t="s">
         <v>297</v>
@@ -63951,7 +64016,7 @@
       <c r="Q825" s="1"/>
       <c r="R825" s="1"/>
       <c r="S825" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="T825" s="1"/>
       <c r="U825" s="1"/>
@@ -63977,13 +64042,13 @@
         <v>45685</v>
       </c>
       <c r="E826" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F826" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G826" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H826" s="1" t="s">
         <v>297</v>
@@ -64007,7 +64072,7 @@
       <c r="Q826" s="1"/>
       <c r="R826" s="1"/>
       <c r="S826" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="T826" s="1"/>
       <c r="U826" s="1"/>
@@ -64033,13 +64098,13 @@
         <v>45685</v>
       </c>
       <c r="E827" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F827" s="1" t="s">
         <v>279</v>
       </c>
       <c r="G827" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H827" s="1" t="s">
         <v>297</v>
@@ -64063,7 +64128,7 @@
       <c r="Q827" s="1"/>
       <c r="R827" s="1"/>
       <c r="S827" s="93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T827" s="1"/>
       <c r="U827" s="1"/>
@@ -64089,13 +64154,13 @@
         <v>45685</v>
       </c>
       <c r="E828" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F828" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H828" s="1" t="s">
         <v>299</v>
@@ -64117,11 +64182,11 @@
       <c r="O828" s="1"/>
       <c r="P828" s="1"/>
       <c r="Q828" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R828" s="1"/>
       <c r="S828" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T828" s="8">
         <v>0.41666666666666669</v>
@@ -64151,13 +64216,13 @@
         <v>45685</v>
       </c>
       <c r="E829" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F829" s="1" t="s">
         <v>186</v>
       </c>
       <c r="G829" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H829" s="1" t="s">
         <v>299</v>
@@ -64179,11 +64244,11 @@
       <c r="O829" s="1"/>
       <c r="P829" s="1"/>
       <c r="Q829" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="R829" s="1"/>
       <c r="S829" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T829" s="8">
         <v>0.4375</v>
@@ -64213,13 +64278,13 @@
         <v>45685</v>
       </c>
       <c r="E830" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F830" s="1" t="s">
         <v>279</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H830" s="1" t="s">
         <v>299</v>
@@ -64239,7 +64304,7 @@
       <c r="Q830" s="1"/>
       <c r="R830" s="1"/>
       <c r="S830" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T830" s="1"/>
       <c r="U830" s="1"/>
@@ -64263,7 +64328,7 @@
         <v>45686</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F831" s="1" t="s">
         <v>130</v>
@@ -64293,7 +64358,7 @@
       <c r="Q831" s="1"/>
       <c r="R831" s="1"/>
       <c r="S831" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T831" s="1"/>
       <c r="U831" s="1"/>
@@ -64322,10 +64387,10 @@
         <v>457</v>
       </c>
       <c r="F832" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G832" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H832" s="1" t="s">
         <v>297</v>
@@ -64349,7 +64414,7 @@
       <c r="Q832" s="1"/>
       <c r="R832" s="1"/>
       <c r="S832" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T832" s="1"/>
       <c r="U832" s="1"/>
@@ -64375,13 +64440,13 @@
         <v>45686</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F833" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G833" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="G833" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="H833" s="1" t="s">
         <v>297</v>
@@ -64405,7 +64470,7 @@
       <c r="Q833" s="1"/>
       <c r="R833" s="1"/>
       <c r="S833" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T833" s="1"/>
       <c r="U833" s="1"/>
@@ -64437,7 +64502,7 @@
         <v>392</v>
       </c>
       <c r="G834" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H834" s="1" t="s">
         <v>299</v>
@@ -64461,7 +64526,7 @@
       <c r="Q834" s="1"/>
       <c r="R834" s="1"/>
       <c r="S834" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="T834" s="1"/>
       <c r="U834" s="1"/>
@@ -64487,13 +64552,13 @@
         <v>45686</v>
       </c>
       <c r="E835" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F835" s="1" t="s">
         <v>279</v>
       </c>
       <c r="G835" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H835" s="1" t="s">
         <v>299</v>
@@ -64515,11 +64580,11 @@
       <c r="O835" s="1"/>
       <c r="P835" s="1"/>
       <c r="Q835" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="R835" s="1"/>
       <c r="S835" s="94" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T835" s="95">
         <v>0.375</v>
@@ -64552,10 +64617,10 @@
         <v>457</v>
       </c>
       <c r="F836" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G836" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="G836" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="H836" s="1" t="s">
         <v>297</v>
@@ -64606,7 +64671,7 @@
         <v>263</v>
       </c>
       <c r="G837" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H837" s="1" t="s">
         <v>297</v>
@@ -64650,13 +64715,13 @@
         <v>45687</v>
       </c>
       <c r="E838" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F838" s="1" t="s">
         <v>424</v>
       </c>
       <c r="G838" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H838" s="1" t="s">
         <v>297</v>
@@ -64700,13 +64765,13 @@
         <v>45686</v>
       </c>
       <c r="E839" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F839" s="1" t="s">
         <v>289</v>
       </c>
       <c r="G839" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H839" s="1" t="s">
         <v>299</v>
@@ -64753,10 +64818,10 @@
         <v>457</v>
       </c>
       <c r="F840" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G840" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H840" s="1" t="s">
         <v>297</v>
@@ -64805,10 +64870,10 @@
         <v>457</v>
       </c>
       <c r="F841" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G841" s="39" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H841" s="3" t="s">
         <v>297</v>
@@ -64852,13 +64917,13 @@
         <v>45686.686238425929</v>
       </c>
       <c r="E842" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F842" s="3" t="s">
         <v>399</v>
       </c>
       <c r="G842" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H842" s="3" t="s">
         <v>299</v>
@@ -64904,13 +64969,13 @@
         <v>45687.688009259262</v>
       </c>
       <c r="E843" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F843" s="3" t="s">
         <v>439</v>
       </c>
       <c r="G843" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H843" s="3" t="s">
         <v>297</v>
@@ -64956,13 +65021,13 @@
         <v>45687.725104166668</v>
       </c>
       <c r="E844" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F844" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>297</v>
@@ -65008,13 +65073,13 @@
         <v>45687.776539351849</v>
       </c>
       <c r="E845" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F845" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G845" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H845" s="3" t="s">
         <v>299</v>
@@ -65063,10 +65128,10 @@
         <v>457</v>
       </c>
       <c r="F846" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G846" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H846" s="3" t="s">
         <v>297</v>
@@ -65116,7 +65181,7 @@
         <v>295</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H847" s="3" t="s">
         <v>299</v>
@@ -65162,13 +65227,13 @@
         <v>45688.581076388888</v>
       </c>
       <c r="E848" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F848" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="G848" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="F848" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G848" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="H848" s="3" t="s">
         <v>299</v>
@@ -65190,7 +65255,7 @@
       </c>
       <c r="R848" s="3"/>
       <c r="S848" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T848" s="3"/>
       <c r="U848" s="3"/>
@@ -65216,13 +65281,13 @@
         <v>45688.670856481483</v>
       </c>
       <c r="E849" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F849" s="3" t="s">
         <v>279</v>
       </c>
       <c r="G849" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H849" s="3" t="s">
         <v>297</v>
@@ -65244,7 +65309,7 @@
       </c>
       <c r="R849" s="3"/>
       <c r="S849" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="T849" s="3"/>
       <c r="U849" s="3"/>
@@ -65270,13 +65335,13 @@
         <v>45688.693136574075</v>
       </c>
       <c r="E850" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F850" s="3" t="s">
         <v>439</v>
       </c>
       <c r="G850" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H850" s="3" t="s">
         <v>297</v>
@@ -65298,7 +65363,7 @@
       </c>
       <c r="R850" s="3"/>
       <c r="S850" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T850" s="3"/>
       <c r="U850" s="3"/>
@@ -65327,10 +65392,10 @@
         <v>457</v>
       </c>
       <c r="F851" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G851" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H851" s="3" t="s">
         <v>297</v>
@@ -65352,14 +65417,14 @@
       </c>
       <c r="R851" s="3"/>
       <c r="S851" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="T851" s="3"/>
       <c r="U851" s="3"/>
       <c r="V851" s="3"/>
       <c r="W851" s="6"/>
       <c r="X851" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="852" spans="1:24" hidden="1">
@@ -65378,13 +65443,13 @@
         <v>45691.503622685188</v>
       </c>
       <c r="E852" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F852" s="3" t="s">
         <v>279</v>
       </c>
       <c r="G852" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H852" s="3" t="s">
         <v>297</v>
@@ -65406,7 +65471,7 @@
       </c>
       <c r="R852" s="3"/>
       <c r="S852" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T852" s="3"/>
       <c r="U852" s="3"/>
@@ -65468,7 +65533,7 @@
         <v>434</v>
       </c>
       <c r="S853" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="T853" s="8">
         <v>0.33333333333333331</v>
@@ -65496,13 +65561,13 @@
         <v>45691.557245370372</v>
       </c>
       <c r="E854" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F854" s="3" t="s">
         <v>439</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>297</v>
@@ -65524,7 +65589,7 @@
       </c>
       <c r="R854" s="3"/>
       <c r="S854" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T854" s="3"/>
       <c r="U854" s="3"/>
@@ -65533,7 +65598,7 @@
         <v>451</v>
       </c>
       <c r="X854" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="855" spans="1:24" hidden="1">
@@ -65558,7 +65623,7 @@
         <v>263</v>
       </c>
       <c r="G855" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H855" s="3" t="s">
         <v>297</v>
@@ -65582,14 +65647,14 @@
       </c>
       <c r="R855" s="3"/>
       <c r="S855" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="T855" s="3"/>
       <c r="U855" s="3"/>
       <c r="V855" s="3"/>
       <c r="W855" s="6"/>
       <c r="X855" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="856" spans="1:24" hidden="1">
@@ -65614,7 +65679,7 @@
         <v>295</v>
       </c>
       <c r="G856" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H856" s="3" t="s">
         <v>299</v>
@@ -65636,7 +65701,7 @@
       </c>
       <c r="R856" s="3"/>
       <c r="S856" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="T856" s="3"/>
       <c r="U856" s="3"/>
@@ -65648,7 +65713,7 @@
     </row>
     <row r="857" spans="1:24" ht="121.5" hidden="1">
       <c r="A857" s="46" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B857" s="3">
         <f>MONTH(D857)</f>
@@ -65661,13 +65726,13 @@
         <v>45691.744351851848</v>
       </c>
       <c r="E857" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F857" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G857" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H857" s="3" t="s">
         <v>297</v>
@@ -65693,7 +65758,7 @@
       </c>
       <c r="R857" s="3"/>
       <c r="S857" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T857" s="7">
         <v>0.39583333333333331</v>
@@ -65725,13 +65790,13 @@
         <v>45691.772453703707</v>
       </c>
       <c r="E858" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F858" s="3" t="s">
         <v>76</v>
       </c>
       <c r="G858" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H858" s="3" t="s">
         <v>299</v>
@@ -65753,7 +65818,7 @@
       </c>
       <c r="R858" s="3"/>
       <c r="S858" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T858" s="3"/>
       <c r="U858" s="3"/>
@@ -65780,10 +65845,10 @@
         <v>457</v>
       </c>
       <c r="F859" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G859" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H859" s="3" t="s">
         <v>297</v>
@@ -65805,7 +65870,7 @@
       </c>
       <c r="R859" s="3"/>
       <c r="S859" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T859" s="3"/>
       <c r="U859" s="3"/>
@@ -65813,7 +65878,7 @@
       <c r="W859" s="6"/>
       <c r="X859" s="6"/>
     </row>
-    <row r="860" spans="1:24">
+    <row r="860" spans="1:24" hidden="1">
       <c r="A860" s="46">
         <f>YEAR(D860)</f>
         <v>2025</v>
@@ -65829,13 +65894,13 @@
         <v>45692.569467592592</v>
       </c>
       <c r="E860" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F860" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G860" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H860" s="3" t="s">
         <v>297</v>
@@ -65844,7 +65909,7 @@
         <v>35</v>
       </c>
       <c r="J860" s="3" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K860" s="48">
         <v>45685</v>
@@ -65867,19 +65932,15 @@
         <v>434</v>
       </c>
       <c r="S860" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T860" s="7">
         <v>0.34722222222222221</v>
       </c>
       <c r="U860" s="3"/>
       <c r="V860" s="3"/>
-      <c r="W860" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="X860" s="6" t="s">
-        <v>640</v>
-      </c>
+      <c r="W860" s="6"/>
+      <c r="X860" s="6"/>
     </row>
     <row r="861" spans="1:24" hidden="1">
       <c r="A861" s="46">
@@ -65900,10 +65961,10 @@
         <v>47</v>
       </c>
       <c r="F861" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G861" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H861" s="3" t="s">
         <v>297</v>
@@ -65937,7 +65998,7 @@
         <v>434</v>
       </c>
       <c r="S861" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="T861" s="7">
         <v>0.61597222222222225</v>
@@ -65967,13 +66028,13 @@
         <v>45692.706712962965</v>
       </c>
       <c r="E862" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F862" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G862" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H862" s="3" t="s">
         <v>297</v>
@@ -65995,7 +66056,7 @@
       </c>
       <c r="R862" s="1"/>
       <c r="S862" s="12" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="T862" s="3"/>
       <c r="U862" s="3"/>
@@ -66024,10 +66085,10 @@
         <v>47</v>
       </c>
       <c r="F863" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G863" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H863" s="3" t="s">
         <v>297</v>
@@ -66059,7 +66120,7 @@
         <v>434</v>
       </c>
       <c r="S863" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="T863" s="7">
         <v>0.33333333333333331</v>
@@ -66092,10 +66153,10 @@
         <v>47</v>
       </c>
       <c r="F864" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G864" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="G864" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="H864" s="3" t="s">
         <v>297</v>
@@ -66127,7 +66188,7 @@
         <v>434</v>
       </c>
       <c r="S864" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="T864" s="14">
         <v>0.33333333333333331</v>
@@ -66160,10 +66221,10 @@
         <v>47</v>
       </c>
       <c r="F865" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G865" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H865" s="3" t="s">
         <v>297</v>
@@ -66195,7 +66256,7 @@
         <v>434</v>
       </c>
       <c r="S865" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="T865" s="14">
         <v>0.33333333333333331</v>
@@ -66228,10 +66289,10 @@
         <v>47</v>
       </c>
       <c r="F866" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G866" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H866" s="3" t="s">
         <v>297</v>
@@ -66261,7 +66322,7 @@
         <v>434</v>
       </c>
       <c r="S866" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="T866" s="7">
         <v>0.625</v>
@@ -66292,10 +66353,10 @@
         <v>47</v>
       </c>
       <c r="F867" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G867" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H867" s="3" t="s">
         <v>297</v>
@@ -66327,7 +66388,7 @@
         <v>434</v>
       </c>
       <c r="S867" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="T867" s="14">
         <v>0.33333333333333331</v>
@@ -66357,13 +66418,13 @@
         <v>45693</v>
       </c>
       <c r="E868" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F868" s="46" t="s">
         <v>99</v>
       </c>
       <c r="G868" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H868" s="3" t="s">
         <v>297</v>
@@ -66387,7 +66448,7 @@
       </c>
       <c r="R868" s="1"/>
       <c r="S868" s="27" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="T868" s="3"/>
       <c r="U868" s="3"/>
@@ -66419,7 +66480,7 @@
         <v>279</v>
       </c>
       <c r="G869" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H869" s="3" t="s">
         <v>297</v>
@@ -66443,14 +66504,14 @@
       <c r="Q869" s="3"/>
       <c r="R869" s="3"/>
       <c r="S869" s="27" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="T869" s="3"/>
       <c r="U869" s="3"/>
       <c r="V869" s="3"/>
       <c r="W869" s="6"/>
       <c r="X869" s="6" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="870" spans="1:24" hidden="1">
@@ -66472,10 +66533,10 @@
         <v>457</v>
       </c>
       <c r="F870" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="G870" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="G870" s="3" t="s">
-        <v>555</v>
       </c>
       <c r="H870" s="3" t="s">
         <v>297</v>
@@ -66497,7 +66558,7 @@
       <c r="Q870" s="3"/>
       <c r="R870" s="3"/>
       <c r="S870" s="28" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="T870" s="3"/>
       <c r="U870" s="3"/>
@@ -66529,7 +66590,7 @@
         <v>130</v>
       </c>
       <c r="G871" s="76" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H871" s="3" t="s">
         <v>297</v>
@@ -66555,7 +66616,7 @@
       <c r="Q871" s="3"/>
       <c r="R871" s="3"/>
       <c r="S871" s="27" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="T871" s="7">
         <v>0.66666666666666663</v>
@@ -66588,10 +66649,10 @@
         <v>457</v>
       </c>
       <c r="F872" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G872" s="51" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H872" s="31" t="s">
         <v>297</v>
@@ -66611,7 +66672,7 @@
       <c r="Q872" s="31"/>
       <c r="R872" s="31"/>
       <c r="S872" s="29" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="T872" s="30"/>
       <c r="U872" s="30"/>
@@ -66643,7 +66704,7 @@
         <v>95</v>
       </c>
       <c r="G873" s="51" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H873" s="31" t="s">
         <v>297</v>
@@ -66663,7 +66724,7 @@
       <c r="Q873" s="31"/>
       <c r="R873" s="31"/>
       <c r="S873" s="29" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="T873" s="30"/>
       <c r="U873" s="30"/>
@@ -66689,13 +66750,13 @@
         <v>45693</v>
       </c>
       <c r="E874" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F874" s="31" t="s">
         <v>279</v>
       </c>
       <c r="G874" s="51" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H874" s="31" t="s">
         <v>297</v>
@@ -66715,7 +66776,7 @@
       <c r="Q874" s="31"/>
       <c r="R874" s="31"/>
       <c r="S874" s="29" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="T874" s="30"/>
       <c r="U874" s="30"/>
@@ -66741,13 +66802,13 @@
         <v>45693</v>
       </c>
       <c r="E875" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F875" s="31" t="s">
         <v>279</v>
       </c>
       <c r="G875" s="51" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H875" s="31" t="s">
         <v>297</v>
@@ -66769,7 +66830,7 @@
       <c r="Q875" s="31"/>
       <c r="R875" s="31"/>
       <c r="S875" s="29" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="T875" s="30"/>
       <c r="U875" s="30"/>
@@ -66798,10 +66859,10 @@
         <v>457</v>
       </c>
       <c r="F876" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="G876" s="51" t="s">
         <v>554</v>
-      </c>
-      <c r="G876" s="51" t="s">
-        <v>555</v>
       </c>
       <c r="H876" s="31" t="s">
         <v>297</v>
@@ -66821,7 +66882,7 @@
       <c r="Q876" s="31"/>
       <c r="R876" s="31"/>
       <c r="S876" s="35" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="T876" s="30"/>
       <c r="U876" s="30"/>
@@ -66853,7 +66914,7 @@
         <v>130</v>
       </c>
       <c r="G877" s="51" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H877" s="31" t="s">
         <v>297</v>
@@ -66873,7 +66934,7 @@
       <c r="Q877" s="31"/>
       <c r="R877" s="31"/>
       <c r="S877" s="29" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="T877" s="30"/>
       <c r="U877" s="30"/>
@@ -67139,13 +67200,13 @@
         <v>45694.829513888886</v>
       </c>
       <c r="E884" s="34" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F884" s="34" t="s">
         <v>152</v>
       </c>
       <c r="G884" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H884" s="34" t="s">
         <v>299</v>
@@ -67171,7 +67232,7 @@
       </c>
       <c r="R884" s="34"/>
       <c r="S884" s="27" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="T884" s="33">
         <v>0.33333333333333331</v>
@@ -67204,10 +67265,10 @@
         <v>47</v>
       </c>
       <c r="F885" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G885" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H885" s="3" t="s">
         <v>297</v>
@@ -67241,7 +67302,7 @@
         <v>434</v>
       </c>
       <c r="S885" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="T885" s="7">
         <v>0.39374999999999999</v>
@@ -67271,13 +67332,13 @@
         <v>45695.540868055556</v>
       </c>
       <c r="E886" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F886" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G886" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H886" s="3" t="s">
         <v>299</v>
@@ -67303,7 +67364,7 @@
       </c>
       <c r="R886" s="1"/>
       <c r="S886" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="T886" s="7">
         <v>0.33333333333333331</v>
@@ -67333,13 +67394,13 @@
         <v>45695.56422453704</v>
       </c>
       <c r="E887" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F887" s="3" t="s">
         <v>306</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H887" s="3" t="s">
         <v>297</v>
@@ -67365,7 +67426,7 @@
       </c>
       <c r="R887" s="3"/>
       <c r="S887" s="12" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="T887" s="7">
         <v>0.67986111111111114</v>
@@ -67376,7 +67437,7 @@
         <v>441</v>
       </c>
       <c r="X887" s="36" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="888" spans="1:24" hidden="1">
@@ -67395,13 +67456,13 @@
         <v>45695.564282407409</v>
       </c>
       <c r="E888" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F888" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H888" s="3" t="s">
         <v>297</v>
@@ -67423,7 +67484,7 @@
       </c>
       <c r="R888" s="3"/>
       <c r="S888" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="T888" s="3"/>
       <c r="U888" s="3"/>
@@ -67449,13 +67510,13 @@
         <v>45695.822754629633</v>
       </c>
       <c r="E889" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F889" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="G889" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="F889" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G889" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="H889" s="3" t="s">
         <v>299</v>
@@ -67482,10 +67543,10 @@
         <v>405</v>
       </c>
       <c r="R889" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="S889" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="T889" s="7">
         <v>0.33333333333333331</v>
@@ -67515,13 +67576,13 @@
         <v>45698.469814814816</v>
       </c>
       <c r="E890" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F890" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H890" s="3" t="s">
         <v>297</v>
@@ -67553,7 +67614,7 @@
         <v>434</v>
       </c>
       <c r="S890" s="12" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="T890" s="7">
         <v>0.3576388888888889</v>
@@ -67581,13 +67642,13 @@
         <v>45698.50199074074</v>
       </c>
       <c r="E891" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F891" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G891" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H891" s="3" t="s">
         <v>297</v>
@@ -67613,7 +67674,7 @@
       </c>
       <c r="R891" s="1"/>
       <c r="S891" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="T891" s="7">
         <v>0.33333333333333331</v>
@@ -67623,10 +67684,10 @@
         <v>10088</v>
       </c>
       <c r="W891" s="6" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="X891" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="892" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -67645,13 +67706,13 @@
         <v>45698.547708333332</v>
       </c>
       <c r="E892" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F892" s="3" t="s">
         <v>279</v>
       </c>
       <c r="G892" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H892" s="3" t="s">
         <v>299</v>
@@ -67677,7 +67738,7 @@
       </c>
       <c r="R892" s="3"/>
       <c r="S892" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="T892" s="3"/>
       <c r="U892" s="3"/>
@@ -67703,13 +67764,13 @@
         <v>45698.592199074075</v>
       </c>
       <c r="E893" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F893" s="3" t="s">
         <v>279</v>
       </c>
       <c r="G893" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H893" s="3" t="s">
         <v>297</v>
@@ -67737,7 +67798,7 @@
       </c>
       <c r="R893" s="3"/>
       <c r="S893" s="12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="T893" s="7">
         <v>0.65277777777777779</v>
@@ -67770,10 +67831,10 @@
         <v>47</v>
       </c>
       <c r="F894" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G894" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H894" s="3" t="s">
         <v>297</v>
@@ -67803,7 +67864,7 @@
       </c>
       <c r="R894" s="3"/>
       <c r="S894" s="12" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="T894" s="7">
         <v>0.58333333333333337</v>
@@ -67839,7 +67900,7 @@
         <v>295</v>
       </c>
       <c r="G895" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H895" s="3" t="s">
         <v>299</v>
@@ -67865,7 +67926,7 @@
       </c>
       <c r="R895" s="3"/>
       <c r="S895" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="T895" s="7">
         <v>0.60416666666666663</v>
@@ -67895,13 +67956,13 @@
         <v>45698.74423611111</v>
       </c>
       <c r="E896" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F896" s="3" t="s">
         <v>279</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H896" s="3" t="s">
         <v>297</v>
@@ -67929,7 +67990,7 @@
       </c>
       <c r="R896" s="3"/>
       <c r="S896" s="12" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="T896" s="7">
         <v>0.65277777777777779</v>
@@ -67959,13 +68020,13 @@
         <v>45699</v>
       </c>
       <c r="E897" s="34" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F897" s="34" t="s">
         <v>391</v>
       </c>
       <c r="G897" s="34" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H897" s="34" t="s">
         <v>299</v>
@@ -67993,7 +68054,7 @@
       </c>
       <c r="R897" s="34"/>
       <c r="S897" s="27" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="T897" s="33">
         <v>0.41666666666666669</v>
@@ -68024,10 +68085,10 @@
         <v>457</v>
       </c>
       <c r="F898" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H898" s="3" t="s">
         <v>297</v>
@@ -68053,7 +68114,7 @@
       </c>
       <c r="R898" s="3"/>
       <c r="S898" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="T898" s="3"/>
       <c r="U898" s="3"/>
@@ -68079,13 +68140,13 @@
         <v>45699.714259259257</v>
       </c>
       <c r="E899" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F899" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G899" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H899" s="3" t="s">
         <v>299</v>
@@ -68111,7 +68172,7 @@
       </c>
       <c r="R899" s="3"/>
       <c r="S899" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="T899" s="7">
         <v>0.64583333333333337</v>
@@ -68141,13 +68202,13 @@
         <v>45699.736643518518</v>
       </c>
       <c r="E900" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F900" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G900" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H900" s="3" t="s">
         <v>297</v>
@@ -68176,10 +68237,10 @@
         <v>493</v>
       </c>
       <c r="R900" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="S900" s="12" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="T900" s="7">
         <v>0.54166666666666663</v>
@@ -68207,13 +68268,13 @@
         <v>45699.756458333337</v>
       </c>
       <c r="E901" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F901" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G901" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H901" s="3" t="s">
         <v>297</v>
@@ -68239,7 +68300,7 @@
       </c>
       <c r="R901" s="3"/>
       <c r="S901" s="12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="T901" s="7">
         <v>0.63124999999999998</v>
@@ -68269,13 +68330,13 @@
         <v>45699.760763888888</v>
       </c>
       <c r="E902" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F902" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G902" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H902" s="3" t="s">
         <v>297</v>
@@ -68301,7 +68362,7 @@
       </c>
       <c r="R902" s="3"/>
       <c r="S902" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="T902" s="7">
         <v>0.33333333333333331</v>
@@ -68311,10 +68372,10 @@
         <v>10088</v>
       </c>
       <c r="W902" s="6" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="X902" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="903" spans="1:24" ht="33.75" customHeight="1">
@@ -68333,13 +68394,13 @@
         <v>45700.513842592591</v>
       </c>
       <c r="E903" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F903" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G903" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H903" s="3" t="s">
         <v>297</v>
@@ -68365,7 +68426,7 @@
       </c>
       <c r="R903" s="3"/>
       <c r="S903" s="12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="T903" s="7">
         <v>0.4201388888888889</v>
@@ -68376,7 +68437,7 @@
         <v>48</v>
       </c>
       <c r="X903" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="904" spans="1:24" ht="39" hidden="1" customHeight="1">
@@ -68398,10 +68459,10 @@
         <v>47</v>
       </c>
       <c r="F904" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G904" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H904" s="3" t="s">
         <v>297</v>
@@ -68427,7 +68488,7 @@
       </c>
       <c r="R904" s="3"/>
       <c r="S904" s="12" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="T904" s="7">
         <v>0.41666666666666669</v>
@@ -68457,13 +68518,13 @@
         <v>45700.619826388887</v>
       </c>
       <c r="E905" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F905" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G905" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H905" s="3" t="s">
         <v>297</v>
@@ -68472,7 +68533,7 @@
         <v>35</v>
       </c>
       <c r="J905" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K905" s="47">
         <v>45700</v>
@@ -68497,7 +68558,7 @@
         <v>434</v>
       </c>
       <c r="S905" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="T905" s="7">
         <v>0.60416666666666663</v>
@@ -68509,7 +68570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="906" spans="1:24" ht="15" customHeight="1">
+    <row r="906" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A906" s="46">
         <f>YEAR(D906)</f>
         <v>2025</v>
@@ -68525,13 +68586,13 @@
         <v>45700.678310185183</v>
       </c>
       <c r="E906" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F906" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G906" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H906" s="3" t="s">
         <v>297</v>
@@ -68540,7 +68601,7 @@
         <v>35</v>
       </c>
       <c r="J906" s="3" t="s">
-        <v>516</v>
+        <v>29</v>
       </c>
       <c r="K906" s="3"/>
       <c r="L906" s="3"/>
@@ -68553,7 +68614,7 @@
       </c>
       <c r="R906" s="3"/>
       <c r="S906" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="T906" s="3"/>
       <c r="U906" s="3"/>
@@ -68577,13 +68638,13 @@
         <v>45700.695289351854</v>
       </c>
       <c r="E907" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F907" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G907" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H907" s="3" t="s">
         <v>297</v>
@@ -68611,7 +68672,7 @@
       </c>
       <c r="R907" s="3"/>
       <c r="S907" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="T907" s="7">
         <v>0.58333333333333337</v>
@@ -68641,13 +68702,13 @@
         <v>45700.715914351851</v>
       </c>
       <c r="E908" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F908" s="3" t="s">
         <v>391</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H908" s="3" t="s">
         <v>299</v>
@@ -68673,7 +68734,7 @@
       </c>
       <c r="R908" s="3"/>
       <c r="S908" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="T908" s="7">
         <v>0.625</v>
@@ -68703,7 +68764,7 @@
         <v>45700.720104166663</v>
       </c>
       <c r="E909" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F909" s="3" t="s">
         <v>39</v>
@@ -68735,7 +68796,7 @@
       </c>
       <c r="R909" s="3"/>
       <c r="S909" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="T909" s="7">
         <v>0.57430555555555551</v>
@@ -68765,13 +68826,13 @@
         <v>45700.735138888886</v>
       </c>
       <c r="E910" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F910" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="G910" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="F910" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G910" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="H910" s="3" t="s">
         <v>299</v>
@@ -68799,7 +68860,7 @@
       </c>
       <c r="R910" s="3"/>
       <c r="S910" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="T910" s="7">
         <v>0.625</v>
@@ -68835,7 +68896,7 @@
         <v>95</v>
       </c>
       <c r="G911" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H911" s="3" t="s">
         <v>299</v>
@@ -68863,7 +68924,7 @@
       </c>
       <c r="R911" s="3"/>
       <c r="S911" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="T911" s="7">
         <v>0.37013888888888891</v>
@@ -68893,13 +68954,13 @@
         <v>45700.784826388888</v>
       </c>
       <c r="E912" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F912" s="3" t="s">
         <v>130</v>
       </c>
       <c r="G912" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H912" s="3" t="s">
         <v>299</v>
@@ -68927,7 +68988,7 @@
       </c>
       <c r="R912" s="3"/>
       <c r="S912" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="T912" s="7">
         <v>0.54166666666666663</v>
@@ -68957,13 +69018,13 @@
         <v>45701.485972222225</v>
       </c>
       <c r="E913" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F913" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G913" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H913" s="3" t="s">
         <v>299</v>
@@ -68989,7 +69050,7 @@
       </c>
       <c r="R913" s="3"/>
       <c r="S913" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="T913" s="7">
         <v>0.45833333333333331</v>
@@ -69019,13 +69080,13 @@
         <v>45701.507488425923</v>
       </c>
       <c r="E914" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F914" s="3" t="s">
         <v>391</v>
       </c>
       <c r="G914" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H914" s="3" t="s">
         <v>297</v>
@@ -69051,7 +69112,7 @@
       </c>
       <c r="R914" s="3"/>
       <c r="S914" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="T914" s="7"/>
       <c r="U914" s="3"/>
@@ -69077,13 +69138,13 @@
         <v>45701.525219907409</v>
       </c>
       <c r="E915" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F915" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G915" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H915" s="3" t="s">
         <v>297</v>
@@ -69105,7 +69166,7 @@
       </c>
       <c r="R915" s="3"/>
       <c r="S915" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="T915" s="7"/>
       <c r="U915" s="3"/>
@@ -69131,13 +69192,13 @@
         <v>45701.614502314813</v>
       </c>
       <c r="E916" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>399</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>297</v>
@@ -69169,7 +69230,7 @@
         <v>500</v>
       </c>
       <c r="S916" s="12" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="T916" s="7"/>
       <c r="U916" s="3"/>
@@ -69198,10 +69259,10 @@
         <v>457</v>
       </c>
       <c r="F917" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H917" s="3" t="s">
         <v>297</v>
@@ -69229,7 +69290,7 @@
       </c>
       <c r="R917" s="3"/>
       <c r="S917" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="T917" s="7">
         <v>0.58611111111111114</v>
@@ -69257,13 +69318,13 @@
         <v>45701.717581018522</v>
       </c>
       <c r="E918" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F918" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G918" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H918" s="3" t="s">
         <v>297</v>
@@ -69291,7 +69352,7 @@
       </c>
       <c r="R918" s="3"/>
       <c r="S918" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="T918" s="7">
         <v>0.58333333333333337</v>
@@ -69324,10 +69385,10 @@
         <v>374</v>
       </c>
       <c r="F919" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G919" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H919" s="3" t="s">
         <v>297</v>
@@ -69349,7 +69410,7 @@
       </c>
       <c r="R919" s="3"/>
       <c r="S919" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="T919" s="7"/>
       <c r="U919" s="3"/>
@@ -69373,13 +69434,13 @@
         <v>45701.781006944446</v>
       </c>
       <c r="E920" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F920" s="3" t="s">
         <v>334</v>
       </c>
       <c r="G920" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H920" s="3" t="s">
         <v>299</v>
@@ -69405,7 +69466,7 @@
       </c>
       <c r="R920" s="3"/>
       <c r="S920" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="T920" s="7">
         <v>0.66666666666666663</v>
@@ -69435,13 +69496,13 @@
         <v>45701.850763888891</v>
       </c>
       <c r="E921" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F921" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G921" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H921" s="3" t="s">
         <v>297</v>
@@ -69469,7 +69530,7 @@
       </c>
       <c r="R921" s="3"/>
       <c r="S921" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="T921" s="7">
         <v>0.375</v>
@@ -69481,7 +69542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="922" spans="1:24" ht="67.5" customHeight="1">
+    <row r="922" spans="1:24" ht="67.5" hidden="1" customHeight="1">
       <c r="A922" s="46">
         <f>YEAR(D922)</f>
         <v>2025</v>
@@ -69497,13 +69558,13 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E922" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F922" s="3" t="s">
         <v>289</v>
       </c>
       <c r="G922" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H922" s="3" t="s">
         <v>297</v>
@@ -69512,7 +69573,7 @@
         <v>117</v>
       </c>
       <c r="J922" s="3" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K922" s="47">
         <v>45708</v>
@@ -69521,7 +69582,9 @@
       <c r="M922" s="47">
         <v>45729</v>
       </c>
-      <c r="N922" s="3"/>
+      <c r="N922" s="47">
+        <v>45733</v>
+      </c>
       <c r="O922" s="3"/>
       <c r="P922" s="3"/>
       <c r="Q922" s="3">
@@ -69529,7 +69592,7 @@
       </c>
       <c r="R922" s="3"/>
       <c r="S922" s="12" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="T922" s="7">
         <v>0.52083333333333337</v>
@@ -69540,7 +69603,7 @@
         <v>441</v>
       </c>
       <c r="X922" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="923" spans="1:24" ht="60" hidden="1" customHeight="1">
@@ -69559,13 +69622,13 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E923" s="79" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F923" s="79" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G923" s="79" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H923" s="79" t="s">
         <v>297</v>
@@ -69593,7 +69656,7 @@
       </c>
       <c r="R923" s="3"/>
       <c r="S923" s="98" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="T923" s="7">
         <v>0.54166666666666663</v>
@@ -69623,13 +69686,13 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E924" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F924" s="59" t="s">
         <v>25</v>
       </c>
       <c r="G924" s="38" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H924" s="20" t="s">
         <v>299</v>
@@ -69655,7 +69718,7 @@
       </c>
       <c r="R924" s="38"/>
       <c r="S924" s="99" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="T924" s="61">
         <v>0.5625</v>
@@ -69689,7 +69752,7 @@
         <v>263</v>
       </c>
       <c r="G925" s="62" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H925" s="83" t="s">
         <v>297</v>
@@ -69715,7 +69778,7 @@
       </c>
       <c r="R925" s="62"/>
       <c r="S925" s="100" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="T925" s="65">
         <v>0.41666666666666669</v>
@@ -69746,10 +69809,10 @@
         <v>457</v>
       </c>
       <c r="F926" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H926" s="3" t="s">
         <v>297</v>
@@ -69775,7 +69838,7 @@
       </c>
       <c r="R926" s="3"/>
       <c r="S926" s="16" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="T926" s="7"/>
       <c r="U926" s="3"/>
@@ -69804,10 +69867,10 @@
         <v>457</v>
       </c>
       <c r="F927" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="G927" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="G927" s="3" t="s">
-        <v>555</v>
       </c>
       <c r="H927" s="3" t="s">
         <v>297</v>
@@ -69835,7 +69898,7 @@
       </c>
       <c r="R927" s="3"/>
       <c r="S927" s="16" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="T927" s="7"/>
       <c r="U927" s="3"/>
@@ -69861,13 +69924,13 @@
         <v>45705.388020833336</v>
       </c>
       <c r="E928" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F928" s="3" t="s">
         <v>391</v>
       </c>
       <c r="G928" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H928" s="3" t="s">
         <v>297</v>
@@ -69889,16 +69952,16 @@
       </c>
       <c r="R928" s="3"/>
       <c r="S928" s="16" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="T928" s="7"/>
       <c r="U928" s="3"/>
       <c r="V928" s="3"/>
       <c r="W928" s="6" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="X928" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="929" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -69920,10 +69983,10 @@
         <v>374</v>
       </c>
       <c r="F929" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G929" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H929" s="18" t="s">
         <v>297</v>
@@ -69951,7 +70014,7 @@
       </c>
       <c r="R929" s="18"/>
       <c r="S929" s="17" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="T929" s="21">
         <v>0.35625000000000001</v>
@@ -69979,7 +70042,7 @@
         <v>45705</v>
       </c>
       <c r="E930" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F930" s="18" t="s">
         <v>39</v>
@@ -70013,7 +70076,7 @@
       </c>
       <c r="R930" s="18"/>
       <c r="S930" s="17" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="T930" s="21">
         <v>0.34722222222222221</v>
@@ -70043,13 +70106,13 @@
         <v>45705.605358796296</v>
       </c>
       <c r="E931" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F931" s="25" t="s">
         <v>186</v>
       </c>
       <c r="G931" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H931" s="25" t="s">
         <v>299</v>
@@ -70077,7 +70140,7 @@
       </c>
       <c r="R931" s="25"/>
       <c r="S931" s="23" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="T931" s="24"/>
       <c r="U931" s="24"/>
@@ -70103,13 +70166,13 @@
         <v>45705.627858796295</v>
       </c>
       <c r="E932" s="25" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F932" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G932" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H932" s="25" t="s">
         <v>299</v>
@@ -70137,7 +70200,7 @@
       </c>
       <c r="R932" s="25"/>
       <c r="S932" s="23" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="T932" s="24">
         <v>0.29166666666666669</v>
@@ -70167,13 +70230,13 @@
         <v>45705.670937499999</v>
       </c>
       <c r="E933" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F933" s="25" t="s">
         <v>99</v>
       </c>
       <c r="G933" s="25" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H933" s="25" t="s">
         <v>299</v>
@@ -70195,7 +70258,7 @@
       </c>
       <c r="R933" s="25"/>
       <c r="S933" s="23" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="T933" s="24"/>
       <c r="U933" s="24"/>
@@ -70221,13 +70284,13 @@
         <v>45705.795729166668</v>
       </c>
       <c r="E934" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F934" s="25" t="s">
         <v>186</v>
       </c>
       <c r="G934" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H934" s="25" t="s">
         <v>299</v>
@@ -70249,7 +70312,7 @@
       </c>
       <c r="R934" s="25"/>
       <c r="S934" s="23" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="T934" s="24"/>
       <c r="U934" s="24"/>
@@ -70278,10 +70341,10 @@
         <v>47</v>
       </c>
       <c r="F935" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G935" s="25" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H935" s="25" t="s">
         <v>297</v>
@@ -70303,7 +70366,7 @@
       </c>
       <c r="R935" s="25"/>
       <c r="S935" s="23" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="T935" s="24"/>
       <c r="U935" s="24"/>
@@ -70332,10 +70395,10 @@
         <v>47</v>
       </c>
       <c r="F936" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G936" s="25" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H936" s="25" t="s">
         <v>297</v>
@@ -70357,7 +70420,7 @@
       </c>
       <c r="R936" s="25"/>
       <c r="S936" s="23" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="T936" s="24"/>
       <c r="U936" s="24"/>
@@ -70381,13 +70444,13 @@
         <v>45706.579976851855</v>
       </c>
       <c r="E937" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F937" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G937" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H937" s="25" t="s">
         <v>297</v>
@@ -70419,7 +70482,7 @@
         <v>434</v>
       </c>
       <c r="S937" s="23" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="T937" s="24"/>
       <c r="U937" s="24"/>
@@ -70448,10 +70511,10 @@
         <v>457</v>
       </c>
       <c r="F938" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G938" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H938" s="25" t="s">
         <v>297</v>
@@ -70483,7 +70546,7 @@
         <v>434</v>
       </c>
       <c r="S938" s="23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="T938" s="24"/>
       <c r="U938" s="24"/>
@@ -70512,10 +70575,10 @@
         <v>457</v>
       </c>
       <c r="F939" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G939" s="25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H939" s="25" t="s">
         <v>297</v>
@@ -70539,7 +70602,7 @@
       </c>
       <c r="R939" s="25"/>
       <c r="S939" s="23" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="T939" s="24"/>
       <c r="U939" s="24"/>
@@ -70568,10 +70631,10 @@
         <v>457</v>
       </c>
       <c r="F940" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G940" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H940" s="25" t="s">
         <v>297</v>
@@ -70595,14 +70658,14 @@
       </c>
       <c r="R940" s="25"/>
       <c r="S940" s="23" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="T940" s="24"/>
       <c r="U940" s="24"/>
       <c r="V940" s="25"/>
       <c r="W940" s="22"/>
       <c r="X940" s="22" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="941" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70624,10 +70687,10 @@
         <v>457</v>
       </c>
       <c r="F941" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G941" s="25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H941" s="25" t="s">
         <v>297</v>
@@ -70651,14 +70714,14 @@
       </c>
       <c r="R941" s="25"/>
       <c r="S941" s="23" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="T941" s="24"/>
       <c r="U941" s="24"/>
       <c r="V941" s="25"/>
       <c r="W941" s="22"/>
       <c r="X941" s="22" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="942" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70677,13 +70740,13 @@
         <v>45707.741481481484</v>
       </c>
       <c r="E942" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F942" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G942" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H942" s="25" t="s">
         <v>297</v>
@@ -70705,7 +70768,7 @@
       </c>
       <c r="R942" s="25"/>
       <c r="S942" s="23" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="T942" s="24"/>
       <c r="U942" s="24"/>
@@ -70734,10 +70797,10 @@
         <v>457</v>
       </c>
       <c r="F943" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G943" s="25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H943" s="25" t="s">
         <v>297</v>
@@ -70763,7 +70826,7 @@
       </c>
       <c r="R943" s="25"/>
       <c r="S943" s="23" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="T943" s="24"/>
       <c r="U943" s="24"/>
@@ -70792,10 +70855,10 @@
         <v>457</v>
       </c>
       <c r="F944" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G944" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H944" s="25" t="s">
         <v>297</v>
@@ -70821,7 +70884,7 @@
       </c>
       <c r="R944" s="25"/>
       <c r="S944" s="23" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T944" s="24"/>
       <c r="U944" s="24"/>
@@ -70850,10 +70913,10 @@
         <v>457</v>
       </c>
       <c r="F945" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G945" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H945" s="25" t="s">
         <v>297</v>
@@ -70887,7 +70950,7 @@
         <v>434</v>
       </c>
       <c r="S945" s="23" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="T945" s="24"/>
       <c r="U945" s="24"/>
@@ -70896,7 +70959,7 @@
         <v>48</v>
       </c>
       <c r="X945" s="22" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="946" spans="1:24" ht="15" customHeight="1">
@@ -70915,19 +70978,19 @@
         <v>45708.50105324074</v>
       </c>
       <c r="E946" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F946" s="25" t="s">
         <v>186</v>
       </c>
       <c r="G946" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H946" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I946" s="25" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J946" s="42" t="s">
         <v>449</v>
@@ -70945,7 +71008,7 @@
       </c>
       <c r="R946" s="25"/>
       <c r="S946" s="23" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="T946" s="24">
         <v>0.54166666666666663</v>
@@ -70953,10 +71016,10 @@
       <c r="U946" s="24"/>
       <c r="V946" s="25"/>
       <c r="W946" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X946" s="22" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="947" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -70978,10 +71041,10 @@
         <v>457</v>
       </c>
       <c r="F947" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G947" s="25" t="s">
         <v>554</v>
-      </c>
-      <c r="G947" s="25" t="s">
-        <v>555</v>
       </c>
       <c r="H947" s="25" t="s">
         <v>297</v>
@@ -71005,7 +71068,7 @@
       </c>
       <c r="R947" s="25"/>
       <c r="S947" s="23" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="T947" s="24"/>
       <c r="U947" s="24"/>
@@ -71034,10 +71097,10 @@
         <v>457</v>
       </c>
       <c r="F948" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G948" s="25" t="s">
         <v>554</v>
-      </c>
-      <c r="G948" s="25" t="s">
-        <v>555</v>
       </c>
       <c r="H948" s="25" t="s">
         <v>297</v>
@@ -71059,7 +71122,7 @@
       </c>
       <c r="R948" s="25"/>
       <c r="S948" s="23" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="T948" s="24"/>
       <c r="U948" s="24"/>
@@ -71088,10 +71151,10 @@
         <v>457</v>
       </c>
       <c r="F949" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G949" s="25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H949" s="25" t="s">
         <v>297</v>
@@ -71117,7 +71180,7 @@
       </c>
       <c r="R949" s="25"/>
       <c r="S949" s="23" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="T949" s="24"/>
       <c r="U949" s="24"/>
@@ -71143,13 +71206,13 @@
         <v>45708</v>
       </c>
       <c r="E950" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F950" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G950" s="25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H950" s="25" t="s">
         <v>299</v>
@@ -71177,7 +71240,7 @@
       </c>
       <c r="R950" s="25"/>
       <c r="S950" s="23" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="T950" s="24">
         <v>0.73611111111111116</v>
@@ -71210,10 +71273,10 @@
         <v>457</v>
       </c>
       <c r="F951" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G951" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H951" s="25" t="s">
         <v>297</v>
@@ -71245,7 +71308,7 @@
         <v>434</v>
       </c>
       <c r="S951" s="23" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="T951" s="24"/>
       <c r="U951" s="24"/>
@@ -71255,7 +71318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="952" spans="1:24" ht="51" customHeight="1">
+    <row r="952" spans="1:24" ht="51" hidden="1" customHeight="1">
       <c r="A952" s="85">
         <f>YEAR(D952)</f>
         <v>2025</v>
@@ -71271,13 +71334,13 @@
         <v>45709</v>
       </c>
       <c r="E952" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F952" s="25" t="s">
         <v>111</v>
       </c>
       <c r="G952" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H952" s="25" t="s">
         <v>297</v>
@@ -71286,7 +71349,7 @@
         <v>35</v>
       </c>
       <c r="J952" s="55" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="K952" s="56">
         <v>45709</v>
@@ -71301,7 +71364,7 @@
       </c>
       <c r="R952" s="25"/>
       <c r="S952" s="102" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="T952" s="24"/>
       <c r="U952" s="24"/>
@@ -71309,7 +71372,7 @@
       <c r="W952" s="22"/>
       <c r="X952" s="22"/>
     </row>
-    <row r="953" spans="1:24" ht="91.5">
+    <row r="953" spans="1:24" ht="91.5" hidden="1">
       <c r="A953" s="85">
         <f>YEAR(D953)</f>
         <v>2025</v>
@@ -71325,13 +71388,13 @@
         <v>45709</v>
       </c>
       <c r="E953" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F953" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G953" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H953" s="25" t="s">
         <v>297</v>
@@ -71340,7 +71403,7 @@
         <v>35</v>
       </c>
       <c r="J953" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K953" s="56"/>
       <c r="L953" s="25"/>
@@ -71353,14 +71416,14 @@
       </c>
       <c r="R953" s="25"/>
       <c r="S953" s="102" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="T953" s="24"/>
       <c r="U953" s="24"/>
       <c r="V953" s="25"/>
       <c r="W953" s="6"/>
       <c r="X953" s="22" t="s">
-        <v>640</v>
+        <v>446</v>
       </c>
     </row>
     <row r="954" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71379,13 +71442,13 @@
         <v>45709</v>
       </c>
       <c r="E954" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F954" s="25" t="s">
         <v>186</v>
       </c>
       <c r="G954" s="25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H954" s="25" t="s">
         <v>297</v>
@@ -71413,7 +71476,7 @@
       </c>
       <c r="R954" s="25"/>
       <c r="S954" s="23" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="T954" s="24"/>
       <c r="U954" s="24"/>
@@ -71439,13 +71502,13 @@
         <v>45709</v>
       </c>
       <c r="E955" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F955" s="25" t="s">
         <v>31</v>
       </c>
       <c r="G955" s="25" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H955" s="25" t="s">
         <v>297</v>
@@ -71473,7 +71536,7 @@
       </c>
       <c r="R955" s="25"/>
       <c r="S955" s="102" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="T955" s="24">
         <v>0.625</v>
@@ -71503,19 +71566,19 @@
         <v>45712</v>
       </c>
       <c r="E956" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F956" s="25" t="s">
         <v>279</v>
       </c>
       <c r="G956" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H956" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I956" s="25" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J956" s="55" t="s">
         <v>449</v>
@@ -71531,16 +71594,16 @@
       </c>
       <c r="R956" s="25"/>
       <c r="S956" s="23" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="T956" s="24"/>
       <c r="U956" s="24"/>
       <c r="V956" s="25"/>
       <c r="W956" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X956" s="22" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="957" spans="1:24" ht="72" customHeight="1">
@@ -71562,7 +71625,7 @@
         <v>457</v>
       </c>
       <c r="F957" s="25" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G957" s="25" t="s">
         <v>168</v>
@@ -71591,7 +71654,7 @@
       </c>
       <c r="R957" s="25"/>
       <c r="S957" s="23" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="T957" s="24">
         <v>0.375</v>
@@ -71624,10 +71687,10 @@
         <v>457</v>
       </c>
       <c r="F958" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G958" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H958" s="25" t="s">
         <v>299</v>
@@ -71651,16 +71714,16 @@
       </c>
       <c r="R958" s="25"/>
       <c r="S958" s="23" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T958" s="24"/>
       <c r="U958" s="24"/>
       <c r="V958" s="25"/>
       <c r="W958" s="22" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="X958" s="22" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="959" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -71679,13 +71742,13 @@
         <v>45712</v>
       </c>
       <c r="E959" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F959" s="25" t="s">
         <v>399</v>
       </c>
       <c r="G959" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H959" s="25" t="s">
         <v>297</v>
@@ -71707,7 +71770,7 @@
       </c>
       <c r="R959" s="25"/>
       <c r="S959" s="23" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="T959" s="24"/>
       <c r="U959" s="24"/>
@@ -71736,10 +71799,10 @@
         <v>457</v>
       </c>
       <c r="F960" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G960" s="25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H960" s="25" t="s">
         <v>297</v>
@@ -71761,7 +71824,7 @@
       </c>
       <c r="R960" s="25"/>
       <c r="S960" s="23" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="T960" s="24"/>
       <c r="U960" s="24"/>
@@ -71790,10 +71853,10 @@
         <v>457</v>
       </c>
       <c r="F961" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G961" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H961" s="25" t="s">
         <v>297</v>
@@ -71819,7 +71882,7 @@
       </c>
       <c r="R961" s="25"/>
       <c r="S961" s="102" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="T961" s="24">
         <v>0.375</v>
@@ -71850,10 +71913,10 @@
         <v>457</v>
       </c>
       <c r="F962" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G962" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H962" s="25" t="s">
         <v>297</v>
@@ -71875,7 +71938,7 @@
       </c>
       <c r="R962" s="25"/>
       <c r="S962" s="23" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="T962" s="24"/>
       <c r="U962" s="24"/>
@@ -71901,13 +71964,13 @@
         <v>45713</v>
       </c>
       <c r="E963" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F963" s="25" t="s">
         <v>99</v>
       </c>
       <c r="G963" s="25" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H963" s="25" t="s">
         <v>297</v>
@@ -71931,7 +71994,7 @@
       </c>
       <c r="R963" s="25"/>
       <c r="S963" s="23" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="T963" s="24">
         <v>0.39583333333333331</v>
@@ -71966,10 +72029,10 @@
         <v>457</v>
       </c>
       <c r="F964" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G964" s="25" t="s">
         <v>554</v>
-      </c>
-      <c r="G964" s="25" t="s">
-        <v>555</v>
       </c>
       <c r="H964" s="25" t="s">
         <v>297</v>
@@ -71995,7 +72058,7 @@
       </c>
       <c r="R964" s="25"/>
       <c r="S964" s="23" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="T964" s="24"/>
       <c r="U964" s="24"/>
@@ -72024,10 +72087,10 @@
         <v>457</v>
       </c>
       <c r="F965" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G965" s="25" t="s">
         <v>554</v>
-      </c>
-      <c r="G965" s="25" t="s">
-        <v>555</v>
       </c>
       <c r="H965" s="25" t="s">
         <v>297</v>
@@ -72049,7 +72112,7 @@
       </c>
       <c r="R965" s="25"/>
       <c r="S965" s="23" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="T965" s="24"/>
       <c r="U965" s="24"/>
@@ -72058,7 +72121,7 @@
         <v>451</v>
       </c>
       <c r="X965" s="22" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="966" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -72077,13 +72140,13 @@
         <v>45713</v>
       </c>
       <c r="E966" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F966" s="25" t="s">
         <v>391</v>
       </c>
       <c r="G966" s="25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H966" s="25" t="s">
         <v>297</v>
@@ -72107,7 +72170,7 @@
       </c>
       <c r="R966" s="25"/>
       <c r="S966" s="23" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="T966" s="24"/>
       <c r="U966" s="24"/>
@@ -72116,7 +72179,7 @@
         <v>451</v>
       </c>
       <c r="X966" s="22" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="967" spans="1:24" ht="15" customHeight="1">
@@ -72138,10 +72201,10 @@
         <v>457</v>
       </c>
       <c r="F967" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G967" s="25" t="s">
         <v>554</v>
-      </c>
-      <c r="G967" s="25" t="s">
-        <v>555</v>
       </c>
       <c r="H967" s="25" t="s">
         <v>297</v>
@@ -72163,16 +72226,16 @@
       </c>
       <c r="R967" s="25"/>
       <c r="S967" s="23" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="T967" s="24"/>
       <c r="U967" s="24"/>
       <c r="V967" s="25"/>
       <c r="W967" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X967" s="22" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="968" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -72191,13 +72254,13 @@
         <v>45713</v>
       </c>
       <c r="E968" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F968" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G968" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H968" s="25" t="s">
         <v>297</v>
@@ -72223,7 +72286,7 @@
       </c>
       <c r="R968" s="25"/>
       <c r="S968" s="23" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="T968" s="24">
         <v>0.35416666666666669</v>
@@ -72256,10 +72319,10 @@
         <v>457</v>
       </c>
       <c r="F969" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G969" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H969" s="25" t="s">
         <v>297</v>
@@ -72283,7 +72346,7 @@
       </c>
       <c r="R969" s="25"/>
       <c r="S969" s="23" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="T969" s="24"/>
       <c r="U969" s="24"/>
@@ -72309,13 +72372,13 @@
         <v>45714</v>
       </c>
       <c r="E970" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F970" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G970" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H970" s="25" t="s">
         <v>297</v>
@@ -72339,7 +72402,7 @@
       </c>
       <c r="R970" s="25"/>
       <c r="S970" s="105" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="T970" s="24"/>
       <c r="U970" s="24"/>
@@ -72363,13 +72426,13 @@
         <v>45714</v>
       </c>
       <c r="E971" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F971" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G971" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H971" s="25" t="s">
         <v>297</v>
@@ -72395,7 +72458,7 @@
       </c>
       <c r="R971" s="25"/>
       <c r="S971" s="23" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="T971" s="24">
         <v>0.52083333333333337</v>
@@ -72425,19 +72488,19 @@
         <v>45714</v>
       </c>
       <c r="E972" s="25" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F972" s="25" t="s">
         <v>447</v>
       </c>
       <c r="G972" s="25" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H972" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I972" s="43" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J972" s="55" t="s">
         <v>449</v>
@@ -72453,16 +72516,16 @@
       </c>
       <c r="R972" s="25"/>
       <c r="S972" s="23" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="T972" s="24"/>
       <c r="U972" s="24"/>
       <c r="V972" s="25"/>
       <c r="W972" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X972" s="22" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="973" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -72481,7 +72544,7 @@
         <v>45714</v>
       </c>
       <c r="E973" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F973" s="25" t="s">
         <v>269</v>
@@ -72509,7 +72572,7 @@
       </c>
       <c r="R973" s="25"/>
       <c r="S973" s="23" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="T973" s="24"/>
       <c r="U973" s="24"/>
@@ -72535,13 +72598,13 @@
         <v>45714</v>
       </c>
       <c r="E974" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F974" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G974" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H974" s="25" t="s">
         <v>297</v>
@@ -72563,7 +72626,7 @@
       </c>
       <c r="R974" s="25"/>
       <c r="S974" s="23" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="T974" s="24"/>
       <c r="U974" s="24"/>
@@ -72589,13 +72652,13 @@
         <v>45714</v>
       </c>
       <c r="E975" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F975" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G975" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H975" s="25" t="s">
         <v>299</v>
@@ -72617,7 +72680,7 @@
       </c>
       <c r="R975" s="25"/>
       <c r="S975" s="23" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="T975" s="24"/>
       <c r="U975" s="24"/>
@@ -72649,7 +72712,7 @@
         <v>95</v>
       </c>
       <c r="G976" s="25" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H976" s="25" t="s">
         <v>299</v>
@@ -72671,7 +72734,7 @@
       </c>
       <c r="R976" s="25"/>
       <c r="S976" s="23" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="T976" s="24"/>
       <c r="U976" s="24"/>
@@ -72701,7 +72764,7 @@
         <v>95</v>
       </c>
       <c r="G977" s="25" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H977" s="25" t="s">
         <v>297</v>
@@ -72729,7 +72792,7 @@
       </c>
       <c r="R977" s="25"/>
       <c r="S977" s="102" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="T977" s="24">
         <v>0.39583333333333331</v>
@@ -72759,13 +72822,13 @@
         <v>45715</v>
       </c>
       <c r="E978" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F978" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G978" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H978" s="25" t="s">
         <v>299</v>
@@ -72791,7 +72854,7 @@
       </c>
       <c r="R978" s="25"/>
       <c r="S978" s="23" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="T978" s="24"/>
       <c r="U978" s="24"/>
@@ -72820,10 +72883,10 @@
         <v>457</v>
       </c>
       <c r="F979" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G979" s="25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H979" s="25" t="s">
         <v>297</v>
@@ -72845,7 +72908,7 @@
       </c>
       <c r="R979" s="25"/>
       <c r="S979" s="23" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="T979" s="24"/>
       <c r="U979" s="24"/>
@@ -72871,13 +72934,13 @@
         <v>45716</v>
       </c>
       <c r="E980" s="25" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F980" s="25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G980" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H980" s="25" t="s">
         <v>297</v>
@@ -72901,7 +72964,7 @@
       </c>
       <c r="R980" s="25"/>
       <c r="S980" s="23" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="T980" s="24">
         <v>0.375</v>
@@ -72935,7 +72998,7 @@
         <v>95</v>
       </c>
       <c r="G981" s="25" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H981" s="25" t="s">
         <v>297</v>
@@ -72957,7 +73020,7 @@
       </c>
       <c r="R981" s="25"/>
       <c r="S981" s="23" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="T981" s="24"/>
       <c r="U981" s="24"/>
@@ -72983,7 +73046,7 @@
         <v>45716</v>
       </c>
       <c r="E982" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F982" s="25" t="s">
         <v>269</v>
@@ -73013,7 +73076,7 @@
       </c>
       <c r="R982" s="25"/>
       <c r="S982" s="23" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="T982" s="24"/>
       <c r="U982" s="24"/>
@@ -73039,13 +73102,13 @@
         <v>45722</v>
       </c>
       <c r="E983" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F983" s="25" t="s">
         <v>116</v>
       </c>
       <c r="G983" s="25" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H983" s="25" t="s">
         <v>299</v>
@@ -73069,7 +73132,7 @@
       </c>
       <c r="R983" s="25"/>
       <c r="S983" s="23" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="T983" s="24"/>
       <c r="U983" s="24"/>
@@ -73095,13 +73158,13 @@
         <v>45722</v>
       </c>
       <c r="E984" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F984" s="25" t="s">
         <v>76</v>
       </c>
       <c r="G984" s="25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H984" s="25" t="s">
         <v>299</v>
@@ -73127,7 +73190,7 @@
       </c>
       <c r="R984" s="25"/>
       <c r="S984" s="23" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="T984" s="24">
         <v>0.54166666666666663</v>
@@ -73157,13 +73220,13 @@
         <v>45691</v>
       </c>
       <c r="E985" s="25" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F985" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G985" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H985" s="25" t="s">
         <v>297</v>
@@ -73187,7 +73250,7 @@
       </c>
       <c r="R985" s="25"/>
       <c r="S985" s="102" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="T985" s="24"/>
       <c r="U985" s="24"/>
@@ -73213,13 +73276,13 @@
         <v>45722</v>
       </c>
       <c r="E986" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F986" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G986" s="25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H986" s="25" t="s">
         <v>297</v>
@@ -73243,16 +73306,16 @@
       </c>
       <c r="R986" s="25"/>
       <c r="S986" s="23" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="T986" s="24"/>
       <c r="U986" s="24"/>
       <c r="V986" s="25"/>
       <c r="W986" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X986" s="109" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="987" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -73274,10 +73337,10 @@
         <v>457</v>
       </c>
       <c r="F987" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G987" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H987" s="25" t="s">
         <v>297</v>
@@ -73303,7 +73366,7 @@
       </c>
       <c r="R987" s="25"/>
       <c r="S987" s="23" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="T987" s="24"/>
       <c r="U987" s="24"/>
@@ -73332,10 +73395,10 @@
         <v>457</v>
       </c>
       <c r="F988" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G988" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H988" s="25" t="s">
         <v>297</v>
@@ -73359,7 +73422,7 @@
       </c>
       <c r="R988" s="25"/>
       <c r="S988" s="23" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="T988" s="24"/>
       <c r="U988" s="24"/>
@@ -73370,7 +73433,7 @@
         <v>451</v>
       </c>
       <c r="X988" s="22" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="989" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -73389,13 +73452,13 @@
         <v>45722</v>
       </c>
       <c r="E989" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F989" s="25" t="s">
         <v>111</v>
       </c>
       <c r="G989" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H989" s="25" t="s">
         <v>299</v>
@@ -73421,7 +73484,7 @@
       </c>
       <c r="R989" s="25"/>
       <c r="S989" s="23" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="T989" s="24">
         <v>0.59722222222222221</v>
@@ -73451,13 +73514,13 @@
         <v>45722</v>
       </c>
       <c r="E990" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F990" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G990" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H990" s="25" t="s">
         <v>299</v>
@@ -73483,7 +73546,7 @@
       </c>
       <c r="R990" s="25"/>
       <c r="S990" s="23" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="T990" s="24">
         <v>0.625</v>
@@ -73513,19 +73576,19 @@
         <v>45723</v>
       </c>
       <c r="E991" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F991" s="25" t="s">
         <v>394</v>
       </c>
       <c r="G991" s="25" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H991" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I991" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J991" s="55" t="s">
         <v>29</v>
@@ -73543,7 +73606,7 @@
       </c>
       <c r="R991" s="25"/>
       <c r="S991" s="102" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="T991" s="24"/>
       <c r="U991" s="24"/>
@@ -73569,13 +73632,13 @@
         <v>45723</v>
       </c>
       <c r="E992" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F992" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G992" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H992" s="25" t="s">
         <v>297</v>
@@ -73601,7 +73664,7 @@
       </c>
       <c r="R992" s="25"/>
       <c r="S992" s="23" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="T992" s="24"/>
       <c r="U992" s="24"/>
@@ -73611,7 +73674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="993" spans="1:24" ht="51" customHeight="1">
+    <row r="993" spans="1:24" ht="51" hidden="1" customHeight="1">
       <c r="A993" s="85">
         <f>YEAR(D993)</f>
         <v>2025</v>
@@ -73633,25 +73696,27 @@
         <v>160</v>
       </c>
       <c r="G993" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H993" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I993" s="42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J993" s="55" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K993" s="56">
         <v>45723</v>
       </c>
       <c r="L993" s="25"/>
-      <c r="M993" s="112">
+      <c r="M993" s="56">
         <v>45733</v>
       </c>
-      <c r="N993" s="56"/>
+      <c r="N993" s="56">
+        <v>45735</v>
+      </c>
       <c r="O993" s="25"/>
       <c r="P993" s="25"/>
       <c r="Q993" s="25">
@@ -73659,16 +73724,18 @@
       </c>
       <c r="R993" s="25"/>
       <c r="S993" s="23" t="s">
-        <v>811</v>
-      </c>
-      <c r="T993" s="24"/>
-      <c r="U993" s="24"/>
+        <v>809</v>
+      </c>
+      <c r="T993" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="U993" s="24">
+        <v>0.5</v>
+      </c>
       <c r="V993" s="25"/>
-      <c r="W993" s="22" t="s">
-        <v>441</v>
-      </c>
+      <c r="W993" s="22"/>
       <c r="X993" s="109" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="994" spans="1:24" ht="15" customHeight="1">
@@ -73687,22 +73754,22 @@
         <v>45723</v>
       </c>
       <c r="E994" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F994" s="25" t="s">
         <v>394</v>
       </c>
       <c r="G994" s="25" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H994" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I994" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J994" s="55" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K994" s="56"/>
       <c r="L994" s="25"/>
@@ -73717,16 +73784,16 @@
       </c>
       <c r="R994" s="25"/>
       <c r="S994" s="106" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="T994" s="24"/>
       <c r="U994" s="24"/>
       <c r="V994" s="25"/>
       <c r="W994" s="22" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="X994" s="22" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="995" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -73748,10 +73815,10 @@
         <v>457</v>
       </c>
       <c r="F995" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G995" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H995" s="25" t="s">
         <v>297</v>
@@ -73777,7 +73844,7 @@
       </c>
       <c r="R995" s="25"/>
       <c r="S995" s="23" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="T995" s="24"/>
       <c r="U995" s="24"/>
@@ -73803,19 +73870,19 @@
         <v>45723</v>
       </c>
       <c r="E996" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F996" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G996" s="25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H996" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I996" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J996" s="55" t="s">
         <v>428</v>
@@ -73825,7 +73892,7 @@
       </c>
       <c r="L996" s="25"/>
       <c r="M996" s="56">
-        <v>45736</v>
+        <v>45737</v>
       </c>
       <c r="N996" s="56"/>
       <c r="O996" s="25"/>
@@ -73835,7 +73902,7 @@
       </c>
       <c r="R996" s="25"/>
       <c r="S996" s="23" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="T996" s="24"/>
       <c r="U996" s="24"/>
@@ -73844,7 +73911,7 @@
         <v>48</v>
       </c>
       <c r="X996" s="22" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="997" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -73863,19 +73930,19 @@
         <v>45726</v>
       </c>
       <c r="E997" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F997" s="25" t="s">
         <v>439</v>
       </c>
       <c r="G997" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H997" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I997" s="42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J997" s="55" t="s">
         <v>29</v>
@@ -73897,7 +73964,7 @@
       </c>
       <c r="R997" s="25"/>
       <c r="S997" s="23" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="T997" s="24">
         <v>0.54166666666666663</v>
@@ -73927,19 +73994,19 @@
         <v>45723</v>
       </c>
       <c r="E998" s="25" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F998" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G998" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H998" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I998" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J998" s="55" t="s">
         <v>29</v>
@@ -73957,7 +74024,7 @@
       </c>
       <c r="R998" s="25"/>
       <c r="S998" s="23" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="T998" s="24"/>
       <c r="U998" s="24"/>
@@ -73983,19 +74050,19 @@
         <v>45726</v>
       </c>
       <c r="E999" s="25" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F999" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G999" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H999" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I999" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J999" s="55" t="s">
         <v>29</v>
@@ -74011,7 +74078,7 @@
       </c>
       <c r="R999" s="25"/>
       <c r="S999" s="23" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="T999" s="24"/>
       <c r="U999" s="24"/>
@@ -74040,25 +74107,23 @@
         <v>457</v>
       </c>
       <c r="F1000" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G1000" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1000" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1000" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1000" s="55" t="s">
         <v>449</v>
       </c>
       <c r="K1000" s="56"/>
       <c r="L1000" s="25"/>
-      <c r="M1000" s="56">
-        <v>45734</v>
-      </c>
+      <c r="M1000" s="56"/>
       <c r="N1000" s="56"/>
       <c r="O1000" s="25"/>
       <c r="P1000" s="25"/>
@@ -74067,16 +74132,16 @@
       </c>
       <c r="R1000" s="25"/>
       <c r="S1000" s="23" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="T1000" s="24"/>
       <c r="U1000" s="24"/>
       <c r="V1000" s="25"/>
       <c r="W1000" s="22" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="X1000" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1001" spans="1:24" ht="15" hidden="1" customHeight="1">
@@ -74095,19 +74160,19 @@
         <v>45726</v>
       </c>
       <c r="E1001" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F1001" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G1001" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1001" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1001" s="42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J1001" s="55" t="s">
         <v>29</v>
@@ -74129,7 +74194,7 @@
       </c>
       <c r="R1001" s="25"/>
       <c r="S1001" s="23" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="T1001" s="24">
         <v>0.45833333333333331</v>
@@ -74159,19 +74224,19 @@
         <v>45726</v>
       </c>
       <c r="E1002" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F1002" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G1002" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1002" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1002" s="42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J1002" s="55" t="s">
         <v>29</v>
@@ -74193,7 +74258,7 @@
       </c>
       <c r="R1002" s="25"/>
       <c r="S1002" s="23" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="T1002" s="24">
         <v>0.45833333333333331</v>
@@ -74223,19 +74288,19 @@
         <v>45726</v>
       </c>
       <c r="E1003" s="25" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F1003" s="25" t="s">
         <v>126</v>
       </c>
       <c r="G1003" s="25" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="H1003" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1003" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1003" s="55" t="s">
         <v>29</v>
@@ -74255,7 +74320,7 @@
       </c>
       <c r="R1003" s="25"/>
       <c r="S1003" s="102" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="T1003" s="24"/>
       <c r="U1003" s="24">
@@ -74283,19 +74348,19 @@
         <v>45727</v>
       </c>
       <c r="E1004" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1004" s="25" t="s">
         <v>228</v>
       </c>
       <c r="G1004" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1004" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1004" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1004" s="55" t="s">
         <v>428</v>
@@ -74313,7 +74378,7 @@
       </c>
       <c r="R1004" s="25"/>
       <c r="S1004" s="23" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="T1004" s="24"/>
       <c r="U1004" s="24"/>
@@ -74322,10 +74387,10 @@
         <v>451</v>
       </c>
       <c r="X1004" s="22" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:24" ht="15" customHeight="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1005" s="85">
         <f>YEAR(D1005)</f>
         <v>2025</v>
@@ -74341,7 +74406,7 @@
         <v>45727</v>
       </c>
       <c r="E1005" s="25" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F1005" s="25" t="s">
         <v>433</v>
@@ -74353,10 +74418,10 @@
         <v>297</v>
       </c>
       <c r="I1005" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1005" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K1005" s="56">
         <v>45727</v>
@@ -74373,7 +74438,7 @@
       </c>
       <c r="R1005" s="25"/>
       <c r="S1005" s="23" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="T1005" s="24"/>
       <c r="U1005" s="24">
@@ -74382,13 +74447,12 @@
       <c r="V1005" s="25"/>
       <c r="W1005" s="6"/>
       <c r="X1005" s="22" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:24" ht="15" customHeight="1">
-      <c r="A1006" s="85">
-        <f>YEAR(D1006)</f>
-        <v>2025</v>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="A1006" s="85" t="s">
+        <v>828</v>
       </c>
       <c r="B1006" s="25">
         <f>MONTH(D1006)</f>
@@ -74401,22 +74465,22 @@
         <v>45727</v>
       </c>
       <c r="E1006" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F1006" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G1006" s="25" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H1006" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1006" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1006" s="55" t="s">
-        <v>449</v>
+        <v>29</v>
       </c>
       <c r="K1006" s="56">
         <v>45731</v>
@@ -74431,19 +74495,19 @@
       </c>
       <c r="R1006" s="25"/>
       <c r="S1006" s="23" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T1006" s="24"/>
       <c r="U1006" s="24"/>
       <c r="V1006" s="25"/>
       <c r="W1006" s="108" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="X1006" s="22" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:24" ht="15" customHeight="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1007" s="85">
         <f>YEAR(D1007)</f>
         <v>2025</v>
@@ -74462,16 +74526,16 @@
         <v>457</v>
       </c>
       <c r="F1007" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G1007" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1007" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1007" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1007" s="55" t="s">
         <v>29</v>
@@ -74491,7 +74555,7 @@
       </c>
       <c r="R1007" s="25"/>
       <c r="S1007" s="23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="T1007" s="24"/>
       <c r="U1007" s="24"/>
@@ -74515,13 +74579,13 @@
         <v>45727</v>
       </c>
       <c r="E1008" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F1008" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G1008" s="25" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H1008" s="25" t="s">
         <v>297</v>
@@ -74545,7 +74609,7 @@
       </c>
       <c r="R1008" s="25"/>
       <c r="S1008" s="23" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="T1008" s="24">
         <v>0.375</v>
@@ -74558,7 +74622,7 @@
         <v>441</v>
       </c>
       <c r="X1008" s="22" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1009" spans="1:24" ht="15" customHeight="1">
@@ -74580,16 +74644,16 @@
         <v>457</v>
       </c>
       <c r="F1009" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G1009" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1009" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1009" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1009" s="55" t="s">
         <v>428</v>
@@ -74607,7 +74671,7 @@
       </c>
       <c r="R1009" s="25"/>
       <c r="S1009" s="23" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="T1009" s="24"/>
       <c r="U1009" s="24"/>
@@ -74616,7 +74680,7 @@
         <v>451</v>
       </c>
       <c r="X1009" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1010" spans="1:24" ht="15" customHeight="1">
@@ -74635,7 +74699,7 @@
         <v>45727</v>
       </c>
       <c r="E1010" s="25" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F1010" s="25" t="s">
         <v>433</v>
@@ -74647,7 +74711,7 @@
         <v>299</v>
       </c>
       <c r="I1010" s="42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J1010" s="55" t="s">
         <v>449</v>
@@ -74663,13 +74727,13 @@
       </c>
       <c r="R1010" s="25"/>
       <c r="S1010" s="23" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="T1010" s="24"/>
       <c r="U1010" s="24"/>
       <c r="V1010" s="25"/>
       <c r="W1010" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X1010" s="22" t="s">
         <v>442</v>
@@ -74694,16 +74758,16 @@
         <v>457</v>
       </c>
       <c r="F1011" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G1011" s="25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1011" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1011" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1011" s="55" t="s">
         <v>428</v>
@@ -74713,7 +74777,7 @@
       </c>
       <c r="L1011" s="25"/>
       <c r="M1011" s="56">
-        <v>45733</v>
+        <v>45737</v>
       </c>
       <c r="N1011" s="56"/>
       <c r="O1011" s="25"/>
@@ -74723,7 +74787,7 @@
       </c>
       <c r="R1011" s="25"/>
       <c r="S1011" s="23" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="T1011" s="24">
         <v>0.58333333333333337</v>
@@ -74734,10 +74798,10 @@
         <v>451</v>
       </c>
       <c r="X1011" s="22" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:24" ht="28.5" customHeight="1">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:24" ht="28.5" hidden="1" customHeight="1">
       <c r="A1012" s="85">
         <f>YEAR(D1012)</f>
         <v>2025</v>
@@ -74759,16 +74823,16 @@
         <v>295</v>
       </c>
       <c r="G1012" s="25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1012" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1012" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1012" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K1012" s="56"/>
       <c r="L1012" s="25"/>
@@ -74781,7 +74845,7 @@
       </c>
       <c r="R1012" s="25"/>
       <c r="S1012" s="102" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="T1012" s="24"/>
       <c r="U1012" s="24"/>
@@ -74808,16 +74872,16 @@
         <v>457</v>
       </c>
       <c r="F1013" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G1013" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1013" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1013" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1013" s="55" t="s">
         <v>29</v>
@@ -74839,7 +74903,7 @@
       </c>
       <c r="R1013" s="25"/>
       <c r="S1013" s="102" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="T1013" s="24"/>
       <c r="U1013" s="24">
@@ -74851,7 +74915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1014" spans="1:24" ht="15" customHeight="1">
+    <row r="1014" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1014" s="85">
         <f>YEAR(D1014)</f>
         <v>2025</v>
@@ -74870,16 +74934,16 @@
         <v>457</v>
       </c>
       <c r="F1014" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G1014" s="25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1014" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1014" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1014" s="55" t="s">
         <v>29</v>
@@ -74899,7 +74963,7 @@
       </c>
       <c r="R1014" s="25"/>
       <c r="S1014" s="23" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="T1014" s="24"/>
       <c r="U1014" s="24"/>
@@ -74908,10 +74972,10 @@
         <v>451</v>
       </c>
       <c r="X1014" s="22" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:24" ht="15" customHeight="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1015" s="85">
         <f>YEAR(D1015)</f>
         <v>2025</v>
@@ -74927,22 +74991,22 @@
         <v>45728</v>
       </c>
       <c r="E1015" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1015" s="25" t="s">
         <v>111</v>
       </c>
       <c r="G1015" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1015" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1015" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1015" s="55" t="s">
-        <v>428</v>
+        <v>515</v>
       </c>
       <c r="K1015" s="56">
         <v>45728</v>
@@ -74959,16 +75023,16 @@
       </c>
       <c r="R1015" s="18"/>
       <c r="S1015" s="17" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="T1015" s="21"/>
       <c r="U1015" s="21"/>
       <c r="V1015" s="18"/>
       <c r="W1015" s="19" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="X1015" s="22" t="s">
-        <v>640</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1016" spans="1:24" ht="51.75" customHeight="1">
@@ -74987,19 +75051,19 @@
         <v>45728</v>
       </c>
       <c r="E1016" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1016" s="25" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G1016" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1016" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1016" s="42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J1016" s="55" t="s">
         <v>428</v>
@@ -75019,19 +75083,19 @@
       </c>
       <c r="R1016" s="110"/>
       <c r="S1016" s="111" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="T1016" s="21"/>
       <c r="U1016" s="21"/>
       <c r="V1016" s="18"/>
       <c r="W1016" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X1016" s="22" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:24" ht="15" customHeight="1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1017" s="85">
         <f>YEAR(D1017)</f>
         <v>2025</v>
@@ -75047,22 +75111,22 @@
         <v>45728</v>
       </c>
       <c r="E1017" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1017" s="25" t="s">
         <v>228</v>
       </c>
       <c r="G1017" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1017" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1017" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1017" s="55" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K1017" s="56">
         <v>45729</v>
@@ -75071,7 +75135,9 @@
       <c r="M1017" s="56">
         <v>45730</v>
       </c>
-      <c r="N1017" s="56"/>
+      <c r="N1017" s="56">
+        <v>45734</v>
+      </c>
       <c r="O1017" s="25"/>
       <c r="P1017" s="25"/>
       <c r="Q1017" s="25">
@@ -75079,7 +75145,7 @@
       </c>
       <c r="R1017" s="25"/>
       <c r="S1017" s="23" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="T1017" s="24"/>
       <c r="U1017" s="24"/>
@@ -75088,10 +75154,10 @@
         <v>48</v>
       </c>
       <c r="X1017" s="22" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:24" ht="40.5" customHeight="1">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:24" ht="40.5" hidden="1" customHeight="1">
       <c r="A1018" s="85">
         <f>YEAR(D1018)</f>
         <v>2025</v>
@@ -75107,22 +75173,22 @@
         <v>45728</v>
       </c>
       <c r="E1018" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1018" s="25" t="s">
         <v>279</v>
       </c>
       <c r="G1018" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1018" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1018" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1018" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K1018" s="56"/>
       <c r="L1018" s="25"/>
@@ -75135,14 +75201,16 @@
       </c>
       <c r="R1018" s="25"/>
       <c r="S1018" s="102" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="T1018" s="24"/>
       <c r="U1018" s="24"/>
       <c r="V1018" s="25"/>
-      <c r="W1018" s="22"/>
+      <c r="W1018" s="22" t="s">
+        <v>515</v>
+      </c>
       <c r="X1018" s="22" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1019" spans="1:24" ht="15" customHeight="1">
@@ -75167,13 +75235,13 @@
         <v>95</v>
       </c>
       <c r="G1019" s="25" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H1019" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1019" s="42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J1019" s="55" t="s">
         <v>428</v>
@@ -75191,7 +75259,7 @@
       </c>
       <c r="R1019" s="25"/>
       <c r="S1019" s="23" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="T1019" s="24">
         <v>0.58333333333333337</v>
@@ -75199,13 +75267,13 @@
       <c r="U1019" s="24"/>
       <c r="V1019" s="25"/>
       <c r="W1019" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X1019" s="22" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:24" ht="15" customHeight="1">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1020" s="85">
         <f>YEAR(D1020)</f>
         <v>2025</v>
@@ -75221,19 +75289,19 @@
         <v>45729</v>
       </c>
       <c r="E1020" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F1020" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G1020" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1020" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1020" s="42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J1020" s="55" t="s">
         <v>29</v>
@@ -75255,7 +75323,7 @@
       </c>
       <c r="R1020" s="25"/>
       <c r="S1020" s="23" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="T1020" s="24">
         <v>0.375</v>
@@ -75265,13 +75333,13 @@
       </c>
       <c r="V1020" s="25"/>
       <c r="W1020" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X1020" s="22" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:24" ht="15" customHeight="1">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1021" s="85">
         <f>YEAR(D1021)</f>
         <v>2025</v>
@@ -75287,22 +75355,22 @@
         <v>45729</v>
       </c>
       <c r="E1021" s="25" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F1021" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G1021" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1021" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1021" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1021" s="55" t="s">
-        <v>428</v>
+        <v>515</v>
       </c>
       <c r="K1021" s="56">
         <v>45726</v>
@@ -75319,7 +75387,7 @@
       </c>
       <c r="R1021" s="25"/>
       <c r="S1021" s="23" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="T1021" s="24"/>
       <c r="U1021" s="24"/>
@@ -75328,7 +75396,7 @@
         <v>48</v>
       </c>
       <c r="X1021" s="22" t="s">
-        <v>640</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1022" spans="1:24" ht="15" customHeight="1">
@@ -75350,16 +75418,16 @@
         <v>457</v>
       </c>
       <c r="F1022" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G1022" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1022" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1022" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1022" s="55" t="s">
         <v>449</v>
@@ -75375,7 +75443,7 @@
       </c>
       <c r="R1022" s="25"/>
       <c r="S1022" s="23" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="T1022" s="24"/>
       <c r="U1022" s="24"/>
@@ -75384,10 +75452,10 @@
         <v>451</v>
       </c>
       <c r="X1022" s="22" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:24" ht="15" customHeight="1">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1023" s="85">
         <f>YEAR(D1023)</f>
         <v>2025</v>
@@ -75406,19 +75474,19 @@
         <v>457</v>
       </c>
       <c r="F1023" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G1023" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1023" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1023" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1023" s="55" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K1023" s="56">
         <v>45729</v>
@@ -75427,7 +75495,9 @@
       <c r="M1023" s="56">
         <v>45729</v>
       </c>
-      <c r="N1023" s="56"/>
+      <c r="N1023" s="56">
+        <v>45734</v>
+      </c>
       <c r="O1023" s="25"/>
       <c r="P1023" s="25"/>
       <c r="Q1023" s="25">
@@ -75435,7 +75505,7 @@
       </c>
       <c r="R1023" s="25"/>
       <c r="S1023" s="23" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="T1023" s="24"/>
       <c r="U1023" s="24"/>
@@ -75444,10 +75514,10 @@
         <v>48</v>
       </c>
       <c r="X1023" s="22" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:24" ht="15" customHeight="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1024" s="85">
         <f>YEAR(D1024)</f>
         <v>2025</v>
@@ -75463,13 +75533,13 @@
         <v>45729</v>
       </c>
       <c r="E1024" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F1024" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G1024" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1024" s="25" t="s">
         <v>299</v>
@@ -75497,7 +75567,7 @@
       </c>
       <c r="R1024" s="25"/>
       <c r="S1024" s="23" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="T1024" s="24">
         <v>0.33333333333333331</v>
@@ -75507,11 +75577,11 @@
       </c>
       <c r="V1024" s="25"/>
       <c r="W1024" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X1024" s="22"/>
     </row>
-    <row r="1025" spans="1:24" ht="15" customHeight="1">
+    <row r="1025" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1025" s="85">
         <f>YEAR(D1025)</f>
         <v>2025</v>
@@ -75527,19 +75597,19 @@
         <v>45730</v>
       </c>
       <c r="E1025" s="25" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F1025" s="25" t="s">
         <v>399</v>
       </c>
       <c r="G1025" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1025" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1025" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1025" s="55" t="s">
         <v>60</v>
@@ -75555,7 +75625,7 @@
       </c>
       <c r="R1025" s="25"/>
       <c r="S1025" s="23" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="T1025" s="24"/>
       <c r="U1025" s="24"/>
@@ -75579,13 +75649,13 @@
         <v>45730</v>
       </c>
       <c r="E1026" s="25" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F1026" s="25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G1026" s="25" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1026" s="25" t="s">
         <v>297</v>
@@ -75594,9 +75664,11 @@
         <v>117</v>
       </c>
       <c r="J1026" s="55" t="s">
-        <v>449</v>
-      </c>
-      <c r="K1026" s="56"/>
+        <v>428</v>
+      </c>
+      <c r="K1026" s="56">
+        <v>45735</v>
+      </c>
       <c r="L1026" s="25"/>
       <c r="M1026" s="56"/>
       <c r="N1026" s="56"/>
@@ -75607,16 +75679,18 @@
       </c>
       <c r="R1026" s="25"/>
       <c r="S1026" s="23" t="s">
-        <v>863</v>
-      </c>
-      <c r="T1026" s="24"/>
+        <v>861</v>
+      </c>
+      <c r="T1026" s="24">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="U1026" s="24"/>
       <c r="V1026" s="25"/>
       <c r="W1026" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X1026" s="22" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1027" spans="1:24" ht="15" customHeight="1">
@@ -75635,7 +75709,7 @@
         <v>45730</v>
       </c>
       <c r="E1027" s="25" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F1027" s="25" t="s">
         <v>39</v>
@@ -75663,19 +75737,19 @@
       </c>
       <c r="R1027" s="25"/>
       <c r="S1027" s="23" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="T1027" s="24"/>
       <c r="U1027" s="24"/>
       <c r="V1027" s="25"/>
       <c r="W1027" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X1027" s="22" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:24" ht="15" customHeight="1">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1028" s="85">
         <f>YEAR(D1028)</f>
         <v>2025</v>
@@ -75697,13 +75771,13 @@
         <v>263</v>
       </c>
       <c r="G1028" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1028" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1028" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1028" s="55" t="s">
         <v>29</v>
@@ -75719,12 +75793,14 @@
       </c>
       <c r="R1028" s="25"/>
       <c r="S1028" s="23" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="T1028" s="24"/>
       <c r="U1028" s="24"/>
       <c r="V1028" s="25"/>
-      <c r="W1028" s="22"/>
+      <c r="W1028" s="22" t="s">
+        <v>451</v>
+      </c>
       <c r="X1028" s="22"/>
     </row>
     <row r="1029" spans="1:24" ht="27" customHeight="1">
@@ -75743,19 +75819,19 @@
         <v>45730</v>
       </c>
       <c r="E1029" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F1029" s="25" t="s">
         <v>279</v>
       </c>
       <c r="G1029" s="25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1029" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1029" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1029" s="55" t="s">
         <v>449</v>
@@ -75771,19 +75847,19 @@
       </c>
       <c r="R1029" s="25"/>
       <c r="S1029" s="102" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="T1029" s="24"/>
       <c r="U1029" s="24"/>
       <c r="V1029" s="25"/>
       <c r="W1029" s="22" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="X1029" s="22" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:24" ht="15" customHeight="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1030" s="85">
         <f>YEAR(D1030)</f>
         <v>2025</v>
@@ -75802,16 +75878,16 @@
         <v>47</v>
       </c>
       <c r="F1030" s="25" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G1030" s="25" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H1030" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1030" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1030" s="55" t="s">
         <v>29</v>
@@ -75827,7 +75903,7 @@
       </c>
       <c r="R1030" s="25"/>
       <c r="S1030" s="23" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="T1030" s="24"/>
       <c r="U1030" s="24"/>
@@ -75854,19 +75930,19 @@
         <v>457</v>
       </c>
       <c r="F1031" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G1031" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1031" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1031" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1031" s="55" t="s">
-        <v>449</v>
+        <v>29</v>
       </c>
       <c r="K1031" s="56">
         <v>45733</v>
@@ -75875,7 +75951,9 @@
       <c r="M1031" s="56">
         <v>45733</v>
       </c>
-      <c r="N1031" s="56"/>
+      <c r="N1031" s="56">
+        <v>45735</v>
+      </c>
       <c r="O1031" s="25"/>
       <c r="P1031" s="25"/>
       <c r="Q1031" s="25">
@@ -75883,19 +75961,19 @@
       </c>
       <c r="R1031" s="25"/>
       <c r="S1031" s="23" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="T1031" s="24"/>
       <c r="U1031" s="24"/>
       <c r="V1031" s="25"/>
       <c r="W1031" s="22" t="s">
-        <v>451</v>
+        <v>672</v>
       </c>
       <c r="X1031" s="22" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:24" ht="15" customHeight="1">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1032" s="85">
         <f>YEAR(D1032)</f>
         <v>2025</v>
@@ -75917,21 +75995,25 @@
         <v>263</v>
       </c>
       <c r="G1032" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1032" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1032" s="42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J1032" s="55" t="s">
-        <v>449</v>
-      </c>
-      <c r="K1032" s="56"/>
+        <v>29</v>
+      </c>
+      <c r="K1032" s="56">
+        <v>45734</v>
+      </c>
       <c r="L1032" s="25"/>
       <c r="M1032" s="56"/>
-      <c r="N1032" s="56"/>
+      <c r="N1032" s="56">
+        <v>45734</v>
+      </c>
       <c r="O1032" s="25"/>
       <c r="P1032" s="25"/>
       <c r="Q1032" s="25">
@@ -75939,17 +76021,23 @@
       </c>
       <c r="R1032" s="25"/>
       <c r="S1032" s="23" t="s">
-        <v>871</v>
-      </c>
-      <c r="T1032" s="24"/>
-      <c r="U1032" s="24"/>
+        <v>869</v>
+      </c>
+      <c r="T1032" s="24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U1032" s="24">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="V1032" s="25"/>
       <c r="W1032" s="22" t="s">
-        <v>748</v>
-      </c>
-      <c r="X1032" s="22"/>
-    </row>
-    <row r="1033" spans="1:24" ht="15" customHeight="1">
+        <v>746</v>
+      </c>
+      <c r="X1032" s="22" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1033" s="85">
         <f>YEAR(D1033)</f>
         <v>2025</v>
@@ -75965,22 +76053,22 @@
         <v>45733</v>
       </c>
       <c r="E1033" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F1033" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G1033" s="25" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H1033" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1033" s="42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J1033" s="55" t="s">
-        <v>449</v>
+        <v>29</v>
       </c>
       <c r="K1033" s="56"/>
       <c r="L1033" s="25"/>
@@ -75993,17 +76081,17 @@
       </c>
       <c r="R1033" s="25"/>
       <c r="S1033" s="23" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="T1033" s="24"/>
       <c r="U1033" s="24"/>
       <c r="V1033" s="25"/>
       <c r="W1033" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X1033" s="22"/>
     </row>
-    <row r="1034" spans="1:24" ht="15" customHeight="1">
+    <row r="1034" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1034" s="85">
         <f>YEAR(D1034)</f>
         <v>2025</v>
@@ -76019,27 +76107,31 @@
         <v>45733</v>
       </c>
       <c r="E1034" s="25" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F1034" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G1034" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1034" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1034" s="42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J1034" s="55" t="s">
-        <v>449</v>
-      </c>
-      <c r="K1034" s="56"/>
+        <v>29</v>
+      </c>
+      <c r="K1034" s="56">
+        <v>45735</v>
+      </c>
       <c r="L1034" s="25"/>
       <c r="M1034" s="56"/>
-      <c r="N1034" s="56"/>
+      <c r="N1034" s="56">
+        <v>45735</v>
+      </c>
       <c r="O1034" s="25"/>
       <c r="P1034" s="25"/>
       <c r="Q1034" s="25">
@@ -76047,17 +76139,21 @@
       </c>
       <c r="R1034" s="25"/>
       <c r="S1034" s="23" t="s">
-        <v>873</v>
-      </c>
-      <c r="T1034" s="24"/>
-      <c r="U1034" s="24"/>
+        <v>871</v>
+      </c>
+      <c r="T1034" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="U1034" s="24">
+        <v>0.40694444444444444</v>
+      </c>
       <c r="V1034" s="25"/>
       <c r="W1034" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X1034" s="22"/>
     </row>
-    <row r="1035" spans="1:24" ht="15" customHeight="1">
+    <row r="1035" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1035" s="85">
         <f>YEAR(D1035)</f>
         <v>2025</v>
@@ -76073,22 +76169,22 @@
         <v>45733</v>
       </c>
       <c r="E1035" s="25" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F1035" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G1035" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1035" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1035" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1035" s="55" t="s">
-        <v>449</v>
+        <v>29</v>
       </c>
       <c r="K1035" s="56"/>
       <c r="L1035" s="25"/>
@@ -76101,15 +76197,17 @@
       </c>
       <c r="R1035" s="25"/>
       <c r="S1035" s="23" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="T1035" s="24"/>
       <c r="U1035" s="24"/>
       <c r="V1035" s="25"/>
-      <c r="W1035" s="22"/>
+      <c r="W1035" s="22" t="s">
+        <v>451</v>
+      </c>
       <c r="X1035" s="22"/>
     </row>
-    <row r="1036" spans="1:24" ht="15" customHeight="1">
+    <row r="1036" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1036" s="85">
         <f>YEAR(D1036)</f>
         <v>2025</v>
@@ -76125,27 +76223,31 @@
         <v>45733</v>
       </c>
       <c r="E1036" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F1036" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G1036" s="25" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H1036" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1036" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J1036" s="55" t="s">
-        <v>449</v>
-      </c>
-      <c r="K1036" s="56"/>
+        <v>29</v>
+      </c>
+      <c r="K1036" s="56">
+        <v>45735</v>
+      </c>
       <c r="L1036" s="25"/>
       <c r="M1036" s="56"/>
-      <c r="N1036" s="56"/>
+      <c r="N1036" s="56">
+        <v>45735</v>
+      </c>
       <c r="O1036" s="25"/>
       <c r="P1036" s="25"/>
       <c r="Q1036" s="25">
@@ -76153,15 +76255,17 @@
       </c>
       <c r="R1036" s="25"/>
       <c r="S1036" s="23" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="T1036" s="24"/>
       <c r="U1036" s="24"/>
       <c r="V1036" s="25"/>
-      <c r="W1036" s="22"/>
+      <c r="W1036" s="22" t="s">
+        <v>451</v>
+      </c>
       <c r="X1036" s="22"/>
     </row>
-    <row r="1037" spans="1:24" ht="15" customHeight="1">
+    <row r="1037" spans="1:24" ht="15" hidden="1" customHeight="1">
       <c r="A1037" s="85">
         <f>YEAR(D1037)</f>
         <v>2025</v>
@@ -76177,22 +76281,22 @@
         <v>45733</v>
       </c>
       <c r="E1037" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F1037" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G1037" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1037" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1037" s="42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J1037" s="55" t="s">
-        <v>449</v>
+        <v>29</v>
       </c>
       <c r="K1037" s="56"/>
       <c r="L1037" s="25"/>
@@ -76205,13 +76309,827 @@
       </c>
       <c r="R1037" s="25"/>
       <c r="S1037" s="23" t="s">
+        <v>875</v>
+      </c>
+      <c r="T1037" s="24">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="U1037" s="24">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="V1037" s="25"/>
+      <c r="W1037" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="X1037" s="22"/>
+    </row>
+    <row r="1038" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="A1038" s="85">
+        <f>YEAR(D1038)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1038" s="25">
+        <f>MONTH(D1038)</f>
+        <v>3</v>
+      </c>
+      <c r="C1038" s="42">
+        <v>1053</v>
+      </c>
+      <c r="D1038" s="56">
+        <v>45734</v>
+      </c>
+      <c r="E1038" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1038" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1038" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1038" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1038" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1038" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1038" s="56">
+        <v>45734</v>
+      </c>
+      <c r="L1038" s="25"/>
+      <c r="M1038" s="56"/>
+      <c r="N1038" s="56">
+        <v>45734</v>
+      </c>
+      <c r="O1038" s="25"/>
+      <c r="P1038" s="25"/>
+      <c r="Q1038" s="25">
+        <v>142</v>
+      </c>
+      <c r="R1038" s="25"/>
+      <c r="S1038" s="23" t="s">
+        <v>876</v>
+      </c>
+      <c r="T1038" s="24"/>
+      <c r="U1038" s="24"/>
+      <c r="V1038" s="25"/>
+      <c r="W1038" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="X1038" s="22"/>
+    </row>
+    <row r="1039" spans="1:24" ht="15" customHeight="1">
+      <c r="A1039" s="85">
+        <f>YEAR(D1039)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1039" s="25">
+        <f>MONTH(D1039)</f>
+        <v>3</v>
+      </c>
+      <c r="C1039" s="42">
+        <v>1054</v>
+      </c>
+      <c r="D1039" s="56">
+        <v>45734</v>
+      </c>
+      <c r="E1039" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1039" s="25" t="s">
         <v>877</v>
       </c>
-      <c r="T1037" s="24"/>
-      <c r="U1037" s="24"/>
-      <c r="V1037" s="25"/>
-      <c r="W1037" s="22"/>
-      <c r="X1037" s="22"/>
+      <c r="G1039" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="H1039" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1039" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="J1039" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="K1039" s="56">
+        <v>45734</v>
+      </c>
+      <c r="L1039" s="25"/>
+      <c r="M1039" s="56"/>
+      <c r="N1039" s="56"/>
+      <c r="O1039" s="25"/>
+      <c r="P1039" s="25"/>
+      <c r="Q1039" s="25">
+        <v>1.02</v>
+      </c>
+      <c r="R1039" s="25"/>
+      <c r="S1039" s="23" t="s">
+        <v>878</v>
+      </c>
+      <c r="T1039" s="24"/>
+      <c r="U1039" s="24"/>
+      <c r="V1039" s="25"/>
+      <c r="W1039" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="X1039" s="22" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:24" ht="15" customHeight="1">
+      <c r="A1040" s="85">
+        <f>YEAR(D1040)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1040" s="25">
+        <f>MONTH(D1040)</f>
+        <v>3</v>
+      </c>
+      <c r="C1040" s="42">
+        <v>1055</v>
+      </c>
+      <c r="D1040" s="56">
+        <v>45734</v>
+      </c>
+      <c r="E1040" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1040" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1040" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="H1040" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1040" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1040" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="K1040" s="56">
+        <v>45735</v>
+      </c>
+      <c r="L1040" s="25"/>
+      <c r="M1040" s="56">
+        <v>45736</v>
+      </c>
+      <c r="N1040" s="56"/>
+      <c r="O1040" s="25"/>
+      <c r="P1040" s="25"/>
+      <c r="Q1040" s="25">
+        <v>328</v>
+      </c>
+      <c r="R1040" s="25"/>
+      <c r="S1040" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="T1040" s="24"/>
+      <c r="U1040" s="24"/>
+      <c r="V1040" s="25"/>
+      <c r="W1040" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="X1040" s="22" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="A1041" s="85">
+        <f>YEAR(D1041)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1041" s="25">
+        <f>MONTH(D1041)</f>
+        <v>3</v>
+      </c>
+      <c r="C1041" s="42">
+        <v>1056</v>
+      </c>
+      <c r="D1041" s="56">
+        <v>45734</v>
+      </c>
+      <c r="E1041" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1041" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1041" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="H1041" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1041" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="J1041" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1041" s="56">
+        <v>45735</v>
+      </c>
+      <c r="L1041" s="25"/>
+      <c r="M1041" s="56"/>
+      <c r="N1041" s="56">
+        <v>45735</v>
+      </c>
+      <c r="O1041" s="25"/>
+      <c r="P1041" s="25"/>
+      <c r="Q1041" s="25">
+        <v>1115</v>
+      </c>
+      <c r="R1041" s="25"/>
+      <c r="S1041" s="23" t="s">
+        <v>880</v>
+      </c>
+      <c r="T1041" s="24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U1041" s="24">
+        <v>0.37569444444444444</v>
+      </c>
+      <c r="V1041" s="25"/>
+      <c r="W1041" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="X1041" s="22"/>
+    </row>
+    <row r="1042" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="A1042" s="85">
+        <f>YEAR(D1042)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1042" s="25">
+        <f>MONTH(D1042)</f>
+        <v>3</v>
+      </c>
+      <c r="C1042" s="42">
+        <v>1057</v>
+      </c>
+      <c r="D1042" s="56">
+        <v>45734</v>
+      </c>
+      <c r="E1042" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1042" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1042" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="H1042" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1042" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="J1042" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1042" s="56">
+        <v>45734</v>
+      </c>
+      <c r="L1042" s="25"/>
+      <c r="M1042" s="56"/>
+      <c r="N1042" s="56">
+        <v>45734</v>
+      </c>
+      <c r="O1042" s="25"/>
+      <c r="P1042" s="25"/>
+      <c r="Q1042" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1042" s="25"/>
+      <c r="S1042" s="23" t="s">
+        <v>881</v>
+      </c>
+      <c r="T1042" s="24"/>
+      <c r="U1042" s="24"/>
+      <c r="V1042" s="25"/>
+      <c r="W1042" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="X1042" s="22"/>
+    </row>
+    <row r="1043" spans="1:24" ht="15" customHeight="1">
+      <c r="A1043" s="85">
+        <f>YEAR(D1043)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1043" s="25">
+        <f>MONTH(D1043)</f>
+        <v>3</v>
+      </c>
+      <c r="C1043" s="42">
+        <v>1058</v>
+      </c>
+      <c r="D1043" s="56">
+        <v>45734</v>
+      </c>
+      <c r="E1043" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1043" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1043" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="H1043" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1043" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1043" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1043" s="56"/>
+      <c r="L1043" s="25"/>
+      <c r="M1043" s="56"/>
+      <c r="N1043" s="56"/>
+      <c r="O1043" s="25"/>
+      <c r="P1043" s="25"/>
+      <c r="Q1043" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1043" s="25"/>
+      <c r="S1043" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="T1043" s="24"/>
+      <c r="U1043" s="24"/>
+      <c r="V1043" s="25"/>
+      <c r="W1043" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="X1043" s="22" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:24" ht="15" hidden="1" customHeight="1">
+      <c r="A1044" s="85">
+        <f>YEAR(D1044)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1044" s="25">
+        <f>MONTH(D1044)</f>
+        <v>3</v>
+      </c>
+      <c r="C1044" s="42">
+        <v>1059</v>
+      </c>
+      <c r="D1044" s="56">
+        <v>45734</v>
+      </c>
+      <c r="E1044" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1044" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1044" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="H1044" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1044" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1044" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1044" s="56">
+        <v>45735</v>
+      </c>
+      <c r="L1044" s="25"/>
+      <c r="M1044" s="56"/>
+      <c r="N1044" s="56">
+        <v>45735</v>
+      </c>
+      <c r="O1044" s="25"/>
+      <c r="P1044" s="25"/>
+      <c r="Q1044" s="25">
+        <v>1108</v>
+      </c>
+      <c r="R1044" s="25"/>
+      <c r="S1044" s="23" t="s">
+        <v>883</v>
+      </c>
+      <c r="T1044" s="24"/>
+      <c r="U1044" s="24">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="V1044" s="25"/>
+      <c r="W1044" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="X1044" s="22" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:24" hidden="1">
+      <c r="A1045" s="85">
+        <f>YEAR(D1045)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1045" s="25">
+        <f>MONTH(D1045)</f>
+        <v>3</v>
+      </c>
+      <c r="C1045" s="42">
+        <v>1060</v>
+      </c>
+      <c r="D1045" s="56">
+        <v>45735</v>
+      </c>
+      <c r="E1045" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1045" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1045" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="H1045" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1045" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1045" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1045" s="56">
+        <v>45735</v>
+      </c>
+      <c r="L1045" s="25"/>
+      <c r="M1045" s="56"/>
+      <c r="N1045" s="56">
+        <v>45735</v>
+      </c>
+      <c r="O1045" s="25"/>
+      <c r="P1045" s="25"/>
+      <c r="Q1045" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1045" s="25"/>
+      <c r="S1045" s="23" t="s">
+        <v>885</v>
+      </c>
+      <c r="T1045" s="24"/>
+      <c r="U1045" s="24"/>
+      <c r="V1045" s="25"/>
+      <c r="W1045" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="X1045" s="22"/>
+    </row>
+    <row r="1046" spans="1:24" ht="76.5">
+      <c r="A1046" s="85">
+        <f>YEAR(D1046)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1046" s="25">
+        <f>MONTH(D1046)</f>
+        <v>3</v>
+      </c>
+      <c r="C1046" s="42">
+        <v>1061</v>
+      </c>
+      <c r="D1046" s="56">
+        <v>45735</v>
+      </c>
+      <c r="E1046" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1046" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1046" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="H1046" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1046" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1046" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1046" s="56"/>
+      <c r="L1046" s="25"/>
+      <c r="M1046" s="56"/>
+      <c r="N1046" s="56"/>
+      <c r="O1046" s="25"/>
+      <c r="P1046" s="25"/>
+      <c r="Q1046" s="25">
+        <v>1340</v>
+      </c>
+      <c r="R1046" s="25"/>
+      <c r="S1046" s="102" t="s">
+        <v>886</v>
+      </c>
+      <c r="T1046" s="24"/>
+      <c r="U1046" s="24"/>
+      <c r="V1046" s="25"/>
+      <c r="W1046" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="X1046" s="22" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:24" ht="15" customHeight="1">
+      <c r="A1047" s="85">
+        <f>YEAR(D1047)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1047" s="25">
+        <f>MONTH(D1047)</f>
+        <v>3</v>
+      </c>
+      <c r="C1047" s="42">
+        <v>1062</v>
+      </c>
+      <c r="D1047" s="56">
+        <v>45735</v>
+      </c>
+      <c r="E1047" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1047" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1047" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1047" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1047" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="J1047" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1047" s="56"/>
+      <c r="L1047" s="25"/>
+      <c r="M1047" s="56"/>
+      <c r="N1047" s="56"/>
+      <c r="O1047" s="25"/>
+      <c r="P1047" s="25"/>
+      <c r="Q1047" s="25">
+        <v>5883</v>
+      </c>
+      <c r="R1047" s="25"/>
+      <c r="S1047" s="23" t="s">
+        <v>887</v>
+      </c>
+      <c r="T1047" s="24"/>
+      <c r="U1047" s="24"/>
+      <c r="V1047" s="25"/>
+      <c r="W1047" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="X1047" s="22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:24" ht="15" customHeight="1">
+      <c r="A1048" s="85">
+        <f>YEAR(D1048)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1048" s="25">
+        <f>MONTH(D1048)</f>
+        <v>3</v>
+      </c>
+      <c r="C1048" s="42">
+        <v>1063</v>
+      </c>
+      <c r="D1048" s="56">
+        <v>45735</v>
+      </c>
+      <c r="E1048" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1048" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1048" s="25" t="s">
+        <v>829</v>
+      </c>
+      <c r="H1048" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1048" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1048" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1048" s="56">
+        <v>45735</v>
+      </c>
+      <c r="L1048" s="25"/>
+      <c r="M1048" s="56">
+        <v>45737</v>
+      </c>
+      <c r="N1048" s="56"/>
+      <c r="O1048" s="25"/>
+      <c r="P1048" s="25"/>
+      <c r="Q1048" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1048" s="25"/>
+      <c r="S1048" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="T1048" s="24"/>
+      <c r="U1048" s="24"/>
+      <c r="V1048" s="25"/>
+      <c r="W1048" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="X1048" s="22" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:24" ht="15" customHeight="1">
+      <c r="A1049" s="85">
+        <f>YEAR(D1049)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1049" s="25">
+        <f>MONTH(D1049)</f>
+        <v>3</v>
+      </c>
+      <c r="C1049" s="42">
+        <v>1064</v>
+      </c>
+      <c r="D1049" s="56">
+        <v>45735</v>
+      </c>
+      <c r="E1049" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="F1049" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1049" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1049" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1049" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1049" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1049" s="56"/>
+      <c r="L1049" s="25"/>
+      <c r="M1049" s="56"/>
+      <c r="N1049" s="56"/>
+      <c r="O1049" s="25"/>
+      <c r="P1049" s="25"/>
+      <c r="Q1049" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1049" s="25"/>
+      <c r="S1049" s="102" t="s">
+        <v>890</v>
+      </c>
+      <c r="T1049" s="24"/>
+      <c r="U1049" s="24"/>
+      <c r="V1049" s="25"/>
+      <c r="W1049" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="X1049" s="22" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:24" ht="15" customHeight="1">
+      <c r="A1050" s="85">
+        <f>YEAR(D1050)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1050" s="25">
+        <f>MONTH(D1050)</f>
+        <v>3</v>
+      </c>
+      <c r="C1050" s="42">
+        <v>1065</v>
+      </c>
+      <c r="D1050" s="56">
+        <v>45736</v>
+      </c>
+      <c r="E1050" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1050" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1050" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="H1050" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1050" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1050" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1050" s="56"/>
+      <c r="L1050" s="25"/>
+      <c r="M1050" s="56"/>
+      <c r="N1050" s="56"/>
+      <c r="O1050" s="25"/>
+      <c r="P1050" s="25"/>
+      <c r="Q1050" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1050" s="25"/>
+      <c r="S1050" s="102" t="s">
+        <v>891</v>
+      </c>
+      <c r="T1050" s="24"/>
+      <c r="U1050" s="24"/>
+      <c r="V1050" s="25"/>
+      <c r="W1050" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="X1050" s="22" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:24" ht="15" customHeight="1">
+      <c r="A1051" s="85">
+        <f>YEAR(D1051)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1051" s="25">
+        <f>MONTH(D1051)</f>
+        <v>3</v>
+      </c>
+      <c r="C1051" s="42">
+        <v>1066</v>
+      </c>
+      <c r="D1051" s="56">
+        <v>45736</v>
+      </c>
+      <c r="E1051" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="F1051" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="G1051" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1051" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1051" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="J1051" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1051" s="56"/>
+      <c r="L1051" s="25"/>
+      <c r="M1051" s="56"/>
+      <c r="N1051" s="56"/>
+      <c r="O1051" s="25"/>
+      <c r="P1051" s="25"/>
+      <c r="Q1051" s="25">
+        <v>258</v>
+      </c>
+      <c r="R1051" s="25"/>
+      <c r="S1051" s="23" t="s">
+        <v>892</v>
+      </c>
+      <c r="T1051" s="24"/>
+      <c r="U1051" s="24"/>
+      <c r="V1051" s="25"/>
+      <c r="W1051" s="22"/>
+      <c r="X1051" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
@@ -76219,7 +77137,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1037">
+  <conditionalFormatting sqref="J2:J1051">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -76283,12 +77201,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -76297,7 +77209,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -76474,14 +77386,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil.sharepoint.com/sites/PLANGEO/test/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4120" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E3E4EE5-A5CD-4FD0-B4A9-7C5517ECAF8B}"/>
+  <xr:revisionPtr revIDLastSave="4126" documentId="13_ncr:1_{82709629-E994-40E5-8D85-701DF0AF78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37540E60-105E-4445-81C8-92FD04070097}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16531" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16527" uniqueCount="893">
   <si>
     <t>ANO</t>
   </si>
@@ -2903,10 +2903,9 @@
 3 redutor NQ fêmea para HQ macho</t>
   </si>
   <si>
-    <t xml:space="preserve">Fabricação:
+    <t>Fabricação:
 6 unidades placas de segurança tipo cavalete.
-1 Tenda 3X3
-</t>
+1 Tenda 3X3</t>
   </si>
   <si>
     <t xml:space="preserve">Manutenção no reset da sonda </t>
@@ -4577,8 +4576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
   <dimension ref="A1:Z1051"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1043" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X1058" sqref="X1058"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D1068" sqref="D1068"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -73769,7 +73768,7 @@
         <v>805</v>
       </c>
       <c r="J994" s="55" t="s">
-        <v>428</v>
+        <v>515</v>
       </c>
       <c r="K994" s="56"/>
       <c r="L994" s="25"/>
@@ -73789,9 +73788,7 @@
       <c r="T994" s="24"/>
       <c r="U994" s="24"/>
       <c r="V994" s="25"/>
-      <c r="W994" s="22" t="s">
-        <v>672</v>
-      </c>
+      <c r="W994" s="6"/>
       <c r="X994" s="22" t="s">
         <v>812</v>
       </c>
@@ -75028,9 +75025,7 @@
       <c r="T1015" s="21"/>
       <c r="U1015" s="21"/>
       <c r="V1015" s="18"/>
-      <c r="W1015" s="19" t="s">
-        <v>672</v>
-      </c>
+      <c r="W1015" s="6"/>
       <c r="X1015" s="22" t="s">
         <v>446</v>
       </c>
@@ -75206,9 +75201,7 @@
       <c r="T1018" s="24"/>
       <c r="U1018" s="24"/>
       <c r="V1018" s="25"/>
-      <c r="W1018" s="22" t="s">
-        <v>515</v>
-      </c>
+      <c r="W1018" s="6"/>
       <c r="X1018" s="22" t="s">
         <v>849</v>
       </c>
@@ -75392,9 +75385,7 @@
       <c r="T1021" s="24"/>
       <c r="U1021" s="24"/>
       <c r="V1021" s="25"/>
-      <c r="W1021" s="22" t="s">
-        <v>48</v>
-      </c>
+      <c r="W1021" s="6"/>
       <c r="X1021" s="22" t="s">
         <v>446</v>
       </c>
@@ -77023,7 +77014,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="1050" spans="1:24" ht="15" customHeight="1">
+    <row r="1050" spans="1:24" ht="51.75" customHeight="1">
       <c r="A1050" s="85">
         <f>YEAR(D1050)</f>
         <v>2025</v>
@@ -77201,15 +77192,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100215E0E3900718F41A407A79656AAE3A7" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b474a987930128e76d2dd44dd58720f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fd91d42-14af-4858-ab82-8d5f7a533bb7" xmlns:ns3="5ee6460b-3874-47a9-a71f-98f98a7902ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a48e4a7c0d90838663cac6ac1bb60179" ns2:_="" ns3:_="">
     <xsd:import namespace="9fd91d42-14af-4858-ab82-8d5f7a533bb7"/>
@@ -77386,20 +77368,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil-my.sharepoint.com/personal/romulo_miranda_geominasgeo_com_br/Documents/MANUTENÇÃO E FABRICAÇÃO -PCM/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="14_{52C7674A-824E-4440-BCBE-E94F6E2BD932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8178A78-6D71-4077-99A2-90362B6F87B2}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="14_{52C7674A-824E-4440-BCBE-E94F6E2BD932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A3BDDF2-7A5F-457E-9371-17BC8F8ECAAF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -2493,7 +2493,7 @@
     <t>Fabricação de 250 luvas de percussão</t>
   </si>
   <si>
-    <t>Em processo 20/250</t>
+    <t>Em processo 48/250</t>
   </si>
   <si>
     <t>Abrir entrada do pescador HW para entrada de haste HQ e Fabricação de cabeça de Bater SPT para sonda S-62</t>
@@ -4616,8 +4616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
   <dimension ref="A1:Z1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H749" sqref="H749"/>
+    <sheetView tabSelected="1" topLeftCell="S955" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X960" sqref="X960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -77356,7 +77356,7 @@
       </c>
       <c r="T1055" s="24"/>
       <c r="U1055" s="24"/>
-      <c r="V1055" s="45" t="s">
+      <c r="V1055" s="77" t="s">
         <v>538</v>
       </c>
       <c r="W1055" s="22" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil-my.sharepoint.com/personal/romulo_miranda_geominasgeo_com_br/Documents/MANUTENÇÃO E FABRICAÇÃO -PCM/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="14_{52C7674A-824E-4440-BCBE-E94F6E2BD932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A3BDDF2-7A5F-457E-9371-17BC8F8ECAAF}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="14_{52C7674A-824E-4440-BCBE-E94F6E2BD932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE39A21D-543A-4020-99C8-963B1421DB8A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16567" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16575" uniqueCount="904">
   <si>
     <t>ANO</t>
   </si>
@@ -2889,6 +2889,9 @@
     <t>Novamente, vazamento de óleo no radiador da sonda.</t>
   </si>
   <si>
+    <t>Em transporte.</t>
+  </si>
+  <si>
     <t>Fabricar um par de cavaletes</t>
   </si>
   <si>
@@ -2941,13 +2944,14 @@
 </t>
   </si>
   <si>
-    <t>MT 05 - MOTOR BRANCO</t>
-  </si>
-  <si>
     <t xml:space="preserve">SOLICITO  01 SELO MECÂNICO DO MOTOR BRANCO </t>
   </si>
   <si>
     <t>01 - HASTE NQ DE 1M</t>
+  </si>
+  <si>
+    <t>VAZAMENTO DA BOMBA D´ÁGUA DE LAMA, ARRUMAR GUIA DO CABO DO GUINCHO DO WIRE-LINE E 
+ARRUMAR GAIOLA DE PROTEÇÃO DO MANDRIL QUE ESTA EMPENADO.</t>
   </si>
 </sst>
 </file>
@@ -4276,8 +4280,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1059" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X1059" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1060" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X1060" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X897">
     <sortCondition ref="C1:C897"/>
   </sortState>
@@ -4614,10 +4618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:Z1059"/>
+  <dimension ref="A1:Z1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S955" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X960" sqref="X960"/>
+    <sheetView tabSelected="1" topLeftCell="S988" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W1063" sqref="W1063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -74398,7 +74402,7 @@
         <v>805</v>
       </c>
       <c r="J1004" s="55" t="s">
-        <v>428</v>
+        <v>515</v>
       </c>
       <c r="K1004" s="56">
         <v>45723</v>
@@ -76909,7 +76913,7 @@
         <v>746</v>
       </c>
       <c r="X1047" s="22" t="s">
-        <v>442</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1048" spans="1:24" ht="15" customHeight="1">
@@ -76960,7 +76964,7 @@
       </c>
       <c r="R1048" s="25"/>
       <c r="S1048" s="23" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="T1048" s="24"/>
       <c r="U1048" s="24"/>
@@ -76988,7 +76992,7 @@
         <v>45735</v>
       </c>
       <c r="E1049" s="25" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F1049" s="25" t="s">
         <v>289</v>
@@ -77016,7 +77020,7 @@
       </c>
       <c r="R1049" s="25"/>
       <c r="S1049" s="102" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="T1049" s="24"/>
       <c r="U1049" s="24"/>
@@ -77076,7 +77080,7 @@
       </c>
       <c r="R1050" s="25"/>
       <c r="S1050" s="102" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="T1050" s="24"/>
       <c r="U1050" s="24"/>
@@ -77136,7 +77140,7 @@
       </c>
       <c r="R1051" s="25"/>
       <c r="S1051" s="23" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="T1051" s="24">
         <v>0.33333333333333331</v>
@@ -77147,7 +77151,7 @@
         <v>746</v>
       </c>
       <c r="X1051" s="22" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1052" spans="1:24" ht="15" customHeight="1">
@@ -77194,7 +77198,7 @@
       </c>
       <c r="R1052" s="25"/>
       <c r="S1052" s="23" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="T1052" s="24"/>
       <c r="U1052" s="24"/>
@@ -77246,7 +77250,7 @@
       </c>
       <c r="R1053" s="25"/>
       <c r="S1053" s="23" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="T1053" s="24"/>
       <c r="U1053" s="24"/>
@@ -77270,7 +77274,7 @@
         <v>45737</v>
       </c>
       <c r="E1054" s="25" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F1054" s="25" t="s">
         <v>553</v>
@@ -77300,7 +77304,7 @@
       </c>
       <c r="R1054" s="25"/>
       <c r="S1054" s="23" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="T1054" s="24"/>
       <c r="U1054" s="24"/>
@@ -77339,12 +77343,14 @@
         <v>805</v>
       </c>
       <c r="J1055" s="55" t="s">
-        <v>449</v>
+        <v>29</v>
       </c>
       <c r="K1055" s="56"/>
       <c r="L1055" s="25"/>
       <c r="M1055" s="56"/>
-      <c r="N1055" s="56"/>
+      <c r="N1055" s="56">
+        <v>45737</v>
+      </c>
       <c r="O1055" s="25"/>
       <c r="P1055" s="25"/>
       <c r="Q1055" s="25">
@@ -77352,7 +77358,7 @@
       </c>
       <c r="R1055" s="25"/>
       <c r="S1055" s="23" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="T1055" s="24"/>
       <c r="U1055" s="24"/>
@@ -77410,7 +77416,7 @@
       </c>
       <c r="R1056" s="25"/>
       <c r="S1056" s="102" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="T1056" s="24"/>
       <c r="U1056" s="24"/>
@@ -77462,7 +77468,7 @@
       </c>
       <c r="R1057" s="25"/>
       <c r="S1057" s="102" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="T1057" s="24"/>
       <c r="U1057" s="24"/>
@@ -77489,7 +77495,7 @@
         <v>465</v>
       </c>
       <c r="F1058" s="25" t="s">
-        <v>900</v>
+        <v>843</v>
       </c>
       <c r="G1058" s="25" t="s">
         <v>575</v>
@@ -77574,13 +77580,67 @@
       <c r="W1059" s="22"/>
       <c r="X1059" s="22"/>
     </row>
+    <row r="1060" spans="1:24" ht="15" customHeight="1">
+      <c r="A1060" s="85">
+        <f>YEAR(D1060)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1060" s="25">
+        <f>MONTH(D1060)</f>
+        <v>3</v>
+      </c>
+      <c r="C1060" s="42">
+        <v>1075</v>
+      </c>
+      <c r="D1060" s="56">
+        <v>45740</v>
+      </c>
+      <c r="E1060" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1060" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1060" s="25" t="s">
+        <v>829</v>
+      </c>
+      <c r="H1060" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1060" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="J1060" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1060" s="56"/>
+      <c r="L1060" s="25"/>
+      <c r="M1060" s="56"/>
+      <c r="N1060" s="56"/>
+      <c r="O1060" s="25"/>
+      <c r="P1060" s="25"/>
+      <c r="Q1060" s="25">
+        <v>1035</v>
+      </c>
+      <c r="R1060" s="25"/>
+      <c r="S1060" s="102" t="s">
+        <v>903</v>
+      </c>
+      <c r="T1060" s="24"/>
+      <c r="U1060" s="24"/>
+      <c r="V1060" s="25"/>
+      <c r="W1060" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="X1060" s="22"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
     <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="CANCELADA">
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1059">
+  <conditionalFormatting sqref="J2:J1060">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -77821,6 +77881,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -77829,20 +77895,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil-my.sharepoint.com/personal/romulo_miranda_geominasgeo_com_br/Documents/MANUTENÇÃO E FABRICAÇÃO -PCM/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="14_{52C7674A-824E-4440-BCBE-E94F6E2BD932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE39A21D-543A-4020-99C8-963B1421DB8A}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="14_{52C7674A-824E-4440-BCBE-E94F6E2BD932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F34DE5-4DA9-4B88-8BED-0199AD965E35}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16575" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16581" uniqueCount="902">
   <si>
     <t>ANO</t>
   </si>
@@ -1694,6 +1694,9 @@
     <t>Fabricação de 3 bases para tambor de óleo 200l</t>
   </si>
   <si>
+    <t>Aguardando retirada.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fabricação de suportes para capacetes e mochilas </t>
   </si>
   <si>
@@ -2653,16 +2656,10 @@
     <t>03 haste NQ c/ 1,5m</t>
   </si>
   <si>
-    <t>Aguardando materiais utilizados para sua fabricação</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fabricação de suporte para capacetes </t>
   </si>
   <si>
     <t>Fábricar dois pares de cavaletes para hastes/revestimento.</t>
-  </si>
-  <si>
-    <t>Programar para iniciar fabricação amanhã 14/03</t>
   </si>
   <si>
     <t>Troca do reparo do cilindro da morsa - O-rings;</t>
@@ -2697,9 +2694,6 @@
   </si>
   <si>
     <t>11 CAPACETES PARA INSTRUMENTOS</t>
-  </si>
-  <si>
-    <t>Aguardando retirada</t>
   </si>
   <si>
     <t xml:space="preserve">           </t>
@@ -2768,7 +2762,7 @@
 1 calha com morsa de 6 metros</t>
   </si>
   <si>
-    <t>Localizar e entregar materiais já fabricados</t>
+    <t>iss</t>
   </si>
   <si>
     <t>Manutenção corretiva na parte elétrica mecânica e hidráulica motor caixa de engrenagem</t>
@@ -2887,9 +2881,6 @@
   </si>
   <si>
     <t>Novamente, vazamento de óleo no radiador da sonda.</t>
-  </si>
-  <si>
-    <t>Em transporte.</t>
   </si>
   <si>
     <t>Fabricar um par de cavaletes</t>
@@ -2953,12 +2944,15 @@
     <t>VAZAMENTO DA BOMBA D´ÁGUA DE LAMA, ARRUMAR GUIA DO CABO DO GUINCHO DO WIRE-LINE E 
 ARRUMAR GAIOLA DE PROTEÇÃO DO MANDRIL QUE ESTA EMPENADO.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Fabricação de suporte para instalação de humidificador na câmara úmida. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3008,14 +3002,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3320,7 +3306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3651,9 +3637,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4280,8 +4263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1060" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X1060" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1061" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X1061" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X897">
     <sortCondition ref="C1:C897"/>
   </sortState>
@@ -4618,10 +4601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:Z1060"/>
+  <dimension ref="A1:Z1061"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S988" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W1063" sqref="W1063"/>
+    <sheetView tabSelected="1" topLeftCell="S1040" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X1050" sqref="X1050:X1058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -60803,7 +60786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="773" spans="1:24" ht="14.45">
+    <row r="773" spans="1:24">
       <c r="A773" s="70">
         <f t="shared" si="22"/>
         <v>2025</v>
@@ -60870,9 +60853,9 @@
       <c r="V773" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W773" s="6"/>
-      <c r="X773" s="11" t="s">
-        <v>24</v>
+      <c r="W773" s="22"/>
+      <c r="X773" s="22" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="774" spans="1:24" ht="14.45">
@@ -60931,7 +60914,7 @@
         <v>24</v>
       </c>
       <c r="S774" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T774" s="1" t="s">
         <v>24</v>
@@ -60966,10 +60949,10 @@
         <v>513</v>
       </c>
       <c r="F775" s="45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G775" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H775" s="1" t="s">
         <v>297</v>
@@ -61005,7 +60988,7 @@
         <v>24</v>
       </c>
       <c r="S775" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="T775" s="1" t="s">
         <v>24</v>
@@ -61040,10 +61023,10 @@
         <v>513</v>
       </c>
       <c r="F776" s="46" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G776" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H776" s="3" t="s">
         <v>297</v>
@@ -61153,7 +61136,7 @@
         <v>24</v>
       </c>
       <c r="S777" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="T777" s="3" t="s">
         <v>24</v>
@@ -61185,7 +61168,7 @@
         <v>45312</v>
       </c>
       <c r="E778" s="38" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F778" s="46" t="s">
         <v>130</v>
@@ -61221,13 +61204,13 @@
         <v>24</v>
       </c>
       <c r="Q778" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="R778" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="S778" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T778" s="7">
         <v>0.45416666666666666</v>
@@ -61301,7 +61284,7 @@
         <v>24</v>
       </c>
       <c r="S779" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="T779" s="7">
         <v>0.375</v>
@@ -61373,7 +61356,7 @@
         <v>24</v>
       </c>
       <c r="S780" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="T780" s="3" t="s">
         <v>24</v>
@@ -61447,7 +61430,7 @@
         <v>24</v>
       </c>
       <c r="S781" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="T781" s="3" t="s">
         <v>24</v>
@@ -61595,7 +61578,7 @@
         <v>24</v>
       </c>
       <c r="S783" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="T783" s="3" t="s">
         <v>24</v>
@@ -61630,7 +61613,7 @@
         <v>497</v>
       </c>
       <c r="F784" s="45" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G784" s="1" t="s">
         <v>398</v>
@@ -61669,7 +61652,7 @@
         <v>24</v>
       </c>
       <c r="S784" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T784" s="8">
         <v>0.54166666666666663</v>
@@ -61743,7 +61726,7 @@
         <v>24</v>
       </c>
       <c r="S785" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T785" s="1" t="s">
         <v>24</v>
@@ -61817,7 +61800,7 @@
         <v>24</v>
       </c>
       <c r="S786" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="T786" s="1" t="s">
         <v>24</v>
@@ -62033,7 +62016,7 @@
         <v>24</v>
       </c>
       <c r="S789" s="91" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="T789" s="3" t="s">
         <v>24</v>
@@ -62099,7 +62082,7 @@
         <v>434</v>
       </c>
       <c r="S790" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T790" s="8">
         <v>0.56944444444444442</v>
@@ -62112,7 +62095,7 @@
         <v>451</v>
       </c>
       <c r="X790" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="791" spans="1:24" ht="14.45">
@@ -62155,18 +62138,18 @@
       <c r="Q791" s="1"/>
       <c r="R791" s="1"/>
       <c r="S791" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T791" s="1"/>
       <c r="U791" s="111"/>
       <c r="V791" s="45" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="W791" s="5" t="s">
         <v>451</v>
       </c>
       <c r="X791" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="792" spans="1:24" ht="14.45">
@@ -62209,18 +62192,18 @@
       <c r="Q792" s="1"/>
       <c r="R792" s="1"/>
       <c r="S792" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T792" s="1"/>
       <c r="U792" s="111"/>
       <c r="V792" s="45" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="W792" s="5" t="s">
         <v>451</v>
       </c>
       <c r="X792" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="793" spans="1:24" ht="14.45">
@@ -62263,18 +62246,18 @@
       <c r="Q793" s="1"/>
       <c r="R793" s="1"/>
       <c r="S793" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T793" s="1"/>
       <c r="U793" s="111"/>
       <c r="V793" s="45" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="W793" s="5" t="s">
         <v>451</v>
       </c>
       <c r="X793" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="794" spans="1:24" ht="14.45">
@@ -62317,18 +62300,18 @@
       <c r="Q794" s="1"/>
       <c r="R794" s="1"/>
       <c r="S794" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T794" s="1"/>
       <c r="U794" s="111"/>
       <c r="V794" s="45" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="W794" s="5" t="s">
         <v>451</v>
       </c>
       <c r="X794" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="795" spans="1:24" ht="14.45">
@@ -62375,7 +62358,7 @@
       <c r="Q795" s="1"/>
       <c r="R795" s="1"/>
       <c r="S795" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="T795" s="1"/>
       <c r="U795" s="1"/>
@@ -62427,7 +62410,7 @@
       <c r="Q796" s="1"/>
       <c r="R796" s="1"/>
       <c r="S796" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T796" s="1"/>
       <c r="U796" s="1"/>
@@ -62479,7 +62462,7 @@
       <c r="Q797" s="1"/>
       <c r="R797" s="1"/>
       <c r="S797" s="91" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="T797" s="1"/>
       <c r="U797" s="1"/>
@@ -62531,7 +62514,7 @@
       <c r="Q798" s="1"/>
       <c r="R798" s="1"/>
       <c r="S798" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T798" s="1"/>
       <c r="U798" s="1"/>
@@ -62560,16 +62543,16 @@
         <v>468</v>
       </c>
       <c r="F799" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G799" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H799" s="1" t="s">
         <v>299</v>
       </c>
       <c r="I799" s="43" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J799" s="1" t="s">
         <v>29</v>
@@ -62589,13 +62572,13 @@
       </c>
       <c r="P799" s="1"/>
       <c r="Q799" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="R799" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S799" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T799" s="8">
         <v>0.5625</v>
@@ -62651,7 +62634,7 @@
       <c r="Q800" s="1"/>
       <c r="R800" s="1"/>
       <c r="S800" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="T800" s="1"/>
       <c r="U800" s="1"/>
@@ -62703,7 +62686,7 @@
       <c r="Q801" s="1"/>
       <c r="R801" s="1"/>
       <c r="S801" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T801" s="1"/>
       <c r="U801" s="1"/>
@@ -62732,10 +62715,10 @@
         <v>468</v>
       </c>
       <c r="F802" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G802" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H802" s="1" t="s">
         <v>297</v>
@@ -62755,7 +62738,7 @@
       <c r="Q802" s="1"/>
       <c r="R802" s="1"/>
       <c r="S802" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T802" s="1"/>
       <c r="U802" s="1"/>
@@ -62782,10 +62765,10 @@
         <v>468</v>
       </c>
       <c r="F803" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G803" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H803" s="1" t="s">
         <v>297</v>
@@ -62805,7 +62788,7 @@
       <c r="Q803" s="1"/>
       <c r="R803" s="1"/>
       <c r="S803" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T803" s="1"/>
       <c r="U803" s="1"/>
@@ -62832,10 +62815,10 @@
         <v>457</v>
       </c>
       <c r="F804" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G804" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H804" s="1" t="s">
         <v>297</v>
@@ -62855,7 +62838,7 @@
       <c r="Q804" s="1"/>
       <c r="R804" s="1"/>
       <c r="S804" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="T804" s="1"/>
       <c r="U804" s="1"/>
@@ -62879,7 +62862,7 @@
         <v>45681</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F805" s="1" t="s">
         <v>25</v>
@@ -62907,7 +62890,7 @@
       <c r="Q805" s="1"/>
       <c r="R805" s="1"/>
       <c r="S805" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="T805" s="1"/>
       <c r="U805" s="1"/>
@@ -62936,7 +62919,7 @@
         <v>457</v>
       </c>
       <c r="F806" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G806" s="1"/>
       <c r="H806" s="1" t="s">
@@ -62961,7 +62944,7 @@
       <c r="Q806" s="1"/>
       <c r="R806" s="1"/>
       <c r="S806" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="T806" s="1"/>
       <c r="U806" s="1"/>
@@ -62987,10 +62970,10 @@
         <v>45681</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F807" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G807" s="3"/>
       <c r="H807" s="3" t="s">
@@ -63075,7 +63058,7 @@
         <v>434</v>
       </c>
       <c r="S808" s="92" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="T808" s="7">
         <v>0.375</v>
@@ -63103,13 +63086,13 @@
         <v>45681</v>
       </c>
       <c r="E809" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F809" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G809" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H809" s="3" t="s">
         <v>297</v>
@@ -63135,7 +63118,7 @@
       </c>
       <c r="R809" s="3"/>
       <c r="S809" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="T809" s="7">
         <v>0.41666666666666669</v>
@@ -63168,10 +63151,10 @@
         <v>47</v>
       </c>
       <c r="F810" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G810" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H810" s="3" t="s">
         <v>297</v>
@@ -63191,7 +63174,7 @@
       <c r="Q810" s="3"/>
       <c r="R810" s="3"/>
       <c r="S810" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="T810" s="3"/>
       <c r="U810" s="3"/>
@@ -63223,7 +63206,7 @@
         <v>289</v>
       </c>
       <c r="G811" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H811" s="3" t="s">
         <v>299</v>
@@ -63247,7 +63230,7 @@
       </c>
       <c r="R811" s="3"/>
       <c r="S811" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="T811" s="7">
         <v>0.33333333333333331</v>
@@ -63280,10 +63263,10 @@
         <v>457</v>
       </c>
       <c r="F812" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G812" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H812" s="1" t="s">
         <v>297</v>
@@ -63303,7 +63286,7 @@
       <c r="Q812" s="1"/>
       <c r="R812" s="1"/>
       <c r="S812" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="T812" s="1"/>
       <c r="U812" s="1"/>
@@ -63312,7 +63295,7 @@
         <v>451</v>
       </c>
       <c r="X812" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="813" spans="1:24" ht="14.45">
@@ -63331,7 +63314,7 @@
         <v>45684</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F813" s="1" t="s">
         <v>39</v>
@@ -63359,7 +63342,7 @@
       <c r="Q813" s="1"/>
       <c r="R813" s="1"/>
       <c r="S813" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T813" s="1"/>
       <c r="U813" s="1"/>
@@ -63389,7 +63372,7 @@
         <v>263</v>
       </c>
       <c r="G814" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H814" s="1" t="s">
         <v>297</v>
@@ -63413,7 +63396,7 @@
       <c r="Q814" s="1"/>
       <c r="R814" s="1"/>
       <c r="S814" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T814" s="1"/>
       <c r="U814" s="1"/>
@@ -63445,7 +63428,7 @@
         <v>228</v>
       </c>
       <c r="G815" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H815" s="1" t="s">
         <v>297</v>
@@ -63475,7 +63458,7 @@
         <v>434</v>
       </c>
       <c r="S815" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T815" s="8">
         <v>0.56944444444444442</v>
@@ -63511,7 +63494,7 @@
         <v>279</v>
       </c>
       <c r="G816" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H816" s="3" t="s">
         <v>297</v>
@@ -63541,7 +63524,7 @@
         <v>434</v>
       </c>
       <c r="S816" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="T816" s="7">
         <v>0.58333333333333337</v>
@@ -63554,7 +63537,7 @@
         <v>451</v>
       </c>
       <c r="X816" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="817" spans="1:24" ht="14.45">
@@ -63576,10 +63559,10 @@
         <v>47</v>
       </c>
       <c r="F817" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G817" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H817" s="1" t="s">
         <v>297</v>
@@ -63601,7 +63584,7 @@
       <c r="Q817" s="1"/>
       <c r="R817" s="1"/>
       <c r="S817" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T817" s="1"/>
       <c r="U817" s="1"/>
@@ -63627,13 +63610,13 @@
         <v>45684</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F818" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G818" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H818" s="1" t="s">
         <v>299</v>
@@ -63657,7 +63640,7 @@
       <c r="Q818" s="1"/>
       <c r="R818" s="1"/>
       <c r="S818" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T818" s="1"/>
       <c r="U818" s="1"/>
@@ -63689,7 +63672,7 @@
         <v>447</v>
       </c>
       <c r="G819" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H819" s="1" t="s">
         <v>297</v>
@@ -63713,7 +63696,7 @@
       <c r="Q819" s="1"/>
       <c r="R819" s="1"/>
       <c r="S819" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T819" s="1"/>
       <c r="U819" s="1"/>
@@ -63745,7 +63728,7 @@
         <v>447</v>
       </c>
       <c r="G820" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H820" s="1" t="s">
         <v>297</v>
@@ -63793,7 +63776,7 @@
         <v>263</v>
       </c>
       <c r="G821" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H821" s="1" t="s">
         <v>299</v>
@@ -63815,11 +63798,11 @@
       <c r="O821" s="1"/>
       <c r="P821" s="1"/>
       <c r="Q821" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="R821" s="1"/>
       <c r="S821" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="T821" s="8">
         <v>0.61111111111111116</v>
@@ -63855,7 +63838,7 @@
         <v>295</v>
       </c>
       <c r="G822" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H822" s="1" t="s">
         <v>299</v>
@@ -63877,11 +63860,11 @@
       <c r="O822" s="1"/>
       <c r="P822" s="1"/>
       <c r="Q822" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="R822" s="1"/>
       <c r="S822" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="T822" s="8">
         <v>0.33333333333333331</v>
@@ -63911,13 +63894,13 @@
         <v>45684</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F823" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G823" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H823" s="1" t="s">
         <v>299</v>
@@ -63939,11 +63922,11 @@
       <c r="O823" s="1"/>
       <c r="P823" s="1"/>
       <c r="Q823" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="R823" s="1"/>
       <c r="S823" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="T823" s="8">
         <v>0.38055555555555554</v>
@@ -63979,7 +63962,7 @@
         <v>306</v>
       </c>
       <c r="G824" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H824" s="1" t="s">
         <v>297</v>
@@ -64003,7 +63986,7 @@
       <c r="Q824" s="1"/>
       <c r="R824" s="1"/>
       <c r="S824" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="T824" s="8"/>
       <c r="U824" s="8"/>
@@ -64035,7 +64018,7 @@
         <v>111</v>
       </c>
       <c r="G825" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H825" s="1" t="s">
         <v>297</v>
@@ -64059,7 +64042,7 @@
       <c r="Q825" s="1"/>
       <c r="R825" s="1"/>
       <c r="S825" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="T825" s="1"/>
       <c r="U825" s="1"/>
@@ -64091,7 +64074,7 @@
         <v>76</v>
       </c>
       <c r="G826" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H826" s="1" t="s">
         <v>297</v>
@@ -64115,7 +64098,7 @@
       <c r="Q826" s="1"/>
       <c r="R826" s="1"/>
       <c r="S826" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="T826" s="1"/>
       <c r="U826" s="1"/>
@@ -64147,7 +64130,7 @@
         <v>279</v>
       </c>
       <c r="G827" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H827" s="1" t="s">
         <v>297</v>
@@ -64171,7 +64154,7 @@
       <c r="Q827" s="1"/>
       <c r="R827" s="1"/>
       <c r="S827" s="93" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="T827" s="1"/>
       <c r="U827" s="1"/>
@@ -64203,7 +64186,7 @@
         <v>111</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H828" s="1" t="s">
         <v>299</v>
@@ -64225,11 +64208,11 @@
       <c r="O828" s="1"/>
       <c r="P828" s="1"/>
       <c r="Q828" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="R828" s="1"/>
       <c r="S828" s="13" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T828" s="8">
         <v>0.41666666666666669</v>
@@ -64265,7 +64248,7 @@
         <v>186</v>
       </c>
       <c r="G829" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H829" s="1" t="s">
         <v>299</v>
@@ -64287,11 +64270,11 @@
       <c r="O829" s="1"/>
       <c r="P829" s="1"/>
       <c r="Q829" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="R829" s="1"/>
       <c r="S829" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="T829" s="8">
         <v>0.4375</v>
@@ -64327,7 +64310,7 @@
         <v>279</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H830" s="1" t="s">
         <v>299</v>
@@ -64347,7 +64330,7 @@
       <c r="Q830" s="1"/>
       <c r="R830" s="1"/>
       <c r="S830" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="T830" s="1"/>
       <c r="U830" s="1"/>
@@ -64371,7 +64354,7 @@
         <v>45686</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F831" s="1" t="s">
         <v>130</v>
@@ -64401,7 +64384,7 @@
       <c r="Q831" s="1"/>
       <c r="R831" s="1"/>
       <c r="S831" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="T831" s="1"/>
       <c r="U831" s="1"/>
@@ -64430,10 +64413,10 @@
         <v>457</v>
       </c>
       <c r="F832" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G832" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H832" s="1" t="s">
         <v>297</v>
@@ -64457,7 +64440,7 @@
       <c r="Q832" s="1"/>
       <c r="R832" s="1"/>
       <c r="S832" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="T832" s="1"/>
       <c r="U832" s="1"/>
@@ -64486,10 +64469,10 @@
         <v>468</v>
       </c>
       <c r="F833" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G833" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H833" s="1" t="s">
         <v>297</v>
@@ -64513,7 +64496,7 @@
       <c r="Q833" s="1"/>
       <c r="R833" s="1"/>
       <c r="S833" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="T833" s="1"/>
       <c r="U833" s="1"/>
@@ -64545,7 +64528,7 @@
         <v>392</v>
       </c>
       <c r="G834" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H834" s="1" t="s">
         <v>299</v>
@@ -64569,7 +64552,7 @@
       <c r="Q834" s="1"/>
       <c r="R834" s="1"/>
       <c r="S834" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="T834" s="1"/>
       <c r="U834" s="1"/>
@@ -64601,7 +64584,7 @@
         <v>279</v>
       </c>
       <c r="G835" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H835" s="1" t="s">
         <v>299</v>
@@ -64623,11 +64606,11 @@
       <c r="O835" s="1"/>
       <c r="P835" s="1"/>
       <c r="Q835" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="R835" s="1"/>
       <c r="S835" s="94" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="T835" s="95">
         <v>0.375</v>
@@ -64660,10 +64643,10 @@
         <v>457</v>
       </c>
       <c r="F836" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G836" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H836" s="1" t="s">
         <v>297</v>
@@ -64714,7 +64697,7 @@
         <v>263</v>
       </c>
       <c r="G837" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H837" s="1" t="s">
         <v>297</v>
@@ -64764,7 +64747,7 @@
         <v>424</v>
       </c>
       <c r="G838" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H838" s="1" t="s">
         <v>297</v>
@@ -64814,7 +64797,7 @@
         <v>289</v>
       </c>
       <c r="G839" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H839" s="1" t="s">
         <v>299</v>
@@ -64861,10 +64844,10 @@
         <v>457</v>
       </c>
       <c r="F840" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G840" s="50" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H840" s="1" t="s">
         <v>297</v>
@@ -64913,10 +64896,10 @@
         <v>457</v>
       </c>
       <c r="F841" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G841" s="39" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H841" s="3" t="s">
         <v>297</v>
@@ -64966,7 +64949,7 @@
         <v>399</v>
       </c>
       <c r="G842" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H842" s="3" t="s">
         <v>299</v>
@@ -65018,7 +65001,7 @@
         <v>439</v>
       </c>
       <c r="G843" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H843" s="3" t="s">
         <v>297</v>
@@ -65070,7 +65053,7 @@
         <v>111</v>
       </c>
       <c r="G844" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H844" s="3" t="s">
         <v>297</v>
@@ -65122,7 +65105,7 @@
         <v>228</v>
       </c>
       <c r="G845" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H845" s="3" t="s">
         <v>299</v>
@@ -65171,10 +65154,10 @@
         <v>457</v>
       </c>
       <c r="F846" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G846" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H846" s="3" t="s">
         <v>297</v>
@@ -65224,7 +65207,7 @@
         <v>295</v>
       </c>
       <c r="G847" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H847" s="3" t="s">
         <v>299</v>
@@ -65270,13 +65253,13 @@
         <v>45688.581076388888</v>
       </c>
       <c r="E848" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F848" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G848" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H848" s="3" t="s">
         <v>299</v>
@@ -65298,7 +65281,7 @@
       </c>
       <c r="R848" s="3"/>
       <c r="S848" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="T848" s="3"/>
       <c r="U848" s="3"/>
@@ -65330,7 +65313,7 @@
         <v>279</v>
       </c>
       <c r="G849" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H849" s="3" t="s">
         <v>297</v>
@@ -65352,7 +65335,7 @@
       </c>
       <c r="R849" s="3"/>
       <c r="S849" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="T849" s="3"/>
       <c r="U849" s="3"/>
@@ -65384,7 +65367,7 @@
         <v>439</v>
       </c>
       <c r="G850" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H850" s="3" t="s">
         <v>297</v>
@@ -65406,7 +65389,7 @@
       </c>
       <c r="R850" s="3"/>
       <c r="S850" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="T850" s="3"/>
       <c r="U850" s="3"/>
@@ -65435,10 +65418,10 @@
         <v>457</v>
       </c>
       <c r="F851" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G851" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H851" s="3" t="s">
         <v>297</v>
@@ -65460,14 +65443,14 @@
       </c>
       <c r="R851" s="3"/>
       <c r="S851" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="T851" s="3"/>
       <c r="U851" s="3"/>
       <c r="V851" s="3"/>
       <c r="W851" s="6"/>
       <c r="X851" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="852" spans="1:24" ht="14.45">
@@ -65492,7 +65475,7 @@
         <v>279</v>
       </c>
       <c r="G852" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H852" s="3" t="s">
         <v>297</v>
@@ -65514,7 +65497,7 @@
       </c>
       <c r="R852" s="3"/>
       <c r="S852" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="T852" s="3"/>
       <c r="U852" s="3"/>
@@ -65576,7 +65559,7 @@
         <v>434</v>
       </c>
       <c r="S853" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="T853" s="8">
         <v>0.33333333333333331</v>
@@ -65610,7 +65593,7 @@
         <v>439</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H854" s="3" t="s">
         <v>297</v>
@@ -65632,7 +65615,7 @@
       </c>
       <c r="R854" s="3"/>
       <c r="S854" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="T854" s="3"/>
       <c r="U854" s="3"/>
@@ -65641,7 +65624,7 @@
         <v>451</v>
       </c>
       <c r="X854" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="855" spans="1:24" ht="14.45">
@@ -65666,7 +65649,7 @@
         <v>263</v>
       </c>
       <c r="G855" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H855" s="3" t="s">
         <v>297</v>
@@ -65690,14 +65673,14 @@
       </c>
       <c r="R855" s="3"/>
       <c r="S855" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="T855" s="3"/>
       <c r="U855" s="3"/>
       <c r="V855" s="3"/>
       <c r="W855" s="6"/>
       <c r="X855" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="856" spans="1:24" ht="14.45">
@@ -65722,7 +65705,7 @@
         <v>295</v>
       </c>
       <c r="G856" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H856" s="3" t="s">
         <v>299</v>
@@ -65744,7 +65727,7 @@
       </c>
       <c r="R856" s="3"/>
       <c r="S856" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="T856" s="3"/>
       <c r="U856" s="3"/>
@@ -65756,7 +65739,7 @@
     </row>
     <row r="857" spans="1:24" ht="115.15">
       <c r="A857" s="46" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B857" s="3">
         <f t="shared" si="27"/>
@@ -65769,13 +65752,13 @@
         <v>45691.744351851848</v>
       </c>
       <c r="E857" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F857" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G857" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H857" s="3" t="s">
         <v>297</v>
@@ -65801,7 +65784,7 @@
       </c>
       <c r="R857" s="3"/>
       <c r="S857" s="12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="T857" s="7">
         <v>0.39583333333333331</v>
@@ -65839,7 +65822,7 @@
         <v>76</v>
       </c>
       <c r="G858" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H858" s="3" t="s">
         <v>299</v>
@@ -65861,7 +65844,7 @@
       </c>
       <c r="R858" s="3"/>
       <c r="S858" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="T858" s="3"/>
       <c r="U858" s="3"/>
@@ -65888,10 +65871,10 @@
         <v>457</v>
       </c>
       <c r="F859" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G859" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H859" s="3" t="s">
         <v>297</v>
@@ -65913,7 +65896,7 @@
       </c>
       <c r="R859" s="3"/>
       <c r="S859" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="T859" s="3"/>
       <c r="U859" s="3"/>
@@ -65943,7 +65926,7 @@
         <v>111</v>
       </c>
       <c r="G860" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H860" s="3" t="s">
         <v>297</v>
@@ -65975,7 +65958,7 @@
         <v>434</v>
       </c>
       <c r="S860" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T860" s="7">
         <v>0.34722222222222221</v>
@@ -66004,10 +65987,10 @@
         <v>47</v>
       </c>
       <c r="F861" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G861" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H861" s="3" t="s">
         <v>297</v>
@@ -66041,7 +66024,7 @@
         <v>434</v>
       </c>
       <c r="S861" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="T861" s="7">
         <v>0.61597222222222225</v>
@@ -66074,10 +66057,10 @@
         <v>462</v>
       </c>
       <c r="F862" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G862" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H862" s="3" t="s">
         <v>297</v>
@@ -66099,7 +66082,7 @@
       </c>
       <c r="R862" s="1"/>
       <c r="S862" s="12" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="T862" s="3"/>
       <c r="U862" s="3"/>
@@ -66128,10 +66111,10 @@
         <v>47</v>
       </c>
       <c r="F863" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G863" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H863" s="3" t="s">
         <v>297</v>
@@ -66163,7 +66146,7 @@
         <v>434</v>
       </c>
       <c r="S863" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T863" s="7">
         <v>0.33333333333333331</v>
@@ -66196,10 +66179,10 @@
         <v>47</v>
       </c>
       <c r="F864" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G864" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H864" s="3" t="s">
         <v>297</v>
@@ -66231,7 +66214,7 @@
         <v>434</v>
       </c>
       <c r="S864" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="T864" s="14">
         <v>0.33333333333333331</v>
@@ -66264,10 +66247,10 @@
         <v>47</v>
       </c>
       <c r="F865" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G865" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H865" s="3" t="s">
         <v>297</v>
@@ -66299,7 +66282,7 @@
         <v>434</v>
       </c>
       <c r="S865" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="T865" s="14">
         <v>0.33333333333333331</v>
@@ -66332,10 +66315,10 @@
         <v>47</v>
       </c>
       <c r="F866" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G866" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H866" s="3" t="s">
         <v>297</v>
@@ -66365,7 +66348,7 @@
         <v>434</v>
       </c>
       <c r="S866" s="12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="T866" s="7">
         <v>0.625</v>
@@ -66396,10 +66379,10 @@
         <v>47</v>
       </c>
       <c r="F867" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G867" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H867" s="3" t="s">
         <v>297</v>
@@ -66431,7 +66414,7 @@
         <v>434</v>
       </c>
       <c r="S867" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="T867" s="14">
         <v>0.33333333333333331</v>
@@ -66467,7 +66450,7 @@
         <v>99</v>
       </c>
       <c r="G868" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H868" s="3" t="s">
         <v>297</v>
@@ -66491,7 +66474,7 @@
       </c>
       <c r="R868" s="1"/>
       <c r="S868" s="27" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="T868" s="3"/>
       <c r="U868" s="3"/>
@@ -66523,7 +66506,7 @@
         <v>279</v>
       </c>
       <c r="G869" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H869" s="3" t="s">
         <v>297</v>
@@ -66547,14 +66530,14 @@
       <c r="Q869" s="3"/>
       <c r="R869" s="3"/>
       <c r="S869" s="27" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="T869" s="3"/>
       <c r="U869" s="3"/>
       <c r="V869" s="3"/>
       <c r="W869" s="6"/>
       <c r="X869" s="6" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="870" spans="1:24" ht="14.45">
@@ -66576,10 +66559,10 @@
         <v>457</v>
       </c>
       <c r="F870" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G870" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H870" s="3" t="s">
         <v>297</v>
@@ -66601,7 +66584,7 @@
       <c r="Q870" s="3"/>
       <c r="R870" s="3"/>
       <c r="S870" s="28" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="T870" s="3"/>
       <c r="U870" s="3"/>
@@ -66633,7 +66616,7 @@
         <v>130</v>
       </c>
       <c r="G871" s="76" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H871" s="3" t="s">
         <v>297</v>
@@ -66659,7 +66642,7 @@
       <c r="Q871" s="3"/>
       <c r="R871" s="3"/>
       <c r="S871" s="27" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="T871" s="7">
         <v>0.66666666666666663</v>
@@ -66692,10 +66675,10 @@
         <v>457</v>
       </c>
       <c r="F872" s="31" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G872" s="51" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H872" s="31" t="s">
         <v>297</v>
@@ -66715,7 +66698,7 @@
       <c r="Q872" s="31"/>
       <c r="R872" s="31"/>
       <c r="S872" s="29" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="T872" s="30"/>
       <c r="U872" s="30"/>
@@ -66747,7 +66730,7 @@
         <v>95</v>
       </c>
       <c r="G873" s="51" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H873" s="31" t="s">
         <v>297</v>
@@ -66767,7 +66750,7 @@
       <c r="Q873" s="31"/>
       <c r="R873" s="31"/>
       <c r="S873" s="29" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="T873" s="30"/>
       <c r="U873" s="30"/>
@@ -66799,7 +66782,7 @@
         <v>279</v>
       </c>
       <c r="G874" s="51" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H874" s="31" t="s">
         <v>297</v>
@@ -66819,7 +66802,7 @@
       <c r="Q874" s="31"/>
       <c r="R874" s="31"/>
       <c r="S874" s="29" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="T874" s="30"/>
       <c r="U874" s="30"/>
@@ -66851,7 +66834,7 @@
         <v>279</v>
       </c>
       <c r="G875" s="51" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H875" s="31" t="s">
         <v>297</v>
@@ -66873,7 +66856,7 @@
       <c r="Q875" s="31"/>
       <c r="R875" s="31"/>
       <c r="S875" s="29" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T875" s="30"/>
       <c r="U875" s="30"/>
@@ -66902,10 +66885,10 @@
         <v>457</v>
       </c>
       <c r="F876" s="31" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G876" s="51" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H876" s="31" t="s">
         <v>297</v>
@@ -66925,7 +66908,7 @@
       <c r="Q876" s="31"/>
       <c r="R876" s="31"/>
       <c r="S876" s="35" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="T876" s="30"/>
       <c r="U876" s="30"/>
@@ -66957,7 +66940,7 @@
         <v>130</v>
       </c>
       <c r="G877" s="51" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H877" s="31" t="s">
         <v>297</v>
@@ -66977,7 +66960,7 @@
       <c r="Q877" s="31"/>
       <c r="R877" s="31"/>
       <c r="S877" s="29" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="T877" s="30"/>
       <c r="U877" s="30"/>
@@ -67243,13 +67226,13 @@
         <v>45694.829513888886</v>
       </c>
       <c r="E884" s="34" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F884" s="34" t="s">
         <v>152</v>
       </c>
       <c r="G884" s="34" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H884" s="34" t="s">
         <v>299</v>
@@ -67275,7 +67258,7 @@
       </c>
       <c r="R884" s="34"/>
       <c r="S884" s="27" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="T884" s="33">
         <v>0.33333333333333331</v>
@@ -67308,10 +67291,10 @@
         <v>47</v>
       </c>
       <c r="F885" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G885" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H885" s="3" t="s">
         <v>297</v>
@@ -67345,7 +67328,7 @@
         <v>434</v>
       </c>
       <c r="S885" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T885" s="7">
         <v>0.39374999999999999</v>
@@ -67381,7 +67364,7 @@
         <v>99</v>
       </c>
       <c r="G886" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H886" s="3" t="s">
         <v>299</v>
@@ -67407,7 +67390,7 @@
       </c>
       <c r="R886" s="1"/>
       <c r="S886" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="T886" s="7">
         <v>0.33333333333333331</v>
@@ -67443,7 +67426,7 @@
         <v>306</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H887" s="3" t="s">
         <v>297</v>
@@ -67469,7 +67452,7 @@
       </c>
       <c r="R887" s="3"/>
       <c r="S887" s="12" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="T887" s="7">
         <v>0.67986111111111114</v>
@@ -67480,7 +67463,7 @@
         <v>441</v>
       </c>
       <c r="X887" s="36" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="888" spans="1:24" ht="14.45">
@@ -67505,7 +67488,7 @@
         <v>31</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H888" s="3" t="s">
         <v>297</v>
@@ -67527,7 +67510,7 @@
       </c>
       <c r="R888" s="3"/>
       <c r="S888" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="T888" s="3"/>
       <c r="U888" s="3"/>
@@ -67553,13 +67536,13 @@
         <v>45695.822754629633</v>
       </c>
       <c r="E889" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F889" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G889" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H889" s="3" t="s">
         <v>299</v>
@@ -67586,10 +67569,10 @@
         <v>405</v>
       </c>
       <c r="R889" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="S889" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="T889" s="7">
         <v>0.33333333333333331</v>
@@ -67625,7 +67608,7 @@
         <v>31</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H890" s="3" t="s">
         <v>297</v>
@@ -67657,7 +67640,7 @@
         <v>434</v>
       </c>
       <c r="S890" s="12" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="T890" s="7">
         <v>0.3576388888888889</v>
@@ -67691,7 +67674,7 @@
         <v>126</v>
       </c>
       <c r="G891" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H891" s="3" t="s">
         <v>297</v>
@@ -67717,7 +67700,7 @@
       </c>
       <c r="R891" s="1"/>
       <c r="S891" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="T891" s="7">
         <v>0.33333333333333331</v>
@@ -67727,10 +67710,10 @@
         <v>10088</v>
       </c>
       <c r="W891" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="X891" s="6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="892" spans="1:24" ht="15" customHeight="1">
@@ -67755,7 +67738,7 @@
         <v>279</v>
       </c>
       <c r="G892" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H892" s="3" t="s">
         <v>299</v>
@@ -67781,7 +67764,7 @@
       </c>
       <c r="R892" s="3"/>
       <c r="S892" s="4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="T892" s="3"/>
       <c r="U892" s="3"/>
@@ -67813,7 +67796,7 @@
         <v>279</v>
       </c>
       <c r="G893" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H893" s="3" t="s">
         <v>297</v>
@@ -67841,7 +67824,7 @@
       </c>
       <c r="R893" s="3"/>
       <c r="S893" s="12" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="T893" s="7">
         <v>0.65277777777777779</v>
@@ -67874,10 +67857,10 @@
         <v>47</v>
       </c>
       <c r="F894" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G894" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H894" s="3" t="s">
         <v>297</v>
@@ -67907,7 +67890,7 @@
       </c>
       <c r="R894" s="3"/>
       <c r="S894" s="12" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="T894" s="7">
         <v>0.58333333333333337</v>
@@ -67943,7 +67926,7 @@
         <v>295</v>
       </c>
       <c r="G895" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H895" s="3" t="s">
         <v>299</v>
@@ -67969,7 +67952,7 @@
       </c>
       <c r="R895" s="3"/>
       <c r="S895" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="T895" s="7">
         <v>0.60416666666666663</v>
@@ -68005,7 +67988,7 @@
         <v>279</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H896" s="3" t="s">
         <v>297</v>
@@ -68033,7 +68016,7 @@
       </c>
       <c r="R896" s="3"/>
       <c r="S896" s="12" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="T896" s="7">
         <v>0.65277777777777779</v>
@@ -68063,13 +68046,13 @@
         <v>45699</v>
       </c>
       <c r="E897" s="34" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F897" s="34" t="s">
         <v>391</v>
       </c>
       <c r="G897" s="34" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H897" s="34" t="s">
         <v>299</v>
@@ -68097,7 +68080,7 @@
       </c>
       <c r="R897" s="34"/>
       <c r="S897" s="27" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="T897" s="33">
         <v>0.41666666666666669</v>
@@ -68128,10 +68111,10 @@
         <v>457</v>
       </c>
       <c r="F898" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H898" s="3" t="s">
         <v>297</v>
@@ -68157,7 +68140,7 @@
       </c>
       <c r="R898" s="3"/>
       <c r="S898" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="T898" s="3"/>
       <c r="U898" s="3"/>
@@ -68189,7 +68172,7 @@
         <v>186</v>
       </c>
       <c r="G899" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H899" s="3" t="s">
         <v>299</v>
@@ -68215,7 +68198,7 @@
       </c>
       <c r="R899" s="3"/>
       <c r="S899" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="T899" s="7">
         <v>0.64583333333333337</v>
@@ -68251,7 +68234,7 @@
         <v>228</v>
       </c>
       <c r="G900" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H900" s="3" t="s">
         <v>297</v>
@@ -68280,10 +68263,10 @@
         <v>493</v>
       </c>
       <c r="R900" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="S900" s="12" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="T900" s="7">
         <v>0.54166666666666663</v>
@@ -68314,10 +68297,10 @@
         <v>465</v>
       </c>
       <c r="F901" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G901" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H901" s="3" t="s">
         <v>297</v>
@@ -68343,7 +68326,7 @@
       </c>
       <c r="R901" s="3"/>
       <c r="S901" s="12" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="T901" s="7">
         <v>0.63124999999999998</v>
@@ -68373,13 +68356,13 @@
         <v>45699.760763888888</v>
       </c>
       <c r="E902" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F902" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G902" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H902" s="3" t="s">
         <v>297</v>
@@ -68405,7 +68388,7 @@
       </c>
       <c r="R902" s="3"/>
       <c r="S902" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="T902" s="7">
         <v>0.33333333333333331</v>
@@ -68415,10 +68398,10 @@
         <v>10088</v>
       </c>
       <c r="W902" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="X902" s="6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="903" spans="1:24" ht="33.75" customHeight="1">
@@ -68440,10 +68423,10 @@
         <v>465</v>
       </c>
       <c r="F903" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G903" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H903" s="3" t="s">
         <v>297</v>
@@ -68469,7 +68452,7 @@
       </c>
       <c r="R903" s="3"/>
       <c r="S903" s="12" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="T903" s="7">
         <v>0.4201388888888889</v>
@@ -68480,7 +68463,7 @@
         <v>48</v>
       </c>
       <c r="X903" s="6" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="904" spans="1:24" ht="39" customHeight="1">
@@ -68502,10 +68485,10 @@
         <v>47</v>
       </c>
       <c r="F904" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G904" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H904" s="3" t="s">
         <v>297</v>
@@ -68531,7 +68514,7 @@
       </c>
       <c r="R904" s="3"/>
       <c r="S904" s="12" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="T904" s="7">
         <v>0.41666666666666669</v>
@@ -68564,10 +68547,10 @@
         <v>478</v>
       </c>
       <c r="F905" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G905" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H905" s="3" t="s">
         <v>297</v>
@@ -68601,16 +68584,16 @@
         <v>434</v>
       </c>
       <c r="S905" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="T905" s="7">
         <v>0.60416666666666663</v>
       </c>
       <c r="U905" s="3"/>
       <c r="V905" s="3"/>
-      <c r="W905" s="26"/>
-      <c r="X905" s="11" t="s">
-        <v>24</v>
+      <c r="W905" s="22"/>
+      <c r="X905" s="22" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="906" spans="1:24" ht="15" customHeight="1">
@@ -68635,7 +68618,7 @@
         <v>25</v>
       </c>
       <c r="G906" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H906" s="3" t="s">
         <v>297</v>
@@ -68657,7 +68640,7 @@
       </c>
       <c r="R906" s="3"/>
       <c r="S906" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="T906" s="3"/>
       <c r="U906" s="3"/>
@@ -68684,10 +68667,10 @@
         <v>465</v>
       </c>
       <c r="F907" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G907" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H907" s="3" t="s">
         <v>297</v>
@@ -68715,7 +68698,7 @@
       </c>
       <c r="R907" s="3"/>
       <c r="S907" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="T907" s="7">
         <v>0.58333333333333337</v>
@@ -68751,7 +68734,7 @@
         <v>391</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H908" s="3" t="s">
         <v>299</v>
@@ -68777,7 +68760,7 @@
       </c>
       <c r="R908" s="3"/>
       <c r="S908" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="T908" s="7">
         <v>0.625</v>
@@ -68807,7 +68790,7 @@
         <v>45700.720104166663</v>
       </c>
       <c r="E909" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F909" s="3" t="s">
         <v>39</v>
@@ -68839,7 +68822,7 @@
       </c>
       <c r="R909" s="3"/>
       <c r="S909" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="T909" s="7">
         <v>0.57430555555555551</v>
@@ -68869,13 +68852,13 @@
         <v>45700.735138888886</v>
       </c>
       <c r="E910" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F910" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G910" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H910" s="3" t="s">
         <v>299</v>
@@ -68903,7 +68886,7 @@
       </c>
       <c r="R910" s="3"/>
       <c r="S910" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="T910" s="7">
         <v>0.625</v>
@@ -68939,7 +68922,7 @@
         <v>95</v>
       </c>
       <c r="G911" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H911" s="3" t="s">
         <v>299</v>
@@ -68967,7 +68950,7 @@
       </c>
       <c r="R911" s="3"/>
       <c r="S911" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="T911" s="7">
         <v>0.37013888888888891</v>
@@ -69003,7 +68986,7 @@
         <v>130</v>
       </c>
       <c r="G912" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H912" s="3" t="s">
         <v>299</v>
@@ -69031,7 +69014,7 @@
       </c>
       <c r="R912" s="3"/>
       <c r="S912" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="T912" s="7">
         <v>0.54166666666666663</v>
@@ -69067,7 +69050,7 @@
         <v>25</v>
       </c>
       <c r="G913" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H913" s="3" t="s">
         <v>299</v>
@@ -69093,7 +69076,7 @@
       </c>
       <c r="R913" s="3"/>
       <c r="S913" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="T913" s="7">
         <v>0.45833333333333331</v>
@@ -69129,7 +69112,7 @@
         <v>391</v>
       </c>
       <c r="G914" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H914" s="3" t="s">
         <v>297</v>
@@ -69155,7 +69138,7 @@
       </c>
       <c r="R914" s="3"/>
       <c r="S914" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="T914" s="7"/>
       <c r="U914" s="3"/>
@@ -69184,10 +69167,10 @@
         <v>465</v>
       </c>
       <c r="F915" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G915" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H915" s="3" t="s">
         <v>297</v>
@@ -69209,7 +69192,7 @@
       </c>
       <c r="R915" s="3"/>
       <c r="S915" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="T915" s="7"/>
       <c r="U915" s="3"/>
@@ -69235,13 +69218,13 @@
         <v>45701.614502314813</v>
       </c>
       <c r="E916" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>399</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H916" s="3" t="s">
         <v>297</v>
@@ -69273,7 +69256,7 @@
         <v>500</v>
       </c>
       <c r="S916" s="12" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="T916" s="7"/>
       <c r="U916" s="3"/>
@@ -69302,10 +69285,10 @@
         <v>457</v>
       </c>
       <c r="F917" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H917" s="3" t="s">
         <v>297</v>
@@ -69333,7 +69316,7 @@
       </c>
       <c r="R917" s="3"/>
       <c r="S917" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="T917" s="7">
         <v>0.58611111111111114</v>
@@ -69364,10 +69347,10 @@
         <v>478</v>
       </c>
       <c r="F918" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G918" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H918" s="3" t="s">
         <v>297</v>
@@ -69395,7 +69378,7 @@
       </c>
       <c r="R918" s="3"/>
       <c r="S918" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="T918" s="7">
         <v>0.58333333333333337</v>
@@ -69428,10 +69411,10 @@
         <v>374</v>
       </c>
       <c r="F919" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G919" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H919" s="3" t="s">
         <v>297</v>
@@ -69453,7 +69436,7 @@
       </c>
       <c r="R919" s="3"/>
       <c r="S919" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="T919" s="7"/>
       <c r="U919" s="3"/>
@@ -69483,7 +69466,7 @@
         <v>334</v>
       </c>
       <c r="G920" s="3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H920" s="3" t="s">
         <v>299</v>
@@ -69509,7 +69492,7 @@
       </c>
       <c r="R920" s="3"/>
       <c r="S920" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="T920" s="7">
         <v>0.66666666666666663</v>
@@ -69545,7 +69528,7 @@
         <v>111</v>
       </c>
       <c r="G921" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H921" s="3" t="s">
         <v>297</v>
@@ -69573,7 +69556,7 @@
       </c>
       <c r="R921" s="3"/>
       <c r="S921" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="T921" s="7">
         <v>0.375</v>
@@ -69607,7 +69590,7 @@
         <v>289</v>
       </c>
       <c r="G922" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H922" s="3" t="s">
         <v>297</v>
@@ -69635,7 +69618,7 @@
       </c>
       <c r="R922" s="3"/>
       <c r="S922" s="12" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="T922" s="7">
         <v>0.52083333333333337</v>
@@ -69644,7 +69627,7 @@
       <c r="V922" s="3"/>
       <c r="W922" s="6"/>
       <c r="X922" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="923" spans="1:24" ht="60" customHeight="1">
@@ -69663,13 +69646,13 @@
         <v>45702.482025462959</v>
       </c>
       <c r="E923" s="79" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F923" s="79" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G923" s="79" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H923" s="79" t="s">
         <v>297</v>
@@ -69697,7 +69680,7 @@
       </c>
       <c r="R923" s="3"/>
       <c r="S923" s="98" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="T923" s="7">
         <v>0.54166666666666663</v>
@@ -69733,7 +69716,7 @@
         <v>25</v>
       </c>
       <c r="G924" s="38" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H924" s="20" t="s">
         <v>299</v>
@@ -69759,7 +69742,7 @@
       </c>
       <c r="R924" s="38"/>
       <c r="S924" s="99" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="T924" s="61">
         <v>0.5625</v>
@@ -69793,7 +69776,7 @@
         <v>263</v>
       </c>
       <c r="G925" s="62" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H925" s="83" t="s">
         <v>297</v>
@@ -69819,7 +69802,7 @@
       </c>
       <c r="R925" s="62"/>
       <c r="S925" s="100" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="T925" s="65">
         <v>0.41666666666666669</v>
@@ -69850,10 +69833,10 @@
         <v>457</v>
       </c>
       <c r="F926" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H926" s="3" t="s">
         <v>297</v>
@@ -69879,7 +69862,7 @@
       </c>
       <c r="R926" s="3"/>
       <c r="S926" s="16" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="T926" s="7"/>
       <c r="U926" s="3"/>
@@ -69908,10 +69891,10 @@
         <v>457</v>
       </c>
       <c r="F927" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G927" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H927" s="3" t="s">
         <v>297</v>
@@ -69939,7 +69922,7 @@
       </c>
       <c r="R927" s="3"/>
       <c r="S927" s="16" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="T927" s="7"/>
       <c r="U927" s="3"/>
@@ -69971,7 +69954,7 @@
         <v>391</v>
       </c>
       <c r="G928" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H928" s="3" t="s">
         <v>297</v>
@@ -69993,16 +69976,16 @@
       </c>
       <c r="R928" s="3"/>
       <c r="S928" s="16" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="T928" s="7"/>
       <c r="U928" s="3"/>
       <c r="V928" s="3"/>
       <c r="W928" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="X928" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="929" spans="1:24" ht="15" customHeight="1">
@@ -70024,10 +70007,10 @@
         <v>374</v>
       </c>
       <c r="F929" s="18" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G929" s="18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H929" s="18" t="s">
         <v>297</v>
@@ -70055,7 +70038,7 @@
       </c>
       <c r="R929" s="18"/>
       <c r="S929" s="17" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="T929" s="21">
         <v>0.35625000000000001</v>
@@ -70083,7 +70066,7 @@
         <v>45705</v>
       </c>
       <c r="E930" s="18" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F930" s="18" t="s">
         <v>39</v>
@@ -70117,7 +70100,7 @@
       </c>
       <c r="R930" s="18"/>
       <c r="S930" s="17" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="T930" s="21">
         <v>0.34722222222222221</v>
@@ -70153,7 +70136,7 @@
         <v>186</v>
       </c>
       <c r="G931" s="25" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H931" s="25" t="s">
         <v>299</v>
@@ -70181,7 +70164,7 @@
       </c>
       <c r="R931" s="25"/>
       <c r="S931" s="23" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="T931" s="24"/>
       <c r="U931" s="24"/>
@@ -70207,13 +70190,13 @@
         <v>45705.627858796295</v>
       </c>
       <c r="E932" s="25" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F932" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G932" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H932" s="25" t="s">
         <v>299</v>
@@ -70241,7 +70224,7 @@
       </c>
       <c r="R932" s="25"/>
       <c r="S932" s="23" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="T932" s="24">
         <v>0.29166666666666669</v>
@@ -70277,7 +70260,7 @@
         <v>99</v>
       </c>
       <c r="G933" s="25" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H933" s="25" t="s">
         <v>299</v>
@@ -70299,7 +70282,7 @@
       </c>
       <c r="R933" s="25"/>
       <c r="S933" s="23" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="T933" s="24"/>
       <c r="U933" s="24"/>
@@ -70331,7 +70314,7 @@
         <v>186</v>
       </c>
       <c r="G934" s="25" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H934" s="25" t="s">
         <v>299</v>
@@ -70353,7 +70336,7 @@
       </c>
       <c r="R934" s="25"/>
       <c r="S934" s="23" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="T934" s="24"/>
       <c r="U934" s="24"/>
@@ -70382,10 +70365,10 @@
         <v>47</v>
       </c>
       <c r="F935" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G935" s="25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H935" s="25" t="s">
         <v>297</v>
@@ -70407,7 +70390,7 @@
       </c>
       <c r="R935" s="25"/>
       <c r="S935" s="23" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="T935" s="24"/>
       <c r="U935" s="24"/>
@@ -70436,10 +70419,10 @@
         <v>47</v>
       </c>
       <c r="F936" s="25" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G936" s="25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H936" s="25" t="s">
         <v>297</v>
@@ -70461,7 +70444,7 @@
       </c>
       <c r="R936" s="25"/>
       <c r="S936" s="23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="T936" s="24"/>
       <c r="U936" s="24"/>
@@ -70488,10 +70471,10 @@
         <v>468</v>
       </c>
       <c r="F937" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G937" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H937" s="25" t="s">
         <v>297</v>
@@ -70523,7 +70506,7 @@
         <v>434</v>
       </c>
       <c r="S937" s="23" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="T937" s="24"/>
       <c r="U937" s="24"/>
@@ -70552,10 +70535,10 @@
         <v>457</v>
       </c>
       <c r="F938" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G938" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H938" s="25" t="s">
         <v>297</v>
@@ -70587,7 +70570,7 @@
         <v>434</v>
       </c>
       <c r="S938" s="23" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T938" s="24"/>
       <c r="U938" s="24"/>
@@ -70616,10 +70599,10 @@
         <v>457</v>
       </c>
       <c r="F939" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G939" s="25" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H939" s="25" t="s">
         <v>297</v>
@@ -70643,7 +70626,7 @@
       </c>
       <c r="R939" s="25"/>
       <c r="S939" s="23" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="T939" s="24"/>
       <c r="U939" s="24"/>
@@ -70672,10 +70655,10 @@
         <v>457</v>
       </c>
       <c r="F940" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G940" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H940" s="25" t="s">
         <v>297</v>
@@ -70699,14 +70682,14 @@
       </c>
       <c r="R940" s="25"/>
       <c r="S940" s="23" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="T940" s="24"/>
       <c r="U940" s="24"/>
       <c r="V940" s="25"/>
       <c r="W940" s="22"/>
       <c r="X940" s="22" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="941" spans="1:24" ht="15" customHeight="1">
@@ -70728,10 +70711,10 @@
         <v>457</v>
       </c>
       <c r="F941" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G941" s="25" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H941" s="25" t="s">
         <v>297</v>
@@ -70755,14 +70738,14 @@
       </c>
       <c r="R941" s="25"/>
       <c r="S941" s="23" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="T941" s="24"/>
       <c r="U941" s="24"/>
       <c r="V941" s="25"/>
       <c r="W941" s="22"/>
       <c r="X941" s="22" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="942" spans="1:24" ht="15" customHeight="1">
@@ -70787,7 +70770,7 @@
         <v>424</v>
       </c>
       <c r="G942" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H942" s="25" t="s">
         <v>297</v>
@@ -70809,7 +70792,7 @@
       </c>
       <c r="R942" s="25"/>
       <c r="S942" s="23" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="T942" s="24"/>
       <c r="U942" s="24"/>
@@ -70838,10 +70821,10 @@
         <v>457</v>
       </c>
       <c r="F943" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G943" s="25" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H943" s="25" t="s">
         <v>297</v>
@@ -70867,7 +70850,7 @@
       </c>
       <c r="R943" s="25"/>
       <c r="S943" s="23" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="T943" s="24"/>
       <c r="U943" s="24"/>
@@ -70896,10 +70879,10 @@
         <v>457</v>
       </c>
       <c r="F944" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G944" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H944" s="25" t="s">
         <v>297</v>
@@ -70925,7 +70908,7 @@
       </c>
       <c r="R944" s="25"/>
       <c r="S944" s="23" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="T944" s="24"/>
       <c r="U944" s="24"/>
@@ -70954,10 +70937,10 @@
         <v>457</v>
       </c>
       <c r="F945" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G945" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H945" s="25" t="s">
         <v>297</v>
@@ -70991,7 +70974,7 @@
         <v>434</v>
       </c>
       <c r="S945" s="23" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="T945" s="24"/>
       <c r="U945" s="24"/>
@@ -71000,7 +70983,7 @@
         <v>48</v>
       </c>
       <c r="X945" s="22" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="946" spans="1:24" ht="15" customHeight="1">
@@ -71019,19 +71002,19 @@
         <v>45708.50105324074</v>
       </c>
       <c r="E946" s="25" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F946" s="25" t="s">
         <v>186</v>
       </c>
       <c r="G946" s="25" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H946" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I946" s="25" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="J946" s="42" t="s">
         <v>449</v>
@@ -71049,7 +71032,7 @@
       </c>
       <c r="R946" s="25"/>
       <c r="S946" s="23" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="T946" s="24">
         <v>0.54166666666666663</v>
@@ -71057,10 +71040,10 @@
       <c r="U946" s="24"/>
       <c r="V946" s="25"/>
       <c r="W946" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="X946" s="22" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="947" spans="1:24" ht="15" customHeight="1">
@@ -71082,10 +71065,10 @@
         <v>457</v>
       </c>
       <c r="F947" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G947" s="25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H947" s="25" t="s">
         <v>297</v>
@@ -71109,7 +71092,7 @@
       </c>
       <c r="R947" s="25"/>
       <c r="S947" s="23" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="T947" s="24"/>
       <c r="U947" s="24"/>
@@ -71138,10 +71121,10 @@
         <v>457</v>
       </c>
       <c r="F948" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G948" s="25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H948" s="25" t="s">
         <v>297</v>
@@ -71163,7 +71146,7 @@
       </c>
       <c r="R948" s="25"/>
       <c r="S948" s="23" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="T948" s="24"/>
       <c r="U948" s="24"/>
@@ -71192,10 +71175,10 @@
         <v>457</v>
       </c>
       <c r="F949" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G949" s="25" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H949" s="25" t="s">
         <v>297</v>
@@ -71221,7 +71204,7 @@
       </c>
       <c r="R949" s="25"/>
       <c r="S949" s="23" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="T949" s="24"/>
       <c r="U949" s="24"/>
@@ -71253,7 +71236,7 @@
         <v>130</v>
       </c>
       <c r="G950" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H950" s="25" t="s">
         <v>299</v>
@@ -71281,7 +71264,7 @@
       </c>
       <c r="R950" s="25"/>
       <c r="S950" s="23" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="T950" s="24">
         <v>0.73611111111111116</v>
@@ -71314,10 +71297,10 @@
         <v>457</v>
       </c>
       <c r="F951" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G951" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H951" s="25" t="s">
         <v>297</v>
@@ -71349,7 +71332,7 @@
         <v>434</v>
       </c>
       <c r="S951" s="23" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="T951" s="24"/>
       <c r="U951" s="24"/>
@@ -71381,7 +71364,7 @@
         <v>111</v>
       </c>
       <c r="G952" s="25" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H952" s="25" t="s">
         <v>297</v>
@@ -71405,7 +71388,7 @@
       </c>
       <c r="R952" s="25"/>
       <c r="S952" s="102" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="T952" s="24"/>
       <c r="U952" s="24"/>
@@ -71413,7 +71396,7 @@
       <c r="W952" s="22"/>
       <c r="X952" s="22"/>
     </row>
-    <row r="953" spans="1:24" ht="86.45">
+    <row r="953" spans="1:24" ht="91.5">
       <c r="A953" s="85">
         <f t="shared" si="35"/>
         <v>2025</v>
@@ -71432,10 +71415,10 @@
         <v>478</v>
       </c>
       <c r="F953" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G953" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H953" s="25" t="s">
         <v>297</v>
@@ -71457,14 +71440,14 @@
       </c>
       <c r="R953" s="25"/>
       <c r="S953" s="102" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="T953" s="24"/>
       <c r="U953" s="24"/>
       <c r="V953" s="25"/>
-      <c r="W953" s="6"/>
+      <c r="W953" s="22"/>
       <c r="X953" s="22" t="s">
-        <v>446</v>
+        <v>517</v>
       </c>
     </row>
     <row r="954" spans="1:24" ht="15" customHeight="1">
@@ -71489,7 +71472,7 @@
         <v>186</v>
       </c>
       <c r="G954" s="25" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H954" s="25" t="s">
         <v>297</v>
@@ -71517,7 +71500,7 @@
       </c>
       <c r="R954" s="25"/>
       <c r="S954" s="23" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="T954" s="24"/>
       <c r="U954" s="24"/>
@@ -71549,7 +71532,7 @@
         <v>31</v>
       </c>
       <c r="G955" s="25" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H955" s="25" t="s">
         <v>297</v>
@@ -71577,7 +71560,7 @@
       </c>
       <c r="R955" s="25"/>
       <c r="S955" s="102" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="T955" s="24">
         <v>0.625</v>
@@ -71613,13 +71596,13 @@
         <v>279</v>
       </c>
       <c r="G956" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H956" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I956" s="25" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="J956" s="55" t="s">
         <v>449</v>
@@ -71635,16 +71618,16 @@
       </c>
       <c r="R956" s="25"/>
       <c r="S956" s="23" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="T956" s="24"/>
       <c r="U956" s="24"/>
       <c r="V956" s="25"/>
       <c r="W956" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="X956" s="22" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="957" spans="1:24" ht="72" customHeight="1">
@@ -71666,7 +71649,7 @@
         <v>457</v>
       </c>
       <c r="F957" s="25" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G957" s="25" t="s">
         <v>168</v>
@@ -71695,7 +71678,7 @@
       </c>
       <c r="R957" s="25"/>
       <c r="S957" s="23" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="T957" s="24">
         <v>0.375</v>
@@ -71728,10 +71711,10 @@
         <v>457</v>
       </c>
       <c r="F958" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G958" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H958" s="25" t="s">
         <v>299</v>
@@ -71755,16 +71738,16 @@
       </c>
       <c r="R958" s="25"/>
       <c r="S958" s="23" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="T958" s="24"/>
       <c r="U958" s="24"/>
       <c r="V958" s="25"/>
       <c r="W958" s="22" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="X958" s="22" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="959" spans="1:24" ht="15" customHeight="1">
@@ -71789,7 +71772,7 @@
         <v>399</v>
       </c>
       <c r="G959" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H959" s="25" t="s">
         <v>297</v>
@@ -71811,7 +71794,7 @@
       </c>
       <c r="R959" s="25"/>
       <c r="S959" s="23" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="T959" s="24"/>
       <c r="U959" s="24"/>
@@ -71840,10 +71823,10 @@
         <v>457</v>
       </c>
       <c r="F960" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G960" s="25" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H960" s="25" t="s">
         <v>297</v>
@@ -71865,7 +71848,7 @@
       </c>
       <c r="R960" s="25"/>
       <c r="S960" s="23" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="T960" s="24"/>
       <c r="U960" s="24"/>
@@ -71894,10 +71877,10 @@
         <v>457</v>
       </c>
       <c r="F961" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G961" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H961" s="25" t="s">
         <v>297</v>
@@ -71923,7 +71906,7 @@
       </c>
       <c r="R961" s="25"/>
       <c r="S961" s="102" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="T961" s="24">
         <v>0.375</v>
@@ -71954,10 +71937,10 @@
         <v>457</v>
       </c>
       <c r="F962" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G962" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H962" s="25" t="s">
         <v>297</v>
@@ -71979,7 +71962,7 @@
       </c>
       <c r="R962" s="25"/>
       <c r="S962" s="23" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="T962" s="24"/>
       <c r="U962" s="24"/>
@@ -72011,7 +71994,7 @@
         <v>99</v>
       </c>
       <c r="G963" s="25" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H963" s="25" t="s">
         <v>297</v>
@@ -72035,7 +72018,7 @@
       </c>
       <c r="R963" s="25"/>
       <c r="S963" s="23" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="T963" s="24">
         <v>0.39583333333333331</v>
@@ -72070,10 +72053,10 @@
         <v>457</v>
       </c>
       <c r="F964" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G964" s="25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H964" s="25" t="s">
         <v>297</v>
@@ -72099,7 +72082,7 @@
       </c>
       <c r="R964" s="25"/>
       <c r="S964" s="23" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="T964" s="24"/>
       <c r="U964" s="24"/>
@@ -72128,10 +72111,10 @@
         <v>457</v>
       </c>
       <c r="F965" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G965" s="25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H965" s="25" t="s">
         <v>297</v>
@@ -72153,7 +72136,7 @@
       </c>
       <c r="R965" s="25"/>
       <c r="S965" s="23" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="T965" s="24"/>
       <c r="U965" s="24"/>
@@ -72162,7 +72145,7 @@
         <v>451</v>
       </c>
       <c r="X965" s="22" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="966" spans="1:24" ht="15" customHeight="1">
@@ -72187,7 +72170,7 @@
         <v>391</v>
       </c>
       <c r="G966" s="25" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H966" s="25" t="s">
         <v>297</v>
@@ -72211,7 +72194,7 @@
       </c>
       <c r="R966" s="25"/>
       <c r="S966" s="23" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="T966" s="24"/>
       <c r="U966" s="24"/>
@@ -72220,7 +72203,7 @@
         <v>451</v>
       </c>
       <c r="X966" s="22" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="967" spans="1:24" ht="15" customHeight="1">
@@ -72242,10 +72225,10 @@
         <v>457</v>
       </c>
       <c r="F967" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G967" s="25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H967" s="25" t="s">
         <v>297</v>
@@ -72267,16 +72250,16 @@
       </c>
       <c r="R967" s="25"/>
       <c r="S967" s="23" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="T967" s="24"/>
       <c r="U967" s="24"/>
       <c r="V967" s="25"/>
       <c r="W967" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="X967" s="22" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="968" spans="1:24" ht="15" customHeight="1">
@@ -72298,10 +72281,10 @@
         <v>468</v>
       </c>
       <c r="F968" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G968" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H968" s="25" t="s">
         <v>297</v>
@@ -72327,7 +72310,7 @@
       </c>
       <c r="R968" s="25"/>
       <c r="S968" s="23" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="T968" s="24">
         <v>0.35416666666666669</v>
@@ -72360,10 +72343,10 @@
         <v>457</v>
       </c>
       <c r="F969" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G969" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H969" s="25" t="s">
         <v>297</v>
@@ -72387,7 +72370,7 @@
       </c>
       <c r="R969" s="25"/>
       <c r="S969" s="23" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="T969" s="24"/>
       <c r="U969" s="24"/>
@@ -72416,10 +72399,10 @@
         <v>468</v>
       </c>
       <c r="F970" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G970" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H970" s="25" t="s">
         <v>297</v>
@@ -72443,7 +72426,7 @@
       </c>
       <c r="R970" s="25"/>
       <c r="S970" s="105" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="T970" s="24"/>
       <c r="U970" s="24"/>
@@ -72470,10 +72453,10 @@
         <v>468</v>
       </c>
       <c r="F971" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G971" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H971" s="25" t="s">
         <v>297</v>
@@ -72499,7 +72482,7 @@
       </c>
       <c r="R971" s="25"/>
       <c r="S971" s="23" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="T971" s="24">
         <v>0.52083333333333337</v>
@@ -72529,19 +72512,19 @@
         <v>45714</v>
       </c>
       <c r="E972" s="25" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F972" s="25" t="s">
         <v>447</v>
       </c>
       <c r="G972" s="25" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H972" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I972" s="43" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="J972" s="55" t="s">
         <v>449</v>
@@ -72557,16 +72540,16 @@
       </c>
       <c r="R972" s="25"/>
       <c r="S972" s="23" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="T972" s="24"/>
       <c r="U972" s="24"/>
       <c r="V972" s="25"/>
       <c r="W972" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="X972" s="22" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="973" spans="1:24" ht="15" customHeight="1">
@@ -72613,7 +72596,7 @@
       </c>
       <c r="R973" s="25"/>
       <c r="S973" s="23" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="T973" s="24"/>
       <c r="U973" s="24"/>
@@ -72642,10 +72625,10 @@
         <v>465</v>
       </c>
       <c r="F974" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G974" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H974" s="25" t="s">
         <v>297</v>
@@ -72667,7 +72650,7 @@
       </c>
       <c r="R974" s="25"/>
       <c r="S974" s="23" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="T974" s="24"/>
       <c r="U974" s="24"/>
@@ -72699,7 +72682,7 @@
         <v>25</v>
       </c>
       <c r="G975" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H975" s="25" t="s">
         <v>299</v>
@@ -72721,7 +72704,7 @@
       </c>
       <c r="R975" s="25"/>
       <c r="S975" s="23" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="T975" s="24"/>
       <c r="U975" s="24"/>
@@ -72753,7 +72736,7 @@
         <v>95</v>
       </c>
       <c r="G976" s="25" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H976" s="25" t="s">
         <v>299</v>
@@ -72775,7 +72758,7 @@
       </c>
       <c r="R976" s="25"/>
       <c r="S976" s="23" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="T976" s="24"/>
       <c r="U976" s="24"/>
@@ -72805,7 +72788,7 @@
         <v>95</v>
       </c>
       <c r="G977" s="25" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H977" s="25" t="s">
         <v>297</v>
@@ -72833,7 +72816,7 @@
       </c>
       <c r="R977" s="25"/>
       <c r="S977" s="102" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="T977" s="24">
         <v>0.39583333333333331</v>
@@ -72869,7 +72852,7 @@
         <v>424</v>
       </c>
       <c r="G978" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H978" s="25" t="s">
         <v>299</v>
@@ -72895,7 +72878,7 @@
       </c>
       <c r="R978" s="25"/>
       <c r="S978" s="23" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="T978" s="24"/>
       <c r="U978" s="24"/>
@@ -72924,10 +72907,10 @@
         <v>457</v>
       </c>
       <c r="F979" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G979" s="25" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H979" s="25" t="s">
         <v>297</v>
@@ -72949,7 +72932,7 @@
       </c>
       <c r="R979" s="25"/>
       <c r="S979" s="23" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="T979" s="24"/>
       <c r="U979" s="24"/>
@@ -72975,13 +72958,13 @@
         <v>45716</v>
       </c>
       <c r="E980" s="25" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F980" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G980" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H980" s="25" t="s">
         <v>297</v>
@@ -73005,7 +72988,7 @@
       </c>
       <c r="R980" s="25"/>
       <c r="S980" s="23" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="T980" s="24">
         <v>0.375</v>
@@ -73039,7 +73022,7 @@
         <v>95</v>
       </c>
       <c r="G981" s="25" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H981" s="25" t="s">
         <v>297</v>
@@ -73061,7 +73044,7 @@
       </c>
       <c r="R981" s="25"/>
       <c r="S981" s="23" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="T981" s="24"/>
       <c r="U981" s="24"/>
@@ -73117,7 +73100,7 @@
       </c>
       <c r="R982" s="25"/>
       <c r="S982" s="23" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="T982" s="24"/>
       <c r="U982" s="24"/>
@@ -73149,7 +73132,7 @@
         <v>116</v>
       </c>
       <c r="G983" s="25" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H983" s="25" t="s">
         <v>299</v>
@@ -73173,7 +73156,7 @@
       </c>
       <c r="R983" s="25"/>
       <c r="S983" s="23" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="T983" s="24"/>
       <c r="U983" s="24"/>
@@ -73205,7 +73188,7 @@
         <v>76</v>
       </c>
       <c r="G984" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H984" s="25" t="s">
         <v>299</v>
@@ -73231,7 +73214,7 @@
       </c>
       <c r="R984" s="25"/>
       <c r="S984" s="23" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="T984" s="24">
         <v>0.54166666666666663</v>
@@ -73261,13 +73244,13 @@
         <v>45691</v>
       </c>
       <c r="E985" s="25" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F985" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G985" s="25" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H985" s="25" t="s">
         <v>297</v>
@@ -73291,7 +73274,7 @@
       </c>
       <c r="R985" s="25"/>
       <c r="S985" s="102" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="T985" s="24"/>
       <c r="U985" s="24"/>
@@ -73323,7 +73306,7 @@
         <v>130</v>
       </c>
       <c r="G986" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H986" s="25" t="s">
         <v>297</v>
@@ -73347,16 +73330,16 @@
       </c>
       <c r="R986" s="25"/>
       <c r="S986" s="23" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="T986" s="24"/>
       <c r="U986" s="24"/>
       <c r="V986" s="25"/>
       <c r="W986" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="X986" s="109" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="987" spans="1:24" ht="15" customHeight="1">
@@ -73378,10 +73361,10 @@
         <v>457</v>
       </c>
       <c r="F987" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G987" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H987" s="25" t="s">
         <v>297</v>
@@ -73407,7 +73390,7 @@
       </c>
       <c r="R987" s="25"/>
       <c r="S987" s="23" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="T987" s="24"/>
       <c r="U987" s="24"/>
@@ -73436,10 +73419,10 @@
         <v>457</v>
       </c>
       <c r="F988" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G988" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H988" s="25" t="s">
         <v>297</v>
@@ -73463,7 +73446,7 @@
       </c>
       <c r="R988" s="25"/>
       <c r="S988" s="23" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="T988" s="24"/>
       <c r="U988" s="24"/>
@@ -73474,7 +73457,7 @@
         <v>451</v>
       </c>
       <c r="X988" s="22" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="989" spans="1:24" ht="15" customHeight="1">
@@ -73499,7 +73482,7 @@
         <v>111</v>
       </c>
       <c r="G989" s="25" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H989" s="25" t="s">
         <v>299</v>
@@ -73525,7 +73508,7 @@
       </c>
       <c r="R989" s="25"/>
       <c r="S989" s="23" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="T989" s="24">
         <v>0.59722222222222221</v>
@@ -73561,7 +73544,7 @@
         <v>25</v>
       </c>
       <c r="G990" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H990" s="25" t="s">
         <v>299</v>
@@ -73587,7 +73570,7 @@
       </c>
       <c r="R990" s="25"/>
       <c r="S990" s="23" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="T990" s="24">
         <v>0.625</v>
@@ -73623,13 +73606,13 @@
         <v>394</v>
       </c>
       <c r="G991" s="25" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H991" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I991" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J991" s="55" t="s">
         <v>29</v>
@@ -73647,7 +73630,7 @@
       </c>
       <c r="R991" s="25"/>
       <c r="S991" s="102" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="T991" s="24"/>
       <c r="U991" s="24"/>
@@ -73676,10 +73659,10 @@
         <v>478</v>
       </c>
       <c r="F992" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G992" s="25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H992" s="25" t="s">
         <v>297</v>
@@ -73705,7 +73688,7 @@
       </c>
       <c r="R992" s="25"/>
       <c r="S992" s="23" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="T992" s="24"/>
       <c r="U992" s="24"/>
@@ -73737,13 +73720,13 @@
         <v>160</v>
       </c>
       <c r="G993" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H993" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I993" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J993" s="55" t="s">
         <v>29</v>
@@ -73765,7 +73748,7 @@
       </c>
       <c r="R993" s="25"/>
       <c r="S993" s="23" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="T993" s="24">
         <v>0.375</v>
@@ -73776,7 +73759,7 @@
       <c r="V993" s="25"/>
       <c r="W993" s="22"/>
       <c r="X993" s="109" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="994" spans="1:24" ht="15" customHeight="1">
@@ -73801,13 +73784,13 @@
         <v>394</v>
       </c>
       <c r="G994" s="25" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H994" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I994" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J994" s="1" t="s">
         <v>515</v>
@@ -73825,14 +73808,14 @@
       </c>
       <c r="R994" s="25"/>
       <c r="S994" s="106" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="T994" s="24"/>
       <c r="U994" s="24"/>
       <c r="V994" s="25"/>
-      <c r="W994" s="6"/>
+      <c r="W994" s="22"/>
       <c r="X994" s="22" t="s">
-        <v>812</v>
+        <v>517</v>
       </c>
     </row>
     <row r="995" spans="1:24" ht="15" customHeight="1">
@@ -73854,10 +73837,10 @@
         <v>457</v>
       </c>
       <c r="F995" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G995" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H995" s="25" t="s">
         <v>297</v>
@@ -73915,16 +73898,16 @@
         <v>130</v>
       </c>
       <c r="G996" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H996" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I996" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J996" s="55" t="s">
-        <v>428</v>
+        <v>515</v>
       </c>
       <c r="K996" s="56">
         <v>45727</v>
@@ -73946,11 +73929,9 @@
       <c r="T996" s="24"/>
       <c r="U996" s="24"/>
       <c r="V996" s="25"/>
-      <c r="W996" s="22" t="s">
-        <v>48</v>
-      </c>
+      <c r="W996" s="22"/>
       <c r="X996" s="22" t="s">
-        <v>815</v>
+        <v>517</v>
       </c>
     </row>
     <row r="997" spans="1:24" ht="15" customHeight="1">
@@ -73975,13 +73956,13 @@
         <v>439</v>
       </c>
       <c r="G997" s="25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H997" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I997" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J997" s="55" t="s">
         <v>29</v>
@@ -74003,7 +73984,7 @@
       </c>
       <c r="R997" s="25"/>
       <c r="S997" s="23" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="T997" s="24">
         <v>0.54166666666666663</v>
@@ -74033,19 +74014,19 @@
         <v>45723</v>
       </c>
       <c r="E998" s="25" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F998" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G998" s="25" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H998" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I998" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J998" s="55" t="s">
         <v>29</v>
@@ -74063,7 +74044,7 @@
       </c>
       <c r="R998" s="25"/>
       <c r="S998" s="23" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="T998" s="24"/>
       <c r="U998" s="24"/>
@@ -74089,19 +74070,19 @@
         <v>45726</v>
       </c>
       <c r="E999" s="25" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F999" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G999" s="25" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H999" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I999" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J999" s="55" t="s">
         <v>29</v>
@@ -74117,7 +74098,7 @@
       </c>
       <c r="R999" s="25"/>
       <c r="S999" s="23" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="T999" s="24"/>
       <c r="U999" s="24"/>
@@ -74146,16 +74127,16 @@
         <v>457</v>
       </c>
       <c r="F1000" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1000" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1000" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1000" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1000" s="55" t="s">
         <v>449</v>
@@ -74171,16 +74152,16 @@
       </c>
       <c r="R1000" s="25"/>
       <c r="S1000" s="23" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="T1000" s="24"/>
       <c r="U1000" s="24"/>
       <c r="V1000" s="25"/>
       <c r="W1000" s="22" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="X1000" s="22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1001" spans="1:24" ht="15" customHeight="1">
@@ -74205,13 +74186,13 @@
         <v>424</v>
       </c>
       <c r="G1001" s="25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1001" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1001" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1001" s="55" t="s">
         <v>29</v>
@@ -74233,7 +74214,7 @@
       </c>
       <c r="R1001" s="25"/>
       <c r="S1001" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="T1001" s="24">
         <v>0.45833333333333331</v>
@@ -74269,13 +74250,13 @@
         <v>424</v>
       </c>
       <c r="G1002" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1002" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1002" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1002" s="55" t="s">
         <v>29</v>
@@ -74297,7 +74278,7 @@
       </c>
       <c r="R1002" s="25"/>
       <c r="S1002" s="23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="T1002" s="24">
         <v>0.45833333333333331</v>
@@ -74327,19 +74308,19 @@
         <v>45726</v>
       </c>
       <c r="E1003" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F1003" s="25" t="s">
         <v>126</v>
       </c>
       <c r="G1003" s="25" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1003" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1003" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1003" s="55" t="s">
         <v>29</v>
@@ -74359,7 +74340,7 @@
       </c>
       <c r="R1003" s="25"/>
       <c r="S1003" s="102" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="T1003" s="24"/>
       <c r="U1003" s="24">
@@ -74393,13 +74374,13 @@
         <v>228</v>
       </c>
       <c r="G1004" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1004" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1004" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1004" s="55" t="s">
         <v>515</v>
@@ -74417,16 +74398,14 @@
       </c>
       <c r="R1004" s="25"/>
       <c r="S1004" s="23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="T1004" s="24"/>
       <c r="U1004" s="24"/>
       <c r="V1004" s="25"/>
-      <c r="W1004" s="22" t="s">
-        <v>451</v>
-      </c>
+      <c r="W1004" s="22"/>
       <c r="X1004" s="22" t="s">
-        <v>571</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1005" spans="1:24" ht="15" customHeight="1">
@@ -74445,7 +74424,7 @@
         <v>45727</v>
       </c>
       <c r="E1005" s="25" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F1005" s="25" t="s">
         <v>433</v>
@@ -74457,7 +74436,7 @@
         <v>297</v>
       </c>
       <c r="I1005" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1005" s="1" t="s">
         <v>515</v>
@@ -74477,21 +74456,21 @@
       </c>
       <c r="R1005" s="25"/>
       <c r="S1005" s="23" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="T1005" s="24"/>
       <c r="U1005" s="24">
         <v>0.66666666666666663</v>
       </c>
       <c r="V1005" s="25"/>
-      <c r="W1005" s="6"/>
+      <c r="W1005" s="22"/>
       <c r="X1005" s="22" t="s">
-        <v>827</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1006" spans="1:24" ht="15" customHeight="1">
       <c r="A1006" s="85" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B1006" s="25">
         <f t="shared" si="38"/>
@@ -74510,13 +74489,13 @@
         <v>130</v>
       </c>
       <c r="G1006" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H1006" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1006" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1006" s="55" t="s">
         <v>29</v>
@@ -74534,7 +74513,7 @@
       </c>
       <c r="R1006" s="25"/>
       <c r="S1006" s="23" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="T1006" s="24"/>
       <c r="U1006" s="24"/>
@@ -74563,16 +74542,16 @@
         <v>457</v>
       </c>
       <c r="F1007" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1007" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1007" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1007" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1007" s="55" t="s">
         <v>29</v>
@@ -74592,7 +74571,7 @@
       </c>
       <c r="R1007" s="25"/>
       <c r="S1007" s="23" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="T1007" s="24"/>
       <c r="U1007" s="24"/>
@@ -74619,10 +74598,10 @@
         <v>478</v>
       </c>
       <c r="F1008" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1008" s="25" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H1008" s="25" t="s">
         <v>297</v>
@@ -74646,7 +74625,7 @@
       </c>
       <c r="R1008" s="25"/>
       <c r="S1008" s="23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="T1008" s="24">
         <v>0.375</v>
@@ -74659,7 +74638,7 @@
         <v>441</v>
       </c>
       <c r="X1008" s="22" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1009" spans="1:24" ht="15" customHeight="1">
@@ -74681,16 +74660,16 @@
         <v>457</v>
       </c>
       <c r="F1009" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1009" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1009" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1009" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1009" s="55" t="s">
         <v>428</v>
@@ -74708,7 +74687,7 @@
       </c>
       <c r="R1009" s="25"/>
       <c r="S1009" s="23" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="T1009" s="24"/>
       <c r="U1009" s="24"/>
@@ -74717,7 +74696,7 @@
         <v>451</v>
       </c>
       <c r="X1009" s="22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1010" spans="1:24" ht="15" customHeight="1">
@@ -74736,7 +74715,7 @@
         <v>45727</v>
       </c>
       <c r="E1010" s="25" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F1010" s="25" t="s">
         <v>433</v>
@@ -74748,7 +74727,7 @@
         <v>299</v>
       </c>
       <c r="I1010" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1010" s="55" t="s">
         <v>449</v>
@@ -74764,13 +74743,13 @@
       </c>
       <c r="R1010" s="25"/>
       <c r="S1010" s="23" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="T1010" s="24"/>
       <c r="U1010" s="24"/>
       <c r="V1010" s="25"/>
       <c r="W1010" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="X1010" s="22" t="s">
         <v>442</v>
@@ -74795,16 +74774,16 @@
         <v>457</v>
       </c>
       <c r="F1011" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1011" s="25" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1011" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1011" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1011" s="55" t="s">
         <v>428</v>
@@ -74824,7 +74803,7 @@
       </c>
       <c r="R1011" s="25"/>
       <c r="S1011" s="23" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="T1011" s="24">
         <v>0.58333333333333337</v>
@@ -74835,7 +74814,7 @@
         <v>451</v>
       </c>
       <c r="X1011" s="22" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1012" spans="1:24" ht="28.5" customHeight="1">
@@ -74860,13 +74839,13 @@
         <v>295</v>
       </c>
       <c r="G1012" s="25" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1012" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1012" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1012" s="1" t="s">
         <v>515</v>
@@ -74882,13 +74861,15 @@
       </c>
       <c r="R1012" s="25"/>
       <c r="S1012" s="102" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="T1012" s="24"/>
       <c r="U1012" s="24"/>
       <c r="V1012" s="25"/>
-      <c r="W1012" s="6"/>
-      <c r="X1012" s="22"/>
+      <c r="W1012" s="22"/>
+      <c r="X1012" s="22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="1013" spans="1:24" ht="15" customHeight="1">
       <c r="A1013" s="85">
@@ -74909,16 +74890,16 @@
         <v>457</v>
       </c>
       <c r="F1013" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1013" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1013" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1013" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1013" s="55" t="s">
         <v>29</v>
@@ -74940,7 +74921,7 @@
       </c>
       <c r="R1013" s="25"/>
       <c r="S1013" s="102" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="T1013" s="24"/>
       <c r="U1013" s="24">
@@ -74971,16 +74952,16 @@
         <v>457</v>
       </c>
       <c r="F1014" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1014" s="25" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1014" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1014" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1014" s="55" t="s">
         <v>29</v>
@@ -75000,7 +74981,7 @@
       </c>
       <c r="R1014" s="25"/>
       <c r="S1014" s="23" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="T1014" s="24"/>
       <c r="U1014" s="24"/>
@@ -75032,13 +75013,13 @@
         <v>111</v>
       </c>
       <c r="G1015" s="25" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1015" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1015" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1015" s="1" t="s">
         <v>515</v>
@@ -75058,14 +75039,14 @@
       </c>
       <c r="R1015" s="18"/>
       <c r="S1015" s="17" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="T1015" s="21"/>
       <c r="U1015" s="21"/>
       <c r="V1015" s="18"/>
-      <c r="W1015" s="6"/>
+      <c r="W1015" s="22"/>
       <c r="X1015" s="22" t="s">
-        <v>446</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1016" spans="1:24" ht="51.75" customHeight="1">
@@ -75087,16 +75068,16 @@
         <v>465</v>
       </c>
       <c r="F1016" s="25" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G1016" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1016" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1016" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1016" s="55" t="s">
         <v>428</v>
@@ -75116,16 +75097,16 @@
       </c>
       <c r="R1016" s="18"/>
       <c r="S1016" s="110" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="T1016" s="21"/>
       <c r="U1016" s="21"/>
       <c r="V1016" s="18"/>
       <c r="W1016" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="X1016" s="22" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1017" spans="1:24" ht="15" customHeight="1">
@@ -75150,13 +75131,13 @@
         <v>228</v>
       </c>
       <c r="G1017" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1017" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1017" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1017" s="55" t="s">
         <v>29</v>
@@ -75178,14 +75159,14 @@
       </c>
       <c r="R1017" s="25"/>
       <c r="S1017" s="23" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="T1017" s="24"/>
       <c r="U1017" s="24"/>
       <c r="V1017" s="25"/>
       <c r="W1017" s="22"/>
       <c r="X1017" s="22" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1018" spans="1:24" ht="40.5" customHeight="1">
@@ -75210,13 +75191,13 @@
         <v>279</v>
       </c>
       <c r="G1018" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1018" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1018" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1018" s="1" t="s">
         <v>515</v>
@@ -75232,20 +75213,19 @@
       </c>
       <c r="R1018" s="25"/>
       <c r="S1018" s="102" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="T1018" s="24"/>
       <c r="U1018" s="24"/>
       <c r="V1018" s="25"/>
-      <c r="W1018" s="6"/>
+      <c r="W1018" s="22"/>
       <c r="X1018" s="22" t="s">
-        <v>849</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1019" spans="1:24" ht="15" customHeight="1">
-      <c r="A1019" s="85">
-        <f t="shared" si="39"/>
-        <v>2025</v>
+      <c r="A1019" s="85" t="s">
+        <v>847</v>
       </c>
       <c r="B1019" s="25">
         <f t="shared" si="40"/>
@@ -75264,13 +75244,13 @@
         <v>95</v>
       </c>
       <c r="G1019" s="25" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1019" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1019" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1019" s="55" t="s">
         <v>428</v>
@@ -75288,7 +75268,7 @@
       </c>
       <c r="R1019" s="25"/>
       <c r="S1019" s="23" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="T1019" s="24">
         <v>0.58333333333333337</v>
@@ -75296,10 +75276,10 @@
       <c r="U1019" s="24"/>
       <c r="V1019" s="25"/>
       <c r="W1019" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="X1019" s="22" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1020" spans="1:24" ht="15" customHeight="1">
@@ -75324,13 +75304,13 @@
         <v>424</v>
       </c>
       <c r="G1020" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1020" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1020" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1020" s="55" t="s">
         <v>29</v>
@@ -75352,7 +75332,7 @@
       </c>
       <c r="R1020" s="25"/>
       <c r="S1020" s="23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="T1020" s="24">
         <v>0.375</v>
@@ -75363,7 +75343,7 @@
       <c r="V1020" s="25"/>
       <c r="W1020" s="22"/>
       <c r="X1020" s="22" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1021" spans="1:24" ht="15" customHeight="1">
@@ -75382,19 +75362,19 @@
         <v>45729</v>
       </c>
       <c r="E1021" s="25" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F1021" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G1021" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1021" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1021" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1021" s="1" t="s">
         <v>515</v>
@@ -75416,14 +75396,14 @@
       </c>
       <c r="R1021" s="25"/>
       <c r="S1021" s="23" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="T1021" s="24"/>
       <c r="U1021" s="24"/>
       <c r="V1021" s="25"/>
-      <c r="W1021" s="112"/>
+      <c r="W1021" s="22"/>
       <c r="X1021" s="22" t="s">
-        <v>446</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1022" spans="1:24" ht="15" customHeight="1">
@@ -75445,16 +75425,16 @@
         <v>457</v>
       </c>
       <c r="F1022" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1022" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1022" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1022" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1022" s="55" t="s">
         <v>449</v>
@@ -75472,7 +75452,7 @@
       </c>
       <c r="R1022" s="25"/>
       <c r="S1022" s="23" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="T1022" s="24"/>
       <c r="U1022" s="24"/>
@@ -75503,16 +75483,16 @@
         <v>457</v>
       </c>
       <c r="F1023" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1023" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1023" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1023" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1023" s="55" t="s">
         <v>29</v>
@@ -75534,7 +75514,7 @@
       </c>
       <c r="R1023" s="25"/>
       <c r="S1023" s="23" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="T1023" s="24"/>
       <c r="U1023" s="24"/>
@@ -75566,7 +75546,7 @@
         <v>25</v>
       </c>
       <c r="G1024" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1024" s="25" t="s">
         <v>299</v>
@@ -75594,7 +75574,7 @@
       </c>
       <c r="R1024" s="25"/>
       <c r="S1024" s="23" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="T1024" s="24">
         <v>0.33333333333333331</v>
@@ -75622,19 +75602,19 @@
         <v>45730</v>
       </c>
       <c r="E1025" s="25" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F1025" s="25" t="s">
         <v>399</v>
       </c>
       <c r="G1025" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1025" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1025" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1025" s="55" t="s">
         <v>60</v>
@@ -75650,7 +75630,7 @@
       </c>
       <c r="R1025" s="25"/>
       <c r="S1025" s="23" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="T1025" s="24"/>
       <c r="U1025" s="24"/>
@@ -75674,13 +75654,13 @@
         <v>45730</v>
       </c>
       <c r="E1026" s="25" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F1026" s="25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G1026" s="25" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1026" s="25" t="s">
         <v>297</v>
@@ -75704,7 +75684,7 @@
       </c>
       <c r="R1026" s="25"/>
       <c r="S1026" s="23" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="T1026" s="24">
         <v>0.33333333333333331</v>
@@ -75712,10 +75692,10 @@
       <c r="U1026" s="24"/>
       <c r="V1026" s="25"/>
       <c r="W1026" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="X1026" s="22" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1027" spans="1:24" ht="15" customHeight="1">
@@ -75734,7 +75714,7 @@
         <v>45730</v>
       </c>
       <c r="E1027" s="25" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F1027" s="25" t="s">
         <v>39</v>
@@ -75762,16 +75742,16 @@
       </c>
       <c r="R1027" s="25"/>
       <c r="S1027" s="23" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="T1027" s="24"/>
       <c r="U1027" s="24"/>
       <c r="V1027" s="25"/>
       <c r="W1027" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="X1027" s="22" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1028" spans="1:24" ht="15" customHeight="1">
@@ -75796,13 +75776,13 @@
         <v>263</v>
       </c>
       <c r="G1028" s="25" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1028" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1028" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1028" s="55" t="s">
         <v>29</v>
@@ -75818,7 +75798,7 @@
       </c>
       <c r="R1028" s="25"/>
       <c r="S1028" s="23" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="T1028" s="24"/>
       <c r="U1028" s="24"/>
@@ -75848,13 +75828,13 @@
         <v>279</v>
       </c>
       <c r="G1029" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1029" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1029" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1029" s="55" t="s">
         <v>449</v>
@@ -75870,13 +75850,13 @@
       </c>
       <c r="R1029" s="25"/>
       <c r="S1029" s="102" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="T1029" s="24"/>
       <c r="U1029" s="24"/>
       <c r="V1029" s="25"/>
       <c r="W1029" s="22" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="X1029" s="22" t="s">
         <v>446</v>
@@ -75901,16 +75881,16 @@
         <v>47</v>
       </c>
       <c r="F1030" s="25" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G1030" s="25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1030" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1030" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1030" s="55" t="s">
         <v>29</v>
@@ -75926,7 +75906,7 @@
       </c>
       <c r="R1030" s="25"/>
       <c r="S1030" s="23" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="T1030" s="24"/>
       <c r="U1030" s="24"/>
@@ -75953,16 +75933,16 @@
         <v>457</v>
       </c>
       <c r="F1031" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1031" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1031" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1031" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1031" s="55" t="s">
         <v>29</v>
@@ -75984,14 +75964,14 @@
       </c>
       <c r="R1031" s="25"/>
       <c r="S1031" s="23" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="T1031" s="24"/>
       <c r="U1031" s="24"/>
       <c r="V1031" s="25"/>
       <c r="W1031" s="22"/>
       <c r="X1031" s="22" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1032" spans="1:24" ht="15" customHeight="1">
@@ -76016,13 +75996,13 @@
         <v>263</v>
       </c>
       <c r="G1032" s="25" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1032" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1032" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1032" s="55" t="s">
         <v>29</v>
@@ -76042,7 +76022,7 @@
       </c>
       <c r="R1032" s="25"/>
       <c r="S1032" s="23" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="T1032" s="24">
         <v>0.33333333333333331</v>
@@ -76072,19 +76052,19 @@
         <v>45733</v>
       </c>
       <c r="E1033" s="25" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F1033" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G1033" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H1033" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1033" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1033" s="55" t="s">
         <v>29</v>
@@ -76100,7 +76080,7 @@
       </c>
       <c r="R1033" s="25"/>
       <c r="S1033" s="23" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="T1033" s="24"/>
       <c r="U1033" s="24"/>
@@ -76124,19 +76104,19 @@
         <v>45733</v>
       </c>
       <c r="E1034" s="25" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F1034" s="25" t="s">
         <v>424</v>
       </c>
       <c r="G1034" s="25" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1034" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1034" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1034" s="55" t="s">
         <v>29</v>
@@ -76156,7 +76136,7 @@
       </c>
       <c r="R1034" s="25"/>
       <c r="S1034" s="23" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="T1034" s="24">
         <v>0.375</v>
@@ -76184,19 +76164,19 @@
         <v>45733</v>
       </c>
       <c r="E1035" s="25" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F1035" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1035" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1035" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1035" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1035" s="55" t="s">
         <v>29</v>
@@ -76212,7 +76192,7 @@
       </c>
       <c r="R1035" s="25"/>
       <c r="S1035" s="23" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="T1035" s="24"/>
       <c r="U1035" s="24"/>
@@ -76236,19 +76216,19 @@
         <v>45733</v>
       </c>
       <c r="E1036" s="25" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F1036" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G1036" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H1036" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1036" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1036" s="55" t="s">
         <v>29</v>
@@ -76268,7 +76248,7 @@
       </c>
       <c r="R1036" s="25"/>
       <c r="S1036" s="23" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="T1036" s="24"/>
       <c r="U1036" s="24"/>
@@ -76298,13 +76278,13 @@
         <v>25</v>
       </c>
       <c r="G1037" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1037" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1037" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1037" s="55" t="s">
         <v>29</v>
@@ -76320,7 +76300,7 @@
       </c>
       <c r="R1037" s="25"/>
       <c r="S1037" s="23" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="T1037" s="24">
         <v>0.41666666666666669</v>
@@ -76354,7 +76334,7 @@
         <v>25</v>
       </c>
       <c r="G1038" s="25" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1038" s="25" t="s">
         <v>297</v>
@@ -76380,7 +76360,7 @@
       </c>
       <c r="R1038" s="25"/>
       <c r="S1038" s="23" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="T1038" s="24"/>
       <c r="U1038" s="24"/>
@@ -76407,16 +76387,16 @@
         <v>465</v>
       </c>
       <c r="F1039" s="25" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G1039" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1039" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1039" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1039" s="55" t="s">
         <v>29</v>
@@ -76436,7 +76416,7 @@
       </c>
       <c r="R1039" s="25"/>
       <c r="S1039" s="23" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="T1039" s="24"/>
       <c r="U1039" s="24">
@@ -76444,10 +76424,10 @@
       </c>
       <c r="V1039" s="25"/>
       <c r="W1039" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="X1039" s="22" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1040" spans="1:24" ht="15" customHeight="1">
@@ -76472,13 +76452,13 @@
         <v>160</v>
       </c>
       <c r="G1040" s="25" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1040" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1040" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1040" s="1" t="s">
         <v>515</v>
@@ -76500,16 +76480,14 @@
       </c>
       <c r="R1040" s="25"/>
       <c r="S1040" s="23" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="T1040" s="24"/>
       <c r="U1040" s="24"/>
       <c r="V1040" s="25"/>
-      <c r="W1040" s="22" t="s">
-        <v>451</v>
-      </c>
+      <c r="W1040" s="22"/>
       <c r="X1040" s="22" t="s">
-        <v>446</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1041" spans="1:24" ht="15" customHeight="1">
@@ -76534,13 +76512,13 @@
         <v>95</v>
       </c>
       <c r="G1041" s="25" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1041" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1041" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1041" s="55" t="s">
         <v>29</v>
@@ -76560,7 +76538,7 @@
       </c>
       <c r="R1041" s="25"/>
       <c r="S1041" s="23" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="T1041" s="24">
         <v>0.33333333333333331</v>
@@ -76591,16 +76569,16 @@
         <v>457</v>
       </c>
       <c r="F1042" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1042" s="25" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1042" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1042" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1042" s="55" t="s">
         <v>29</v>
@@ -76620,7 +76598,7 @@
       </c>
       <c r="R1042" s="25"/>
       <c r="S1042" s="23" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="T1042" s="24"/>
       <c r="U1042" s="24"/>
@@ -76647,16 +76625,16 @@
         <v>457</v>
       </c>
       <c r="F1043" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1043" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1043" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1043" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1043" s="55" t="s">
         <v>29</v>
@@ -76676,14 +76654,14 @@
       </c>
       <c r="R1043" s="25"/>
       <c r="S1043" s="23" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="T1043" s="24"/>
       <c r="U1043" s="24"/>
       <c r="V1043" s="25"/>
       <c r="W1043" s="22"/>
       <c r="X1043" s="22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1044" spans="1:24" ht="15" customHeight="1">
@@ -76705,16 +76683,16 @@
         <v>465</v>
       </c>
       <c r="F1044" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1044" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1044" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1044" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1044" s="55" t="s">
         <v>29</v>
@@ -76734,7 +76712,7 @@
       </c>
       <c r="R1044" s="25"/>
       <c r="S1044" s="23" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="T1044" s="24"/>
       <c r="U1044" s="24">
@@ -76743,7 +76721,7 @@
       <c r="V1044" s="25"/>
       <c r="W1044" s="22"/>
       <c r="X1044" s="22" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1045" spans="1:24" ht="14.45">
@@ -76765,10 +76743,10 @@
         <v>457</v>
       </c>
       <c r="F1045" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1045" s="25" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1045" s="25" t="s">
         <v>297</v>
@@ -76794,7 +76772,7 @@
       </c>
       <c r="R1045" s="25"/>
       <c r="S1045" s="23" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="T1045" s="24"/>
       <c r="U1045" s="24"/>
@@ -76802,7 +76780,7 @@
       <c r="W1045" s="22"/>
       <c r="X1045" s="22"/>
     </row>
-    <row r="1046" spans="1:24" ht="72">
+    <row r="1046" spans="1:24" ht="76.5">
       <c r="A1046" s="85">
         <f t="shared" si="39"/>
         <v>2025</v>
@@ -76821,16 +76799,16 @@
         <v>468</v>
       </c>
       <c r="F1046" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1046" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1046" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1046" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1046" s="55" t="s">
         <v>449</v>
@@ -76846,13 +76824,13 @@
       </c>
       <c r="R1046" s="25"/>
       <c r="S1046" s="102" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="T1046" s="24"/>
       <c r="U1046" s="24"/>
       <c r="V1046" s="25"/>
       <c r="W1046" s="22" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="X1046" s="22" t="s">
         <v>446</v>
@@ -76880,13 +76858,13 @@
         <v>263</v>
       </c>
       <c r="G1047" s="25" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1047" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1047" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1047" s="55" t="s">
         <v>515</v>
@@ -76904,16 +76882,14 @@
       </c>
       <c r="R1047" s="25"/>
       <c r="S1047" s="23" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="T1047" s="24"/>
       <c r="U1047" s="24"/>
       <c r="V1047" s="25"/>
-      <c r="W1047" s="22" t="s">
-        <v>746</v>
-      </c>
+      <c r="W1047" s="22"/>
       <c r="X1047" s="22" t="s">
-        <v>887</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1048" spans="1:24" ht="15" customHeight="1">
@@ -76932,19 +76908,19 @@
         <v>45735</v>
       </c>
       <c r="E1048" s="25" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F1048" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G1048" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H1048" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1048" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1048" s="55" t="s">
         <v>60</v>
@@ -76964,7 +76940,7 @@
       </c>
       <c r="R1048" s="25"/>
       <c r="S1048" s="23" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="T1048" s="24"/>
       <c r="U1048" s="24"/>
@@ -76976,7 +76952,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="1049" spans="1:24" ht="15" customHeight="1">
+    <row r="1049" spans="1:24" ht="45.75" customHeight="1">
       <c r="A1049" s="85">
         <f t="shared" si="39"/>
         <v>2025</v>
@@ -76992,7 +76968,7 @@
         <v>45735</v>
       </c>
       <c r="E1049" s="25" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F1049" s="25" t="s">
         <v>289</v>
@@ -77004,7 +76980,7 @@
         <v>297</v>
       </c>
       <c r="I1049" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1049" s="55" t="s">
         <v>449</v>
@@ -77020,16 +76996,16 @@
       </c>
       <c r="R1049" s="25"/>
       <c r="S1049" s="102" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="T1049" s="24"/>
       <c r="U1049" s="24"/>
       <c r="V1049" s="25"/>
       <c r="W1049" s="22" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="X1049" s="22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1050" spans="1:24" ht="51.75" customHeight="1">
@@ -77048,19 +77024,19 @@
         <v>45736</v>
       </c>
       <c r="E1050" s="25" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F1050" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1050" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1050" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1050" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1050" s="55" t="s">
         <v>515</v>
@@ -77080,16 +77056,14 @@
       </c>
       <c r="R1050" s="25"/>
       <c r="S1050" s="102" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="T1050" s="24"/>
       <c r="U1050" s="24"/>
       <c r="V1050" s="25"/>
-      <c r="W1050" s="22" t="s">
-        <v>451</v>
-      </c>
+      <c r="W1050" s="22"/>
       <c r="X1050" s="22" t="s">
-        <v>883</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1051" spans="1:24" ht="15" customHeight="1">
@@ -77108,19 +77082,19 @@
         <v>45736</v>
       </c>
       <c r="E1051" s="25" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F1051" s="25" t="s">
         <v>399</v>
       </c>
       <c r="G1051" s="25" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1051" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1051" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1051" s="55" t="s">
         <v>428</v>
@@ -77140,7 +77114,7 @@
       </c>
       <c r="R1051" s="25"/>
       <c r="S1051" s="23" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="T1051" s="24">
         <v>0.33333333333333331</v>
@@ -77148,10 +77122,10 @@
       <c r="U1051" s="24"/>
       <c r="V1051" s="25"/>
       <c r="W1051" s="22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="X1051" s="22" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1052" spans="1:24" ht="15" customHeight="1">
@@ -77176,13 +77150,13 @@
         <v>116</v>
       </c>
       <c r="G1052" s="25" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1052" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1052" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1052" s="55" t="s">
         <v>60</v>
@@ -77198,7 +77172,7 @@
       </c>
       <c r="R1052" s="25"/>
       <c r="S1052" s="23" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="T1052" s="24"/>
       <c r="U1052" s="24"/>
@@ -77222,19 +77196,19 @@
         <v>45737</v>
       </c>
       <c r="E1053" s="25" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F1053" s="25" t="s">
         <v>447</v>
       </c>
       <c r="G1053" s="25" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1053" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1053" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1053" s="55" t="s">
         <v>29</v>
@@ -77250,7 +77224,7 @@
       </c>
       <c r="R1053" s="25"/>
       <c r="S1053" s="23" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="T1053" s="24"/>
       <c r="U1053" s="24"/>
@@ -77274,19 +77248,19 @@
         <v>45737</v>
       </c>
       <c r="E1054" s="25" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F1054" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1054" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1054" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1054" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1054" s="55" t="s">
         <v>29</v>
@@ -77304,7 +77278,7 @@
       </c>
       <c r="R1054" s="25"/>
       <c r="S1054" s="23" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="T1054" s="24"/>
       <c r="U1054" s="24"/>
@@ -77328,19 +77302,19 @@
         <v>45737</v>
       </c>
       <c r="E1055" s="25" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F1055" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G1055" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H1055" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1055" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1055" s="55" t="s">
         <v>29</v>
@@ -77358,18 +77332,18 @@
       </c>
       <c r="R1055" s="25"/>
       <c r="S1055" s="23" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="T1055" s="24"/>
       <c r="U1055" s="24"/>
       <c r="V1055" s="77" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="W1055" s="22" t="s">
         <v>451</v>
       </c>
       <c r="X1055" s="22" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="1056" spans="1:24" ht="29.25" customHeight="1">
@@ -77391,16 +77365,16 @@
         <v>457</v>
       </c>
       <c r="F1056" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1056" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1056" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1056" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1056" s="55" t="s">
         <v>60</v>
@@ -77416,7 +77390,7 @@
       </c>
       <c r="R1056" s="25"/>
       <c r="S1056" s="102" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="T1056" s="24"/>
       <c r="U1056" s="24"/>
@@ -77446,13 +77420,13 @@
         <v>228</v>
       </c>
       <c r="G1057" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1057" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1057" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1057" s="55" t="s">
         <v>515</v>
@@ -77468,13 +77442,15 @@
       </c>
       <c r="R1057" s="25"/>
       <c r="S1057" s="102" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="T1057" s="24"/>
       <c r="U1057" s="24"/>
       <c r="V1057" s="25"/>
       <c r="W1057" s="22"/>
-      <c r="X1057" s="22"/>
+      <c r="X1057" s="22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="1058" spans="1:24" ht="15" customHeight="1">
       <c r="A1058" s="85">
@@ -77495,16 +77471,16 @@
         <v>465</v>
       </c>
       <c r="F1058" s="25" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G1058" s="25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1058" s="25" t="s">
         <v>299</v>
       </c>
       <c r="I1058" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1058" s="55" t="s">
         <v>515</v>
@@ -77520,13 +77496,15 @@
       </c>
       <c r="R1058" s="25"/>
       <c r="S1058" s="23" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="T1058" s="24"/>
       <c r="U1058" s="24"/>
       <c r="V1058" s="25"/>
       <c r="W1058" s="22"/>
-      <c r="X1058" s="22"/>
+      <c r="X1058" s="22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="1059" spans="1:24" ht="31.5" customHeight="1">
       <c r="A1059" s="85">
@@ -77547,16 +77525,16 @@
         <v>457</v>
       </c>
       <c r="F1059" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1059" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1059" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1059" s="42" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J1059" s="55" t="s">
         <v>29</v>
@@ -77572,7 +77550,7 @@
       </c>
       <c r="R1059" s="25"/>
       <c r="S1059" s="23" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="T1059" s="24"/>
       <c r="U1059" s="24"/>
@@ -77580,7 +77558,7 @@
       <c r="W1059" s="22"/>
       <c r="X1059" s="22"/>
     </row>
-    <row r="1060" spans="1:24" ht="15" customHeight="1">
+    <row r="1060" spans="1:24" ht="29.25" customHeight="1">
       <c r="A1060" s="85">
         <f>YEAR(D1060)</f>
         <v>2025</v>
@@ -77596,19 +77574,19 @@
         <v>45740</v>
       </c>
       <c r="E1060" s="25" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F1060" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G1060" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H1060" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I1060" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J1060" s="55" t="s">
         <v>449</v>
@@ -77624,7 +77602,7 @@
       </c>
       <c r="R1060" s="25"/>
       <c r="S1060" s="102" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="T1060" s="24"/>
       <c r="U1060" s="24"/>
@@ -77633,6 +77611,58 @@
         <v>441</v>
       </c>
       <c r="X1060" s="22"/>
+    </row>
+    <row r="1061" spans="1:24" ht="15" customHeight="1">
+      <c r="A1061" s="85">
+        <f>YEAR(D1061)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1061" s="25">
+        <f>MONTH(D1061)</f>
+        <v>3</v>
+      </c>
+      <c r="C1061" s="42">
+        <v>1076</v>
+      </c>
+      <c r="D1061" s="56">
+        <v>45740</v>
+      </c>
+      <c r="E1061" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1061" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="G1061" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="H1061" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1061" s="42" t="s">
+        <v>806</v>
+      </c>
+      <c r="J1061" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1061" s="56"/>
+      <c r="L1061" s="25"/>
+      <c r="M1061" s="56"/>
+      <c r="N1061" s="56"/>
+      <c r="O1061" s="25"/>
+      <c r="P1061" s="25"/>
+      <c r="Q1061" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1061" s="25"/>
+      <c r="S1061" s="23" t="s">
+        <v>901</v>
+      </c>
+      <c r="T1061" s="24"/>
+      <c r="U1061" s="24"/>
+      <c r="V1061" s="25"/>
+      <c r="W1061" s="22"/>
+      <c r="X1061" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
@@ -77640,7 +77670,7 @@
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1060">
+  <conditionalFormatting sqref="J2:J1061">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -77881,12 +77911,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -77895,14 +77919,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geominasbrasil-my.sharepoint.com/personal/romulo_miranda_geominasgeo_com_br/Documents/MANUTENÇÃO E FABRICAÇÃO -PCM/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="14_{52C7674A-824E-4440-BCBE-E94F6E2BD932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F34DE5-4DA9-4B88-8BED-0199AD965E35}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="14_{52C7674A-824E-4440-BCBE-E94F6E2BD932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50539A3A-EA4C-4809-BED7-AB3E686B5F99}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADFDA17F-3ACE-4AFE-905B-DEBF99B0A8C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16581" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16586" uniqueCount="903">
   <si>
     <t>ANO</t>
   </si>
@@ -2946,6 +2946,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fabricação de suporte para instalação de humidificador na câmara úmida. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ampliação da cobertura do telhado da sala úmida </t>
   </si>
 </sst>
 </file>
@@ -4263,8 +4266,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1061" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
-  <autoFilter ref="A1:X1061" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}" name="Tabela1" displayName="Tabela1" ref="A1:X1062" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="A1:X1062" xr:uid="{89E928CC-CE54-49E8-8E4B-8F5C763B71AA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X897">
     <sortCondition ref="C1:C897"/>
   </sortState>
@@ -4601,10 +4604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C074B38-29E2-473A-8ACC-21F3C737116C}">
-  <dimension ref="A1:Z1061"/>
+  <dimension ref="A1:Z1062"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1040" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X1050" sqref="X1050:X1058"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J1050" sqref="J1050"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -60816,7 +60819,7 @@
       <c r="I773" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="J773" s="1" t="s">
+      <c r="J773" s="55" t="s">
         <v>515</v>
       </c>
       <c r="K773" s="44">
@@ -68558,7 +68561,7 @@
       <c r="I905" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="J905" s="1" t="s">
+      <c r="J905" s="55" t="s">
         <v>515</v>
       </c>
       <c r="K905" s="47">
@@ -69981,12 +69984,8 @@
       <c r="T928" s="7"/>
       <c r="U928" s="3"/>
       <c r="V928" s="3"/>
-      <c r="W928" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="X928" s="6" t="s">
-        <v>627</v>
-      </c>
+      <c r="W928" s="6"/>
+      <c r="X928" s="6"/>
     </row>
     <row r="929" spans="1:24" ht="15" customHeight="1">
       <c r="A929" s="84">
@@ -71426,7 +71425,7 @@
       <c r="I953" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="J953" s="1" t="s">
+      <c r="J953" s="55" t="s">
         <v>515</v>
       </c>
       <c r="K953" s="56"/>
@@ -71723,7 +71722,7 @@
         <v>35</v>
       </c>
       <c r="J958" s="55" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K958" s="56">
         <v>45731</v>
@@ -73792,7 +73791,7 @@
       <c r="I994" s="42" t="s">
         <v>806</v>
       </c>
-      <c r="J994" s="1" t="s">
+      <c r="J994" s="55" t="s">
         <v>515</v>
       </c>
       <c r="K994" s="56"/>
@@ -74139,7 +74138,7 @@
         <v>806</v>
       </c>
       <c r="J1000" s="55" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K1000" s="56"/>
       <c r="L1000" s="25"/>
@@ -74438,7 +74437,7 @@
       <c r="I1005" s="42" t="s">
         <v>806</v>
       </c>
-      <c r="J1005" s="1" t="s">
+      <c r="J1005" s="55" t="s">
         <v>515</v>
       </c>
       <c r="K1005" s="56">
@@ -74847,7 +74846,7 @@
       <c r="I1012" s="42" t="s">
         <v>806</v>
       </c>
-      <c r="J1012" s="1" t="s">
+      <c r="J1012" s="55" t="s">
         <v>515</v>
       </c>
       <c r="K1012" s="56"/>
@@ -75021,7 +75020,7 @@
       <c r="I1015" s="42" t="s">
         <v>806</v>
       </c>
-      <c r="J1015" s="1" t="s">
+      <c r="J1015" s="55" t="s">
         <v>515</v>
       </c>
       <c r="K1015" s="56">
@@ -75199,7 +75198,7 @@
       <c r="I1018" s="42" t="s">
         <v>806</v>
       </c>
-      <c r="J1018" s="1" t="s">
+      <c r="J1018" s="55" t="s">
         <v>515</v>
       </c>
       <c r="K1018" s="56"/>
@@ -75376,7 +75375,7 @@
       <c r="I1021" s="42" t="s">
         <v>806</v>
       </c>
-      <c r="J1021" s="1" t="s">
+      <c r="J1021" s="55" t="s">
         <v>515</v>
       </c>
       <c r="K1021" s="56">
@@ -75837,7 +75836,7 @@
         <v>806</v>
       </c>
       <c r="J1029" s="55" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K1029" s="56"/>
       <c r="L1029" s="25"/>
@@ -76460,7 +76459,7 @@
       <c r="I1040" s="42" t="s">
         <v>806</v>
       </c>
-      <c r="J1040" s="1" t="s">
+      <c r="J1040" s="55" t="s">
         <v>515</v>
       </c>
       <c r="K1040" s="56">
@@ -76811,7 +76810,7 @@
         <v>806</v>
       </c>
       <c r="J1046" s="55" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="K1046" s="56"/>
       <c r="L1046" s="25"/>
@@ -77664,13 +77663,65 @@
       <c r="W1061" s="22"/>
       <c r="X1061" s="22"/>
     </row>
+    <row r="1062" spans="1:24" ht="15" customHeight="1">
+      <c r="A1062" s="85">
+        <f>YEAR(D1062)</f>
+        <v>2025</v>
+      </c>
+      <c r="B1062" s="25">
+        <f>MONTH(D1062)</f>
+        <v>3</v>
+      </c>
+      <c r="C1062" s="42">
+        <v>1077</v>
+      </c>
+      <c r="D1062" s="56">
+        <v>45740</v>
+      </c>
+      <c r="E1062" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1062" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="G1062" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1062" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1062" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="J1062" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1062" s="56"/>
+      <c r="L1062" s="25"/>
+      <c r="M1062" s="56"/>
+      <c r="N1062" s="56"/>
+      <c r="O1062" s="25"/>
+      <c r="P1062" s="25"/>
+      <c r="Q1062" s="25">
+        <v>0</v>
+      </c>
+      <c r="R1062" s="25"/>
+      <c r="S1062" s="23" t="s">
+        <v>902</v>
+      </c>
+      <c r="T1062" s="24"/>
+      <c r="U1062" s="24"/>
+      <c r="V1062" s="25"/>
+      <c r="W1062" s="22"/>
+      <c r="X1062" s="22"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K858">
     <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="CANCELADA">
       <formula>NOT(ISERROR(SEARCH("CANCELADA",K858)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1061">
+  <conditionalFormatting sqref="J2:J1062">
     <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="FINALIZADA">
       <formula>NOT(ISERROR(SEARCH("FINALIZADA",J2)))</formula>
     </cfRule>
@@ -77911,6 +77962,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -77919,20 +77976,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC110EB-186E-4E9C-8164-BA5396BCD5E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83056E56-88F7-4FAF-84FD-1446BF46953C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1053A66C-65AC-4B7B-B17E-7AED8082EEDB}"/>
 </file>